--- a/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
+++ b/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eekev\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eekev\Desktop\Repositories\COE1186\TrainSystem\src\Modules\TrackModel\Track Layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="16170" windowHeight="7965"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="16170" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="105">
   <si>
     <t>Line</t>
   </si>
@@ -340,6 +340,9 @@
   </si>
   <si>
     <t>TAIL.27.28</t>
+  </si>
+  <si>
+    <t>Beacon</t>
   </si>
 </sst>
 </file>
@@ -772,11 +775,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -789,12 +792,12 @@
     <col min="9" max="9" width="11.28515625" style="1" customWidth="1"/>
     <col min="10" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="21.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -835,10 +838,13 @@
         <v>39</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -881,8 +887,11 @@
       <c r="N2" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -922,11 +931,14 @@
       <c r="M3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -966,11 +978,14 @@
       <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -1010,11 +1025,14 @@
       <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1054,11 +1072,14 @@
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1098,11 +1119,14 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1142,11 +1166,14 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1186,11 +1213,14 @@
       <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1230,11 +1260,14 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1274,11 +1307,14 @@
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1318,11 +1354,14 @@
       <c r="M12" s="2">
         <v>0</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1362,11 +1401,14 @@
       <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -1406,11 +1448,14 @@
       <c r="M14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1450,11 +1495,14 @@
       <c r="M15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -1494,11 +1542,14 @@
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1538,11 +1589,14 @@
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1582,11 +1636,14 @@
       <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1626,11 +1683,14 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -1670,11 +1730,14 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -1714,11 +1777,14 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
@@ -1758,11 +1824,14 @@
       <c r="M22" s="2">
         <v>0</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -1802,11 +1871,14 @@
       <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
@@ -1846,11 +1918,14 @@
       <c r="M24" s="2">
         <v>0</v>
       </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -1890,11 +1965,14 @@
       <c r="M25" s="2">
         <v>0</v>
       </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -1934,11 +2012,14 @@
       <c r="M26" s="2">
         <v>0</v>
       </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -1978,11 +2059,14 @@
       <c r="M27" s="2">
         <v>0</v>
       </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -2022,11 +2106,14 @@
       <c r="M28" s="2">
         <v>0</v>
       </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -2066,11 +2153,14 @@
       <c r="M29" s="2">
         <v>0</v>
       </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -2110,11 +2200,14 @@
       <c r="M30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
@@ -2154,11 +2247,14 @@
       <c r="M31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -2198,11 +2294,14 @@
       <c r="M32" s="2">
         <v>0</v>
       </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
@@ -2242,11 +2341,14 @@
       <c r="M33" s="2">
         <v>0</v>
       </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
@@ -2286,11 +2388,14 @@
       <c r="M34" s="2">
         <v>0</v>
       </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>29</v>
       </c>
@@ -2330,11 +2435,14 @@
       <c r="M35" s="2">
         <v>0</v>
       </c>
-      <c r="N35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
@@ -2374,11 +2482,14 @@
       <c r="M36" s="2">
         <v>0</v>
       </c>
-      <c r="N36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
@@ -2418,11 +2529,14 @@
       <c r="M37" s="2">
         <v>0</v>
       </c>
-      <c r="N37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>29</v>
       </c>
@@ -2462,11 +2576,14 @@
       <c r="M38" s="2">
         <v>0</v>
       </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>29</v>
       </c>
@@ -2506,11 +2623,14 @@
       <c r="M39" s="2">
         <v>0</v>
       </c>
-      <c r="N39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>29</v>
       </c>
@@ -2550,11 +2670,14 @@
       <c r="M40" s="2">
         <v>0</v>
       </c>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>29</v>
       </c>
@@ -2594,11 +2717,14 @@
       <c r="M41" s="2">
         <v>0</v>
       </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>29</v>
       </c>
@@ -2638,11 +2764,14 @@
       <c r="M42" s="2">
         <v>0</v>
       </c>
-      <c r="N42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>29</v>
       </c>
@@ -2682,11 +2811,14 @@
       <c r="M43" s="2">
         <v>0</v>
       </c>
-      <c r="N43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>29</v>
       </c>
@@ -2726,11 +2858,14 @@
       <c r="M44" s="2">
         <v>0</v>
       </c>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>29</v>
       </c>
@@ -2770,11 +2905,14 @@
       <c r="M45" s="2">
         <v>0</v>
       </c>
-      <c r="N45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>29</v>
       </c>
@@ -2814,11 +2952,14 @@
       <c r="M46" s="2">
         <v>0</v>
       </c>
-      <c r="N46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>29</v>
       </c>
@@ -2858,11 +2999,14 @@
       <c r="M47" s="2">
         <v>0</v>
       </c>
-      <c r="N47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>29</v>
       </c>
@@ -2902,11 +3046,14 @@
       <c r="M48" s="2">
         <v>0</v>
       </c>
-      <c r="N48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>29</v>
       </c>
@@ -2946,11 +3093,14 @@
       <c r="M49" s="2">
         <v>0</v>
       </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>29</v>
       </c>
@@ -2990,11 +3140,14 @@
       <c r="M50" s="2">
         <v>0</v>
       </c>
-      <c r="N50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -3034,11 +3187,14 @@
       <c r="M51" s="2">
         <v>0</v>
       </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -3078,11 +3234,14 @@
       <c r="M52" s="2">
         <v>0</v>
       </c>
-      <c r="N52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>29</v>
       </c>
@@ -3122,11 +3281,14 @@
       <c r="M53" s="2">
         <v>0</v>
       </c>
-      <c r="N53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>29</v>
       </c>
@@ -3166,11 +3328,14 @@
       <c r="M54" s="2">
         <v>0</v>
       </c>
-      <c r="N54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>29</v>
       </c>
@@ -3210,11 +3375,14 @@
       <c r="M55" s="2">
         <v>0</v>
       </c>
-      <c r="N55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>29</v>
       </c>
@@ -3254,11 +3422,14 @@
       <c r="M56" s="2">
         <v>0</v>
       </c>
-      <c r="N56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>29</v>
       </c>
@@ -3298,11 +3469,14 @@
       <c r="M57" s="2">
         <v>0</v>
       </c>
-      <c r="N57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>29</v>
       </c>
@@ -3342,11 +3516,14 @@
       <c r="M58" s="2">
         <v>0</v>
       </c>
-      <c r="N58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>29</v>
       </c>
@@ -3386,11 +3563,14 @@
       <c r="M59" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>29</v>
       </c>
@@ -3430,11 +3610,14 @@
       <c r="M60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>29</v>
       </c>
@@ -3474,11 +3657,14 @@
       <c r="M61" s="2">
         <v>0</v>
       </c>
-      <c r="N61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>29</v>
       </c>
@@ -3518,11 +3704,14 @@
       <c r="M62" s="2">
         <v>0</v>
       </c>
-      <c r="N62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>29</v>
       </c>
@@ -3562,11 +3751,14 @@
       <c r="M63" s="2">
         <v>0</v>
       </c>
-      <c r="N63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>29</v>
       </c>
@@ -3606,11 +3798,14 @@
       <c r="M64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>29</v>
       </c>
@@ -3650,11 +3845,14 @@
       <c r="M65" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>29</v>
       </c>
@@ -3694,11 +3892,14 @@
       <c r="M66" s="2">
         <v>0</v>
       </c>
-      <c r="N66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>29</v>
       </c>
@@ -3738,11 +3939,14 @@
       <c r="M67" s="2">
         <v>0</v>
       </c>
-      <c r="N67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>29</v>
       </c>
@@ -3782,11 +3986,14 @@
       <c r="M68" s="2">
         <v>0</v>
       </c>
-      <c r="N68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>29</v>
       </c>
@@ -3826,11 +4033,14 @@
       <c r="M69" s="2">
         <v>0</v>
       </c>
-      <c r="N69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>29</v>
       </c>
@@ -3870,11 +4080,14 @@
       <c r="M70" s="2">
         <v>0</v>
       </c>
-      <c r="N70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>29</v>
       </c>
@@ -3914,11 +4127,14 @@
       <c r="M71" s="2">
         <v>0</v>
       </c>
-      <c r="N71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>29</v>
       </c>
@@ -3958,11 +4174,14 @@
       <c r="M72" s="2">
         <v>0</v>
       </c>
-      <c r="N72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="2">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>29</v>
       </c>
@@ -4002,11 +4221,14 @@
       <c r="M73" s="2">
         <v>0</v>
       </c>
-      <c r="N73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N73" s="2">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>29</v>
       </c>
@@ -4046,11 +4268,14 @@
       <c r="M74" s="2">
         <v>0</v>
       </c>
-      <c r="N74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N74" s="2">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>29</v>
       </c>
@@ -4090,11 +4315,14 @@
       <c r="M75" s="2">
         <v>0</v>
       </c>
-      <c r="N75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N75" s="2">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>29</v>
       </c>
@@ -4134,11 +4362,14 @@
       <c r="M76" s="2">
         <v>0</v>
       </c>
-      <c r="N76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N76" s="2">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>29</v>
       </c>
@@ -4178,11 +4409,14 @@
       <c r="M77" s="2">
         <v>0</v>
       </c>
-      <c r="N77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N77" s="2">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>29</v>
       </c>
@@ -4222,11 +4456,14 @@
       <c r="M78" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N78" s="2">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>29</v>
       </c>
@@ -4266,11 +4503,14 @@
       <c r="M79" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>29</v>
       </c>
@@ -4310,11 +4550,14 @@
       <c r="M80" s="2">
         <v>0</v>
       </c>
-      <c r="N80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N80" s="2">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
@@ -4354,11 +4597,14 @@
       <c r="M81" s="2">
         <v>0</v>
       </c>
-      <c r="N81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="2">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>29</v>
       </c>
@@ -4398,11 +4644,14 @@
       <c r="M82" s="2">
         <v>0</v>
       </c>
-      <c r="N82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>29</v>
       </c>
@@ -4442,11 +4691,14 @@
       <c r="M83" s="2">
         <v>0</v>
       </c>
-      <c r="N83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>29</v>
       </c>
@@ -4486,11 +4738,14 @@
       <c r="M84" s="2">
         <v>0</v>
       </c>
-      <c r="N84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N84" s="2">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>29</v>
       </c>
@@ -4530,11 +4785,14 @@
       <c r="M85" s="2">
         <v>0</v>
       </c>
-      <c r="N85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N85" s="2">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>29</v>
       </c>
@@ -4574,11 +4832,14 @@
       <c r="M86" s="2">
         <v>0</v>
       </c>
-      <c r="N86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N86" s="2">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>29</v>
       </c>
@@ -4618,11 +4879,14 @@
       <c r="M87" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>29</v>
       </c>
@@ -4662,11 +4926,14 @@
       <c r="M88" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>29</v>
       </c>
@@ -4706,11 +4973,14 @@
       <c r="M89" s="2">
         <v>0</v>
       </c>
-      <c r="N89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>29</v>
       </c>
@@ -4750,11 +5020,14 @@
       <c r="M90" s="2">
         <v>0</v>
       </c>
-      <c r="N90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N90" s="2">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>29</v>
       </c>
@@ -4794,11 +5067,14 @@
       <c r="M91" s="2">
         <v>0</v>
       </c>
-      <c r="N91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N91" s="2">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>29</v>
       </c>
@@ -4838,11 +5114,14 @@
       <c r="M92" s="2">
         <v>0</v>
       </c>
-      <c r="N92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N92" s="2">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>29</v>
       </c>
@@ -4882,11 +5161,14 @@
       <c r="M93" s="2">
         <v>0</v>
       </c>
-      <c r="N93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>29</v>
       </c>
@@ -4926,11 +5208,14 @@
       <c r="M94" s="2">
         <v>0</v>
       </c>
-      <c r="N94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>29</v>
       </c>
@@ -4970,11 +5255,14 @@
       <c r="M95" s="2">
         <v>0</v>
       </c>
-      <c r="N95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N95" s="2">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>29</v>
       </c>
@@ -5014,11 +5302,14 @@
       <c r="M96" s="2">
         <v>0</v>
       </c>
-      <c r="N96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N96" s="2">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>29</v>
       </c>
@@ -5058,11 +5349,14 @@
       <c r="M97" s="2">
         <v>0</v>
       </c>
-      <c r="N97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N97" s="2">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -5102,11 +5396,14 @@
       <c r="M98" s="2">
         <v>0</v>
       </c>
-      <c r="N98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N98" s="2">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>29</v>
       </c>
@@ -5146,11 +5443,14 @@
       <c r="M99" s="2">
         <v>0</v>
       </c>
-      <c r="N99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N99" s="2">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>29</v>
       </c>
@@ -5190,11 +5490,14 @@
       <c r="M100" s="2">
         <v>0</v>
       </c>
-      <c r="N100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N100" s="2">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>29</v>
       </c>
@@ -5234,11 +5537,14 @@
       <c r="M101" s="2">
         <v>0</v>
       </c>
-      <c r="N101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N101" s="2">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>29</v>
       </c>
@@ -5278,11 +5584,14 @@
       <c r="M102" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N102" s="2">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>29</v>
       </c>
@@ -5322,11 +5631,14 @@
       <c r="M103" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N103" s="2">
+        <v>0</v>
+      </c>
+      <c r="O103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>29</v>
       </c>
@@ -5366,11 +5678,14 @@
       <c r="M104" s="2">
         <v>0</v>
       </c>
-      <c r="N104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N104" s="2">
+        <v>0</v>
+      </c>
+      <c r="O104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>29</v>
       </c>
@@ -5410,11 +5725,14 @@
       <c r="M105" s="2">
         <v>0</v>
       </c>
-      <c r="N105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N105" s="2">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>29</v>
       </c>
@@ -5454,11 +5772,14 @@
       <c r="M106" s="2">
         <v>0</v>
       </c>
-      <c r="N106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N106" s="2">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>29</v>
       </c>
@@ -5498,11 +5819,14 @@
       <c r="M107" s="2">
         <v>0</v>
       </c>
-      <c r="N107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N107" s="2">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>29</v>
       </c>
@@ -5542,11 +5866,14 @@
       <c r="M108" s="2">
         <v>0</v>
       </c>
-      <c r="N108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N108" s="2">
+        <v>0</v>
+      </c>
+      <c r="O108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>29</v>
       </c>
@@ -5586,11 +5913,14 @@
       <c r="M109" s="2">
         <v>0</v>
       </c>
-      <c r="N109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N109" s="2">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>29</v>
       </c>
@@ -5630,11 +5960,14 @@
       <c r="M110" s="2">
         <v>0</v>
       </c>
-      <c r="N110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N110" s="2">
+        <v>0</v>
+      </c>
+      <c r="O110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>29</v>
       </c>
@@ -5674,11 +6007,14 @@
       <c r="M111" s="2">
         <v>0</v>
       </c>
-      <c r="N111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N111" s="2">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>29</v>
       </c>
@@ -5718,11 +6054,14 @@
       <c r="M112" s="2">
         <v>0</v>
       </c>
-      <c r="N112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>29</v>
       </c>
@@ -5762,11 +6101,14 @@
       <c r="M113" s="2">
         <v>0</v>
       </c>
-      <c r="N113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N113" s="2">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>29</v>
       </c>
@@ -5806,11 +6148,14 @@
       <c r="M114" s="2">
         <v>0</v>
       </c>
-      <c r="N114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N114" s="2">
+        <v>0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>29</v>
       </c>
@@ -5850,11 +6195,14 @@
       <c r="M115" s="2">
         <v>0</v>
       </c>
-      <c r="N115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N115" s="2">
+        <v>0</v>
+      </c>
+      <c r="O115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>29</v>
       </c>
@@ -5894,11 +6242,14 @@
       <c r="M116" s="2">
         <v>0</v>
       </c>
-      <c r="N116" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N116" s="2">
+        <v>0</v>
+      </c>
+      <c r="O116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>29</v>
       </c>
@@ -5938,11 +6289,14 @@
       <c r="M117" s="2">
         <v>0</v>
       </c>
-      <c r="N117" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N117" s="2">
+        <v>0</v>
+      </c>
+      <c r="O117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>29</v>
       </c>
@@ -5982,11 +6336,14 @@
       <c r="M118" s="2">
         <v>0</v>
       </c>
-      <c r="N118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N118" s="2">
+        <v>0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>29</v>
       </c>
@@ -6026,11 +6383,14 @@
       <c r="M119" s="2">
         <v>0</v>
       </c>
-      <c r="N119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N119" s="2">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>29</v>
       </c>
@@ -6070,11 +6430,14 @@
       <c r="M120" s="2">
         <v>0</v>
       </c>
-      <c r="N120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N120" s="2">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>29</v>
       </c>
@@ -6114,11 +6477,14 @@
       <c r="M121" s="2">
         <v>0</v>
       </c>
-      <c r="N121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N121" s="2">
+        <v>0</v>
+      </c>
+      <c r="O121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>29</v>
       </c>
@@ -6158,11 +6524,14 @@
       <c r="M122" s="2">
         <v>0</v>
       </c>
-      <c r="N122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N122" s="2">
+        <v>0</v>
+      </c>
+      <c r="O122" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>29</v>
       </c>
@@ -6202,11 +6571,14 @@
       <c r="M123" s="2">
         <v>0</v>
       </c>
-      <c r="N123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N123" s="2">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>29</v>
       </c>
@@ -6246,11 +6618,14 @@
       <c r="M124" s="2">
         <v>0</v>
       </c>
-      <c r="N124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N124" s="2">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>29</v>
       </c>
@@ -6290,11 +6665,14 @@
       <c r="M125" s="2">
         <v>0</v>
       </c>
-      <c r="N125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N125" s="2">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>29</v>
       </c>
@@ -6334,11 +6712,14 @@
       <c r="M126" s="2">
         <v>0</v>
       </c>
-      <c r="N126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N126" s="2">
+        <v>0</v>
+      </c>
+      <c r="O126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>29</v>
       </c>
@@ -6378,11 +6759,14 @@
       <c r="M127" s="2">
         <v>0</v>
       </c>
-      <c r="N127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N127" s="2">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>29</v>
       </c>
@@ -6422,11 +6806,14 @@
       <c r="M128" s="2">
         <v>0</v>
       </c>
-      <c r="N128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N128" s="2">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>29</v>
       </c>
@@ -6466,11 +6853,14 @@
       <c r="M129" s="2">
         <v>0</v>
       </c>
-      <c r="N129" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N129" s="2">
+        <v>0</v>
+      </c>
+      <c r="O129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>29</v>
       </c>
@@ -6510,11 +6900,14 @@
       <c r="M130" s="2">
         <v>0</v>
       </c>
-      <c r="N130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N130" s="2">
+        <v>0</v>
+      </c>
+      <c r="O130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>29</v>
       </c>
@@ -6554,11 +6947,14 @@
       <c r="M131" s="2">
         <v>0</v>
       </c>
-      <c r="N131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N131" s="2">
+        <v>0</v>
+      </c>
+      <c r="O131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>29</v>
       </c>
@@ -6598,11 +6994,14 @@
       <c r="M132" s="2">
         <v>0</v>
       </c>
-      <c r="N132" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N132" s="2">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>29</v>
       </c>
@@ -6642,11 +7041,14 @@
       <c r="M133" s="2">
         <v>0</v>
       </c>
-      <c r="N133" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N133" s="2">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>29</v>
       </c>
@@ -6686,11 +7088,14 @@
       <c r="M134" s="2">
         <v>0</v>
       </c>
-      <c r="N134" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N134" s="2">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>29</v>
       </c>
@@ -6730,11 +7135,14 @@
       <c r="M135" s="2">
         <v>0</v>
       </c>
-      <c r="N135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N135" s="2">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>29</v>
       </c>
@@ -6774,11 +7182,14 @@
       <c r="M136" s="2">
         <v>0</v>
       </c>
-      <c r="N136" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N136" s="2">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>29</v>
       </c>
@@ -6818,11 +7229,14 @@
       <c r="M137" s="2">
         <v>0</v>
       </c>
-      <c r="N137" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N137" s="2">
+        <v>0</v>
+      </c>
+      <c r="O137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>29</v>
       </c>
@@ -6862,11 +7276,14 @@
       <c r="M138" s="2">
         <v>0</v>
       </c>
-      <c r="N138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N138" s="2">
+        <v>0</v>
+      </c>
+      <c r="O138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>29</v>
       </c>
@@ -6906,11 +7323,14 @@
       <c r="M139" s="2">
         <v>0</v>
       </c>
-      <c r="N139" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N139" s="2">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>29</v>
       </c>
@@ -6950,11 +7370,14 @@
       <c r="M140" s="2">
         <v>0</v>
       </c>
-      <c r="N140" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N140" s="2">
+        <v>0</v>
+      </c>
+      <c r="O140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>29</v>
       </c>
@@ -6994,11 +7417,14 @@
       <c r="M141" s="2">
         <v>0</v>
       </c>
-      <c r="N141" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N141" s="2">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>29</v>
       </c>
@@ -7038,11 +7464,14 @@
       <c r="M142" s="2">
         <v>0</v>
       </c>
-      <c r="N142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N142" s="2">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>29</v>
       </c>
@@ -7082,11 +7511,14 @@
       <c r="M143" s="2">
         <v>0</v>
       </c>
-      <c r="N143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N143" s="2">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>29</v>
       </c>
@@ -7126,11 +7558,14 @@
       <c r="M144" s="2">
         <v>0</v>
       </c>
-      <c r="N144" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N144" s="2">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>29</v>
       </c>
@@ -7170,11 +7605,14 @@
       <c r="M145" s="2">
         <v>0</v>
       </c>
-      <c r="N145" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N145" s="2">
+        <v>0</v>
+      </c>
+      <c r="O145" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>29</v>
       </c>
@@ -7214,11 +7652,14 @@
       <c r="M146" s="2">
         <v>0</v>
       </c>
-      <c r="N146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N146" s="2">
+        <v>0</v>
+      </c>
+      <c r="O146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>29</v>
       </c>
@@ -7258,11 +7699,14 @@
       <c r="M147" s="2">
         <v>0</v>
       </c>
-      <c r="N147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N147" s="2">
+        <v>0</v>
+      </c>
+      <c r="O147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>29</v>
       </c>
@@ -7302,11 +7746,14 @@
       <c r="M148" s="2">
         <v>0</v>
       </c>
-      <c r="N148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N148" s="2">
+        <v>0</v>
+      </c>
+      <c r="O148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>29</v>
       </c>
@@ -7346,11 +7793,14 @@
       <c r="M149" s="2">
         <v>0</v>
       </c>
-      <c r="N149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N149" s="2">
+        <v>0</v>
+      </c>
+      <c r="O149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>29</v>
       </c>
@@ -7390,11 +7840,14 @@
       <c r="M150" s="2">
         <v>0</v>
       </c>
-      <c r="N150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N150" s="2">
+        <v>0</v>
+      </c>
+      <c r="O150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>29</v>
       </c>
@@ -7434,11 +7887,14 @@
       <c r="M151" s="2">
         <v>0</v>
       </c>
-      <c r="N151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N151" s="2">
+        <v>0</v>
+      </c>
+      <c r="O151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>29</v>
       </c>
@@ -7478,11 +7934,14 @@
       <c r="M152" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N152" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N152" s="2">
+        <v>0</v>
+      </c>
+      <c r="O152" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>29</v>
       </c>
@@ -7522,11 +7981,14 @@
       <c r="M153" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N153" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N153" s="2">
+        <v>0</v>
+      </c>
+      <c r="O153" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>29</v>
       </c>
@@ -7566,7 +8028,10 @@
       <c r="M154" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N154" s="1">
+      <c r="N154" s="2">
+        <v>0</v>
+      </c>
+      <c r="O154" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7578,11 +8043,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N154"/>
+  <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:N79"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7592,11 +8057,11 @@
     <col min="8" max="8" width="13.140625" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" customWidth="1"/>
+    <col min="13" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -7637,10 +8102,13 @@
         <v>39</v>
       </c>
       <c r="N1" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="O1" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -7683,8 +8151,11 @@
       <c r="N2" s="7">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -7727,8 +8198,11 @@
       <c r="N3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
@@ -7771,8 +8245,11 @@
       <c r="N4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
@@ -7815,8 +8292,11 @@
       <c r="N5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -7859,8 +8339,11 @@
       <c r="N6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>59</v>
       </c>
@@ -7903,8 +8386,11 @@
       <c r="N7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
@@ -7947,8 +8433,11 @@
       <c r="N8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
@@ -7991,8 +8480,11 @@
       <c r="N9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
@@ -8035,8 +8527,11 @@
       <c r="N10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
@@ -8079,8 +8574,11 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
@@ -8123,8 +8621,11 @@
       <c r="N12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
@@ -8167,8 +8668,11 @@
       <c r="N13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -8211,8 +8715,11 @@
       <c r="N14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -8255,8 +8762,11 @@
       <c r="N15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -8299,8 +8809,11 @@
       <c r="N16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
@@ -8343,8 +8856,11 @@
       <c r="N17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>59</v>
       </c>
@@ -8387,8 +8903,11 @@
       <c r="N18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
@@ -8431,8 +8950,11 @@
       <c r="N19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -8475,8 +8997,11 @@
       <c r="N20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
@@ -8519,8 +9044,11 @@
       <c r="N21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
@@ -8563,8 +9091,11 @@
       <c r="N22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -8607,8 +9138,11 @@
       <c r="N23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
@@ -8651,8 +9185,11 @@
       <c r="N24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -8695,8 +9232,11 @@
       <c r="N25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
@@ -8737,10 +9277,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -8781,10 +9324,13 @@
         <v>0</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
@@ -8825,10 +9371,13 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -8869,10 +9418,13 @@
         <v>92</v>
       </c>
       <c r="N29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>59</v>
       </c>
@@ -8913,10 +9465,13 @@
         <v>93</v>
       </c>
       <c r="N30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>59</v>
       </c>
@@ -8957,10 +9512,13 @@
         <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>59</v>
       </c>
@@ -9001,10 +9559,13 @@
         <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>59</v>
       </c>
@@ -9045,10 +9606,13 @@
         <v>89</v>
       </c>
       <c r="N33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>59</v>
       </c>
@@ -9089,10 +9653,13 @@
         <v>94</v>
       </c>
       <c r="N34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>59</v>
       </c>
@@ -9133,10 +9700,13 @@
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>59</v>
       </c>
@@ -9177,10 +9747,13 @@
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>59</v>
       </c>
@@ -9221,10 +9794,13 @@
         <v>0</v>
       </c>
       <c r="N37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
@@ -9265,10 +9841,13 @@
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>59</v>
       </c>
@@ -9309,10 +9888,13 @@
         <v>0</v>
       </c>
       <c r="N39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>59</v>
       </c>
@@ -9353,10 +9935,13 @@
         <v>90</v>
       </c>
       <c r="N40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>59</v>
       </c>
@@ -9397,10 +9982,13 @@
         <v>91</v>
       </c>
       <c r="N41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -9441,10 +10029,13 @@
         <v>0</v>
       </c>
       <c r="N42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>59</v>
       </c>
@@ -9485,10 +10076,13 @@
         <v>0</v>
       </c>
       <c r="N43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>59</v>
       </c>
@@ -9529,10 +10123,13 @@
         <v>95</v>
       </c>
       <c r="N44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>59</v>
       </c>
@@ -9573,10 +10170,13 @@
         <v>96</v>
       </c>
       <c r="N45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>59</v>
       </c>
@@ -9617,10 +10217,13 @@
         <v>0</v>
       </c>
       <c r="N46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>59</v>
       </c>
@@ -9661,10 +10264,13 @@
         <v>0</v>
       </c>
       <c r="N47" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>59</v>
       </c>
@@ -9705,10 +10311,13 @@
         <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>59</v>
       </c>
@@ -9751,8 +10360,11 @@
       <c r="N49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>59</v>
       </c>
@@ -9795,8 +10407,11 @@
       <c r="N50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>59</v>
       </c>
@@ -9839,8 +10454,11 @@
       <c r="N51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>59</v>
       </c>
@@ -9883,8 +10501,11 @@
       <c r="N52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>59</v>
       </c>
@@ -9927,8 +10548,11 @@
       <c r="N53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>59</v>
       </c>
@@ -9971,8 +10595,11 @@
       <c r="N54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>59</v>
       </c>
@@ -10015,8 +10642,11 @@
       <c r="N55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>59</v>
       </c>
@@ -10059,8 +10689,11 @@
       <c r="N56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>59</v>
       </c>
@@ -10103,8 +10736,11 @@
       <c r="N57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>59</v>
       </c>
@@ -10147,8 +10783,11 @@
       <c r="N58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
@@ -10191,8 +10830,11 @@
       <c r="N59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>59</v>
       </c>
@@ -10235,8 +10877,11 @@
       <c r="N60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -10279,8 +10924,11 @@
       <c r="N61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>59</v>
       </c>
@@ -10323,8 +10971,11 @@
       <c r="N62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>59</v>
       </c>
@@ -10367,8 +11018,11 @@
       <c r="N63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>59</v>
       </c>
@@ -10411,8 +11065,11 @@
       <c r="N64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -10455,8 +11112,11 @@
       <c r="N65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>59</v>
       </c>
@@ -10499,8 +11159,11 @@
       <c r="N66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>59</v>
       </c>
@@ -10543,8 +11206,11 @@
       <c r="N67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>59</v>
       </c>
@@ -10587,8 +11253,11 @@
       <c r="N68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>59</v>
       </c>
@@ -10629,10 +11298,13 @@
         <v>100</v>
       </c>
       <c r="N69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>59</v>
       </c>
@@ -10673,10 +11345,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>59</v>
       </c>
@@ -10717,10 +11392,13 @@
         <v>0</v>
       </c>
       <c r="N71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>59</v>
       </c>
@@ -10761,10 +11439,13 @@
         <v>0</v>
       </c>
       <c r="N72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>59</v>
       </c>
@@ -10805,10 +11486,13 @@
         <v>101</v>
       </c>
       <c r="N73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>59</v>
       </c>
@@ -10849,10 +11533,13 @@
         <v>102</v>
       </c>
       <c r="N74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>59</v>
       </c>
@@ -10893,10 +11580,13 @@
         <v>0</v>
       </c>
       <c r="N75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>59</v>
       </c>
@@ -10937,10 +11627,13 @@
         <v>0</v>
       </c>
       <c r="N76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>59</v>
       </c>
@@ -10981,10 +11674,13 @@
         <v>0</v>
       </c>
       <c r="N77" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>59</v>
       </c>
@@ -11025,10 +11721,13 @@
         <v>103</v>
       </c>
       <c r="N78" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>59</v>
       </c>
@@ -11071,8 +11770,11 @@
       <c r="N79" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
@@ -11086,8 +11788,9 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -11101,8 +11804,9 @@
       <c r="K81" s="2"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="2"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -11116,8 +11820,9 @@
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="2"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -11131,8 +11836,9 @@
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="2"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="2"/>
       <c r="C84" s="3"/>
@@ -11146,8 +11852,9 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="2"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -11161,8 +11868,9 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="2"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -11176,8 +11884,9 @@
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="2"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -11191,8 +11900,9 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="2"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="2"/>
       <c r="C88" s="3"/>
@@ -11206,8 +11916,9 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="2"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -11221,8 +11932,9 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="2"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -11236,8 +11948,9 @@
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="2"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -11251,8 +11964,9 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="2"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" s="6"/>
       <c r="B92" s="2"/>
       <c r="C92" s="3"/>
@@ -11266,8 +11980,9 @@
       <c r="K92" s="2"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="2"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="6"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -11281,8 +11996,9 @@
       <c r="K93" s="2"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="2"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" s="6"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -11296,8 +12012,9 @@
       <c r="K94" s="2"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="2"/>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="6"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -11311,8 +12028,9 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="2"/>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" s="6"/>
       <c r="B96" s="2"/>
       <c r="C96" s="3"/>
@@ -11326,8 +12044,9 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="2"/>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" s="6"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -11341,8 +12060,9 @@
       <c r="K97" s="2"/>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="2"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" s="6"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -11356,8 +12076,9 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="2"/>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" s="6"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -11371,8 +12092,9 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="2"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" s="6"/>
       <c r="B100" s="2"/>
       <c r="C100" s="3"/>
@@ -11386,8 +12108,9 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="2"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" s="6"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -11401,8 +12124,9 @@
       <c r="K101" s="2"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="2"/>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" s="6"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -11416,8 +12140,9 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N102" s="2"/>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" s="6"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -11431,8 +12156,9 @@
       <c r="K103" s="2"/>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N103" s="2"/>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" s="6"/>
       <c r="B104" s="2"/>
       <c r="C104" s="3"/>
@@ -11446,8 +12172,9 @@
       <c r="K104" s="2"/>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N104" s="2"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" s="6"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -11461,8 +12188,9 @@
       <c r="K105" s="2"/>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N105" s="2"/>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" s="6"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -11476,8 +12204,9 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N106" s="2"/>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" s="6"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -11491,8 +12220,9 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N107" s="2"/>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" s="6"/>
       <c r="B108" s="2"/>
       <c r="C108" s="3"/>
@@ -11506,8 +12236,9 @@
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N108" s="2"/>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" s="6"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -11521,8 +12252,9 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N109" s="2"/>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" s="6"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -11536,8 +12268,9 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N110" s="2"/>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" s="6"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -11551,8 +12284,9 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N111" s="2"/>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" s="6"/>
       <c r="B112" s="2"/>
       <c r="C112" s="3"/>
@@ -11566,8 +12300,9 @@
       <c r="K112" s="2"/>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N112" s="2"/>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" s="6"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -11581,8 +12316,9 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N113" s="2"/>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" s="6"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -11596,8 +12332,9 @@
       <c r="K114" s="2"/>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N114" s="2"/>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" s="6"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -11611,8 +12348,9 @@
       <c r="K115" s="2"/>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N115" s="2"/>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" s="6"/>
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
@@ -11626,8 +12364,9 @@
       <c r="K116" s="2"/>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N116" s="2"/>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" s="6"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -11641,8 +12380,9 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N117" s="2"/>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" s="6"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -11656,8 +12396,9 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N118" s="2"/>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" s="6"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -11671,8 +12412,9 @@
       <c r="K119" s="2"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N119" s="2"/>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" s="6"/>
       <c r="B120" s="2"/>
       <c r="C120" s="3"/>
@@ -11686,8 +12428,9 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N120" s="2"/>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" s="6"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -11701,8 +12444,9 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N121" s="2"/>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" s="6"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -11716,8 +12460,9 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N122" s="2"/>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" s="6"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -11731,8 +12476,9 @@
       <c r="K123" s="2"/>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N123" s="2"/>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" s="6"/>
       <c r="B124" s="2"/>
       <c r="C124" s="3"/>
@@ -11746,8 +12492,9 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N124" s="2"/>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" s="6"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -11761,8 +12508,9 @@
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N125" s="2"/>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" s="6"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -11776,8 +12524,9 @@
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N126" s="2"/>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" s="6"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -11791,8 +12540,9 @@
       <c r="K127" s="2"/>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N127" s="2"/>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" s="6"/>
       <c r="B128" s="2"/>
       <c r="C128" s="3"/>
@@ -11806,8 +12556,9 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N128" s="2"/>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" s="6"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -11821,8 +12572,9 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N129" s="2"/>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" s="6"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -11836,8 +12588,9 @@
       <c r="K130" s="2"/>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N130" s="2"/>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" s="6"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -11851,8 +12604,9 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N131" s="2"/>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" s="6"/>
       <c r="B132" s="2"/>
       <c r="C132" s="3"/>
@@ -11866,8 +12620,9 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N132" s="2"/>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" s="6"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -11881,8 +12636,9 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N133" s="2"/>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" s="6"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -11896,8 +12652,9 @@
       <c r="K134" s="2"/>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N134" s="2"/>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" s="6"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -11911,8 +12668,9 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N135" s="2"/>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" s="6"/>
       <c r="B136" s="2"/>
       <c r="C136" s="3"/>
@@ -11926,8 +12684,9 @@
       <c r="K136" s="2"/>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N136" s="2"/>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" s="6"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -11941,8 +12700,9 @@
       <c r="K137" s="2"/>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N137" s="2"/>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" s="6"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -11956,8 +12716,9 @@
       <c r="K138" s="2"/>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N138" s="2"/>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" s="6"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -11971,8 +12732,9 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N139" s="2"/>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" s="6"/>
       <c r="B140" s="2"/>
       <c r="C140" s="3"/>
@@ -11986,8 +12748,9 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N140" s="2"/>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" s="6"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -12001,8 +12764,9 @@
       <c r="K141" s="2"/>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N141" s="2"/>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" s="6"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -12016,8 +12780,9 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N142" s="2"/>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" s="6"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -12031,8 +12796,9 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N143" s="2"/>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" s="6"/>
       <c r="B144" s="2"/>
       <c r="C144" s="3"/>
@@ -12046,8 +12812,9 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N144" s="2"/>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" s="6"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -12061,8 +12828,9 @@
       <c r="K145" s="2"/>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N145" s="2"/>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" s="6"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -12076,8 +12844,9 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N146" s="2"/>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" s="6"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -12091,8 +12860,9 @@
       <c r="K147" s="2"/>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N147" s="2"/>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" s="6"/>
       <c r="B148" s="2"/>
       <c r="C148" s="3"/>
@@ -12106,8 +12876,9 @@
       <c r="K148" s="2"/>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N148" s="2"/>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" s="6"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -12121,8 +12892,9 @@
       <c r="K149" s="2"/>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N149" s="2"/>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" s="6"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -12136,8 +12908,9 @@
       <c r="K150" s="2"/>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N150" s="2"/>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" s="6"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -12151,8 +12924,9 @@
       <c r="K151" s="2"/>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N151" s="2"/>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" s="6"/>
       <c r="B152" s="2"/>
       <c r="C152" s="3"/>
@@ -12166,8 +12940,9 @@
       <c r="K152" s="2"/>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N152" s="2"/>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" s="6"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -12181,8 +12956,9 @@
       <c r="K153" s="2"/>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N153" s="2"/>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" s="6"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -12196,6 +12972,7 @@
       <c r="K154" s="2"/>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
+      <c r="N154" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12204,10 +12981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N152"/>
+  <dimension ref="A1:O152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection sqref="A1:O152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12216,7 +12993,7 @@
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -12256,11 +13033,14 @@
       <c r="M1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N1" s="2">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -12300,11 +13080,14 @@
       <c r="M2" s="2">
         <v>0</v>
       </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -12344,11 +13127,14 @@
       <c r="M3" s="2">
         <v>0</v>
       </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -12388,11 +13174,14 @@
       <c r="M4" s="2">
         <v>0</v>
       </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -12432,11 +13221,14 @@
       <c r="M5" s="2">
         <v>0</v>
       </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -12476,11 +13268,14 @@
       <c r="M6" s="2">
         <v>0</v>
       </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -12520,11 +13315,14 @@
       <c r="M7" s="2">
         <v>0</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -12564,11 +13362,14 @@
       <c r="M8" s="2">
         <v>0</v>
       </c>
-      <c r="N8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -12608,11 +13409,14 @@
       <c r="M9" s="2">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -12652,11 +13456,14 @@
       <c r="M10" s="2">
         <v>0</v>
       </c>
-      <c r="N10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -12696,11 +13503,14 @@
       <c r="M11" s="2">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -12740,11 +13550,14 @@
       <c r="M12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -12784,11 +13597,14 @@
       <c r="M13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -12828,11 +13644,14 @@
       <c r="M14" s="2">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -12872,11 +13691,14 @@
       <c r="M15" s="2">
         <v>0</v>
       </c>
-      <c r="N15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -12916,11 +13738,14 @@
       <c r="M16" s="2">
         <v>0</v>
       </c>
-      <c r="N16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -12960,11 +13785,14 @@
       <c r="M17" s="2">
         <v>0</v>
       </c>
-      <c r="N17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -13004,11 +13832,14 @@
       <c r="M18" s="2">
         <v>0</v>
       </c>
-      <c r="N18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -13048,11 +13879,14 @@
       <c r="M19" s="2">
         <v>0</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -13092,11 +13926,14 @@
       <c r="M20" s="2">
         <v>0</v>
       </c>
-      <c r="N20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -13136,11 +13973,14 @@
       <c r="M21" s="2">
         <v>0</v>
       </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
@@ -13180,11 +14020,14 @@
       <c r="M22" s="2">
         <v>0</v>
       </c>
-      <c r="N22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -13224,11 +14067,14 @@
       <c r="M23" s="2">
         <v>0</v>
       </c>
-      <c r="N23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
@@ -13268,11 +14114,14 @@
       <c r="M24" s="2">
         <v>0</v>
       </c>
-      <c r="N24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -13312,11 +14161,14 @@
       <c r="M25" s="2">
         <v>0</v>
       </c>
-      <c r="N25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -13356,11 +14208,14 @@
       <c r="M26" s="2">
         <v>0</v>
       </c>
-      <c r="N26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -13400,11 +14255,14 @@
       <c r="M27" s="2">
         <v>0</v>
       </c>
-      <c r="N27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -13444,11 +14302,14 @@
       <c r="M28" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -13488,11 +14349,14 @@
       <c r="M29" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -13532,11 +14396,14 @@
       <c r="M30" s="2">
         <v>0</v>
       </c>
-      <c r="N30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
@@ -13576,11 +14443,14 @@
       <c r="M31" s="2">
         <v>0</v>
       </c>
-      <c r="N31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -13620,11 +14490,14 @@
       <c r="M32" s="2">
         <v>0</v>
       </c>
-      <c r="N32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
@@ -13664,11 +14537,14 @@
       <c r="M33" s="2">
         <v>0</v>
       </c>
-      <c r="N33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
@@ -13708,11 +14584,14 @@
       <c r="M34" s="2">
         <v>0</v>
       </c>
-      <c r="N34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>29</v>
       </c>
@@ -13752,11 +14631,14 @@
       <c r="M35" s="2">
         <v>0</v>
       </c>
-      <c r="N35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
@@ -13796,11 +14678,14 @@
       <c r="M36" s="2">
         <v>0</v>
       </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
@@ -13840,11 +14725,14 @@
       <c r="M37" s="2">
         <v>0</v>
       </c>
-      <c r="N37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>29</v>
       </c>
@@ -13884,11 +14772,14 @@
       <c r="M38" s="2">
         <v>0</v>
       </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>29</v>
       </c>
@@ -13928,11 +14819,14 @@
       <c r="M39" s="2">
         <v>0</v>
       </c>
-      <c r="N39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>29</v>
       </c>
@@ -13972,11 +14866,14 @@
       <c r="M40" s="2">
         <v>0</v>
       </c>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>29</v>
       </c>
@@ -14016,11 +14913,14 @@
       <c r="M41" s="2">
         <v>0</v>
       </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="2">
+        <v>0</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>29</v>
       </c>
@@ -14060,11 +14960,14 @@
       <c r="M42" s="2">
         <v>0</v>
       </c>
-      <c r="N42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>29</v>
       </c>
@@ -14104,11 +15007,14 @@
       <c r="M43" s="2">
         <v>0</v>
       </c>
-      <c r="N43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="2">
+        <v>0</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>29</v>
       </c>
@@ -14148,11 +15054,14 @@
       <c r="M44" s="2">
         <v>0</v>
       </c>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N44" s="2">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>29</v>
       </c>
@@ -14192,11 +15101,14 @@
       <c r="M45" s="2">
         <v>0</v>
       </c>
-      <c r="N45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="2">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>29</v>
       </c>
@@ -14236,11 +15148,14 @@
       <c r="M46" s="2">
         <v>0</v>
       </c>
-      <c r="N46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N46" s="2">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>29</v>
       </c>
@@ -14280,11 +15195,14 @@
       <c r="M47" s="2">
         <v>0</v>
       </c>
-      <c r="N47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N47" s="2">
+        <v>0</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>29</v>
       </c>
@@ -14324,11 +15242,14 @@
       <c r="M48" s="2">
         <v>0</v>
       </c>
-      <c r="N48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N48" s="2">
+        <v>0</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>29</v>
       </c>
@@ -14368,11 +15289,14 @@
       <c r="M49" s="2">
         <v>0</v>
       </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="2">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>29</v>
       </c>
@@ -14412,11 +15336,14 @@
       <c r="M50" s="2">
         <v>0</v>
       </c>
-      <c r="N50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N50" s="2">
+        <v>0</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -14456,11 +15383,14 @@
       <c r="M51" s="2">
         <v>0</v>
       </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="2">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -14500,11 +15430,14 @@
       <c r="M52" s="2">
         <v>0</v>
       </c>
-      <c r="N52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N52" s="2">
+        <v>0</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>29</v>
       </c>
@@ -14544,11 +15477,14 @@
       <c r="M53" s="2">
         <v>0</v>
       </c>
-      <c r="N53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N53" s="2">
+        <v>0</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>29</v>
       </c>
@@ -14588,11 +15524,14 @@
       <c r="M54" s="2">
         <v>0</v>
       </c>
-      <c r="N54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N54" s="2">
+        <v>0</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>29</v>
       </c>
@@ -14632,11 +15571,14 @@
       <c r="M55" s="2">
         <v>0</v>
       </c>
-      <c r="N55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N55" s="2">
+        <v>0</v>
+      </c>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>29</v>
       </c>
@@ -14676,11 +15618,14 @@
       <c r="M56" s="2">
         <v>0</v>
       </c>
-      <c r="N56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>29</v>
       </c>
@@ -14720,11 +15665,14 @@
       <c r="M57" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N57" s="2">
+        <v>0</v>
+      </c>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>29</v>
       </c>
@@ -14764,11 +15712,14 @@
       <c r="M58" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N58" s="2">
+        <v>0</v>
+      </c>
+      <c r="O58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>29</v>
       </c>
@@ -14808,11 +15759,14 @@
       <c r="M59" s="2">
         <v>0</v>
       </c>
-      <c r="N59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N59" s="2">
+        <v>0</v>
+      </c>
+      <c r="O59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>29</v>
       </c>
@@ -14852,11 +15806,14 @@
       <c r="M60" s="2">
         <v>0</v>
       </c>
-      <c r="N60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N60" s="2">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>29</v>
       </c>
@@ -14896,11 +15853,14 @@
       <c r="M61" s="2">
         <v>0</v>
       </c>
-      <c r="N61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N61" s="2">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>29</v>
       </c>
@@ -14940,11 +15900,14 @@
       <c r="M62" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N62" s="2">
+        <v>0</v>
+      </c>
+      <c r="O62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>29</v>
       </c>
@@ -14984,11 +15947,14 @@
       <c r="M63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N63" s="2">
+        <v>0</v>
+      </c>
+      <c r="O63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>29</v>
       </c>
@@ -15028,11 +15994,14 @@
       <c r="M64" s="2">
         <v>0</v>
       </c>
-      <c r="N64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N64" s="2">
+        <v>0</v>
+      </c>
+      <c r="O64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>29</v>
       </c>
@@ -15072,11 +16041,14 @@
       <c r="M65" s="2">
         <v>0</v>
       </c>
-      <c r="N65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N65" s="2">
+        <v>0</v>
+      </c>
+      <c r="O65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>29</v>
       </c>
@@ -15116,11 +16088,14 @@
       <c r="M66" s="2">
         <v>0</v>
       </c>
-      <c r="N66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N66" s="2">
+        <v>0</v>
+      </c>
+      <c r="O66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>29</v>
       </c>
@@ -15160,11 +16135,14 @@
       <c r="M67" s="2">
         <v>0</v>
       </c>
-      <c r="N67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N67" s="2">
+        <v>0</v>
+      </c>
+      <c r="O67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>29</v>
       </c>
@@ -15204,11 +16182,14 @@
       <c r="M68" s="2">
         <v>0</v>
       </c>
-      <c r="N68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N68" s="2">
+        <v>0</v>
+      </c>
+      <c r="O68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>29</v>
       </c>
@@ -15248,11 +16229,14 @@
       <c r="M69" s="2">
         <v>0</v>
       </c>
-      <c r="N69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N69" s="2">
+        <v>0</v>
+      </c>
+      <c r="O69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>29</v>
       </c>
@@ -15292,11 +16276,14 @@
       <c r="M70" s="2">
         <v>0</v>
       </c>
-      <c r="N70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N70" s="2">
+        <v>0</v>
+      </c>
+      <c r="O70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>29</v>
       </c>
@@ -15336,11 +16323,14 @@
       <c r="M71" s="2">
         <v>0</v>
       </c>
-      <c r="N71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N71" s="2">
+        <v>0</v>
+      </c>
+      <c r="O71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>29</v>
       </c>
@@ -15380,11 +16370,14 @@
       <c r="M72" s="2">
         <v>0</v>
       </c>
-      <c r="N72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N72" s="2">
+        <v>0</v>
+      </c>
+      <c r="O72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>29</v>
       </c>
@@ -15424,11 +16417,14 @@
       <c r="M73" s="2">
         <v>0</v>
       </c>
-      <c r="N73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N73" s="2">
+        <v>0</v>
+      </c>
+      <c r="O73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>29</v>
       </c>
@@ -15468,11 +16464,14 @@
       <c r="M74" s="2">
         <v>0</v>
       </c>
-      <c r="N74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N74" s="2">
+        <v>0</v>
+      </c>
+      <c r="O74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>29</v>
       </c>
@@ -15512,11 +16511,14 @@
       <c r="M75" s="2">
         <v>0</v>
       </c>
-      <c r="N75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N75" s="2">
+        <v>0</v>
+      </c>
+      <c r="O75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>29</v>
       </c>
@@ -15556,11 +16558,14 @@
       <c r="M76" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N76" s="2">
+        <v>0</v>
+      </c>
+      <c r="O76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>29</v>
       </c>
@@ -15600,11 +16605,14 @@
       <c r="M77" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N77" s="2">
+        <v>0</v>
+      </c>
+      <c r="O77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>29</v>
       </c>
@@ -15644,11 +16652,14 @@
       <c r="M78" s="2">
         <v>0</v>
       </c>
-      <c r="N78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N78" s="2">
+        <v>0</v>
+      </c>
+      <c r="O78" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>29</v>
       </c>
@@ -15688,11 +16699,14 @@
       <c r="M79" s="2">
         <v>0</v>
       </c>
-      <c r="N79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N79" s="2">
+        <v>0</v>
+      </c>
+      <c r="O79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>29</v>
       </c>
@@ -15732,11 +16746,14 @@
       <c r="M80" s="2">
         <v>0</v>
       </c>
-      <c r="N80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N80" s="2">
+        <v>0</v>
+      </c>
+      <c r="O80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
@@ -15776,11 +16793,14 @@
       <c r="M81" s="2">
         <v>0</v>
       </c>
-      <c r="N81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N81" s="2">
+        <v>0</v>
+      </c>
+      <c r="O81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>29</v>
       </c>
@@ -15820,11 +16840,14 @@
       <c r="M82" s="2">
         <v>0</v>
       </c>
-      <c r="N82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N82" s="2">
+        <v>0</v>
+      </c>
+      <c r="O82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>29</v>
       </c>
@@ -15864,11 +16887,14 @@
       <c r="M83" s="2">
         <v>0</v>
       </c>
-      <c r="N83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N83" s="2">
+        <v>0</v>
+      </c>
+      <c r="O83" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>29</v>
       </c>
@@ -15908,11 +16934,14 @@
       <c r="M84" s="2">
         <v>0</v>
       </c>
-      <c r="N84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N84" s="2">
+        <v>0</v>
+      </c>
+      <c r="O84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>29</v>
       </c>
@@ -15952,11 +16981,14 @@
       <c r="M85" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N85" s="2">
+        <v>0</v>
+      </c>
+      <c r="O85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>29</v>
       </c>
@@ -15996,11 +17028,14 @@
       <c r="M86" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N86" s="2">
+        <v>0</v>
+      </c>
+      <c r="O86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>29</v>
       </c>
@@ -16040,11 +17075,14 @@
       <c r="M87" s="2">
         <v>0</v>
       </c>
-      <c r="N87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N87" s="2">
+        <v>0</v>
+      </c>
+      <c r="O87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>29</v>
       </c>
@@ -16084,11 +17122,14 @@
       <c r="M88" s="2">
         <v>0</v>
       </c>
-      <c r="N88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N88" s="2">
+        <v>0</v>
+      </c>
+      <c r="O88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>29</v>
       </c>
@@ -16128,11 +17169,14 @@
       <c r="M89" s="2">
         <v>0</v>
       </c>
-      <c r="N89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N89" s="2">
+        <v>0</v>
+      </c>
+      <c r="O89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>29</v>
       </c>
@@ -16172,11 +17216,14 @@
       <c r="M90" s="2">
         <v>0</v>
       </c>
-      <c r="N90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N90" s="2">
+        <v>0</v>
+      </c>
+      <c r="O90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>29</v>
       </c>
@@ -16216,11 +17263,14 @@
       <c r="M91" s="2">
         <v>0</v>
       </c>
-      <c r="N91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N91" s="2">
+        <v>0</v>
+      </c>
+      <c r="O91" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>29</v>
       </c>
@@ -16260,11 +17310,14 @@
       <c r="M92" s="2">
         <v>0</v>
       </c>
-      <c r="N92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N92" s="2">
+        <v>0</v>
+      </c>
+      <c r="O92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>29</v>
       </c>
@@ -16304,11 +17357,14 @@
       <c r="M93" s="2">
         <v>0</v>
       </c>
-      <c r="N93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N93" s="2">
+        <v>0</v>
+      </c>
+      <c r="O93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>29</v>
       </c>
@@ -16348,11 +17404,14 @@
       <c r="M94" s="2">
         <v>0</v>
       </c>
-      <c r="N94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N94" s="2">
+        <v>0</v>
+      </c>
+      <c r="O94" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>29</v>
       </c>
@@ -16392,11 +17451,14 @@
       <c r="M95" s="2">
         <v>0</v>
       </c>
-      <c r="N95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N95" s="2">
+        <v>0</v>
+      </c>
+      <c r="O95" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>29</v>
       </c>
@@ -16436,11 +17498,14 @@
       <c r="M96" s="2">
         <v>0</v>
       </c>
-      <c r="N96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N96" s="2">
+        <v>0</v>
+      </c>
+      <c r="O96" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>29</v>
       </c>
@@ -16480,11 +17545,14 @@
       <c r="M97" s="2">
         <v>0</v>
       </c>
-      <c r="N97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N97" s="2">
+        <v>0</v>
+      </c>
+      <c r="O97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -16524,11 +17592,14 @@
       <c r="M98" s="2">
         <v>0</v>
       </c>
-      <c r="N98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N98" s="2">
+        <v>0</v>
+      </c>
+      <c r="O98" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>29</v>
       </c>
@@ -16568,11 +17639,14 @@
       <c r="M99" s="2">
         <v>0</v>
       </c>
-      <c r="N99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N99" s="2">
+        <v>0</v>
+      </c>
+      <c r="O99" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>29</v>
       </c>
@@ -16612,11 +17686,14 @@
       <c r="M100" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N100" s="2">
+        <v>0</v>
+      </c>
+      <c r="O100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>29</v>
       </c>
@@ -16656,11 +17733,14 @@
       <c r="M101" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N101" s="2">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>29</v>
       </c>
@@ -16700,11 +17780,14 @@
       <c r="M102" s="2">
         <v>0</v>
       </c>
-      <c r="N102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N102" s="2">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>29</v>
       </c>
@@ -16744,11 +17827,14 @@
       <c r="M103" s="2">
         <v>0</v>
       </c>
-      <c r="N103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N103" s="2">
+        <v>0</v>
+      </c>
+      <c r="O103" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>29</v>
       </c>
@@ -16788,11 +17874,14 @@
       <c r="M104" s="2">
         <v>0</v>
       </c>
-      <c r="N104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N104" s="2">
+        <v>0</v>
+      </c>
+      <c r="O104" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>29</v>
       </c>
@@ -16832,11 +17921,14 @@
       <c r="M105" s="2">
         <v>0</v>
       </c>
-      <c r="N105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N105" s="2">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>29</v>
       </c>
@@ -16876,11 +17968,14 @@
       <c r="M106" s="2">
         <v>0</v>
       </c>
-      <c r="N106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N106" s="2">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>29</v>
       </c>
@@ -16920,11 +18015,14 @@
       <c r="M107" s="2">
         <v>0</v>
       </c>
-      <c r="N107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N107" s="2">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>29</v>
       </c>
@@ -16964,11 +18062,14 @@
       <c r="M108" s="2">
         <v>0</v>
       </c>
-      <c r="N108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N108" s="2">
+        <v>0</v>
+      </c>
+      <c r="O108" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>29</v>
       </c>
@@ -17008,11 +18109,14 @@
       <c r="M109" s="2">
         <v>0</v>
       </c>
-      <c r="N109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N109" s="2">
+        <v>0</v>
+      </c>
+      <c r="O109" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>29</v>
       </c>
@@ -17052,11 +18156,14 @@
       <c r="M110" s="2">
         <v>0</v>
       </c>
-      <c r="N110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N110" s="2">
+        <v>0</v>
+      </c>
+      <c r="O110" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>29</v>
       </c>
@@ -17096,11 +18203,14 @@
       <c r="M111" s="2">
         <v>0</v>
       </c>
-      <c r="N111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N111" s="2">
+        <v>0</v>
+      </c>
+      <c r="O111" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>29</v>
       </c>
@@ -17140,11 +18250,14 @@
       <c r="M112" s="2">
         <v>0</v>
       </c>
-      <c r="N112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N112" s="2">
+        <v>0</v>
+      </c>
+      <c r="O112" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>29</v>
       </c>
@@ -17184,11 +18297,14 @@
       <c r="M113" s="2">
         <v>0</v>
       </c>
-      <c r="N113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N113" s="2">
+        <v>0</v>
+      </c>
+      <c r="O113" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>29</v>
       </c>
@@ -17228,11 +18344,14 @@
       <c r="M114" s="2">
         <v>0</v>
       </c>
-      <c r="N114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N114" s="2">
+        <v>0</v>
+      </c>
+      <c r="O114" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>29</v>
       </c>
@@ -17272,11 +18391,14 @@
       <c r="M115" s="2">
         <v>0</v>
       </c>
-      <c r="N115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N115" s="2">
+        <v>0</v>
+      </c>
+      <c r="O115" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>29</v>
       </c>
@@ -17316,11 +18438,14 @@
       <c r="M116" s="2">
         <v>0</v>
       </c>
-      <c r="N116" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N116" s="2">
+        <v>0</v>
+      </c>
+      <c r="O116" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>29</v>
       </c>
@@ -17360,11 +18485,14 @@
       <c r="M117" s="2">
         <v>0</v>
       </c>
-      <c r="N117" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N117" s="2">
+        <v>0</v>
+      </c>
+      <c r="O117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>29</v>
       </c>
@@ -17404,11 +18532,14 @@
       <c r="M118" s="2">
         <v>0</v>
       </c>
-      <c r="N118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N118" s="2">
+        <v>0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>29</v>
       </c>
@@ -17448,11 +18579,14 @@
       <c r="M119" s="2">
         <v>0</v>
       </c>
-      <c r="N119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N119" s="2">
+        <v>0</v>
+      </c>
+      <c r="O119" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>29</v>
       </c>
@@ -17492,11 +18626,14 @@
       <c r="M120" s="2">
         <v>0</v>
       </c>
-      <c r="N120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N120" s="2">
+        <v>0</v>
+      </c>
+      <c r="O120" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>29</v>
       </c>
@@ -17536,11 +18673,14 @@
       <c r="M121" s="2">
         <v>0</v>
       </c>
-      <c r="N121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N121" s="2">
+        <v>0</v>
+      </c>
+      <c r="O121" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>29</v>
       </c>
@@ -17580,11 +18720,14 @@
       <c r="M122" s="2">
         <v>0</v>
       </c>
-      <c r="N122" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N122" s="2">
+        <v>0</v>
+      </c>
+      <c r="O122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>29</v>
       </c>
@@ -17624,11 +18767,14 @@
       <c r="M123" s="2">
         <v>0</v>
       </c>
-      <c r="N123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N123" s="2">
+        <v>0</v>
+      </c>
+      <c r="O123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>29</v>
       </c>
@@ -17668,11 +18814,14 @@
       <c r="M124" s="2">
         <v>0</v>
       </c>
-      <c r="N124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N124" s="2">
+        <v>0</v>
+      </c>
+      <c r="O124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>29</v>
       </c>
@@ -17712,11 +18861,14 @@
       <c r="M125" s="2">
         <v>0</v>
       </c>
-      <c r="N125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N125" s="2">
+        <v>0</v>
+      </c>
+      <c r="O125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>29</v>
       </c>
@@ -17756,11 +18908,14 @@
       <c r="M126" s="2">
         <v>0</v>
       </c>
-      <c r="N126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N126" s="2">
+        <v>0</v>
+      </c>
+      <c r="O126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>29</v>
       </c>
@@ -17800,11 +18955,14 @@
       <c r="M127" s="2">
         <v>0</v>
       </c>
-      <c r="N127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N127" s="2">
+        <v>0</v>
+      </c>
+      <c r="O127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>29</v>
       </c>
@@ -17844,11 +19002,14 @@
       <c r="M128" s="2">
         <v>0</v>
       </c>
-      <c r="N128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N128" s="2">
+        <v>0</v>
+      </c>
+      <c r="O128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>29</v>
       </c>
@@ -17888,11 +19049,14 @@
       <c r="M129" s="2">
         <v>0</v>
       </c>
-      <c r="N129" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N129" s="2">
+        <v>0</v>
+      </c>
+      <c r="O129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>29</v>
       </c>
@@ -17932,11 +19096,14 @@
       <c r="M130" s="2">
         <v>0</v>
       </c>
-      <c r="N130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N130" s="2">
+        <v>0</v>
+      </c>
+      <c r="O130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>29</v>
       </c>
@@ -17976,11 +19143,14 @@
       <c r="M131" s="2">
         <v>0</v>
       </c>
-      <c r="N131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N131" s="2">
+        <v>0</v>
+      </c>
+      <c r="O131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>29</v>
       </c>
@@ -18020,11 +19190,14 @@
       <c r="M132" s="2">
         <v>0</v>
       </c>
-      <c r="N132" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N132" s="2">
+        <v>0</v>
+      </c>
+      <c r="O132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>29</v>
       </c>
@@ -18064,11 +19237,14 @@
       <c r="M133" s="2">
         <v>0</v>
       </c>
-      <c r="N133" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N133" s="2">
+        <v>0</v>
+      </c>
+      <c r="O133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>29</v>
       </c>
@@ -18108,11 +19284,14 @@
       <c r="M134" s="2">
         <v>0</v>
       </c>
-      <c r="N134" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N134" s="2">
+        <v>0</v>
+      </c>
+      <c r="O134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>29</v>
       </c>
@@ -18152,11 +19331,14 @@
       <c r="M135" s="2">
         <v>0</v>
       </c>
-      <c r="N135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N135" s="2">
+        <v>0</v>
+      </c>
+      <c r="O135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>29</v>
       </c>
@@ -18196,11 +19378,14 @@
       <c r="M136" s="2">
         <v>0</v>
       </c>
-      <c r="N136" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N136" s="2">
+        <v>0</v>
+      </c>
+      <c r="O136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>29</v>
       </c>
@@ -18240,11 +19425,14 @@
       <c r="M137" s="2">
         <v>0</v>
       </c>
-      <c r="N137" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N137" s="2">
+        <v>0</v>
+      </c>
+      <c r="O137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>29</v>
       </c>
@@ -18284,11 +19472,14 @@
       <c r="M138" s="2">
         <v>0</v>
       </c>
-      <c r="N138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N138" s="2">
+        <v>0</v>
+      </c>
+      <c r="O138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>29</v>
       </c>
@@ -18328,11 +19519,14 @@
       <c r="M139" s="2">
         <v>0</v>
       </c>
-      <c r="N139" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N139" s="2">
+        <v>0</v>
+      </c>
+      <c r="O139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>29</v>
       </c>
@@ -18372,11 +19566,14 @@
       <c r="M140" s="2">
         <v>0</v>
       </c>
-      <c r="N140" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N140" s="2">
+        <v>0</v>
+      </c>
+      <c r="O140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>29</v>
       </c>
@@ -18416,11 +19613,14 @@
       <c r="M141" s="2">
         <v>0</v>
       </c>
-      <c r="N141" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N141" s="2">
+        <v>0</v>
+      </c>
+      <c r="O141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>29</v>
       </c>
@@ -18460,11 +19660,14 @@
       <c r="M142" s="2">
         <v>0</v>
       </c>
-      <c r="N142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N142" s="2">
+        <v>0</v>
+      </c>
+      <c r="O142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>29</v>
       </c>
@@ -18504,11 +19707,14 @@
       <c r="M143" s="2">
         <v>0</v>
       </c>
-      <c r="N143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N143" s="2">
+        <v>0</v>
+      </c>
+      <c r="O143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>29</v>
       </c>
@@ -18548,11 +19754,14 @@
       <c r="M144" s="2">
         <v>0</v>
       </c>
-      <c r="N144" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N144" s="2">
+        <v>0</v>
+      </c>
+      <c r="O144" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>29</v>
       </c>
@@ -18592,11 +19801,14 @@
       <c r="M145" s="2">
         <v>0</v>
       </c>
-      <c r="N145" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N145" s="2">
+        <v>0</v>
+      </c>
+      <c r="O145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>29</v>
       </c>
@@ -18636,11 +19848,14 @@
       <c r="M146" s="2">
         <v>0</v>
       </c>
-      <c r="N146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N146" s="2">
+        <v>0</v>
+      </c>
+      <c r="O146" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>29</v>
       </c>
@@ -18680,11 +19895,14 @@
       <c r="M147" s="2">
         <v>0</v>
       </c>
-      <c r="N147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N147" s="2">
+        <v>0</v>
+      </c>
+      <c r="O147" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>29</v>
       </c>
@@ -18724,11 +19942,14 @@
       <c r="M148" s="2">
         <v>0</v>
       </c>
-      <c r="N148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N148" s="2">
+        <v>0</v>
+      </c>
+      <c r="O148" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>29</v>
       </c>
@@ -18768,11 +19989,14 @@
       <c r="M149" s="2">
         <v>0</v>
       </c>
-      <c r="N149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N149" s="2">
+        <v>0</v>
+      </c>
+      <c r="O149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>29</v>
       </c>
@@ -18812,11 +20036,14 @@
       <c r="M150" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N150" s="2">
+        <v>0</v>
+      </c>
+      <c r="O150" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>29</v>
       </c>
@@ -18856,11 +20083,14 @@
       <c r="M151" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N151" s="2">
+        <v>0</v>
+      </c>
+      <c r="O151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>29</v>
       </c>
@@ -18900,7 +20130,10 @@
       <c r="M152" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N152" s="1">
+      <c r="N152" s="2">
+        <v>0</v>
+      </c>
+      <c r="O152" s="1">
         <v>0</v>
       </c>
     </row>
@@ -18911,10 +20144,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18923,7 +20156,7 @@
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
@@ -18966,8 +20199,11 @@
       <c r="N1" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>59</v>
       </c>
@@ -19010,8 +20246,11 @@
       <c r="N2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -19054,8 +20293,11 @@
       <c r="N3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
@@ -19098,8 +20340,11 @@
       <c r="N4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
@@ -19142,8 +20387,11 @@
       <c r="N5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -19186,8 +20434,11 @@
       <c r="N6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>59</v>
       </c>
@@ -19230,8 +20481,11 @@
       <c r="N7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
@@ -19274,8 +20528,11 @@
       <c r="N8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
@@ -19318,8 +20575,11 @@
       <c r="N9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
@@ -19362,8 +20622,11 @@
       <c r="N10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
@@ -19406,8 +20669,11 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
@@ -19450,8 +20716,11 @@
       <c r="N12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
@@ -19494,8 +20763,11 @@
       <c r="N13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -19538,8 +20810,11 @@
       <c r="N14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -19582,8 +20857,11 @@
       <c r="N15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -19626,8 +20904,11 @@
       <c r="N16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
@@ -19670,8 +20951,11 @@
       <c r="N17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>59</v>
       </c>
@@ -19714,8 +20998,11 @@
       <c r="N18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
@@ -19758,8 +21045,11 @@
       <c r="N19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -19802,8 +21092,11 @@
       <c r="N20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
@@ -19846,8 +21139,11 @@
       <c r="N21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
@@ -19890,8 +21186,11 @@
       <c r="N22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -19934,8 +21233,11 @@
       <c r="N23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
@@ -19976,10 +21278,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -20020,10 +21325,13 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
@@ -20064,10 +21372,13 @@
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -20108,10 +21419,13 @@
         <v>92</v>
       </c>
       <c r="N27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
@@ -20152,10 +21466,13 @@
         <v>93</v>
       </c>
       <c r="N28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -20196,10 +21513,13 @@
         <v>0</v>
       </c>
       <c r="N29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>59</v>
       </c>
@@ -20240,10 +21560,13 @@
         <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>59</v>
       </c>
@@ -20284,10 +21607,13 @@
         <v>89</v>
       </c>
       <c r="N31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>59</v>
       </c>
@@ -20328,10 +21654,13 @@
         <v>94</v>
       </c>
       <c r="N32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>59</v>
       </c>
@@ -20372,10 +21701,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>59</v>
       </c>
@@ -20416,10 +21748,13 @@
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>59</v>
       </c>
@@ -20460,10 +21795,13 @@
         <v>0</v>
       </c>
       <c r="N35" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>59</v>
       </c>
@@ -20504,10 +21842,13 @@
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>59</v>
       </c>
@@ -20548,10 +21889,13 @@
         <v>0</v>
       </c>
       <c r="N37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
@@ -20592,10 +21936,13 @@
         <v>90</v>
       </c>
       <c r="N38" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>59</v>
       </c>
@@ -20636,10 +21983,13 @@
         <v>91</v>
       </c>
       <c r="N39" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>59</v>
       </c>
@@ -20680,10 +22030,13 @@
         <v>0</v>
       </c>
       <c r="N40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>59</v>
       </c>
@@ -20724,10 +22077,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -20768,10 +22124,13 @@
         <v>95</v>
       </c>
       <c r="N42" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O42" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>59</v>
       </c>
@@ -20812,10 +22171,13 @@
         <v>96</v>
       </c>
       <c r="N43" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O43" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>59</v>
       </c>
@@ -20856,10 +22218,13 @@
         <v>0</v>
       </c>
       <c r="N44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>59</v>
       </c>
@@ -20900,10 +22265,13 @@
         <v>0</v>
       </c>
       <c r="N45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>59</v>
       </c>
@@ -20944,10 +22312,13 @@
         <v>0</v>
       </c>
       <c r="N46" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O46" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>59</v>
       </c>
@@ -20990,8 +22361,11 @@
       <c r="N47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>59</v>
       </c>
@@ -21034,8 +22408,11 @@
       <c r="N48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>59</v>
       </c>
@@ -21078,8 +22455,11 @@
       <c r="N49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>59</v>
       </c>
@@ -21122,8 +22502,11 @@
       <c r="N50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>59</v>
       </c>
@@ -21166,8 +22549,11 @@
       <c r="N51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>59</v>
       </c>
@@ -21210,8 +22596,11 @@
       <c r="N52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>59</v>
       </c>
@@ -21254,8 +22643,11 @@
       <c r="N53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>59</v>
       </c>
@@ -21298,8 +22690,11 @@
       <c r="N54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>59</v>
       </c>
@@ -21342,8 +22737,11 @@
       <c r="N55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>59</v>
       </c>
@@ -21386,8 +22784,11 @@
       <c r="N56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>59</v>
       </c>
@@ -21430,8 +22831,11 @@
       <c r="N57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>59</v>
       </c>
@@ -21474,8 +22878,11 @@
       <c r="N58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
@@ -21518,8 +22925,11 @@
       <c r="N59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>59</v>
       </c>
@@ -21562,8 +22972,11 @@
       <c r="N60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -21606,8 +23019,11 @@
       <c r="N61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>59</v>
       </c>
@@ -21650,8 +23066,11 @@
       <c r="N62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>59</v>
       </c>
@@ -21694,8 +23113,11 @@
       <c r="N63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>59</v>
       </c>
@@ -21738,8 +23160,11 @@
       <c r="N64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -21782,8 +23207,11 @@
       <c r="N65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>59</v>
       </c>
@@ -21826,8 +23254,11 @@
       <c r="N66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>59</v>
       </c>
@@ -21868,10 +23299,13 @@
         <v>100</v>
       </c>
       <c r="N67" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O67" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>59</v>
       </c>
@@ -21912,10 +23346,13 @@
         <v>0</v>
       </c>
       <c r="N68" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O68" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>59</v>
       </c>
@@ -21956,10 +23393,13 @@
         <v>0</v>
       </c>
       <c r="N69" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O69" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>59</v>
       </c>
@@ -22000,10 +23440,13 @@
         <v>0</v>
       </c>
       <c r="N70" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O70" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>59</v>
       </c>
@@ -22044,10 +23487,13 @@
         <v>101</v>
       </c>
       <c r="N71" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O71" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>59</v>
       </c>
@@ -22088,10 +23534,13 @@
         <v>102</v>
       </c>
       <c r="N72" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O72" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>59</v>
       </c>
@@ -22132,10 +23581,13 @@
         <v>0</v>
       </c>
       <c r="N73" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O73" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>59</v>
       </c>
@@ -22176,10 +23628,13 @@
         <v>0</v>
       </c>
       <c r="N74" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O74" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>59</v>
       </c>
@@ -22220,10 +23675,13 @@
         <v>0</v>
       </c>
       <c r="N75" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O75" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>59</v>
       </c>
@@ -22264,10 +23722,13 @@
         <v>103</v>
       </c>
       <c r="N76" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="O76" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>59</v>
       </c>
@@ -22308,6 +23769,9 @@
         <v>83</v>
       </c>
       <c r="N77" s="2">
+        <v>0</v>
+      </c>
+      <c r="O77" s="2">
         <v>0</v>
       </c>
     </row>

--- a/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
+++ b/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="16170" windowHeight="7965"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -777,9 +777,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D133:D140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12983,8 +12983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O152"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41:G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20146,8 +20146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
+++ b/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="3"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
     <sheet name="Red Line" sheetId="2" r:id="rId2"/>
-    <sheet name="greenline.csv" sheetId="3" r:id="rId3"/>
-    <sheet name="redline.csv" sheetId="4" r:id="rId4"/>
+    <sheet name="GreenLineFinal" sheetId="3" r:id="rId3"/>
+    <sheet name="RedLineFinal" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="107">
   <si>
     <t>Line</t>
   </si>
@@ -343,6 +343,12 @@
   </si>
   <si>
     <t>Beacon</t>
+  </si>
+  <si>
+    <t>YARD_IN</t>
+  </si>
+  <si>
+    <t>YARD_OUT</t>
   </si>
 </sst>
 </file>
@@ -778,8 +784,8 @@
   <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D133:D140"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O154" sqref="A3:O154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7946,7 +7952,7 @@
         <v>29</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C153" s="2">
         <v>151</v>
@@ -7993,7 +7999,7 @@
         <v>29</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C154" s="2">
         <v>152</v>
@@ -8047,7 +8053,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="O79" sqref="A3:O79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12983,8 +12989,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O152"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:G42"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20048,7 +20054,7 @@
         <v>29</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C151" s="2">
         <v>151</v>
@@ -20095,7 +20101,7 @@
         <v>29</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="C152" s="2">
         <v>152</v>
@@ -20147,7 +20153,7 @@
   <dimension ref="A1:O77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection sqref="A1:O77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
+++ b/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="185">
   <si>
     <t>Line</t>
   </si>
@@ -350,12 +350,246 @@
   <si>
     <t>YARD_OUT</t>
   </si>
+  <si>
+    <t>Coordinates</t>
+  </si>
+  <si>
+    <t>(217.163268,120.999802);(217.489804,120.999639);(217.816340,120.999825);(218.142876,121.000138);(218.469412,121.000353);(218.795948,121.000245);(219.122483,120.999665);(219.449018,120.998979);(219.775553,120.999149);(220.102082,121.001049);(220.428607,121.003620);(220.755130,121.003358);(221.081566,120.996619);(221.407945,120.986844);(221.734313,120.986911);(222.059724,121.009338);(222.384220,121.045126);(222.708896,121.053197);(223.015293,120.969982);(223.270264,120.777195);(223.479417,120.527395);(223.683912,120.273266);(223.926550,120.062199);(224.223953,119.953943);(224.547575,119.947778);(224.872058,119.982967);(225.197010,120.012211);(225.523227,120.018472);(225.849508,120.007638);(226.175627,119.991245);(226.501932,119.981470);(226.828104,119.989404);(227.153004,120.019611);(227.477617,120.053072);(227.800713,120.041076);(228.095504,119.925496);(228.335895,119.710877);(228.540845,119.457030);(228.751842,119.208833);(229.008274,119.017491);(229.314903,118.933133);(229.639076,118.942329);(229.961419,118.992986);(230.283297,119.047287);(230.607595,119.070342);(230.922266,119.013056);(231.193664,118.846480);(231.414349,118.607901);(231.618001,118.352770);(231.844958,118.121105);</t>
+  </si>
+  <si>
+    <t>(232.443039,117.929303);(232.767068,117.960037);(233.088704,118.016048);(233.411424,118.063319);(233.735008,118.061550);(234.035173,117.958989);(234.282139,117.753626);(234.488760,117.501359);(234.696423,117.250059);(234.946296,117.049122);(235.248923,116.954891);(235.573361,116.956295);(235.898284,116.987775);(236.223969,117.003153);(236.550363,116.997350);(236.876612,116.997725);(237.201667,117.023956);(237.526368,117.055648);(237.847216,117.032134);(238.129907,116.893381);(238.352910,116.659259);(238.548588,116.397998);(238.766522,116.158182);(239.044031,116.012511);(239.363225,115.991522);(239.688265,116.017890);(240.001476,115.972245);(240.262786,115.796949);(240.466822,115.543716);(240.662061,115.282489);(240.901963,115.071978);(241.202336,114.985709);(241.526778,115.002849);(241.850203,115.009469);(242.142151,114.900605);(242.371200,114.675222);(242.563935,114.411883);(242.774818,114.165496);(243.047133,114.011783);(243.365172,113.986781);(243.690164,114.014001);(244.004148,113.971724);(244.267724,113.799991);(244.473972,113.548688);(244.669572,113.287635);(244.906944,113.072885);(245.204879,112.976070);(245.529250,112.984428);(245.854140,112.999625);(246.163312,112.927922);</t>
+  </si>
+  <si>
+    <t>(246.640537,112.500456);(246.831860,112.235969);(247.025213,111.973036);(247.235802,111.723974);(247.464102,111.490808);(247.703088,111.268377);(247.944988,111.049045);(248.183526,110.826103);(248.416887,110.597731);(248.646411,110.365485);(248.873714,110.131054);(249.100380,109.896005);(249.327842,109.661728);(249.557365,109.429478);(249.790135,109.200493);(250.027112,108.975875);(250.267106,108.754457);(250.505532,108.531383);(250.736033,108.300280);(250.951276,108.055174);(251.144752,107.792698);(251.315475,107.514721);(251.467393,107.225876);(251.605508,106.930076);(251.734994,106.630335);(251.860998,106.329092);(251.988597,106.028531);(252.121537,105.730309);(252.260582,105.434879);(252.404696,105.141879);(252.552714,104.850827);(252.703466,104.561175);(252.855781,104.272341);(253.008501,103.983719);(253.160639,103.694791);(253.311505,103.405198);(253.460548,103.114663);(253.607213,102.822924);(253.750941,102.529728);(253.891160,102.234840);(254.027285,101.938044);(254.158720,101.639145);(254.284854,101.337975);(254.405067,101.034397);(254.518729,100.728310);(254.625203,100.419655);(254.723856,100.108417);(254.814062,99.794632);(254.895211,99.478389);(254.966724,99.159834);</t>
+  </si>
+  <si>
+    <t>(254.903319,98.875801);(254.711809,98.625985);(254.524217,98.373216);(254.341015,98.117251);(254.162763,97.857820);(253.990132,97.594622);(253.823933,97.327325);(253.665154,97.055568);(253.515008,96.778962);(253.375006,96.497109);(253.247030,96.209628);(253.133443,95.916209);(253.037200,95.616716);(252.961951,95.311360);(252.912055,95.000974);(252.892383,94.687375);(252.907723,94.373700);(252.961703,94.064460);(253.055520,93.764937);(253.187224,93.479945);(253.352125,93.212592);(253.544114,92.963739);(253.757042,92.732321);(253.985538,92.516082);(254.225258,92.312229);(254.472796,92.117853);(254.725458,91.930133);(254.981047,91.746389);(255.237669,91.564079);(255.493564,91.380758);(255.746970,91.194033);(255.995985,91.001530);(256.238438,90.800884);(256.471765,90.589773);(256.692898,90.366020);(256.898219,90.127794);(257.084231,89.874276);(257.250440,89.607250);(257.399955,89.330404);(257.537036,89.047108);(257.666118,88.760026);(257.791639,88.471349);(257.918016,88.183049);(258.049307,87.896979);(258.187013,87.613936);(258.329590,87.333297);(258.474651,87.053927);(258.619808,86.774605);(258.762672,86.494112);(258.900857,86.211301);</t>
+  </si>
+  <si>
+    <t>(259.157334,85.636435);(259.279916,85.346495);(259.404976,85.057633);(259.537519,84.772182);(259.682588,84.492987);(259.845098,84.223725);(260.029151,83.968882);(260.234468,83.730722);(260.455235,83.506526);(260.684389,83.290750);(260.915813,83.077365);(261.144630,82.861217);(261.369241,82.640691);(261.590869,82.417152);(261.811240,82.192367);(262.032066,81.968031);(262.254236,81.745028);(262.477343,81.522959);(262.700453,81.300892);(262.922630,81.077894);(263.143309,80.853415);(263.363233,80.628194);(263.584239,80.404040);(263.808327,80.182985);(264.037299,79.967020);(264.270112,79.755160);(264.501337,79.541606);(264.723852,79.319170);(264.930946,79.082524);(265.120465,78.831466);(265.303024,78.575058);(265.499712,78.330100);(265.734842,78.126185);(266.019317,78.014115);(266.330051,78.003451);(266.643588,78.028081);(266.949383,77.993627);(267.210996,77.840383);(267.415500,77.603680);(267.601508,77.349884);(267.816455,77.124606);(268.090766,76.999709);(268.400716,76.991582);(268.713937,77.017422);(269.014920,76.968821);(269.265658,76.796692);(269.462174,76.552359);(269.648774,76.299191);(269.873986,76.087188);(270.158442,75.988196);</t>
+  </si>
+  <si>
+    <t>(270.783493,76.015892);(271.076651,75.941381);(271.314039,75.746825);(271.504634,75.497060);(271.695569,75.247595);(271.933832,75.054364);(272.227562,74.980631);(272.540617,74.998911);(272.852958,75.007530);(273.140649,74.913691);(273.373258,74.709611);(273.566362,74.461507);(273.762070,74.215724);(274.001463,74.020996);(274.293310,73.929999);(274.605494,73.934732);(274.916099,73.983965);(275.225744,74.040308);(275.537913,74.072980);(275.846289,74.040299);(276.120590,73.904163);(276.343336,73.685525);(276.538895,73.439023);(276.744622,73.201965);(276.995406,73.022813);(277.292885,72.946896);(277.606037,72.954566);(277.918890,72.988832);(278.232527,73.011945);(278.547137,73.013918);(278.861782,73.004973);(279.176457,72.997442);(279.491226,72.996064);(279.806005,72.998225);(280.120784,73.000444);(280.435570,73.001088);(280.750358,73.000605);(281.065146,72.999961);(281.379934,72.999709);(281.694722,72.999805);(282.009511,72.999986);(282.324299,73.000076);(282.639087,73.000062);(282.953876,73.000011);(283.268664,72.999978);(283.583452,72.999976);(283.898241,72.999993);(284.213029,73.000014);(284.527817,73.000026);(284.842606,73.000014);</t>
+  </si>
+  <si>
+    <t>(285.131662,73.000000);(285.394986,72.999999);(285.658310,73.000000);(285.921634,73.000000);(286.184958,73.000000);(286.448282,73.000000);(286.711606,73.000000);(286.974930,73.000000);(287.238254,72.999999);(287.501578,72.999998);(287.764902,72.999999);(288.028226,73.000001);(288.291550,73.000004);(288.554874,73.000006);(288.818198,73.000004);(289.081522,72.999996);(289.344846,72.999984);(289.608171,72.999978);(289.871495,72.999989);(290.134819,73.000024);(290.398143,73.000067);(290.661467,73.000080);(290.924791,73.000021);(291.188115,72.999876);(291.451439,72.999726);(291.714763,72.999720);(291.978086,73.000012);(292.241410,73.000591);(292.504733,73.001089);(292.768057,73.000931);(293.031376,72.999585);(293.294690,72.997338);(293.558007,72.995788);(293.821318,72.997129);(294.084556,73.003155);(294.347737,73.011728);(294.610979,73.015827);(294.874010,73.007586);(295.136060,72.983362);(295.397618,72.953238);(295.659952,72.941354);(295.916432,72.982117);(296.144732,73.101669);(296.333547,73.282569);(296.498461,73.487599);(296.661474,73.694259);(296.844431,73.881770);(297.065568,74.015418);(297.318505,74.071399);(297.580478,74.065830);(297.840942,74.028845);(298.100006,73.981733);(298.360037,73.941216);(298.622036,73.926548);(298.879133,73.965446);(299.110009,74.080756);(299.302338,74.257685);(299.469553,74.460777);(299.632866,74.667251);(299.813206,74.857713);(300.029599,75.000032);(300.279534,75.066894);(300.541297,75.068713);(300.802154,75.035288);(301.061287,74.988626);(301.320965,74.945582);(301.582737,74.924966);(301.841518,74.954009);(302.076649,75.059544);(302.272357,75.231896);(302.439808,75.434669);(302.601260,75.642622);(302.778608,75.835971);(302.992491,75.981657);(303.241681,76.049028);</t>
+  </si>
+  <si>
+    <t>(303.765601,76.024987);(304.027699,76.001309);(304.290697,75.995178);(304.553916,76.001579);(304.817125,76.004610);(305.079790,75.990720);(305.341624,75.963193);(305.603903,75.944562);(305.863461,75.968661);(306.100267,76.069406);(306.297433,76.239850);(306.465535,76.442037);(306.626822,76.650128);(306.803166,76.844486);(307.015339,76.993194);(307.263171,77.066026);(307.524707,77.070788);(307.785643,77.038288);(308.044800,76.991775);(308.304431,76.948390);(308.566156,76.926236);(308.825699,76.951045);(309.063979,77.049941);(309.264253,77.216644);(309.435077,77.416467);(309.597538,77.623662);(309.772412,77.819638);(309.980210,77.975610);(310.224422,78.059475);(310.485336,78.072831);(310.746648,78.044673);(311.005881,77.998761);(311.265053,77.952477);(311.526298,77.924073);(311.786745,77.939786);(312.027641,78.030685);(312.228623,78.195301);(312.396547,78.397427);(312.555052,78.607656);(312.727540,78.805507);(312.936989,78.957205);(313.184626,79.025157);(313.446591,79.022426);(313.708886,79.000171);(313.970153,79.006596);(314.217210,79.082256);(314.431869,79.229324);(314.612020,79.419793);(314.767808,79.631660);(314.910054,79.853172);(315.047698,80.077652);(315.188565,80.300073);(315.340667,80.514734);(315.513493,80.712365);(315.717217,80.875757);(315.954976,80.978562);(316.213427,81.009841);(316.476095,80.997122);(316.738765,80.983223);(316.997589,81.011573);(317.235206,81.113363);(317.437939,81.277997);(317.611668,81.475092);(317.769818,81.685521);(317.924942,81.898282);(318.087651,82.105130);(318.262440,82.301864);(318.447388,82.489179);(318.638936,82.669823);(318.833317,82.847458);(319.026817,83.026041);(319.217184,83.207950);(319.404470,83.393042);(319.589674,83.580225);(319.773803,83.768468);</t>
+  </si>
+  <si>
+    <t>(320.142620,84.144407);(320.328277,84.331143);(320.514585,84.517231);(320.701257,84.702954);(320.888007,84.888600);(321.074572,85.074430);(321.260858,85.260541);(321.446958,85.446837);(321.633012,85.633178);(321.819163,85.819425);(322.005543,86.005440);(322.192181,86.191198);(322.378903,86.376870);(322.565440,86.562729);(322.751516,86.749049);(322.936851,86.936104);(323.121326,87.124009);(323.305385,87.312323);(323.489939,87.500148);(323.675953,87.686524);(323.864353,87.870479);(324.055836,88.051217);(324.249572,88.229555);(324.442827,88.408407);(324.632173,88.591341);(324.813816,88.781827);(324.983385,88.982992);(325.137448,89.196218);(325.275943,89.419961);(325.401297,89.651404);(325.516428,89.888159);(325.624382,90.128310);(325.728205,90.370296);(325.830904,90.612767);(325.935455,90.854436);(326.044545,91.094073);(326.159070,91.331166);(326.277897,91.566143);(326.399388,91.799763);(326.521905,92.032849);(326.643798,92.266259);(326.763385,92.500853);(326.878933,92.737450);(326.988656,92.976787);(327.091202,93.219277);(327.186288,93.464792);(327.274315,93.712932);(327.355759,93.963314);(327.431124,94.215599);(327.500926,94.469483);(327.565694,94.724702);(327.625959,94.981024);(327.682251,95.238252);(327.735097,95.496212);(327.785019,95.754756);(327.832531,96.013754);(327.878145,96.273096);(327.922365,96.532680);(327.965691,96.792415);(328.008620,97.052216);(328.051649,97.312000);(328.095274,97.571685);(328.139994,97.831183);(328.186310,98.090399);(328.234729,98.349230);(328.285764,98.607555);(328.339932,98.865240);(328.397758,99.122126);(328.459769,99.378030);(328.526497,99.632742);(328.598472,99.886017);(328.676218,100.137576);(328.760250,100.387100);(328.851059,100.634233);(328.949109,100.878577);</t>
+  </si>
+  <si>
+    <t>(328.882559,101.083504);(328.655585,101.260647);(328.445001,101.457028);(328.251449,101.670280);(328.074575,101.897637);(327.913137,102.136281);(327.765234,102.383609);(327.628555,102.637366);(327.500586,102.895664);(327.378742,103.156932);(327.260442,103.419839);(327.143137,103.683195);(327.024318,103.945866);(326.902102,104.206967);(326.776236,104.466332);(326.647572,104.724325);(326.517053,104.981387);(326.385620,105.237985);(326.254231,105.494605);(326.123879,105.751752);(325.995581,106.009926);(325.869741,106.269308);(325.745546,106.529485);(325.621538,106.789752);(325.496265,107.049410);(325.368396,107.307794);(325.236803,107.564295);(325.100605,107.818374);(324.958840,108.069376);(324.807690,108.314721);(324.638961,108.547917);(324.441824,108.756440);(324.206330,108.916681);(323.935468,108.998304);(323.649205,109.005723);(323.361654,108.986432);(323.076042,108.998458);(322.810388,109.092163);(322.584846,109.266435);(322.394294,109.481794);(322.220204,109.711514);(322.044879,109.940243);(321.855010,110.156701);(321.649449,110.358597);(321.437147,110.553630);(321.228594,110.752531);(321.033922,110.964677);(320.856951,111.191934);(320.688086,111.425580);(320.509417,111.651350);(320.300874,111.847206);(320.048700,111.972380);(319.767159,112.003589);(319.480093,111.980813);(319.193603,111.974489);(318.927140,112.055629);(318.710284,112.236791);(318.534160,112.464313);(318.362870,112.695935);(318.160068,112.895904);(317.904842,113.004353);(317.620384,113.010932);(317.333614,112.983427);(317.051739,113.005235);(316.805854,113.134126);(316.612782,113.344977);(316.444489,113.578935);(316.263717,113.802129);(316.035387,113.964424);(315.761363,114.018479);(315.474643,113.997186);(315.188192,113.983231);(314.920177,114.056723);(314.701853,114.235102);(314.526130,114.462839);</t>
+  </si>
+  <si>
+    <t>(314.526130,114.462839);(314.356246,114.695508);(314.154804,114.896771);(313.900105,115.005768);(313.615661,115.012087);(313.328911,114.984426);(313.047166,115.006678);(312.801495,115.136131);(312.608405,115.347025);(312.439848,115.580795);(312.258809,115.803782);(312.030447,115.966254);(311.756476,116.021634);(311.469657,116.002004);(311.183009,115.987361);(310.912026,116.054534);(310.686231,116.223700);(310.502794,116.445041);(310.330206,116.675873);(310.135999,116.886501);(309.894250,117.029702);(309.615329,117.077782);(309.328950,117.057733);(309.044974,117.008766);(308.761383,116.957205);(308.475428,116.926318);(308.191108,116.947918);(307.931575,117.056577);(307.716860,117.244057);(307.534021,117.466502);(307.354552,117.691929);(307.149873,117.891915);(306.899919,118.020845);(306.618371,118.059052);(306.331330,118.040500);(306.045001,118.007162);(305.757780,117.985041);(305.469665,117.981372);(305.181573,117.990792);(304.893656,118.005574);(304.605628,118.017306);(304.317463,118.017792);(304.029941,118.000304);(303.743575,117.967635);(303.456830,117.941231);(303.172060,117.960050);(302.912213,118.066478);(302.698276,118.254611);(302.516734,118.478118);(302.337995,118.704091);(302.132399,118.902728);(301.880517,119.027057);(301.598068,119.060150);(301.311126,119.038915);(301.024855,119.005151);(300.737578,118.983958);(300.449448,118.981415);(300.161378,118.991638);(299.873471,119.006633);(299.585430,119.017878);(299.297274,119.017264);(299.009842,118.998372);(298.723521,118.965188);(298.436698,118.940509);(298.152654,118.964351);(297.895639,119.077401);(297.684852,119.269633);(297.504463,119.494164);(297.324822,119.719352);(297.116261,119.914384);(296.861372,120.032210);(296.577944,120.059858);(296.291068,120.036558);(296.004771,120.003086);(295.717404,119.983213);</t>
+  </si>
+  <si>
+    <t>(295.717404,119.983213);(295.429257,119.981797);(295.141204,119.992628);(294.853299,120.007649);(294.565242,120.018328);(294.277099,120.016610);(293.989758,119.996354);(293.703475,119.962751);(293.416583,119.939960);(293.133419,119.969096);(292.879413,120.088820);(292.671805,120.285004);(292.492537,120.510511);(292.311867,120.734787);(292.100084,120.925715);(291.842079,121.036374);(291.557744,121.058242);(291.270910,121.033163);(290.984448,121.001402);(290.696863,120.985279);(290.408671,120.986549);(290.120520,120.995567);(289.832327,121.002633);(289.544045,121.004186);(289.255753,121.002353);(288.967463,121.000009);(288.679166,120.998914);(288.390866,120.999074);(288.102567,120.999727);(287.814267,121.000206);(287.525967,121.000296);(287.237667,121.000157);(286.949366,120.999993);(286.661066,120.999925);(286.372766,120.999942);(286.084466,120.999985);(285.796165,121.000006);(285.507865,121.000000);(285.219565,120.999994);(284.931265,121.000013);(284.642964,121.000056);(284.354664,121.000076);(284.066364,121.000013);(283.778064,120.999853);(283.489763,120.999707);(283.201463,120.999779);(282.913163,121.000239);(282.624864,121.000897);(282.336564,121.001105);(282.048267,121.000091);(281.759977,120.997783);(281.471685,120.995849);(281.183401,120.997141);(280.895202,121.003940);(280.607054,121.013076);(280.318857,121.015047);(280.031212,120.999989);(279.744716,120.968662);(279.457943,120.942279);(279.173078,120.960311);(278.912945,121.065903);(278.698811,121.253722);(278.517330,121.477269);(278.338775,121.703389);(278.133345,121.902187);(277.881497,122.026455);(277.599022,122.059284);(277.312057,122.038093);(277.025682,122.005297);(276.738283,121.986159);(276.450114,121.985311);(276.161961,121.994021);(275.873794,122.002286);(275.585527,122.005219);(275.297236,122.003768);</t>
+  </si>
+  <si>
+    <t>(273.848958,122.000000);(273.546875,122.000000);(273.244792,122.000000);(272.942708,122.000000);(272.640625,122.000000);(272.338542,122.000000);(272.036458,122.000000);(271.734375,122.000000);(271.432292,122.000000);(271.130208,122.000000);(270.828125,122.000000);(270.526042,122.000000);(270.223958,122.000000);(269.921875,122.000000);(269.619792,122.000000);(269.317708,122.000000);(269.015625,122.000000);(268.713542,122.000000);(268.411458,122.000000);(268.109375,122.000000);(267.807292,122.000000);(267.505208,122.000000);(267.203125,122.000000);(266.901042,122.000000);(266.598958,122.000000);(266.296875,122.000000);(265.994792,122.000000);(265.692708,122.000000);(265.390625,122.000000);(265.088542,122.000000);(264.786458,122.000000);(264.484375,122.000000);(264.182292,122.000000);(263.880208,122.000000);(263.578125,122.000000);(263.276042,122.000000);(262.973958,122.000000);(262.671875,122.000000);(262.369792,122.000000);(262.067708,122.000000);(261.765625,122.000000);(261.463542,122.000000);(261.161458,122.000000);(260.859375,122.000000);(260.557292,122.000000);(260.255208,122.000000);(259.953125,122.000000);(259.651042,122.000000);(259.348958,122.000000);(259.046875,122.000000);(258.744792,122.000000);(258.442708,122.000000);(258.140625,122.000000);(257.838542,122.000000);(257.536458,122.000000);(257.234375,122.000000);(256.932292,122.000000);(256.630208,122.000000);(256.328125,122.000000);(256.026042,122.000000);(255.723958,122.000000);(255.421875,122.000000);(255.119792,122.000000);(254.817708,122.000000);(254.515625,122.000000);(254.213542,122.000000);(253.911458,122.000000);(253.609375,122.000000);(253.307292,122.000000);(253.005208,122.000000);</t>
+  </si>
+  <si>
+    <t>(253.005208,122.000000);(252.703125,122.000000);(252.401042,122.000000);(252.098958,122.000000);(251.796875,122.000000);(251.494792,122.000000);(251.192708,122.000000);(250.890625,122.000000);(250.588542,122.000000);(250.286458,122.000000);(249.984375,122.000000);(249.682292,122.000000);(249.380208,122.000000);(249.078125,122.000000);(248.776042,122.000000);(248.473958,122.000000);(248.171875,122.000000);(247.869792,122.000000);(247.567708,122.000000);(247.265625,122.000000);(246.963542,122.000000);(246.661458,122.000000);(246.359375,122.000000);(246.057292,122.000000);(245.755208,122.000000);(245.453125,122.000000);(245.151042,122.000000);(244.848958,122.000000);(244.546875,122.000000);(244.244792,122.000000);(243.942708,122.000000);(243.640625,122.000000);(243.338542,122.000000);(243.036458,122.000000);(242.734375,122.000000);(242.432292,122.000000);(242.130208,122.000000);(241.828125,122.000000);(241.526042,122.000000);(241.223958,122.000000);(240.921875,122.000000);(240.619792,122.000000);(240.317708,122.000000);(240.015625,122.000000);(239.713542,122.000000);(239.411458,122.000000);(239.109375,122.000000);(238.807292,122.000000);(238.505208,122.000000);(238.203125,122.000000);(237.901042,122.000000);(237.598958,122.000000);(237.296875,122.000000);(236.994792,122.000000);(236.692708,122.000000);(236.390625,122.000000);(236.088542,122.000000);(235.786458,122.000000);(235.484375,122.000000);(235.182292,122.000000);</t>
+  </si>
+  <si>
+    <t>(235.182292,122.000000);(234.880208,122.000000);(234.578125,122.000000);(234.276042,122.000000);(233.973958,122.000000);(233.671875,122.000000);(233.369792,122.000000);(233.067708,122.000000);(232.765625,122.000000);(232.463542,122.000000);(232.161458,122.000000);(231.859375,122.000000);(231.557292,122.000000);(231.255208,122.000000);(230.953125,122.000000);(230.651042,122.000000);(230.348958,122.000000);(230.046875,122.000000);(229.744792,122.000000);(229.442708,122.000000);(229.140625,122.000000);(228.838542,122.000000);(228.536458,122.000000);(228.234375,122.000000);(227.932292,122.000000);(227.630208,122.000000);(227.328125,122.000000);(227.026042,122.000000);(226.723958,122.000000);(226.421875,122.000000);(226.119792,122.000000);(225.817708,122.000000);(225.515625,122.000000);(225.213542,122.000000);(224.911458,122.000000);(224.609375,122.000000);(224.307292,122.000000);(224.005208,122.000000);(223.703125,122.000000);(223.401042,122.000000);(223.098958,122.000000);(222.796875,122.000000);(222.494792,122.000000);(222.192708,122.000000);(221.890625,122.000000);(221.588542,122.000000);(221.286458,122.000000);(220.984375,122.000000);(220.682292,122.000000);(220.380208,122.000000);(220.078125,122.000000);(219.776042,122.000000);(219.473958,122.000000);(219.171875,122.000000);(218.869792,122.000000);(218.567708,122.000000);(218.265625,122.000000);(217.963542,122.000000);(217.661458,122.000000);(217.359375,122.000000);</t>
+  </si>
+  <si>
+    <t>(215.988038,122.000000);(215.964115,122.000000);(215.940191,122.000000);(215.916268,122.000000);(215.892344,122.000000);(215.868421,122.000000);(215.844498,122.000000);(215.820574,122.000000);(215.796651,122.000000);(215.772727,122.000000);(215.748804,122.000000);(215.724880,122.000000);(215.700957,122.000000);(215.677033,122.000000);(215.653110,122.000000);(215.629187,122.000000);(215.605263,122.000000);(215.581340,122.000000);(215.557416,122.000000);(215.533493,122.000000);(215.509569,122.000000);(215.485646,122.000000);(215.461722,122.000000);(215.437799,122.000000);(215.413876,122.000000);(215.389952,122.000000);(215.366029,122.000000);(215.342105,122.000000);(215.318182,122.000000);(215.294258,122.000000);(215.270335,122.000000);(215.246411,122.000000);(215.222488,122.000000);(215.198565,122.000000);(215.174641,122.000000);(215.150718,122.000000);(215.126794,122.000000);(215.102871,122.000000);(215.078947,122.000000);(215.055024,122.000000);(215.031100,122.000000);(215.007177,122.000000);(214.983254,122.000000);(214.959330,122.000000);(214.935407,122.000000);(214.911483,122.000000);(214.887560,122.000000);(214.863636,122.000000);(214.839713,122.000000);(214.815789,122.000000);</t>
+  </si>
+  <si>
+    <t>(214.815789,122.000000);(214.791866,122.000000);(214.767943,122.000000);(214.744019,122.000000);(214.720096,122.000000);(214.696172,122.000000);(214.672249,122.000000);(214.648325,122.000000);(214.624402,122.000000);(214.600478,122.000000);(214.576555,122.000000);(214.552632,122.000000);(214.528708,122.000000);(214.504785,122.000000);(214.480861,122.000000);(214.456938,122.000000);(214.433014,122.000000);(214.409091,122.000000);(214.385167,122.000000);(214.361244,122.000000);(214.337321,122.000000);(214.313397,122.000000);(214.289474,122.000000);(214.265550,122.000000);(214.241627,122.000000);(214.217703,122.000000);(214.193780,122.000000);(214.169856,122.000000);(214.145933,122.000000);(214.122010,122.000000);(214.098086,122.000000);(214.074163,122.000000);(214.050239,122.000000);(214.026316,122.000000);(214.002392,122.000000);(213.978469,122.000000);(213.954545,122.000000);(213.930622,122.000000);(213.906699,122.000000);(213.882775,122.000000);(213.858852,122.000000);(213.834928,122.000000);(213.811005,122.000000);(213.787081,122.000000);(213.763158,122.000000);(213.739234,122.000000);(213.715311,122.000000);(213.691388,122.000000);(213.667464,122.000000);(213.643541,122.000000);(213.619617,122.000000);(213.595694,122.000000);(213.571770,122.000000);(213.547847,122.000000);(213.523923,122.000000);(213.500000,122.000000);(213.476077,122.000000);(213.452153,122.000000);(213.428230,122.000000);(213.404306,122.000000);(213.380383,122.000000);(213.356459,122.000000);(213.332536,122.000000);(213.308612,122.000000);(213.284689,122.000000);(213.260766,122.000000);(213.236842,122.000000);(213.212919,122.000000);(213.188995,122.000000);(213.165072,122.000000);(213.141148,122.000000);(213.117225,122.000000);(213.093301,122.000000);(213.069378,122.000000);(213.045455,122.000000);(213.021531,122.000000);(212.997608,122.000000);(212.973684,122.000000);(212.949761,122.000000);(212.925837,122.000000);(212.901914,122.000000);(212.877990,122.000000);(212.854067,122.000000);(212.830144,122.000000);(212.806220,122.000000);(212.782297,122.000000);(212.758373,122.000000);(212.734450,122.000000);(212.710526,122.000000);(212.686603,122.000000);(212.662679,122.000000);(212.638756,122.000000);(212.614833,122.000000);(212.590909,122.000000);(212.566986,122.000000);(212.543062,122.000000);(212.519139,122.000000);(212.495215,122.000000);(212.471292,122.000000);(212.447368,122.000000);(212.423445,122.000000);(212.399522,122.000000);(212.375598,122.000000);(212.351675,122.000000);(212.327751,122.000000);(212.303828,122.000000);(212.279904,122.000000);(212.255981,122.000000);(212.232057,122.000000);(212.208134,122.000000);(212.184211,122.000000);(212.160287,122.000000);(212.136364,122.000000);(212.112440,122.000000);(212.088517,122.000000);(212.064593,122.000000);(212.040670,122.000000);(212.016746,122.000000);(211.992823,122.000000);(211.968900,122.000000);(211.944976,122.000000);(211.921053,122.000000);(211.897129,122.000000);(211.873206,122.000000);(211.849282,122.000000);(211.825359,122.000000);(211.801435,122.000000);(211.777512,122.000000);(211.753589,122.000000);(211.729665,122.000000);(211.705742,122.000000);(211.681818,122.000000);(211.657895,122.000000);(211.633971,122.000000);(211.610048,122.000000);(211.586124,122.000000);(211.562201,122.000000);(211.538278,122.000000);(211.514354,122.000000);(211.490431,122.000000);(211.466507,122.000000);(211.442584,122.000000);(211.418660,122.000000);(211.394737,122.000000);(211.370813,122.000000);(211.346890,122.000000);(211.322967,122.000000);(211.299043,122.000000);(211.275120,122.000000);(211.251196,122.000000);(211.227273,122.000000);(211.203349,122.000000);(211.179426,122.000000);(211.155502,122.000000);(211.131579,122.000000);(211.107656,122.000000);(211.083732,122.000000);(211.059809,122.000000);(211.035885,122.000000);(211.011962,122.000000);(210.988038,122.000000);(210.964115,122.000000);(210.940191,122.000000);(210.916268,122.000000);(210.892344,122.000000);(210.868421,122.000000);(210.844498,122.000000);(210.820574,122.000000);(210.796651,122.000000);(210.772727,122.000000);(210.748804,122.000000);(210.724880,122.000000);(210.700957,122.000000);(210.677033,122.000000);(210.653110,122.000000);(210.629187,122.000000);(210.605263,122.000000);(210.581340,122.000000);(210.557416,122.000000);(210.533493,122.000000);(210.509569,122.000000);(210.485646,122.000000);(210.461722,122.000000);(210.437799,122.000000);(210.413876,122.000000);(210.389952,122.000000);(210.366029,122.000000);(210.342105,122.000000);(210.318182,122.000000);(210.294258,122.000000);(210.270335,122.000000);(210.246411,122.000000);(210.222488,122.000000);(210.198565,122.000000);(210.174641,122.000000);(210.150718,122.000000);(210.126794,122.000000);(210.102871,122.000000);(210.078947,122.000000);(210.055024,122.000000);</t>
+  </si>
+  <si>
+    <t>(210.055024,122.000000);(210.031100,122.000000);(210.007177,122.000000);(209.983254,122.000000);(209.959330,122.000000);(209.935407,122.000000);(209.911483,122.000000);(209.887560,122.000000);(209.863636,122.000000);(209.839713,122.000000);(209.815789,122.000000);(209.791866,122.000000);(209.767943,122.000000);(209.744019,122.000000);(209.720096,122.000000);(209.696172,122.000000);(209.672249,122.000000);(209.648325,122.000000);(209.624402,122.000000);(209.600478,122.000000);(209.576555,122.000000);(209.552632,122.000000);(209.528708,122.000000);(209.504785,122.000000);(209.480861,122.000000);(209.456938,122.000000);(209.433014,122.000000);(209.409091,122.000000);(209.385167,122.000000);(209.361244,122.000000);(209.337321,122.000000);(209.313397,122.000000);(209.289474,122.000000);(209.265550,122.000000);(209.241627,122.000000);(209.217703,122.000000);(209.193780,122.000000);(209.169856,122.000000);(209.145933,122.000000);(209.122010,122.000000);(209.098086,122.000000);(209.074163,122.000000);(209.050239,122.000000);(209.026316,122.000000);(209.002392,122.000000);(208.978469,122.000000);(208.954545,122.000000);(208.930622,122.000000);(208.906699,122.000000);(208.882775,122.000000);(208.858852,122.000000);(208.834928,122.000000);(208.811005,122.000000);(208.787081,122.000000);(208.763158,122.000000);(208.739234,122.000000);(208.715311,122.000000);(208.691388,122.000000);(208.667464,122.000000);(208.643541,122.000000);(208.619617,122.000000);(208.595694,122.000000);(208.571770,122.000000);(208.547847,122.000000);(208.523923,122.000000);(208.500000,122.000000);(208.476077,122.000000);(208.452153,122.000000);(208.428230,122.000000);(208.404306,122.000000);(208.380383,122.000000);(208.356459,122.000000);(208.332536,122.000000);(208.308612,122.000000);(208.284689,122.000000);(208.260766,122.000000);(208.236842,122.000000);(208.212919,122.000000);(208.188995,122.000000);(208.165072,122.000000);(208.141148,122.000000);(208.117225,122.000000);(208.093301,122.000000);(208.069378,122.000000);(208.045455,122.000000);(208.021531,122.000000);(207.997608,122.000000);(207.973684,122.000000);(207.949761,122.000000);(207.925837,122.000000);(207.901914,122.000000);(207.877990,122.000000);(207.854067,122.000000);(207.830144,122.000000);(207.806220,122.000000);(207.782297,122.000000);(207.758373,122.000000);(207.734450,122.000000);(207.710526,122.000000);(207.686603,122.000000);(207.662679,122.000000);(207.638756,122.000000);(207.614833,122.000000);(207.590909,122.000000);(207.566986,122.000000);(207.543062,122.000000);(207.519139,122.000000);(207.495215,122.000000);(207.471292,122.000000);(207.447368,122.000000);(207.423445,122.000000);(207.399522,122.000000);(207.375598,122.000000);(207.351675,122.000000);(207.327751,122.000000);(207.303828,122.000000);(207.279904,122.000000);(207.255981,122.000000);(207.232057,122.000000);(207.208134,122.000000);(207.184211,122.000000);(207.160287,122.000000);(207.136364,122.000000);(207.112440,122.000000);(207.088517,122.000000);(207.064593,122.000000);(207.040670,122.000000);(207.016746,122.000000);(206.992823,122.000000);(206.968900,122.000000);(206.944976,122.000000);(206.921053,122.000000);(206.897129,122.000000);(206.873206,122.000000);(206.849282,122.000000);(206.825359,122.000000);(206.801435,122.000000);(206.777512,122.000000);(206.753589,122.000000);(206.729665,122.000000);(206.705742,122.000000);(206.681818,122.000000);(206.657895,122.000000);(206.633971,122.000000);(206.610048,122.000000);(206.586124,122.000000);(206.562201,122.000000);(206.538278,122.000000);(206.514354,122.000000);(206.490431,122.000000);(206.466507,122.000000);(206.442584,122.000000);(206.418660,122.000000);(206.394737,122.000000);(206.370813,122.000000);(206.346890,122.000000);(206.322967,122.000000);(206.299043,122.000000);(206.275120,122.000000);(206.251196,122.000000);(206.227273,122.000000);(206.203349,122.000000);(206.179426,122.000000);(206.155502,122.000000);(206.131579,122.000000);(206.107656,122.000000);(206.083732,122.000000);(206.059809,122.000000);(206.035885,122.000000);(206.011962,122.000000);(205.988038,122.000000);(205.964115,122.000000);(205.940191,122.000000);(205.916268,122.000000);(205.892344,122.000000);(205.868421,122.000000);(205.844498,122.000000);(205.820574,122.000000);(205.796651,122.000000);(205.772727,122.000000);(205.748804,122.000000);(205.724880,122.000000);(205.700957,122.000000);(205.677033,122.000000);(205.653110,122.000000);(205.629187,122.000000);(205.605263,122.000000);(205.581340,122.000000);(205.557416,122.000000);(205.533493,122.000000);(205.509569,122.000000);(205.485646,122.000000);(205.461722,122.000000);(205.437799,122.000000);(205.413876,122.000000);(205.389952,122.000000);(205.366029,122.000000);(205.342105,122.000000);(205.318182,122.000000);(205.294258,122.000000);(205.270335,122.000000);(205.246411,122.000000);(205.222488,122.000000);(205.198565,122.000000);(205.174641,122.000000);(205.150718,122.000000);(205.126794,122.000000);(205.102871,122.000000);(205.078947,122.000000);(205.055024,122.000000);(205.031100,122.000000);(205.007177,122.000000);(204.983254,122.000000);(204.959330,122.000000);(204.935407,122.000000);(204.911483,122.000000);(204.887560,122.000000);(204.863636,122.000000);(204.839713,122.000000);(204.815789,122.000000);(204.791866,122.000000);(204.767943,122.000000);(204.744019,122.000000);(204.720096,122.000000);(204.696172,122.000000);(204.672249,122.000000);(204.648325,122.000000);(204.624402,122.000000);(204.600478,122.000000);(204.576555,122.000000);(204.552632,122.000000);(204.528708,122.000000);(204.504785,122.000000);(204.480861,122.000000);(204.456938,122.000000);(204.433014,122.000000);(204.409091,122.000000);(204.385167,122.000000);(204.361244,122.000000);(204.337321,122.000000);(204.313397,122.000000);(204.289474,122.000000);(204.265550,122.000000);(204.241627,122.000000);(204.217703,122.000000);(204.193780,122.000000);(204.169856,122.000000);(204.145933,122.000000);(204.122010,122.000000);(204.098086,122.000000);(204.074163,122.000000);(204.050239,122.000000);(204.026316,122.000000);(204.002392,122.000000);(203.978469,122.000000);(203.954545,122.000000);(203.930622,122.000000);(203.906699,122.000000);(203.882775,122.000000);(203.858852,122.000000);(203.834928,122.000000);(203.811005,122.000000);(203.787081,122.000000);(203.763158,122.000000);(203.739234,122.000000);(203.715311,122.000000);(203.691388,122.000000);(203.667464,122.000000);(203.643541,122.000000);(203.619617,122.000000);(203.595694,122.000000);(203.571770,122.000000);(203.547847,122.000000);(203.523923,122.000000);(203.500000,122.000000);(203.476077,122.000000);(203.452153,122.000000);(203.428230,122.000000);(203.404306,122.000000);(203.380383,122.000000);(203.356459,122.000000);(203.332536,122.000000);(203.308612,122.000000);(203.284689,122.000000);(203.260766,122.000000);(203.236842,122.000000);(203.212919,122.000000);(203.188995,122.000000);(203.165072,122.000000);(203.141148,122.000000);(203.117225,122.000000);(203.093301,122.000000);(203.069378,122.000000);(203.045455,122.000000);(203.021531,122.000000);(202.997608,122.000000);(202.973684,122.000000);(202.949761,122.000000);(202.925837,122.000000);(202.901914,122.000000);(202.877990,122.000000);(202.854067,122.000000);(202.830144,122.000000);(202.806220,122.000000);(202.782297,122.000000);(202.758373,122.000000);(202.734450,122.000000);(202.710526,122.000000);(202.686603,122.000000);(202.662679,122.000000);(202.638756,122.000000);(202.614833,122.000000);(202.590909,122.000000);(202.566986,122.000000);(202.543062,122.000000);(202.519139,122.000000);(202.495215,122.000000);(202.471292,122.000000);(202.447368,122.000000);(202.423445,122.000000);(202.399522,122.000000);(202.375598,122.000000);(202.351675,122.000000);(202.327751,122.000000);(202.303828,122.000000);(202.279904,122.000000);(202.255981,122.000000);(202.232057,122.000000);(202.208134,122.000000);(202.184211,122.000000);(202.160287,122.000000);(202.136364,122.000000);(202.112440,122.000000);(202.088517,122.000000);(202.064593,122.000000);(202.040670,122.000000);(202.016746,122.000000);(201.992823,122.000000);(201.968900,122.000000);(201.944976,122.000000);(201.921053,122.000000);(201.897129,122.000000);(201.873206,122.000000);(201.849282,122.000000);(201.825359,122.000000);(201.801435,122.000000);(201.777512,122.000000);(201.753589,122.000000);(201.729665,122.000000);(201.705742,122.000000);(201.681818,122.000000);(201.657895,122.000000);(201.633971,122.000000);(201.610048,122.000000);(201.586124,122.000000);(201.562201,122.000000);(201.538278,122.000000);(201.514354,122.000000);(201.490431,122.000000);(201.466507,122.000000);(201.442584,122.000000);(201.418660,122.000000);(201.394737,122.000000);(201.370813,122.000000);(201.346890,122.000000);(201.322967,122.000000);(201.299043,122.000000);(201.275120,122.000000);(201.251196,122.000000);(201.227273,122.000000);(201.203349,122.000000);(201.179426,122.000000);(201.155502,122.000000);(201.131579,122.000000);(201.107656,122.000000);(201.083732,122.000000);(201.059809,122.000000);(201.035885,122.000000);(201.011962,122.000000);(200.988038,122.000000);(200.964115,122.000000);(200.940191,122.000000);(200.916268,122.000000);(200.892344,122.000000);(200.868421,122.000000);(200.844498,122.000000);(200.820574,122.000000);(200.796651,122.000000);(200.772727,122.000000);(200.748804,122.000000);(200.724880,122.000000);(200.700957,122.000000);(200.677033,122.000000);(200.653110,122.000000);(200.629187,122.000000);(200.605263,122.000000);(200.581340,122.000000);(200.557416,122.000000);(200.533493,122.000000);(200.509569,122.000000);</t>
+  </si>
+  <si>
+    <t>(200.509569,122.000000);(200.485646,122.000000);(200.461722,122.000000);(200.437799,122.000000);(200.413876,122.000000);(200.389952,122.000000);(200.366029,122.000000);(200.342105,122.000000);(200.318182,122.000000);(200.294258,122.000000);(200.270335,122.000000);(200.246411,122.000000);(200.222488,122.000000);(200.198565,122.000000);(200.174641,122.000000);(200.150718,122.000000);(200.126794,122.000000);(200.102871,122.000000);(200.078947,122.000000);(200.055024,122.000000);(200.031100,122.000000);(200.007177,122.000000);(199.983254,122.000000);(199.959330,122.000000);(199.935407,122.000000);(199.911483,122.000000);(199.887560,122.000000);(199.863636,122.000000);(199.839713,122.000000);(199.815789,122.000000);(199.791866,122.000000);(199.767943,122.000000);(199.744019,122.000000);(199.720096,122.000000);(199.696172,122.000000);(199.672249,122.000000);(199.648325,122.000000);(199.624402,122.000000);(199.600478,122.000000);(199.576555,122.000000);(199.552632,122.000000);(199.528708,122.000000);(199.504785,122.000000);(199.480861,122.000000);(199.456938,122.000000);(199.433014,122.000000);(199.409091,122.000000);(199.385167,122.000000);(199.361244,122.000000);(199.337321,122.000000);(199.313397,122.000000);(199.289474,122.000000);(199.265550,122.000000);(199.241627,122.000000);(199.217703,122.000000);(199.193780,122.000000);(199.169856,122.000000);(199.145933,122.000000);(199.122010,122.000000);(199.098086,122.000000);(199.074163,122.000000);(199.050239,122.000000);(199.026316,122.000000);(199.002392,122.000000);(198.978469,122.000000);(198.954545,122.000000);(198.930622,122.000000);(198.906699,122.000000);(198.882775,122.000000);(198.858852,122.000000);(198.834928,122.000000);(198.811005,122.000000);(198.787081,122.000000);(198.763158,122.000000);(198.739234,122.000000);(198.715311,122.000000);(198.691388,122.000000);(198.667464,122.000000);(198.643541,122.000000);(198.619617,122.000000);(198.595694,122.000000);(198.571770,122.000000);(198.547847,122.000000);(198.523923,122.000000);(198.500000,122.000000);(198.476077,122.000000);(198.452153,122.000000);(198.428230,122.000000);(198.404306,122.000000);(198.380383,122.000000);(198.356459,122.000000);(198.332536,122.000000);(198.308612,122.000000);(198.284689,122.000000);(198.260766,122.000000);(198.236842,122.000000);(198.212919,122.000000);(198.188995,122.000000);(198.165072,122.000000);(198.141148,122.000000);(198.117225,122.000000);(198.093301,122.000000);(198.069378,122.000000);(198.045455,122.000000);(198.021531,122.000000);(197.997608,122.000000);(197.973684,122.000000);(197.949761,122.000000);(197.925837,122.000000);(197.901914,122.000000);(197.877990,122.000000);(197.854067,122.000000);(197.830144,122.000000);(197.806220,122.000000);(197.782297,122.000000);(197.758373,122.000000);(197.734450,122.000000);(197.710526,122.000000);(197.686603,122.000000);(197.662679,122.000000);(197.638756,122.000000);(197.614833,122.000000);(197.590909,122.000000);(197.566986,122.000000);(197.543062,122.000000);(197.519139,122.000000);(197.495215,122.000000);(197.471292,122.000000);(197.447368,122.000000);(197.423445,122.000000);(197.399522,122.000000);(197.375598,122.000000);(197.351675,122.000000);(197.327751,122.000000);(197.303828,122.000000);(197.279904,122.000000);(197.255981,122.000000);(197.232057,122.000000);(197.208134,122.000000);(197.184211,122.000000);(197.160287,122.000000);(197.136364,122.000000);(197.112440,122.000000);(197.088517,122.000000);(197.064593,122.000000);(197.040670,122.000000);(197.016746,122.000000);(196.992823,122.000000);(196.968900,122.000000);(196.944976,122.000000);(196.921053,122.000000);(196.897129,122.000000);(196.873206,122.000000);(196.849282,122.000000);(196.825359,122.000000);(196.801435,122.000000);(196.777512,122.000000);(196.753589,122.000000);(196.729665,122.000000);(196.705742,122.000000);(196.681818,122.000000);(196.657895,122.000000);(196.633971,122.000000);(196.610048,122.000000);(196.586124,122.000000);(196.562201,122.000000);(196.538278,122.000000);(196.514354,122.000000);(196.490431,122.000000);(196.466507,122.000000);(196.442584,122.000000);(196.418660,122.000000);(196.394737,122.000000);(196.370813,122.000000);(196.346890,122.000000);(196.322967,122.000000);(196.299043,122.000000);(196.275120,122.000000);(196.251196,122.000000);(196.227273,122.000000);(196.203349,122.000000);(196.179426,122.000000);(196.155502,122.000000);(196.131579,122.000000);(196.107656,122.000000);(196.083732,122.000000);(196.059809,122.000000);(196.035885,122.000000);(196.011962,122.000000);(195.988038,122.000000);(195.964115,122.000000);(195.940191,122.000000);(195.916268,122.000000);(195.892344,122.000000);(195.868421,122.000000);(195.844498,122.000000);(195.820574,122.000000);(195.796651,122.000000);(195.772727,122.000000);(195.748804,122.000000);(195.724880,122.000000);(195.700957,122.000000);(195.677033,122.000000);(195.653110,122.000000);(195.629187,122.000000);(195.605263,122.000000);(195.581340,122.000000);(195.557416,122.000000);(195.533493,122.000000);(195.509569,122.000000);(195.485646,122.000000);(195.461722,122.000000);(195.437799,122.000000);(195.413876,122.000000);(195.389952,122.000000);(195.366029,122.000000);(195.342105,122.000000);(195.318182,122.000000);(195.294258,122.000000);(195.270335,122.000000);(195.246411,122.000000);(195.222488,122.000000);(195.198565,122.000000);(195.174641,122.000000);(195.150718,122.000000);(195.126794,122.000000);(195.102871,122.000000);(195.078947,122.000000);(195.055024,122.000000);(195.031100,122.000000);(195.007177,122.000000);(194.983254,122.000000);(194.959330,122.000000);(194.935407,122.000000);(194.911483,122.000000);(194.887560,122.000000);(194.863636,122.000000);(194.839713,122.000000);(194.815789,122.000000);(194.791866,122.000000);(194.767943,122.000000);(194.744019,122.000000);(194.720096,122.000000);(194.696172,122.000000);(194.672249,122.000000);(194.648325,122.000000);(194.624402,122.000000);(194.600478,122.000000);(194.576555,122.000000);(194.552632,122.000000);(194.528708,122.000000);(194.504785,122.000000);(194.480861,122.000000);(194.456938,122.000000);(194.433014,122.000000);(194.409091,122.000000);(194.385167,122.000000);(194.361244,122.000000);(194.337321,122.000000);(194.313397,122.000000);(194.289474,122.000000);(194.265550,122.000000);(194.241627,122.000000);(194.217703,122.000000);(194.193780,122.000000);(194.169856,122.000000);(194.145933,122.000000);(194.122010,122.000000);(194.098086,122.000000);(194.074163,122.000000);(194.050239,122.000000);(194.026316,122.000000);(194.002392,122.000000);(193.978469,122.000000);(193.954545,122.000000);(193.930622,122.000000);(193.906699,122.000000);(193.882775,122.000000);(193.858852,122.000000);(193.834928,122.000000);(193.811005,122.000000);(193.787081,122.000000);(193.763158,122.000000);(193.739234,122.000000);(193.715311,122.000000);(193.691388,122.000000);(193.667464,122.000000);(193.643541,122.000000);(193.619617,122.000000);(193.595694,122.000000);(193.571770,122.000000);(193.547847,122.000000);(193.523923,122.000000);(193.500000,122.000000);(193.476077,122.000000);(193.452153,122.000000);(193.428230,122.000000);(193.404306,122.000000);(193.380383,122.000000);(193.356459,122.000000);(193.332536,122.000000);(193.308612,122.000000);(193.284689,122.000000);(193.260766,122.000000);(193.236842,122.000000);(193.212919,122.000000);(193.188995,122.000000);(193.165072,122.000000);(193.141148,122.000000);(193.117225,122.000000);(193.093301,122.000000);(193.069378,122.000000);(193.045455,122.000000);(193.021531,122.000000);(192.997608,122.000000);(192.973684,122.000000);(192.949761,122.000000);(192.925837,122.000000);(192.901914,122.000000);(192.877990,122.000000);(192.854067,122.000000);(192.830144,122.000000);(192.806220,122.000000);(192.782297,122.000000);(192.758373,122.000000);(192.734450,122.000000);(192.710526,122.000000);(192.686603,122.000000);(192.662679,122.000000);(192.638756,122.000000);(192.614833,122.000000);(192.590909,122.000000);(192.566986,122.000000);(192.543062,122.000000);(192.519139,122.000000);(192.495215,122.000000);(192.471292,122.000000);(192.447368,122.000000);(192.423445,122.000000);(192.399522,122.000000);(192.375598,122.000000);(192.351675,122.000000);(192.327751,122.000000);(192.303828,122.000000);(192.279904,122.000000);(192.255981,122.000000);(192.232057,122.000000);(192.208134,122.000000);(192.184211,122.000000);(192.160287,122.000000);(192.136364,122.000000);(192.112440,122.000000);(192.088517,122.000000);(192.064593,122.000000);(192.040670,122.000000);(192.016746,122.000000);(191.992823,122.000000);(191.968900,122.000000);(191.944976,122.000000);(191.921053,122.000000);(191.897129,122.000000);(191.873206,122.000000);(191.849282,122.000000);(191.825359,122.000000);(191.801435,122.000000);(191.777512,122.000000);(191.753589,122.000000);(191.729665,122.000000);(191.705742,122.000000);(191.681818,122.000000);(191.657895,122.000000);(191.633971,122.000000);(191.610048,122.000000);(191.586124,122.000000);(191.562201,122.000000);(191.538278,122.000000);(191.514354,122.000000);(191.490431,122.000000);(191.466507,122.000000);(191.442584,122.000000);(191.418660,122.000000);(191.394737,122.000000);(191.370813,122.000000);(191.346890,122.000000);(191.322967,122.000000);(191.299043,122.000000);(191.275120,122.000000);(191.251196,122.000000);(191.227273,122.000000);(191.203349,122.000000);(191.179426,122.000000);(191.155502,122.000000);(191.131579,122.000000);(191.107656,122.000000);(191.083732,122.000000);(191.059809,122.000000);(191.035885,122.000000);(191.011962,122.000000);(190.988038,122.000000);(190.964115,122.000000);</t>
+  </si>
+  <si>
+    <t>(190.964115,122.000000);(190.940191,122.000000);(190.916268,122.000000);(190.892344,122.000000);(190.868421,122.000000);(190.844498,122.000000);(190.820574,122.000000);(190.796651,122.000000);(190.772727,122.000000);(190.748804,122.000000);(190.724880,122.000000);(190.700957,122.000000);(190.677033,122.000000);(190.653110,122.000000);(190.629187,122.000000);(190.605263,122.000000);(190.581340,122.000000);(190.557416,122.000000);(190.533493,122.000000);(190.509569,122.000000);(190.485646,122.000000);(190.461722,122.000000);(190.437799,122.000000);(190.413876,122.000000);(190.389952,122.000000);(190.366029,122.000000);(190.342105,122.000000);(190.318182,122.000000);(190.294258,122.000000);(190.270335,122.000000);(190.246411,122.000000);(190.222488,122.000000);(190.198565,122.000000);(190.174641,122.000000);(190.150718,122.000000);(190.126794,122.000000);(190.102871,122.000000);(190.078947,122.000000);(190.055024,122.000000);(190.031100,122.000000);(190.007177,122.000000);(189.983254,122.000000);(189.959330,122.000000);(189.935407,122.000000);(189.911483,122.000000);(189.887560,122.000000);(189.863636,122.000000);(189.839713,122.000000);(189.815789,122.000000);(189.791866,122.000000);(189.767943,122.000000);(189.744019,122.000000);(189.720096,122.000000);(189.696172,122.000000);(189.672249,122.000000);(189.648325,122.000000);(189.624402,122.000000);(189.600478,122.000000);(189.576555,122.000000);(189.552632,122.000000);(189.528708,122.000000);(189.504785,122.000000);(189.480861,122.000000);(189.456938,122.000000);(189.433014,122.000000);(189.409091,122.000000);(189.385167,122.000000);(189.361244,122.000000);(189.337321,122.000000);(189.313397,122.000000);(189.289474,122.000000);(189.265550,122.000000);(189.241627,122.000000);(189.217703,122.000000);(189.193780,122.000000);(189.169856,122.000000);(189.145933,122.000000);(189.122010,122.000000);(189.098086,122.000000);(189.074163,122.000000);(189.050239,122.000000);(189.026316,122.000000);(189.002392,122.000000);(188.978469,122.000000);(188.954545,122.000000);(188.930622,122.000000);(188.906699,122.000000);(188.882775,122.000000);(188.858852,122.000000);(188.834928,122.000000);(188.811005,122.000000);(188.787081,122.000000);(188.763158,122.000000);(188.739234,122.000000);(188.715311,122.000000);(188.691388,122.000000);(188.667464,122.000000);(188.643541,122.000000);(188.619617,122.000000);(188.595694,122.000000);(188.571770,122.000000);(188.547847,122.000000);(188.523923,122.000000);(188.500000,122.000000);(188.476077,122.000000);(188.452153,122.000000);(188.428230,122.000000);(188.404306,122.000000);(188.380383,122.000000);(188.356459,122.000000);(188.332536,122.000000);(188.308612,122.000000);(188.284689,122.000000);(188.260766,122.000000);(188.236842,122.000000);(188.212919,122.000000);(188.188995,122.000000);(188.165072,122.000000);(188.141148,122.000000);(188.117225,122.000000);(188.093301,122.000000);(188.069378,122.000000);(188.045455,122.000000);(188.021531,122.000000);(187.997608,122.000000);(187.973684,122.000000);(187.949761,122.000000);(187.925837,122.000000);(187.901914,122.000000);(187.877990,122.000000);(187.854067,122.000000);(187.830144,122.000000);(187.806220,122.000000);(187.782297,122.000000);(187.758373,122.000000);(187.734450,122.000000);(187.710526,122.000000);(187.686603,122.000000);(187.662679,122.000000);(187.638756,122.000000);(187.614833,122.000000);(187.590909,122.000000);(187.566986,122.000000);(187.543062,122.000000);(187.519139,122.000000);(187.495215,122.000000);(187.471292,122.000000);(187.447368,122.000000);(187.423445,122.000000);(187.399522,122.000000);(187.375598,122.000000);(187.351675,122.000000);(187.327751,122.000000);(187.303828,122.000000);(187.279904,122.000000);(187.255981,122.000000);(187.232057,122.000000);(187.208134,122.000000);(187.184211,122.000000);(187.160287,122.000000);(187.136364,122.000000);(187.112440,122.000000);(187.088517,122.000000);(187.064593,122.000000);(187.040670,122.000000);(187.016746,122.000000);(186.992823,122.000000);(186.968900,122.000000);(186.944976,122.000000);(186.921053,122.000000);(186.897129,122.000000);(186.873206,122.000000);(186.849282,122.000000);(186.825359,122.000000);(186.801435,122.000000);(186.777512,122.000000);(186.753589,122.000000);(186.729665,122.000000);(186.705742,122.000000);(186.681818,122.000000);(186.657895,122.000000);(186.633971,122.000000);(186.610048,122.000000);(186.586124,122.000000);(186.562201,122.000000);(186.538278,122.000000);(186.514354,122.000000);(186.490431,122.000000);(186.466507,122.000000);(186.442584,122.000000);(186.418660,122.000000);(186.394737,122.000000);(186.370813,122.000000);(186.346890,122.000000);(186.322967,122.000000);(186.299043,122.000000);(186.275120,122.000000);(186.251196,122.000000);(186.227273,122.000000);(186.203349,122.000000);</t>
+  </si>
+  <si>
+    <t>(185.923039,122.000129);(185.769116,122.000323);(185.615194,122.000400);(185.461271,122.000382);(185.307349,122.000293);(185.153426,122.000158);(184.999504,121.999999);(184.845581,121.999841);(184.691659,121.999706);(184.537736,121.999618);(184.383813,121.999601);(184.229891,121.999677);(184.075968,121.999872);(183.922046,122.000197);(183.768124,122.000603);(183.614202,122.000985);(183.460280,122.001224);(183.306357,122.001202);(183.152435,122.000804);(182.998515,121.999919);(182.844599,121.998581);(182.690684,121.997087);(182.536766,121.995875);(182.382845,121.995388);(182.228926,121.996079);(182.075025,121.998415);(181.921166,122.002690);(181.767345,122.008261);(181.613515,122.013553);(181.459637,122.016826);(181.305736,122.016428);(181.151951,122.010873);(180.998538,121.998990);(180.845645,121.981420);(180.692994,121.961694);(180.540043,121.944719);(180.386509,121.936005);(180.233135,121.942532);(180.083245,121.973076);(179.943836,122.034849);(179.820334,122.125164);(179.711598,122.233600);(179.612960,122.351620);(179.519606,122.473979);(179.427147,122.597033);(179.331289,122.717387);(179.227406,122.830661);(179.110582,122.929901);(178.977532,123.004625);(178.831096,123.047837);(178.678553,123.063280);(178.524893,123.059988);(178.371694,123.045770);(178.218968,123.026666);(178.066218,123.007786);(177.913001,122.993551);(177.759317,122.985832);(177.605435,122.983822);(177.451540,122.985997);(177.297690,122.990623);(177.143857,122.995852);(176.989991,122.999848);(176.836084,123.001576);(176.682164,123.001350);(176.528247,123.000085);(176.374331,122.998690);(176.220412,122.998070);(176.066498,122.999152);(175.912621,123.002603);(175.758789,123.007855);(175.604959,123.013157);(175.451084,123.016567);(175.297185,123.016233);(175.143411,123.010493);(174.990046,122.998071);(174.837242,122.979754);(174.684680,122.959347);(174.531779,122.941971);(174.378256,122.933413);(174.224992,122.941096);(174.075803,122.974313);(173.938345,123.040057);(173.817869,123.134390);(173.712367,123.246015);(173.616575,123.366381);(173.525372,123.490361);(173.434111,123.614297);(173.338135,123.734512);(173.232312,123.845819);(173.111396,123.939552);(172.973235,124.003294);(172.823287,124.031756);(172.669800,124.033710);(172.516424,124.021778);(172.363345,124.005737);(172.209949,123.994171);(172.056498,123.996955);(171.906176,124.024908);(171.764481,124.082349);(171.635389,124.164863);</t>
+  </si>
+  <si>
+    <t>(171.635389,124.164863);(171.519522,124.265556);(171.415251,124.378478);(171.320188,124.499393);(171.231989,124.625473);(171.148589,124.754816);(171.068191,124.886065);(170.989184,125.018162);(170.910032,125.150172);(170.829166,125.281130);(170.744900,125.409903);(170.655332,125.535000);(170.558269,125.654284);(170.451253,125.764542);(170.331924,125.860974);(170.199073,125.937050);(170.054278,125.985859);(169.902466,126.004946);(169.748894,126.001338);(169.595734,125.986498);(169.442718,125.969935);(169.289242,125.960627);(169.136274,125.969651);(168.989728,126.010531);(168.858779,126.088095);(168.746357,126.192185);(168.647795,126.310126);(168.557044,126.434394);(168.468707,126.560442);(168.377731,126.684541);(168.278690,126.802063);(168.165527,126.905297);(168.033720,126.981232);(167.886480,127.018781);(167.733329,127.023100);(167.580140,127.009556);(167.427400,126.990574);(167.274238,126.976612);(167.121027,126.979968);(166.973409,127.016107);(166.841036,127.090918);(166.727508,127.193700);(166.628383,127.311136);(166.537513,127.435310);(166.449396,127.561511);(166.358927,127.685986);(166.260670,127.804183);(166.148534,127.908581);(166.017778,127.986441);(165.871264,128.027187);(165.718276,128.035531);(165.564846,128.025454);(165.411881,128.008409);(165.258716,127.993763);(165.105191,127.991774);(164.954245,128.015223);(164.812390,128.071378);(164.684601,128.155651);(164.570901,128.258789);(164.468339,128.373330);(164.373331,128.494354);(164.282580,128.618662);(164.193156,128.743942);(164.102329,128.868195);(164.007408,128.989298);(163.906553,129.105472);(163.799963,129.216443);(163.689106,129.323188);(163.575554,129.427088);(163.460910,129.529795);(163.346860,129.633154);(163.235258,129.739119);(163.128215,129.849631);(163.028138,129.966411);(162.937095,130.090324);(162.855383,130.220627);(162.781749,130.355708);(162.714640,130.494181);(162.652482,130.634971);(162.593749,130.777237);(162.536974,130.920304);(162.480742,131.063587);(162.423666,131.206533);(162.364364,131.348561);(162.301441,131.489008);(162.233483,131.627066);(162.159078,131.761728);(162.076882,131.891738);(161.985800,132.015641);(161.886009,132.132672);(161.779339,132.243545);(161.668046,132.349833);(161.554103,132.453306);(161.439281,132.555814);(161.325287,132.659232);(161.213905,132.765427);(161.107141,132.876209);(161.007297,132.993193);(160.916177,133.117068);(160.833903,133.247030);</t>
+  </si>
+  <si>
+    <t>(160.833903,133.247030);(160.759388,133.381631);(160.691298,133.519625);(160.628222,133.660003);(160.568734,133.801954);(160.511429,133.944809);(160.454924,134.087985);(160.397845,134.230930);(160.338812,134.373073);(160.276428,134.513763);(160.209277,134.652220);(160.135946,134.787477);(160.055093,134.918336);(159.965699,135.043482);(159.868079,135.162354);(159.763893,135.275572);(159.654979,135.384290);(159.542945,135.489820);(159.429223,135.593543);(159.315132,135.696865);(159.201971,135.801195);(159.091092,135.907928);(158.983952,136.018382);(158.881668,136.133334);(158.784673,136.252783);(158.693055,136.376409);(158.606848,136.503870);(158.526030,136.634818);(158.450534,136.768908);(158.380253,136.905808);(158.315045,137.045200);(158.254745,137.186787);(158.199164,137.330295);(158.148102,137.475476);(158.101350,137.622105);(158.058695,137.769980);(158.019925,137.918923);(157.984829,138.068776);(157.953203,138.219401);(157.924847,138.370677);(157.899570,138.522500);(157.877188,138.674779);(157.857526,138.827433);(157.840418,138.980395);(157.825705,139.133607);(157.813236,139.287018);(157.802870,139.440586);(157.794470,139.594276);(157.787908,139.748055);(157.783063,139.901899);(157.779818,140.055785);(157.778064,140.209695);(157.777694,140.363615);(157.778608,140.517533);(157.780709,140.671440);(157.783906,140.825328);(157.788108,140.979192);(157.793230,141.133029);(157.799188,141.286836);(157.805900,141.440611);(157.813287,141.594356);(157.821271,141.748071);(157.829775,141.901758);(157.838723,142.055420);(157.848040,142.209061);(157.857650,142.362683);(157.867478,142.516292);(157.877446,142.669891);(157.887479,142.823486);(157.897497,142.977082);(157.907420,143.130684);(157.917164,143.284298);(157.926642,143.437929);(157.935766,143.591581);(157.944442,143.745258);(157.952570,143.898966);(157.960045,144.052706);(157.966757,144.206481);(157.972586,144.360293);(157.977403,144.514139);(157.981070,144.668017);(157.983436,144.821919);(157.984336,144.975836);(157.983589,145.129753);(157.980996,145.283649);(157.976333,145.437496);(157.969356,145.591255);(157.959787,145.744872);(157.947317,145.898278);(157.931597,146.051382);(157.912231,146.204064);(157.888774,146.356168);(157.860722,146.507488);(157.827507,146.657750);(157.788495,146.806600);(157.742983,146.953580);(157.690210,147.098097);(157.629382,147.239392);(157.559711,147.376514);(157.480483,147.508312);</t>
+  </si>
+  <si>
+    <t>(157.000000,148.066753);(157.000000,148.200258);(157.000000,148.333764);(157.000000,148.467270);(157.000000,148.600775);(157.000000,148.734281);(157.000000,148.867786);(157.000000,149.001292);(157.000000,149.134798);(157.000000,149.268303);(157.000000,149.401809);(157.000000,149.535314);(157.000000,149.668820);(157.000000,149.802326);(157.000000,149.935831);(157.000000,150.069337);(157.000000,150.202842);(157.000000,150.336348);(157.000000,150.469854);(157.000000,150.603359);(157.000000,150.736865);(157.000000,150.870370);(157.000000,151.003876);(157.000000,151.137382);(157.000000,151.270887);(157.000000,151.404393);(157.000000,151.537898);(157.000000,151.671404);(157.000000,151.804910);(157.000000,151.938415);(157.000000,152.071921);(157.000000,152.205426);(157.000000,152.338932);(157.000000,152.472438);(157.000000,152.605943);(157.000000,152.739449);(157.000000,152.872954);(157.000000,153.006460);(157.000000,153.139966);(157.000000,153.273471);(157.000000,153.406977);(157.000000,153.540482);(157.000000,153.673988);(157.000000,153.807494);(157.000000,153.940999);(157.000000,154.074505);(157.000000,154.208010);(157.000000,154.341516);(157.000000,154.475022);(157.000000,154.608527);</t>
+  </si>
+  <si>
+    <t>(157.000000,154.875538);(157.000000,155.009044);(157.000000,155.142550);(157.000000,155.276055);(157.000000,155.409561);(157.000000,155.543066);(157.000000,155.676572);(157.000000,155.810078);(157.000000,155.943583);(157.000000,156.077089);(157.000000,156.210594);(157.000000,156.344100);(157.000000,156.477606);(157.000000,156.611111);(157.000000,156.744617);(157.000000,156.878122);(157.000000,157.011628);(157.000000,157.145134);(157.000000,157.278639);(157.000000,157.412145);(157.000000,157.545650);(157.000000,157.679156);(157.000000,157.812661);(157.000000,157.946167);(157.000000,158.079673);(157.000000,158.213178);(157.000000,158.346684);(157.000000,158.480189);(157.000000,158.613695);(157.000000,158.747201);(157.000000,158.880706);(157.000000,159.014212);(157.000000,159.147717);(157.000000,159.281223);(157.000000,159.414729);(157.000000,159.548234);(157.000000,159.681740);(157.000000,159.815245);(157.000000,159.948751);(157.000000,160.082257);(157.000000,160.215762);(157.000000,160.349268);(157.000000,160.482773);(157.000000,160.616279);(157.000000,160.749785);(157.000000,160.883290);(157.000000,161.016796);(157.000000,161.150301);(157.000000,161.283807);(157.000000,161.417313);</t>
+  </si>
+  <si>
+    <t>(157.000000,161.684324);(157.000000,161.817829);(157.000000,161.951335);(157.000000,162.084841);(157.000000,162.218346);(157.000000,162.351852);(157.000000,162.485357);(157.000000,162.618863);(157.000000,162.752369);(157.000000,162.885874);(157.000000,163.019380);(157.000000,163.152885);(157.000000,163.286391);(157.000000,163.419897);(157.000000,163.553402);(157.000000,163.686908);(157.000000,163.820413);(157.000000,163.953919);(157.000000,164.087425);(157.000000,164.220930);(157.000000,164.354436);(157.000000,164.487941);(157.000000,164.621447);(157.000000,164.754953);(157.000000,164.888458);(157.000000,165.021964);(157.000000,165.155469);(157.000000,165.288975);(157.000000,165.422481);(157.000000,165.555986);(157.000000,165.689492);(157.000000,165.822997);(157.000000,165.956503);(157.000000,166.090009);(157.000000,166.223514);(157.000000,166.357020);(157.000000,166.490525);(157.000000,166.624031);(157.000000,166.757537);(157.000000,166.891042);(157.000000,167.024548);(157.000000,167.158053);(157.000000,167.291559);(157.000000,167.425065);(157.000000,167.558570);(157.000000,167.692076);(157.000000,167.825581);(157.000000,167.959087);(157.000000,168.092593);(157.000000,168.226098);</t>
+  </si>
+  <si>
+    <t>(157.000000,168.493109);(157.000000,168.626615);(157.000000,168.760121);(157.000000,168.893626);(157.000000,169.027132);(157.000000,169.160637);(157.000000,169.294143);(157.000000,169.427649);(157.000000,169.561154);(157.000000,169.694660);(157.000000,169.828165);(157.000000,169.961671);(157.000000,170.095177);(157.000000,170.228682);(157.000000,170.362188);(157.000000,170.495693);(157.000000,170.629199);(157.000000,170.762705);(157.000000,170.896210);(157.000000,171.029716);(157.000000,171.163221);(157.000000,171.296727);(157.000000,171.430233);(157.000000,171.563738);(157.000000,171.697244);(157.000000,171.830749);(157.000000,171.964255);(157.000000,172.097761);(157.000000,172.231266);(157.000000,172.364772);(157.000000,172.498277);(157.000000,172.631783);(157.000000,172.765289);(157.000000,172.898794);(157.000000,173.032300);(157.000000,173.165805);(157.000000,173.299311);(157.000000,173.432817);(157.000000,173.566322);(157.000000,173.699828);(157.000000,173.833333);(157.000000,173.966839);(157.000000,174.100345);(157.000000,174.233850);(157.000000,174.367356);(157.000000,174.500861);(157.000000,174.634367);(157.000000,174.767873);(157.000000,174.901378);(157.000000,175.034884);</t>
+  </si>
+  <si>
+    <t>(157.000000,175.301895);(157.000000,175.435401);(157.000000,175.568906);(157.000000,175.702412);(157.000000,175.835917);(157.000000,175.969423);(157.000000,176.102929);(157.000000,176.236434);(157.000000,176.369940);(157.000000,176.503445);(157.000000,176.636951);(157.000000,176.770457);(157.000000,176.903962);(157.000000,177.037468);(157.000000,177.170973);(157.000000,177.304479);(157.000000,177.437984);(157.000000,177.571490);(157.000000,177.704996);(157.000000,177.838501);(157.000000,177.972007);(157.000000,178.105512);(157.000000,178.239018);(157.000000,178.372524);(157.000000,178.506029);(157.000000,178.639535);(157.000000,178.773040);(157.000000,178.906546);(157.000000,179.040052);(157.000000,179.173557);(157.000000,179.307063);(157.000000,179.440568);(157.000000,179.574074);(157.000000,179.707580);(157.000000,179.841085);(157.000000,179.974591);(157.000000,180.108096);(157.000000,180.241602);(157.000000,180.375108);(157.000000,180.508613);(157.000000,180.642119);(157.000000,180.775624);(157.000000,180.909130);(157.000000,181.042636);(157.000000,181.176141);(157.000000,181.309647);(157.000000,181.443152);(157.000000,181.576658);(157.000000,181.710164);(157.000000,181.843669);</t>
+  </si>
+  <si>
+    <t>(157.000000,182.110680);(157.000000,182.244186);(157.000000,182.377692);(157.000000,182.511197);(157.000000,182.644703);(157.000000,182.778208);(157.000000,182.911714);(157.000000,183.045220);(157.000000,183.178725);(157.000000,183.312231);(157.000000,183.445736);(157.000000,183.579242);(157.000000,183.712748);(157.000000,183.846253);(157.000000,183.979759);(157.000000,184.113264);(157.000000,184.246770);(157.000000,184.380276);(157.000000,184.513781);(157.000000,184.647287);(157.000000,184.780792);(157.000000,184.914298);(157.000000,185.047804);(157.000000,185.181309);(157.000000,185.314815);(157.000000,185.448320);(157.000000,185.581826);(157.000000,185.715332);(157.000000,185.848837);(157.000000,185.982343);(157.000000,186.115848);(157.000000,186.249354);(157.000000,186.382860);(157.000000,186.516365);(157.000000,186.649871);(157.000000,186.783376);(157.000000,186.916882);(157.000000,187.050388);(157.000000,187.183893);(157.000000,187.317399);(157.000000,187.450904);(157.000000,187.584410);(157.000000,187.717916);(157.000000,187.851421);(157.000000,187.984927);(157.000000,188.118432);(157.000000,188.251938);(157.000000,188.385444);(157.000000,188.518949);(157.000000,188.652455);(157.000000,188.785960);(157.000000,188.919466);(157.000000,189.052972);(157.000000,189.186477);(157.000000,189.319983);(157.000000,189.453488);(157.000000,189.586994);(157.000000,189.720500);(157.000000,189.854005);(157.000000,189.987511);</t>
+  </si>
+  <si>
+    <t>(157.000000,190.254522);(157.000000,190.388028);(157.000000,190.521533);(157.000000,190.655039);(157.000000,190.788544);(157.000000,190.922050);(157.000000,191.055556);(157.000000,191.189061);(157.000000,191.322567);(157.000000,191.456072);(157.000000,191.589578);(157.000000,191.723084);(157.000000,191.856589);(157.000000,191.990095);(157.000000,192.123600);(157.000000,192.257106);(157.000000,192.390612);(157.000000,192.524117);(157.000000,192.657623);(157.000000,192.791128);(157.000000,192.924634);(157.000000,193.058140);(157.000000,193.191645);(157.000000,193.325151);(157.000000,193.458656);(157.000000,193.592162);(157.000000,193.725668);(157.000000,193.859173);(157.000000,193.992679);(157.000000,194.126184);(157.000000,194.259690);(157.000000,194.393196);(157.000000,194.526701);(157.000000,194.660207);(157.000000,194.793712);(157.000000,194.927218);(157.000000,195.060724);(157.000000,195.194229);(157.000000,195.327735);(157.000000,195.461240);(157.000000,195.594746);(157.000000,195.728252);(157.000000,195.861757);(157.000000,195.995263);(157.000000,196.128768);(157.000000,196.262274);(157.000000,196.395780);(157.000000,196.529285);(157.000000,196.662791);(157.000000,196.796296);(157.000000,196.929802);(157.000000,197.063307);(157.000000,197.196813);(157.000000,197.330319);(157.000000,197.463824);(157.000000,197.597330);(157.000000,197.730835);(157.000000,197.864341);(157.000000,197.997847);(157.000000,198.131352);</t>
+  </si>
+  <si>
+    <t>(157.000000,198.398363);(157.000000,198.531869);(157.000000,198.665375);(157.000000,198.798880);(157.000000,198.932386);(157.000000,199.065891);(157.000000,199.199397);(157.000000,199.332903);(157.000000,199.466408);(157.000000,199.599914);(157.000000,199.733419);(157.000000,199.866925);(157.000000,200.000431);(157.000000,200.133936);(157.000000,200.267442);(157.000000,200.400947);(157.000000,200.534453);(157.000000,200.667959);(157.000000,200.801464);(157.000000,200.934970);(157.000000,201.068475);(157.000000,201.201981);(157.000000,201.335487);(157.000000,201.468992);(157.000000,201.602498);(157.000000,201.736003);(157.000000,201.869509);(157.000000,202.003015);(157.000000,202.136520);(157.000000,202.270026);(157.000000,202.403531);(157.000000,202.537037);(157.000000,202.670543);(157.000000,202.804048);(157.000000,202.937554);(157.000000,203.071059);(157.000000,203.204565);(157.000000,203.338071);(157.000000,203.471576);(157.000000,203.605082);(157.000000,203.738587);(157.000000,203.872093);(157.000000,204.005599);(157.000000,204.139104);(157.000000,204.272610);(157.000000,204.406115);(157.000000,204.539621);(157.000000,204.673127);(157.000000,204.806632);(157.000000,204.940138);</t>
+  </si>
+  <si>
+    <t>(157.000000,205.207149);(157.000000,205.340655);(157.000000,205.474160);(157.000000,205.607666);(157.000000,205.741171);(157.000000,205.874677);(157.000000,206.008183);(157.000000,206.141688);(157.000000,206.275194);(157.000000,206.408699);(157.000000,206.542205);(157.000000,206.675711);(157.000000,206.809216);(157.000000,206.942722);(157.000000,207.076227);(157.000000,207.209733);(157.000000,207.343239);(157.000000,207.476744);(157.000000,207.610250);(157.000000,207.743755);(157.000000,207.877261);(157.000000,208.010767);(157.000000,208.144272);(157.000000,208.277778);(157.000000,208.411283);(157.000000,208.544789);(157.000000,208.678295);(157.000000,208.811800);(157.000000,208.945306);(157.000000,209.078811);(157.000000,209.212317);(157.000000,209.345823);(157.000000,209.479328);(157.000000,209.612834);(157.000000,209.746339);(157.000000,209.879845);(157.000000,210.013351);(157.000000,210.146856);(157.000000,210.280362);(157.000000,210.413867);(157.000000,210.547373);(157.000000,210.680879);(157.000000,210.814384);(157.000000,210.947890);(157.000000,211.081395);(157.000000,211.214901);(157.000000,211.348407);(157.000000,211.481912);(157.000000,211.615418);(157.000000,211.748923);</t>
+  </si>
+  <si>
+    <t>(157.000000,212.015935);(157.000000,212.149440);(157.000000,212.282946);(157.000000,212.416451);(157.000000,212.549957);(157.000000,212.683463);(157.000000,212.816968);(157.000000,212.950474);(157.000000,213.083979);(157.000000,213.217485);(157.000000,213.350991);(157.000000,213.484496);(157.000000,213.618002);(157.000000,213.751507);(157.000000,213.885013);(157.000000,214.018519);(157.000000,214.152024);(157.000000,214.285530);(157.000000,214.419035);(157.000000,214.552541);(157.000000,214.686047);(157.000000,214.819552);(157.000000,214.953058);(157.000000,215.086563);(157.000000,215.220069);(157.000000,215.353575);(157.000000,215.487080);(157.000000,215.620586);(157.000000,215.754091);(157.000000,215.887597);(157.000000,216.021102);(157.000000,216.154608);(157.000000,216.288114);(157.000000,216.421619);(157.000000,216.555125);(157.000000,216.688630);(157.000000,216.822136);(157.000000,216.955642);(157.000000,217.089147);(157.000000,217.222653);(157.000000,217.356158);(157.000000,217.489664);(157.000000,217.623170);(157.000000,217.756675);(157.000000,217.890181);(157.000000,218.023686);(157.000000,218.157192);(157.000000,218.290698);(157.000000,218.424203);(157.000000,218.557709);</t>
+  </si>
+  <si>
+    <t>(157.000000,218.824720);(157.000000,218.958226);(157.000000,219.091731);(157.000000,219.225237);(157.000000,219.358742);(157.000000,219.492248);(157.000000,219.625754);(157.000000,219.759259);(157.000000,219.892765);(157.000000,220.026270);(157.000000,220.159776);(157.000000,220.293282);(157.000000,220.426787);(157.000000,220.560293);(157.000000,220.693798);(157.000000,220.827304);(157.000000,220.960810);(157.000000,221.094315);(157.000000,221.227821);(157.000000,221.361326);(157.000000,221.494832);(157.000000,221.628338);(157.000000,221.761843);(157.000000,221.895349);(157.000000,222.028854);(157.000000,222.162360);(157.000000,222.295866);(157.000000,222.429371);(157.000000,222.562877);(157.000000,222.696382);(157.000000,222.829888);(157.000000,222.963394);(157.000000,223.096899);(157.000000,223.230405);(157.000000,223.363910);(157.000000,223.497416);(157.000000,223.630922);(157.000000,223.764427);(157.000000,223.897933);(157.000000,224.031438);(157.000000,224.164944);(157.000000,224.298450);(157.000000,224.431955);(157.000000,224.565461);(157.000000,224.698966);(157.000000,224.832472);(157.000000,224.965978);(157.000000,225.099483);(157.000000,225.232989);(157.000000,225.366494);</t>
+  </si>
+  <si>
+    <t>(157.000000,225.633506);(157.000000,225.767011);(157.000000,225.900517);(157.000000,226.034022);(157.000000,226.167528);(157.000000,226.301034);(157.000000,226.434539);(157.000000,226.568045);(157.000000,226.701550);(157.000000,226.835056);(157.000000,226.968562);(157.000000,227.102067);(157.000000,227.235573);(157.000000,227.369078);(157.000000,227.502584);(157.000000,227.636090);(157.000000,227.769595);(157.000000,227.903101);(157.000000,228.036606);(157.000000,228.170112);(157.000000,228.303618);(157.000000,228.437123);(157.000000,228.570629);(157.000000,228.704134);(157.000000,228.837640);(157.000000,228.971146);(157.000000,229.104651);(157.000000,229.238157);(157.000000,229.371662);(157.000000,229.505168);(157.000000,229.638674);(157.000000,229.772179);(157.000000,229.905685);(157.000000,230.039190);(157.000000,230.172696);(157.000000,230.306202);(157.000000,230.439707);(157.000000,230.573213);(157.000000,230.706718);(157.000000,230.840224);(157.000000,230.973730);(157.000000,231.107235);(157.000000,231.240741);(157.000000,231.374246);(157.000000,231.507752);(157.000000,231.641258);(157.000000,231.774763);(157.000000,231.908269);(157.000000,232.041774);(157.000000,232.175280);</t>
+  </si>
+  <si>
+    <t>(157.000000,232.442291);(157.000000,232.575797);(157.000000,232.709302);(157.000000,232.842808);(157.000000,232.976314);(157.000000,233.109819);(157.000000,233.243325);(157.000000,233.376830);(157.000000,233.510336);(157.000000,233.643842);(157.000000,233.777347);(157.000000,233.910853);(157.000000,234.044358);(157.000000,234.177864);(157.000000,234.311370);(157.000000,234.444875);(157.000000,234.578381);(157.000000,234.711886);(157.000000,234.845392);(157.000000,234.978898);(157.000000,235.112403);(157.000000,235.245909);(157.000000,235.379414);(157.000000,235.512920);(157.000000,235.646425);(157.000000,235.779931);(157.000000,235.913437);(157.000000,236.046942);(157.000000,236.180448);(157.000000,236.313953);(157.000000,236.447459);(157.000000,236.580965);(157.000000,236.714470);(157.000000,236.847976);(157.000000,236.981481);(157.000000,237.114987);(157.000000,237.248493);(157.000000,237.381998);(157.000000,237.515504);(157.000000,237.649009);(157.000000,237.782515);(157.000000,237.916021);(157.000000,238.049526);(157.000000,238.183032);(157.000000,238.316537);(157.000000,238.450043);(157.000000,238.583549);(157.000000,238.717054);(157.000000,238.850560);(157.000000,238.984065);</t>
+  </si>
+  <si>
+    <t>(157.000000,239.251077);(157.000000,239.384582);(157.000000,239.518088);(157.000000,239.651593);(157.000000,239.785099);(157.000000,239.918605);(157.000000,240.052110);(157.000000,240.185616);(157.000000,240.319121);(157.000000,240.452627);(157.000000,240.586133);(157.000000,240.719638);(157.000000,240.853144);(157.000000,240.986649);(157.000000,241.120155);(157.000000,241.253661);(157.000000,241.387166);(157.000000,241.520672);(157.000000,241.654177);(157.000000,241.787683);(157.000000,241.921189);(157.000000,242.054694);(157.000000,242.188200);(157.000000,242.321705);(157.000000,242.455211);(157.000000,242.588717);(157.000000,242.722222);(157.000000,242.855728);(157.000000,242.989233);(157.000000,243.122739);(157.000000,243.256245);(157.000000,243.389750);(157.000000,243.523256);(157.000000,243.656761);(157.000000,243.790267);(157.000000,243.923773);(157.000000,244.057278);(157.000000,244.190784);(157.000000,244.324289);(157.000000,244.457795);(157.000000,244.591301);(157.000000,244.724806);(157.000000,244.858312);(157.000000,244.991817);(157.000000,245.125323);(157.000000,245.258829);(157.000000,245.392334);(157.000000,245.525840);(157.000000,245.659345);(157.000000,245.792851);</t>
+  </si>
+  <si>
+    <t>(157.000000,246.059862);(157.000000,246.193368);(157.000000,246.326873);(157.000000,246.460379);(157.000000,246.593885);(157.000000,246.727390);(157.000000,246.860896);(157.000000,246.994401);(157.000000,247.127907);(157.000000,247.261413);(157.000000,247.394918);(157.000000,247.528424);(157.000000,247.661929);(157.000000,247.795435);(157.000000,247.928941);(157.000000,248.062446);(157.000000,248.195952);(157.000000,248.329457);(157.000000,248.462963);(157.000000,248.596469);(157.000000,248.729974);(157.000000,248.863480);(157.000000,248.996985);(157.000000,249.130491);(157.000000,249.263997);(157.000000,249.397502);(157.000000,249.531008);(157.000000,249.664513);(157.000000,249.798019);(157.000000,249.931525);(157.000000,250.065030);(157.000000,250.198536);(157.000000,250.332041);(157.000000,250.465547);(157.000000,250.599053);(157.000000,250.732558);(157.000000,250.866064);(157.000000,250.999569);(157.000000,251.133075);(157.000000,251.266581);(157.000000,251.400086);(157.000000,251.533592);(157.000000,251.667097);(157.000000,251.800603);(157.000000,251.934109);(157.000000,252.067614);(157.000000,252.201120);(157.000000,252.334625);(157.000000,252.468131);(157.000000,252.601637);</t>
+  </si>
+  <si>
+    <t>(157.000000,252.868648);(157.000000,253.002153);(157.000000,253.135659);(157.000000,253.269165);(157.000000,253.402670);(157.000000,253.536176);(157.000000,253.669681);(157.000000,253.803187);(157.000000,253.936693);(157.000000,254.070198);(157.000000,254.203704);(157.000000,254.337209);(157.000000,254.470715);(157.000000,254.604220);(157.000000,254.737726);(157.000000,254.871232);(157.000000,255.004737);(157.000000,255.138243);(157.000000,255.271748);(157.000000,255.405254);(157.000000,255.538760);(157.000000,255.672265);(157.000000,255.805771);(157.000000,255.939276);(157.000000,256.072782);(157.000000,256.206288);(157.000000,256.339793);(157.000000,256.473299);(157.000000,256.606804);(157.000000,256.740310);(157.000000,256.873816);(157.000000,257.007321);(157.000000,257.140827);(157.000000,257.274332);(157.000000,257.407838);(157.000000,257.541344);(157.000000,257.674849);(157.000000,257.808355);(157.000000,257.941860);(157.000000,258.075366);(157.000000,258.208872);(157.000000,258.342377);(157.000000,258.475883);(157.000000,258.609388);(157.000000,258.742894);(157.000000,258.876400);(157.000000,259.009905);(157.000000,259.143411);(157.000000,259.276916);(157.000000,259.410422);</t>
+  </si>
+  <si>
+    <t>(157.000000,259.677433);(157.000000,259.810939);(157.000000,259.944444);(157.000000,260.077950);(157.000000,260.211456);(157.000000,260.344961);(157.000000,260.478467);(157.000000,260.611972);(157.000000,260.745478);(157.000000,260.878984);(157.000000,261.012489);(157.000000,261.145995);(157.000000,261.279500);(157.000000,261.413006);(157.000000,261.546512);(157.000000,261.680017);(157.000000,261.813523);(157.000000,261.947028);(157.000000,262.080534);(157.000000,262.214040);(157.000000,262.347545);(157.000000,262.481051);(157.000000,262.614556);(157.000000,262.748062);(157.000000,262.881568);(157.000000,263.015073);(157.000000,263.148579);(157.000000,263.282084);(157.000000,263.415590);(157.000000,263.549096);(157.000000,263.682601);(157.000000,263.816107);(157.000000,263.949612);(157.000000,264.083118);(157.000000,264.216624);(157.000000,264.350129);(157.000000,264.483635);(157.000000,264.617140);(157.000000,264.750646);(157.000000,264.884152);(157.000000,265.017657);(157.000000,265.151163);(157.000000,265.284668);(157.000000,265.418174);(157.000000,265.551680);(157.000000,265.685185);(157.000000,265.818691);(157.000000,265.952196);(157.000000,266.085702);(157.000000,266.219208);(157.000000,266.352713);(157.000000,266.486219);(157.000000,266.619724);(157.000000,266.753230);(157.000000,266.886736);(157.000000,267.020241);(157.000000,267.153747);(157.000000,267.287252);(157.000000,267.420758);(157.000000,267.554264);</t>
+  </si>
+  <si>
+    <t>(157.000000,267.821275);(157.000000,267.954780);(157.000000,268.088286);(157.000000,268.221792);(157.000000,268.355297);(157.000000,268.488803);(157.000000,268.622308);(157.000000,268.755814);(157.000000,268.889320);(157.000000,269.022825);(157.000000,269.156331);(157.000000,269.289836);(157.000000,269.423342);(157.000000,269.556848);(157.000000,269.690353);(157.000000,269.823859);(157.000000,269.957364);(157.000000,270.090870);(157.000000,270.224376);(157.000000,270.357881);(157.000000,270.491387);(157.000000,270.624892);(157.000000,270.758398);(157.000000,270.891904);(157.000000,271.025409);(157.000000,271.158915);(157.000000,271.292420);(157.000000,271.425926);(157.000000,271.559432);(157.000000,271.692937);(157.000000,271.826443);(157.000000,271.959948);(157.000000,272.093454);(157.000000,272.226960);(157.000000,272.360465);(157.000000,272.493971);(157.000000,272.627476);(157.000000,272.760982);(157.000000,272.894488);(157.000000,273.027993);(157.000000,273.161499);(157.000000,273.295004);(157.000000,273.428510);(157.000000,273.562016);(157.000000,273.695521);(157.000000,273.829027);(157.000000,273.962532);(157.000000,274.096038);(157.000000,274.229543);(157.000000,274.363049);(157.000000,274.496555);(157.000000,274.630060);(157.000000,274.763566);(157.000000,274.897071);(157.000000,275.030577);(157.000000,275.164083);(157.000000,275.297588);(157.000000,275.431094);(157.000000,275.564599);(157.000000,275.698105);</t>
+  </si>
+  <si>
+    <t>(157.000000,275.965116);(157.000000,276.098622);(157.000000,276.232127);(157.000000,276.365633);(157.000000,276.499139);(157.000000,276.632644);(157.000000,276.766150);(157.000000,276.899655);(157.000000,277.033161);(157.000000,277.166667);(157.000000,277.300172);(157.000000,277.433678);(157.000000,277.567183);(157.000000,277.700689);(157.000000,277.834195);(157.000000,277.967700);(157.000000,278.101206);(157.000000,278.234711);(157.000000,278.368217);(157.000000,278.501723);(157.000000,278.635228);(157.000000,278.768734);(157.000000,278.902239);(157.000000,279.035745);(157.000000,279.169251);(157.000000,279.302756);(157.000000,279.436262);(157.000000,279.569767);(157.000000,279.703273);(157.000000,279.836779);(157.000000,279.970284);(157.000000,280.103790);(157.000000,280.237295);(157.000000,280.370801);(157.000000,280.504307);(157.000000,280.637812);(157.000000,280.771318);(157.000000,280.904823);(157.000000,281.038329);(157.000000,281.171835);(157.000000,281.305340);(157.000000,281.438846);(157.000000,281.572351);(157.000000,281.705857);(157.000000,281.839363);(157.000000,281.972868);(157.000000,282.106374);(157.000000,282.239879);(157.000000,282.373385);(157.000000,282.506891);</t>
+  </si>
+  <si>
+    <t>(157.000000,282.773902);(157.000000,282.907407);(157.000000,283.040913);(157.000000,283.174419);(157.000000,283.307924);(157.000000,283.441430);(157.000000,283.574935);(157.000000,283.708441);(157.000000,283.841947);(157.000000,283.975452);(157.000000,284.108958);(157.000000,284.242463);(157.000000,284.375969);(157.000000,284.509475);(157.000000,284.642980);(157.000000,284.776486);(157.000000,284.909991);(157.000000,285.043497);(157.000000,285.177003);(157.000000,285.310508);(157.000000,285.444014);(157.000000,285.577519);(157.000000,285.711025);(157.000000,285.844531);(157.000000,285.978036);(157.000000,286.111542);(157.000000,286.245047);(157.000000,286.378553);(157.000000,286.512059);(157.000000,286.645564);(157.000000,286.779070);(157.000000,286.912575);(157.000000,287.046081);(157.000000,287.179587);(157.000000,287.313092);(157.000000,287.446598);(157.000000,287.580103);(157.000000,287.713609);(157.000000,287.847115);(157.000000,287.980620);(157.000000,288.114126);(157.000000,288.247631);(157.000000,288.381137);(157.000000,288.514643);(157.000000,288.648148);(157.000000,288.781654);(157.000000,288.915159);(157.000000,289.048665);(157.000000,289.182171);(157.000000,289.315676);</t>
+  </si>
+  <si>
+    <t>(157.000000,289.582687);(157.000000,289.716193);(157.000000,289.849699);(157.000000,289.983204);(157.000000,290.116710);(157.000000,290.250215);(157.000000,290.383721);(157.000000,290.517227);(157.000000,290.650732);(157.000000,290.784238);(157.000000,290.917743);(157.000000,291.051249);(157.000000,291.184755);(157.000000,291.318260);(157.000000,291.451766);(157.000000,291.585271);(157.000000,291.718777);(157.000000,291.852283);(157.000000,291.985788);(157.000000,292.119294);(157.000000,292.252799);(157.000000,292.386305);(157.000000,292.519811);(157.000000,292.653316);(157.000000,292.786822);(157.000000,292.920327);(157.000000,293.053833);(157.000000,293.187339);(157.000000,293.320844);(157.000000,293.454350);(157.000000,293.587855);(157.000000,293.721361);(157.000000,293.854866);(157.000000,293.988372);(157.000000,294.121878);(157.000000,294.255383);(157.000000,294.388889);(157.000000,294.522394);(157.000000,294.655900);(157.000000,294.789406);(157.000000,294.922911);(157.000000,295.056417);(157.000000,295.189922);(157.000000,295.323428);(157.000000,295.456934);(157.000000,295.590439);(157.000000,295.723945);(157.000000,295.857450);(157.000000,295.990956);(157.000000,296.124462);</t>
+  </si>
+  <si>
+    <t>(157.000000,296.391473);(157.000000,296.524978);(157.000000,296.658484);(157.000000,296.791990);(157.000000,296.925495);(157.000000,297.059001);(157.000000,297.192506);(157.000000,297.326012);(157.000000,297.459518);(157.000000,297.593023);(157.000000,297.726529);(157.000000,297.860034);(157.000000,297.993540);(157.000000,298.127046);(157.000000,298.260551);(157.000000,298.394057);(157.000000,298.527562);(157.000000,298.661068);(157.000000,298.794574);(157.000000,298.928079);(157.000000,299.061585);(157.000000,299.195090);(157.000000,299.328596);(157.000000,299.462102);(157.000000,299.595607);(157.000000,299.729113);(157.000000,299.862618);(157.000000,299.996124);(157.000000,300.129630);(157.000000,300.263135);(157.000000,300.396641);(157.000000,300.530146);(157.000000,300.663652);(157.000000,300.797158);(157.000000,300.930663);(157.000000,301.064169);(157.000000,301.197674);(157.000000,301.331180);(157.000000,301.464686);(157.000000,301.598191);(157.000000,301.731697);(157.000000,301.865202);(157.000000,301.998708);(157.000000,302.132214);(157.000000,302.265719);(157.000000,302.399225);(157.000000,302.532730);(157.000000,302.666236);(157.000000,302.799742);(157.000000,302.933247);</t>
+  </si>
+  <si>
+    <t>(156.872845,303.098728);(156.625884,303.304977);(156.394601,303.528630);(156.180822,303.769048);(155.986016,304.025080);(155.811139,304.295131);(155.656544,304.577310);(155.521980,304.869609);(155.406659,305.170059);(155.309391,305.476868);(155.228717,305.788486);(155.163039,306.103637);(155.110723,306.421305);(155.070161,306.740707);(155.039820,307.061257);(155.018255,307.382531);(155.004123,307.704227);(154.996174,308.026143);(154.993243,308.348150);(154.994240,308.670173);(154.998132,308.992176);(155.003935,309.314153);(155.010696,309.636113);(155.017480,309.958072);(155.023356,310.280047);(155.027385,310.602050);(155.028606,310.924072);(155.026024,311.246083);(155.018596,311.568012);(155.005222,311.889743);(154.984924,312.211105);(154.957354,312.531926);(154.922733,312.852065);(154.881390,313.171408);(154.833696,313.489866);(154.780052,313.807379);(154.720886,314.123913);(154.656649,314.439458);(154.587809,314.754034);(154.514850,315.067682);(154.438262,315.380467);(154.358544,315.692469);(154.276195,316.003789);(154.191718,316.314540);(154.105612,316.624844);(154.018371,316.934831);(153.930278,317.244578);(153.841053,317.554000);(153.750026,317.862894);(153.656494,318.171038);(153.559759,318.478188);(153.459124,318.784079);(153.353895,319.088417);(153.243383,319.390871);(153.126906,319.691074);(153.003810,319.988618);(152.873859,320.283232);(152.737628,320.575005);(152.596130,320.864267);(152.450377,321.151415);(152.301360,321.436887);(152.150049,321.721152);(151.997398,322.004703);(151.844445,322.288091);(151.692392,322.571961);(151.542542,322.856997);(151.396229,323.143857);(151.254830,323.433161);(151.119776,323.725468);(150.992518,324.021239);(150.873739,324.320518);(150.762714,324.622773);(150.657994,324.927282);(150.558064,325.233405);(150.461385,325.540577);</t>
+  </si>
+  <si>
+    <t>(150.461385,325.540577);(150.366415,325.848284);(150.271623,326.156047);(150.175502,326.463395);(150.076575,326.769846);(149.973371,327.074876);(149.864068,327.377757);(149.746320,327.677427);(149.617566,327.972496);(149.475225,328.261201);(149.316756,328.541304);(149.139819,328.810030);(148.942844,329.064359);(148.727704,329.303664);(148.500001,329.531251);(148.265817,329.752272);(148.030574,329.972186);(147.798177,330.195083);(147.569383,330.421690);(147.342924,330.650640);(147.117327,330.880443);(146.891248,331.109770);(146.664136,331.338076);(146.436260,331.565619);(146.208052,331.792830);(145.979932,332.020128);(145.752127,332.247743);(145.524549,332.475584);(145.296959,332.703414);(145.069119,332.930993);(144.840895,333.158188);(144.612511,333.385222);(144.384465,333.612594);(144.157288,333.840834);(143.931406,334.070354);(143.706379,334.300715);(143.480671,334.530406);(143.252404,334.757539);(143.019731,334.980131);(142.782763,335.198169);(142.545952,335.416372);(142.316276,335.641925);(142.100554,335.880646);(141.902293,336.134088);(141.712768,336.394410);(141.511563,336.645191);(141.274337,336.858462);(140.987343,336.984926);(140.670560,337.009257);(140.349331,336.989495);(140.032082,337.010826);(139.744018,337.134121);(139.505897,337.346222);(139.303541,337.596114);(139.111000,337.854201);(138.906063,338.102062);(138.681078,338.332009);(138.445213,338.551214);(138.212444,338.773572);(137.995967,339.011360);(137.798079,339.265151);(137.603349,339.521519);(137.387256,339.758616);(137.125833,339.936763);(136.820697,340.011941);(136.499944,340.005724);(136.178893,339.994404);(135.868952,340.054129);(135.597186,340.215226);(135.374306,340.444773);(135.185760,340.705208);(135.013960,340.977503);(134.844060,341.251032);(134.661000,341.515519);(134.446461,341.753326);</t>
+  </si>
+  <si>
+    <t>(134.446461,341.753326);(134.182813,341.927930);(133.876505,341.998419);(133.555970,341.987169);(133.235389,341.975132);(132.933329,342.052146);(132.683453,342.243609);(132.479679,342.492036);(132.280217,342.744401);(132.042098,342.953653);(131.749189,343.061885);(131.430463,343.067081);(131.112211,343.020764);(130.795274,342.963975);(130.475979,342.929254);(130.160036,342.959611);(129.877910,343.095605);(129.648236,343.317276);(129.446665,343.568234);(129.234618,343.809318);(128.976589,343.990615);(128.671688,344.067237);(128.351809,344.055994);(128.033888,344.006068);(127.716398,343.952802);(127.396540,343.929537);(127.085458,343.983590);(126.815924,344.144711);(126.596723,344.378361);(126.396220,344.630258);(126.175678,344.862450);(125.904305,345.020115);(125.592387,345.070641);(125.272575,345.045647);(124.955142,344.991968);(124.637142,344.942697);(124.317318,344.933604);(124.013606,345.014019);(123.757537,345.198487);(123.546581,345.440644);(123.344711,345.691332);(123.113323,345.910882);(122.829371,346.042827);(122.512865,346.069725);(122.193617,346.033821);(121.876535,345.977795);(121.557987,345.933817);(121.239314,345.942028);(120.946259,346.051467);(120.706073,346.258938);(120.503325,346.508665);(120.297987,346.756001);(120.050670,346.953076);(119.751842,347.045561);(119.431867,347.044528);(119.111463,347.013076);(118.790327,346.996325);(118.468438,347.001089);(118.146614,347.002698);(117.825754,346.980613);(117.505357,346.949904);(117.186842,346.962695);(116.897475,347.079081);(116.662865,347.293571);(116.462812,347.545603);(116.255506,347.790919);(116.001532,347.977104);(115.697819,348.054779);(115.377533,348.044901);(115.057568,348.009104);(114.736666,347.986647);(114.414805,347.986271);(114.092940,347.996195);(113.771026,348.003815);(113.449015,348.004863);</t>
+  </si>
+  <si>
+    <t>(111.895973,348.000000);(111.687919,348.000000);(111.479866,348.000000);(111.271812,348.000000);(111.063758,348.000000);(110.855705,348.000000);(110.647651,348.000000);(110.439597,348.000000);(110.231544,348.000000);(110.023490,348.000000);(109.815436,348.000000);(109.607383,348.000000);(109.399329,348.000000);(109.191275,348.000000);(108.983221,348.000000);(108.775168,348.000000);(108.567114,348.000000);(108.359060,348.000000);(108.151007,348.000000);(107.942953,348.000000);(107.734899,348.000000);(107.526846,348.000000);(107.318792,348.000000);(107.110738,348.000000);(106.902685,348.000000);(106.694631,348.000000);(106.486577,348.000000);(106.278523,348.000000);(106.070470,348.000000);(105.862416,348.000000);(105.654362,348.000000);(105.446309,348.000000);(105.238255,348.000000);(105.030201,348.000000);(104.822148,348.000000);(104.614094,348.000000);(104.406040,348.000000);(104.197987,348.000000);(103.989933,348.000000);(103.781879,348.000000);(103.573826,348.000000);(103.365772,348.000000);(103.157718,348.000000);(102.949664,348.000000);(102.741611,348.000000);(102.533557,348.000000);(102.325503,348.000000);(102.117450,348.000000);(101.909396,348.000000);(101.701342,348.000000);</t>
+  </si>
+  <si>
+    <t>(101.701342,348.000000);(101.493289,348.000000);(101.285235,348.000000);(101.077181,348.000000);(100.869128,348.000000);(100.661074,348.000000);(100.453020,348.000000);(100.244966,348.000000);(100.036913,348.000000);(99.828859,348.000000);(99.620805,348.000000);(99.412752,348.000000);(99.204698,348.000000);(98.996644,348.000000);(98.788591,348.000000);(98.580537,348.000000);(98.372483,348.000000);(98.164430,348.000000);(97.956376,348.000000);(97.748322,348.000000);(97.540268,348.000000);(97.332215,348.000000);(97.124161,348.000000);(96.916107,348.000000);(96.708054,348.000000);(96.500000,348.000000);(96.291946,348.000000);(96.083893,348.000000);(95.875839,348.000000);(95.667785,348.000000);(95.459732,348.000000);(95.251678,348.000000);(95.043624,348.000000);(94.835570,348.000000);(94.627517,348.000000);(94.419463,348.000000);(94.211409,348.000000);(94.003356,348.000000);(93.795302,348.000000);(93.587248,348.000000);(93.379195,348.000000);(93.171141,348.000000);(92.963087,348.000000);(92.755034,348.000000);(92.546980,348.000000);(92.338926,348.000000);(92.130872,348.000000);(91.922819,348.000000);(91.714765,348.000000);(91.506711,348.000000);</t>
+  </si>
+  <si>
+    <t>(91.506711,348.000000);(91.298658,348.000000);(91.090604,348.000000);(90.882550,348.000000);(90.674497,348.000000);(90.466443,348.000000);(90.258389,348.000000);(90.050336,348.000000);(89.842282,348.000000);(89.634228,348.000000);(89.426174,348.000000);(89.218121,348.000000);(89.010067,348.000000);(88.802013,348.000000);(88.593960,348.000000);(88.385906,348.000000);(88.177852,348.000000);(87.969799,348.000000);(87.761745,348.000000);(87.553691,348.000000);(87.345638,348.000000);(87.137584,348.000000);(86.929530,348.000000);(86.721477,348.000000);(86.513423,348.000000);(86.305369,348.000000);(86.097315,348.000000);(85.889262,348.000000);(85.681208,348.000000);(85.473154,348.000000);(85.265101,348.000000);(85.057047,348.000000);(84.848993,348.000000);(84.640940,348.000000);(84.432886,348.000000);(84.224832,348.000000);(84.016779,348.000000);(83.808725,348.000000);(83.600671,348.000000);(83.392617,348.000000);(83.184564,348.000000);(82.976510,348.000000);(82.768456,348.000000);(82.560403,348.000000);(82.352349,348.000000);(82.144295,348.000000);(81.936242,348.000000);(81.728188,348.000000);(81.520134,348.000000);(81.312081,348.000000);</t>
+  </si>
+  <si>
+    <t>(81.312081,348.000000);(81.104027,348.000000);(80.895973,348.000000);(80.687919,348.000000);(80.479866,348.000000);(80.271812,348.000000);(80.063758,348.000000);(79.855705,348.000000);(79.647651,348.000000);(79.439597,348.000000);(79.231544,348.000000);(79.023490,348.000000);(78.815436,348.000000);(78.607383,348.000000);(78.399329,348.000000);(78.191275,348.000000);(77.983221,348.000000);(77.775168,348.000000);(77.567114,348.000000);(77.359060,348.000000);(77.151007,348.000000);(76.942953,348.000000);(76.734899,348.000000);(76.526846,348.000000);(76.318792,348.000000);(76.110738,348.000000);(75.902685,348.000000);(75.694631,348.000000);(75.486577,348.000000);(75.278523,348.000000);(75.070470,348.000000);(74.862416,348.000000);(74.654362,348.000000);(74.446309,348.000000);(74.238255,348.000000);(74.030201,348.000000);(73.822148,348.000000);(73.614094,348.000000);(73.406040,348.000000);(73.197987,348.000000);(72.989933,348.000000);(72.781879,348.000000);(72.573826,348.000000);</t>
+  </si>
+  <si>
+    <t>(72.573826,348.000000);(72.365772,348.000000);(72.157718,348.000000);(71.949664,348.000000);(71.741611,348.000000);(71.533557,348.000000);(71.325503,348.000000);(71.117450,348.000000);(70.909396,348.000000);(70.701342,348.000000);(70.493289,348.000000);(70.285235,348.000000);(70.077181,348.000000);(69.869128,348.000000);(69.661074,348.000000);(69.453020,348.000000);(69.244966,348.000000);(69.036913,348.000000);(68.828859,348.000000);(68.620805,348.000000);(68.412752,348.000000);(68.204698,348.000000);(67.996644,348.000000);(67.788591,348.000000);(67.580537,348.000000);(67.372483,348.000000);(67.164430,348.000000);(66.956376,348.000000);(66.748322,348.000000);(66.540268,348.000000);(66.332215,348.000000);(66.124161,348.000000);(65.916107,348.000000);(65.708054,348.000000);(65.500000,348.000000);(65.291946,348.000000);(65.083893,348.000000);(64.875839,348.000000);(64.667785,348.000000);(64.459732,348.000000);(64.251678,348.000000);(64.043624,348.000000);(63.835570,348.000000);(63.627517,348.000000);(63.419463,348.000000);(63.211409,348.000000);(63.003356,348.000000);(62.795302,348.000000);(62.587248,348.000000);(62.379195,348.000000);</t>
+  </si>
+  <si>
+    <t>(62.379195,348.000000);(62.171141,348.000000);(61.963087,348.000000);(61.755034,348.000000);(61.546980,348.000000);(61.338926,348.000000);(61.130872,348.000000);(60.922819,348.000000);(60.714765,348.000000);(60.506711,348.000000);(60.298658,348.000000);(60.090604,348.000000);(59.882550,348.000000);(59.674497,348.000000);(59.466443,348.000000);(59.258389,348.000000);(59.050336,348.000000);(58.842282,348.000000);(58.634228,348.000000);(58.426174,348.000000);(58.218121,348.000000);(58.010067,348.000000);(57.802013,348.000000);(57.593960,348.000000);(57.385906,348.000000);(57.177852,348.000000);(56.969799,348.000000);(56.761745,348.000000);(56.553691,348.000000);(56.345638,348.000000);(56.137584,348.000000);(55.929530,348.000000);(55.721477,348.000000);(55.513423,348.000000);(55.305369,348.000000);(55.097315,348.000000);(54.889262,348.000000);(54.681208,348.000000);(54.473154,348.000000);(54.265101,348.000000);(54.057047,348.000000);(53.848993,348.000000);(53.640940,348.000000);(53.432886,348.000000);(53.224832,348.000000);(53.016779,348.000000);(52.808725,348.000000);(52.600671,348.000000);(52.392617,348.000000);(52.184564,348.000000);</t>
+  </si>
+  <si>
+    <t>(49.947733,347.845849);(49.814359,347.550828);(49.616335,347.297477);(49.352775,347.115458);(49.046233,347.016138);(48.723547,346.981454);(48.397955,346.982887);(48.072357,346.995961);(47.746638,347.004034);(47.420782,347.003743);(47.094921,347.001050);(46.769055,347.001105);(46.443187,347.003026);(46.117342,347.001229);(45.791614,346.992410);(45.465890,346.984112);(45.140429,346.992233);(44.816425,347.024365);(44.492645,347.058502);(44.171829,347.038604);(43.887027,346.905352);(43.661615,346.674970);(43.465922,346.414565);(43.251094,346.172306);(42.977972,346.018542);(42.660927,345.990191);(42.336525,346.017124);(42.021578,345.980616);(41.755680,345.815179);(41.548980,345.565440);(41.355474,345.303593);(41.121565,345.085634);(40.825961,344.987873);(40.502602,344.999910);(40.179163,345.012796);(39.882951,344.916774);(39.648372,344.699824);(39.454889,344.437980);(39.248746,344.187726);(38.983482,344.021313);(38.668802,343.984525);(38.344456,344.011984);(38.027931,343.982644);(37.757472,343.825396);(37.546613,343.579555);(37.352673,343.317916);(37.123477,343.093104);(36.832744,342.978749);(36.510014,342.976758);(36.185433,342.998192);(35.870363,342.949533);(35.593986,342.791080);(35.369865,342.557758);(35.181678,342.292335);(35.009399,342.015780);(34.836828,341.739411);(34.648800,341.473797);(34.427695,341.236969);(34.157558,341.065226);(33.846340,340.995443);(33.521627,341.002898);(33.196823,341.011860);(32.885647,340.943693);(32.616595,340.770960);(32.394990,340.534114);(32.199016,340.273968);(32.005473,340.011887);(31.798538,339.760519);(31.574872,339.523819);(31.338709,339.299431);(31.095186,339.082928);(30.849624,338.868705);(30.607346,338.650832);(30.373605,338.423953);(30.153384,338.184073);</t>
+  </si>
+  <si>
+    <t>(30.153384,338.184073);(29.950014,337.929774);(29.757407,337.666954);(29.557581,337.409931);(29.326874,337.182852);(29.046601,337.031840);(28.729905,336.986511);(28.404804,337.002600);(28.081087,336.997885);(27.775553,336.906626);(27.513250,336.720837);(27.298174,336.478270);(27.118390,336.207216);(26.961883,335.921639);(26.820375,335.628193);(26.688011,335.330439);(26.558552,335.031386);(26.424599,334.734366);(26.278024,334.443523);(26.110857,334.164277);(25.917672,333.902573);(25.700810,333.659817);(25.468759,333.431197);(25.229554,333.209919);(24.989788,332.989235);(24.753730,332.764615);(24.522040,332.535477);(24.293505,332.303179);(24.066735,332.069152);(23.840300,331.834798);(23.612840,331.601443);(23.383086,331.370355);(23.149832,331.142812);(22.912348,330.919691);(22.672655,330.698919);(22.436012,330.474941);(22.209010,330.241380);(21.999227,329.992526);(21.812139,329.726247);(21.647131,329.445561);(21.499652,329.155132);(21.364526,328.858658);(21.236489,328.559004);(21.110326,328.258544);(20.980995,327.959453);(20.845468,327.663128);(20.703913,327.369623);(20.557855,327.078323);(20.408858,326.788509);(20.258488,326.499401);(20.108314,326.210192);(19.959812,325.920124);(19.813568,325.628911);(19.668989,325.336865);(19.525094,325.044481);(19.380901,324.752243);(19.235437,324.460639);(19.087734,324.170164);(18.937049,323.881228);(18.783923,323.593573);(18.630308,323.306177);(18.478501,323.017827);(18.330842,322.727346);(18.189742,322.433645);(18.057710,322.135788);(17.936834,321.833250);(17.826947,321.526523);(17.725665,321.216818);(17.630157,320.905264);(17.537572,320.592820);(17.445058,320.280354);(17.349767,319.968734);(17.248856,319.658906);(17.139511,319.351983);(17.019011,319.049305);</t>
+  </si>
+  <si>
+    <t>(17.019011,319.049305);(16.886060,318.751887);(16.742617,318.459333);(16.592609,318.170053);(16.439956,317.882146);(16.288507,317.593609);(16.142179,317.302472);(16.005030,317.006950);(15.880102,316.706085);(15.768043,316.400180);(15.668064,316.090101);(15.579199,315.776641);(15.500408,315.460486);(15.430608,315.142213);(15.368696,314.822303);(15.313572,314.501145);(15.264143,314.179054);(15.219334,313.856284);(15.178089,313.533034);(15.139367,313.209470);(15.102141,312.885729);(15.065392,312.561933);(15.028100,312.238199);(14.989285,311.914646);(14.948360,311.591354);(14.905264,311.268343);(14.860121,310.945613);(14.813052,310.623157);(14.764183,310.300968);(14.713643,309.979038);(14.661558,309.657353);(14.608059,309.335901);(14.553276,309.014664);(14.497341,308.693627);(14.440387,308.372768);(14.382546,308.052067);(14.323955,307.731503);(14.264746,307.411052);(14.205057,307.090691);(14.145022,306.770393);(14.084780,306.450135);(14.024467,306.129890);(13.964221,305.809633);(13.904180,305.489337);(13.844484,305.168976);(13.785270,304.848526);(13.726678,304.527962);(13.668849,304.207260);(13.611920,303.886397);(13.556033,303.565350);(13.501328,303.244101);(13.447943,302.922629);(13.396020,302.600919);(13.345697,302.278954);(13.297113,301.956723);(13.250406,301.634215);(13.205716,301.311421);(13.163177,300.988337);(13.122925,300.664960);(13.085096,300.341292);(13.049820,300.017335);(13.017229,299.693098);(12.987450,299.368591);(12.960610,299.043828);(12.936831,298.718827);(12.916233,298.393609);(12.898931,298.068199);(12.885037,297.742627);(12.874660,297.416924);(12.867902,297.091126);(12.864860,296.765272);(12.865629,296.439406);(12.870293,296.113572);(12.878935,295.787820);(12.891629,295.462201);</t>
+  </si>
+  <si>
+    <t>(12.968310,293.891650);(12.906773,293.674428);(12.848956,293.456187);(12.794917,293.236981);(12.744712,293.016864);(12.698390,292.795898);(12.655993,292.574146);(12.617559,292.351673);(12.583114,292.128547);(12.552679,291.904839);(12.526267,291.680621);(12.503882,291.455965);(12.485517,291.230944);(12.471161,291.005632);(12.460789,290.780101);(12.454371,290.554423);(12.451867,290.328667);(12.453229,290.102901);(12.458399,289.877190);(12.467313,289.651596);(12.479900,289.426176);(12.496082,289.200985);(12.515773,288.976074);(12.538882,288.751487);(12.565314,288.527267);(12.594968,288.303449);(12.627739,288.080067);(12.663519,287.857146);(12.702196,287.634709);(12.743657,287.412773);(12.787786,287.191352);(12.834465,286.970454);(12.883576,286.750084);(12.934999,286.530241);(12.988615,286.310922);(13.044302,286.092120);(13.101943,285.873824);(13.161416,285.656019);(13.222603,285.438689);(13.285385,285.221815);(13.349645,285.005374);(13.415266,284.789341);(13.482131,284.573689);(13.550126,284.358391);(13.619136,284.143416);(13.689049,283.928733);(13.759751,283.714308);(13.831133,283.500109);(13.903082,283.286099);(13.975489,283.072243);(14.048246,282.858507);(14.121242,282.644852);(14.194371,282.431242);(14.267524,282.217640);(14.340595,282.004010);(14.413475,281.790316);(14.486059,281.576520);(14.558239,281.362588);(14.629909,281.148485);(14.700962,280.934176);(14.771291,280.719629);(14.840788,280.504811);(14.909347,280.289691);(14.976860,280.074242);(15.043284,279.858454);(15.108806,279.642390);(15.173801,279.426166);(15.238671,279.209905);(15.303818,278.993728);(15.369644,278.777756);(15.436552,278.562119);(15.504945,278.346948);(15.575225,278.132388);(15.647793,277.918592);(15.723047,277.705729);</t>
+  </si>
+  <si>
+    <t>(15.883189,277.283556);(15.968842,277.074668);(16.058589,276.867507);(16.152230,276.662073);(16.249206,276.458189);(16.348916,276.255624);(16.450773,276.054128);(16.554205,275.853434);(16.658645,275.653262);(16.763537,275.453325);(16.868327,275.253335);(16.972462,275.053004);(17.075513,274.852114);(17.177428,274.650645);(17.278441,274.448721);(17.378818,274.246481);(17.478829,274.044058);(17.578741,273.841588);(17.678827,273.639202);(17.779357,273.437038);(17.880602,273.235230);(17.982830,273.033920);(18.086161,272.833173);(18.190339,272.632864);(18.294866,272.432737);(18.399223,272.232521);(18.502891,272.031948);(18.605353,271.830757);(18.706091,271.628700);(18.804589,271.425543);(18.900334,271.221077);(18.992830,271.015125);(19.082095,270.807748);(19.169234,270.599462);(19.255973,270.391007);(19.344073,270.183129);(19.435305,269.976617);(19.531459,269.772369);(19.634333,269.571447);(19.745697,269.375141);(19.867219,269.185002);(20.000297,269.002816);(20.144937,268.829644);(20.298973,268.664685);(20.459429,268.505896);(20.623656,268.350972);(20.789270,268.197516);(20.953994,268.043114);(21.116058,267.885936);(21.275340,267.725928);(21.433065,267.564375);(21.590660,267.402695);(21.749562,267.242307);(21.911158,267.084649);(22.076414,266.930842);(22.244474,266.780077);(22.412691,266.629483);(22.577998,266.475745);(22.737053,266.315634);(22.885995,266.146208);(23.020582,265.965311);(23.138828,265.773285);(23.242792,265.573028);(23.336367,265.367621);(23.423543,265.159368);(23.508261,264.950085);(23.594463,264.741420);(23.686207,264.535177);(23.787749,264.333670);(23.903468,264.140114);(24.037068,263.958627);(24.187864,263.790993);(24.350081,263.634089);(24.517163,263.482245);(24.683549,263.329656);</t>
+  </si>
+  <si>
+    <t>(24.994549,263.002995);(25.133243,262.825011);(25.265418,262.641977);(25.399556,262.460428);(25.545045,262.288244);(25.712459,262.138733);(25.909011,262.034603);(26.127595,261.994126);(26.352460,262.002619);(26.577052,262.025340);(26.801829,262.030254);(27.017126,261.979832);(27.202322,261.858638);(27.353498,261.692401);(27.486802,261.510310);(27.619411,261.327679);(27.768406,261.159290);(27.950646,261.033241);(28.164372,260.978925);(28.388953,260.984091);(28.613373,261.008388);(28.838053,261.016309);(29.053793,260.968186);(29.241026,260.849546);(29.395787,260.686623);(29.532445,260.507064);(29.666665,260.325566);(29.813696,260.155022);(29.989321,260.017572);(30.196569,259.938746);(30.419634,259.919124);(30.644143,259.937253);(30.866772,259.974217);(31.088467,260.016945);(31.310955,260.054897);(31.535290,260.076576);(31.759475,260.065922);(31.972821,260.002663);(32.159359,259.880897);(32.316800,259.720312);(32.457643,259.544005);(32.595724,259.365408);(32.744507,259.196172);(32.918052,259.054938);(33.122051,258.967689);(33.344063,258.939697);(33.569143,258.949525);(33.793425,258.975095);(34.017785,258.999875);(34.243003,259.013749);(34.468701,259.015865);(34.694399,259.010526);(34.920048,259.002875);(35.145752,258.997437);(35.371518,258.995663);(35.597295,258.996449);(35.823067,258.998395);(36.048840,259.000181);(36.274619,259.001062);(36.500399,259.001105);(36.726179,259.000673);(36.951960,259.000135);(37.177740,258.999781);(37.403521,258.999683);(37.629302,258.999755);(37.855082,258.999902);(38.080863,259.000030);(38.306644,259.000094);(38.532425,259.000098);(38.758206,259.000062);(38.983986,259.000004);(39.209767,258.999946);(39.435548,258.999905);(39.661329,258.999902);(39.887110,258.999956);</t>
+  </si>
+  <si>
+    <t>(40.025835,259.155942);(40.105493,259.460214);(40.258517,259.730160);(40.501124,259.915255);(40.801951,259.990084);(41.117133,259.990228);(41.432631,259.967447);(41.747904,259.965894);(42.051277,260.034681);(42.318415,260.194424);(42.542881,260.415217);(42.741437,260.661219);(42.933671,260.912463);(43.135157,261.156115);(43.351083,261.387110);(43.577608,261.607874);(43.809212,261.823390);(44.040403,262.039347);(44.267939,262.259138);(44.491971,262.482517);(44.713961,262.707934);(44.935374,262.933919);(45.157420,263.159282);(45.380500,263.383622);(45.604390,263.607153);(45.828793,263.830171);(46.053409,264.052974);(46.277947,264.275855);(46.502126,264.499097);(46.725667,264.722978);(46.948289,264.947771);(47.169992,265.173472);(47.391574,265.399292);(47.614405,265.623874);(47.839878,265.845793);(48.069039,266.063892);(48.300602,266.279463);(48.530347,266.496940);(48.752895,266.721658);(48.962184,266.958575);(49.152940,267.210540);(49.323906,267.476421);(49.477146,267.752995);(49.615402,268.037429);(49.741599,268.327469);(49.858691,268.621340);(49.969609,268.917620);(50.076865,269.215256);(50.181754,269.513735);(50.284646,269.812910);(50.385820,270.112670);(50.485564,270.412910);(50.584175,270.713524);(50.681958,271.014409);(50.779221,271.315463);(50.876276,271.616584);(50.973436,271.917671);(51.070966,272.218638);(51.168992,272.519444);(51.267533,272.820082);(51.366596,273.120548);(51.466192,273.420838);(51.566327,273.720949);(51.667010,274.020876);(51.768251,274.320615);(51.870059,274.620162);(51.972442,274.919513);(52.075357,275.218682);(52.178597,275.517739);(52.281831,275.816797);(52.384717,276.115976);(52.486910,276.415392);(52.588065,276.715159);(52.687833,277.015391);(52.785867,277.316192);</t>
+  </si>
+  <si>
+    <t>(52.975321,277.919902);(53.066112,278.222966);(53.154137,278.526845);(53.239519,278.831477);(53.322402,279.136800);(53.402930,279.442752);(53.481249,279.749278);(53.557504,280.056324);(53.631843,280.363840);(53.704412,280.671778);(53.775357,280.980095);(53.844827,281.288748);(53.912969,281.597698);(53.979929,281.906905);(54.045848,282.216337);(54.110839,282.525964);(54.174994,282.835767);(54.238403,283.145722);(54.301157,283.455812);(54.363346,283.766015);(54.425061,284.076312);(54.486393,284.386686);(54.547433,284.697117);(54.608272,285.007588);(54.669001,285.318080);(54.729712,285.628576);(54.790496,285.939058);(54.851444,286.249507);(54.912647,286.559906);(54.974196,286.870237);(55.036164,287.180484);(55.098546,287.490648);(55.161267,287.800744);(55.224242,288.110789);(55.287385,288.420799);(55.350609,288.730793);(55.413830,289.040788);(55.476961,289.350800);(55.539917,289.660849);(55.602611,289.970950);(55.664959,290.281121);(55.726873,290.591379);(55.788269,290.901740);(55.849059,291.212220);(55.909159,291.522835);(55.968480,291.833599);(56.026947,292.144525);(56.084532,292.455615);(56.141262,292.766862);(56.197173,293.078258);(56.252304,293.389792);(56.306693,293.701458);(56.360376,294.013245);(56.413392,294.325147);(56.465779,294.637155);(56.517574,294.949261);(56.568816,295.261459);(56.619542,295.573742);(56.669791,295.886101);(56.719599,296.198531);(56.769006,296.511025);(56.818049,296.823576);(56.866767,297.136178);(56.915196,297.448825);(56.963377,297.761510);(57.011343,298.074229);(57.059116,298.386976);(57.106689,298.699755);(57.154049,299.012565);(57.201183,299.325410);(57.248077,299.638291);(57.294717,299.951210);(57.341090,300.264168);(57.387182,300.577168);(57.432980,300.890211);</t>
+  </si>
+  <si>
+    <t>(57.523638,301.516434);(57.568471,301.829617);(57.612955,302.142849);(57.657076,302.456133);(57.700821,302.769469);(57.744176,303.082860);(57.787128,303.396306);(57.829662,303.709810);(57.871765,304.023371);(57.913423,304.336992);(57.954623,304.650673);(57.995350,304.964416);(58.035591,305.278222);(58.075332,305.592091);(58.114560,305.906025);(58.153260,306.220025);(58.191419,306.534091);(58.229023,306.848223);(58.266058,307.162423);(58.302510,307.476692);(58.338366,307.791029);(58.373611,308.105435);(58.408232,308.419910);(58.442215,308.734455);(58.475546,309.049070);(58.508211,309.363754);(58.540196,309.678508);(58.571487,309.993332);(58.602071,310.308226);(58.631934,310.623189);(58.661061,310.938220);(58.689439,311.253320);(58.717054,311.568488);(58.743893,311.883722);(58.769940,312.199024);(58.795184,312.514390);(58.819608,312.829821);(58.843201,313.145315);(58.865948,313.460872);(58.887835,313.776489);(58.908849,314.092165);(58.928976,314.407899);(58.948202,314.723690);(58.966513,315.039535);(58.983897,315.355432);(59.000338,315.671379);(59.015825,315.987375);(59.030343,316.303417);(59.043879,316.619502);(59.056419,316.935628);(59.067950,317.251793);(59.078459,317.567994);(59.087932,317.884227);(59.096357,318.200489);(59.103720,318.516779);(59.110009,318.833091);(59.115209,319.149423);(59.119309,319.465771);(59.122295,319.782132);(59.124155,320.098502);(59.124876,320.414876);(59.124446,320.731250);(59.122852,321.047621);(59.120082,321.363984);(59.116123,321.680334);(59.110964,321.996666);(59.104592,322.312977);(59.096996,322.629260);(59.088164,322.945512);(59.078084,323.261726);(59.066745,323.577897);(59.054135,323.894020);(59.040244,324.210090);(59.025059,324.526100);(59.008571,324.842045);</t>
+  </si>
+  <si>
+    <t>(58.948500,325.142382);(58.850761,325.428938);(58.764025,325.719004);(58.689272,326.012373);(58.627528,326.308739);(58.579840,326.607673);(58.547244,326.908612);(58.530719,327.210844);(58.531132,327.513513);(58.549183,327.815631);(58.585340,328.116112);(58.639798,328.413816);(58.712449,328.707610);(58.802881,328.996433);(58.910400,329.279351);(59.034079,329.555602);(59.172819,329.824621);(59.325414,330.086051);(59.490614,330.339723);(59.667176,330.585643);(59.853902,330.823955);(60.049667,331.054917);(60.253430,331.278870);(60.464242,331.496216);(60.681244,331.707393);(60.903664,331.912867);(61.130246,332.113768);(61.357425,332.314002);(61.579276,332.520002);(61.788617,332.738430);(61.976721,332.974984);(62.137306,333.230978);(62.273114,333.501320);(62.393315,333.779192);(62.507710,334.059584);(62.625982,334.338310);(62.757805,334.610686);(62.912601,334.870300);(63.096580,335.109826);(63.305357,335.328666);(63.526608,335.535364);(63.748412,335.741488);(63.958521,335.959067);(64.145229,336.196597);(64.304938,336.453304);(64.442623,336.722757);(64.565765,336.999340);(64.682148,337.278910);(64.798913,337.558317);(64.922179,337.834866);(65.057160,338.105797);(65.210058,338.366785);(65.389928,338.609273);(65.608106,338.815816);(65.871133,338.954522);(66.165076,339.000152);(66.466699,338.982110);(66.768019,338.970928);(67.051279,339.045719);(67.284153,339.228359);(67.472645,339.464491);(67.655635,339.705461);(67.872767,339.910667);(68.143923,340.018900);(68.443583,340.025924);(68.745262,340.001883);(69.043166,340.023511);(69.315275,340.139435);(69.541755,340.335762);(69.729272,340.572446);(69.894417,340.826076);(70.051378,341.085047);(70.212431,341.341402);(70.390726,341.585527);(70.602253,341.799370);</t>
+  </si>
+  <si>
+    <t>(71.151679,342.000382);(71.453313,341.984803);(71.754843,341.971935);(72.041239,342.038752);(72.280607,342.212248);(72.474203,342.443920);(72.657608,342.684729);(72.868467,342.898215);(73.131642,343.028311);(73.428777,343.056725);(73.730091,343.030796);(74.031340,343.002071);(74.333727,342.995511);(74.636442,343.002918);(74.938943,342.999498);(75.240421,342.973797);(75.541777,342.946739);(75.840585,342.966337);(76.110621,343.082600);(76.330173,343.286197);(76.517966,343.523457);(76.709159,343.757677);(76.938448,343.948108);(77.216663,344.044150);(77.517109,344.050051);(77.818327,344.020015);(78.119997,343.997777);(78.422609,343.997921);(78.725325,344.004482);(79.027568,343.993957);(79.328799,343.964037);(79.630332,343.944872);(79.924326,343.989618);(80.180299,344.135592);(80.386948,344.354407);(80.572142,344.593916);(80.771067,344.820774);(81.015778,344.987141);(81.304168,345.053002);(81.605605,345.042655);(81.906757,345.011417);(82.208763,344.995664);(82.511460,345.000220);(82.814146,345.003903);(83.116079,344.986601);(83.417253,344.955547);(83.718576,344.948949);(84.004814,345.022061);(84.246095,345.194329);(84.443382,345.422857);(84.629251,345.661821);(84.838486,345.877864);(85.097194,346.018933);(85.392177,346.059893);(85.693548,346.038459);(85.994292,346.003445);(86.296146,345.982923);(86.598815,345.982502);(86.901359,345.994804);(87.203790,346.010320);(87.506419,346.019187);(87.808960,346.012388);(88.110340,345.985210);(88.411124,345.950665);(88.712336,345.944566);(88.998417,346.018835);(89.239745,346.191267);(89.437364,346.419515);(89.623515,346.658263);(89.832655,346.874481);(90.090960,347.016468);(90.385728,347.058506);(90.687160,347.037924);(90.988045,347.004224);(91.290018,346.985817);</t>
+  </si>
+  <si>
+    <t>(91.895407,346.996020);(92.198138,347.002968);(92.500957,347.004008);(92.803782,347.001825);(93.106607,346.999600);(93.409440,346.998881);(93.712274,346.999300);(94.015108,346.999958);(94.317942,347.000271);(94.620777,347.000219);(94.923611,347.000054);(95.226446,346.999977);(95.529280,347.000004);(95.832115,347.000019);(96.134950,346.999917);(96.437784,346.999754);(96.740619,346.999753);(97.043453,347.000152);(97.346287,347.000828);(97.649121,347.001098);(97.951952,347.000066);(98.254777,346.997659);(98.557603,346.995829);(98.860412,346.997897);(99.163122,347.005854);(99.465814,347.014552);(99.768476,347.012378);(100.070189,346.989939);(100.371033,346.955724);(100.672461,346.942833);(100.962635,347.003196);(101.211068,347.163546);(101.412896,347.387571);(101.598513,347.626770);(101.802448,347.848608);(102.053988,348.003389);(102.345741,348.057886);(102.647195,348.042368);(102.948041,348.008175);(103.249836,347.986965);(103.552516,347.985789);(103.855204,347.994741);(104.157920,348.002404);(104.460733,348.004138);(104.763559,348.002182);(105.066383,347.999822);(105.369215,347.998886);(105.672049,347.999205);(105.974883,347.999884);(106.277717,348.000269);(106.580552,348.000260);(106.883386,348.000083);(107.186221,347.999946);(107.489055,347.999922);(107.791890,347.999963);(108.094725,348.000007);(108.397559,348.000022);(108.700394,348.000014);(109.003229,348.000001);(109.306063,347.999995);(109.608898,347.999995);(109.911732,347.999999);(110.214567,348.000001);(110.517402,348.000001);(110.820236,348.000001);(111.123071,348.000000);(111.425906,348.000000);(111.728740,348.000000);(112.031575,348.000000);(112.334410,348.000000);(112.637244,348.000000);(112.940079,348.000000);(113.242913,348.000000);(113.545748,348.000000);(113.848583,348.000000);</t>
+  </si>
+  <si>
+    <t>(156.752786,291.961942);(156.255431,291.961438);(155.755233,292.037185);(155.257426,292.040058);(154.821550,291.838508);(154.477511,291.472929);(154.123473,291.120932);(153.675031,290.949562);(153.175135,290.972489);(152.674837,291.046720);(152.181463,291.022288);(151.760915,290.786970);(151.425361,290.410787);(151.057610,290.079159);(150.595830,289.942995);(150.094943,289.984727);(149.594356,290.053888);(149.107809,289.998611);(148.703122,289.731306);(148.372278,289.349590);(147.989363,289.042709);(147.515809,288.941489);(147.014816,288.997594);(146.513903,289.057953);(146.036457,288.969433);(145.647722,288.672659);(145.317620,288.290094);(144.918849,288.011556);(144.435415,287.944206);(143.934700,288.010558);(143.433700,288.058106);(142.967364,287.934942);(142.594123,287.612004);(142.260765,287.233209);(141.846050,286.985794);(141.354931,286.950291);(140.854553,287.023130);(140.354164,287.053603);(139.900784,286.895047);(139.542182,286.549725);(139.201634,286.179755);(138.770953,285.966736);(138.274186,285.960142);(137.773371,286.031816);(137.273660,286.039051);(136.824376,285.858577);(136.463662,285.511545);(136.124476,285.137684);(135.708004,284.891559);(135.234981,284.911926);</t>
+  </si>
+  <si>
+    <t>(134.000000,284.898026);(134.000000,284.694079);(134.000000,284.490132);(134.000000,284.286184);(134.000000,284.082237);(134.000000,283.878289);(134.000000,283.674342);(134.000000,283.470395);(134.000000,283.266447);(134.000000,283.062500);(134.000000,282.858553);(134.000000,282.654605);(134.000000,282.450658);(134.000000,282.246711);(134.000000,282.042763);(134.000000,281.838816);(134.000000,281.634868);(134.000000,281.430921);(134.000000,281.226974);(134.000000,281.023026);(134.000000,280.819079);(134.000000,280.615132);(134.000000,280.411184);(134.000000,280.207237);(134.000000,280.003289);(134.000000,279.799342);(134.000000,279.595395);(134.000000,279.391447);(134.000000,279.187500);(134.000000,278.983553);(134.000000,278.779605);(134.000000,278.575658);(134.000000,278.371711);(134.000000,278.167763);(134.000000,277.963816);(134.000000,277.759868);(134.000000,277.555921);(134.000000,277.351974);(134.000000,277.148026);(134.000000,276.944079);(134.000000,276.740132);(134.000000,276.536184);(134.000000,276.332237);(134.000000,276.128289);(134.000000,275.924342);(134.000000,275.720395);(134.000000,275.516447);(134.000000,275.312500);(134.000000,275.108553);(134.000000,274.904605);</t>
+  </si>
+  <si>
+    <t>(134.000000,274.904605);(134.000000,274.700658);(134.000000,274.496711);(134.000000,274.292763);(134.000000,274.088816);(134.000000,273.884868);(134.000000,273.680921);(134.000000,273.476974);(134.000000,273.273026);(134.000000,273.069079);(134.000000,272.865132);(134.000000,272.661184);(134.000000,272.457237);(134.000000,272.253289);(134.000000,272.049342);(134.000000,271.845395);(134.000000,271.641447);(134.000000,271.437500);(134.000000,271.233553);(134.000000,271.029605);(134.000000,270.825658);(134.000000,270.621711);(134.000000,270.417763);(134.000000,270.213816);(134.000000,270.009868);(134.000000,269.805921);(134.000000,269.601974);(134.000000,269.398026);(134.000000,269.194079);(134.000000,268.990132);(134.000000,268.786184);(134.000000,268.582237);(134.000000,268.378289);(134.000000,268.174342);(134.000000,267.970395);(134.000000,267.766447);(134.000000,267.562500);(134.000000,267.358553);(134.000000,267.154605);(134.000000,266.950658);(134.000000,266.746711);(134.000000,266.542763);(134.000000,266.338816);(134.000000,266.134868);(134.000000,265.930921);(134.000000,265.726974);(134.000000,265.523026);(134.000000,265.319079);(134.000000,265.115132);(134.000000,264.911184);</t>
+  </si>
+  <si>
+    <t>(134.000000,264.911184);(134.000000,264.707237);(134.000000,264.503289);(134.000000,264.299342);(134.000000,264.095395);(134.000000,263.891447);(134.000000,263.687500);(134.000000,263.483553);(134.000000,263.279605);(134.000000,263.075658);(134.000000,262.871711);(134.000000,262.667763);(134.000000,262.463816);(134.000000,262.259868);(134.000000,262.055921);(134.000000,261.851974);(134.000000,261.648026);(134.000000,261.444079);(134.000000,261.240132);(134.000000,261.036184);(134.000000,260.832237);(134.000000,260.628289);(134.000000,260.424342);(134.000000,260.220395);(134.000000,260.016447);(134.000000,259.812500);(134.000000,259.608553);(134.000000,259.404605);(134.000000,259.200658);(134.000000,258.996711);(134.000000,258.792763);(134.000000,258.588816);(134.000000,258.384868);(134.000000,258.180921);(134.000000,257.976974);(134.000000,257.773026);(134.000000,257.569079);(134.000000,257.365132);(134.000000,257.161184);(134.000000,256.957237);(134.000000,256.753289);(134.000000,256.549342);(134.000000,256.345395);(134.000000,256.141447);(134.000000,255.937500);(134.000000,255.733553);(134.000000,255.529605);(134.000000,255.325658);(134.000000,255.121711);(134.000000,254.917763);</t>
+  </si>
+  <si>
+    <t>(135.235613,254.098512);(135.709845,254.120834);(136.118854,253.852119);(136.448371,253.456996);(136.823844,253.123109);(137.296845,253.002927);(137.807212,252.995066);(138.248678,252.803154);(138.591335,252.424246);(138.956742,252.078034);(139.423514,251.939464);(139.933190,251.988326);(140.442855,252.056521);(140.932917,251.981486);(141.334926,251.690706);(141.672093,251.301950);(142.076058,251.014781);(142.567245,250.943905);(143.076820,251.013444);(143.586378,251.060551);(144.050818,250.916679);(144.413084,250.566307);(144.756936,250.189502);(145.201182,250.006875);(145.711886,250.001443);(146.172809,249.859565);(146.531043,249.503684);(146.878369,249.131583);(147.326549,248.946889);(147.834783,248.972346);(148.343984,249.049122);(148.843847,249.013954);(149.265443,248.761156);(149.605363,248.375627);(149.990032,248.054415);(150.468515,247.941166);(150.978418,247.996976);(151.488085,248.061244);(151.968423,247.962589);(152.350041,247.643484);(152.683305,247.253096);(153.107715,247.024695);(153.613051,247.003078);(154.090898,246.904670);(154.468642,246.581531);(154.803829,246.193471);(155.231986,245.963345);(155.735787,245.957308);(156.244290,246.039948);(156.749225,246.040963);</t>
+  </si>
+  <si>
+    <t>(156.749225,208.959037);(156.244290,208.960052);(155.735787,209.042692);(155.231986,209.036655);(154.803829,208.806529);(154.468642,208.418469);(154.090898,208.095330);(153.613051,207.996922);(153.107715,207.975305);(152.683305,207.746904);(152.350041,207.356516);(151.968423,207.037411);(151.488085,206.938756);(150.978418,207.003024);(150.468515,207.058834);(149.990032,206.945585);(149.605363,206.624373);(149.265443,206.238844);(148.843847,205.986046);(148.343984,205.950878);(147.834783,206.027654);(147.326549,206.053111);(146.878369,205.868417);(146.531043,205.496316);(146.172809,205.140435);(145.711886,204.998557);(145.201182,204.993125);(144.756936,204.810498);(144.413084,204.433693);(144.050818,204.083321);(143.586378,203.939449);(143.076820,203.986556);(142.567245,204.056095);(142.076058,203.985219);(141.672093,203.698050);(141.334926,203.309294);(140.932917,203.018514);(140.442855,202.943479);(139.933190,203.011674);(139.423514,203.060536);(138.956742,202.921966);(138.591335,202.575754);(138.248678,202.196846);(137.807212,202.004934);(137.296845,201.997073);(136.823844,201.876891);(136.448371,201.543004);(136.118854,201.147881);(135.709845,200.879166);(135.235613,200.901488);</t>
+  </si>
+  <si>
+    <t>(134.000000,200.904605);(134.000000,200.713816);(134.000000,200.523026);(134.000000,200.332237);(134.000000,200.141447);(134.000000,199.950658);(134.000000,199.759868);(134.000000,199.569079);(134.000000,199.378289);(134.000000,199.187500);(134.000000,198.996711);(134.000000,198.805921);(134.000000,198.615132);(134.000000,198.424342);(134.000000,198.233553);(134.000000,198.042763);(134.000000,197.851974);(134.000000,197.661184);(134.000000,197.470395);(134.000000,197.279605);(134.000000,197.088816);(134.000000,196.898026);(134.000000,196.707237);(134.000000,196.516447);(134.000000,196.325658);(134.000000,196.134868);(134.000000,195.944079);(134.000000,195.753289);(134.000000,195.562500);(134.000000,195.371711);(134.000000,195.180921);(134.000000,194.990132);(134.000000,194.799342);(134.000000,194.608553);(134.000000,194.417763);(134.000000,194.226974);(134.000000,194.036184);(134.000000,193.845395);(134.000000,193.654605);(134.000000,193.463816);(134.000000,193.273026);(134.000000,193.082237);(134.000000,192.891447);(134.000000,192.700658);(134.000000,192.509868);(134.000000,192.319079);(134.000000,192.128289);(134.000000,191.937500);(134.000000,191.746711);(134.000000,191.555921);</t>
+  </si>
+  <si>
+    <t>(134.000000,191.555921);(134.000000,191.365132);(134.000000,191.174342);(134.000000,190.983553);(134.000000,190.792763);(134.000000,190.601974);(134.000000,190.411184);(134.000000,190.220395);(134.000000,190.029605);(134.000000,189.838816);(134.000000,189.648026);(134.000000,189.457237);(134.000000,189.266447);(134.000000,189.075658);(134.000000,188.884868);(134.000000,188.694079);(134.000000,188.503289);(134.000000,188.312500);(134.000000,188.121711);(134.000000,187.930921);(134.000000,187.740132);(134.000000,187.549342);(134.000000,187.358553);(134.000000,187.167763);(134.000000,186.976974);(134.000000,186.786184);(134.000000,186.595395);(134.000000,186.404605);(134.000000,186.213816);(134.000000,186.023026);(134.000000,185.832237);(134.000000,185.641447);(134.000000,185.450658);(134.000000,185.259868);(134.000000,185.069079);(134.000000,184.878289);(134.000000,184.687500);(134.000000,184.496711);(134.000000,184.305921);(134.000000,184.115132);(134.000000,183.924342);(134.000000,183.733553);(134.000000,183.542763);(134.000000,183.351974);(134.000000,183.161184);(134.000000,182.970395);(134.000000,182.779605);(134.000000,182.588816);(134.000000,182.398026);(134.000000,182.207237);</t>
+  </si>
+  <si>
+    <t>(134.000000,182.207237);(134.000000,182.016447);(134.000000,181.825658);(134.000000,181.634868);(134.000000,181.444079);(134.000000,181.253289);(134.000000,181.062500);(134.000000,180.871711);(134.000000,180.680921);(134.000000,180.490132);(134.000000,180.299342);(134.000000,180.108553);(134.000000,179.917763);(134.000000,179.726974);(134.000000,179.536184);(134.000000,179.345395);(134.000000,179.154605);(134.000000,178.963816);(134.000000,178.773026);(134.000000,178.582237);(134.000000,178.391447);(134.000000,178.200658);(134.000000,178.009868);(134.000000,177.819079);(134.000000,177.628289);(134.000000,177.437500);(134.000000,177.246711);(134.000000,177.055921);(134.000000,176.865132);(134.000000,176.674342);(134.000000,176.483553);(134.000000,176.292763);(134.000000,176.101974);(134.000000,175.911184);(134.000000,175.720395);(134.000000,175.529605);(134.000000,175.338816);(134.000000,175.148026);(134.000000,174.957237);(134.000000,174.766447);(134.000000,174.575658);(134.000000,174.384868);(134.000000,174.194079);(134.000000,174.003289);(134.000000,173.812500);(134.000000,173.621711);(134.000000,173.430921);(134.000000,173.240132);(134.000000,173.049342);(134.000000,172.858553);</t>
+  </si>
+  <si>
+    <t>(135.236776,171.960408);(135.713758,171.955928);(136.193463,172.031331);(136.673363,172.054162);(137.105177,171.891984);(137.445118,171.555059);(137.768118,171.195952);(138.178063,170.984731);(138.655123,170.965559);(139.139346,170.997298);(139.624835,170.998695);(140.109395,171.016722);(140.593164,171.044576);(141.042164,170.931043);(141.399657,170.622419);(141.713352,170.253068);(142.104826,170.005719);(142.574930,169.959212);(143.059068,169.993805);(143.544271,169.999543);(144.029132,170.011252);(144.513224,170.044456);(144.973430,169.964143);(145.346968,169.683013);(145.658358,169.311092);(146.033510,169.032870);(146.494718,168.955740);(146.978821,168.989248);(147.463713,169.000377);(147.948886,169.006605);(148.433025,169.041241);(148.902347,168.991836);(149.292200,168.741306);(149.605473,168.371483);(149.964535,168.065439);(150.414741,167.955313);(150.898570,167.983856);(151.383161,168.001076);(151.868612,168.002945);(152.352770,168.035699);(152.828988,168.013820);(153.235564,167.796930);(153.555592,167.434765);(153.898832,167.103571);(154.335215,166.955390);(154.817547,166.975849);(155.301334,167.013139);(155.786726,167.009394);(156.272131,166.988470);(156.757428,166.989316);</t>
+  </si>
+  <si>
+    <t>(317.069017,146.529257);(317.220696,145.589970);(317.397424,144.655032);(317.594684,143.724176);(317.807926,142.796823);(318.032611,141.872157);(318.264226,140.949190);(318.498284,140.026835);(318.730313,139.103971);(318.955880,138.179518);(319.173472,137.253151);(319.389278,136.326360);(319.614761,135.401920);(319.861790,134.483102);(320.139321,133.573100);(320.441653,132.670876);(320.748280,131.770061);(321.036390,130.863311);(321.293871,129.947416);(321.525621,129.024556);(321.743764,128.098320);(321.960609,127.171774);(322.185104,126.247065);(322.417461,125.324285);(322.651991,124.402051);(322.882510,123.478816);(323.104295,122.553452);(323.320263,121.626697);(323.541154,120.701126);(323.779309,119.779928);(324.046112,118.866729);(324.341771,117.962358);(324.649588,117.061938);(324.946174,116.157862);(325.214392,115.245076);(325.453733,114.324191);(325.675082,113.398733);(325.890383,112.471822);(326.110266,111.546001);(326.338457,110.622188);(326.571713,109.699632);(326.805368,108.777176);(327.035029,107.853723);(327.259799,106.929064);(327.484149,106.004302);(327.714716,105.081086);(327.958157,104.161215);(328.221068,103.246768);(328.509893,102.340242);(328.830789,101.444650);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,8 +631,21 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,8 +664,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -437,11 +690,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -465,6 +727,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -781,11 +1049,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O154" sqref="A3:O154"/>
+      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,10 +1068,11 @@
     <col min="12" max="12" width="21.85546875" style="1" customWidth="1"/>
     <col min="13" max="14" width="12.7109375" style="1" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="16" max="16" width="20.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -849,8 +1118,11 @@
       <c r="O1" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -896,8 +1168,11 @@
       <c r="O2" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -940,11 +1215,12 @@
       <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -987,11 +1263,12 @@
       <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="9"/>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -1034,11 +1311,12 @@
       <c r="N5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="9"/>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -1081,11 +1359,12 @@
       <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="9"/>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1128,11 +1407,12 @@
       <c r="N7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="9"/>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1175,11 +1455,12 @@
       <c r="N8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="9"/>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -1222,11 +1503,12 @@
       <c r="N9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="9"/>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1269,11 +1551,12 @@
       <c r="N10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9"/>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -1316,11 +1599,12 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -1363,11 +1647,12 @@
       <c r="N12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="9"/>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -1410,11 +1695,12 @@
       <c r="N13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -1457,11 +1743,12 @@
       <c r="N14" s="2">
         <v>0</v>
       </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -1504,11 +1791,12 @@
       <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="9"/>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -1551,11 +1839,12 @@
       <c r="N16" s="2">
         <v>0</v>
       </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="9"/>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -1598,11 +1887,12 @@
       <c r="N17" s="2">
         <v>0</v>
       </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="9"/>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -1645,11 +1935,12 @@
       <c r="N18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="9"/>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -1692,11 +1983,12 @@
       <c r="N19" s="2">
         <v>0</v>
       </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9"/>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -1739,11 +2031,12 @@
       <c r="N20" s="2">
         <v>0</v>
       </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9"/>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -1786,11 +2079,12 @@
       <c r="N21" s="2">
         <v>0</v>
       </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="9"/>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
@@ -1833,11 +2127,12 @@
       <c r="N22" s="2">
         <v>0</v>
       </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="9"/>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -1880,11 +2175,12 @@
       <c r="N23" s="2">
         <v>0</v>
       </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="9"/>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
@@ -1927,11 +2223,12 @@
       <c r="N24" s="2">
         <v>0</v>
       </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="9"/>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -1974,11 +2271,12 @@
       <c r="N25" s="2">
         <v>0</v>
       </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="9"/>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -2021,11 +2319,12 @@
       <c r="N26" s="2">
         <v>0</v>
       </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="9"/>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -2068,11 +2367,12 @@
       <c r="N27" s="2">
         <v>0</v>
       </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+      <c r="P27" s="9"/>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -2115,11 +2415,12 @@
       <c r="N28" s="2">
         <v>0</v>
       </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="9"/>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -2162,11 +2463,12 @@
       <c r="N29" s="2">
         <v>0</v>
       </c>
-      <c r="O29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="9"/>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -2209,11 +2511,12 @@
       <c r="N30" s="2">
         <v>0</v>
       </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="9"/>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
@@ -2256,11 +2559,12 @@
       <c r="N31" s="2">
         <v>0</v>
       </c>
-      <c r="O31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="9"/>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -2303,11 +2607,12 @@
       <c r="N32" s="2">
         <v>0</v>
       </c>
-      <c r="O32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="9"/>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
@@ -2350,11 +2655,12 @@
       <c r="N33" s="2">
         <v>0</v>
       </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="9"/>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
@@ -2397,11 +2703,12 @@
       <c r="N34" s="2">
         <v>0</v>
       </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="9"/>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>29</v>
       </c>
@@ -2444,11 +2751,12 @@
       <c r="N35" s="2">
         <v>0</v>
       </c>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="9"/>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
@@ -2491,11 +2799,12 @@
       <c r="N36" s="2">
         <v>0</v>
       </c>
-      <c r="O36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="9">
+        <v>0</v>
+      </c>
+      <c r="P36" s="9"/>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
@@ -2538,11 +2847,12 @@
       <c r="N37" s="2">
         <v>0</v>
       </c>
-      <c r="O37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="9">
+        <v>0</v>
+      </c>
+      <c r="P37" s="9"/>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>29</v>
       </c>
@@ -2585,11 +2895,12 @@
       <c r="N38" s="2">
         <v>0</v>
       </c>
-      <c r="O38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="9">
+        <v>1</v>
+      </c>
+      <c r="P38" s="9"/>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>29</v>
       </c>
@@ -2632,11 +2943,12 @@
       <c r="N39" s="2">
         <v>0</v>
       </c>
-      <c r="O39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="9">
+        <v>1</v>
+      </c>
+      <c r="P39" s="9"/>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>29</v>
       </c>
@@ -2679,11 +2991,12 @@
       <c r="N40" s="2">
         <v>0</v>
       </c>
-      <c r="O40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="9">
+        <v>1</v>
+      </c>
+      <c r="P40" s="9"/>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>29</v>
       </c>
@@ -2726,11 +3039,12 @@
       <c r="N41" s="2">
         <v>0</v>
       </c>
-      <c r="O41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="9">
+        <v>1</v>
+      </c>
+      <c r="P41" s="9"/>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>29</v>
       </c>
@@ -2773,11 +3087,12 @@
       <c r="N42" s="2">
         <v>0</v>
       </c>
-      <c r="O42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="9">
+        <v>1</v>
+      </c>
+      <c r="P42" s="9"/>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>29</v>
       </c>
@@ -2820,11 +3135,12 @@
       <c r="N43" s="2">
         <v>0</v>
       </c>
-      <c r="O43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="9">
+        <v>1</v>
+      </c>
+      <c r="P43" s="9"/>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>29</v>
       </c>
@@ -2867,11 +3183,12 @@
       <c r="N44" s="2">
         <v>0</v>
       </c>
-      <c r="O44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="9">
+        <v>1</v>
+      </c>
+      <c r="P44" s="9"/>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>29</v>
       </c>
@@ -2914,11 +3231,12 @@
       <c r="N45" s="2">
         <v>0</v>
       </c>
-      <c r="O45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="9">
+        <v>1</v>
+      </c>
+      <c r="P45" s="9"/>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>29</v>
       </c>
@@ -2961,11 +3279,12 @@
       <c r="N46" s="2">
         <v>0</v>
       </c>
-      <c r="O46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="9">
+        <v>1</v>
+      </c>
+      <c r="P46" s="9"/>
+    </row>
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>29</v>
       </c>
@@ -3008,11 +3327,12 @@
       <c r="N47" s="2">
         <v>0</v>
       </c>
-      <c r="O47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="9">
+        <v>1</v>
+      </c>
+      <c r="P47" s="9"/>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>29</v>
       </c>
@@ -3055,11 +3375,12 @@
       <c r="N48" s="2">
         <v>0</v>
       </c>
-      <c r="O48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="9">
+        <v>1</v>
+      </c>
+      <c r="P48" s="9"/>
+    </row>
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>29</v>
       </c>
@@ -3102,11 +3423,12 @@
       <c r="N49" s="2">
         <v>0</v>
       </c>
-      <c r="O49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="9">
+        <v>1</v>
+      </c>
+      <c r="P49" s="9"/>
+    </row>
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>29</v>
       </c>
@@ -3149,11 +3471,12 @@
       <c r="N50" s="2">
         <v>0</v>
       </c>
-      <c r="O50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="9">
+        <v>1</v>
+      </c>
+      <c r="P50" s="9"/>
+    </row>
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -3196,11 +3519,12 @@
       <c r="N51" s="2">
         <v>0</v>
       </c>
-      <c r="O51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="9">
+        <v>1</v>
+      </c>
+      <c r="P51" s="9"/>
+    </row>
+    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -3243,11 +3567,12 @@
       <c r="N52" s="2">
         <v>0</v>
       </c>
-      <c r="O52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="9">
+        <v>1</v>
+      </c>
+      <c r="P52" s="9"/>
+    </row>
+    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>29</v>
       </c>
@@ -3290,11 +3615,12 @@
       <c r="N53" s="2">
         <v>0</v>
       </c>
-      <c r="O53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="9">
+        <v>1</v>
+      </c>
+      <c r="P53" s="9"/>
+    </row>
+    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>29</v>
       </c>
@@ -3337,11 +3663,12 @@
       <c r="N54" s="2">
         <v>0</v>
       </c>
-      <c r="O54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="9">
+        <v>1</v>
+      </c>
+      <c r="P54" s="9"/>
+    </row>
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>29</v>
       </c>
@@ -3384,11 +3711,12 @@
       <c r="N55" s="2">
         <v>0</v>
       </c>
-      <c r="O55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="9">
+        <v>1</v>
+      </c>
+      <c r="P55" s="9"/>
+    </row>
+    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>29</v>
       </c>
@@ -3431,11 +3759,12 @@
       <c r="N56" s="2">
         <v>0</v>
       </c>
-      <c r="O56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O56" s="9">
+        <v>1</v>
+      </c>
+      <c r="P56" s="9"/>
+    </row>
+    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>29</v>
       </c>
@@ -3478,11 +3807,12 @@
       <c r="N57" s="2">
         <v>0</v>
       </c>
-      <c r="O57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="9">
+        <v>1</v>
+      </c>
+      <c r="P57" s="9"/>
+    </row>
+    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>29</v>
       </c>
@@ -3525,11 +3855,12 @@
       <c r="N58" s="2">
         <v>0</v>
       </c>
-      <c r="O58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="9">
+        <v>1</v>
+      </c>
+      <c r="P58" s="9"/>
+    </row>
+    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>29</v>
       </c>
@@ -3572,11 +3903,12 @@
       <c r="N59" s="2">
         <v>0</v>
       </c>
-      <c r="O59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O59" s="9">
+        <v>1</v>
+      </c>
+      <c r="P59" s="9"/>
+    </row>
+    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>29</v>
       </c>
@@ -3619,11 +3951,12 @@
       <c r="N60" s="2">
         <v>0</v>
       </c>
-      <c r="O60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="9">
+        <v>0</v>
+      </c>
+      <c r="P60" s="9"/>
+    </row>
+    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>29</v>
       </c>
@@ -3666,11 +3999,12 @@
       <c r="N61" s="2">
         <v>0</v>
       </c>
-      <c r="O61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O61" s="9">
+        <v>0</v>
+      </c>
+      <c r="P61" s="9"/>
+    </row>
+    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>29</v>
       </c>
@@ -3713,11 +4047,12 @@
       <c r="N62" s="2">
         <v>0</v>
       </c>
-      <c r="O62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O62" s="9">
+        <v>0</v>
+      </c>
+      <c r="P62" s="9"/>
+    </row>
+    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>29</v>
       </c>
@@ -3760,11 +4095,12 @@
       <c r="N63" s="2">
         <v>0</v>
       </c>
-      <c r="O63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="9">
+        <v>0</v>
+      </c>
+      <c r="P63" s="9"/>
+    </row>
+    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>29</v>
       </c>
@@ -3807,11 +4143,12 @@
       <c r="N64" s="2">
         <v>0</v>
       </c>
-      <c r="O64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O64" s="9">
+        <v>0</v>
+      </c>
+      <c r="P64" s="9"/>
+    </row>
+    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>29</v>
       </c>
@@ -3854,11 +4191,12 @@
       <c r="N65" s="2">
         <v>0</v>
       </c>
-      <c r="O65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="9">
+        <v>0</v>
+      </c>
+      <c r="P65" s="9"/>
+    </row>
+    <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>29</v>
       </c>
@@ -3901,11 +4239,12 @@
       <c r="N66" s="2">
         <v>0</v>
       </c>
-      <c r="O66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="9">
+        <v>0</v>
+      </c>
+      <c r="P66" s="9"/>
+    </row>
+    <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>29</v>
       </c>
@@ -3948,11 +4287,12 @@
       <c r="N67" s="2">
         <v>0</v>
       </c>
-      <c r="O67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O67" s="9">
+        <v>0</v>
+      </c>
+      <c r="P67" s="9"/>
+    </row>
+    <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>29</v>
       </c>
@@ -3995,11 +4335,12 @@
       <c r="N68" s="2">
         <v>0</v>
       </c>
-      <c r="O68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O68" s="9">
+        <v>0</v>
+      </c>
+      <c r="P68" s="9"/>
+    </row>
+    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>29</v>
       </c>
@@ -4042,11 +4383,12 @@
       <c r="N69" s="2">
         <v>0</v>
       </c>
-      <c r="O69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O69" s="9">
+        <v>0</v>
+      </c>
+      <c r="P69" s="9"/>
+    </row>
+    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>29</v>
       </c>
@@ -4089,11 +4431,12 @@
       <c r="N70" s="2">
         <v>0</v>
       </c>
-      <c r="O70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O70" s="9">
+        <v>0</v>
+      </c>
+      <c r="P70" s="9"/>
+    </row>
+    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>29</v>
       </c>
@@ -4136,11 +4479,12 @@
       <c r="N71" s="2">
         <v>0</v>
       </c>
-      <c r="O71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="9">
+        <v>0</v>
+      </c>
+      <c r="P71" s="9"/>
+    </row>
+    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>29</v>
       </c>
@@ -4183,11 +4527,12 @@
       <c r="N72" s="2">
         <v>0</v>
       </c>
-      <c r="O72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="9">
+        <v>0</v>
+      </c>
+      <c r="P72" s="9"/>
+    </row>
+    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>29</v>
       </c>
@@ -4230,11 +4575,12 @@
       <c r="N73" s="2">
         <v>0</v>
       </c>
-      <c r="O73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="9">
+        <v>0</v>
+      </c>
+      <c r="P73" s="9"/>
+    </row>
+    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>29</v>
       </c>
@@ -4277,11 +4623,12 @@
       <c r="N74" s="2">
         <v>0</v>
       </c>
-      <c r="O74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O74" s="9">
+        <v>0</v>
+      </c>
+      <c r="P74" s="9"/>
+    </row>
+    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>29</v>
       </c>
@@ -4324,11 +4671,12 @@
       <c r="N75" s="2">
         <v>0</v>
       </c>
-      <c r="O75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O75" s="9">
+        <v>0</v>
+      </c>
+      <c r="P75" s="9"/>
+    </row>
+    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>29</v>
       </c>
@@ -4371,11 +4719,12 @@
       <c r="N76" s="2">
         <v>0</v>
       </c>
-      <c r="O76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O76" s="9">
+        <v>0</v>
+      </c>
+      <c r="P76" s="9"/>
+    </row>
+    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>29</v>
       </c>
@@ -4418,11 +4767,12 @@
       <c r="N77" s="2">
         <v>0</v>
       </c>
-      <c r="O77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O77" s="9">
+        <v>0</v>
+      </c>
+      <c r="P77" s="9"/>
+    </row>
+    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>29</v>
       </c>
@@ -4465,11 +4815,12 @@
       <c r="N78" s="2">
         <v>0</v>
       </c>
-      <c r="O78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O78" s="9">
+        <v>0</v>
+      </c>
+      <c r="P78" s="9"/>
+    </row>
+    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>29</v>
       </c>
@@ -4512,11 +4863,12 @@
       <c r="N79" s="2">
         <v>0</v>
       </c>
-      <c r="O79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O79" s="9">
+        <v>0</v>
+      </c>
+      <c r="P79" s="9"/>
+    </row>
+    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>29</v>
       </c>
@@ -4559,11 +4911,12 @@
       <c r="N80" s="2">
         <v>0</v>
       </c>
-      <c r="O80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O80" s="9">
+        <v>0</v>
+      </c>
+      <c r="P80" s="9"/>
+    </row>
+    <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
@@ -4606,11 +4959,12 @@
       <c r="N81" s="2">
         <v>0</v>
       </c>
-      <c r="O81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O81" s="9">
+        <v>0</v>
+      </c>
+      <c r="P81" s="9"/>
+    </row>
+    <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>29</v>
       </c>
@@ -4653,11 +5007,12 @@
       <c r="N82" s="2">
         <v>0</v>
       </c>
-      <c r="O82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O82" s="9">
+        <v>0</v>
+      </c>
+      <c r="P82" s="9"/>
+    </row>
+    <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>29</v>
       </c>
@@ -4700,11 +5055,12 @@
       <c r="N83" s="2">
         <v>0</v>
       </c>
-      <c r="O83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O83" s="9">
+        <v>0</v>
+      </c>
+      <c r="P83" s="9"/>
+    </row>
+    <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>29</v>
       </c>
@@ -4747,11 +5103,12 @@
       <c r="N84" s="2">
         <v>0</v>
       </c>
-      <c r="O84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O84" s="9">
+        <v>0</v>
+      </c>
+      <c r="P84" s="9"/>
+    </row>
+    <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>29</v>
       </c>
@@ -4794,11 +5151,12 @@
       <c r="N85" s="2">
         <v>0</v>
       </c>
-      <c r="O85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O85" s="9">
+        <v>0</v>
+      </c>
+      <c r="P85" s="9"/>
+    </row>
+    <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>29</v>
       </c>
@@ -4841,11 +5199,12 @@
       <c r="N86" s="2">
         <v>0</v>
       </c>
-      <c r="O86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O86" s="9">
+        <v>0</v>
+      </c>
+      <c r="P86" s="9"/>
+    </row>
+    <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>29</v>
       </c>
@@ -4888,11 +5247,12 @@
       <c r="N87" s="2">
         <v>0</v>
       </c>
-      <c r="O87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O87" s="9">
+        <v>0</v>
+      </c>
+      <c r="P87" s="9"/>
+    </row>
+    <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>29</v>
       </c>
@@ -4935,11 +5295,12 @@
       <c r="N88" s="2">
         <v>0</v>
       </c>
-      <c r="O88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O88" s="9">
+        <v>0</v>
+      </c>
+      <c r="P88" s="9"/>
+    </row>
+    <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>29</v>
       </c>
@@ -4982,11 +5343,12 @@
       <c r="N89" s="2">
         <v>0</v>
       </c>
-      <c r="O89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O89" s="9">
+        <v>0</v>
+      </c>
+      <c r="P89" s="9"/>
+    </row>
+    <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>29</v>
       </c>
@@ -5029,11 +5391,12 @@
       <c r="N90" s="2">
         <v>0</v>
       </c>
-      <c r="O90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="9">
+        <v>0</v>
+      </c>
+      <c r="P90" s="9"/>
+    </row>
+    <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>29</v>
       </c>
@@ -5076,11 +5439,12 @@
       <c r="N91" s="2">
         <v>0</v>
       </c>
-      <c r="O91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O91" s="9">
+        <v>0</v>
+      </c>
+      <c r="P91" s="9"/>
+    </row>
+    <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>29</v>
       </c>
@@ -5123,11 +5487,12 @@
       <c r="N92" s="2">
         <v>0</v>
       </c>
-      <c r="O92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O92" s="9">
+        <v>0</v>
+      </c>
+      <c r="P92" s="9"/>
+    </row>
+    <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>29</v>
       </c>
@@ -5170,11 +5535,12 @@
       <c r="N93" s="2">
         <v>0</v>
       </c>
-      <c r="O93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O93" s="9">
+        <v>0</v>
+      </c>
+      <c r="P93" s="9"/>
+    </row>
+    <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>29</v>
       </c>
@@ -5217,11 +5583,12 @@
       <c r="N94" s="2">
         <v>0</v>
       </c>
-      <c r="O94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O94" s="9">
+        <v>0</v>
+      </c>
+      <c r="P94" s="9"/>
+    </row>
+    <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>29</v>
       </c>
@@ -5264,11 +5631,12 @@
       <c r="N95" s="2">
         <v>0</v>
       </c>
-      <c r="O95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O95" s="9">
+        <v>0</v>
+      </c>
+      <c r="P95" s="9"/>
+    </row>
+    <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>29</v>
       </c>
@@ -5311,11 +5679,12 @@
       <c r="N96" s="2">
         <v>0</v>
       </c>
-      <c r="O96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O96" s="9">
+        <v>0</v>
+      </c>
+      <c r="P96" s="9"/>
+    </row>
+    <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>29</v>
       </c>
@@ -5358,11 +5727,12 @@
       <c r="N97" s="2">
         <v>0</v>
       </c>
-      <c r="O97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O97" s="9">
+        <v>0</v>
+      </c>
+      <c r="P97" s="9"/>
+    </row>
+    <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -5405,11 +5775,12 @@
       <c r="N98" s="2">
         <v>0</v>
       </c>
-      <c r="O98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O98" s="9">
+        <v>0</v>
+      </c>
+      <c r="P98" s="9"/>
+    </row>
+    <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>29</v>
       </c>
@@ -5452,11 +5823,12 @@
       <c r="N99" s="2">
         <v>0</v>
       </c>
-      <c r="O99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O99" s="9">
+        <v>0</v>
+      </c>
+      <c r="P99" s="9"/>
+    </row>
+    <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>29</v>
       </c>
@@ -5499,11 +5871,12 @@
       <c r="N100" s="2">
         <v>0</v>
       </c>
-      <c r="O100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O100" s="9">
+        <v>0</v>
+      </c>
+      <c r="P100" s="9"/>
+    </row>
+    <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>29</v>
       </c>
@@ -5546,11 +5919,12 @@
       <c r="N101" s="2">
         <v>0</v>
       </c>
-      <c r="O101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O101" s="9">
+        <v>0</v>
+      </c>
+      <c r="P101" s="9"/>
+    </row>
+    <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>29</v>
       </c>
@@ -5593,11 +5967,12 @@
       <c r="N102" s="2">
         <v>0</v>
       </c>
-      <c r="O102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O102" s="9">
+        <v>0</v>
+      </c>
+      <c r="P102" s="9"/>
+    </row>
+    <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>29</v>
       </c>
@@ -5640,11 +6015,12 @@
       <c r="N103" s="2">
         <v>0</v>
       </c>
-      <c r="O103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O103" s="9">
+        <v>0</v>
+      </c>
+      <c r="P103" s="9"/>
+    </row>
+    <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>29</v>
       </c>
@@ -5687,11 +6063,12 @@
       <c r="N104" s="2">
         <v>0</v>
       </c>
-      <c r="O104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O104" s="9">
+        <v>0</v>
+      </c>
+      <c r="P104" s="9"/>
+    </row>
+    <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>29</v>
       </c>
@@ -5734,11 +6111,12 @@
       <c r="N105" s="2">
         <v>0</v>
       </c>
-      <c r="O105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O105" s="9">
+        <v>0</v>
+      </c>
+      <c r="P105" s="9"/>
+    </row>
+    <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>29</v>
       </c>
@@ -5781,11 +6159,12 @@
       <c r="N106" s="2">
         <v>0</v>
       </c>
-      <c r="O106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O106" s="9">
+        <v>0</v>
+      </c>
+      <c r="P106" s="9"/>
+    </row>
+    <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>29</v>
       </c>
@@ -5828,11 +6207,12 @@
       <c r="N107" s="2">
         <v>0</v>
       </c>
-      <c r="O107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O107" s="9">
+        <v>0</v>
+      </c>
+      <c r="P107" s="9"/>
+    </row>
+    <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>29</v>
       </c>
@@ -5875,11 +6255,12 @@
       <c r="N108" s="2">
         <v>0</v>
       </c>
-      <c r="O108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O108" s="9">
+        <v>0</v>
+      </c>
+      <c r="P108" s="9"/>
+    </row>
+    <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>29</v>
       </c>
@@ -5922,11 +6303,12 @@
       <c r="N109" s="2">
         <v>0</v>
       </c>
-      <c r="O109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O109" s="9">
+        <v>0</v>
+      </c>
+      <c r="P109" s="9"/>
+    </row>
+    <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>29</v>
       </c>
@@ -5969,11 +6351,12 @@
       <c r="N110" s="2">
         <v>0</v>
       </c>
-      <c r="O110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O110" s="9">
+        <v>0</v>
+      </c>
+      <c r="P110" s="9"/>
+    </row>
+    <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>29</v>
       </c>
@@ -6016,11 +6399,12 @@
       <c r="N111" s="2">
         <v>0</v>
       </c>
-      <c r="O111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O111" s="9">
+        <v>0</v>
+      </c>
+      <c r="P111" s="9"/>
+    </row>
+    <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>29</v>
       </c>
@@ -6063,11 +6447,12 @@
       <c r="N112" s="2">
         <v>0</v>
       </c>
-      <c r="O112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O112" s="9">
+        <v>0</v>
+      </c>
+      <c r="P112" s="9"/>
+    </row>
+    <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>29</v>
       </c>
@@ -6110,11 +6495,12 @@
       <c r="N113" s="2">
         <v>0</v>
       </c>
-      <c r="O113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O113" s="9">
+        <v>0</v>
+      </c>
+      <c r="P113" s="9"/>
+    </row>
+    <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>29</v>
       </c>
@@ -6157,11 +6543,12 @@
       <c r="N114" s="2">
         <v>0</v>
       </c>
-      <c r="O114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O114" s="9">
+        <v>0</v>
+      </c>
+      <c r="P114" s="9"/>
+    </row>
+    <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>29</v>
       </c>
@@ -6204,11 +6591,12 @@
       <c r="N115" s="2">
         <v>0</v>
       </c>
-      <c r="O115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O115" s="9">
+        <v>0</v>
+      </c>
+      <c r="P115" s="9"/>
+    </row>
+    <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>29</v>
       </c>
@@ -6251,11 +6639,12 @@
       <c r="N116" s="2">
         <v>0</v>
       </c>
-      <c r="O116" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O116" s="9">
+        <v>0</v>
+      </c>
+      <c r="P116" s="9"/>
+    </row>
+    <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>29</v>
       </c>
@@ -6298,11 +6687,12 @@
       <c r="N117" s="2">
         <v>0</v>
       </c>
-      <c r="O117" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O117" s="9">
+        <v>0</v>
+      </c>
+      <c r="P117" s="9"/>
+    </row>
+    <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>29</v>
       </c>
@@ -6345,11 +6735,12 @@
       <c r="N118" s="2">
         <v>0</v>
       </c>
-      <c r="O118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O118" s="9">
+        <v>0</v>
+      </c>
+      <c r="P118" s="9"/>
+    </row>
+    <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>29</v>
       </c>
@@ -6392,11 +6783,12 @@
       <c r="N119" s="2">
         <v>0</v>
       </c>
-      <c r="O119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O119" s="9">
+        <v>0</v>
+      </c>
+      <c r="P119" s="9"/>
+    </row>
+    <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>29</v>
       </c>
@@ -6439,11 +6831,12 @@
       <c r="N120" s="2">
         <v>0</v>
       </c>
-      <c r="O120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O120" s="9">
+        <v>0</v>
+      </c>
+      <c r="P120" s="9"/>
+    </row>
+    <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>29</v>
       </c>
@@ -6486,11 +6879,12 @@
       <c r="N121" s="2">
         <v>0</v>
       </c>
-      <c r="O121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O121" s="9">
+        <v>0</v>
+      </c>
+      <c r="P121" s="9"/>
+    </row>
+    <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>29</v>
       </c>
@@ -6533,11 +6927,12 @@
       <c r="N122" s="2">
         <v>0</v>
       </c>
-      <c r="O122" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O122" s="9">
+        <v>0</v>
+      </c>
+      <c r="P122" s="9"/>
+    </row>
+    <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>29</v>
       </c>
@@ -6580,11 +6975,12 @@
       <c r="N123" s="2">
         <v>0</v>
       </c>
-      <c r="O123" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O123" s="9">
+        <v>0</v>
+      </c>
+      <c r="P123" s="9"/>
+    </row>
+    <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>29</v>
       </c>
@@ -6627,11 +7023,12 @@
       <c r="N124" s="2">
         <v>0</v>
       </c>
-      <c r="O124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O124" s="9">
+        <v>1</v>
+      </c>
+      <c r="P124" s="9"/>
+    </row>
+    <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>29</v>
       </c>
@@ -6674,11 +7071,12 @@
       <c r="N125" s="2">
         <v>0</v>
       </c>
-      <c r="O125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O125" s="9">
+        <v>1</v>
+      </c>
+      <c r="P125" s="9"/>
+    </row>
+    <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>29</v>
       </c>
@@ -6721,11 +7119,12 @@
       <c r="N126" s="2">
         <v>0</v>
       </c>
-      <c r="O126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O126" s="9">
+        <v>1</v>
+      </c>
+      <c r="P126" s="9"/>
+    </row>
+    <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>29</v>
       </c>
@@ -6768,11 +7167,12 @@
       <c r="N127" s="2">
         <v>0</v>
       </c>
-      <c r="O127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O127" s="9">
+        <v>1</v>
+      </c>
+      <c r="P127" s="9"/>
+    </row>
+    <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>29</v>
       </c>
@@ -6815,11 +7215,12 @@
       <c r="N128" s="2">
         <v>0</v>
       </c>
-      <c r="O128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O128" s="9">
+        <v>1</v>
+      </c>
+      <c r="P128" s="9"/>
+    </row>
+    <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>29</v>
       </c>
@@ -6862,11 +7263,12 @@
       <c r="N129" s="2">
         <v>0</v>
       </c>
-      <c r="O129" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O129" s="9">
+        <v>1</v>
+      </c>
+      <c r="P129" s="9"/>
+    </row>
+    <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>29</v>
       </c>
@@ -6909,11 +7311,12 @@
       <c r="N130" s="2">
         <v>0</v>
       </c>
-      <c r="O130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O130" s="9">
+        <v>1</v>
+      </c>
+      <c r="P130" s="9"/>
+    </row>
+    <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>29</v>
       </c>
@@ -6956,11 +7359,12 @@
       <c r="N131" s="2">
         <v>0</v>
       </c>
-      <c r="O131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O131" s="9">
+        <v>1</v>
+      </c>
+      <c r="P131" s="9"/>
+    </row>
+    <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>29</v>
       </c>
@@ -7003,11 +7407,12 @@
       <c r="N132" s="2">
         <v>0</v>
       </c>
-      <c r="O132" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O132" s="9">
+        <v>1</v>
+      </c>
+      <c r="P132" s="9"/>
+    </row>
+    <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>29</v>
       </c>
@@ -7050,11 +7455,12 @@
       <c r="N133" s="2">
         <v>0</v>
       </c>
-      <c r="O133" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O133" s="9">
+        <v>1</v>
+      </c>
+      <c r="P133" s="9"/>
+    </row>
+    <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>29</v>
       </c>
@@ -7097,11 +7503,12 @@
       <c r="N134" s="2">
         <v>0</v>
       </c>
-      <c r="O134" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O134" s="9">
+        <v>1</v>
+      </c>
+      <c r="P134" s="9"/>
+    </row>
+    <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>29</v>
       </c>
@@ -7144,11 +7551,12 @@
       <c r="N135" s="2">
         <v>0</v>
       </c>
-      <c r="O135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O135" s="9">
+        <v>1</v>
+      </c>
+      <c r="P135" s="9"/>
+    </row>
+    <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>29</v>
       </c>
@@ -7191,11 +7599,12 @@
       <c r="N136" s="2">
         <v>0</v>
       </c>
-      <c r="O136" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O136" s="9">
+        <v>1</v>
+      </c>
+      <c r="P136" s="9"/>
+    </row>
+    <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>29</v>
       </c>
@@ -7238,11 +7647,12 @@
       <c r="N137" s="2">
         <v>0</v>
       </c>
-      <c r="O137" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O137" s="9">
+        <v>1</v>
+      </c>
+      <c r="P137" s="9"/>
+    </row>
+    <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>29</v>
       </c>
@@ -7285,11 +7695,12 @@
       <c r="N138" s="2">
         <v>0</v>
       </c>
-      <c r="O138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O138" s="9">
+        <v>1</v>
+      </c>
+      <c r="P138" s="9"/>
+    </row>
+    <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>29</v>
       </c>
@@ -7332,11 +7743,12 @@
       <c r="N139" s="2">
         <v>0</v>
       </c>
-      <c r="O139" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O139" s="9">
+        <v>1</v>
+      </c>
+      <c r="P139" s="9"/>
+    </row>
+    <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>29</v>
       </c>
@@ -7379,11 +7791,12 @@
       <c r="N140" s="2">
         <v>0</v>
       </c>
-      <c r="O140" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O140" s="9">
+        <v>1</v>
+      </c>
+      <c r="P140" s="9"/>
+    </row>
+    <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>29</v>
       </c>
@@ -7426,11 +7839,12 @@
       <c r="N141" s="2">
         <v>0</v>
       </c>
-      <c r="O141" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O141" s="9">
+        <v>1</v>
+      </c>
+      <c r="P141" s="9"/>
+    </row>
+    <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>29</v>
       </c>
@@ -7473,11 +7887,12 @@
       <c r="N142" s="2">
         <v>0</v>
       </c>
-      <c r="O142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O142" s="9">
+        <v>1</v>
+      </c>
+      <c r="P142" s="9"/>
+    </row>
+    <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>29</v>
       </c>
@@ -7520,11 +7935,12 @@
       <c r="N143" s="2">
         <v>0</v>
       </c>
-      <c r="O143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O143" s="9">
+        <v>1</v>
+      </c>
+      <c r="P143" s="9"/>
+    </row>
+    <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>29</v>
       </c>
@@ -7567,11 +7983,12 @@
       <c r="N144" s="2">
         <v>0</v>
       </c>
-      <c r="O144" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O144" s="9">
+        <v>1</v>
+      </c>
+      <c r="P144" s="9"/>
+    </row>
+    <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>29</v>
       </c>
@@ -7614,11 +8031,12 @@
       <c r="N145" s="2">
         <v>0</v>
       </c>
-      <c r="O145" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O145" s="9">
+        <v>1</v>
+      </c>
+      <c r="P145" s="9"/>
+    </row>
+    <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>29</v>
       </c>
@@ -7661,11 +8079,12 @@
       <c r="N146" s="2">
         <v>0</v>
       </c>
-      <c r="O146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O146" s="9">
+        <v>0</v>
+      </c>
+      <c r="P146" s="9"/>
+    </row>
+    <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>29</v>
       </c>
@@ -7708,11 +8127,12 @@
       <c r="N147" s="2">
         <v>0</v>
       </c>
-      <c r="O147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O147" s="9">
+        <v>0</v>
+      </c>
+      <c r="P147" s="9"/>
+    </row>
+    <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>29</v>
       </c>
@@ -7755,11 +8175,12 @@
       <c r="N148" s="2">
         <v>0</v>
       </c>
-      <c r="O148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O148" s="9">
+        <v>0</v>
+      </c>
+      <c r="P148" s="9"/>
+    </row>
+    <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>29</v>
       </c>
@@ -7802,11 +8223,12 @@
       <c r="N149" s="2">
         <v>0</v>
       </c>
-      <c r="O149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O149" s="9">
+        <v>0</v>
+      </c>
+      <c r="P149" s="9"/>
+    </row>
+    <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>29</v>
       </c>
@@ -7849,11 +8271,12 @@
       <c r="N150" s="2">
         <v>0</v>
       </c>
-      <c r="O150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O150" s="9">
+        <v>0</v>
+      </c>
+      <c r="P150" s="9"/>
+    </row>
+    <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>29</v>
       </c>
@@ -7896,11 +8319,12 @@
       <c r="N151" s="2">
         <v>0</v>
       </c>
-      <c r="O151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O151" s="9">
+        <v>0</v>
+      </c>
+      <c r="P151" s="9"/>
+    </row>
+    <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>29</v>
       </c>
@@ -7943,11 +8367,12 @@
       <c r="N152" s="2">
         <v>0</v>
       </c>
-      <c r="O152" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O152" s="9">
+        <v>0</v>
+      </c>
+      <c r="P152" s="9"/>
+    </row>
+    <row r="153" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>29</v>
       </c>
@@ -7990,11 +8415,12 @@
       <c r="N153" s="2">
         <v>0</v>
       </c>
-      <c r="O153" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O153" s="9">
+        <v>0</v>
+      </c>
+      <c r="P153" s="9"/>
+    </row>
+    <row r="154" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>29</v>
       </c>
@@ -8037,9 +8463,10 @@
       <c r="N154" s="2">
         <v>0</v>
       </c>
-      <c r="O154" s="1">
-        <v>0</v>
-      </c>
+      <c r="O154" s="9">
+        <v>0</v>
+      </c>
+      <c r="P154" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8049,11 +8476,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O154"/>
+  <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O79" sqref="A3:O79"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:P79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8065,9 +8492,10 @@
     <col min="12" max="12" width="20.42578125" customWidth="1"/>
     <col min="13" max="14" width="14" customWidth="1"/>
     <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -8113,8 +8541,11 @@
       <c r="O1" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>0</v>
       </c>
@@ -8160,8 +8591,11 @@
       <c r="O2" s="7">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -8207,8 +8641,11 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
@@ -8254,8 +8691,11 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
@@ -8301,8 +8741,11 @@
       <c r="O5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -8348,8 +8791,11 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>59</v>
       </c>
@@ -8395,8 +8841,11 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
@@ -8442,8 +8891,11 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
@@ -8489,8 +8941,11 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
@@ -8536,8 +8991,11 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
@@ -8583,8 +9041,11 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
@@ -8630,8 +9091,11 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
@@ -8677,8 +9141,11 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -8724,8 +9191,11 @@
       <c r="O14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -8771,8 +9241,11 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -8818,8 +9291,11 @@
       <c r="O16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
@@ -8865,8 +9341,11 @@
       <c r="O17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>59</v>
       </c>
@@ -8912,8 +9391,11 @@
       <c r="O18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
@@ -8959,8 +9441,11 @@
       <c r="O19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -9006,8 +9491,11 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
@@ -9053,8 +9541,11 @@
       <c r="O21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
@@ -9100,8 +9591,11 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -9147,8 +9641,11 @@
       <c r="O23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
@@ -9194,8 +9691,11 @@
       <c r="O24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -9241,8 +9741,11 @@
       <c r="O25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
@@ -9288,8 +9791,11 @@
       <c r="O26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -9335,8 +9841,11 @@
       <c r="O27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
@@ -9382,8 +9891,11 @@
       <c r="O28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -9429,8 +9941,11 @@
       <c r="O29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>59</v>
       </c>
@@ -9476,8 +9991,11 @@
       <c r="O30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>59</v>
       </c>
@@ -9523,8 +10041,11 @@
       <c r="O31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>59</v>
       </c>
@@ -9570,8 +10091,11 @@
       <c r="O32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>59</v>
       </c>
@@ -9617,8 +10141,11 @@
       <c r="O33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>59</v>
       </c>
@@ -9664,8 +10191,11 @@
       <c r="O34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>59</v>
       </c>
@@ -9711,8 +10241,11 @@
       <c r="O35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>59</v>
       </c>
@@ -9758,8 +10291,11 @@
       <c r="O36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>59</v>
       </c>
@@ -9805,8 +10341,11 @@
       <c r="O37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
@@ -9852,8 +10391,11 @@
       <c r="O38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>59</v>
       </c>
@@ -9899,8 +10441,11 @@
       <c r="O39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>59</v>
       </c>
@@ -9946,8 +10491,11 @@
       <c r="O40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>59</v>
       </c>
@@ -9993,8 +10541,11 @@
       <c r="O41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -10040,8 +10591,11 @@
       <c r="O42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>59</v>
       </c>
@@ -10087,8 +10641,11 @@
       <c r="O43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>59</v>
       </c>
@@ -10134,8 +10691,11 @@
       <c r="O44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>59</v>
       </c>
@@ -10181,8 +10741,11 @@
       <c r="O45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>59</v>
       </c>
@@ -10228,8 +10791,11 @@
       <c r="O46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>59</v>
       </c>
@@ -10275,8 +10841,11 @@
       <c r="O47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>59</v>
       </c>
@@ -10322,8 +10891,11 @@
       <c r="O48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>59</v>
       </c>
@@ -10369,8 +10941,11 @@
       <c r="O49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>59</v>
       </c>
@@ -10416,8 +10991,11 @@
       <c r="O50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>59</v>
       </c>
@@ -10463,8 +11041,11 @@
       <c r="O51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>59</v>
       </c>
@@ -10510,8 +11091,11 @@
       <c r="O52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>59</v>
       </c>
@@ -10557,8 +11141,11 @@
       <c r="O53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>59</v>
       </c>
@@ -10604,8 +11191,11 @@
       <c r="O54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>59</v>
       </c>
@@ -10651,8 +11241,11 @@
       <c r="O55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>59</v>
       </c>
@@ -10698,8 +11291,11 @@
       <c r="O56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>59</v>
       </c>
@@ -10745,8 +11341,11 @@
       <c r="O57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>59</v>
       </c>
@@ -10792,8 +11391,11 @@
       <c r="O58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
@@ -10839,8 +11441,11 @@
       <c r="O59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>59</v>
       </c>
@@ -10886,8 +11491,11 @@
       <c r="O60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -10933,8 +11541,11 @@
       <c r="O61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>59</v>
       </c>
@@ -10980,8 +11591,11 @@
       <c r="O62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>59</v>
       </c>
@@ -11027,8 +11641,11 @@
       <c r="O63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>59</v>
       </c>
@@ -11074,8 +11691,11 @@
       <c r="O64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -11121,8 +11741,11 @@
       <c r="O65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>59</v>
       </c>
@@ -11168,8 +11791,11 @@
       <c r="O66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>59</v>
       </c>
@@ -11215,8 +11841,11 @@
       <c r="O67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>59</v>
       </c>
@@ -11262,8 +11891,11 @@
       <c r="O68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>59</v>
       </c>
@@ -11309,8 +11941,11 @@
       <c r="O69" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>59</v>
       </c>
@@ -11356,8 +11991,11 @@
       <c r="O70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>59</v>
       </c>
@@ -11403,8 +12041,11 @@
       <c r="O71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>59</v>
       </c>
@@ -11450,8 +12091,11 @@
       <c r="O72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>59</v>
       </c>
@@ -11497,8 +12141,11 @@
       <c r="O73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>59</v>
       </c>
@@ -11544,8 +12191,11 @@
       <c r="O74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>59</v>
       </c>
@@ -11591,8 +12241,11 @@
       <c r="O75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>59</v>
       </c>
@@ -11638,8 +12291,11 @@
       <c r="O76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>59</v>
       </c>
@@ -11685,8 +12341,11 @@
       <c r="O77" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P77" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>59</v>
       </c>
@@ -11732,8 +12391,11 @@
       <c r="O78" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P78" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>59</v>
       </c>
@@ -11779,8 +12441,11 @@
       <c r="O79" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P79" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="2"/>
       <c r="C80" s="3"/>
@@ -20150,10 +20815,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O77"/>
+  <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:O77"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20162,7 +20827,7 @@
     <col min="13" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>59</v>
       </c>
@@ -20208,8 +20873,11 @@
       <c r="O1" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>59</v>
       </c>
@@ -20255,8 +20923,11 @@
       <c r="O2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>59</v>
       </c>
@@ -20302,8 +20973,11 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>59</v>
       </c>
@@ -20349,8 +21023,11 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>59</v>
       </c>
@@ -20396,8 +21073,11 @@
       <c r="O5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>59</v>
       </c>
@@ -20443,8 +21123,11 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>59</v>
       </c>
@@ -20490,8 +21173,11 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>59</v>
       </c>
@@ -20537,8 +21223,11 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>59</v>
       </c>
@@ -20584,8 +21273,11 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>59</v>
       </c>
@@ -20631,8 +21323,11 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>59</v>
       </c>
@@ -20678,8 +21373,11 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>59</v>
       </c>
@@ -20725,8 +21423,11 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>59</v>
       </c>
@@ -20772,8 +21473,11 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>59</v>
       </c>
@@ -20819,8 +21523,11 @@
       <c r="O14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>59</v>
       </c>
@@ -20866,8 +21573,11 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>59</v>
       </c>
@@ -20913,8 +21623,11 @@
       <c r="O16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>59</v>
       </c>
@@ -20960,8 +21673,11 @@
       <c r="O17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>59</v>
       </c>
@@ -21007,8 +21723,11 @@
       <c r="O18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
@@ -21054,8 +21773,11 @@
       <c r="O19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
@@ -21101,8 +21823,11 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>59</v>
       </c>
@@ -21148,8 +21873,11 @@
       <c r="O21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>59</v>
       </c>
@@ -21195,8 +21923,11 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>59</v>
       </c>
@@ -21242,8 +21973,11 @@
       <c r="O23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>59</v>
       </c>
@@ -21289,8 +22023,11 @@
       <c r="O24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>59</v>
       </c>
@@ -21336,8 +22073,11 @@
       <c r="O25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>59</v>
       </c>
@@ -21383,8 +22123,11 @@
       <c r="O26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>59</v>
       </c>
@@ -21430,8 +22173,11 @@
       <c r="O27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
@@ -21477,8 +22223,11 @@
       <c r="O28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -21524,8 +22273,11 @@
       <c r="O29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>59</v>
       </c>
@@ -21571,8 +22323,11 @@
       <c r="O30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>59</v>
       </c>
@@ -21618,8 +22373,11 @@
       <c r="O31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>59</v>
       </c>
@@ -21665,8 +22423,11 @@
       <c r="O32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>59</v>
       </c>
@@ -21712,8 +22473,11 @@
       <c r="O33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>59</v>
       </c>
@@ -21759,8 +22523,11 @@
       <c r="O34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>59</v>
       </c>
@@ -21806,8 +22573,11 @@
       <c r="O35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>59</v>
       </c>
@@ -21853,8 +22623,11 @@
       <c r="O36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>59</v>
       </c>
@@ -21900,8 +22673,11 @@
       <c r="O37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>59</v>
       </c>
@@ -21947,8 +22723,11 @@
       <c r="O38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>59</v>
       </c>
@@ -21994,8 +22773,11 @@
       <c r="O39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>59</v>
       </c>
@@ -22041,8 +22823,11 @@
       <c r="O40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>59</v>
       </c>
@@ -22088,8 +22873,11 @@
       <c r="O41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>59</v>
       </c>
@@ -22135,8 +22923,11 @@
       <c r="O42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>59</v>
       </c>
@@ -22182,8 +22973,11 @@
       <c r="O43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>59</v>
       </c>
@@ -22229,8 +23023,11 @@
       <c r="O44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>59</v>
       </c>
@@ -22276,8 +23073,11 @@
       <c r="O45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>59</v>
       </c>
@@ -22323,8 +23123,11 @@
       <c r="O46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>59</v>
       </c>
@@ -22370,8 +23173,11 @@
       <c r="O47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>59</v>
       </c>
@@ -22417,8 +23223,11 @@
       <c r="O48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P48" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>59</v>
       </c>
@@ -22464,8 +23273,11 @@
       <c r="O49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>59</v>
       </c>
@@ -22511,8 +23323,11 @@
       <c r="O50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P50" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>59</v>
       </c>
@@ -22558,8 +23373,11 @@
       <c r="O51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P51" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>59</v>
       </c>
@@ -22605,8 +23423,11 @@
       <c r="O52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P52" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>59</v>
       </c>
@@ -22652,8 +23473,11 @@
       <c r="O53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P53" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>59</v>
       </c>
@@ -22699,8 +23523,11 @@
       <c r="O54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P54" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>59</v>
       </c>
@@ -22746,8 +23573,11 @@
       <c r="O55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>59</v>
       </c>
@@ -22793,8 +23623,11 @@
       <c r="O56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>59</v>
       </c>
@@ -22840,8 +23673,11 @@
       <c r="O57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P57" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>59</v>
       </c>
@@ -22887,8 +23723,11 @@
       <c r="O58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P58" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>59</v>
       </c>
@@ -22934,8 +23773,11 @@
       <c r="O59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>59</v>
       </c>
@@ -22981,8 +23823,11 @@
       <c r="O60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P60" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -23028,8 +23873,11 @@
       <c r="O61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>59</v>
       </c>
@@ -23075,8 +23923,11 @@
       <c r="O62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P62" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>59</v>
       </c>
@@ -23122,8 +23973,11 @@
       <c r="O63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P63" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>59</v>
       </c>
@@ -23169,8 +24023,11 @@
       <c r="O64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P64" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>59</v>
       </c>
@@ -23216,8 +24073,11 @@
       <c r="O65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P65" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>59</v>
       </c>
@@ -23263,8 +24123,11 @@
       <c r="O66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P66" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>59</v>
       </c>
@@ -23310,8 +24173,11 @@
       <c r="O67" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P67" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>59</v>
       </c>
@@ -23357,8 +24223,11 @@
       <c r="O68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P68" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>59</v>
       </c>
@@ -23404,8 +24273,11 @@
       <c r="O69" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>59</v>
       </c>
@@ -23451,8 +24323,11 @@
       <c r="O70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P70" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>59</v>
       </c>
@@ -23498,8 +24373,11 @@
       <c r="O71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P71" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>59</v>
       </c>
@@ -23545,8 +24423,11 @@
       <c r="O72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P72" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>59</v>
       </c>
@@ -23592,8 +24473,11 @@
       <c r="O73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P73" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>59</v>
       </c>
@@ -23639,8 +24523,11 @@
       <c r="O74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P74" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>59</v>
       </c>
@@ -23686,8 +24573,11 @@
       <c r="O75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P75" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>59</v>
       </c>
@@ -23733,8 +24623,11 @@
       <c r="O76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P76" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>59</v>
       </c>
@@ -23779,6 +24672,9 @@
       </c>
       <c r="O77" s="2">
         <v>0</v>
+      </c>
+      <c r="P77" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
+++ b/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="3"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -354,235 +354,235 @@
     <t>Coordinates</t>
   </si>
   <si>
-    <t>(217.163268,120.999802);(217.489804,120.999639);(217.816340,120.999825);(218.142876,121.000138);(218.469412,121.000353);(218.795948,121.000245);(219.122483,120.999665);(219.449018,120.998979);(219.775553,120.999149);(220.102082,121.001049);(220.428607,121.003620);(220.755130,121.003358);(221.081566,120.996619);(221.407945,120.986844);(221.734313,120.986911);(222.059724,121.009338);(222.384220,121.045126);(222.708896,121.053197);(223.015293,120.969982);(223.270264,120.777195);(223.479417,120.527395);(223.683912,120.273266);(223.926550,120.062199);(224.223953,119.953943);(224.547575,119.947778);(224.872058,119.982967);(225.197010,120.012211);(225.523227,120.018472);(225.849508,120.007638);(226.175627,119.991245);(226.501932,119.981470);(226.828104,119.989404);(227.153004,120.019611);(227.477617,120.053072);(227.800713,120.041076);(228.095504,119.925496);(228.335895,119.710877);(228.540845,119.457030);(228.751842,119.208833);(229.008274,119.017491);(229.314903,118.933133);(229.639076,118.942329);(229.961419,118.992986);(230.283297,119.047287);(230.607595,119.070342);(230.922266,119.013056);(231.193664,118.846480);(231.414349,118.607901);(231.618001,118.352770);(231.844958,118.121105);</t>
+    <t>217.163268_120.999802;217.489804_120.999639;217.816340_120.999825;218.142876_121.000138;218.469412_121.000353;218.795948_121.000245;219.122483_120.999665;219.449018_120.998979;219.775553_120.999149;220.102082_121.001049;220.428607_121.003620;220.755130_121.003358;221.081566_120.996619;221.407945_120.986844;221.734313_120.986911;222.059724_121.009338;222.384220_121.045126;222.708896_121.053197;223.015293_120.969982;223.270264_120.777195;223.479417_120.527395;223.683912_120.273266;223.926550_120.062199;224.223953_119.953943;224.547575_119.947778;224.872058_119.982967;225.197010_120.012211;225.523227_120.018472;225.849508_120.007638;226.175627_119.991245;226.501932_119.981470;226.828104_119.989404;227.153004_120.019611;227.477617_120.053072;227.800713_120.041076;228.095504_119.925496;228.335895_119.710877;228.540845_119.457030;228.751842_119.208833;229.008274_119.017491;229.314903_118.933133;229.639076_118.942329;229.961419_118.992986;230.283297_119.047287;230.607595_119.070342;230.922266_119.013056;231.193664_118.846480;231.414349_118.607901;231.618001_118.352770;231.844958_118.121105;</t>
   </si>
   <si>
-    <t>(232.443039,117.929303);(232.767068,117.960037);(233.088704,118.016048);(233.411424,118.063319);(233.735008,118.061550);(234.035173,117.958989);(234.282139,117.753626);(234.488760,117.501359);(234.696423,117.250059);(234.946296,117.049122);(235.248923,116.954891);(235.573361,116.956295);(235.898284,116.987775);(236.223969,117.003153);(236.550363,116.997350);(236.876612,116.997725);(237.201667,117.023956);(237.526368,117.055648);(237.847216,117.032134);(238.129907,116.893381);(238.352910,116.659259);(238.548588,116.397998);(238.766522,116.158182);(239.044031,116.012511);(239.363225,115.991522);(239.688265,116.017890);(240.001476,115.972245);(240.262786,115.796949);(240.466822,115.543716);(240.662061,115.282489);(240.901963,115.071978);(241.202336,114.985709);(241.526778,115.002849);(241.850203,115.009469);(242.142151,114.900605);(242.371200,114.675222);(242.563935,114.411883);(242.774818,114.165496);(243.047133,114.011783);(243.365172,113.986781);(243.690164,114.014001);(244.004148,113.971724);(244.267724,113.799991);(244.473972,113.548688);(244.669572,113.287635);(244.906944,113.072885);(245.204879,112.976070);(245.529250,112.984428);(245.854140,112.999625);(246.163312,112.927922);</t>
+    <t>232.443039_117.929303;232.767068_117.960037;233.088704_118.016048;233.411424_118.063319;233.735008_118.061550;234.035173_117.958989;234.282139_117.753626;234.488760_117.501359;234.696423_117.250059;234.946296_117.049122;235.248923_116.954891;235.573361_116.956295;235.898284_116.987775;236.223969_117.003153;236.550363_116.997350;236.876612_116.997725;237.201667_117.023956;237.526368_117.055648;237.847216_117.032134;238.129907_116.893381;238.352910_116.659259;238.548588_116.397998;238.766522_116.158182;239.044031_116.012511;239.363225_115.991522;239.688265_116.017890;240.001476_115.972245;240.262786_115.796949;240.466822_115.543716;240.662061_115.282489;240.901963_115.071978;241.202336_114.985709;241.526778_115.002849;241.850203_115.009469;242.142151_114.900605;242.371200_114.675222;242.563935_114.411883;242.774818_114.165496;243.047133_114.011783;243.365172_113.986781;243.690164_114.014001;244.004148_113.971724;244.267724_113.799991;244.473972_113.548688;244.669572_113.287635;244.906944_113.072885;245.204879_112.976070;245.529250_112.984428;245.854140_112.999625;246.163312_112.927922;</t>
   </si>
   <si>
-    <t>(246.640537,112.500456);(246.831860,112.235969);(247.025213,111.973036);(247.235802,111.723974);(247.464102,111.490808);(247.703088,111.268377);(247.944988,111.049045);(248.183526,110.826103);(248.416887,110.597731);(248.646411,110.365485);(248.873714,110.131054);(249.100380,109.896005);(249.327842,109.661728);(249.557365,109.429478);(249.790135,109.200493);(250.027112,108.975875);(250.267106,108.754457);(250.505532,108.531383);(250.736033,108.300280);(250.951276,108.055174);(251.144752,107.792698);(251.315475,107.514721);(251.467393,107.225876);(251.605508,106.930076);(251.734994,106.630335);(251.860998,106.329092);(251.988597,106.028531);(252.121537,105.730309);(252.260582,105.434879);(252.404696,105.141879);(252.552714,104.850827);(252.703466,104.561175);(252.855781,104.272341);(253.008501,103.983719);(253.160639,103.694791);(253.311505,103.405198);(253.460548,103.114663);(253.607213,102.822924);(253.750941,102.529728);(253.891160,102.234840);(254.027285,101.938044);(254.158720,101.639145);(254.284854,101.337975);(254.405067,101.034397);(254.518729,100.728310);(254.625203,100.419655);(254.723856,100.108417);(254.814062,99.794632);(254.895211,99.478389);(254.966724,99.159834);</t>
+    <t>246.640537_112.500456;246.831860_112.235969;247.025213_111.973036;247.235802_111.723974;247.464102_111.490808;247.703088_111.268377;247.944988_111.049045;248.183526_110.826103;248.416887_110.597731;248.646411_110.365485;248.873714_110.131054;249.100380_109.896005;249.327842_109.661728;249.557365_109.429478;249.790135_109.200493;250.027112_108.975875;250.267106_108.754457;250.505532_108.531383;250.736033_108.300280;250.951276_108.055174;251.144752_107.792698;251.315475_107.514721;251.467393_107.225876;251.605508_106.930076;251.734994_106.630335;251.860998_106.329092;251.988597_106.028531;252.121537_105.730309;252.260582_105.434879;252.404696_105.141879;252.552714_104.850827;252.703466_104.561175;252.855781_104.272341;253.008501_103.983719;253.160639_103.694791;253.311505_103.405198;253.460548_103.114663;253.607213_102.822924;253.750941_102.529728;253.891160_102.234840;254.027285_101.938044;254.158720_101.639145;254.284854_101.337975;254.405067_101.034397;254.518729_100.728310;254.625203_100.419655;254.723856_100.108417;254.814062_99.794632;254.895211_99.478389;254.966724_99.159834;</t>
   </si>
   <si>
-    <t>(254.903319,98.875801);(254.711809,98.625985);(254.524217,98.373216);(254.341015,98.117251);(254.162763,97.857820);(253.990132,97.594622);(253.823933,97.327325);(253.665154,97.055568);(253.515008,96.778962);(253.375006,96.497109);(253.247030,96.209628);(253.133443,95.916209);(253.037200,95.616716);(252.961951,95.311360);(252.912055,95.000974);(252.892383,94.687375);(252.907723,94.373700);(252.961703,94.064460);(253.055520,93.764937);(253.187224,93.479945);(253.352125,93.212592);(253.544114,92.963739);(253.757042,92.732321);(253.985538,92.516082);(254.225258,92.312229);(254.472796,92.117853);(254.725458,91.930133);(254.981047,91.746389);(255.237669,91.564079);(255.493564,91.380758);(255.746970,91.194033);(255.995985,91.001530);(256.238438,90.800884);(256.471765,90.589773);(256.692898,90.366020);(256.898219,90.127794);(257.084231,89.874276);(257.250440,89.607250);(257.399955,89.330404);(257.537036,89.047108);(257.666118,88.760026);(257.791639,88.471349);(257.918016,88.183049);(258.049307,87.896979);(258.187013,87.613936);(258.329590,87.333297);(258.474651,87.053927);(258.619808,86.774605);(258.762672,86.494112);(258.900857,86.211301);</t>
+    <t>254.903319_98.875801;254.711809_98.625985;254.524217_98.373216;254.341015_98.117251;254.162763_97.857820;253.990132_97.594622;253.823933_97.327325;253.665154_97.055568;253.515008_96.778962;253.375006_96.497109;253.247030_96.209628;253.133443_95.916209;253.037200_95.616716;252.961951_95.311360;252.912055_95.000974;252.892383_94.687375;252.907723_94.373700;252.961703_94.064460;253.055520_93.764937;253.187224_93.479945;253.352125_93.212592;253.544114_92.963739;253.757042_92.732321;253.985538_92.516082;254.225258_92.312229;254.472796_92.117853;254.725458_91.930133;254.981047_91.746389;255.237669_91.564079;255.493564_91.380758;255.746970_91.194033;255.995985_91.001530;256.238438_90.800884;256.471765_90.589773;256.692898_90.366020;256.898219_90.127794;257.084231_89.874276;257.250440_89.607250;257.399955_89.330404;257.537036_89.047108;257.666118_88.760026;257.791639_88.471349;257.918016_88.183049;258.049307_87.896979;258.187013_87.613936;258.329590_87.333297;258.474651_87.053927;258.619808_86.774605;258.762672_86.494112;258.900857_86.211301;</t>
   </si>
   <si>
-    <t>(259.157334,85.636435);(259.279916,85.346495);(259.404976,85.057633);(259.537519,84.772182);(259.682588,84.492987);(259.845098,84.223725);(260.029151,83.968882);(260.234468,83.730722);(260.455235,83.506526);(260.684389,83.290750);(260.915813,83.077365);(261.144630,82.861217);(261.369241,82.640691);(261.590869,82.417152);(261.811240,82.192367);(262.032066,81.968031);(262.254236,81.745028);(262.477343,81.522959);(262.700453,81.300892);(262.922630,81.077894);(263.143309,80.853415);(263.363233,80.628194);(263.584239,80.404040);(263.808327,80.182985);(264.037299,79.967020);(264.270112,79.755160);(264.501337,79.541606);(264.723852,79.319170);(264.930946,79.082524);(265.120465,78.831466);(265.303024,78.575058);(265.499712,78.330100);(265.734842,78.126185);(266.019317,78.014115);(266.330051,78.003451);(266.643588,78.028081);(266.949383,77.993627);(267.210996,77.840383);(267.415500,77.603680);(267.601508,77.349884);(267.816455,77.124606);(268.090766,76.999709);(268.400716,76.991582);(268.713937,77.017422);(269.014920,76.968821);(269.265658,76.796692);(269.462174,76.552359);(269.648774,76.299191);(269.873986,76.087188);(270.158442,75.988196);</t>
+    <t>259.157334_85.636435;259.279916_85.346495;259.404976_85.057633;259.537519_84.772182;259.682588_84.492987;259.845098_84.223725;260.029151_83.968882;260.234468_83.730722;260.455235_83.506526;260.684389_83.290750;260.915813_83.077365;261.144630_82.861217;261.369241_82.640691;261.590869_82.417152;261.811240_82.192367;262.032066_81.968031;262.254236_81.745028;262.477343_81.522959;262.700453_81.300892;262.922630_81.077894;263.143309_80.853415;263.363233_80.628194;263.584239_80.404040;263.808327_80.182985;264.037299_79.967020;264.270112_79.755160;264.501337_79.541606;264.723852_79.319170;264.930946_79.082524;265.120465_78.831466;265.303024_78.575058;265.499712_78.330100;265.734842_78.126185;266.019317_78.014115;266.330051_78.003451;266.643588_78.028081;266.949383_77.993627;267.210996_77.840383;267.415500_77.603680;267.601508_77.349884;267.816455_77.124606;268.090766_76.999709;268.400716_76.991582;268.713937_77.017422;269.014920_76.968821;269.265658_76.796692;269.462174_76.552359;269.648774_76.299191;269.873986_76.087188;270.158442_75.988196;</t>
   </si>
   <si>
-    <t>(270.783493,76.015892);(271.076651,75.941381);(271.314039,75.746825);(271.504634,75.497060);(271.695569,75.247595);(271.933832,75.054364);(272.227562,74.980631);(272.540617,74.998911);(272.852958,75.007530);(273.140649,74.913691);(273.373258,74.709611);(273.566362,74.461507);(273.762070,74.215724);(274.001463,74.020996);(274.293310,73.929999);(274.605494,73.934732);(274.916099,73.983965);(275.225744,74.040308);(275.537913,74.072980);(275.846289,74.040299);(276.120590,73.904163);(276.343336,73.685525);(276.538895,73.439023);(276.744622,73.201965);(276.995406,73.022813);(277.292885,72.946896);(277.606037,72.954566);(277.918890,72.988832);(278.232527,73.011945);(278.547137,73.013918);(278.861782,73.004973);(279.176457,72.997442);(279.491226,72.996064);(279.806005,72.998225);(280.120784,73.000444);(280.435570,73.001088);(280.750358,73.000605);(281.065146,72.999961);(281.379934,72.999709);(281.694722,72.999805);(282.009511,72.999986);(282.324299,73.000076);(282.639087,73.000062);(282.953876,73.000011);(283.268664,72.999978);(283.583452,72.999976);(283.898241,72.999993);(284.213029,73.000014);(284.527817,73.000026);(284.842606,73.000014);</t>
+    <t>270.783493_76.015892;271.076651_75.941381;271.314039_75.746825;271.504634_75.497060;271.695569_75.247595;271.933832_75.054364;272.227562_74.980631;272.540617_74.998911;272.852958_75.007530;273.140649_74.913691;273.373258_74.709611;273.566362_74.461507;273.762070_74.215724;274.001463_74.020996;274.293310_73.929999;274.605494_73.934732;274.916099_73.983965;275.225744_74.040308;275.537913_74.072980;275.846289_74.040299;276.120590_73.904163;276.343336_73.685525;276.538895_73.439023;276.744622_73.201965;276.995406_73.022813;277.292885_72.946896;277.606037_72.954566;277.918890_72.988832;278.232527_73.011945;278.547137_73.013918;278.861782_73.004973;279.176457_72.997442;279.491226_72.996064;279.806005_72.998225;280.120784_73.000444;280.435570_73.001088;280.750358_73.000605;281.065146_72.999961;281.379934_72.999709;281.694722_72.999805;282.009511_72.999986;282.324299_73.000076;282.639087_73.000062;282.953876_73.000011;283.268664_72.999978;283.583452_72.999976;283.898241_72.999993;284.213029_73.000014;284.527817_73.000026;284.842606_73.000014;</t>
   </si>
   <si>
-    <t>(285.131662,73.000000);(285.394986,72.999999);(285.658310,73.000000);(285.921634,73.000000);(286.184958,73.000000);(286.448282,73.000000);(286.711606,73.000000);(286.974930,73.000000);(287.238254,72.999999);(287.501578,72.999998);(287.764902,72.999999);(288.028226,73.000001);(288.291550,73.000004);(288.554874,73.000006);(288.818198,73.000004);(289.081522,72.999996);(289.344846,72.999984);(289.608171,72.999978);(289.871495,72.999989);(290.134819,73.000024);(290.398143,73.000067);(290.661467,73.000080);(290.924791,73.000021);(291.188115,72.999876);(291.451439,72.999726);(291.714763,72.999720);(291.978086,73.000012);(292.241410,73.000591);(292.504733,73.001089);(292.768057,73.000931);(293.031376,72.999585);(293.294690,72.997338);(293.558007,72.995788);(293.821318,72.997129);(294.084556,73.003155);(294.347737,73.011728);(294.610979,73.015827);(294.874010,73.007586);(295.136060,72.983362);(295.397618,72.953238);(295.659952,72.941354);(295.916432,72.982117);(296.144732,73.101669);(296.333547,73.282569);(296.498461,73.487599);(296.661474,73.694259);(296.844431,73.881770);(297.065568,74.015418);(297.318505,74.071399);(297.580478,74.065830);(297.840942,74.028845);(298.100006,73.981733);(298.360037,73.941216);(298.622036,73.926548);(298.879133,73.965446);(299.110009,74.080756);(299.302338,74.257685);(299.469553,74.460777);(299.632866,74.667251);(299.813206,74.857713);(300.029599,75.000032);(300.279534,75.066894);(300.541297,75.068713);(300.802154,75.035288);(301.061287,74.988626);(301.320965,74.945582);(301.582737,74.924966);(301.841518,74.954009);(302.076649,75.059544);(302.272357,75.231896);(302.439808,75.434669);(302.601260,75.642622);(302.778608,75.835971);(302.992491,75.981657);(303.241681,76.049028);</t>
+    <t>285.131662_73.000000;285.394986_72.999999;285.658310_73.000000;285.921634_73.000000;286.184958_73.000000;286.448282_73.000000;286.711606_73.000000;286.974930_73.000000;287.238254_72.999999;287.501578_72.999998;287.764902_72.999999;288.028226_73.000001;288.291550_73.000004;288.554874_73.000006;288.818198_73.000004;289.081522_72.999996;289.344846_72.999984;289.608171_72.999978;289.871495_72.999989;290.134819_73.000024;290.398143_73.000067;290.661467_73.000080;290.924791_73.000021;291.188115_72.999876;291.451439_72.999726;291.714763_72.999720;291.978086_73.000012;292.241410_73.000591;292.504733_73.001089;292.768057_73.000931;293.031376_72.999585;293.294690_72.997338;293.558007_72.995788;293.821318_72.997129;294.084556_73.003155;294.347737_73.011728;294.610979_73.015827;294.874010_73.007586;295.136060_72.983362;295.397618_72.953238;295.659952_72.941354;295.916432_72.982117;296.144732_73.101669;296.333547_73.282569;296.498461_73.487599;296.661474_73.694259;296.844431_73.881770;297.065568_74.015418;297.318505_74.071399;297.580478_74.065830;297.840942_74.028845;298.100006_73.981733;298.360037_73.941216;298.622036_73.926548;298.879133_73.965446;299.110009_74.080756;299.302338_74.257685;299.469553_74.460777;299.632866_74.667251;299.813206_74.857713;300.029599_75.000032;300.279534_75.066894;300.541297_75.068713;300.802154_75.035288;301.061287_74.988626;301.320965_74.945582;301.582737_74.924966;301.841518_74.954009;302.076649_75.059544;302.272357_75.231896;302.439808_75.434669;302.601260_75.642622;302.778608_75.835971;302.992491_75.981657;303.241681_76.049028;</t>
   </si>
   <si>
-    <t>(303.765601,76.024987);(304.027699,76.001309);(304.290697,75.995178);(304.553916,76.001579);(304.817125,76.004610);(305.079790,75.990720);(305.341624,75.963193);(305.603903,75.944562);(305.863461,75.968661);(306.100267,76.069406);(306.297433,76.239850);(306.465535,76.442037);(306.626822,76.650128);(306.803166,76.844486);(307.015339,76.993194);(307.263171,77.066026);(307.524707,77.070788);(307.785643,77.038288);(308.044800,76.991775);(308.304431,76.948390);(308.566156,76.926236);(308.825699,76.951045);(309.063979,77.049941);(309.264253,77.216644);(309.435077,77.416467);(309.597538,77.623662);(309.772412,77.819638);(309.980210,77.975610);(310.224422,78.059475);(310.485336,78.072831);(310.746648,78.044673);(311.005881,77.998761);(311.265053,77.952477);(311.526298,77.924073);(311.786745,77.939786);(312.027641,78.030685);(312.228623,78.195301);(312.396547,78.397427);(312.555052,78.607656);(312.727540,78.805507);(312.936989,78.957205);(313.184626,79.025157);(313.446591,79.022426);(313.708886,79.000171);(313.970153,79.006596);(314.217210,79.082256);(314.431869,79.229324);(314.612020,79.419793);(314.767808,79.631660);(314.910054,79.853172);(315.047698,80.077652);(315.188565,80.300073);(315.340667,80.514734);(315.513493,80.712365);(315.717217,80.875757);(315.954976,80.978562);(316.213427,81.009841);(316.476095,80.997122);(316.738765,80.983223);(316.997589,81.011573);(317.235206,81.113363);(317.437939,81.277997);(317.611668,81.475092);(317.769818,81.685521);(317.924942,81.898282);(318.087651,82.105130);(318.262440,82.301864);(318.447388,82.489179);(318.638936,82.669823);(318.833317,82.847458);(319.026817,83.026041);(319.217184,83.207950);(319.404470,83.393042);(319.589674,83.580225);(319.773803,83.768468);</t>
+    <t>303.765601_76.024987;304.027699_76.001309;304.290697_75.995178;304.553916_76.001579;304.817125_76.004610;305.079790_75.990720;305.341624_75.963193;305.603903_75.944562;305.863461_75.968661;306.100267_76.069406;306.297433_76.239850;306.465535_76.442037;306.626822_76.650128;306.803166_76.844486;307.015339_76.993194;307.263171_77.066026;307.524707_77.070788;307.785643_77.038288;308.044800_76.991775;308.304431_76.948390;308.566156_76.926236;308.825699_76.951045;309.063979_77.049941;309.264253_77.216644;309.435077_77.416467;309.597538_77.623662;309.772412_77.819638;309.980210_77.975610;310.224422_78.059475;310.485336_78.072831;310.746648_78.044673;311.005881_77.998761;311.265053_77.952477;311.526298_77.924073;311.786745_77.939786;312.027641_78.030685;312.228623_78.195301;312.396547_78.397427;312.555052_78.607656;312.727540_78.805507;312.936989_78.957205;313.184626_79.025157;313.446591_79.022426;313.708886_79.000171;313.970153_79.006596;314.217210_79.082256;314.431869_79.229324;314.612020_79.419793;314.767808_79.631660;314.910054_79.853172;315.047698_80.077652;315.188565_80.300073;315.340667_80.514734;315.513493_80.712365;315.717217_80.875757;315.954976_80.978562;316.213427_81.009841;316.476095_80.997122;316.738765_80.983223;316.997589_81.011573;317.235206_81.113363;317.437939_81.277997;317.611668_81.475092;317.769818_81.685521;317.924942_81.898282;318.087651_82.105130;318.262440_82.301864;318.447388_82.489179;318.638936_82.669823;318.833317_82.847458;319.026817_83.026041;319.217184_83.207950;319.404470_83.393042;319.589674_83.580225;319.773803_83.768468;</t>
   </si>
   <si>
-    <t>(320.142620,84.144407);(320.328277,84.331143);(320.514585,84.517231);(320.701257,84.702954);(320.888007,84.888600);(321.074572,85.074430);(321.260858,85.260541);(321.446958,85.446837);(321.633012,85.633178);(321.819163,85.819425);(322.005543,86.005440);(322.192181,86.191198);(322.378903,86.376870);(322.565440,86.562729);(322.751516,86.749049);(322.936851,86.936104);(323.121326,87.124009);(323.305385,87.312323);(323.489939,87.500148);(323.675953,87.686524);(323.864353,87.870479);(324.055836,88.051217);(324.249572,88.229555);(324.442827,88.408407);(324.632173,88.591341);(324.813816,88.781827);(324.983385,88.982992);(325.137448,89.196218);(325.275943,89.419961);(325.401297,89.651404);(325.516428,89.888159);(325.624382,90.128310);(325.728205,90.370296);(325.830904,90.612767);(325.935455,90.854436);(326.044545,91.094073);(326.159070,91.331166);(326.277897,91.566143);(326.399388,91.799763);(326.521905,92.032849);(326.643798,92.266259);(326.763385,92.500853);(326.878933,92.737450);(326.988656,92.976787);(327.091202,93.219277);(327.186288,93.464792);(327.274315,93.712932);(327.355759,93.963314);(327.431124,94.215599);(327.500926,94.469483);(327.565694,94.724702);(327.625959,94.981024);(327.682251,95.238252);(327.735097,95.496212);(327.785019,95.754756);(327.832531,96.013754);(327.878145,96.273096);(327.922365,96.532680);(327.965691,96.792415);(328.008620,97.052216);(328.051649,97.312000);(328.095274,97.571685);(328.139994,97.831183);(328.186310,98.090399);(328.234729,98.349230);(328.285764,98.607555);(328.339932,98.865240);(328.397758,99.122126);(328.459769,99.378030);(328.526497,99.632742);(328.598472,99.886017);(328.676218,100.137576);(328.760250,100.387100);(328.851059,100.634233);(328.949109,100.878577);</t>
+    <t>320.142620_84.144407;320.328277_84.331143;320.514585_84.517231;320.701257_84.702954;320.888007_84.888600;321.074572_85.074430;321.260858_85.260541;321.446958_85.446837;321.633012_85.633178;321.819163_85.819425;322.005543_86.005440;322.192181_86.191198;322.378903_86.376870;322.565440_86.562729;322.751516_86.749049;322.936851_86.936104;323.121326_87.124009;323.305385_87.312323;323.489939_87.500148;323.675953_87.686524;323.864353_87.870479;324.055836_88.051217;324.249572_88.229555;324.442827_88.408407;324.632173_88.591341;324.813816_88.781827;324.983385_88.982992;325.137448_89.196218;325.275943_89.419961;325.401297_89.651404;325.516428_89.888159;325.624382_90.128310;325.728205_90.370296;325.830904_90.612767;325.935455_90.854436;326.044545_91.094073;326.159070_91.331166;326.277897_91.566143;326.399388_91.799763;326.521905_92.032849;326.643798_92.266259;326.763385_92.500853;326.878933_92.737450;326.988656_92.976787;327.091202_93.219277;327.186288_93.464792;327.274315_93.712932;327.355759_93.963314;327.431124_94.215599;327.500926_94.469483;327.565694_94.724702;327.625959_94.981024;327.682251_95.238252;327.735097_95.496212;327.785019_95.754756;327.832531_96.013754;327.878145_96.273096;327.922365_96.532680;327.965691_96.792415;328.008620_97.052216;328.051649_97.312000;328.095274_97.571685;328.139994_97.831183;328.186310_98.090399;328.234729_98.349230;328.285764_98.607555;328.339932_98.865240;328.397758_99.122126;328.459769_99.378030;328.526497_99.632742;328.598472_99.886017;328.676218_100.137576;328.760250_100.387100;328.851059_100.634233;328.949109_100.878577;</t>
   </si>
   <si>
-    <t>(328.882559,101.083504);(328.655585,101.260647);(328.445001,101.457028);(328.251449,101.670280);(328.074575,101.897637);(327.913137,102.136281);(327.765234,102.383609);(327.628555,102.637366);(327.500586,102.895664);(327.378742,103.156932);(327.260442,103.419839);(327.143137,103.683195);(327.024318,103.945866);(326.902102,104.206967);(326.776236,104.466332);(326.647572,104.724325);(326.517053,104.981387);(326.385620,105.237985);(326.254231,105.494605);(326.123879,105.751752);(325.995581,106.009926);(325.869741,106.269308);(325.745546,106.529485);(325.621538,106.789752);(325.496265,107.049410);(325.368396,107.307794);(325.236803,107.564295);(325.100605,107.818374);(324.958840,108.069376);(324.807690,108.314721);(324.638961,108.547917);(324.441824,108.756440);(324.206330,108.916681);(323.935468,108.998304);(323.649205,109.005723);(323.361654,108.986432);(323.076042,108.998458);(322.810388,109.092163);(322.584846,109.266435);(322.394294,109.481794);(322.220204,109.711514);(322.044879,109.940243);(321.855010,110.156701);(321.649449,110.358597);(321.437147,110.553630);(321.228594,110.752531);(321.033922,110.964677);(320.856951,111.191934);(320.688086,111.425580);(320.509417,111.651350);(320.300874,111.847206);(320.048700,111.972380);(319.767159,112.003589);(319.480093,111.980813);(319.193603,111.974489);(318.927140,112.055629);(318.710284,112.236791);(318.534160,112.464313);(318.362870,112.695935);(318.160068,112.895904);(317.904842,113.004353);(317.620384,113.010932);(317.333614,112.983427);(317.051739,113.005235);(316.805854,113.134126);(316.612782,113.344977);(316.444489,113.578935);(316.263717,113.802129);(316.035387,113.964424);(315.761363,114.018479);(315.474643,113.997186);(315.188192,113.983231);(314.920177,114.056723);(314.701853,114.235102);(314.526130,114.462839);</t>
+    <t>328.882559_101.083504;328.655585_101.260647;328.445001_101.457028;328.251449_101.670280;328.074575_101.897637;327.913137_102.136281;327.765234_102.383609;327.628555_102.637366;327.500586_102.895664;327.378742_103.156932;327.260442_103.419839;327.143137_103.683195;327.024318_103.945866;326.902102_104.206967;326.776236_104.466332;326.647572_104.724325;326.517053_104.981387;326.385620_105.237985;326.254231_105.494605;326.123879_105.751752;325.995581_106.009926;325.869741_106.269308;325.745546_106.529485;325.621538_106.789752;325.496265_107.049410;325.368396_107.307794;325.236803_107.564295;325.100605_107.818374;324.958840_108.069376;324.807690_108.314721;324.638961_108.547917;324.441824_108.756440;324.206330_108.916681;323.935468_108.998304;323.649205_109.005723;323.361654_108.986432;323.076042_108.998458;322.810388_109.092163;322.584846_109.266435;322.394294_109.481794;322.220204_109.711514;322.044879_109.940243;321.855010_110.156701;321.649449_110.358597;321.437147_110.553630;321.228594_110.752531;321.033922_110.964677;320.856951_111.191934;320.688086_111.425580;320.509417_111.651350;320.300874_111.847206;320.048700_111.972380;319.767159_112.003589;319.480093_111.980813;319.193603_111.974489;318.927140_112.055629;318.710284_112.236791;318.534160_112.464313;318.362870_112.695935;318.160068_112.895904;317.904842_113.004353;317.620384_113.010932;317.333614_112.983427;317.051739_113.005235;316.805854_113.134126;316.612782_113.344977;316.444489_113.578935;316.263717_113.802129;316.035387_113.964424;315.761363_114.018479;315.474643_113.997186;315.188192_113.983231;314.920177_114.056723;314.701853_114.235102;314.526130_114.462839;</t>
   </si>
   <si>
-    <t>(314.526130,114.462839);(314.356246,114.695508);(314.154804,114.896771);(313.900105,115.005768);(313.615661,115.012087);(313.328911,114.984426);(313.047166,115.006678);(312.801495,115.136131);(312.608405,115.347025);(312.439848,115.580795);(312.258809,115.803782);(312.030447,115.966254);(311.756476,116.021634);(311.469657,116.002004);(311.183009,115.987361);(310.912026,116.054534);(310.686231,116.223700);(310.502794,116.445041);(310.330206,116.675873);(310.135999,116.886501);(309.894250,117.029702);(309.615329,117.077782);(309.328950,117.057733);(309.044974,117.008766);(308.761383,116.957205);(308.475428,116.926318);(308.191108,116.947918);(307.931575,117.056577);(307.716860,117.244057);(307.534021,117.466502);(307.354552,117.691929);(307.149873,117.891915);(306.899919,118.020845);(306.618371,118.059052);(306.331330,118.040500);(306.045001,118.007162);(305.757780,117.985041);(305.469665,117.981372);(305.181573,117.990792);(304.893656,118.005574);(304.605628,118.017306);(304.317463,118.017792);(304.029941,118.000304);(303.743575,117.967635);(303.456830,117.941231);(303.172060,117.960050);(302.912213,118.066478);(302.698276,118.254611);(302.516734,118.478118);(302.337995,118.704091);(302.132399,118.902728);(301.880517,119.027057);(301.598068,119.060150);(301.311126,119.038915);(301.024855,119.005151);(300.737578,118.983958);(300.449448,118.981415);(300.161378,118.991638);(299.873471,119.006633);(299.585430,119.017878);(299.297274,119.017264);(299.009842,118.998372);(298.723521,118.965188);(298.436698,118.940509);(298.152654,118.964351);(297.895639,119.077401);(297.684852,119.269633);(297.504463,119.494164);(297.324822,119.719352);(297.116261,119.914384);(296.861372,120.032210);(296.577944,120.059858);(296.291068,120.036558);(296.004771,120.003086);(295.717404,119.983213);</t>
+    <t>314.526130_114.462839;314.356246_114.695508;314.154804_114.896771;313.900105_115.005768;313.615661_115.012087;313.328911_114.984426;313.047166_115.006678;312.801495_115.136131;312.608405_115.347025;312.439848_115.580795;312.258809_115.803782;312.030447_115.966254;311.756476_116.021634;311.469657_116.002004;311.183009_115.987361;310.912026_116.054534;310.686231_116.223700;310.502794_116.445041;310.330206_116.675873;310.135999_116.886501;309.894250_117.029702;309.615329_117.077782;309.328950_117.057733;309.044974_117.008766;308.761383_116.957205;308.475428_116.926318;308.191108_116.947918;307.931575_117.056577;307.716860_117.244057;307.534021_117.466502;307.354552_117.691929;307.149873_117.891915;306.899919_118.020845;306.618371_118.059052;306.331330_118.040500;306.045001_118.007162;305.757780_117.985041;305.469665_117.981372;305.181573_117.990792;304.893656_118.005574;304.605628_118.017306;304.317463_118.017792;304.029941_118.000304;303.743575_117.967635;303.456830_117.941231;303.172060_117.960050;302.912213_118.066478;302.698276_118.254611;302.516734_118.478118;302.337995_118.704091;302.132399_118.902728;301.880517_119.027057;301.598068_119.060150;301.311126_119.038915;301.024855_119.005151;300.737578_118.983958;300.449448_118.981415;300.161378_118.991638;299.873471_119.006633;299.585430_119.017878;299.297274_119.017264;299.009842_118.998372;298.723521_118.965188;298.436698_118.940509;298.152654_118.964351;297.895639_119.077401;297.684852_119.269633;297.504463_119.494164;297.324822_119.719352;297.116261_119.914384;296.861372_120.032210;296.577944_120.059858;296.291068_120.036558;296.004771_120.003086;295.717404_119.983213;</t>
   </si>
   <si>
-    <t>(295.717404,119.983213);(295.429257,119.981797);(295.141204,119.992628);(294.853299,120.007649);(294.565242,120.018328);(294.277099,120.016610);(293.989758,119.996354);(293.703475,119.962751);(293.416583,119.939960);(293.133419,119.969096);(292.879413,120.088820);(292.671805,120.285004);(292.492537,120.510511);(292.311867,120.734787);(292.100084,120.925715);(291.842079,121.036374);(291.557744,121.058242);(291.270910,121.033163);(290.984448,121.001402);(290.696863,120.985279);(290.408671,120.986549);(290.120520,120.995567);(289.832327,121.002633);(289.544045,121.004186);(289.255753,121.002353);(288.967463,121.000009);(288.679166,120.998914);(288.390866,120.999074);(288.102567,120.999727);(287.814267,121.000206);(287.525967,121.000296);(287.237667,121.000157);(286.949366,120.999993);(286.661066,120.999925);(286.372766,120.999942);(286.084466,120.999985);(285.796165,121.000006);(285.507865,121.000000);(285.219565,120.999994);(284.931265,121.000013);(284.642964,121.000056);(284.354664,121.000076);(284.066364,121.000013);(283.778064,120.999853);(283.489763,120.999707);(283.201463,120.999779);(282.913163,121.000239);(282.624864,121.000897);(282.336564,121.001105);(282.048267,121.000091);(281.759977,120.997783);(281.471685,120.995849);(281.183401,120.997141);(280.895202,121.003940);(280.607054,121.013076);(280.318857,121.015047);(280.031212,120.999989);(279.744716,120.968662);(279.457943,120.942279);(279.173078,120.960311);(278.912945,121.065903);(278.698811,121.253722);(278.517330,121.477269);(278.338775,121.703389);(278.133345,121.902187);(277.881497,122.026455);(277.599022,122.059284);(277.312057,122.038093);(277.025682,122.005297);(276.738283,121.986159);(276.450114,121.985311);(276.161961,121.994021);(275.873794,122.002286);(275.585527,122.005219);(275.297236,122.003768);</t>
+    <t>295.717404_119.983213;295.429257_119.981797;295.141204_119.992628;294.853299_120.007649;294.565242_120.018328;294.277099_120.016610;293.989758_119.996354;293.703475_119.962751;293.416583_119.939960;293.133419_119.969096;292.879413_120.088820;292.671805_120.285004;292.492537_120.510511;292.311867_120.734787;292.100084_120.925715;291.842079_121.036374;291.557744_121.058242;291.270910_121.033163;290.984448_121.001402;290.696863_120.985279;290.408671_120.986549;290.120520_120.995567;289.832327_121.002633;289.544045_121.004186;289.255753_121.002353;288.967463_121.000009;288.679166_120.998914;288.390866_120.999074;288.102567_120.999727;287.814267_121.000206;287.525967_121.000296;287.237667_121.000157;286.949366_120.999993;286.661066_120.999925;286.372766_120.999942;286.084466_120.999985;285.796165_121.000006;285.507865_121.000000;285.219565_120.999994;284.931265_121.000013;284.642964_121.000056;284.354664_121.000076;284.066364_121.000013;283.778064_120.999853;283.489763_120.999707;283.201463_120.999779;282.913163_121.000239;282.624864_121.000897;282.336564_121.001105;282.048267_121.000091;281.759977_120.997783;281.471685_120.995849;281.183401_120.997141;280.895202_121.003940;280.607054_121.013076;280.318857_121.015047;280.031212_120.999989;279.744716_120.968662;279.457943_120.942279;279.173078_120.960311;278.912945_121.065903;278.698811_121.253722;278.517330_121.477269;278.338775_121.703389;278.133345_121.902187;277.881497_122.026455;277.599022_122.059284;277.312057_122.038093;277.025682_122.005297;276.738283_121.986159;276.450114_121.985311;276.161961_121.994021;275.873794_122.002286;275.585527_122.005219;275.297236_122.003768;</t>
   </si>
   <si>
-    <t>(273.848958,122.000000);(273.546875,122.000000);(273.244792,122.000000);(272.942708,122.000000);(272.640625,122.000000);(272.338542,122.000000);(272.036458,122.000000);(271.734375,122.000000);(271.432292,122.000000);(271.130208,122.000000);(270.828125,122.000000);(270.526042,122.000000);(270.223958,122.000000);(269.921875,122.000000);(269.619792,122.000000);(269.317708,122.000000);(269.015625,122.000000);(268.713542,122.000000);(268.411458,122.000000);(268.109375,122.000000);(267.807292,122.000000);(267.505208,122.000000);(267.203125,122.000000);(266.901042,122.000000);(266.598958,122.000000);(266.296875,122.000000);(265.994792,122.000000);(265.692708,122.000000);(265.390625,122.000000);(265.088542,122.000000);(264.786458,122.000000);(264.484375,122.000000);(264.182292,122.000000);(263.880208,122.000000);(263.578125,122.000000);(263.276042,122.000000);(262.973958,122.000000);(262.671875,122.000000);(262.369792,122.000000);(262.067708,122.000000);(261.765625,122.000000);(261.463542,122.000000);(261.161458,122.000000);(260.859375,122.000000);(260.557292,122.000000);(260.255208,122.000000);(259.953125,122.000000);(259.651042,122.000000);(259.348958,122.000000);(259.046875,122.000000);(258.744792,122.000000);(258.442708,122.000000);(258.140625,122.000000);(257.838542,122.000000);(257.536458,122.000000);(257.234375,122.000000);(256.932292,122.000000);(256.630208,122.000000);(256.328125,122.000000);(256.026042,122.000000);(255.723958,122.000000);(255.421875,122.000000);(255.119792,122.000000);(254.817708,122.000000);(254.515625,122.000000);(254.213542,122.000000);(253.911458,122.000000);(253.609375,122.000000);(253.307292,122.000000);(253.005208,122.000000);</t>
+    <t>273.848958_122.000000;273.546875_122.000000;273.244792_122.000000;272.942708_122.000000;272.640625_122.000000;272.338542_122.000000;272.036458_122.000000;271.734375_122.000000;271.432292_122.000000;271.130208_122.000000;270.828125_122.000000;270.526042_122.000000;270.223958_122.000000;269.921875_122.000000;269.619792_122.000000;269.317708_122.000000;269.015625_122.000000;268.713542_122.000000;268.411458_122.000000;268.109375_122.000000;267.807292_122.000000;267.505208_122.000000;267.203125_122.000000;266.901042_122.000000;266.598958_122.000000;266.296875_122.000000;265.994792_122.000000;265.692708_122.000000;265.390625_122.000000;265.088542_122.000000;264.786458_122.000000;264.484375_122.000000;264.182292_122.000000;263.880208_122.000000;263.578125_122.000000;263.276042_122.000000;262.973958_122.000000;262.671875_122.000000;262.369792_122.000000;262.067708_122.000000;261.765625_122.000000;261.463542_122.000000;261.161458_122.000000;260.859375_122.000000;260.557292_122.000000;260.255208_122.000000;259.953125_122.000000;259.651042_122.000000;259.348958_122.000000;259.046875_122.000000;258.744792_122.000000;258.442708_122.000000;258.140625_122.000000;257.838542_122.000000;257.536458_122.000000;257.234375_122.000000;256.932292_122.000000;256.630208_122.000000;256.328125_122.000000;256.026042_122.000000;255.723958_122.000000;255.421875_122.000000;255.119792_122.000000;254.817708_122.000000;254.515625_122.000000;254.213542_122.000000;253.911458_122.000000;253.609375_122.000000;253.307292_122.000000;253.005208_122.000000;</t>
   </si>
   <si>
-    <t>(253.005208,122.000000);(252.703125,122.000000);(252.401042,122.000000);(252.098958,122.000000);(251.796875,122.000000);(251.494792,122.000000);(251.192708,122.000000);(250.890625,122.000000);(250.588542,122.000000);(250.286458,122.000000);(249.984375,122.000000);(249.682292,122.000000);(249.380208,122.000000);(249.078125,122.000000);(248.776042,122.000000);(248.473958,122.000000);(248.171875,122.000000);(247.869792,122.000000);(247.567708,122.000000);(247.265625,122.000000);(246.963542,122.000000);(246.661458,122.000000);(246.359375,122.000000);(246.057292,122.000000);(245.755208,122.000000);(245.453125,122.000000);(245.151042,122.000000);(244.848958,122.000000);(244.546875,122.000000);(244.244792,122.000000);(243.942708,122.000000);(243.640625,122.000000);(243.338542,122.000000);(243.036458,122.000000);(242.734375,122.000000);(242.432292,122.000000);(242.130208,122.000000);(241.828125,122.000000);(241.526042,122.000000);(241.223958,122.000000);(240.921875,122.000000);(240.619792,122.000000);(240.317708,122.000000);(240.015625,122.000000);(239.713542,122.000000);(239.411458,122.000000);(239.109375,122.000000);(238.807292,122.000000);(238.505208,122.000000);(238.203125,122.000000);(237.901042,122.000000);(237.598958,122.000000);(237.296875,122.000000);(236.994792,122.000000);(236.692708,122.000000);(236.390625,122.000000);(236.088542,122.000000);(235.786458,122.000000);(235.484375,122.000000);(235.182292,122.000000);</t>
+    <t>253.005208_122.000000;252.703125_122.000000;252.401042_122.000000;252.098958_122.000000;251.796875_122.000000;251.494792_122.000000;251.192708_122.000000;250.890625_122.000000;250.588542_122.000000;250.286458_122.000000;249.984375_122.000000;249.682292_122.000000;249.380208_122.000000;249.078125_122.000000;248.776042_122.000000;248.473958_122.000000;248.171875_122.000000;247.869792_122.000000;247.567708_122.000000;247.265625_122.000000;246.963542_122.000000;246.661458_122.000000;246.359375_122.000000;246.057292_122.000000;245.755208_122.000000;245.453125_122.000000;245.151042_122.000000;244.848958_122.000000;244.546875_122.000000;244.244792_122.000000;243.942708_122.000000;243.640625_122.000000;243.338542_122.000000;243.036458_122.000000;242.734375_122.000000;242.432292_122.000000;242.130208_122.000000;241.828125_122.000000;241.526042_122.000000;241.223958_122.000000;240.921875_122.000000;240.619792_122.000000;240.317708_122.000000;240.015625_122.000000;239.713542_122.000000;239.411458_122.000000;239.109375_122.000000;238.807292_122.000000;238.505208_122.000000;238.203125_122.000000;237.901042_122.000000;237.598958_122.000000;237.296875_122.000000;236.994792_122.000000;236.692708_122.000000;236.390625_122.000000;236.088542_122.000000;235.786458_122.000000;235.484375_122.000000;235.182292_122.000000;</t>
   </si>
   <si>
-    <t>(235.182292,122.000000);(234.880208,122.000000);(234.578125,122.000000);(234.276042,122.000000);(233.973958,122.000000);(233.671875,122.000000);(233.369792,122.000000);(233.067708,122.000000);(232.765625,122.000000);(232.463542,122.000000);(232.161458,122.000000);(231.859375,122.000000);(231.557292,122.000000);(231.255208,122.000000);(230.953125,122.000000);(230.651042,122.000000);(230.348958,122.000000);(230.046875,122.000000);(229.744792,122.000000);(229.442708,122.000000);(229.140625,122.000000);(228.838542,122.000000);(228.536458,122.000000);(228.234375,122.000000);(227.932292,122.000000);(227.630208,122.000000);(227.328125,122.000000);(227.026042,122.000000);(226.723958,122.000000);(226.421875,122.000000);(226.119792,122.000000);(225.817708,122.000000);(225.515625,122.000000);(225.213542,122.000000);(224.911458,122.000000);(224.609375,122.000000);(224.307292,122.000000);(224.005208,122.000000);(223.703125,122.000000);(223.401042,122.000000);(223.098958,122.000000);(222.796875,122.000000);(222.494792,122.000000);(222.192708,122.000000);(221.890625,122.000000);(221.588542,122.000000);(221.286458,122.000000);(220.984375,122.000000);(220.682292,122.000000);(220.380208,122.000000);(220.078125,122.000000);(219.776042,122.000000);(219.473958,122.000000);(219.171875,122.000000);(218.869792,122.000000);(218.567708,122.000000);(218.265625,122.000000);(217.963542,122.000000);(217.661458,122.000000);(217.359375,122.000000);</t>
+    <t>235.182292_122.000000;234.880208_122.000000;234.578125_122.000000;234.276042_122.000000;233.973958_122.000000;233.671875_122.000000;233.369792_122.000000;233.067708_122.000000;232.765625_122.000000;232.463542_122.000000;232.161458_122.000000;231.859375_122.000000;231.557292_122.000000;231.255208_122.000000;230.953125_122.000000;230.651042_122.000000;230.348958_122.000000;230.046875_122.000000;229.744792_122.000000;229.442708_122.000000;229.140625_122.000000;228.838542_122.000000;228.536458_122.000000;228.234375_122.000000;227.932292_122.000000;227.630208_122.000000;227.328125_122.000000;227.026042_122.000000;226.723958_122.000000;226.421875_122.000000;226.119792_122.000000;225.817708_122.000000;225.515625_122.000000;225.213542_122.000000;224.911458_122.000000;224.609375_122.000000;224.307292_122.000000;224.005208_122.000000;223.703125_122.000000;223.401042_122.000000;223.098958_122.000000;222.796875_122.000000;222.494792_122.000000;222.192708_122.000000;221.890625_122.000000;221.588542_122.000000;221.286458_122.000000;220.984375_122.000000;220.682292_122.000000;220.380208_122.000000;220.078125_122.000000;219.776042_122.000000;219.473958_122.000000;219.171875_122.000000;218.869792_122.000000;218.567708_122.000000;218.265625_122.000000;217.963542_122.000000;217.661458_122.000000;217.359375_122.000000;</t>
   </si>
   <si>
-    <t>(215.988038,122.000000);(215.964115,122.000000);(215.940191,122.000000);(215.916268,122.000000);(215.892344,122.000000);(215.868421,122.000000);(215.844498,122.000000);(215.820574,122.000000);(215.796651,122.000000);(215.772727,122.000000);(215.748804,122.000000);(215.724880,122.000000);(215.700957,122.000000);(215.677033,122.000000);(215.653110,122.000000);(215.629187,122.000000);(215.605263,122.000000);(215.581340,122.000000);(215.557416,122.000000);(215.533493,122.000000);(215.509569,122.000000);(215.485646,122.000000);(215.461722,122.000000);(215.437799,122.000000);(215.413876,122.000000);(215.389952,122.000000);(215.366029,122.000000);(215.342105,122.000000);(215.318182,122.000000);(215.294258,122.000000);(215.270335,122.000000);(215.246411,122.000000);(215.222488,122.000000);(215.198565,122.000000);(215.174641,122.000000);(215.150718,122.000000);(215.126794,122.000000);(215.102871,122.000000);(215.078947,122.000000);(215.055024,122.000000);(215.031100,122.000000);(215.007177,122.000000);(214.983254,122.000000);(214.959330,122.000000);(214.935407,122.000000);(214.911483,122.000000);(214.887560,122.000000);(214.863636,122.000000);(214.839713,122.000000);(214.815789,122.000000);</t>
+    <t>215.988038_122.000000;215.964115_122.000000;215.940191_122.000000;215.916268_122.000000;215.892344_122.000000;215.868421_122.000000;215.844498_122.000000;215.820574_122.000000;215.796651_122.000000;215.772727_122.000000;215.748804_122.000000;215.724880_122.000000;215.700957_122.000000;215.677033_122.000000;215.653110_122.000000;215.629187_122.000000;215.605263_122.000000;215.581340_122.000000;215.557416_122.000000;215.533493_122.000000;215.509569_122.000000;215.485646_122.000000;215.461722_122.000000;215.437799_122.000000;215.413876_122.000000;215.389952_122.000000;215.366029_122.000000;215.342105_122.000000;215.318182_122.000000;215.294258_122.000000;215.270335_122.000000;215.246411_122.000000;215.222488_122.000000;215.198565_122.000000;215.174641_122.000000;215.150718_122.000000;215.126794_122.000000;215.102871_122.000000;215.078947_122.000000;215.055024_122.000000;215.031100_122.000000;215.007177_122.000000;214.983254_122.000000;214.959330_122.000000;214.935407_122.000000;214.911483_122.000000;214.887560_122.000000;214.863636_122.000000;214.839713_122.000000;214.815789_122.000000;</t>
   </si>
   <si>
-    <t>(214.815789,122.000000);(214.791866,122.000000);(214.767943,122.000000);(214.744019,122.000000);(214.720096,122.000000);(214.696172,122.000000);(214.672249,122.000000);(214.648325,122.000000);(214.624402,122.000000);(214.600478,122.000000);(214.576555,122.000000);(214.552632,122.000000);(214.528708,122.000000);(214.504785,122.000000);(214.480861,122.000000);(214.456938,122.000000);(214.433014,122.000000);(214.409091,122.000000);(214.385167,122.000000);(214.361244,122.000000);(214.337321,122.000000);(214.313397,122.000000);(214.289474,122.000000);(214.265550,122.000000);(214.241627,122.000000);(214.217703,122.000000);(214.193780,122.000000);(214.169856,122.000000);(214.145933,122.000000);(214.122010,122.000000);(214.098086,122.000000);(214.074163,122.000000);(214.050239,122.000000);(214.026316,122.000000);(214.002392,122.000000);(213.978469,122.000000);(213.954545,122.000000);(213.930622,122.000000);(213.906699,122.000000);(213.882775,122.000000);(213.858852,122.000000);(213.834928,122.000000);(213.811005,122.000000);(213.787081,122.000000);(213.763158,122.000000);(213.739234,122.000000);(213.715311,122.000000);(213.691388,122.000000);(213.667464,122.000000);(213.643541,122.000000);(213.619617,122.000000);(213.595694,122.000000);(213.571770,122.000000);(213.547847,122.000000);(213.523923,122.000000);(213.500000,122.000000);(213.476077,122.000000);(213.452153,122.000000);(213.428230,122.000000);(213.404306,122.000000);(213.380383,122.000000);(213.356459,122.000000);(213.332536,122.000000);(213.308612,122.000000);(213.284689,122.000000);(213.260766,122.000000);(213.236842,122.000000);(213.212919,122.000000);(213.188995,122.000000);(213.165072,122.000000);(213.141148,122.000000);(213.117225,122.000000);(213.093301,122.000000);(213.069378,122.000000);(213.045455,122.000000);(213.021531,122.000000);(212.997608,122.000000);(212.973684,122.000000);(212.949761,122.000000);(212.925837,122.000000);(212.901914,122.000000);(212.877990,122.000000);(212.854067,122.000000);(212.830144,122.000000);(212.806220,122.000000);(212.782297,122.000000);(212.758373,122.000000);(212.734450,122.000000);(212.710526,122.000000);(212.686603,122.000000);(212.662679,122.000000);(212.638756,122.000000);(212.614833,122.000000);(212.590909,122.000000);(212.566986,122.000000);(212.543062,122.000000);(212.519139,122.000000);(212.495215,122.000000);(212.471292,122.000000);(212.447368,122.000000);(212.423445,122.000000);(212.399522,122.000000);(212.375598,122.000000);(212.351675,122.000000);(212.327751,122.000000);(212.303828,122.000000);(212.279904,122.000000);(212.255981,122.000000);(212.232057,122.000000);(212.208134,122.000000);(212.184211,122.000000);(212.160287,122.000000);(212.136364,122.000000);(212.112440,122.000000);(212.088517,122.000000);(212.064593,122.000000);(212.040670,122.000000);(212.016746,122.000000);(211.992823,122.000000);(211.968900,122.000000);(211.944976,122.000000);(211.921053,122.000000);(211.897129,122.000000);(211.873206,122.000000);(211.849282,122.000000);(211.825359,122.000000);(211.801435,122.000000);(211.777512,122.000000);(211.753589,122.000000);(211.729665,122.000000);(211.705742,122.000000);(211.681818,122.000000);(211.657895,122.000000);(211.633971,122.000000);(211.610048,122.000000);(211.586124,122.000000);(211.562201,122.000000);(211.538278,122.000000);(211.514354,122.000000);(211.490431,122.000000);(211.466507,122.000000);(211.442584,122.000000);(211.418660,122.000000);(211.394737,122.000000);(211.370813,122.000000);(211.346890,122.000000);(211.322967,122.000000);(211.299043,122.000000);(211.275120,122.000000);(211.251196,122.000000);(211.227273,122.000000);(211.203349,122.000000);(211.179426,122.000000);(211.155502,122.000000);(211.131579,122.000000);(211.107656,122.000000);(211.083732,122.000000);(211.059809,122.000000);(211.035885,122.000000);(211.011962,122.000000);(210.988038,122.000000);(210.964115,122.000000);(210.940191,122.000000);(210.916268,122.000000);(210.892344,122.000000);(210.868421,122.000000);(210.844498,122.000000);(210.820574,122.000000);(210.796651,122.000000);(210.772727,122.000000);(210.748804,122.000000);(210.724880,122.000000);(210.700957,122.000000);(210.677033,122.000000);(210.653110,122.000000);(210.629187,122.000000);(210.605263,122.000000);(210.581340,122.000000);(210.557416,122.000000);(210.533493,122.000000);(210.509569,122.000000);(210.485646,122.000000);(210.461722,122.000000);(210.437799,122.000000);(210.413876,122.000000);(210.389952,122.000000);(210.366029,122.000000);(210.342105,122.000000);(210.318182,122.000000);(210.294258,122.000000);(210.270335,122.000000);(210.246411,122.000000);(210.222488,122.000000);(210.198565,122.000000);(210.174641,122.000000);(210.150718,122.000000);(210.126794,122.000000);(210.102871,122.000000);(210.078947,122.000000);(210.055024,122.000000);</t>
+    <t>214.815789_122.000000;214.791866_122.000000;214.767943_122.000000;214.744019_122.000000;214.720096_122.000000;214.696172_122.000000;214.672249_122.000000;214.648325_122.000000;214.624402_122.000000;214.600478_122.000000;214.576555_122.000000;214.552632_122.000000;214.528708_122.000000;214.504785_122.000000;214.480861_122.000000;214.456938_122.000000;214.433014_122.000000;214.409091_122.000000;214.385167_122.000000;214.361244_122.000000;214.337321_122.000000;214.313397_122.000000;214.289474_122.000000;214.265550_122.000000;214.241627_122.000000;214.217703_122.000000;214.193780_122.000000;214.169856_122.000000;214.145933_122.000000;214.122010_122.000000;214.098086_122.000000;214.074163_122.000000;214.050239_122.000000;214.026316_122.000000;214.002392_122.000000;213.978469_122.000000;213.954545_122.000000;213.930622_122.000000;213.906699_122.000000;213.882775_122.000000;213.858852_122.000000;213.834928_122.000000;213.811005_122.000000;213.787081_122.000000;213.763158_122.000000;213.739234_122.000000;213.715311_122.000000;213.691388_122.000000;213.667464_122.000000;213.643541_122.000000;213.619617_122.000000;213.595694_122.000000;213.571770_122.000000;213.547847_122.000000;213.523923_122.000000;213.500000_122.000000;213.476077_122.000000;213.452153_122.000000;213.428230_122.000000;213.404306_122.000000;213.380383_122.000000;213.356459_122.000000;213.332536_122.000000;213.308612_122.000000;213.284689_122.000000;213.260766_122.000000;213.236842_122.000000;213.212919_122.000000;213.188995_122.000000;213.165072_122.000000;213.141148_122.000000;213.117225_122.000000;213.093301_122.000000;213.069378_122.000000;213.045455_122.000000;213.021531_122.000000;212.997608_122.000000;212.973684_122.000000;212.949761_122.000000;212.925837_122.000000;212.901914_122.000000;212.877990_122.000000;212.854067_122.000000;212.830144_122.000000;212.806220_122.000000;212.782297_122.000000;212.758373_122.000000;212.734450_122.000000;212.710526_122.000000;212.686603_122.000000;212.662679_122.000000;212.638756_122.000000;212.614833_122.000000;212.590909_122.000000;212.566986_122.000000;212.543062_122.000000;212.519139_122.000000;212.495215_122.000000;212.471292_122.000000;212.447368_122.000000;212.423445_122.000000;212.399522_122.000000;212.375598_122.000000;212.351675_122.000000;212.327751_122.000000;212.303828_122.000000;212.279904_122.000000;212.255981_122.000000;212.232057_122.000000;212.208134_122.000000;212.184211_122.000000;212.160287_122.000000;212.136364_122.000000;212.112440_122.000000;212.088517_122.000000;212.064593_122.000000;212.040670_122.000000;212.016746_122.000000;211.992823_122.000000;211.968900_122.000000;211.944976_122.000000;211.921053_122.000000;211.897129_122.000000;211.873206_122.000000;211.849282_122.000000;211.825359_122.000000;211.801435_122.000000;211.777512_122.000000;211.753589_122.000000;211.729665_122.000000;211.705742_122.000000;211.681818_122.000000;211.657895_122.000000;211.633971_122.000000;211.610048_122.000000;211.586124_122.000000;211.562201_122.000000;211.538278_122.000000;211.514354_122.000000;211.490431_122.000000;211.466507_122.000000;211.442584_122.000000;211.418660_122.000000;211.394737_122.000000;211.370813_122.000000;211.346890_122.000000;211.322967_122.000000;211.299043_122.000000;211.275120_122.000000;211.251196_122.000000;211.227273_122.000000;211.203349_122.000000;211.179426_122.000000;211.155502_122.000000;211.131579_122.000000;211.107656_122.000000;211.083732_122.000000;211.059809_122.000000;211.035885_122.000000;211.011962_122.000000;210.988038_122.000000;210.964115_122.000000;210.940191_122.000000;210.916268_122.000000;210.892344_122.000000;210.868421_122.000000;210.844498_122.000000;210.820574_122.000000;210.796651_122.000000;210.772727_122.000000;210.748804_122.000000;210.724880_122.000000;210.700957_122.000000;210.677033_122.000000;210.653110_122.000000;210.629187_122.000000;210.605263_122.000000;210.581340_122.000000;210.557416_122.000000;210.533493_122.000000;210.509569_122.000000;210.485646_122.000000;210.461722_122.000000;210.437799_122.000000;210.413876_122.000000;210.389952_122.000000;210.366029_122.000000;210.342105_122.000000;210.318182_122.000000;210.294258_122.000000;210.270335_122.000000;210.246411_122.000000;210.222488_122.000000;210.198565_122.000000;210.174641_122.000000;210.150718_122.000000;210.126794_122.000000;210.102871_122.000000;210.078947_122.000000;210.055024_122.000000;</t>
   </si>
   <si>
-    <t>(210.055024,122.000000);(210.031100,122.000000);(210.007177,122.000000);(209.983254,122.000000);(209.959330,122.000000);(209.935407,122.000000);(209.911483,122.000000);(209.887560,122.000000);(209.863636,122.000000);(209.839713,122.000000);(209.815789,122.000000);(209.791866,122.000000);(209.767943,122.000000);(209.744019,122.000000);(209.720096,122.000000);(209.696172,122.000000);(209.672249,122.000000);(209.648325,122.000000);(209.624402,122.000000);(209.600478,122.000000);(209.576555,122.000000);(209.552632,122.000000);(209.528708,122.000000);(209.504785,122.000000);(209.480861,122.000000);(209.456938,122.000000);(209.433014,122.000000);(209.409091,122.000000);(209.385167,122.000000);(209.361244,122.000000);(209.337321,122.000000);(209.313397,122.000000);(209.289474,122.000000);(209.265550,122.000000);(209.241627,122.000000);(209.217703,122.000000);(209.193780,122.000000);(209.169856,122.000000);(209.145933,122.000000);(209.122010,122.000000);(209.098086,122.000000);(209.074163,122.000000);(209.050239,122.000000);(209.026316,122.000000);(209.002392,122.000000);(208.978469,122.000000);(208.954545,122.000000);(208.930622,122.000000);(208.906699,122.000000);(208.882775,122.000000);(208.858852,122.000000);(208.834928,122.000000);(208.811005,122.000000);(208.787081,122.000000);(208.763158,122.000000);(208.739234,122.000000);(208.715311,122.000000);(208.691388,122.000000);(208.667464,122.000000);(208.643541,122.000000);(208.619617,122.000000);(208.595694,122.000000);(208.571770,122.000000);(208.547847,122.000000);(208.523923,122.000000);(208.500000,122.000000);(208.476077,122.000000);(208.452153,122.000000);(208.428230,122.000000);(208.404306,122.000000);(208.380383,122.000000);(208.356459,122.000000);(208.332536,122.000000);(208.308612,122.000000);(208.284689,122.000000);(208.260766,122.000000);(208.236842,122.000000);(208.212919,122.000000);(208.188995,122.000000);(208.165072,122.000000);(208.141148,122.000000);(208.117225,122.000000);(208.093301,122.000000);(208.069378,122.000000);(208.045455,122.000000);(208.021531,122.000000);(207.997608,122.000000);(207.973684,122.000000);(207.949761,122.000000);(207.925837,122.000000);(207.901914,122.000000);(207.877990,122.000000);(207.854067,122.000000);(207.830144,122.000000);(207.806220,122.000000);(207.782297,122.000000);(207.758373,122.000000);(207.734450,122.000000);(207.710526,122.000000);(207.686603,122.000000);(207.662679,122.000000);(207.638756,122.000000);(207.614833,122.000000);(207.590909,122.000000);(207.566986,122.000000);(207.543062,122.000000);(207.519139,122.000000);(207.495215,122.000000);(207.471292,122.000000);(207.447368,122.000000);(207.423445,122.000000);(207.399522,122.000000);(207.375598,122.000000);(207.351675,122.000000);(207.327751,122.000000);(207.303828,122.000000);(207.279904,122.000000);(207.255981,122.000000);(207.232057,122.000000);(207.208134,122.000000);(207.184211,122.000000);(207.160287,122.000000);(207.136364,122.000000);(207.112440,122.000000);(207.088517,122.000000);(207.064593,122.000000);(207.040670,122.000000);(207.016746,122.000000);(206.992823,122.000000);(206.968900,122.000000);(206.944976,122.000000);(206.921053,122.000000);(206.897129,122.000000);(206.873206,122.000000);(206.849282,122.000000);(206.825359,122.000000);(206.801435,122.000000);(206.777512,122.000000);(206.753589,122.000000);(206.729665,122.000000);(206.705742,122.000000);(206.681818,122.000000);(206.657895,122.000000);(206.633971,122.000000);(206.610048,122.000000);(206.586124,122.000000);(206.562201,122.000000);(206.538278,122.000000);(206.514354,122.000000);(206.490431,122.000000);(206.466507,122.000000);(206.442584,122.000000);(206.418660,122.000000);(206.394737,122.000000);(206.370813,122.000000);(206.346890,122.000000);(206.322967,122.000000);(206.299043,122.000000);(206.275120,122.000000);(206.251196,122.000000);(206.227273,122.000000);(206.203349,122.000000);(206.179426,122.000000);(206.155502,122.000000);(206.131579,122.000000);(206.107656,122.000000);(206.083732,122.000000);(206.059809,122.000000);(206.035885,122.000000);(206.011962,122.000000);(205.988038,122.000000);(205.964115,122.000000);(205.940191,122.000000);(205.916268,122.000000);(205.892344,122.000000);(205.868421,122.000000);(205.844498,122.000000);(205.820574,122.000000);(205.796651,122.000000);(205.772727,122.000000);(205.748804,122.000000);(205.724880,122.000000);(205.700957,122.000000);(205.677033,122.000000);(205.653110,122.000000);(205.629187,122.000000);(205.605263,122.000000);(205.581340,122.000000);(205.557416,122.000000);(205.533493,122.000000);(205.509569,122.000000);(205.485646,122.000000);(205.461722,122.000000);(205.437799,122.000000);(205.413876,122.000000);(205.389952,122.000000);(205.366029,122.000000);(205.342105,122.000000);(205.318182,122.000000);(205.294258,122.000000);(205.270335,122.000000);(205.246411,122.000000);(205.222488,122.000000);(205.198565,122.000000);(205.174641,122.000000);(205.150718,122.000000);(205.126794,122.000000);(205.102871,122.000000);(205.078947,122.000000);(205.055024,122.000000);(205.031100,122.000000);(205.007177,122.000000);(204.983254,122.000000);(204.959330,122.000000);(204.935407,122.000000);(204.911483,122.000000);(204.887560,122.000000);(204.863636,122.000000);(204.839713,122.000000);(204.815789,122.000000);(204.791866,122.000000);(204.767943,122.000000);(204.744019,122.000000);(204.720096,122.000000);(204.696172,122.000000);(204.672249,122.000000);(204.648325,122.000000);(204.624402,122.000000);(204.600478,122.000000);(204.576555,122.000000);(204.552632,122.000000);(204.528708,122.000000);(204.504785,122.000000);(204.480861,122.000000);(204.456938,122.000000);(204.433014,122.000000);(204.409091,122.000000);(204.385167,122.000000);(204.361244,122.000000);(204.337321,122.000000);(204.313397,122.000000);(204.289474,122.000000);(204.265550,122.000000);(204.241627,122.000000);(204.217703,122.000000);(204.193780,122.000000);(204.169856,122.000000);(204.145933,122.000000);(204.122010,122.000000);(204.098086,122.000000);(204.074163,122.000000);(204.050239,122.000000);(204.026316,122.000000);(204.002392,122.000000);(203.978469,122.000000);(203.954545,122.000000);(203.930622,122.000000);(203.906699,122.000000);(203.882775,122.000000);(203.858852,122.000000);(203.834928,122.000000);(203.811005,122.000000);(203.787081,122.000000);(203.763158,122.000000);(203.739234,122.000000);(203.715311,122.000000);(203.691388,122.000000);(203.667464,122.000000);(203.643541,122.000000);(203.619617,122.000000);(203.595694,122.000000);(203.571770,122.000000);(203.547847,122.000000);(203.523923,122.000000);(203.500000,122.000000);(203.476077,122.000000);(203.452153,122.000000);(203.428230,122.000000);(203.404306,122.000000);(203.380383,122.000000);(203.356459,122.000000);(203.332536,122.000000);(203.308612,122.000000);(203.284689,122.000000);(203.260766,122.000000);(203.236842,122.000000);(203.212919,122.000000);(203.188995,122.000000);(203.165072,122.000000);(203.141148,122.000000);(203.117225,122.000000);(203.093301,122.000000);(203.069378,122.000000);(203.045455,122.000000);(203.021531,122.000000);(202.997608,122.000000);(202.973684,122.000000);(202.949761,122.000000);(202.925837,122.000000);(202.901914,122.000000);(202.877990,122.000000);(202.854067,122.000000);(202.830144,122.000000);(202.806220,122.000000);(202.782297,122.000000);(202.758373,122.000000);(202.734450,122.000000);(202.710526,122.000000);(202.686603,122.000000);(202.662679,122.000000);(202.638756,122.000000);(202.614833,122.000000);(202.590909,122.000000);(202.566986,122.000000);(202.543062,122.000000);(202.519139,122.000000);(202.495215,122.000000);(202.471292,122.000000);(202.447368,122.000000);(202.423445,122.000000);(202.399522,122.000000);(202.375598,122.000000);(202.351675,122.000000);(202.327751,122.000000);(202.303828,122.000000);(202.279904,122.000000);(202.255981,122.000000);(202.232057,122.000000);(202.208134,122.000000);(202.184211,122.000000);(202.160287,122.000000);(202.136364,122.000000);(202.112440,122.000000);(202.088517,122.000000);(202.064593,122.000000);(202.040670,122.000000);(202.016746,122.000000);(201.992823,122.000000);(201.968900,122.000000);(201.944976,122.000000);(201.921053,122.000000);(201.897129,122.000000);(201.873206,122.000000);(201.849282,122.000000);(201.825359,122.000000);(201.801435,122.000000);(201.777512,122.000000);(201.753589,122.000000);(201.729665,122.000000);(201.705742,122.000000);(201.681818,122.000000);(201.657895,122.000000);(201.633971,122.000000);(201.610048,122.000000);(201.586124,122.000000);(201.562201,122.000000);(201.538278,122.000000);(201.514354,122.000000);(201.490431,122.000000);(201.466507,122.000000);(201.442584,122.000000);(201.418660,122.000000);(201.394737,122.000000);(201.370813,122.000000);(201.346890,122.000000);(201.322967,122.000000);(201.299043,122.000000);(201.275120,122.000000);(201.251196,122.000000);(201.227273,122.000000);(201.203349,122.000000);(201.179426,122.000000);(201.155502,122.000000);(201.131579,122.000000);(201.107656,122.000000);(201.083732,122.000000);(201.059809,122.000000);(201.035885,122.000000);(201.011962,122.000000);(200.988038,122.000000);(200.964115,122.000000);(200.940191,122.000000);(200.916268,122.000000);(200.892344,122.000000);(200.868421,122.000000);(200.844498,122.000000);(200.820574,122.000000);(200.796651,122.000000);(200.772727,122.000000);(200.748804,122.000000);(200.724880,122.000000);(200.700957,122.000000);(200.677033,122.000000);(200.653110,122.000000);(200.629187,122.000000);(200.605263,122.000000);(200.581340,122.000000);(200.557416,122.000000);(200.533493,122.000000);(200.509569,122.000000);</t>
+    <t>210.055024_122.000000;210.031100_122.000000;210.007177_122.000000;209.983254_122.000000;209.959330_122.000000;209.935407_122.000000;209.911483_122.000000;209.887560_122.000000;209.863636_122.000000;209.839713_122.000000;209.815789_122.000000;209.791866_122.000000;209.767943_122.000000;209.744019_122.000000;209.720096_122.000000;209.696172_122.000000;209.672249_122.000000;209.648325_122.000000;209.624402_122.000000;209.600478_122.000000;209.576555_122.000000;209.552632_122.000000;209.528708_122.000000;209.504785_122.000000;209.480861_122.000000;209.456938_122.000000;209.433014_122.000000;209.409091_122.000000;209.385167_122.000000;209.361244_122.000000;209.337321_122.000000;209.313397_122.000000;209.289474_122.000000;209.265550_122.000000;209.241627_122.000000;209.217703_122.000000;209.193780_122.000000;209.169856_122.000000;209.145933_122.000000;209.122010_122.000000;209.098086_122.000000;209.074163_122.000000;209.050239_122.000000;209.026316_122.000000;209.002392_122.000000;208.978469_122.000000;208.954545_122.000000;208.930622_122.000000;208.906699_122.000000;208.882775_122.000000;208.858852_122.000000;208.834928_122.000000;208.811005_122.000000;208.787081_122.000000;208.763158_122.000000;208.739234_122.000000;208.715311_122.000000;208.691388_122.000000;208.667464_122.000000;208.643541_122.000000;208.619617_122.000000;208.595694_122.000000;208.571770_122.000000;208.547847_122.000000;208.523923_122.000000;208.500000_122.000000;208.476077_122.000000;208.452153_122.000000;208.428230_122.000000;208.404306_122.000000;208.380383_122.000000;208.356459_122.000000;208.332536_122.000000;208.308612_122.000000;208.284689_122.000000;208.260766_122.000000;208.236842_122.000000;208.212919_122.000000;208.188995_122.000000;208.165072_122.000000;208.141148_122.000000;208.117225_122.000000;208.093301_122.000000;208.069378_122.000000;208.045455_122.000000;208.021531_122.000000;207.997608_122.000000;207.973684_122.000000;207.949761_122.000000;207.925837_122.000000;207.901914_122.000000;207.877990_122.000000;207.854067_122.000000;207.830144_122.000000;207.806220_122.000000;207.782297_122.000000;207.758373_122.000000;207.734450_122.000000;207.710526_122.000000;207.686603_122.000000;207.662679_122.000000;207.638756_122.000000;207.614833_122.000000;207.590909_122.000000;207.566986_122.000000;207.543062_122.000000;207.519139_122.000000;207.495215_122.000000;207.471292_122.000000;207.447368_122.000000;207.423445_122.000000;207.399522_122.000000;207.375598_122.000000;207.351675_122.000000;207.327751_122.000000;207.303828_122.000000;207.279904_122.000000;207.255981_122.000000;207.232057_122.000000;207.208134_122.000000;207.184211_122.000000;207.160287_122.000000;207.136364_122.000000;207.112440_122.000000;207.088517_122.000000;207.064593_122.000000;207.040670_122.000000;207.016746_122.000000;206.992823_122.000000;206.968900_122.000000;206.944976_122.000000;206.921053_122.000000;206.897129_122.000000;206.873206_122.000000;206.849282_122.000000;206.825359_122.000000;206.801435_122.000000;206.777512_122.000000;206.753589_122.000000;206.729665_122.000000;206.705742_122.000000;206.681818_122.000000;206.657895_122.000000;206.633971_122.000000;206.610048_122.000000;206.586124_122.000000;206.562201_122.000000;206.538278_122.000000;206.514354_122.000000;206.490431_122.000000;206.466507_122.000000;206.442584_122.000000;206.418660_122.000000;206.394737_122.000000;206.370813_122.000000;206.346890_122.000000;206.322967_122.000000;206.299043_122.000000;206.275120_122.000000;206.251196_122.000000;206.227273_122.000000;206.203349_122.000000;206.179426_122.000000;206.155502_122.000000;206.131579_122.000000;206.107656_122.000000;206.083732_122.000000;206.059809_122.000000;206.035885_122.000000;206.011962_122.000000;205.988038_122.000000;205.964115_122.000000;205.940191_122.000000;205.916268_122.000000;205.892344_122.000000;205.868421_122.000000;205.844498_122.000000;205.820574_122.000000;205.796651_122.000000;205.772727_122.000000;205.748804_122.000000;205.724880_122.000000;205.700957_122.000000;205.677033_122.000000;205.653110_122.000000;205.629187_122.000000;205.605263_122.000000;205.581340_122.000000;205.557416_122.000000;205.533493_122.000000;205.509569_122.000000;205.485646_122.000000;205.461722_122.000000;205.437799_122.000000;205.413876_122.000000;205.389952_122.000000;205.366029_122.000000;205.342105_122.000000;205.318182_122.000000;205.294258_122.000000;205.270335_122.000000;205.246411_122.000000;205.222488_122.000000;205.198565_122.000000;205.174641_122.000000;205.150718_122.000000;205.126794_122.000000;205.102871_122.000000;205.078947_122.000000;205.055024_122.000000;205.031100_122.000000;205.007177_122.000000;204.983254_122.000000;204.959330_122.000000;204.935407_122.000000;204.911483_122.000000;204.887560_122.000000;204.863636_122.000000;204.839713_122.000000;204.815789_122.000000;204.791866_122.000000;204.767943_122.000000;204.744019_122.000000;204.720096_122.000000;204.696172_122.000000;204.672249_122.000000;204.648325_122.000000;204.624402_122.000000;204.600478_122.000000;204.576555_122.000000;204.552632_122.000000;204.528708_122.000000;204.504785_122.000000;204.480861_122.000000;204.456938_122.000000;204.433014_122.000000;204.409091_122.000000;204.385167_122.000000;204.361244_122.000000;204.337321_122.000000;204.313397_122.000000;204.289474_122.000000;204.265550_122.000000;204.241627_122.000000;204.217703_122.000000;204.193780_122.000000;204.169856_122.000000;204.145933_122.000000;204.122010_122.000000;204.098086_122.000000;204.074163_122.000000;204.050239_122.000000;204.026316_122.000000;204.002392_122.000000;203.978469_122.000000;203.954545_122.000000;203.930622_122.000000;203.906699_122.000000;203.882775_122.000000;203.858852_122.000000;203.834928_122.000000;203.811005_122.000000;203.787081_122.000000;203.763158_122.000000;203.739234_122.000000;203.715311_122.000000;203.691388_122.000000;203.667464_122.000000;203.643541_122.000000;203.619617_122.000000;203.595694_122.000000;203.571770_122.000000;203.547847_122.000000;203.523923_122.000000;203.500000_122.000000;203.476077_122.000000;203.452153_122.000000;203.428230_122.000000;203.404306_122.000000;203.380383_122.000000;203.356459_122.000000;203.332536_122.000000;203.308612_122.000000;203.284689_122.000000;203.260766_122.000000;203.236842_122.000000;203.212919_122.000000;203.188995_122.000000;203.165072_122.000000;203.141148_122.000000;203.117225_122.000000;203.093301_122.000000;203.069378_122.000000;203.045455_122.000000;203.021531_122.000000;202.997608_122.000000;202.973684_122.000000;202.949761_122.000000;202.925837_122.000000;202.901914_122.000000;202.877990_122.000000;202.854067_122.000000;202.830144_122.000000;202.806220_122.000000;202.782297_122.000000;202.758373_122.000000;202.734450_122.000000;202.710526_122.000000;202.686603_122.000000;202.662679_122.000000;202.638756_122.000000;202.614833_122.000000;202.590909_122.000000;202.566986_122.000000;202.543062_122.000000;202.519139_122.000000;202.495215_122.000000;202.471292_122.000000;202.447368_122.000000;202.423445_122.000000;202.399522_122.000000;202.375598_122.000000;202.351675_122.000000;202.327751_122.000000;202.303828_122.000000;202.279904_122.000000;202.255981_122.000000;202.232057_122.000000;202.208134_122.000000;202.184211_122.000000;202.160287_122.000000;202.136364_122.000000;202.112440_122.000000;202.088517_122.000000;202.064593_122.000000;202.040670_122.000000;202.016746_122.000000;201.992823_122.000000;201.968900_122.000000;201.944976_122.000000;201.921053_122.000000;201.897129_122.000000;201.873206_122.000000;201.849282_122.000000;201.825359_122.000000;201.801435_122.000000;201.777512_122.000000;201.753589_122.000000;201.729665_122.000000;201.705742_122.000000;201.681818_122.000000;201.657895_122.000000;201.633971_122.000000;201.610048_122.000000;201.586124_122.000000;201.562201_122.000000;201.538278_122.000000;201.514354_122.000000;201.490431_122.000000;201.466507_122.000000;201.442584_122.000000;201.418660_122.000000;201.394737_122.000000;201.370813_122.000000;201.346890_122.000000;201.322967_122.000000;201.299043_122.000000;201.275120_122.000000;201.251196_122.000000;201.227273_122.000000;201.203349_122.000000;201.179426_122.000000;201.155502_122.000000;201.131579_122.000000;201.107656_122.000000;201.083732_122.000000;201.059809_122.000000;201.035885_122.000000;201.011962_122.000000;200.988038_122.000000;200.964115_122.000000;200.940191_122.000000;200.916268_122.000000;200.892344_122.000000;200.868421_122.000000;200.844498_122.000000;200.820574_122.000000;200.796651_122.000000;200.772727_122.000000;200.748804_122.000000;200.724880_122.000000;200.700957_122.000000;200.677033_122.000000;200.653110_122.000000;200.629187_122.000000;200.605263_122.000000;200.581340_122.000000;200.557416_122.000000;200.533493_122.000000;200.509569_122.000000;</t>
   </si>
   <si>
-    <t>(200.509569,122.000000);(200.485646,122.000000);(200.461722,122.000000);(200.437799,122.000000);(200.413876,122.000000);(200.389952,122.000000);(200.366029,122.000000);(200.342105,122.000000);(200.318182,122.000000);(200.294258,122.000000);(200.270335,122.000000);(200.246411,122.000000);(200.222488,122.000000);(200.198565,122.000000);(200.174641,122.000000);(200.150718,122.000000);(200.126794,122.000000);(200.102871,122.000000);(200.078947,122.000000);(200.055024,122.000000);(200.031100,122.000000);(200.007177,122.000000);(199.983254,122.000000);(199.959330,122.000000);(199.935407,122.000000);(199.911483,122.000000);(199.887560,122.000000);(199.863636,122.000000);(199.839713,122.000000);(199.815789,122.000000);(199.791866,122.000000);(199.767943,122.000000);(199.744019,122.000000);(199.720096,122.000000);(199.696172,122.000000);(199.672249,122.000000);(199.648325,122.000000);(199.624402,122.000000);(199.600478,122.000000);(199.576555,122.000000);(199.552632,122.000000);(199.528708,122.000000);(199.504785,122.000000);(199.480861,122.000000);(199.456938,122.000000);(199.433014,122.000000);(199.409091,122.000000);(199.385167,122.000000);(199.361244,122.000000);(199.337321,122.000000);(199.313397,122.000000);(199.289474,122.000000);(199.265550,122.000000);(199.241627,122.000000);(199.217703,122.000000);(199.193780,122.000000);(199.169856,122.000000);(199.145933,122.000000);(199.122010,122.000000);(199.098086,122.000000);(199.074163,122.000000);(199.050239,122.000000);(199.026316,122.000000);(199.002392,122.000000);(198.978469,122.000000);(198.954545,122.000000);(198.930622,122.000000);(198.906699,122.000000);(198.882775,122.000000);(198.858852,122.000000);(198.834928,122.000000);(198.811005,122.000000);(198.787081,122.000000);(198.763158,122.000000);(198.739234,122.000000);(198.715311,122.000000);(198.691388,122.000000);(198.667464,122.000000);(198.643541,122.000000);(198.619617,122.000000);(198.595694,122.000000);(198.571770,122.000000);(198.547847,122.000000);(198.523923,122.000000);(198.500000,122.000000);(198.476077,122.000000);(198.452153,122.000000);(198.428230,122.000000);(198.404306,122.000000);(198.380383,122.000000);(198.356459,122.000000);(198.332536,122.000000);(198.308612,122.000000);(198.284689,122.000000);(198.260766,122.000000);(198.236842,122.000000);(198.212919,122.000000);(198.188995,122.000000);(198.165072,122.000000);(198.141148,122.000000);(198.117225,122.000000);(198.093301,122.000000);(198.069378,122.000000);(198.045455,122.000000);(198.021531,122.000000);(197.997608,122.000000);(197.973684,122.000000);(197.949761,122.000000);(197.925837,122.000000);(197.901914,122.000000);(197.877990,122.000000);(197.854067,122.000000);(197.830144,122.000000);(197.806220,122.000000);(197.782297,122.000000);(197.758373,122.000000);(197.734450,122.000000);(197.710526,122.000000);(197.686603,122.000000);(197.662679,122.000000);(197.638756,122.000000);(197.614833,122.000000);(197.590909,122.000000);(197.566986,122.000000);(197.543062,122.000000);(197.519139,122.000000);(197.495215,122.000000);(197.471292,122.000000);(197.447368,122.000000);(197.423445,122.000000);(197.399522,122.000000);(197.375598,122.000000);(197.351675,122.000000);(197.327751,122.000000);(197.303828,122.000000);(197.279904,122.000000);(197.255981,122.000000);(197.232057,122.000000);(197.208134,122.000000);(197.184211,122.000000);(197.160287,122.000000);(197.136364,122.000000);(197.112440,122.000000);(197.088517,122.000000);(197.064593,122.000000);(197.040670,122.000000);(197.016746,122.000000);(196.992823,122.000000);(196.968900,122.000000);(196.944976,122.000000);(196.921053,122.000000);(196.897129,122.000000);(196.873206,122.000000);(196.849282,122.000000);(196.825359,122.000000);(196.801435,122.000000);(196.777512,122.000000);(196.753589,122.000000);(196.729665,122.000000);(196.705742,122.000000);(196.681818,122.000000);(196.657895,122.000000);(196.633971,122.000000);(196.610048,122.000000);(196.586124,122.000000);(196.562201,122.000000);(196.538278,122.000000);(196.514354,122.000000);(196.490431,122.000000);(196.466507,122.000000);(196.442584,122.000000);(196.418660,122.000000);(196.394737,122.000000);(196.370813,122.000000);(196.346890,122.000000);(196.322967,122.000000);(196.299043,122.000000);(196.275120,122.000000);(196.251196,122.000000);(196.227273,122.000000);(196.203349,122.000000);(196.179426,122.000000);(196.155502,122.000000);(196.131579,122.000000);(196.107656,122.000000);(196.083732,122.000000);(196.059809,122.000000);(196.035885,122.000000);(196.011962,122.000000);(195.988038,122.000000);(195.964115,122.000000);(195.940191,122.000000);(195.916268,122.000000);(195.892344,122.000000);(195.868421,122.000000);(195.844498,122.000000);(195.820574,122.000000);(195.796651,122.000000);(195.772727,122.000000);(195.748804,122.000000);(195.724880,122.000000);(195.700957,122.000000);(195.677033,122.000000);(195.653110,122.000000);(195.629187,122.000000);(195.605263,122.000000);(195.581340,122.000000);(195.557416,122.000000);(195.533493,122.000000);(195.509569,122.000000);(195.485646,122.000000);(195.461722,122.000000);(195.437799,122.000000);(195.413876,122.000000);(195.389952,122.000000);(195.366029,122.000000);(195.342105,122.000000);(195.318182,122.000000);(195.294258,122.000000);(195.270335,122.000000);(195.246411,122.000000);(195.222488,122.000000);(195.198565,122.000000);(195.174641,122.000000);(195.150718,122.000000);(195.126794,122.000000);(195.102871,122.000000);(195.078947,122.000000);(195.055024,122.000000);(195.031100,122.000000);(195.007177,122.000000);(194.983254,122.000000);(194.959330,122.000000);(194.935407,122.000000);(194.911483,122.000000);(194.887560,122.000000);(194.863636,122.000000);(194.839713,122.000000);(194.815789,122.000000);(194.791866,122.000000);(194.767943,122.000000);(194.744019,122.000000);(194.720096,122.000000);(194.696172,122.000000);(194.672249,122.000000);(194.648325,122.000000);(194.624402,122.000000);(194.600478,122.000000);(194.576555,122.000000);(194.552632,122.000000);(194.528708,122.000000);(194.504785,122.000000);(194.480861,122.000000);(194.456938,122.000000);(194.433014,122.000000);(194.409091,122.000000);(194.385167,122.000000);(194.361244,122.000000);(194.337321,122.000000);(194.313397,122.000000);(194.289474,122.000000);(194.265550,122.000000);(194.241627,122.000000);(194.217703,122.000000);(194.193780,122.000000);(194.169856,122.000000);(194.145933,122.000000);(194.122010,122.000000);(194.098086,122.000000);(194.074163,122.000000);(194.050239,122.000000);(194.026316,122.000000);(194.002392,122.000000);(193.978469,122.000000);(193.954545,122.000000);(193.930622,122.000000);(193.906699,122.000000);(193.882775,122.000000);(193.858852,122.000000);(193.834928,122.000000);(193.811005,122.000000);(193.787081,122.000000);(193.763158,122.000000);(193.739234,122.000000);(193.715311,122.000000);(193.691388,122.000000);(193.667464,122.000000);(193.643541,122.000000);(193.619617,122.000000);(193.595694,122.000000);(193.571770,122.000000);(193.547847,122.000000);(193.523923,122.000000);(193.500000,122.000000);(193.476077,122.000000);(193.452153,122.000000);(193.428230,122.000000);(193.404306,122.000000);(193.380383,122.000000);(193.356459,122.000000);(193.332536,122.000000);(193.308612,122.000000);(193.284689,122.000000);(193.260766,122.000000);(193.236842,122.000000);(193.212919,122.000000);(193.188995,122.000000);(193.165072,122.000000);(193.141148,122.000000);(193.117225,122.000000);(193.093301,122.000000);(193.069378,122.000000);(193.045455,122.000000);(193.021531,122.000000);(192.997608,122.000000);(192.973684,122.000000);(192.949761,122.000000);(192.925837,122.000000);(192.901914,122.000000);(192.877990,122.000000);(192.854067,122.000000);(192.830144,122.000000);(192.806220,122.000000);(192.782297,122.000000);(192.758373,122.000000);(192.734450,122.000000);(192.710526,122.000000);(192.686603,122.000000);(192.662679,122.000000);(192.638756,122.000000);(192.614833,122.000000);(192.590909,122.000000);(192.566986,122.000000);(192.543062,122.000000);(192.519139,122.000000);(192.495215,122.000000);(192.471292,122.000000);(192.447368,122.000000);(192.423445,122.000000);(192.399522,122.000000);(192.375598,122.000000);(192.351675,122.000000);(192.327751,122.000000);(192.303828,122.000000);(192.279904,122.000000);(192.255981,122.000000);(192.232057,122.000000);(192.208134,122.000000);(192.184211,122.000000);(192.160287,122.000000);(192.136364,122.000000);(192.112440,122.000000);(192.088517,122.000000);(192.064593,122.000000);(192.040670,122.000000);(192.016746,122.000000);(191.992823,122.000000);(191.968900,122.000000);(191.944976,122.000000);(191.921053,122.000000);(191.897129,122.000000);(191.873206,122.000000);(191.849282,122.000000);(191.825359,122.000000);(191.801435,122.000000);(191.777512,122.000000);(191.753589,122.000000);(191.729665,122.000000);(191.705742,122.000000);(191.681818,122.000000);(191.657895,122.000000);(191.633971,122.000000);(191.610048,122.000000);(191.586124,122.000000);(191.562201,122.000000);(191.538278,122.000000);(191.514354,122.000000);(191.490431,122.000000);(191.466507,122.000000);(191.442584,122.000000);(191.418660,122.000000);(191.394737,122.000000);(191.370813,122.000000);(191.346890,122.000000);(191.322967,122.000000);(191.299043,122.000000);(191.275120,122.000000);(191.251196,122.000000);(191.227273,122.000000);(191.203349,122.000000);(191.179426,122.000000);(191.155502,122.000000);(191.131579,122.000000);(191.107656,122.000000);(191.083732,122.000000);(191.059809,122.000000);(191.035885,122.000000);(191.011962,122.000000);(190.988038,122.000000);(190.964115,122.000000);</t>
+    <t>200.509569_122.000000;200.485646_122.000000;200.461722_122.000000;200.437799_122.000000;200.413876_122.000000;200.389952_122.000000;200.366029_122.000000;200.342105_122.000000;200.318182_122.000000;200.294258_122.000000;200.270335_122.000000;200.246411_122.000000;200.222488_122.000000;200.198565_122.000000;200.174641_122.000000;200.150718_122.000000;200.126794_122.000000;200.102871_122.000000;200.078947_122.000000;200.055024_122.000000;200.031100_122.000000;200.007177_122.000000;199.983254_122.000000;199.959330_122.000000;199.935407_122.000000;199.911483_122.000000;199.887560_122.000000;199.863636_122.000000;199.839713_122.000000;199.815789_122.000000;199.791866_122.000000;199.767943_122.000000;199.744019_122.000000;199.720096_122.000000;199.696172_122.000000;199.672249_122.000000;199.648325_122.000000;199.624402_122.000000;199.600478_122.000000;199.576555_122.000000;199.552632_122.000000;199.528708_122.000000;199.504785_122.000000;199.480861_122.000000;199.456938_122.000000;199.433014_122.000000;199.409091_122.000000;199.385167_122.000000;199.361244_122.000000;199.337321_122.000000;199.313397_122.000000;199.289474_122.000000;199.265550_122.000000;199.241627_122.000000;199.217703_122.000000;199.193780_122.000000;199.169856_122.000000;199.145933_122.000000;199.122010_122.000000;199.098086_122.000000;199.074163_122.000000;199.050239_122.000000;199.026316_122.000000;199.002392_122.000000;198.978469_122.000000;198.954545_122.000000;198.930622_122.000000;198.906699_122.000000;198.882775_122.000000;198.858852_122.000000;198.834928_122.000000;198.811005_122.000000;198.787081_122.000000;198.763158_122.000000;198.739234_122.000000;198.715311_122.000000;198.691388_122.000000;198.667464_122.000000;198.643541_122.000000;198.619617_122.000000;198.595694_122.000000;198.571770_122.000000;198.547847_122.000000;198.523923_122.000000;198.500000_122.000000;198.476077_122.000000;198.452153_122.000000;198.428230_122.000000;198.404306_122.000000;198.380383_122.000000;198.356459_122.000000;198.332536_122.000000;198.308612_122.000000;198.284689_122.000000;198.260766_122.000000;198.236842_122.000000;198.212919_122.000000;198.188995_122.000000;198.165072_122.000000;198.141148_122.000000;198.117225_122.000000;198.093301_122.000000;198.069378_122.000000;198.045455_122.000000;198.021531_122.000000;197.997608_122.000000;197.973684_122.000000;197.949761_122.000000;197.925837_122.000000;197.901914_122.000000;197.877990_122.000000;197.854067_122.000000;197.830144_122.000000;197.806220_122.000000;197.782297_122.000000;197.758373_122.000000;197.734450_122.000000;197.710526_122.000000;197.686603_122.000000;197.662679_122.000000;197.638756_122.000000;197.614833_122.000000;197.590909_122.000000;197.566986_122.000000;197.543062_122.000000;197.519139_122.000000;197.495215_122.000000;197.471292_122.000000;197.447368_122.000000;197.423445_122.000000;197.399522_122.000000;197.375598_122.000000;197.351675_122.000000;197.327751_122.000000;197.303828_122.000000;197.279904_122.000000;197.255981_122.000000;197.232057_122.000000;197.208134_122.000000;197.184211_122.000000;197.160287_122.000000;197.136364_122.000000;197.112440_122.000000;197.088517_122.000000;197.064593_122.000000;197.040670_122.000000;197.016746_122.000000;196.992823_122.000000;196.968900_122.000000;196.944976_122.000000;196.921053_122.000000;196.897129_122.000000;196.873206_122.000000;196.849282_122.000000;196.825359_122.000000;196.801435_122.000000;196.777512_122.000000;196.753589_122.000000;196.729665_122.000000;196.705742_122.000000;196.681818_122.000000;196.657895_122.000000;196.633971_122.000000;196.610048_122.000000;196.586124_122.000000;196.562201_122.000000;196.538278_122.000000;196.514354_122.000000;196.490431_122.000000;196.466507_122.000000;196.442584_122.000000;196.418660_122.000000;196.394737_122.000000;196.370813_122.000000;196.346890_122.000000;196.322967_122.000000;196.299043_122.000000;196.275120_122.000000;196.251196_122.000000;196.227273_122.000000;196.203349_122.000000;196.179426_122.000000;196.155502_122.000000;196.131579_122.000000;196.107656_122.000000;196.083732_122.000000;196.059809_122.000000;196.035885_122.000000;196.011962_122.000000;195.988038_122.000000;195.964115_122.000000;195.940191_122.000000;195.916268_122.000000;195.892344_122.000000;195.868421_122.000000;195.844498_122.000000;195.820574_122.000000;195.796651_122.000000;195.772727_122.000000;195.748804_122.000000;195.724880_122.000000;195.700957_122.000000;195.677033_122.000000;195.653110_122.000000;195.629187_122.000000;195.605263_122.000000;195.581340_122.000000;195.557416_122.000000;195.533493_122.000000;195.509569_122.000000;195.485646_122.000000;195.461722_122.000000;195.437799_122.000000;195.413876_122.000000;195.389952_122.000000;195.366029_122.000000;195.342105_122.000000;195.318182_122.000000;195.294258_122.000000;195.270335_122.000000;195.246411_122.000000;195.222488_122.000000;195.198565_122.000000;195.174641_122.000000;195.150718_122.000000;195.126794_122.000000;195.102871_122.000000;195.078947_122.000000;195.055024_122.000000;195.031100_122.000000;195.007177_122.000000;194.983254_122.000000;194.959330_122.000000;194.935407_122.000000;194.911483_122.000000;194.887560_122.000000;194.863636_122.000000;194.839713_122.000000;194.815789_122.000000;194.791866_122.000000;194.767943_122.000000;194.744019_122.000000;194.720096_122.000000;194.696172_122.000000;194.672249_122.000000;194.648325_122.000000;194.624402_122.000000;194.600478_122.000000;194.576555_122.000000;194.552632_122.000000;194.528708_122.000000;194.504785_122.000000;194.480861_122.000000;194.456938_122.000000;194.433014_122.000000;194.409091_122.000000;194.385167_122.000000;194.361244_122.000000;194.337321_122.000000;194.313397_122.000000;194.289474_122.000000;194.265550_122.000000;194.241627_122.000000;194.217703_122.000000;194.193780_122.000000;194.169856_122.000000;194.145933_122.000000;194.122010_122.000000;194.098086_122.000000;194.074163_122.000000;194.050239_122.000000;194.026316_122.000000;194.002392_122.000000;193.978469_122.000000;193.954545_122.000000;193.930622_122.000000;193.906699_122.000000;193.882775_122.000000;193.858852_122.000000;193.834928_122.000000;193.811005_122.000000;193.787081_122.000000;193.763158_122.000000;193.739234_122.000000;193.715311_122.000000;193.691388_122.000000;193.667464_122.000000;193.643541_122.000000;193.619617_122.000000;193.595694_122.000000;193.571770_122.000000;193.547847_122.000000;193.523923_122.000000;193.500000_122.000000;193.476077_122.000000;193.452153_122.000000;193.428230_122.000000;193.404306_122.000000;193.380383_122.000000;193.356459_122.000000;193.332536_122.000000;193.308612_122.000000;193.284689_122.000000;193.260766_122.000000;193.236842_122.000000;193.212919_122.000000;193.188995_122.000000;193.165072_122.000000;193.141148_122.000000;193.117225_122.000000;193.093301_122.000000;193.069378_122.000000;193.045455_122.000000;193.021531_122.000000;192.997608_122.000000;192.973684_122.000000;192.949761_122.000000;192.925837_122.000000;192.901914_122.000000;192.877990_122.000000;192.854067_122.000000;192.830144_122.000000;192.806220_122.000000;192.782297_122.000000;192.758373_122.000000;192.734450_122.000000;192.710526_122.000000;192.686603_122.000000;192.662679_122.000000;192.638756_122.000000;192.614833_122.000000;192.590909_122.000000;192.566986_122.000000;192.543062_122.000000;192.519139_122.000000;192.495215_122.000000;192.471292_122.000000;192.447368_122.000000;192.423445_122.000000;192.399522_122.000000;192.375598_122.000000;192.351675_122.000000;192.327751_122.000000;192.303828_122.000000;192.279904_122.000000;192.255981_122.000000;192.232057_122.000000;192.208134_122.000000;192.184211_122.000000;192.160287_122.000000;192.136364_122.000000;192.112440_122.000000;192.088517_122.000000;192.064593_122.000000;192.040670_122.000000;192.016746_122.000000;191.992823_122.000000;191.968900_122.000000;191.944976_122.000000;191.921053_122.000000;191.897129_122.000000;191.873206_122.000000;191.849282_122.000000;191.825359_122.000000;191.801435_122.000000;191.777512_122.000000;191.753589_122.000000;191.729665_122.000000;191.705742_122.000000;191.681818_122.000000;191.657895_122.000000;191.633971_122.000000;191.610048_122.000000;191.586124_122.000000;191.562201_122.000000;191.538278_122.000000;191.514354_122.000000;191.490431_122.000000;191.466507_122.000000;191.442584_122.000000;191.418660_122.000000;191.394737_122.000000;191.370813_122.000000;191.346890_122.000000;191.322967_122.000000;191.299043_122.000000;191.275120_122.000000;191.251196_122.000000;191.227273_122.000000;191.203349_122.000000;191.179426_122.000000;191.155502_122.000000;191.131579_122.000000;191.107656_122.000000;191.083732_122.000000;191.059809_122.000000;191.035885_122.000000;191.011962_122.000000;190.988038_122.000000;190.964115_122.000000;</t>
   </si>
   <si>
-    <t>(190.964115,122.000000);(190.940191,122.000000);(190.916268,122.000000);(190.892344,122.000000);(190.868421,122.000000);(190.844498,122.000000);(190.820574,122.000000);(190.796651,122.000000);(190.772727,122.000000);(190.748804,122.000000);(190.724880,122.000000);(190.700957,122.000000);(190.677033,122.000000);(190.653110,122.000000);(190.629187,122.000000);(190.605263,122.000000);(190.581340,122.000000);(190.557416,122.000000);(190.533493,122.000000);(190.509569,122.000000);(190.485646,122.000000);(190.461722,122.000000);(190.437799,122.000000);(190.413876,122.000000);(190.389952,122.000000);(190.366029,122.000000);(190.342105,122.000000);(190.318182,122.000000);(190.294258,122.000000);(190.270335,122.000000);(190.246411,122.000000);(190.222488,122.000000);(190.198565,122.000000);(190.174641,122.000000);(190.150718,122.000000);(190.126794,122.000000);(190.102871,122.000000);(190.078947,122.000000);(190.055024,122.000000);(190.031100,122.000000);(190.007177,122.000000);(189.983254,122.000000);(189.959330,122.000000);(189.935407,122.000000);(189.911483,122.000000);(189.887560,122.000000);(189.863636,122.000000);(189.839713,122.000000);(189.815789,122.000000);(189.791866,122.000000);(189.767943,122.000000);(189.744019,122.000000);(189.720096,122.000000);(189.696172,122.000000);(189.672249,122.000000);(189.648325,122.000000);(189.624402,122.000000);(189.600478,122.000000);(189.576555,122.000000);(189.552632,122.000000);(189.528708,122.000000);(189.504785,122.000000);(189.480861,122.000000);(189.456938,122.000000);(189.433014,122.000000);(189.409091,122.000000);(189.385167,122.000000);(189.361244,122.000000);(189.337321,122.000000);(189.313397,122.000000);(189.289474,122.000000);(189.265550,122.000000);(189.241627,122.000000);(189.217703,122.000000);(189.193780,122.000000);(189.169856,122.000000);(189.145933,122.000000);(189.122010,122.000000);(189.098086,122.000000);(189.074163,122.000000);(189.050239,122.000000);(189.026316,122.000000);(189.002392,122.000000);(188.978469,122.000000);(188.954545,122.000000);(188.930622,122.000000);(188.906699,122.000000);(188.882775,122.000000);(188.858852,122.000000);(188.834928,122.000000);(188.811005,122.000000);(188.787081,122.000000);(188.763158,122.000000);(188.739234,122.000000);(188.715311,122.000000);(188.691388,122.000000);(188.667464,122.000000);(188.643541,122.000000);(188.619617,122.000000);(188.595694,122.000000);(188.571770,122.000000);(188.547847,122.000000);(188.523923,122.000000);(188.500000,122.000000);(188.476077,122.000000);(188.452153,122.000000);(188.428230,122.000000);(188.404306,122.000000);(188.380383,122.000000);(188.356459,122.000000);(188.332536,122.000000);(188.308612,122.000000);(188.284689,122.000000);(188.260766,122.000000);(188.236842,122.000000);(188.212919,122.000000);(188.188995,122.000000);(188.165072,122.000000);(188.141148,122.000000);(188.117225,122.000000);(188.093301,122.000000);(188.069378,122.000000);(188.045455,122.000000);(188.021531,122.000000);(187.997608,122.000000);(187.973684,122.000000);(187.949761,122.000000);(187.925837,122.000000);(187.901914,122.000000);(187.877990,122.000000);(187.854067,122.000000);(187.830144,122.000000);(187.806220,122.000000);(187.782297,122.000000);(187.758373,122.000000);(187.734450,122.000000);(187.710526,122.000000);(187.686603,122.000000);(187.662679,122.000000);(187.638756,122.000000);(187.614833,122.000000);(187.590909,122.000000);(187.566986,122.000000);(187.543062,122.000000);(187.519139,122.000000);(187.495215,122.000000);(187.471292,122.000000);(187.447368,122.000000);(187.423445,122.000000);(187.399522,122.000000);(187.375598,122.000000);(187.351675,122.000000);(187.327751,122.000000);(187.303828,122.000000);(187.279904,122.000000);(187.255981,122.000000);(187.232057,122.000000);(187.208134,122.000000);(187.184211,122.000000);(187.160287,122.000000);(187.136364,122.000000);(187.112440,122.000000);(187.088517,122.000000);(187.064593,122.000000);(187.040670,122.000000);(187.016746,122.000000);(186.992823,122.000000);(186.968900,122.000000);(186.944976,122.000000);(186.921053,122.000000);(186.897129,122.000000);(186.873206,122.000000);(186.849282,122.000000);(186.825359,122.000000);(186.801435,122.000000);(186.777512,122.000000);(186.753589,122.000000);(186.729665,122.000000);(186.705742,122.000000);(186.681818,122.000000);(186.657895,122.000000);(186.633971,122.000000);(186.610048,122.000000);(186.586124,122.000000);(186.562201,122.000000);(186.538278,122.000000);(186.514354,122.000000);(186.490431,122.000000);(186.466507,122.000000);(186.442584,122.000000);(186.418660,122.000000);(186.394737,122.000000);(186.370813,122.000000);(186.346890,122.000000);(186.322967,122.000000);(186.299043,122.000000);(186.275120,122.000000);(186.251196,122.000000);(186.227273,122.000000);(186.203349,122.000000);</t>
+    <t>190.964115_122.000000;190.940191_122.000000;190.916268_122.000000;190.892344_122.000000;190.868421_122.000000;190.844498_122.000000;190.820574_122.000000;190.796651_122.000000;190.772727_122.000000;190.748804_122.000000;190.724880_122.000000;190.700957_122.000000;190.677033_122.000000;190.653110_122.000000;190.629187_122.000000;190.605263_122.000000;190.581340_122.000000;190.557416_122.000000;190.533493_122.000000;190.509569_122.000000;190.485646_122.000000;190.461722_122.000000;190.437799_122.000000;190.413876_122.000000;190.389952_122.000000;190.366029_122.000000;190.342105_122.000000;190.318182_122.000000;190.294258_122.000000;190.270335_122.000000;190.246411_122.000000;190.222488_122.000000;190.198565_122.000000;190.174641_122.000000;190.150718_122.000000;190.126794_122.000000;190.102871_122.000000;190.078947_122.000000;190.055024_122.000000;190.031100_122.000000;190.007177_122.000000;189.983254_122.000000;189.959330_122.000000;189.935407_122.000000;189.911483_122.000000;189.887560_122.000000;189.863636_122.000000;189.839713_122.000000;189.815789_122.000000;189.791866_122.000000;189.767943_122.000000;189.744019_122.000000;189.720096_122.000000;189.696172_122.000000;189.672249_122.000000;189.648325_122.000000;189.624402_122.000000;189.600478_122.000000;189.576555_122.000000;189.552632_122.000000;189.528708_122.000000;189.504785_122.000000;189.480861_122.000000;189.456938_122.000000;189.433014_122.000000;189.409091_122.000000;189.385167_122.000000;189.361244_122.000000;189.337321_122.000000;189.313397_122.000000;189.289474_122.000000;189.265550_122.000000;189.241627_122.000000;189.217703_122.000000;189.193780_122.000000;189.169856_122.000000;189.145933_122.000000;189.122010_122.000000;189.098086_122.000000;189.074163_122.000000;189.050239_122.000000;189.026316_122.000000;189.002392_122.000000;188.978469_122.000000;188.954545_122.000000;188.930622_122.000000;188.906699_122.000000;188.882775_122.000000;188.858852_122.000000;188.834928_122.000000;188.811005_122.000000;188.787081_122.000000;188.763158_122.000000;188.739234_122.000000;188.715311_122.000000;188.691388_122.000000;188.667464_122.000000;188.643541_122.000000;188.619617_122.000000;188.595694_122.000000;188.571770_122.000000;188.547847_122.000000;188.523923_122.000000;188.500000_122.000000;188.476077_122.000000;188.452153_122.000000;188.428230_122.000000;188.404306_122.000000;188.380383_122.000000;188.356459_122.000000;188.332536_122.000000;188.308612_122.000000;188.284689_122.000000;188.260766_122.000000;188.236842_122.000000;188.212919_122.000000;188.188995_122.000000;188.165072_122.000000;188.141148_122.000000;188.117225_122.000000;188.093301_122.000000;188.069378_122.000000;188.045455_122.000000;188.021531_122.000000;187.997608_122.000000;187.973684_122.000000;187.949761_122.000000;187.925837_122.000000;187.901914_122.000000;187.877990_122.000000;187.854067_122.000000;187.830144_122.000000;187.806220_122.000000;187.782297_122.000000;187.758373_122.000000;187.734450_122.000000;187.710526_122.000000;187.686603_122.000000;187.662679_122.000000;187.638756_122.000000;187.614833_122.000000;187.590909_122.000000;187.566986_122.000000;187.543062_122.000000;187.519139_122.000000;187.495215_122.000000;187.471292_122.000000;187.447368_122.000000;187.423445_122.000000;187.399522_122.000000;187.375598_122.000000;187.351675_122.000000;187.327751_122.000000;187.303828_122.000000;187.279904_122.000000;187.255981_122.000000;187.232057_122.000000;187.208134_122.000000;187.184211_122.000000;187.160287_122.000000;187.136364_122.000000;187.112440_122.000000;187.088517_122.000000;187.064593_122.000000;187.040670_122.000000;187.016746_122.000000;186.992823_122.000000;186.968900_122.000000;186.944976_122.000000;186.921053_122.000000;186.897129_122.000000;186.873206_122.000000;186.849282_122.000000;186.825359_122.000000;186.801435_122.000000;186.777512_122.000000;186.753589_122.000000;186.729665_122.000000;186.705742_122.000000;186.681818_122.000000;186.657895_122.000000;186.633971_122.000000;186.610048_122.000000;186.586124_122.000000;186.562201_122.000000;186.538278_122.000000;186.514354_122.000000;186.490431_122.000000;186.466507_122.000000;186.442584_122.000000;186.418660_122.000000;186.394737_122.000000;186.370813_122.000000;186.346890_122.000000;186.322967_122.000000;186.299043_122.000000;186.275120_122.000000;186.251196_122.000000;186.227273_122.000000;186.203349_122.000000;</t>
   </si>
   <si>
-    <t>(185.923039,122.000129);(185.769116,122.000323);(185.615194,122.000400);(185.461271,122.000382);(185.307349,122.000293);(185.153426,122.000158);(184.999504,121.999999);(184.845581,121.999841);(184.691659,121.999706);(184.537736,121.999618);(184.383813,121.999601);(184.229891,121.999677);(184.075968,121.999872);(183.922046,122.000197);(183.768124,122.000603);(183.614202,122.000985);(183.460280,122.001224);(183.306357,122.001202);(183.152435,122.000804);(182.998515,121.999919);(182.844599,121.998581);(182.690684,121.997087);(182.536766,121.995875);(182.382845,121.995388);(182.228926,121.996079);(182.075025,121.998415);(181.921166,122.002690);(181.767345,122.008261);(181.613515,122.013553);(181.459637,122.016826);(181.305736,122.016428);(181.151951,122.010873);(180.998538,121.998990);(180.845645,121.981420);(180.692994,121.961694);(180.540043,121.944719);(180.386509,121.936005);(180.233135,121.942532);(180.083245,121.973076);(179.943836,122.034849);(179.820334,122.125164);(179.711598,122.233600);(179.612960,122.351620);(179.519606,122.473979);(179.427147,122.597033);(179.331289,122.717387);(179.227406,122.830661);(179.110582,122.929901);(178.977532,123.004625);(178.831096,123.047837);(178.678553,123.063280);(178.524893,123.059988);(178.371694,123.045770);(178.218968,123.026666);(178.066218,123.007786);(177.913001,122.993551);(177.759317,122.985832);(177.605435,122.983822);(177.451540,122.985997);(177.297690,122.990623);(177.143857,122.995852);(176.989991,122.999848);(176.836084,123.001576);(176.682164,123.001350);(176.528247,123.000085);(176.374331,122.998690);(176.220412,122.998070);(176.066498,122.999152);(175.912621,123.002603);(175.758789,123.007855);(175.604959,123.013157);(175.451084,123.016567);(175.297185,123.016233);(175.143411,123.010493);(174.990046,122.998071);(174.837242,122.979754);(174.684680,122.959347);(174.531779,122.941971);(174.378256,122.933413);(174.224992,122.941096);(174.075803,122.974313);(173.938345,123.040057);(173.817869,123.134390);(173.712367,123.246015);(173.616575,123.366381);(173.525372,123.490361);(173.434111,123.614297);(173.338135,123.734512);(173.232312,123.845819);(173.111396,123.939552);(172.973235,124.003294);(172.823287,124.031756);(172.669800,124.033710);(172.516424,124.021778);(172.363345,124.005737);(172.209949,123.994171);(172.056498,123.996955);(171.906176,124.024908);(171.764481,124.082349);(171.635389,124.164863);</t>
+    <t>185.923039_122.000129;185.769116_122.000323;185.615194_122.000400;185.461271_122.000382;185.307349_122.000293;185.153426_122.000158;184.999504_121.999999;184.845581_121.999841;184.691659_121.999706;184.537736_121.999618;184.383813_121.999601;184.229891_121.999677;184.075968_121.999872;183.922046_122.000197;183.768124_122.000603;183.614202_122.000985;183.460280_122.001224;183.306357_122.001202;183.152435_122.000804;182.998515_121.999919;182.844599_121.998581;182.690684_121.997087;182.536766_121.995875;182.382845_121.995388;182.228926_121.996079;182.075025_121.998415;181.921166_122.002690;181.767345_122.008261;181.613515_122.013553;181.459637_122.016826;181.305736_122.016428;181.151951_122.010873;180.998538_121.998990;180.845645_121.981420;180.692994_121.961694;180.540043_121.944719;180.386509_121.936005;180.233135_121.942532;180.083245_121.973076;179.943836_122.034849;179.820334_122.125164;179.711598_122.233600;179.612960_122.351620;179.519606_122.473979;179.427147_122.597033;179.331289_122.717387;179.227406_122.830661;179.110582_122.929901;178.977532_123.004625;178.831096_123.047837;178.678553_123.063280;178.524893_123.059988;178.371694_123.045770;178.218968_123.026666;178.066218_123.007786;177.913001_122.993551;177.759317_122.985832;177.605435_122.983822;177.451540_122.985997;177.297690_122.990623;177.143857_122.995852;176.989991_122.999848;176.836084_123.001576;176.682164_123.001350;176.528247_123.000085;176.374331_122.998690;176.220412_122.998070;176.066498_122.999152;175.912621_123.002603;175.758789_123.007855;175.604959_123.013157;175.451084_123.016567;175.297185_123.016233;175.143411_123.010493;174.990046_122.998071;174.837242_122.979754;174.684680_122.959347;174.531779_122.941971;174.378256_122.933413;174.224992_122.941096;174.075803_122.974313;173.938345_123.040057;173.817869_123.134390;173.712367_123.246015;173.616575_123.366381;173.525372_123.490361;173.434111_123.614297;173.338135_123.734512;173.232312_123.845819;173.111396_123.939552;172.973235_124.003294;172.823287_124.031756;172.669800_124.033710;172.516424_124.021778;172.363345_124.005737;172.209949_123.994171;172.056498_123.996955;171.906176_124.024908;171.764481_124.082349;171.635389_124.164863;</t>
   </si>
   <si>
-    <t>(171.635389,124.164863);(171.519522,124.265556);(171.415251,124.378478);(171.320188,124.499393);(171.231989,124.625473);(171.148589,124.754816);(171.068191,124.886065);(170.989184,125.018162);(170.910032,125.150172);(170.829166,125.281130);(170.744900,125.409903);(170.655332,125.535000);(170.558269,125.654284);(170.451253,125.764542);(170.331924,125.860974);(170.199073,125.937050);(170.054278,125.985859);(169.902466,126.004946);(169.748894,126.001338);(169.595734,125.986498);(169.442718,125.969935);(169.289242,125.960627);(169.136274,125.969651);(168.989728,126.010531);(168.858779,126.088095);(168.746357,126.192185);(168.647795,126.310126);(168.557044,126.434394);(168.468707,126.560442);(168.377731,126.684541);(168.278690,126.802063);(168.165527,126.905297);(168.033720,126.981232);(167.886480,127.018781);(167.733329,127.023100);(167.580140,127.009556);(167.427400,126.990574);(167.274238,126.976612);(167.121027,126.979968);(166.973409,127.016107);(166.841036,127.090918);(166.727508,127.193700);(166.628383,127.311136);(166.537513,127.435310);(166.449396,127.561511);(166.358927,127.685986);(166.260670,127.804183);(166.148534,127.908581);(166.017778,127.986441);(165.871264,128.027187);(165.718276,128.035531);(165.564846,128.025454);(165.411881,128.008409);(165.258716,127.993763);(165.105191,127.991774);(164.954245,128.015223);(164.812390,128.071378);(164.684601,128.155651);(164.570901,128.258789);(164.468339,128.373330);(164.373331,128.494354);(164.282580,128.618662);(164.193156,128.743942);(164.102329,128.868195);(164.007408,128.989298);(163.906553,129.105472);(163.799963,129.216443);(163.689106,129.323188);(163.575554,129.427088);(163.460910,129.529795);(163.346860,129.633154);(163.235258,129.739119);(163.128215,129.849631);(163.028138,129.966411);(162.937095,130.090324);(162.855383,130.220627);(162.781749,130.355708);(162.714640,130.494181);(162.652482,130.634971);(162.593749,130.777237);(162.536974,130.920304);(162.480742,131.063587);(162.423666,131.206533);(162.364364,131.348561);(162.301441,131.489008);(162.233483,131.627066);(162.159078,131.761728);(162.076882,131.891738);(161.985800,132.015641);(161.886009,132.132672);(161.779339,132.243545);(161.668046,132.349833);(161.554103,132.453306);(161.439281,132.555814);(161.325287,132.659232);(161.213905,132.765427);(161.107141,132.876209);(161.007297,132.993193);(160.916177,133.117068);(160.833903,133.247030);</t>
+    <t>171.635389_124.164863;171.519522_124.265556;171.415251_124.378478;171.320188_124.499393;171.231989_124.625473;171.148589_124.754816;171.068191_124.886065;170.989184_125.018162;170.910032_125.150172;170.829166_125.281130;170.744900_125.409903;170.655332_125.535000;170.558269_125.654284;170.451253_125.764542;170.331924_125.860974;170.199073_125.937050;170.054278_125.985859;169.902466_126.004946;169.748894_126.001338;169.595734_125.986498;169.442718_125.969935;169.289242_125.960627;169.136274_125.969651;168.989728_126.010531;168.858779_126.088095;168.746357_126.192185;168.647795_126.310126;168.557044_126.434394;168.468707_126.560442;168.377731_126.684541;168.278690_126.802063;168.165527_126.905297;168.033720_126.981232;167.886480_127.018781;167.733329_127.023100;167.580140_127.009556;167.427400_126.990574;167.274238_126.976612;167.121027_126.979968;166.973409_127.016107;166.841036_127.090918;166.727508_127.193700;166.628383_127.311136;166.537513_127.435310;166.449396_127.561511;166.358927_127.685986;166.260670_127.804183;166.148534_127.908581;166.017778_127.986441;165.871264_128.027187;165.718276_128.035531;165.564846_128.025454;165.411881_128.008409;165.258716_127.993763;165.105191_127.991774;164.954245_128.015223;164.812390_128.071378;164.684601_128.155651;164.570901_128.258789;164.468339_128.373330;164.373331_128.494354;164.282580_128.618662;164.193156_128.743942;164.102329_128.868195;164.007408_128.989298;163.906553_129.105472;163.799963_129.216443;163.689106_129.323188;163.575554_129.427088;163.460910_129.529795;163.346860_129.633154;163.235258_129.739119;163.128215_129.849631;163.028138_129.966411;162.937095_130.090324;162.855383_130.220627;162.781749_130.355708;162.714640_130.494181;162.652482_130.634971;162.593749_130.777237;162.536974_130.920304;162.480742_131.063587;162.423666_131.206533;162.364364_131.348561;162.301441_131.489008;162.233483_131.627066;162.159078_131.761728;162.076882_131.891738;161.985800_132.015641;161.886009_132.132672;161.779339_132.243545;161.668046_132.349833;161.554103_132.453306;161.439281_132.555814;161.325287_132.659232;161.213905_132.765427;161.107141_132.876209;161.007297_132.993193;160.916177_133.117068;160.833903_133.247030;</t>
   </si>
   <si>
-    <t>(160.833903,133.247030);(160.759388,133.381631);(160.691298,133.519625);(160.628222,133.660003);(160.568734,133.801954);(160.511429,133.944809);(160.454924,134.087985);(160.397845,134.230930);(160.338812,134.373073);(160.276428,134.513763);(160.209277,134.652220);(160.135946,134.787477);(160.055093,134.918336);(159.965699,135.043482);(159.868079,135.162354);(159.763893,135.275572);(159.654979,135.384290);(159.542945,135.489820);(159.429223,135.593543);(159.315132,135.696865);(159.201971,135.801195);(159.091092,135.907928);(158.983952,136.018382);(158.881668,136.133334);(158.784673,136.252783);(158.693055,136.376409);(158.606848,136.503870);(158.526030,136.634818);(158.450534,136.768908);(158.380253,136.905808);(158.315045,137.045200);(158.254745,137.186787);(158.199164,137.330295);(158.148102,137.475476);(158.101350,137.622105);(158.058695,137.769980);(158.019925,137.918923);(157.984829,138.068776);(157.953203,138.219401);(157.924847,138.370677);(157.899570,138.522500);(157.877188,138.674779);(157.857526,138.827433);(157.840418,138.980395);(157.825705,139.133607);(157.813236,139.287018);(157.802870,139.440586);(157.794470,139.594276);(157.787908,139.748055);(157.783063,139.901899);(157.779818,140.055785);(157.778064,140.209695);(157.777694,140.363615);(157.778608,140.517533);(157.780709,140.671440);(157.783906,140.825328);(157.788108,140.979192);(157.793230,141.133029);(157.799188,141.286836);(157.805900,141.440611);(157.813287,141.594356);(157.821271,141.748071);(157.829775,141.901758);(157.838723,142.055420);(157.848040,142.209061);(157.857650,142.362683);(157.867478,142.516292);(157.877446,142.669891);(157.887479,142.823486);(157.897497,142.977082);(157.907420,143.130684);(157.917164,143.284298);(157.926642,143.437929);(157.935766,143.591581);(157.944442,143.745258);(157.952570,143.898966);(157.960045,144.052706);(157.966757,144.206481);(157.972586,144.360293);(157.977403,144.514139);(157.981070,144.668017);(157.983436,144.821919);(157.984336,144.975836);(157.983589,145.129753);(157.980996,145.283649);(157.976333,145.437496);(157.969356,145.591255);(157.959787,145.744872);(157.947317,145.898278);(157.931597,146.051382);(157.912231,146.204064);(157.888774,146.356168);(157.860722,146.507488);(157.827507,146.657750);(157.788495,146.806600);(157.742983,146.953580);(157.690210,147.098097);(157.629382,147.239392);(157.559711,147.376514);(157.480483,147.508312);</t>
+    <t>160.833903_133.247030;160.759388_133.381631;160.691298_133.519625;160.628222_133.660003;160.568734_133.801954;160.511429_133.944809;160.454924_134.087985;160.397845_134.230930;160.338812_134.373073;160.276428_134.513763;160.209277_134.652220;160.135946_134.787477;160.055093_134.918336;159.965699_135.043482;159.868079_135.162354;159.763893_135.275572;159.654979_135.384290;159.542945_135.489820;159.429223_135.593543;159.315132_135.696865;159.201971_135.801195;159.091092_135.907928;158.983952_136.018382;158.881668_136.133334;158.784673_136.252783;158.693055_136.376409;158.606848_136.503870;158.526030_136.634818;158.450534_136.768908;158.380253_136.905808;158.315045_137.045200;158.254745_137.186787;158.199164_137.330295;158.148102_137.475476;158.101350_137.622105;158.058695_137.769980;158.019925_137.918923;157.984829_138.068776;157.953203_138.219401;157.924847_138.370677;157.899570_138.522500;157.877188_138.674779;157.857526_138.827433;157.840418_138.980395;157.825705_139.133607;157.813236_139.287018;157.802870_139.440586;157.794470_139.594276;157.787908_139.748055;157.783063_139.901899;157.779818_140.055785;157.778064_140.209695;157.777694_140.363615;157.778608_140.517533;157.780709_140.671440;157.783906_140.825328;157.788108_140.979192;157.793230_141.133029;157.799188_141.286836;157.805900_141.440611;157.813287_141.594356;157.821271_141.748071;157.829775_141.901758;157.838723_142.055420;157.848040_142.209061;157.857650_142.362683;157.867478_142.516292;157.877446_142.669891;157.887479_142.823486;157.897497_142.977082;157.907420_143.130684;157.917164_143.284298;157.926642_143.437929;157.935766_143.591581;157.944442_143.745258;157.952570_143.898966;157.960045_144.052706;157.966757_144.206481;157.972586_144.360293;157.977403_144.514139;157.981070_144.668017;157.983436_144.821919;157.984336_144.975836;157.983589_145.129753;157.980996_145.283649;157.976333_145.437496;157.969356_145.591255;157.959787_145.744872;157.947317_145.898278;157.931597_146.051382;157.912231_146.204064;157.888774_146.356168;157.860722_146.507488;157.827507_146.657750;157.788495_146.806600;157.742983_146.953580;157.690210_147.098097;157.629382_147.239392;157.559711_147.376514;157.480483_147.508312;</t>
   </si>
   <si>
-    <t>(157.000000,148.066753);(157.000000,148.200258);(157.000000,148.333764);(157.000000,148.467270);(157.000000,148.600775);(157.000000,148.734281);(157.000000,148.867786);(157.000000,149.001292);(157.000000,149.134798);(157.000000,149.268303);(157.000000,149.401809);(157.000000,149.535314);(157.000000,149.668820);(157.000000,149.802326);(157.000000,149.935831);(157.000000,150.069337);(157.000000,150.202842);(157.000000,150.336348);(157.000000,150.469854);(157.000000,150.603359);(157.000000,150.736865);(157.000000,150.870370);(157.000000,151.003876);(157.000000,151.137382);(157.000000,151.270887);(157.000000,151.404393);(157.000000,151.537898);(157.000000,151.671404);(157.000000,151.804910);(157.000000,151.938415);(157.000000,152.071921);(157.000000,152.205426);(157.000000,152.338932);(157.000000,152.472438);(157.000000,152.605943);(157.000000,152.739449);(157.000000,152.872954);(157.000000,153.006460);(157.000000,153.139966);(157.000000,153.273471);(157.000000,153.406977);(157.000000,153.540482);(157.000000,153.673988);(157.000000,153.807494);(157.000000,153.940999);(157.000000,154.074505);(157.000000,154.208010);(157.000000,154.341516);(157.000000,154.475022);(157.000000,154.608527);</t>
+    <t>157.000000_148.066753;157.000000_148.200258;157.000000_148.333764;157.000000_148.467270;157.000000_148.600775;157.000000_148.734281;157.000000_148.867786;157.000000_149.001292;157.000000_149.134798;157.000000_149.268303;157.000000_149.401809;157.000000_149.535314;157.000000_149.668820;157.000000_149.802326;157.000000_149.935831;157.000000_150.069337;157.000000_150.202842;157.000000_150.336348;157.000000_150.469854;157.000000_150.603359;157.000000_150.736865;157.000000_150.870370;157.000000_151.003876;157.000000_151.137382;157.000000_151.270887;157.000000_151.404393;157.000000_151.537898;157.000000_151.671404;157.000000_151.804910;157.000000_151.938415;157.000000_152.071921;157.000000_152.205426;157.000000_152.338932;157.000000_152.472438;157.000000_152.605943;157.000000_152.739449;157.000000_152.872954;157.000000_153.006460;157.000000_153.139966;157.000000_153.273471;157.000000_153.406977;157.000000_153.540482;157.000000_153.673988;157.000000_153.807494;157.000000_153.940999;157.000000_154.074505;157.000000_154.208010;157.000000_154.341516;157.000000_154.475022;157.000000_154.608527;</t>
   </si>
   <si>
-    <t>(157.000000,154.875538);(157.000000,155.009044);(157.000000,155.142550);(157.000000,155.276055);(157.000000,155.409561);(157.000000,155.543066);(157.000000,155.676572);(157.000000,155.810078);(157.000000,155.943583);(157.000000,156.077089);(157.000000,156.210594);(157.000000,156.344100);(157.000000,156.477606);(157.000000,156.611111);(157.000000,156.744617);(157.000000,156.878122);(157.000000,157.011628);(157.000000,157.145134);(157.000000,157.278639);(157.000000,157.412145);(157.000000,157.545650);(157.000000,157.679156);(157.000000,157.812661);(157.000000,157.946167);(157.000000,158.079673);(157.000000,158.213178);(157.000000,158.346684);(157.000000,158.480189);(157.000000,158.613695);(157.000000,158.747201);(157.000000,158.880706);(157.000000,159.014212);(157.000000,159.147717);(157.000000,159.281223);(157.000000,159.414729);(157.000000,159.548234);(157.000000,159.681740);(157.000000,159.815245);(157.000000,159.948751);(157.000000,160.082257);(157.000000,160.215762);(157.000000,160.349268);(157.000000,160.482773);(157.000000,160.616279);(157.000000,160.749785);(157.000000,160.883290);(157.000000,161.016796);(157.000000,161.150301);(157.000000,161.283807);(157.000000,161.417313);</t>
+    <t>157.000000_154.875538;157.000000_155.009044;157.000000_155.142550;157.000000_155.276055;157.000000_155.409561;157.000000_155.543066;157.000000_155.676572;157.000000_155.810078;157.000000_155.943583;157.000000_156.077089;157.000000_156.210594;157.000000_156.344100;157.000000_156.477606;157.000000_156.611111;157.000000_156.744617;157.000000_156.878122;157.000000_157.011628;157.000000_157.145134;157.000000_157.278639;157.000000_157.412145;157.000000_157.545650;157.000000_157.679156;157.000000_157.812661;157.000000_157.946167;157.000000_158.079673;157.000000_158.213178;157.000000_158.346684;157.000000_158.480189;157.000000_158.613695;157.000000_158.747201;157.000000_158.880706;157.000000_159.014212;157.000000_159.147717;157.000000_159.281223;157.000000_159.414729;157.000000_159.548234;157.000000_159.681740;157.000000_159.815245;157.000000_159.948751;157.000000_160.082257;157.000000_160.215762;157.000000_160.349268;157.000000_160.482773;157.000000_160.616279;157.000000_160.749785;157.000000_160.883290;157.000000_161.016796;157.000000_161.150301;157.000000_161.283807;157.000000_161.417313;</t>
   </si>
   <si>
-    <t>(157.000000,161.684324);(157.000000,161.817829);(157.000000,161.951335);(157.000000,162.084841);(157.000000,162.218346);(157.000000,162.351852);(157.000000,162.485357);(157.000000,162.618863);(157.000000,162.752369);(157.000000,162.885874);(157.000000,163.019380);(157.000000,163.152885);(157.000000,163.286391);(157.000000,163.419897);(157.000000,163.553402);(157.000000,163.686908);(157.000000,163.820413);(157.000000,163.953919);(157.000000,164.087425);(157.000000,164.220930);(157.000000,164.354436);(157.000000,164.487941);(157.000000,164.621447);(157.000000,164.754953);(157.000000,164.888458);(157.000000,165.021964);(157.000000,165.155469);(157.000000,165.288975);(157.000000,165.422481);(157.000000,165.555986);(157.000000,165.689492);(157.000000,165.822997);(157.000000,165.956503);(157.000000,166.090009);(157.000000,166.223514);(157.000000,166.357020);(157.000000,166.490525);(157.000000,166.624031);(157.000000,166.757537);(157.000000,166.891042);(157.000000,167.024548);(157.000000,167.158053);(157.000000,167.291559);(157.000000,167.425065);(157.000000,167.558570);(157.000000,167.692076);(157.000000,167.825581);(157.000000,167.959087);(157.000000,168.092593);(157.000000,168.226098);</t>
+    <t>157.000000_161.684324;157.000000_161.817829;157.000000_161.951335;157.000000_162.084841;157.000000_162.218346;157.000000_162.351852;157.000000_162.485357;157.000000_162.618863;157.000000_162.752369;157.000000_162.885874;157.000000_163.019380;157.000000_163.152885;157.000000_163.286391;157.000000_163.419897;157.000000_163.553402;157.000000_163.686908;157.000000_163.820413;157.000000_163.953919;157.000000_164.087425;157.000000_164.220930;157.000000_164.354436;157.000000_164.487941;157.000000_164.621447;157.000000_164.754953;157.000000_164.888458;157.000000_165.021964;157.000000_165.155469;157.000000_165.288975;157.000000_165.422481;157.000000_165.555986;157.000000_165.689492;157.000000_165.822997;157.000000_165.956503;157.000000_166.090009;157.000000_166.223514;157.000000_166.357020;157.000000_166.490525;157.000000_166.624031;157.000000_166.757537;157.000000_166.891042;157.000000_167.024548;157.000000_167.158053;157.000000_167.291559;157.000000_167.425065;157.000000_167.558570;157.000000_167.692076;157.000000_167.825581;157.000000_167.959087;157.000000_168.092593;157.000000_168.226098;</t>
   </si>
   <si>
-    <t>(157.000000,168.493109);(157.000000,168.626615);(157.000000,168.760121);(157.000000,168.893626);(157.000000,169.027132);(157.000000,169.160637);(157.000000,169.294143);(157.000000,169.427649);(157.000000,169.561154);(157.000000,169.694660);(157.000000,169.828165);(157.000000,169.961671);(157.000000,170.095177);(157.000000,170.228682);(157.000000,170.362188);(157.000000,170.495693);(157.000000,170.629199);(157.000000,170.762705);(157.000000,170.896210);(157.000000,171.029716);(157.000000,171.163221);(157.000000,171.296727);(157.000000,171.430233);(157.000000,171.563738);(157.000000,171.697244);(157.000000,171.830749);(157.000000,171.964255);(157.000000,172.097761);(157.000000,172.231266);(157.000000,172.364772);(157.000000,172.498277);(157.000000,172.631783);(157.000000,172.765289);(157.000000,172.898794);(157.000000,173.032300);(157.000000,173.165805);(157.000000,173.299311);(157.000000,173.432817);(157.000000,173.566322);(157.000000,173.699828);(157.000000,173.833333);(157.000000,173.966839);(157.000000,174.100345);(157.000000,174.233850);(157.000000,174.367356);(157.000000,174.500861);(157.000000,174.634367);(157.000000,174.767873);(157.000000,174.901378);(157.000000,175.034884);</t>
+    <t>157.000000_168.493109;157.000000_168.626615;157.000000_168.760121;157.000000_168.893626;157.000000_169.027132;157.000000_169.160637;157.000000_169.294143;157.000000_169.427649;157.000000_169.561154;157.000000_169.694660;157.000000_169.828165;157.000000_169.961671;157.000000_170.095177;157.000000_170.228682;157.000000_170.362188;157.000000_170.495693;157.000000_170.629199;157.000000_170.762705;157.000000_170.896210;157.000000_171.029716;157.000000_171.163221;157.000000_171.296727;157.000000_171.430233;157.000000_171.563738;157.000000_171.697244;157.000000_171.830749;157.000000_171.964255;157.000000_172.097761;157.000000_172.231266;157.000000_172.364772;157.000000_172.498277;157.000000_172.631783;157.000000_172.765289;157.000000_172.898794;157.000000_173.032300;157.000000_173.165805;157.000000_173.299311;157.000000_173.432817;157.000000_173.566322;157.000000_173.699828;157.000000_173.833333;157.000000_173.966839;157.000000_174.100345;157.000000_174.233850;157.000000_174.367356;157.000000_174.500861;157.000000_174.634367;157.000000_174.767873;157.000000_174.901378;157.000000_175.034884;</t>
   </si>
   <si>
-    <t>(157.000000,175.301895);(157.000000,175.435401);(157.000000,175.568906);(157.000000,175.702412);(157.000000,175.835917);(157.000000,175.969423);(157.000000,176.102929);(157.000000,176.236434);(157.000000,176.369940);(157.000000,176.503445);(157.000000,176.636951);(157.000000,176.770457);(157.000000,176.903962);(157.000000,177.037468);(157.000000,177.170973);(157.000000,177.304479);(157.000000,177.437984);(157.000000,177.571490);(157.000000,177.704996);(157.000000,177.838501);(157.000000,177.972007);(157.000000,178.105512);(157.000000,178.239018);(157.000000,178.372524);(157.000000,178.506029);(157.000000,178.639535);(157.000000,178.773040);(157.000000,178.906546);(157.000000,179.040052);(157.000000,179.173557);(157.000000,179.307063);(157.000000,179.440568);(157.000000,179.574074);(157.000000,179.707580);(157.000000,179.841085);(157.000000,179.974591);(157.000000,180.108096);(157.000000,180.241602);(157.000000,180.375108);(157.000000,180.508613);(157.000000,180.642119);(157.000000,180.775624);(157.000000,180.909130);(157.000000,181.042636);(157.000000,181.176141);(157.000000,181.309647);(157.000000,181.443152);(157.000000,181.576658);(157.000000,181.710164);(157.000000,181.843669);</t>
+    <t>157.000000_175.301895;157.000000_175.435401;157.000000_175.568906;157.000000_175.702412;157.000000_175.835917;157.000000_175.969423;157.000000_176.102929;157.000000_176.236434;157.000000_176.369940;157.000000_176.503445;157.000000_176.636951;157.000000_176.770457;157.000000_176.903962;157.000000_177.037468;157.000000_177.170973;157.000000_177.304479;157.000000_177.437984;157.000000_177.571490;157.000000_177.704996;157.000000_177.838501;157.000000_177.972007;157.000000_178.105512;157.000000_178.239018;157.000000_178.372524;157.000000_178.506029;157.000000_178.639535;157.000000_178.773040;157.000000_178.906546;157.000000_179.040052;157.000000_179.173557;157.000000_179.307063;157.000000_179.440568;157.000000_179.574074;157.000000_179.707580;157.000000_179.841085;157.000000_179.974591;157.000000_180.108096;157.000000_180.241602;157.000000_180.375108;157.000000_180.508613;157.000000_180.642119;157.000000_180.775624;157.000000_180.909130;157.000000_181.042636;157.000000_181.176141;157.000000_181.309647;157.000000_181.443152;157.000000_181.576658;157.000000_181.710164;157.000000_181.843669;</t>
   </si>
   <si>
-    <t>(157.000000,182.110680);(157.000000,182.244186);(157.000000,182.377692);(157.000000,182.511197);(157.000000,182.644703);(157.000000,182.778208);(157.000000,182.911714);(157.000000,183.045220);(157.000000,183.178725);(157.000000,183.312231);(157.000000,183.445736);(157.000000,183.579242);(157.000000,183.712748);(157.000000,183.846253);(157.000000,183.979759);(157.000000,184.113264);(157.000000,184.246770);(157.000000,184.380276);(157.000000,184.513781);(157.000000,184.647287);(157.000000,184.780792);(157.000000,184.914298);(157.000000,185.047804);(157.000000,185.181309);(157.000000,185.314815);(157.000000,185.448320);(157.000000,185.581826);(157.000000,185.715332);(157.000000,185.848837);(157.000000,185.982343);(157.000000,186.115848);(157.000000,186.249354);(157.000000,186.382860);(157.000000,186.516365);(157.000000,186.649871);(157.000000,186.783376);(157.000000,186.916882);(157.000000,187.050388);(157.000000,187.183893);(157.000000,187.317399);(157.000000,187.450904);(157.000000,187.584410);(157.000000,187.717916);(157.000000,187.851421);(157.000000,187.984927);(157.000000,188.118432);(157.000000,188.251938);(157.000000,188.385444);(157.000000,188.518949);(157.000000,188.652455);(157.000000,188.785960);(157.000000,188.919466);(157.000000,189.052972);(157.000000,189.186477);(157.000000,189.319983);(157.000000,189.453488);(157.000000,189.586994);(157.000000,189.720500);(157.000000,189.854005);(157.000000,189.987511);</t>
+    <t>157.000000_182.110680;157.000000_182.244186;157.000000_182.377692;157.000000_182.511197;157.000000_182.644703;157.000000_182.778208;157.000000_182.911714;157.000000_183.045220;157.000000_183.178725;157.000000_183.312231;157.000000_183.445736;157.000000_183.579242;157.000000_183.712748;157.000000_183.846253;157.000000_183.979759;157.000000_184.113264;157.000000_184.246770;157.000000_184.380276;157.000000_184.513781;157.000000_184.647287;157.000000_184.780792;157.000000_184.914298;157.000000_185.047804;157.000000_185.181309;157.000000_185.314815;157.000000_185.448320;157.000000_185.581826;157.000000_185.715332;157.000000_185.848837;157.000000_185.982343;157.000000_186.115848;157.000000_186.249354;157.000000_186.382860;157.000000_186.516365;157.000000_186.649871;157.000000_186.783376;157.000000_186.916882;157.000000_187.050388;157.000000_187.183893;157.000000_187.317399;157.000000_187.450904;157.000000_187.584410;157.000000_187.717916;157.000000_187.851421;157.000000_187.984927;157.000000_188.118432;157.000000_188.251938;157.000000_188.385444;157.000000_188.518949;157.000000_188.652455;157.000000_188.785960;157.000000_188.919466;157.000000_189.052972;157.000000_189.186477;157.000000_189.319983;157.000000_189.453488;157.000000_189.586994;157.000000_189.720500;157.000000_189.854005;157.000000_189.987511;</t>
   </si>
   <si>
-    <t>(157.000000,190.254522);(157.000000,190.388028);(157.000000,190.521533);(157.000000,190.655039);(157.000000,190.788544);(157.000000,190.922050);(157.000000,191.055556);(157.000000,191.189061);(157.000000,191.322567);(157.000000,191.456072);(157.000000,191.589578);(157.000000,191.723084);(157.000000,191.856589);(157.000000,191.990095);(157.000000,192.123600);(157.000000,192.257106);(157.000000,192.390612);(157.000000,192.524117);(157.000000,192.657623);(157.000000,192.791128);(157.000000,192.924634);(157.000000,193.058140);(157.000000,193.191645);(157.000000,193.325151);(157.000000,193.458656);(157.000000,193.592162);(157.000000,193.725668);(157.000000,193.859173);(157.000000,193.992679);(157.000000,194.126184);(157.000000,194.259690);(157.000000,194.393196);(157.000000,194.526701);(157.000000,194.660207);(157.000000,194.793712);(157.000000,194.927218);(157.000000,195.060724);(157.000000,195.194229);(157.000000,195.327735);(157.000000,195.461240);(157.000000,195.594746);(157.000000,195.728252);(157.000000,195.861757);(157.000000,195.995263);(157.000000,196.128768);(157.000000,196.262274);(157.000000,196.395780);(157.000000,196.529285);(157.000000,196.662791);(157.000000,196.796296);(157.000000,196.929802);(157.000000,197.063307);(157.000000,197.196813);(157.000000,197.330319);(157.000000,197.463824);(157.000000,197.597330);(157.000000,197.730835);(157.000000,197.864341);(157.000000,197.997847);(157.000000,198.131352);</t>
+    <t>157.000000_190.254522;157.000000_190.388028;157.000000_190.521533;157.000000_190.655039;157.000000_190.788544;157.000000_190.922050;157.000000_191.055556;157.000000_191.189061;157.000000_191.322567;157.000000_191.456072;157.000000_191.589578;157.000000_191.723084;157.000000_191.856589;157.000000_191.990095;157.000000_192.123600;157.000000_192.257106;157.000000_192.390612;157.000000_192.524117;157.000000_192.657623;157.000000_192.791128;157.000000_192.924634;157.000000_193.058140;157.000000_193.191645;157.000000_193.325151;157.000000_193.458656;157.000000_193.592162;157.000000_193.725668;157.000000_193.859173;157.000000_193.992679;157.000000_194.126184;157.000000_194.259690;157.000000_194.393196;157.000000_194.526701;157.000000_194.660207;157.000000_194.793712;157.000000_194.927218;157.000000_195.060724;157.000000_195.194229;157.000000_195.327735;157.000000_195.461240;157.000000_195.594746;157.000000_195.728252;157.000000_195.861757;157.000000_195.995263;157.000000_196.128768;157.000000_196.262274;157.000000_196.395780;157.000000_196.529285;157.000000_196.662791;157.000000_196.796296;157.000000_196.929802;157.000000_197.063307;157.000000_197.196813;157.000000_197.330319;157.000000_197.463824;157.000000_197.597330;157.000000_197.730835;157.000000_197.864341;157.000000_197.997847;157.000000_198.131352;</t>
   </si>
   <si>
-    <t>(157.000000,198.398363);(157.000000,198.531869);(157.000000,198.665375);(157.000000,198.798880);(157.000000,198.932386);(157.000000,199.065891);(157.000000,199.199397);(157.000000,199.332903);(157.000000,199.466408);(157.000000,199.599914);(157.000000,199.733419);(157.000000,199.866925);(157.000000,200.000431);(157.000000,200.133936);(157.000000,200.267442);(157.000000,200.400947);(157.000000,200.534453);(157.000000,200.667959);(157.000000,200.801464);(157.000000,200.934970);(157.000000,201.068475);(157.000000,201.201981);(157.000000,201.335487);(157.000000,201.468992);(157.000000,201.602498);(157.000000,201.736003);(157.000000,201.869509);(157.000000,202.003015);(157.000000,202.136520);(157.000000,202.270026);(157.000000,202.403531);(157.000000,202.537037);(157.000000,202.670543);(157.000000,202.804048);(157.000000,202.937554);(157.000000,203.071059);(157.000000,203.204565);(157.000000,203.338071);(157.000000,203.471576);(157.000000,203.605082);(157.000000,203.738587);(157.000000,203.872093);(157.000000,204.005599);(157.000000,204.139104);(157.000000,204.272610);(157.000000,204.406115);(157.000000,204.539621);(157.000000,204.673127);(157.000000,204.806632);(157.000000,204.940138);</t>
+    <t>157.000000_198.398363;157.000000_198.531869;157.000000_198.665375;157.000000_198.798880;157.000000_198.932386;157.000000_199.065891;157.000000_199.199397;157.000000_199.332903;157.000000_199.466408;157.000000_199.599914;157.000000_199.733419;157.000000_199.866925;157.000000_200.000431;157.000000_200.133936;157.000000_200.267442;157.000000_200.400947;157.000000_200.534453;157.000000_200.667959;157.000000_200.801464;157.000000_200.934970;157.000000_201.068475;157.000000_201.201981;157.000000_201.335487;157.000000_201.468992;157.000000_201.602498;157.000000_201.736003;157.000000_201.869509;157.000000_202.003015;157.000000_202.136520;157.000000_202.270026;157.000000_202.403531;157.000000_202.537037;157.000000_202.670543;157.000000_202.804048;157.000000_202.937554;157.000000_203.071059;157.000000_203.204565;157.000000_203.338071;157.000000_203.471576;157.000000_203.605082;157.000000_203.738587;157.000000_203.872093;157.000000_204.005599;157.000000_204.139104;157.000000_204.272610;157.000000_204.406115;157.000000_204.539621;157.000000_204.673127;157.000000_204.806632;157.000000_204.940138;</t>
   </si>
   <si>
-    <t>(157.000000,205.207149);(157.000000,205.340655);(157.000000,205.474160);(157.000000,205.607666);(157.000000,205.741171);(157.000000,205.874677);(157.000000,206.008183);(157.000000,206.141688);(157.000000,206.275194);(157.000000,206.408699);(157.000000,206.542205);(157.000000,206.675711);(157.000000,206.809216);(157.000000,206.942722);(157.000000,207.076227);(157.000000,207.209733);(157.000000,207.343239);(157.000000,207.476744);(157.000000,207.610250);(157.000000,207.743755);(157.000000,207.877261);(157.000000,208.010767);(157.000000,208.144272);(157.000000,208.277778);(157.000000,208.411283);(157.000000,208.544789);(157.000000,208.678295);(157.000000,208.811800);(157.000000,208.945306);(157.000000,209.078811);(157.000000,209.212317);(157.000000,209.345823);(157.000000,209.479328);(157.000000,209.612834);(157.000000,209.746339);(157.000000,209.879845);(157.000000,210.013351);(157.000000,210.146856);(157.000000,210.280362);(157.000000,210.413867);(157.000000,210.547373);(157.000000,210.680879);(157.000000,210.814384);(157.000000,210.947890);(157.000000,211.081395);(157.000000,211.214901);(157.000000,211.348407);(157.000000,211.481912);(157.000000,211.615418);(157.000000,211.748923);</t>
+    <t>157.000000_205.207149;157.000000_205.340655;157.000000_205.474160;157.000000_205.607666;157.000000_205.741171;157.000000_205.874677;157.000000_206.008183;157.000000_206.141688;157.000000_206.275194;157.000000_206.408699;157.000000_206.542205;157.000000_206.675711;157.000000_206.809216;157.000000_206.942722;157.000000_207.076227;157.000000_207.209733;157.000000_207.343239;157.000000_207.476744;157.000000_207.610250;157.000000_207.743755;157.000000_207.877261;157.000000_208.010767;157.000000_208.144272;157.000000_208.277778;157.000000_208.411283;157.000000_208.544789;157.000000_208.678295;157.000000_208.811800;157.000000_208.945306;157.000000_209.078811;157.000000_209.212317;157.000000_209.345823;157.000000_209.479328;157.000000_209.612834;157.000000_209.746339;157.000000_209.879845;157.000000_210.013351;157.000000_210.146856;157.000000_210.280362;157.000000_210.413867;157.000000_210.547373;157.000000_210.680879;157.000000_210.814384;157.000000_210.947890;157.000000_211.081395;157.000000_211.214901;157.000000_211.348407;157.000000_211.481912;157.000000_211.615418;157.000000_211.748923;</t>
   </si>
   <si>
-    <t>(157.000000,212.015935);(157.000000,212.149440);(157.000000,212.282946);(157.000000,212.416451);(157.000000,212.549957);(157.000000,212.683463);(157.000000,212.816968);(157.000000,212.950474);(157.000000,213.083979);(157.000000,213.217485);(157.000000,213.350991);(157.000000,213.484496);(157.000000,213.618002);(157.000000,213.751507);(157.000000,213.885013);(157.000000,214.018519);(157.000000,214.152024);(157.000000,214.285530);(157.000000,214.419035);(157.000000,214.552541);(157.000000,214.686047);(157.000000,214.819552);(157.000000,214.953058);(157.000000,215.086563);(157.000000,215.220069);(157.000000,215.353575);(157.000000,215.487080);(157.000000,215.620586);(157.000000,215.754091);(157.000000,215.887597);(157.000000,216.021102);(157.000000,216.154608);(157.000000,216.288114);(157.000000,216.421619);(157.000000,216.555125);(157.000000,216.688630);(157.000000,216.822136);(157.000000,216.955642);(157.000000,217.089147);(157.000000,217.222653);(157.000000,217.356158);(157.000000,217.489664);(157.000000,217.623170);(157.000000,217.756675);(157.000000,217.890181);(157.000000,218.023686);(157.000000,218.157192);(157.000000,218.290698);(157.000000,218.424203);(157.000000,218.557709);</t>
+    <t>157.000000_212.015935;157.000000_212.149440;157.000000_212.282946;157.000000_212.416451;157.000000_212.549957;157.000000_212.683463;157.000000_212.816968;157.000000_212.950474;157.000000_213.083979;157.000000_213.217485;157.000000_213.350991;157.000000_213.484496;157.000000_213.618002;157.000000_213.751507;157.000000_213.885013;157.000000_214.018519;157.000000_214.152024;157.000000_214.285530;157.000000_214.419035;157.000000_214.552541;157.000000_214.686047;157.000000_214.819552;157.000000_214.953058;157.000000_215.086563;157.000000_215.220069;157.000000_215.353575;157.000000_215.487080;157.000000_215.620586;157.000000_215.754091;157.000000_215.887597;157.000000_216.021102;157.000000_216.154608;157.000000_216.288114;157.000000_216.421619;157.000000_216.555125;157.000000_216.688630;157.000000_216.822136;157.000000_216.955642;157.000000_217.089147;157.000000_217.222653;157.000000_217.356158;157.000000_217.489664;157.000000_217.623170;157.000000_217.756675;157.000000_217.890181;157.000000_218.023686;157.000000_218.157192;157.000000_218.290698;157.000000_218.424203;157.000000_218.557709;</t>
   </si>
   <si>
-    <t>(157.000000,218.824720);(157.000000,218.958226);(157.000000,219.091731);(157.000000,219.225237);(157.000000,219.358742);(157.000000,219.492248);(157.000000,219.625754);(157.000000,219.759259);(157.000000,219.892765);(157.000000,220.026270);(157.000000,220.159776);(157.000000,220.293282);(157.000000,220.426787);(157.000000,220.560293);(157.000000,220.693798);(157.000000,220.827304);(157.000000,220.960810);(157.000000,221.094315);(157.000000,221.227821);(157.000000,221.361326);(157.000000,221.494832);(157.000000,221.628338);(157.000000,221.761843);(157.000000,221.895349);(157.000000,222.028854);(157.000000,222.162360);(157.000000,222.295866);(157.000000,222.429371);(157.000000,222.562877);(157.000000,222.696382);(157.000000,222.829888);(157.000000,222.963394);(157.000000,223.096899);(157.000000,223.230405);(157.000000,223.363910);(157.000000,223.497416);(157.000000,223.630922);(157.000000,223.764427);(157.000000,223.897933);(157.000000,224.031438);(157.000000,224.164944);(157.000000,224.298450);(157.000000,224.431955);(157.000000,224.565461);(157.000000,224.698966);(157.000000,224.832472);(157.000000,224.965978);(157.000000,225.099483);(157.000000,225.232989);(157.000000,225.366494);</t>
+    <t>157.000000_218.824720;157.000000_218.958226;157.000000_219.091731;157.000000_219.225237;157.000000_219.358742;157.000000_219.492248;157.000000_219.625754;157.000000_219.759259;157.000000_219.892765;157.000000_220.026270;157.000000_220.159776;157.000000_220.293282;157.000000_220.426787;157.000000_220.560293;157.000000_220.693798;157.000000_220.827304;157.000000_220.960810;157.000000_221.094315;157.000000_221.227821;157.000000_221.361326;157.000000_221.494832;157.000000_221.628338;157.000000_221.761843;157.000000_221.895349;157.000000_222.028854;157.000000_222.162360;157.000000_222.295866;157.000000_222.429371;157.000000_222.562877;157.000000_222.696382;157.000000_222.829888;157.000000_222.963394;157.000000_223.096899;157.000000_223.230405;157.000000_223.363910;157.000000_223.497416;157.000000_223.630922;157.000000_223.764427;157.000000_223.897933;157.000000_224.031438;157.000000_224.164944;157.000000_224.298450;157.000000_224.431955;157.000000_224.565461;157.000000_224.698966;157.000000_224.832472;157.000000_224.965978;157.000000_225.099483;157.000000_225.232989;157.000000_225.366494;</t>
   </si>
   <si>
-    <t>(157.000000,225.633506);(157.000000,225.767011);(157.000000,225.900517);(157.000000,226.034022);(157.000000,226.167528);(157.000000,226.301034);(157.000000,226.434539);(157.000000,226.568045);(157.000000,226.701550);(157.000000,226.835056);(157.000000,226.968562);(157.000000,227.102067);(157.000000,227.235573);(157.000000,227.369078);(157.000000,227.502584);(157.000000,227.636090);(157.000000,227.769595);(157.000000,227.903101);(157.000000,228.036606);(157.000000,228.170112);(157.000000,228.303618);(157.000000,228.437123);(157.000000,228.570629);(157.000000,228.704134);(157.000000,228.837640);(157.000000,228.971146);(157.000000,229.104651);(157.000000,229.238157);(157.000000,229.371662);(157.000000,229.505168);(157.000000,229.638674);(157.000000,229.772179);(157.000000,229.905685);(157.000000,230.039190);(157.000000,230.172696);(157.000000,230.306202);(157.000000,230.439707);(157.000000,230.573213);(157.000000,230.706718);(157.000000,230.840224);(157.000000,230.973730);(157.000000,231.107235);(157.000000,231.240741);(157.000000,231.374246);(157.000000,231.507752);(157.000000,231.641258);(157.000000,231.774763);(157.000000,231.908269);(157.000000,232.041774);(157.000000,232.175280);</t>
+    <t>157.000000_225.633506;157.000000_225.767011;157.000000_225.900517;157.000000_226.034022;157.000000_226.167528;157.000000_226.301034;157.000000_226.434539;157.000000_226.568045;157.000000_226.701550;157.000000_226.835056;157.000000_226.968562;157.000000_227.102067;157.000000_227.235573;157.000000_227.369078;157.000000_227.502584;157.000000_227.636090;157.000000_227.769595;157.000000_227.903101;157.000000_228.036606;157.000000_228.170112;157.000000_228.303618;157.000000_228.437123;157.000000_228.570629;157.000000_228.704134;157.000000_228.837640;157.000000_228.971146;157.000000_229.104651;157.000000_229.238157;157.000000_229.371662;157.000000_229.505168;157.000000_229.638674;157.000000_229.772179;157.000000_229.905685;157.000000_230.039190;157.000000_230.172696;157.000000_230.306202;157.000000_230.439707;157.000000_230.573213;157.000000_230.706718;157.000000_230.840224;157.000000_230.973730;157.000000_231.107235;157.000000_231.240741;157.000000_231.374246;157.000000_231.507752;157.000000_231.641258;157.000000_231.774763;157.000000_231.908269;157.000000_232.041774;157.000000_232.175280;</t>
   </si>
   <si>
-    <t>(157.000000,232.442291);(157.000000,232.575797);(157.000000,232.709302);(157.000000,232.842808);(157.000000,232.976314);(157.000000,233.109819);(157.000000,233.243325);(157.000000,233.376830);(157.000000,233.510336);(157.000000,233.643842);(157.000000,233.777347);(157.000000,233.910853);(157.000000,234.044358);(157.000000,234.177864);(157.000000,234.311370);(157.000000,234.444875);(157.000000,234.578381);(157.000000,234.711886);(157.000000,234.845392);(157.000000,234.978898);(157.000000,235.112403);(157.000000,235.245909);(157.000000,235.379414);(157.000000,235.512920);(157.000000,235.646425);(157.000000,235.779931);(157.000000,235.913437);(157.000000,236.046942);(157.000000,236.180448);(157.000000,236.313953);(157.000000,236.447459);(157.000000,236.580965);(157.000000,236.714470);(157.000000,236.847976);(157.000000,236.981481);(157.000000,237.114987);(157.000000,237.248493);(157.000000,237.381998);(157.000000,237.515504);(157.000000,237.649009);(157.000000,237.782515);(157.000000,237.916021);(157.000000,238.049526);(157.000000,238.183032);(157.000000,238.316537);(157.000000,238.450043);(157.000000,238.583549);(157.000000,238.717054);(157.000000,238.850560);(157.000000,238.984065);</t>
+    <t>157.000000_232.442291;157.000000_232.575797;157.000000_232.709302;157.000000_232.842808;157.000000_232.976314;157.000000_233.109819;157.000000_233.243325;157.000000_233.376830;157.000000_233.510336;157.000000_233.643842;157.000000_233.777347;157.000000_233.910853;157.000000_234.044358;157.000000_234.177864;157.000000_234.311370;157.000000_234.444875;157.000000_234.578381;157.000000_234.711886;157.000000_234.845392;157.000000_234.978898;157.000000_235.112403;157.000000_235.245909;157.000000_235.379414;157.000000_235.512920;157.000000_235.646425;157.000000_235.779931;157.000000_235.913437;157.000000_236.046942;157.000000_236.180448;157.000000_236.313953;157.000000_236.447459;157.000000_236.580965;157.000000_236.714470;157.000000_236.847976;157.000000_236.981481;157.000000_237.114987;157.000000_237.248493;157.000000_237.381998;157.000000_237.515504;157.000000_237.649009;157.000000_237.782515;157.000000_237.916021;157.000000_238.049526;157.000000_238.183032;157.000000_238.316537;157.000000_238.450043;157.000000_238.583549;157.000000_238.717054;157.000000_238.850560;157.000000_238.984065;</t>
   </si>
   <si>
-    <t>(157.000000,239.251077);(157.000000,239.384582);(157.000000,239.518088);(157.000000,239.651593);(157.000000,239.785099);(157.000000,239.918605);(157.000000,240.052110);(157.000000,240.185616);(157.000000,240.319121);(157.000000,240.452627);(157.000000,240.586133);(157.000000,240.719638);(157.000000,240.853144);(157.000000,240.986649);(157.000000,241.120155);(157.000000,241.253661);(157.000000,241.387166);(157.000000,241.520672);(157.000000,241.654177);(157.000000,241.787683);(157.000000,241.921189);(157.000000,242.054694);(157.000000,242.188200);(157.000000,242.321705);(157.000000,242.455211);(157.000000,242.588717);(157.000000,242.722222);(157.000000,242.855728);(157.000000,242.989233);(157.000000,243.122739);(157.000000,243.256245);(157.000000,243.389750);(157.000000,243.523256);(157.000000,243.656761);(157.000000,243.790267);(157.000000,243.923773);(157.000000,244.057278);(157.000000,244.190784);(157.000000,244.324289);(157.000000,244.457795);(157.000000,244.591301);(157.000000,244.724806);(157.000000,244.858312);(157.000000,244.991817);(157.000000,245.125323);(157.000000,245.258829);(157.000000,245.392334);(157.000000,245.525840);(157.000000,245.659345);(157.000000,245.792851);</t>
+    <t>157.000000_239.251077;157.000000_239.384582;157.000000_239.518088;157.000000_239.651593;157.000000_239.785099;157.000000_239.918605;157.000000_240.052110;157.000000_240.185616;157.000000_240.319121;157.000000_240.452627;157.000000_240.586133;157.000000_240.719638;157.000000_240.853144;157.000000_240.986649;157.000000_241.120155;157.000000_241.253661;157.000000_241.387166;157.000000_241.520672;157.000000_241.654177;157.000000_241.787683;157.000000_241.921189;157.000000_242.054694;157.000000_242.188200;157.000000_242.321705;157.000000_242.455211;157.000000_242.588717;157.000000_242.722222;157.000000_242.855728;157.000000_242.989233;157.000000_243.122739;157.000000_243.256245;157.000000_243.389750;157.000000_243.523256;157.000000_243.656761;157.000000_243.790267;157.000000_243.923773;157.000000_244.057278;157.000000_244.190784;157.000000_244.324289;157.000000_244.457795;157.000000_244.591301;157.000000_244.724806;157.000000_244.858312;157.000000_244.991817;157.000000_245.125323;157.000000_245.258829;157.000000_245.392334;157.000000_245.525840;157.000000_245.659345;157.000000_245.792851;</t>
   </si>
   <si>
-    <t>(157.000000,246.059862);(157.000000,246.193368);(157.000000,246.326873);(157.000000,246.460379);(157.000000,246.593885);(157.000000,246.727390);(157.000000,246.860896);(157.000000,246.994401);(157.000000,247.127907);(157.000000,247.261413);(157.000000,247.394918);(157.000000,247.528424);(157.000000,247.661929);(157.000000,247.795435);(157.000000,247.928941);(157.000000,248.062446);(157.000000,248.195952);(157.000000,248.329457);(157.000000,248.462963);(157.000000,248.596469);(157.000000,248.729974);(157.000000,248.863480);(157.000000,248.996985);(157.000000,249.130491);(157.000000,249.263997);(157.000000,249.397502);(157.000000,249.531008);(157.000000,249.664513);(157.000000,249.798019);(157.000000,249.931525);(157.000000,250.065030);(157.000000,250.198536);(157.000000,250.332041);(157.000000,250.465547);(157.000000,250.599053);(157.000000,250.732558);(157.000000,250.866064);(157.000000,250.999569);(157.000000,251.133075);(157.000000,251.266581);(157.000000,251.400086);(157.000000,251.533592);(157.000000,251.667097);(157.000000,251.800603);(157.000000,251.934109);(157.000000,252.067614);(157.000000,252.201120);(157.000000,252.334625);(157.000000,252.468131);(157.000000,252.601637);</t>
+    <t>157.000000_246.059862;157.000000_246.193368;157.000000_246.326873;157.000000_246.460379;157.000000_246.593885;157.000000_246.727390;157.000000_246.860896;157.000000_246.994401;157.000000_247.127907;157.000000_247.261413;157.000000_247.394918;157.000000_247.528424;157.000000_247.661929;157.000000_247.795435;157.000000_247.928941;157.000000_248.062446;157.000000_248.195952;157.000000_248.329457;157.000000_248.462963;157.000000_248.596469;157.000000_248.729974;157.000000_248.863480;157.000000_248.996985;157.000000_249.130491;157.000000_249.263997;157.000000_249.397502;157.000000_249.531008;157.000000_249.664513;157.000000_249.798019;157.000000_249.931525;157.000000_250.065030;157.000000_250.198536;157.000000_250.332041;157.000000_250.465547;157.000000_250.599053;157.000000_250.732558;157.000000_250.866064;157.000000_250.999569;157.000000_251.133075;157.000000_251.266581;157.000000_251.400086;157.000000_251.533592;157.000000_251.667097;157.000000_251.800603;157.000000_251.934109;157.000000_252.067614;157.000000_252.201120;157.000000_252.334625;157.000000_252.468131;157.000000_252.601637;</t>
   </si>
   <si>
-    <t>(157.000000,252.868648);(157.000000,253.002153);(157.000000,253.135659);(157.000000,253.269165);(157.000000,253.402670);(157.000000,253.536176);(157.000000,253.669681);(157.000000,253.803187);(157.000000,253.936693);(157.000000,254.070198);(157.000000,254.203704);(157.000000,254.337209);(157.000000,254.470715);(157.000000,254.604220);(157.000000,254.737726);(157.000000,254.871232);(157.000000,255.004737);(157.000000,255.138243);(157.000000,255.271748);(157.000000,255.405254);(157.000000,255.538760);(157.000000,255.672265);(157.000000,255.805771);(157.000000,255.939276);(157.000000,256.072782);(157.000000,256.206288);(157.000000,256.339793);(157.000000,256.473299);(157.000000,256.606804);(157.000000,256.740310);(157.000000,256.873816);(157.000000,257.007321);(157.000000,257.140827);(157.000000,257.274332);(157.000000,257.407838);(157.000000,257.541344);(157.000000,257.674849);(157.000000,257.808355);(157.000000,257.941860);(157.000000,258.075366);(157.000000,258.208872);(157.000000,258.342377);(157.000000,258.475883);(157.000000,258.609388);(157.000000,258.742894);(157.000000,258.876400);(157.000000,259.009905);(157.000000,259.143411);(157.000000,259.276916);(157.000000,259.410422);</t>
+    <t>157.000000_252.868648;157.000000_253.002153;157.000000_253.135659;157.000000_253.269165;157.000000_253.402670;157.000000_253.536176;157.000000_253.669681;157.000000_253.803187;157.000000_253.936693;157.000000_254.070198;157.000000_254.203704;157.000000_254.337209;157.000000_254.470715;157.000000_254.604220;157.000000_254.737726;157.000000_254.871232;157.000000_255.004737;157.000000_255.138243;157.000000_255.271748;157.000000_255.405254;157.000000_255.538760;157.000000_255.672265;157.000000_255.805771;157.000000_255.939276;157.000000_256.072782;157.000000_256.206288;157.000000_256.339793;157.000000_256.473299;157.000000_256.606804;157.000000_256.740310;157.000000_256.873816;157.000000_257.007321;157.000000_257.140827;157.000000_257.274332;157.000000_257.407838;157.000000_257.541344;157.000000_257.674849;157.000000_257.808355;157.000000_257.941860;157.000000_258.075366;157.000000_258.208872;157.000000_258.342377;157.000000_258.475883;157.000000_258.609388;157.000000_258.742894;157.000000_258.876400;157.000000_259.009905;157.000000_259.143411;157.000000_259.276916;157.000000_259.410422;</t>
   </si>
   <si>
-    <t>(157.000000,259.677433);(157.000000,259.810939);(157.000000,259.944444);(157.000000,260.077950);(157.000000,260.211456);(157.000000,260.344961);(157.000000,260.478467);(157.000000,260.611972);(157.000000,260.745478);(157.000000,260.878984);(157.000000,261.012489);(157.000000,261.145995);(157.000000,261.279500);(157.000000,261.413006);(157.000000,261.546512);(157.000000,261.680017);(157.000000,261.813523);(157.000000,261.947028);(157.000000,262.080534);(157.000000,262.214040);(157.000000,262.347545);(157.000000,262.481051);(157.000000,262.614556);(157.000000,262.748062);(157.000000,262.881568);(157.000000,263.015073);(157.000000,263.148579);(157.000000,263.282084);(157.000000,263.415590);(157.000000,263.549096);(157.000000,263.682601);(157.000000,263.816107);(157.000000,263.949612);(157.000000,264.083118);(157.000000,264.216624);(157.000000,264.350129);(157.000000,264.483635);(157.000000,264.617140);(157.000000,264.750646);(157.000000,264.884152);(157.000000,265.017657);(157.000000,265.151163);(157.000000,265.284668);(157.000000,265.418174);(157.000000,265.551680);(157.000000,265.685185);(157.000000,265.818691);(157.000000,265.952196);(157.000000,266.085702);(157.000000,266.219208);(157.000000,266.352713);(157.000000,266.486219);(157.000000,266.619724);(157.000000,266.753230);(157.000000,266.886736);(157.000000,267.020241);(157.000000,267.153747);(157.000000,267.287252);(157.000000,267.420758);(157.000000,267.554264);</t>
+    <t>157.000000_259.677433;157.000000_259.810939;157.000000_259.944444;157.000000_260.077950;157.000000_260.211456;157.000000_260.344961;157.000000_260.478467;157.000000_260.611972;157.000000_260.745478;157.000000_260.878984;157.000000_261.012489;157.000000_261.145995;157.000000_261.279500;157.000000_261.413006;157.000000_261.546512;157.000000_261.680017;157.000000_261.813523;157.000000_261.947028;157.000000_262.080534;157.000000_262.214040;157.000000_262.347545;157.000000_262.481051;157.000000_262.614556;157.000000_262.748062;157.000000_262.881568;157.000000_263.015073;157.000000_263.148579;157.000000_263.282084;157.000000_263.415590;157.000000_263.549096;157.000000_263.682601;157.000000_263.816107;157.000000_263.949612;157.000000_264.083118;157.000000_264.216624;157.000000_264.350129;157.000000_264.483635;157.000000_264.617140;157.000000_264.750646;157.000000_264.884152;157.000000_265.017657;157.000000_265.151163;157.000000_265.284668;157.000000_265.418174;157.000000_265.551680;157.000000_265.685185;157.000000_265.818691;157.000000_265.952196;157.000000_266.085702;157.000000_266.219208;157.000000_266.352713;157.000000_266.486219;157.000000_266.619724;157.000000_266.753230;157.000000_266.886736;157.000000_267.020241;157.000000_267.153747;157.000000_267.287252;157.000000_267.420758;157.000000_267.554264;</t>
   </si>
   <si>
-    <t>(157.000000,267.821275);(157.000000,267.954780);(157.000000,268.088286);(157.000000,268.221792);(157.000000,268.355297);(157.000000,268.488803);(157.000000,268.622308);(157.000000,268.755814);(157.000000,268.889320);(157.000000,269.022825);(157.000000,269.156331);(157.000000,269.289836);(157.000000,269.423342);(157.000000,269.556848);(157.000000,269.690353);(157.000000,269.823859);(157.000000,269.957364);(157.000000,270.090870);(157.000000,270.224376);(157.000000,270.357881);(157.000000,270.491387);(157.000000,270.624892);(157.000000,270.758398);(157.000000,270.891904);(157.000000,271.025409);(157.000000,271.158915);(157.000000,271.292420);(157.000000,271.425926);(157.000000,271.559432);(157.000000,271.692937);(157.000000,271.826443);(157.000000,271.959948);(157.000000,272.093454);(157.000000,272.226960);(157.000000,272.360465);(157.000000,272.493971);(157.000000,272.627476);(157.000000,272.760982);(157.000000,272.894488);(157.000000,273.027993);(157.000000,273.161499);(157.000000,273.295004);(157.000000,273.428510);(157.000000,273.562016);(157.000000,273.695521);(157.000000,273.829027);(157.000000,273.962532);(157.000000,274.096038);(157.000000,274.229543);(157.000000,274.363049);(157.000000,274.496555);(157.000000,274.630060);(157.000000,274.763566);(157.000000,274.897071);(157.000000,275.030577);(157.000000,275.164083);(157.000000,275.297588);(157.000000,275.431094);(157.000000,275.564599);(157.000000,275.698105);</t>
+    <t>157.000000_267.821275;157.000000_267.954780;157.000000_268.088286;157.000000_268.221792;157.000000_268.355297;157.000000_268.488803;157.000000_268.622308;157.000000_268.755814;157.000000_268.889320;157.000000_269.022825;157.000000_269.156331;157.000000_269.289836;157.000000_269.423342;157.000000_269.556848;157.000000_269.690353;157.000000_269.823859;157.000000_269.957364;157.000000_270.090870;157.000000_270.224376;157.000000_270.357881;157.000000_270.491387;157.000000_270.624892;157.000000_270.758398;157.000000_270.891904;157.000000_271.025409;157.000000_271.158915;157.000000_271.292420;157.000000_271.425926;157.000000_271.559432;157.000000_271.692937;157.000000_271.826443;157.000000_271.959948;157.000000_272.093454;157.000000_272.226960;157.000000_272.360465;157.000000_272.493971;157.000000_272.627476;157.000000_272.760982;157.000000_272.894488;157.000000_273.027993;157.000000_273.161499;157.000000_273.295004;157.000000_273.428510;157.000000_273.562016;157.000000_273.695521;157.000000_273.829027;157.000000_273.962532;157.000000_274.096038;157.000000_274.229543;157.000000_274.363049;157.000000_274.496555;157.000000_274.630060;157.000000_274.763566;157.000000_274.897071;157.000000_275.030577;157.000000_275.164083;157.000000_275.297588;157.000000_275.431094;157.000000_275.564599;157.000000_275.698105;</t>
   </si>
   <si>
-    <t>(157.000000,275.965116);(157.000000,276.098622);(157.000000,276.232127);(157.000000,276.365633);(157.000000,276.499139);(157.000000,276.632644);(157.000000,276.766150);(157.000000,276.899655);(157.000000,277.033161);(157.000000,277.166667);(157.000000,277.300172);(157.000000,277.433678);(157.000000,277.567183);(157.000000,277.700689);(157.000000,277.834195);(157.000000,277.967700);(157.000000,278.101206);(157.000000,278.234711);(157.000000,278.368217);(157.000000,278.501723);(157.000000,278.635228);(157.000000,278.768734);(157.000000,278.902239);(157.000000,279.035745);(157.000000,279.169251);(157.000000,279.302756);(157.000000,279.436262);(157.000000,279.569767);(157.000000,279.703273);(157.000000,279.836779);(157.000000,279.970284);(157.000000,280.103790);(157.000000,280.237295);(157.000000,280.370801);(157.000000,280.504307);(157.000000,280.637812);(157.000000,280.771318);(157.000000,280.904823);(157.000000,281.038329);(157.000000,281.171835);(157.000000,281.305340);(157.000000,281.438846);(157.000000,281.572351);(157.000000,281.705857);(157.000000,281.839363);(157.000000,281.972868);(157.000000,282.106374);(157.000000,282.239879);(157.000000,282.373385);(157.000000,282.506891);</t>
+    <t>157.000000_275.965116;157.000000_276.098622;157.000000_276.232127;157.000000_276.365633;157.000000_276.499139;157.000000_276.632644;157.000000_276.766150;157.000000_276.899655;157.000000_277.033161;157.000000_277.166667;157.000000_277.300172;157.000000_277.433678;157.000000_277.567183;157.000000_277.700689;157.000000_277.834195;157.000000_277.967700;157.000000_278.101206;157.000000_278.234711;157.000000_278.368217;157.000000_278.501723;157.000000_278.635228;157.000000_278.768734;157.000000_278.902239;157.000000_279.035745;157.000000_279.169251;157.000000_279.302756;157.000000_279.436262;157.000000_279.569767;157.000000_279.703273;157.000000_279.836779;157.000000_279.970284;157.000000_280.103790;157.000000_280.237295;157.000000_280.370801;157.000000_280.504307;157.000000_280.637812;157.000000_280.771318;157.000000_280.904823;157.000000_281.038329;157.000000_281.171835;157.000000_281.305340;157.000000_281.438846;157.000000_281.572351;157.000000_281.705857;157.000000_281.839363;157.000000_281.972868;157.000000_282.106374;157.000000_282.239879;157.000000_282.373385;157.000000_282.506891;</t>
   </si>
   <si>
-    <t>(157.000000,282.773902);(157.000000,282.907407);(157.000000,283.040913);(157.000000,283.174419);(157.000000,283.307924);(157.000000,283.441430);(157.000000,283.574935);(157.000000,283.708441);(157.000000,283.841947);(157.000000,283.975452);(157.000000,284.108958);(157.000000,284.242463);(157.000000,284.375969);(157.000000,284.509475);(157.000000,284.642980);(157.000000,284.776486);(157.000000,284.909991);(157.000000,285.043497);(157.000000,285.177003);(157.000000,285.310508);(157.000000,285.444014);(157.000000,285.577519);(157.000000,285.711025);(157.000000,285.844531);(157.000000,285.978036);(157.000000,286.111542);(157.000000,286.245047);(157.000000,286.378553);(157.000000,286.512059);(157.000000,286.645564);(157.000000,286.779070);(157.000000,286.912575);(157.000000,287.046081);(157.000000,287.179587);(157.000000,287.313092);(157.000000,287.446598);(157.000000,287.580103);(157.000000,287.713609);(157.000000,287.847115);(157.000000,287.980620);(157.000000,288.114126);(157.000000,288.247631);(157.000000,288.381137);(157.000000,288.514643);(157.000000,288.648148);(157.000000,288.781654);(157.000000,288.915159);(157.000000,289.048665);(157.000000,289.182171);(157.000000,289.315676);</t>
+    <t>157.000000_282.773902;157.000000_282.907407;157.000000_283.040913;157.000000_283.174419;157.000000_283.307924;157.000000_283.441430;157.000000_283.574935;157.000000_283.708441;157.000000_283.841947;157.000000_283.975452;157.000000_284.108958;157.000000_284.242463;157.000000_284.375969;157.000000_284.509475;157.000000_284.642980;157.000000_284.776486;157.000000_284.909991;157.000000_285.043497;157.000000_285.177003;157.000000_285.310508;157.000000_285.444014;157.000000_285.577519;157.000000_285.711025;157.000000_285.844531;157.000000_285.978036;157.000000_286.111542;157.000000_286.245047;157.000000_286.378553;157.000000_286.512059;157.000000_286.645564;157.000000_286.779070;157.000000_286.912575;157.000000_287.046081;157.000000_287.179587;157.000000_287.313092;157.000000_287.446598;157.000000_287.580103;157.000000_287.713609;157.000000_287.847115;157.000000_287.980620;157.000000_288.114126;157.000000_288.247631;157.000000_288.381137;157.000000_288.514643;157.000000_288.648148;157.000000_288.781654;157.000000_288.915159;157.000000_289.048665;157.000000_289.182171;157.000000_289.315676;</t>
   </si>
   <si>
-    <t>(157.000000,289.582687);(157.000000,289.716193);(157.000000,289.849699);(157.000000,289.983204);(157.000000,290.116710);(157.000000,290.250215);(157.000000,290.383721);(157.000000,290.517227);(157.000000,290.650732);(157.000000,290.784238);(157.000000,290.917743);(157.000000,291.051249);(157.000000,291.184755);(157.000000,291.318260);(157.000000,291.451766);(157.000000,291.585271);(157.000000,291.718777);(157.000000,291.852283);(157.000000,291.985788);(157.000000,292.119294);(157.000000,292.252799);(157.000000,292.386305);(157.000000,292.519811);(157.000000,292.653316);(157.000000,292.786822);(157.000000,292.920327);(157.000000,293.053833);(157.000000,293.187339);(157.000000,293.320844);(157.000000,293.454350);(157.000000,293.587855);(157.000000,293.721361);(157.000000,293.854866);(157.000000,293.988372);(157.000000,294.121878);(157.000000,294.255383);(157.000000,294.388889);(157.000000,294.522394);(157.000000,294.655900);(157.000000,294.789406);(157.000000,294.922911);(157.000000,295.056417);(157.000000,295.189922);(157.000000,295.323428);(157.000000,295.456934);(157.000000,295.590439);(157.000000,295.723945);(157.000000,295.857450);(157.000000,295.990956);(157.000000,296.124462);</t>
+    <t>157.000000_289.582687;157.000000_289.716193;157.000000_289.849699;157.000000_289.983204;157.000000_290.116710;157.000000_290.250215;157.000000_290.383721;157.000000_290.517227;157.000000_290.650732;157.000000_290.784238;157.000000_290.917743;157.000000_291.051249;157.000000_291.184755;157.000000_291.318260;157.000000_291.451766;157.000000_291.585271;157.000000_291.718777;157.000000_291.852283;157.000000_291.985788;157.000000_292.119294;157.000000_292.252799;157.000000_292.386305;157.000000_292.519811;157.000000_292.653316;157.000000_292.786822;157.000000_292.920327;157.000000_293.053833;157.000000_293.187339;157.000000_293.320844;157.000000_293.454350;157.000000_293.587855;157.000000_293.721361;157.000000_293.854866;157.000000_293.988372;157.000000_294.121878;157.000000_294.255383;157.000000_294.388889;157.000000_294.522394;157.000000_294.655900;157.000000_294.789406;157.000000_294.922911;157.000000_295.056417;157.000000_295.189922;157.000000_295.323428;157.000000_295.456934;157.000000_295.590439;157.000000_295.723945;157.000000_295.857450;157.000000_295.990956;157.000000_296.124462;</t>
   </si>
   <si>
-    <t>(157.000000,296.391473);(157.000000,296.524978);(157.000000,296.658484);(157.000000,296.791990);(157.000000,296.925495);(157.000000,297.059001);(157.000000,297.192506);(157.000000,297.326012);(157.000000,297.459518);(157.000000,297.593023);(157.000000,297.726529);(157.000000,297.860034);(157.000000,297.993540);(157.000000,298.127046);(157.000000,298.260551);(157.000000,298.394057);(157.000000,298.527562);(157.000000,298.661068);(157.000000,298.794574);(157.000000,298.928079);(157.000000,299.061585);(157.000000,299.195090);(157.000000,299.328596);(157.000000,299.462102);(157.000000,299.595607);(157.000000,299.729113);(157.000000,299.862618);(157.000000,299.996124);(157.000000,300.129630);(157.000000,300.263135);(157.000000,300.396641);(157.000000,300.530146);(157.000000,300.663652);(157.000000,300.797158);(157.000000,300.930663);(157.000000,301.064169);(157.000000,301.197674);(157.000000,301.331180);(157.000000,301.464686);(157.000000,301.598191);(157.000000,301.731697);(157.000000,301.865202);(157.000000,301.998708);(157.000000,302.132214);(157.000000,302.265719);(157.000000,302.399225);(157.000000,302.532730);(157.000000,302.666236);(157.000000,302.799742);(157.000000,302.933247);</t>
+    <t>157.000000_296.391473;157.000000_296.524978;157.000000_296.658484;157.000000_296.791990;157.000000_296.925495;157.000000_297.059001;157.000000_297.192506;157.000000_297.326012;157.000000_297.459518;157.000000_297.593023;157.000000_297.726529;157.000000_297.860034;157.000000_297.993540;157.000000_298.127046;157.000000_298.260551;157.000000_298.394057;157.000000_298.527562;157.000000_298.661068;157.000000_298.794574;157.000000_298.928079;157.000000_299.061585;157.000000_299.195090;157.000000_299.328596;157.000000_299.462102;157.000000_299.595607;157.000000_299.729113;157.000000_299.862618;157.000000_299.996124;157.000000_300.129630;157.000000_300.263135;157.000000_300.396641;157.000000_300.530146;157.000000_300.663652;157.000000_300.797158;157.000000_300.930663;157.000000_301.064169;157.000000_301.197674;157.000000_301.331180;157.000000_301.464686;157.000000_301.598191;157.000000_301.731697;157.000000_301.865202;157.000000_301.998708;157.000000_302.132214;157.000000_302.265719;157.000000_302.399225;157.000000_302.532730;157.000000_302.666236;157.000000_302.799742;157.000000_302.933247;</t>
   </si>
   <si>
-    <t>(156.872845,303.098728);(156.625884,303.304977);(156.394601,303.528630);(156.180822,303.769048);(155.986016,304.025080);(155.811139,304.295131);(155.656544,304.577310);(155.521980,304.869609);(155.406659,305.170059);(155.309391,305.476868);(155.228717,305.788486);(155.163039,306.103637);(155.110723,306.421305);(155.070161,306.740707);(155.039820,307.061257);(155.018255,307.382531);(155.004123,307.704227);(154.996174,308.026143);(154.993243,308.348150);(154.994240,308.670173);(154.998132,308.992176);(155.003935,309.314153);(155.010696,309.636113);(155.017480,309.958072);(155.023356,310.280047);(155.027385,310.602050);(155.028606,310.924072);(155.026024,311.246083);(155.018596,311.568012);(155.005222,311.889743);(154.984924,312.211105);(154.957354,312.531926);(154.922733,312.852065);(154.881390,313.171408);(154.833696,313.489866);(154.780052,313.807379);(154.720886,314.123913);(154.656649,314.439458);(154.587809,314.754034);(154.514850,315.067682);(154.438262,315.380467);(154.358544,315.692469);(154.276195,316.003789);(154.191718,316.314540);(154.105612,316.624844);(154.018371,316.934831);(153.930278,317.244578);(153.841053,317.554000);(153.750026,317.862894);(153.656494,318.171038);(153.559759,318.478188);(153.459124,318.784079);(153.353895,319.088417);(153.243383,319.390871);(153.126906,319.691074);(153.003810,319.988618);(152.873859,320.283232);(152.737628,320.575005);(152.596130,320.864267);(152.450377,321.151415);(152.301360,321.436887);(152.150049,321.721152);(151.997398,322.004703);(151.844445,322.288091);(151.692392,322.571961);(151.542542,322.856997);(151.396229,323.143857);(151.254830,323.433161);(151.119776,323.725468);(150.992518,324.021239);(150.873739,324.320518);(150.762714,324.622773);(150.657994,324.927282);(150.558064,325.233405);(150.461385,325.540577);</t>
+    <t>156.872845_303.098728;156.625884_303.304977;156.394601_303.528630;156.180822_303.769048;155.986016_304.025080;155.811139_304.295131;155.656544_304.577310;155.521980_304.869609;155.406659_305.170059;155.309391_305.476868;155.228717_305.788486;155.163039_306.103637;155.110723_306.421305;155.070161_306.740707;155.039820_307.061257;155.018255_307.382531;155.004123_307.704227;154.996174_308.026143;154.993243_308.348150;154.994240_308.670173;154.998132_308.992176;155.003935_309.314153;155.010696_309.636113;155.017480_309.958072;155.023356_310.280047;155.027385_310.602050;155.028606_310.924072;155.026024_311.246083;155.018596_311.568012;155.005222_311.889743;154.984924_312.211105;154.957354_312.531926;154.922733_312.852065;154.881390_313.171408;154.833696_313.489866;154.780052_313.807379;154.720886_314.123913;154.656649_314.439458;154.587809_314.754034;154.514850_315.067682;154.438262_315.380467;154.358544_315.692469;154.276195_316.003789;154.191718_316.314540;154.105612_316.624844;154.018371_316.934831;153.930278_317.244578;153.841053_317.554000;153.750026_317.862894;153.656494_318.171038;153.559759_318.478188;153.459124_318.784079;153.353895_319.088417;153.243383_319.390871;153.126906_319.691074;153.003810_319.988618;152.873859_320.283232;152.737628_320.575005;152.596130_320.864267;152.450377_321.151415;152.301360_321.436887;152.150049_321.721152;151.997398_322.004703;151.844445_322.288091;151.692392_322.571961;151.542542_322.856997;151.396229_323.143857;151.254830_323.433161;151.119776_323.725468;150.992518_324.021239;150.873739_324.320518;150.762714_324.622773;150.657994_324.927282;150.558064_325.233405;150.461385_325.540577;</t>
   </si>
   <si>
-    <t>(150.461385,325.540577);(150.366415,325.848284);(150.271623,326.156047);(150.175502,326.463395);(150.076575,326.769846);(149.973371,327.074876);(149.864068,327.377757);(149.746320,327.677427);(149.617566,327.972496);(149.475225,328.261201);(149.316756,328.541304);(149.139819,328.810030);(148.942844,329.064359);(148.727704,329.303664);(148.500001,329.531251);(148.265817,329.752272);(148.030574,329.972186);(147.798177,330.195083);(147.569383,330.421690);(147.342924,330.650640);(147.117327,330.880443);(146.891248,331.109770);(146.664136,331.338076);(146.436260,331.565619);(146.208052,331.792830);(145.979932,332.020128);(145.752127,332.247743);(145.524549,332.475584);(145.296959,332.703414);(145.069119,332.930993);(144.840895,333.158188);(144.612511,333.385222);(144.384465,333.612594);(144.157288,333.840834);(143.931406,334.070354);(143.706379,334.300715);(143.480671,334.530406);(143.252404,334.757539);(143.019731,334.980131);(142.782763,335.198169);(142.545952,335.416372);(142.316276,335.641925);(142.100554,335.880646);(141.902293,336.134088);(141.712768,336.394410);(141.511563,336.645191);(141.274337,336.858462);(140.987343,336.984926);(140.670560,337.009257);(140.349331,336.989495);(140.032082,337.010826);(139.744018,337.134121);(139.505897,337.346222);(139.303541,337.596114);(139.111000,337.854201);(138.906063,338.102062);(138.681078,338.332009);(138.445213,338.551214);(138.212444,338.773572);(137.995967,339.011360);(137.798079,339.265151);(137.603349,339.521519);(137.387256,339.758616);(137.125833,339.936763);(136.820697,340.011941);(136.499944,340.005724);(136.178893,339.994404);(135.868952,340.054129);(135.597186,340.215226);(135.374306,340.444773);(135.185760,340.705208);(135.013960,340.977503);(134.844060,341.251032);(134.661000,341.515519);(134.446461,341.753326);</t>
+    <t>150.461385_325.540577;150.366415_325.848284;150.271623_326.156047;150.175502_326.463395;150.076575_326.769846;149.973371_327.074876;149.864068_327.377757;149.746320_327.677427;149.617566_327.972496;149.475225_328.261201;149.316756_328.541304;149.139819_328.810030;148.942844_329.064359;148.727704_329.303664;148.500001_329.531251;148.265817_329.752272;148.030574_329.972186;147.798177_330.195083;147.569383_330.421690;147.342924_330.650640;147.117327_330.880443;146.891248_331.109770;146.664136_331.338076;146.436260_331.565619;146.208052_331.792830;145.979932_332.020128;145.752127_332.247743;145.524549_332.475584;145.296959_332.703414;145.069119_332.930993;144.840895_333.158188;144.612511_333.385222;144.384465_333.612594;144.157288_333.840834;143.931406_334.070354;143.706379_334.300715;143.480671_334.530406;143.252404_334.757539;143.019731_334.980131;142.782763_335.198169;142.545952_335.416372;142.316276_335.641925;142.100554_335.880646;141.902293_336.134088;141.712768_336.394410;141.511563_336.645191;141.274337_336.858462;140.987343_336.984926;140.670560_337.009257;140.349331_336.989495;140.032082_337.010826;139.744018_337.134121;139.505897_337.346222;139.303541_337.596114;139.111000_337.854201;138.906063_338.102062;138.681078_338.332009;138.445213_338.551214;138.212444_338.773572;137.995967_339.011360;137.798079_339.265151;137.603349_339.521519;137.387256_339.758616;137.125833_339.936763;136.820697_340.011941;136.499944_340.005724;136.178893_339.994404;135.868952_340.054129;135.597186_340.215226;135.374306_340.444773;135.185760_340.705208;135.013960_340.977503;134.844060_341.251032;134.661000_341.515519;134.446461_341.753326;</t>
   </si>
   <si>
-    <t>(134.446461,341.753326);(134.182813,341.927930);(133.876505,341.998419);(133.555970,341.987169);(133.235389,341.975132);(132.933329,342.052146);(132.683453,342.243609);(132.479679,342.492036);(132.280217,342.744401);(132.042098,342.953653);(131.749189,343.061885);(131.430463,343.067081);(131.112211,343.020764);(130.795274,342.963975);(130.475979,342.929254);(130.160036,342.959611);(129.877910,343.095605);(129.648236,343.317276);(129.446665,343.568234);(129.234618,343.809318);(128.976589,343.990615);(128.671688,344.067237);(128.351809,344.055994);(128.033888,344.006068);(127.716398,343.952802);(127.396540,343.929537);(127.085458,343.983590);(126.815924,344.144711);(126.596723,344.378361);(126.396220,344.630258);(126.175678,344.862450);(125.904305,345.020115);(125.592387,345.070641);(125.272575,345.045647);(124.955142,344.991968);(124.637142,344.942697);(124.317318,344.933604);(124.013606,345.014019);(123.757537,345.198487);(123.546581,345.440644);(123.344711,345.691332);(123.113323,345.910882);(122.829371,346.042827);(122.512865,346.069725);(122.193617,346.033821);(121.876535,345.977795);(121.557987,345.933817);(121.239314,345.942028);(120.946259,346.051467);(120.706073,346.258938);(120.503325,346.508665);(120.297987,346.756001);(120.050670,346.953076);(119.751842,347.045561);(119.431867,347.044528);(119.111463,347.013076);(118.790327,346.996325);(118.468438,347.001089);(118.146614,347.002698);(117.825754,346.980613);(117.505357,346.949904);(117.186842,346.962695);(116.897475,347.079081);(116.662865,347.293571);(116.462812,347.545603);(116.255506,347.790919);(116.001532,347.977104);(115.697819,348.054779);(115.377533,348.044901);(115.057568,348.009104);(114.736666,347.986647);(114.414805,347.986271);(114.092940,347.996195);(113.771026,348.003815);(113.449015,348.004863);</t>
+    <t>134.446461_341.753326;134.182813_341.927930;133.876505_341.998419;133.555970_341.987169;133.235389_341.975132;132.933329_342.052146;132.683453_342.243609;132.479679_342.492036;132.280217_342.744401;132.042098_342.953653;131.749189_343.061885;131.430463_343.067081;131.112211_343.020764;130.795274_342.963975;130.475979_342.929254;130.160036_342.959611;129.877910_343.095605;129.648236_343.317276;129.446665_343.568234;129.234618_343.809318;128.976589_343.990615;128.671688_344.067237;128.351809_344.055994;128.033888_344.006068;127.716398_343.952802;127.396540_343.929537;127.085458_343.983590;126.815924_344.144711;126.596723_344.378361;126.396220_344.630258;126.175678_344.862450;125.904305_345.020115;125.592387_345.070641;125.272575_345.045647;124.955142_344.991968;124.637142_344.942697;124.317318_344.933604;124.013606_345.014019;123.757537_345.198487;123.546581_345.440644;123.344711_345.691332;123.113323_345.910882;122.829371_346.042827;122.512865_346.069725;122.193617_346.033821;121.876535_345.977795;121.557987_345.933817;121.239314_345.942028;120.946259_346.051467;120.706073_346.258938;120.503325_346.508665;120.297987_346.756001;120.050670_346.953076;119.751842_347.045561;119.431867_347.044528;119.111463_347.013076;118.790327_346.996325;118.468438_347.001089;118.146614_347.002698;117.825754_346.980613;117.505357_346.949904;117.186842_346.962695;116.897475_347.079081;116.662865_347.293571;116.462812_347.545603;116.255506_347.790919;116.001532_347.977104;115.697819_348.054779;115.377533_348.044901;115.057568_348.009104;114.736666_347.986647;114.414805_347.986271;114.092940_347.996195;113.771026_348.003815;113.449015_348.004863;</t>
   </si>
   <si>
-    <t>(111.895973,348.000000);(111.687919,348.000000);(111.479866,348.000000);(111.271812,348.000000);(111.063758,348.000000);(110.855705,348.000000);(110.647651,348.000000);(110.439597,348.000000);(110.231544,348.000000);(110.023490,348.000000);(109.815436,348.000000);(109.607383,348.000000);(109.399329,348.000000);(109.191275,348.000000);(108.983221,348.000000);(108.775168,348.000000);(108.567114,348.000000);(108.359060,348.000000);(108.151007,348.000000);(107.942953,348.000000);(107.734899,348.000000);(107.526846,348.000000);(107.318792,348.000000);(107.110738,348.000000);(106.902685,348.000000);(106.694631,348.000000);(106.486577,348.000000);(106.278523,348.000000);(106.070470,348.000000);(105.862416,348.000000);(105.654362,348.000000);(105.446309,348.000000);(105.238255,348.000000);(105.030201,348.000000);(104.822148,348.000000);(104.614094,348.000000);(104.406040,348.000000);(104.197987,348.000000);(103.989933,348.000000);(103.781879,348.000000);(103.573826,348.000000);(103.365772,348.000000);(103.157718,348.000000);(102.949664,348.000000);(102.741611,348.000000);(102.533557,348.000000);(102.325503,348.000000);(102.117450,348.000000);(101.909396,348.000000);(101.701342,348.000000);</t>
+    <t>111.895973_348.000000;111.687919_348.000000;111.479866_348.000000;111.271812_348.000000;111.063758_348.000000;110.855705_348.000000;110.647651_348.000000;110.439597_348.000000;110.231544_348.000000;110.023490_348.000000;109.815436_348.000000;109.607383_348.000000;109.399329_348.000000;109.191275_348.000000;108.983221_348.000000;108.775168_348.000000;108.567114_348.000000;108.359060_348.000000;108.151007_348.000000;107.942953_348.000000;107.734899_348.000000;107.526846_348.000000;107.318792_348.000000;107.110738_348.000000;106.902685_348.000000;106.694631_348.000000;106.486577_348.000000;106.278523_348.000000;106.070470_348.000000;105.862416_348.000000;105.654362_348.000000;105.446309_348.000000;105.238255_348.000000;105.030201_348.000000;104.822148_348.000000;104.614094_348.000000;104.406040_348.000000;104.197987_348.000000;103.989933_348.000000;103.781879_348.000000;103.573826_348.000000;103.365772_348.000000;103.157718_348.000000;102.949664_348.000000;102.741611_348.000000;102.533557_348.000000;102.325503_348.000000;102.117450_348.000000;101.909396_348.000000;101.701342_348.000000;</t>
   </si>
   <si>
-    <t>(101.701342,348.000000);(101.493289,348.000000);(101.285235,348.000000);(101.077181,348.000000);(100.869128,348.000000);(100.661074,348.000000);(100.453020,348.000000);(100.244966,348.000000);(100.036913,348.000000);(99.828859,348.000000);(99.620805,348.000000);(99.412752,348.000000);(99.204698,348.000000);(98.996644,348.000000);(98.788591,348.000000);(98.580537,348.000000);(98.372483,348.000000);(98.164430,348.000000);(97.956376,348.000000);(97.748322,348.000000);(97.540268,348.000000);(97.332215,348.000000);(97.124161,348.000000);(96.916107,348.000000);(96.708054,348.000000);(96.500000,348.000000);(96.291946,348.000000);(96.083893,348.000000);(95.875839,348.000000);(95.667785,348.000000);(95.459732,348.000000);(95.251678,348.000000);(95.043624,348.000000);(94.835570,348.000000);(94.627517,348.000000);(94.419463,348.000000);(94.211409,348.000000);(94.003356,348.000000);(93.795302,348.000000);(93.587248,348.000000);(93.379195,348.000000);(93.171141,348.000000);(92.963087,348.000000);(92.755034,348.000000);(92.546980,348.000000);(92.338926,348.000000);(92.130872,348.000000);(91.922819,348.000000);(91.714765,348.000000);(91.506711,348.000000);</t>
+    <t>101.701342_348.000000;101.493289_348.000000;101.285235_348.000000;101.077181_348.000000;100.869128_348.000000;100.661074_348.000000;100.453020_348.000000;100.244966_348.000000;100.036913_348.000000;99.828859_348.000000;99.620805_348.000000;99.412752_348.000000;99.204698_348.000000;98.996644_348.000000;98.788591_348.000000;98.580537_348.000000;98.372483_348.000000;98.164430_348.000000;97.956376_348.000000;97.748322_348.000000;97.540268_348.000000;97.332215_348.000000;97.124161_348.000000;96.916107_348.000000;96.708054_348.000000;96.500000_348.000000;96.291946_348.000000;96.083893_348.000000;95.875839_348.000000;95.667785_348.000000;95.459732_348.000000;95.251678_348.000000;95.043624_348.000000;94.835570_348.000000;94.627517_348.000000;94.419463_348.000000;94.211409_348.000000;94.003356_348.000000;93.795302_348.000000;93.587248_348.000000;93.379195_348.000000;93.171141_348.000000;92.963087_348.000000;92.755034_348.000000;92.546980_348.000000;92.338926_348.000000;92.130872_348.000000;91.922819_348.000000;91.714765_348.000000;91.506711_348.000000;</t>
   </si>
   <si>
-    <t>(91.506711,348.000000);(91.298658,348.000000);(91.090604,348.000000);(90.882550,348.000000);(90.674497,348.000000);(90.466443,348.000000);(90.258389,348.000000);(90.050336,348.000000);(89.842282,348.000000);(89.634228,348.000000);(89.426174,348.000000);(89.218121,348.000000);(89.010067,348.000000);(88.802013,348.000000);(88.593960,348.000000);(88.385906,348.000000);(88.177852,348.000000);(87.969799,348.000000);(87.761745,348.000000);(87.553691,348.000000);(87.345638,348.000000);(87.137584,348.000000);(86.929530,348.000000);(86.721477,348.000000);(86.513423,348.000000);(86.305369,348.000000);(86.097315,348.000000);(85.889262,348.000000);(85.681208,348.000000);(85.473154,348.000000);(85.265101,348.000000);(85.057047,348.000000);(84.848993,348.000000);(84.640940,348.000000);(84.432886,348.000000);(84.224832,348.000000);(84.016779,348.000000);(83.808725,348.000000);(83.600671,348.000000);(83.392617,348.000000);(83.184564,348.000000);(82.976510,348.000000);(82.768456,348.000000);(82.560403,348.000000);(82.352349,348.000000);(82.144295,348.000000);(81.936242,348.000000);(81.728188,348.000000);(81.520134,348.000000);(81.312081,348.000000);</t>
+    <t>91.506711_348.000000;91.298658_348.000000;91.090604_348.000000;90.882550_348.000000;90.674497_348.000000;90.466443_348.000000;90.258389_348.000000;90.050336_348.000000;89.842282_348.000000;89.634228_348.000000;89.426174_348.000000;89.218121_348.000000;89.010067_348.000000;88.802013_348.000000;88.593960_348.000000;88.385906_348.000000;88.177852_348.000000;87.969799_348.000000;87.761745_348.000000;87.553691_348.000000;87.345638_348.000000;87.137584_348.000000;86.929530_348.000000;86.721477_348.000000;86.513423_348.000000;86.305369_348.000000;86.097315_348.000000;85.889262_348.000000;85.681208_348.000000;85.473154_348.000000;85.265101_348.000000;85.057047_348.000000;84.848993_348.000000;84.640940_348.000000;84.432886_348.000000;84.224832_348.000000;84.016779_348.000000;83.808725_348.000000;83.600671_348.000000;83.392617_348.000000;83.184564_348.000000;82.976510_348.000000;82.768456_348.000000;82.560403_348.000000;82.352349_348.000000;82.144295_348.000000;81.936242_348.000000;81.728188_348.000000;81.520134_348.000000;81.312081_348.000000;</t>
   </si>
   <si>
-    <t>(81.312081,348.000000);(81.104027,348.000000);(80.895973,348.000000);(80.687919,348.000000);(80.479866,348.000000);(80.271812,348.000000);(80.063758,348.000000);(79.855705,348.000000);(79.647651,348.000000);(79.439597,348.000000);(79.231544,348.000000);(79.023490,348.000000);(78.815436,348.000000);(78.607383,348.000000);(78.399329,348.000000);(78.191275,348.000000);(77.983221,348.000000);(77.775168,348.000000);(77.567114,348.000000);(77.359060,348.000000);(77.151007,348.000000);(76.942953,348.000000);(76.734899,348.000000);(76.526846,348.000000);(76.318792,348.000000);(76.110738,348.000000);(75.902685,348.000000);(75.694631,348.000000);(75.486577,348.000000);(75.278523,348.000000);(75.070470,348.000000);(74.862416,348.000000);(74.654362,348.000000);(74.446309,348.000000);(74.238255,348.000000);(74.030201,348.000000);(73.822148,348.000000);(73.614094,348.000000);(73.406040,348.000000);(73.197987,348.000000);(72.989933,348.000000);(72.781879,348.000000);(72.573826,348.000000);</t>
+    <t>81.312081_348.000000;81.104027_348.000000;80.895973_348.000000;80.687919_348.000000;80.479866_348.000000;80.271812_348.000000;80.063758_348.000000;79.855705_348.000000;79.647651_348.000000;79.439597_348.000000;79.231544_348.000000;79.023490_348.000000;78.815436_348.000000;78.607383_348.000000;78.399329_348.000000;78.191275_348.000000;77.983221_348.000000;77.775168_348.000000;77.567114_348.000000;77.359060_348.000000;77.151007_348.000000;76.942953_348.000000;76.734899_348.000000;76.526846_348.000000;76.318792_348.000000;76.110738_348.000000;75.902685_348.000000;75.694631_348.000000;75.486577_348.000000;75.278523_348.000000;75.070470_348.000000;74.862416_348.000000;74.654362_348.000000;74.446309_348.000000;74.238255_348.000000;74.030201_348.000000;73.822148_348.000000;73.614094_348.000000;73.406040_348.000000;73.197987_348.000000;72.989933_348.000000;72.781879_348.000000;72.573826_348.000000;</t>
   </si>
   <si>
-    <t>(72.573826,348.000000);(72.365772,348.000000);(72.157718,348.000000);(71.949664,348.000000);(71.741611,348.000000);(71.533557,348.000000);(71.325503,348.000000);(71.117450,348.000000);(70.909396,348.000000);(70.701342,348.000000);(70.493289,348.000000);(70.285235,348.000000);(70.077181,348.000000);(69.869128,348.000000);(69.661074,348.000000);(69.453020,348.000000);(69.244966,348.000000);(69.036913,348.000000);(68.828859,348.000000);(68.620805,348.000000);(68.412752,348.000000);(68.204698,348.000000);(67.996644,348.000000);(67.788591,348.000000);(67.580537,348.000000);(67.372483,348.000000);(67.164430,348.000000);(66.956376,348.000000);(66.748322,348.000000);(66.540268,348.000000);(66.332215,348.000000);(66.124161,348.000000);(65.916107,348.000000);(65.708054,348.000000);(65.500000,348.000000);(65.291946,348.000000);(65.083893,348.000000);(64.875839,348.000000);(64.667785,348.000000);(64.459732,348.000000);(64.251678,348.000000);(64.043624,348.000000);(63.835570,348.000000);(63.627517,348.000000);(63.419463,348.000000);(63.211409,348.000000);(63.003356,348.000000);(62.795302,348.000000);(62.587248,348.000000);(62.379195,348.000000);</t>
+    <t>72.573826_348.000000;72.365772_348.000000;72.157718_348.000000;71.949664_348.000000;71.741611_348.000000;71.533557_348.000000;71.325503_348.000000;71.117450_348.000000;70.909396_348.000000;70.701342_348.000000;70.493289_348.000000;70.285235_348.000000;70.077181_348.000000;69.869128_348.000000;69.661074_348.000000;69.453020_348.000000;69.244966_348.000000;69.036913_348.000000;68.828859_348.000000;68.620805_348.000000;68.412752_348.000000;68.204698_348.000000;67.996644_348.000000;67.788591_348.000000;67.580537_348.000000;67.372483_348.000000;67.164430_348.000000;66.956376_348.000000;66.748322_348.000000;66.540268_348.000000;66.332215_348.000000;66.124161_348.000000;65.916107_348.000000;65.708054_348.000000;65.500000_348.000000;65.291946_348.000000;65.083893_348.000000;64.875839_348.000000;64.667785_348.000000;64.459732_348.000000;64.251678_348.000000;64.043624_348.000000;63.835570_348.000000;63.627517_348.000000;63.419463_348.000000;63.211409_348.000000;63.003356_348.000000;62.795302_348.000000;62.587248_348.000000;62.379195_348.000000;</t>
   </si>
   <si>
-    <t>(62.379195,348.000000);(62.171141,348.000000);(61.963087,348.000000);(61.755034,348.000000);(61.546980,348.000000);(61.338926,348.000000);(61.130872,348.000000);(60.922819,348.000000);(60.714765,348.000000);(60.506711,348.000000);(60.298658,348.000000);(60.090604,348.000000);(59.882550,348.000000);(59.674497,348.000000);(59.466443,348.000000);(59.258389,348.000000);(59.050336,348.000000);(58.842282,348.000000);(58.634228,348.000000);(58.426174,348.000000);(58.218121,348.000000);(58.010067,348.000000);(57.802013,348.000000);(57.593960,348.000000);(57.385906,348.000000);(57.177852,348.000000);(56.969799,348.000000);(56.761745,348.000000);(56.553691,348.000000);(56.345638,348.000000);(56.137584,348.000000);(55.929530,348.000000);(55.721477,348.000000);(55.513423,348.000000);(55.305369,348.000000);(55.097315,348.000000);(54.889262,348.000000);(54.681208,348.000000);(54.473154,348.000000);(54.265101,348.000000);(54.057047,348.000000);(53.848993,348.000000);(53.640940,348.000000);(53.432886,348.000000);(53.224832,348.000000);(53.016779,348.000000);(52.808725,348.000000);(52.600671,348.000000);(52.392617,348.000000);(52.184564,348.000000);</t>
+    <t>62.379195_348.000000;62.171141_348.000000;61.963087_348.000000;61.755034_348.000000;61.546980_348.000000;61.338926_348.000000;61.130872_348.000000;60.922819_348.000000;60.714765_348.000000;60.506711_348.000000;60.298658_348.000000;60.090604_348.000000;59.882550_348.000000;59.674497_348.000000;59.466443_348.000000;59.258389_348.000000;59.050336_348.000000;58.842282_348.000000;58.634228_348.000000;58.426174_348.000000;58.218121_348.000000;58.010067_348.000000;57.802013_348.000000;57.593960_348.000000;57.385906_348.000000;57.177852_348.000000;56.969799_348.000000;56.761745_348.000000;56.553691_348.000000;56.345638_348.000000;56.137584_348.000000;55.929530_348.000000;55.721477_348.000000;55.513423_348.000000;55.305369_348.000000;55.097315_348.000000;54.889262_348.000000;54.681208_348.000000;54.473154_348.000000;54.265101_348.000000;54.057047_348.000000;53.848993_348.000000;53.640940_348.000000;53.432886_348.000000;53.224832_348.000000;53.016779_348.000000;52.808725_348.000000;52.600671_348.000000;52.392617_348.000000;52.184564_348.000000;</t>
   </si>
   <si>
-    <t>(49.947733,347.845849);(49.814359,347.550828);(49.616335,347.297477);(49.352775,347.115458);(49.046233,347.016138);(48.723547,346.981454);(48.397955,346.982887);(48.072357,346.995961);(47.746638,347.004034);(47.420782,347.003743);(47.094921,347.001050);(46.769055,347.001105);(46.443187,347.003026);(46.117342,347.001229);(45.791614,346.992410);(45.465890,346.984112);(45.140429,346.992233);(44.816425,347.024365);(44.492645,347.058502);(44.171829,347.038604);(43.887027,346.905352);(43.661615,346.674970);(43.465922,346.414565);(43.251094,346.172306);(42.977972,346.018542);(42.660927,345.990191);(42.336525,346.017124);(42.021578,345.980616);(41.755680,345.815179);(41.548980,345.565440);(41.355474,345.303593);(41.121565,345.085634);(40.825961,344.987873);(40.502602,344.999910);(40.179163,345.012796);(39.882951,344.916774);(39.648372,344.699824);(39.454889,344.437980);(39.248746,344.187726);(38.983482,344.021313);(38.668802,343.984525);(38.344456,344.011984);(38.027931,343.982644);(37.757472,343.825396);(37.546613,343.579555);(37.352673,343.317916);(37.123477,343.093104);(36.832744,342.978749);(36.510014,342.976758);(36.185433,342.998192);(35.870363,342.949533);(35.593986,342.791080);(35.369865,342.557758);(35.181678,342.292335);(35.009399,342.015780);(34.836828,341.739411);(34.648800,341.473797);(34.427695,341.236969);(34.157558,341.065226);(33.846340,340.995443);(33.521627,341.002898);(33.196823,341.011860);(32.885647,340.943693);(32.616595,340.770960);(32.394990,340.534114);(32.199016,340.273968);(32.005473,340.011887);(31.798538,339.760519);(31.574872,339.523819);(31.338709,339.299431);(31.095186,339.082928);(30.849624,338.868705);(30.607346,338.650832);(30.373605,338.423953);(30.153384,338.184073);</t>
+    <t>49.947733_347.845849;49.814359_347.550828;49.616335_347.297477;49.352775_347.115458;49.046233_347.016138;48.723547_346.981454;48.397955_346.982887;48.072357_346.995961;47.746638_347.004034;47.420782_347.003743;47.094921_347.001050;46.769055_347.001105;46.443187_347.003026;46.117342_347.001229;45.791614_346.992410;45.465890_346.984112;45.140429_346.992233;44.816425_347.024365;44.492645_347.058502;44.171829_347.038604;43.887027_346.905352;43.661615_346.674970;43.465922_346.414565;43.251094_346.172306;42.977972_346.018542;42.660927_345.990191;42.336525_346.017124;42.021578_345.980616;41.755680_345.815179;41.548980_345.565440;41.355474_345.303593;41.121565_345.085634;40.825961_344.987873;40.502602_344.999910;40.179163_345.012796;39.882951_344.916774;39.648372_344.699824;39.454889_344.437980;39.248746_344.187726;38.983482_344.021313;38.668802_343.984525;38.344456_344.011984;38.027931_343.982644;37.757472_343.825396;37.546613_343.579555;37.352673_343.317916;37.123477_343.093104;36.832744_342.978749;36.510014_342.976758;36.185433_342.998192;35.870363_342.949533;35.593986_342.791080;35.369865_342.557758;35.181678_342.292335;35.009399_342.015780;34.836828_341.739411;34.648800_341.473797;34.427695_341.236969;34.157558_341.065226;33.846340_340.995443;33.521627_341.002898;33.196823_341.011860;32.885647_340.943693;32.616595_340.770960;32.394990_340.534114;32.199016_340.273968;32.005473_340.011887;31.798538_339.760519;31.574872_339.523819;31.338709_339.299431;31.095186_339.082928;30.849624_338.868705;30.607346_338.650832;30.373605_338.423953;30.153384_338.184073;</t>
   </si>
   <si>
-    <t>(30.153384,338.184073);(29.950014,337.929774);(29.757407,337.666954);(29.557581,337.409931);(29.326874,337.182852);(29.046601,337.031840);(28.729905,336.986511);(28.404804,337.002600);(28.081087,336.997885);(27.775553,336.906626);(27.513250,336.720837);(27.298174,336.478270);(27.118390,336.207216);(26.961883,335.921639);(26.820375,335.628193);(26.688011,335.330439);(26.558552,335.031386);(26.424599,334.734366);(26.278024,334.443523);(26.110857,334.164277);(25.917672,333.902573);(25.700810,333.659817);(25.468759,333.431197);(25.229554,333.209919);(24.989788,332.989235);(24.753730,332.764615);(24.522040,332.535477);(24.293505,332.303179);(24.066735,332.069152);(23.840300,331.834798);(23.612840,331.601443);(23.383086,331.370355);(23.149832,331.142812);(22.912348,330.919691);(22.672655,330.698919);(22.436012,330.474941);(22.209010,330.241380);(21.999227,329.992526);(21.812139,329.726247);(21.647131,329.445561);(21.499652,329.155132);(21.364526,328.858658);(21.236489,328.559004);(21.110326,328.258544);(20.980995,327.959453);(20.845468,327.663128);(20.703913,327.369623);(20.557855,327.078323);(20.408858,326.788509);(20.258488,326.499401);(20.108314,326.210192);(19.959812,325.920124);(19.813568,325.628911);(19.668989,325.336865);(19.525094,325.044481);(19.380901,324.752243);(19.235437,324.460639);(19.087734,324.170164);(18.937049,323.881228);(18.783923,323.593573);(18.630308,323.306177);(18.478501,323.017827);(18.330842,322.727346);(18.189742,322.433645);(18.057710,322.135788);(17.936834,321.833250);(17.826947,321.526523);(17.725665,321.216818);(17.630157,320.905264);(17.537572,320.592820);(17.445058,320.280354);(17.349767,319.968734);(17.248856,319.658906);(17.139511,319.351983);(17.019011,319.049305);</t>
+    <t>30.153384_338.184073;29.950014_337.929774;29.757407_337.666954;29.557581_337.409931;29.326874_337.182852;29.046601_337.031840;28.729905_336.986511;28.404804_337.002600;28.081087_336.997885;27.775553_336.906626;27.513250_336.720837;27.298174_336.478270;27.118390_336.207216;26.961883_335.921639;26.820375_335.628193;26.688011_335.330439;26.558552_335.031386;26.424599_334.734366;26.278024_334.443523;26.110857_334.164277;25.917672_333.902573;25.700810_333.659817;25.468759_333.431197;25.229554_333.209919;24.989788_332.989235;24.753730_332.764615;24.522040_332.535477;24.293505_332.303179;24.066735_332.069152;23.840300_331.834798;23.612840_331.601443;23.383086_331.370355;23.149832_331.142812;22.912348_330.919691;22.672655_330.698919;22.436012_330.474941;22.209010_330.241380;21.999227_329.992526;21.812139_329.726247;21.647131_329.445561;21.499652_329.155132;21.364526_328.858658;21.236489_328.559004;21.110326_328.258544;20.980995_327.959453;20.845468_327.663128;20.703913_327.369623;20.557855_327.078323;20.408858_326.788509;20.258488_326.499401;20.108314_326.210192;19.959812_325.920124;19.813568_325.628911;19.668989_325.336865;19.525094_325.044481;19.380901_324.752243;19.235437_324.460639;19.087734_324.170164;18.937049_323.881228;18.783923_323.593573;18.630308_323.306177;18.478501_323.017827;18.330842_322.727346;18.189742_322.433645;18.057710_322.135788;17.936834_321.833250;17.826947_321.526523;17.725665_321.216818;17.630157_320.905264;17.537572_320.592820;17.445058_320.280354;17.349767_319.968734;17.248856_319.658906;17.139511_319.351983;17.019011_319.049305;</t>
   </si>
   <si>
-    <t>(17.019011,319.049305);(16.886060,318.751887);(16.742617,318.459333);(16.592609,318.170053);(16.439956,317.882146);(16.288507,317.593609);(16.142179,317.302472);(16.005030,317.006950);(15.880102,316.706085);(15.768043,316.400180);(15.668064,316.090101);(15.579199,315.776641);(15.500408,315.460486);(15.430608,315.142213);(15.368696,314.822303);(15.313572,314.501145);(15.264143,314.179054);(15.219334,313.856284);(15.178089,313.533034);(15.139367,313.209470);(15.102141,312.885729);(15.065392,312.561933);(15.028100,312.238199);(14.989285,311.914646);(14.948360,311.591354);(14.905264,311.268343);(14.860121,310.945613);(14.813052,310.623157);(14.764183,310.300968);(14.713643,309.979038);(14.661558,309.657353);(14.608059,309.335901);(14.553276,309.014664);(14.497341,308.693627);(14.440387,308.372768);(14.382546,308.052067);(14.323955,307.731503);(14.264746,307.411052);(14.205057,307.090691);(14.145022,306.770393);(14.084780,306.450135);(14.024467,306.129890);(13.964221,305.809633);(13.904180,305.489337);(13.844484,305.168976);(13.785270,304.848526);(13.726678,304.527962);(13.668849,304.207260);(13.611920,303.886397);(13.556033,303.565350);(13.501328,303.244101);(13.447943,302.922629);(13.396020,302.600919);(13.345697,302.278954);(13.297113,301.956723);(13.250406,301.634215);(13.205716,301.311421);(13.163177,300.988337);(13.122925,300.664960);(13.085096,300.341292);(13.049820,300.017335);(13.017229,299.693098);(12.987450,299.368591);(12.960610,299.043828);(12.936831,298.718827);(12.916233,298.393609);(12.898931,298.068199);(12.885037,297.742627);(12.874660,297.416924);(12.867902,297.091126);(12.864860,296.765272);(12.865629,296.439406);(12.870293,296.113572);(12.878935,295.787820);(12.891629,295.462201);</t>
+    <t>17.019011_319.049305;16.886060_318.751887;16.742617_318.459333;16.592609_318.170053;16.439956_317.882146;16.288507_317.593609;16.142179_317.302472;16.005030_317.006950;15.880102_316.706085;15.768043_316.400180;15.668064_316.090101;15.579199_315.776641;15.500408_315.460486;15.430608_315.142213;15.368696_314.822303;15.313572_314.501145;15.264143_314.179054;15.219334_313.856284;15.178089_313.533034;15.139367_313.209470;15.102141_312.885729;15.065392_312.561933;15.028100_312.238199;14.989285_311.914646;14.948360_311.591354;14.905264_311.268343;14.860121_310.945613;14.813052_310.623157;14.764183_310.300968;14.713643_309.979038;14.661558_309.657353;14.608059_309.335901;14.553276_309.014664;14.497341_308.693627;14.440387_308.372768;14.382546_308.052067;14.323955_307.731503;14.264746_307.411052;14.205057_307.090691;14.145022_306.770393;14.084780_306.450135;14.024467_306.129890;13.964221_305.809633;13.904180_305.489337;13.844484_305.168976;13.785270_304.848526;13.726678_304.527962;13.668849_304.207260;13.611920_303.886397;13.556033_303.565350;13.501328_303.244101;13.447943_302.922629;13.396020_302.600919;13.345697_302.278954;13.297113_301.956723;13.250406_301.634215;13.205716_301.311421;13.163177_300.988337;13.122925_300.664960;13.085096_300.341292;13.049820_300.017335;13.017229_299.693098;12.987450_299.368591;12.960610_299.043828;12.936831_298.718827;12.916233_298.393609;12.898931_298.068199;12.885037_297.742627;12.874660_297.416924;12.867902_297.091126;12.864860_296.765272;12.865629_296.439406;12.870293_296.113572;12.878935_295.787820;12.891629_295.462201;</t>
   </si>
   <si>
-    <t>(12.968310,293.891650);(12.906773,293.674428);(12.848956,293.456187);(12.794917,293.236981);(12.744712,293.016864);(12.698390,292.795898);(12.655993,292.574146);(12.617559,292.351673);(12.583114,292.128547);(12.552679,291.904839);(12.526267,291.680621);(12.503882,291.455965);(12.485517,291.230944);(12.471161,291.005632);(12.460789,290.780101);(12.454371,290.554423);(12.451867,290.328667);(12.453229,290.102901);(12.458399,289.877190);(12.467313,289.651596);(12.479900,289.426176);(12.496082,289.200985);(12.515773,288.976074);(12.538882,288.751487);(12.565314,288.527267);(12.594968,288.303449);(12.627739,288.080067);(12.663519,287.857146);(12.702196,287.634709);(12.743657,287.412773);(12.787786,287.191352);(12.834465,286.970454);(12.883576,286.750084);(12.934999,286.530241);(12.988615,286.310922);(13.044302,286.092120);(13.101943,285.873824);(13.161416,285.656019);(13.222603,285.438689);(13.285385,285.221815);(13.349645,285.005374);(13.415266,284.789341);(13.482131,284.573689);(13.550126,284.358391);(13.619136,284.143416);(13.689049,283.928733);(13.759751,283.714308);(13.831133,283.500109);(13.903082,283.286099);(13.975489,283.072243);(14.048246,282.858507);(14.121242,282.644852);(14.194371,282.431242);(14.267524,282.217640);(14.340595,282.004010);(14.413475,281.790316);(14.486059,281.576520);(14.558239,281.362588);(14.629909,281.148485);(14.700962,280.934176);(14.771291,280.719629);(14.840788,280.504811);(14.909347,280.289691);(14.976860,280.074242);(15.043284,279.858454);(15.108806,279.642390);(15.173801,279.426166);(15.238671,279.209905);(15.303818,278.993728);(15.369644,278.777756);(15.436552,278.562119);(15.504945,278.346948);(15.575225,278.132388);(15.647793,277.918592);(15.723047,277.705729);</t>
+    <t>12.968310_293.891650;12.906773_293.674428;12.848956_293.456187;12.794917_293.236981;12.744712_293.016864;12.698390_292.795898;12.655993_292.574146;12.617559_292.351673;12.583114_292.128547;12.552679_291.904839;12.526267_291.680621;12.503882_291.455965;12.485517_291.230944;12.471161_291.005632;12.460789_290.780101;12.454371_290.554423;12.451867_290.328667;12.453229_290.102901;12.458399_289.877190;12.467313_289.651596;12.479900_289.426176;12.496082_289.200985;12.515773_288.976074;12.538882_288.751487;12.565314_288.527267;12.594968_288.303449;12.627739_288.080067;12.663519_287.857146;12.702196_287.634709;12.743657_287.412773;12.787786_287.191352;12.834465_286.970454;12.883576_286.750084;12.934999_286.530241;12.988615_286.310922;13.044302_286.092120;13.101943_285.873824;13.161416_285.656019;13.222603_285.438689;13.285385_285.221815;13.349645_285.005374;13.415266_284.789341;13.482131_284.573689;13.550126_284.358391;13.619136_284.143416;13.689049_283.928733;13.759751_283.714308;13.831133_283.500109;13.903082_283.286099;13.975489_283.072243;14.048246_282.858507;14.121242_282.644852;14.194371_282.431242;14.267524_282.217640;14.340595_282.004010;14.413475_281.790316;14.486059_281.576520;14.558239_281.362588;14.629909_281.148485;14.700962_280.934176;14.771291_280.719629;14.840788_280.504811;14.909347_280.289691;14.976860_280.074242;15.043284_279.858454;15.108806_279.642390;15.173801_279.426166;15.238671_279.209905;15.303818_278.993728;15.369644_278.777756;15.436552_278.562119;15.504945_278.346948;15.575225_278.132388;15.647793_277.918592;15.723047_277.705729;</t>
   </si>
   <si>
-    <t>(15.883189,277.283556);(15.968842,277.074668);(16.058589,276.867507);(16.152230,276.662073);(16.249206,276.458189);(16.348916,276.255624);(16.450773,276.054128);(16.554205,275.853434);(16.658645,275.653262);(16.763537,275.453325);(16.868327,275.253335);(16.972462,275.053004);(17.075513,274.852114);(17.177428,274.650645);(17.278441,274.448721);(17.378818,274.246481);(17.478829,274.044058);(17.578741,273.841588);(17.678827,273.639202);(17.779357,273.437038);(17.880602,273.235230);(17.982830,273.033920);(18.086161,272.833173);(18.190339,272.632864);(18.294866,272.432737);(18.399223,272.232521);(18.502891,272.031948);(18.605353,271.830757);(18.706091,271.628700);(18.804589,271.425543);(18.900334,271.221077);(18.992830,271.015125);(19.082095,270.807748);(19.169234,270.599462);(19.255973,270.391007);(19.344073,270.183129);(19.435305,269.976617);(19.531459,269.772369);(19.634333,269.571447);(19.745697,269.375141);(19.867219,269.185002);(20.000297,269.002816);(20.144937,268.829644);(20.298973,268.664685);(20.459429,268.505896);(20.623656,268.350972);(20.789270,268.197516);(20.953994,268.043114);(21.116058,267.885936);(21.275340,267.725928);(21.433065,267.564375);(21.590660,267.402695);(21.749562,267.242307);(21.911158,267.084649);(22.076414,266.930842);(22.244474,266.780077);(22.412691,266.629483);(22.577998,266.475745);(22.737053,266.315634);(22.885995,266.146208);(23.020582,265.965311);(23.138828,265.773285);(23.242792,265.573028);(23.336367,265.367621);(23.423543,265.159368);(23.508261,264.950085);(23.594463,264.741420);(23.686207,264.535177);(23.787749,264.333670);(23.903468,264.140114);(24.037068,263.958627);(24.187864,263.790993);(24.350081,263.634089);(24.517163,263.482245);(24.683549,263.329656);</t>
+    <t>15.883189_277.283556;15.968842_277.074668;16.058589_276.867507;16.152230_276.662073;16.249206_276.458189;16.348916_276.255624;16.450773_276.054128;16.554205_275.853434;16.658645_275.653262;16.763537_275.453325;16.868327_275.253335;16.972462_275.053004;17.075513_274.852114;17.177428_274.650645;17.278441_274.448721;17.378818_274.246481;17.478829_274.044058;17.578741_273.841588;17.678827_273.639202;17.779357_273.437038;17.880602_273.235230;17.982830_273.033920;18.086161_272.833173;18.190339_272.632864;18.294866_272.432737;18.399223_272.232521;18.502891_272.031948;18.605353_271.830757;18.706091_271.628700;18.804589_271.425543;18.900334_271.221077;18.992830_271.015125;19.082095_270.807748;19.169234_270.599462;19.255973_270.391007;19.344073_270.183129;19.435305_269.976617;19.531459_269.772369;19.634333_269.571447;19.745697_269.375141;19.867219_269.185002;20.000297_269.002816;20.144937_268.829644;20.298973_268.664685;20.459429_268.505896;20.623656_268.350972;20.789270_268.197516;20.953994_268.043114;21.116058_267.885936;21.275340_267.725928;21.433065_267.564375;21.590660_267.402695;21.749562_267.242307;21.911158_267.084649;22.076414_266.930842;22.244474_266.780077;22.412691_266.629483;22.577998_266.475745;22.737053_266.315634;22.885995_266.146208;23.020582_265.965311;23.138828_265.773285;23.242792_265.573028;23.336367_265.367621;23.423543_265.159368;23.508261_264.950085;23.594463_264.741420;23.686207_264.535177;23.787749_264.333670;23.903468_264.140114;24.037068_263.958627;24.187864_263.790993;24.350081_263.634089;24.517163_263.482245;24.683549_263.329656;</t>
   </si>
   <si>
-    <t>(24.994549,263.002995);(25.133243,262.825011);(25.265418,262.641977);(25.399556,262.460428);(25.545045,262.288244);(25.712459,262.138733);(25.909011,262.034603);(26.127595,261.994126);(26.352460,262.002619);(26.577052,262.025340);(26.801829,262.030254);(27.017126,261.979832);(27.202322,261.858638);(27.353498,261.692401);(27.486802,261.510310);(27.619411,261.327679);(27.768406,261.159290);(27.950646,261.033241);(28.164372,260.978925);(28.388953,260.984091);(28.613373,261.008388);(28.838053,261.016309);(29.053793,260.968186);(29.241026,260.849546);(29.395787,260.686623);(29.532445,260.507064);(29.666665,260.325566);(29.813696,260.155022);(29.989321,260.017572);(30.196569,259.938746);(30.419634,259.919124);(30.644143,259.937253);(30.866772,259.974217);(31.088467,260.016945);(31.310955,260.054897);(31.535290,260.076576);(31.759475,260.065922);(31.972821,260.002663);(32.159359,259.880897);(32.316800,259.720312);(32.457643,259.544005);(32.595724,259.365408);(32.744507,259.196172);(32.918052,259.054938);(33.122051,258.967689);(33.344063,258.939697);(33.569143,258.949525);(33.793425,258.975095);(34.017785,258.999875);(34.243003,259.013749);(34.468701,259.015865);(34.694399,259.010526);(34.920048,259.002875);(35.145752,258.997437);(35.371518,258.995663);(35.597295,258.996449);(35.823067,258.998395);(36.048840,259.000181);(36.274619,259.001062);(36.500399,259.001105);(36.726179,259.000673);(36.951960,259.000135);(37.177740,258.999781);(37.403521,258.999683);(37.629302,258.999755);(37.855082,258.999902);(38.080863,259.000030);(38.306644,259.000094);(38.532425,259.000098);(38.758206,259.000062);(38.983986,259.000004);(39.209767,258.999946);(39.435548,258.999905);(39.661329,258.999902);(39.887110,258.999956);</t>
+    <t>24.994549_263.002995;25.133243_262.825011;25.265418_262.641977;25.399556_262.460428;25.545045_262.288244;25.712459_262.138733;25.909011_262.034603;26.127595_261.994126;26.352460_262.002619;26.577052_262.025340;26.801829_262.030254;27.017126_261.979832;27.202322_261.858638;27.353498_261.692401;27.486802_261.510310;27.619411_261.327679;27.768406_261.159290;27.950646_261.033241;28.164372_260.978925;28.388953_260.984091;28.613373_261.008388;28.838053_261.016309;29.053793_260.968186;29.241026_260.849546;29.395787_260.686623;29.532445_260.507064;29.666665_260.325566;29.813696_260.155022;29.989321_260.017572;30.196569_259.938746;30.419634_259.919124;30.644143_259.937253;30.866772_259.974217;31.088467_260.016945;31.310955_260.054897;31.535290_260.076576;31.759475_260.065922;31.972821_260.002663;32.159359_259.880897;32.316800_259.720312;32.457643_259.544005;32.595724_259.365408;32.744507_259.196172;32.918052_259.054938;33.122051_258.967689;33.344063_258.939697;33.569143_258.949525;33.793425_258.975095;34.017785_258.999875;34.243003_259.013749;34.468701_259.015865;34.694399_259.010526;34.920048_259.002875;35.145752_258.997437;35.371518_258.995663;35.597295_258.996449;35.823067_258.998395;36.048840_259.000181;36.274619_259.001062;36.500399_259.001105;36.726179_259.000673;36.951960_259.000135;37.177740_258.999781;37.403521_258.999683;37.629302_258.999755;37.855082_258.999902;38.080863_259.000030;38.306644_259.000094;38.532425_259.000098;38.758206_259.000062;38.983986_259.000004;39.209767_258.999946;39.435548_258.999905;39.661329_258.999902;39.887110_258.999956;</t>
   </si>
   <si>
-    <t>(40.025835,259.155942);(40.105493,259.460214);(40.258517,259.730160);(40.501124,259.915255);(40.801951,259.990084);(41.117133,259.990228);(41.432631,259.967447);(41.747904,259.965894);(42.051277,260.034681);(42.318415,260.194424);(42.542881,260.415217);(42.741437,260.661219);(42.933671,260.912463);(43.135157,261.156115);(43.351083,261.387110);(43.577608,261.607874);(43.809212,261.823390);(44.040403,262.039347);(44.267939,262.259138);(44.491971,262.482517);(44.713961,262.707934);(44.935374,262.933919);(45.157420,263.159282);(45.380500,263.383622);(45.604390,263.607153);(45.828793,263.830171);(46.053409,264.052974);(46.277947,264.275855);(46.502126,264.499097);(46.725667,264.722978);(46.948289,264.947771);(47.169992,265.173472);(47.391574,265.399292);(47.614405,265.623874);(47.839878,265.845793);(48.069039,266.063892);(48.300602,266.279463);(48.530347,266.496940);(48.752895,266.721658);(48.962184,266.958575);(49.152940,267.210540);(49.323906,267.476421);(49.477146,267.752995);(49.615402,268.037429);(49.741599,268.327469);(49.858691,268.621340);(49.969609,268.917620);(50.076865,269.215256);(50.181754,269.513735);(50.284646,269.812910);(50.385820,270.112670);(50.485564,270.412910);(50.584175,270.713524);(50.681958,271.014409);(50.779221,271.315463);(50.876276,271.616584);(50.973436,271.917671);(51.070966,272.218638);(51.168992,272.519444);(51.267533,272.820082);(51.366596,273.120548);(51.466192,273.420838);(51.566327,273.720949);(51.667010,274.020876);(51.768251,274.320615);(51.870059,274.620162);(51.972442,274.919513);(52.075357,275.218682);(52.178597,275.517739);(52.281831,275.816797);(52.384717,276.115976);(52.486910,276.415392);(52.588065,276.715159);(52.687833,277.015391);(52.785867,277.316192);</t>
+    <t>40.025835_259.155942;40.105493_259.460214;40.258517_259.730160;40.501124_259.915255;40.801951_259.990084;41.117133_259.990228;41.432631_259.967447;41.747904_259.965894;42.051277_260.034681;42.318415_260.194424;42.542881_260.415217;42.741437_260.661219;42.933671_260.912463;43.135157_261.156115;43.351083_261.387110;43.577608_261.607874;43.809212_261.823390;44.040403_262.039347;44.267939_262.259138;44.491971_262.482517;44.713961_262.707934;44.935374_262.933919;45.157420_263.159282;45.380500_263.383622;45.604390_263.607153;45.828793_263.830171;46.053409_264.052974;46.277947_264.275855;46.502126_264.499097;46.725667_264.722978;46.948289_264.947771;47.169992_265.173472;47.391574_265.399292;47.614405_265.623874;47.839878_265.845793;48.069039_266.063892;48.300602_266.279463;48.530347_266.496940;48.752895_266.721658;48.962184_266.958575;49.152940_267.210540;49.323906_267.476421;49.477146_267.752995;49.615402_268.037429;49.741599_268.327469;49.858691_268.621340;49.969609_268.917620;50.076865_269.215256;50.181754_269.513735;50.284646_269.812910;50.385820_270.112670;50.485564_270.412910;50.584175_270.713524;50.681958_271.014409;50.779221_271.315463;50.876276_271.616584;50.973436_271.917671;51.070966_272.218638;51.168992_272.519444;51.267533_272.820082;51.366596_273.120548;51.466192_273.420838;51.566327_273.720949;51.667010_274.020876;51.768251_274.320615;51.870059_274.620162;51.972442_274.919513;52.075357_275.218682;52.178597_275.517739;52.281831_275.816797;52.384717_276.115976;52.486910_276.415392;52.588065_276.715159;52.687833_277.015391;52.785867_277.316192;</t>
   </si>
   <si>
-    <t>(52.975321,277.919902);(53.066112,278.222966);(53.154137,278.526845);(53.239519,278.831477);(53.322402,279.136800);(53.402930,279.442752);(53.481249,279.749278);(53.557504,280.056324);(53.631843,280.363840);(53.704412,280.671778);(53.775357,280.980095);(53.844827,281.288748);(53.912969,281.597698);(53.979929,281.906905);(54.045848,282.216337);(54.110839,282.525964);(54.174994,282.835767);(54.238403,283.145722);(54.301157,283.455812);(54.363346,283.766015);(54.425061,284.076312);(54.486393,284.386686);(54.547433,284.697117);(54.608272,285.007588);(54.669001,285.318080);(54.729712,285.628576);(54.790496,285.939058);(54.851444,286.249507);(54.912647,286.559906);(54.974196,286.870237);(55.036164,287.180484);(55.098546,287.490648);(55.161267,287.800744);(55.224242,288.110789);(55.287385,288.420799);(55.350609,288.730793);(55.413830,289.040788);(55.476961,289.350800);(55.539917,289.660849);(55.602611,289.970950);(55.664959,290.281121);(55.726873,290.591379);(55.788269,290.901740);(55.849059,291.212220);(55.909159,291.522835);(55.968480,291.833599);(56.026947,292.144525);(56.084532,292.455615);(56.141262,292.766862);(56.197173,293.078258);(56.252304,293.389792);(56.306693,293.701458);(56.360376,294.013245);(56.413392,294.325147);(56.465779,294.637155);(56.517574,294.949261);(56.568816,295.261459);(56.619542,295.573742);(56.669791,295.886101);(56.719599,296.198531);(56.769006,296.511025);(56.818049,296.823576);(56.866767,297.136178);(56.915196,297.448825);(56.963377,297.761510);(57.011343,298.074229);(57.059116,298.386976);(57.106689,298.699755);(57.154049,299.012565);(57.201183,299.325410);(57.248077,299.638291);(57.294717,299.951210);(57.341090,300.264168);(57.387182,300.577168);(57.432980,300.890211);</t>
+    <t>52.975321_277.919902;53.066112_278.222966;53.154137_278.526845;53.239519_278.831477;53.322402_279.136800;53.402930_279.442752;53.481249_279.749278;53.557504_280.056324;53.631843_280.363840;53.704412_280.671778;53.775357_280.980095;53.844827_281.288748;53.912969_281.597698;53.979929_281.906905;54.045848_282.216337;54.110839_282.525964;54.174994_282.835767;54.238403_283.145722;54.301157_283.455812;54.363346_283.766015;54.425061_284.076312;54.486393_284.386686;54.547433_284.697117;54.608272_285.007588;54.669001_285.318080;54.729712_285.628576;54.790496_285.939058;54.851444_286.249507;54.912647_286.559906;54.974196_286.870237;55.036164_287.180484;55.098546_287.490648;55.161267_287.800744;55.224242_288.110789;55.287385_288.420799;55.350609_288.730793;55.413830_289.040788;55.476961_289.350800;55.539917_289.660849;55.602611_289.970950;55.664959_290.281121;55.726873_290.591379;55.788269_290.901740;55.849059_291.212220;55.909159_291.522835;55.968480_291.833599;56.026947_292.144525;56.084532_292.455615;56.141262_292.766862;56.197173_293.078258;56.252304_293.389792;56.306693_293.701458;56.360376_294.013245;56.413392_294.325147;56.465779_294.637155;56.517574_294.949261;56.568816_295.261459;56.619542_295.573742;56.669791_295.886101;56.719599_296.198531;56.769006_296.511025;56.818049_296.823576;56.866767_297.136178;56.915196_297.448825;56.963377_297.761510;57.011343_298.074229;57.059116_298.386976;57.106689_298.699755;57.154049_299.012565;57.201183_299.325410;57.248077_299.638291;57.294717_299.951210;57.341090_300.264168;57.387182_300.577168;57.432980_300.890211;</t>
   </si>
   <si>
-    <t>(57.523638,301.516434);(57.568471,301.829617);(57.612955,302.142849);(57.657076,302.456133);(57.700821,302.769469);(57.744176,303.082860);(57.787128,303.396306);(57.829662,303.709810);(57.871765,304.023371);(57.913423,304.336992);(57.954623,304.650673);(57.995350,304.964416);(58.035591,305.278222);(58.075332,305.592091);(58.114560,305.906025);(58.153260,306.220025);(58.191419,306.534091);(58.229023,306.848223);(58.266058,307.162423);(58.302510,307.476692);(58.338366,307.791029);(58.373611,308.105435);(58.408232,308.419910);(58.442215,308.734455);(58.475546,309.049070);(58.508211,309.363754);(58.540196,309.678508);(58.571487,309.993332);(58.602071,310.308226);(58.631934,310.623189);(58.661061,310.938220);(58.689439,311.253320);(58.717054,311.568488);(58.743893,311.883722);(58.769940,312.199024);(58.795184,312.514390);(58.819608,312.829821);(58.843201,313.145315);(58.865948,313.460872);(58.887835,313.776489);(58.908849,314.092165);(58.928976,314.407899);(58.948202,314.723690);(58.966513,315.039535);(58.983897,315.355432);(59.000338,315.671379);(59.015825,315.987375);(59.030343,316.303417);(59.043879,316.619502);(59.056419,316.935628);(59.067950,317.251793);(59.078459,317.567994);(59.087932,317.884227);(59.096357,318.200489);(59.103720,318.516779);(59.110009,318.833091);(59.115209,319.149423);(59.119309,319.465771);(59.122295,319.782132);(59.124155,320.098502);(59.124876,320.414876);(59.124446,320.731250);(59.122852,321.047621);(59.120082,321.363984);(59.116123,321.680334);(59.110964,321.996666);(59.104592,322.312977);(59.096996,322.629260);(59.088164,322.945512);(59.078084,323.261726);(59.066745,323.577897);(59.054135,323.894020);(59.040244,324.210090);(59.025059,324.526100);(59.008571,324.842045);</t>
+    <t>57.523638_301.516434;57.568471_301.829617;57.612955_302.142849;57.657076_302.456133;57.700821_302.769469;57.744176_303.082860;57.787128_303.396306;57.829662_303.709810;57.871765_304.023371;57.913423_304.336992;57.954623_304.650673;57.995350_304.964416;58.035591_305.278222;58.075332_305.592091;58.114560_305.906025;58.153260_306.220025;58.191419_306.534091;58.229023_306.848223;58.266058_307.162423;58.302510_307.476692;58.338366_307.791029;58.373611_308.105435;58.408232_308.419910;58.442215_308.734455;58.475546_309.049070;58.508211_309.363754;58.540196_309.678508;58.571487_309.993332;58.602071_310.308226;58.631934_310.623189;58.661061_310.938220;58.689439_311.253320;58.717054_311.568488;58.743893_311.883722;58.769940_312.199024;58.795184_312.514390;58.819608_312.829821;58.843201_313.145315;58.865948_313.460872;58.887835_313.776489;58.908849_314.092165;58.928976_314.407899;58.948202_314.723690;58.966513_315.039535;58.983897_315.355432;59.000338_315.671379;59.015825_315.987375;59.030343_316.303417;59.043879_316.619502;59.056419_316.935628;59.067950_317.251793;59.078459_317.567994;59.087932_317.884227;59.096357_318.200489;59.103720_318.516779;59.110009_318.833091;59.115209_319.149423;59.119309_319.465771;59.122295_319.782132;59.124155_320.098502;59.124876_320.414876;59.124446_320.731250;59.122852_321.047621;59.120082_321.363984;59.116123_321.680334;59.110964_321.996666;59.104592_322.312977;59.096996_322.629260;59.088164_322.945512;59.078084_323.261726;59.066745_323.577897;59.054135_323.894020;59.040244_324.210090;59.025059_324.526100;59.008571_324.842045;</t>
   </si>
   <si>
-    <t>(58.948500,325.142382);(58.850761,325.428938);(58.764025,325.719004);(58.689272,326.012373);(58.627528,326.308739);(58.579840,326.607673);(58.547244,326.908612);(58.530719,327.210844);(58.531132,327.513513);(58.549183,327.815631);(58.585340,328.116112);(58.639798,328.413816);(58.712449,328.707610);(58.802881,328.996433);(58.910400,329.279351);(59.034079,329.555602);(59.172819,329.824621);(59.325414,330.086051);(59.490614,330.339723);(59.667176,330.585643);(59.853902,330.823955);(60.049667,331.054917);(60.253430,331.278870);(60.464242,331.496216);(60.681244,331.707393);(60.903664,331.912867);(61.130246,332.113768);(61.357425,332.314002);(61.579276,332.520002);(61.788617,332.738430);(61.976721,332.974984);(62.137306,333.230978);(62.273114,333.501320);(62.393315,333.779192);(62.507710,334.059584);(62.625982,334.338310);(62.757805,334.610686);(62.912601,334.870300);(63.096580,335.109826);(63.305357,335.328666);(63.526608,335.535364);(63.748412,335.741488);(63.958521,335.959067);(64.145229,336.196597);(64.304938,336.453304);(64.442623,336.722757);(64.565765,336.999340);(64.682148,337.278910);(64.798913,337.558317);(64.922179,337.834866);(65.057160,338.105797);(65.210058,338.366785);(65.389928,338.609273);(65.608106,338.815816);(65.871133,338.954522);(66.165076,339.000152);(66.466699,338.982110);(66.768019,338.970928);(67.051279,339.045719);(67.284153,339.228359);(67.472645,339.464491);(67.655635,339.705461);(67.872767,339.910667);(68.143923,340.018900);(68.443583,340.025924);(68.745262,340.001883);(69.043166,340.023511);(69.315275,340.139435);(69.541755,340.335762);(69.729272,340.572446);(69.894417,340.826076);(70.051378,341.085047);(70.212431,341.341402);(70.390726,341.585527);(70.602253,341.799370);</t>
+    <t>58.948500_325.142382;58.850761_325.428938;58.764025_325.719004;58.689272_326.012373;58.627528_326.308739;58.579840_326.607673;58.547244_326.908612;58.530719_327.210844;58.531132_327.513513;58.549183_327.815631;58.585340_328.116112;58.639798_328.413816;58.712449_328.707610;58.802881_328.996433;58.910400_329.279351;59.034079_329.555602;59.172819_329.824621;59.325414_330.086051;59.490614_330.339723;59.667176_330.585643;59.853902_330.823955;60.049667_331.054917;60.253430_331.278870;60.464242_331.496216;60.681244_331.707393;60.903664_331.912867;61.130246_332.113768;61.357425_332.314002;61.579276_332.520002;61.788617_332.738430;61.976721_332.974984;62.137306_333.230978;62.273114_333.501320;62.393315_333.779192;62.507710_334.059584;62.625982_334.338310;62.757805_334.610686;62.912601_334.870300;63.096580_335.109826;63.305357_335.328666;63.526608_335.535364;63.748412_335.741488;63.958521_335.959067;64.145229_336.196597;64.304938_336.453304;64.442623_336.722757;64.565765_336.999340;64.682148_337.278910;64.798913_337.558317;64.922179_337.834866;65.057160_338.105797;65.210058_338.366785;65.389928_338.609273;65.608106_338.815816;65.871133_338.954522;66.165076_339.000152;66.466699_338.982110;66.768019_338.970928;67.051279_339.045719;67.284153_339.228359;67.472645_339.464491;67.655635_339.705461;67.872767_339.910667;68.143923_340.018900;68.443583_340.025924;68.745262_340.001883;69.043166_340.023511;69.315275_340.139435;69.541755_340.335762;69.729272_340.572446;69.894417_340.826076;70.051378_341.085047;70.212431_341.341402;70.390726_341.585527;70.602253_341.799370;</t>
   </si>
   <si>
-    <t>(71.151679,342.000382);(71.453313,341.984803);(71.754843,341.971935);(72.041239,342.038752);(72.280607,342.212248);(72.474203,342.443920);(72.657608,342.684729);(72.868467,342.898215);(73.131642,343.028311);(73.428777,343.056725);(73.730091,343.030796);(74.031340,343.002071);(74.333727,342.995511);(74.636442,343.002918);(74.938943,342.999498);(75.240421,342.973797);(75.541777,342.946739);(75.840585,342.966337);(76.110621,343.082600);(76.330173,343.286197);(76.517966,343.523457);(76.709159,343.757677);(76.938448,343.948108);(77.216663,344.044150);(77.517109,344.050051);(77.818327,344.020015);(78.119997,343.997777);(78.422609,343.997921);(78.725325,344.004482);(79.027568,343.993957);(79.328799,343.964037);(79.630332,343.944872);(79.924326,343.989618);(80.180299,344.135592);(80.386948,344.354407);(80.572142,344.593916);(80.771067,344.820774);(81.015778,344.987141);(81.304168,345.053002);(81.605605,345.042655);(81.906757,345.011417);(82.208763,344.995664);(82.511460,345.000220);(82.814146,345.003903);(83.116079,344.986601);(83.417253,344.955547);(83.718576,344.948949);(84.004814,345.022061);(84.246095,345.194329);(84.443382,345.422857);(84.629251,345.661821);(84.838486,345.877864);(85.097194,346.018933);(85.392177,346.059893);(85.693548,346.038459);(85.994292,346.003445);(86.296146,345.982923);(86.598815,345.982502);(86.901359,345.994804);(87.203790,346.010320);(87.506419,346.019187);(87.808960,346.012388);(88.110340,345.985210);(88.411124,345.950665);(88.712336,345.944566);(88.998417,346.018835);(89.239745,346.191267);(89.437364,346.419515);(89.623515,346.658263);(89.832655,346.874481);(90.090960,347.016468);(90.385728,347.058506);(90.687160,347.037924);(90.988045,347.004224);(91.290018,346.985817);</t>
+    <t>71.151679_342.000382;71.453313_341.984803;71.754843_341.971935;72.041239_342.038752;72.280607_342.212248;72.474203_342.443920;72.657608_342.684729;72.868467_342.898215;73.131642_343.028311;73.428777_343.056725;73.730091_343.030796;74.031340_343.002071;74.333727_342.995511;74.636442_343.002918;74.938943_342.999498;75.240421_342.973797;75.541777_342.946739;75.840585_342.966337;76.110621_343.082600;76.330173_343.286197;76.517966_343.523457;76.709159_343.757677;76.938448_343.948108;77.216663_344.044150;77.517109_344.050051;77.818327_344.020015;78.119997_343.997777;78.422609_343.997921;78.725325_344.004482;79.027568_343.993957;79.328799_343.964037;79.630332_343.944872;79.924326_343.989618;80.180299_344.135592;80.386948_344.354407;80.572142_344.593916;80.771067_344.820774;81.015778_344.987141;81.304168_345.053002;81.605605_345.042655;81.906757_345.011417;82.208763_344.995664;82.511460_345.000220;82.814146_345.003903;83.116079_344.986601;83.417253_344.955547;83.718576_344.948949;84.004814_345.022061;84.246095_345.194329;84.443382_345.422857;84.629251_345.661821;84.838486_345.877864;85.097194_346.018933;85.392177_346.059893;85.693548_346.038459;85.994292_346.003445;86.296146_345.982923;86.598815_345.982502;86.901359_345.994804;87.203790_346.010320;87.506419_346.019187;87.808960_346.012388;88.110340_345.985210;88.411124_345.950665;88.712336_345.944566;88.998417_346.018835;89.239745_346.191267;89.437364_346.419515;89.623515_346.658263;89.832655_346.874481;90.090960_347.016468;90.385728_347.058506;90.687160_347.037924;90.988045_347.004224;91.290018_346.985817;</t>
   </si>
   <si>
-    <t>(91.895407,346.996020);(92.198138,347.002968);(92.500957,347.004008);(92.803782,347.001825);(93.106607,346.999600);(93.409440,346.998881);(93.712274,346.999300);(94.015108,346.999958);(94.317942,347.000271);(94.620777,347.000219);(94.923611,347.000054);(95.226446,346.999977);(95.529280,347.000004);(95.832115,347.000019);(96.134950,346.999917);(96.437784,346.999754);(96.740619,346.999753);(97.043453,347.000152);(97.346287,347.000828);(97.649121,347.001098);(97.951952,347.000066);(98.254777,346.997659);(98.557603,346.995829);(98.860412,346.997897);(99.163122,347.005854);(99.465814,347.014552);(99.768476,347.012378);(100.070189,346.989939);(100.371033,346.955724);(100.672461,346.942833);(100.962635,347.003196);(101.211068,347.163546);(101.412896,347.387571);(101.598513,347.626770);(101.802448,347.848608);(102.053988,348.003389);(102.345741,348.057886);(102.647195,348.042368);(102.948041,348.008175);(103.249836,347.986965);(103.552516,347.985789);(103.855204,347.994741);(104.157920,348.002404);(104.460733,348.004138);(104.763559,348.002182);(105.066383,347.999822);(105.369215,347.998886);(105.672049,347.999205);(105.974883,347.999884);(106.277717,348.000269);(106.580552,348.000260);(106.883386,348.000083);(107.186221,347.999946);(107.489055,347.999922);(107.791890,347.999963);(108.094725,348.000007);(108.397559,348.000022);(108.700394,348.000014);(109.003229,348.000001);(109.306063,347.999995);(109.608898,347.999995);(109.911732,347.999999);(110.214567,348.000001);(110.517402,348.000001);(110.820236,348.000001);(111.123071,348.000000);(111.425906,348.000000);(111.728740,348.000000);(112.031575,348.000000);(112.334410,348.000000);(112.637244,348.000000);(112.940079,348.000000);(113.242913,348.000000);(113.545748,348.000000);(113.848583,348.000000);</t>
+    <t>91.895407_346.996020;92.198138_347.002968;92.500957_347.004008;92.803782_347.001825;93.106607_346.999600;93.409440_346.998881;93.712274_346.999300;94.015108_346.999958;94.317942_347.000271;94.620777_347.000219;94.923611_347.000054;95.226446_346.999977;95.529280_347.000004;95.832115_347.000019;96.134950_346.999917;96.437784_346.999754;96.740619_346.999753;97.043453_347.000152;97.346287_347.000828;97.649121_347.001098;97.951952_347.000066;98.254777_346.997659;98.557603_346.995829;98.860412_346.997897;99.163122_347.005854;99.465814_347.014552;99.768476_347.012378;100.070189_346.989939;100.371033_346.955724;100.672461_346.942833;100.962635_347.003196;101.211068_347.163546;101.412896_347.387571;101.598513_347.626770;101.802448_347.848608;102.053988_348.003389;102.345741_348.057886;102.647195_348.042368;102.948041_348.008175;103.249836_347.986965;103.552516_347.985789;103.855204_347.994741;104.157920_348.002404;104.460733_348.004138;104.763559_348.002182;105.066383_347.999822;105.369215_347.998886;105.672049_347.999205;105.974883_347.999884;106.277717_348.000269;106.580552_348.000260;106.883386_348.000083;107.186221_347.999946;107.489055_347.999922;107.791890_347.999963;108.094725_348.000007;108.397559_348.000022;108.700394_348.000014;109.003229_348.000001;109.306063_347.999995;109.608898_347.999995;109.911732_347.999999;110.214567_348.000001;110.517402_348.000001;110.820236_348.000001;111.123071_348.000000;111.425906_348.000000;111.728740_348.000000;112.031575_348.000000;112.334410_348.000000;112.637244_348.000000;112.940079_348.000000;113.242913_348.000000;113.545748_348.000000;113.848583_348.000000;</t>
   </si>
   <si>
-    <t>(156.752786,291.961942);(156.255431,291.961438);(155.755233,292.037185);(155.257426,292.040058);(154.821550,291.838508);(154.477511,291.472929);(154.123473,291.120932);(153.675031,290.949562);(153.175135,290.972489);(152.674837,291.046720);(152.181463,291.022288);(151.760915,290.786970);(151.425361,290.410787);(151.057610,290.079159);(150.595830,289.942995);(150.094943,289.984727);(149.594356,290.053888);(149.107809,289.998611);(148.703122,289.731306);(148.372278,289.349590);(147.989363,289.042709);(147.515809,288.941489);(147.014816,288.997594);(146.513903,289.057953);(146.036457,288.969433);(145.647722,288.672659);(145.317620,288.290094);(144.918849,288.011556);(144.435415,287.944206);(143.934700,288.010558);(143.433700,288.058106);(142.967364,287.934942);(142.594123,287.612004);(142.260765,287.233209);(141.846050,286.985794);(141.354931,286.950291);(140.854553,287.023130);(140.354164,287.053603);(139.900784,286.895047);(139.542182,286.549725);(139.201634,286.179755);(138.770953,285.966736);(138.274186,285.960142);(137.773371,286.031816);(137.273660,286.039051);(136.824376,285.858577);(136.463662,285.511545);(136.124476,285.137684);(135.708004,284.891559);(135.234981,284.911926);</t>
+    <t>156.752786_291.961942;156.255431_291.961438;155.755233_292.037185;155.257426_292.040058;154.821550_291.838508;154.477511_291.472929;154.123473_291.120932;153.675031_290.949562;153.175135_290.972489;152.674837_291.046720;152.181463_291.022288;151.760915_290.786970;151.425361_290.410787;151.057610_290.079159;150.595830_289.942995;150.094943_289.984727;149.594356_290.053888;149.107809_289.998611;148.703122_289.731306;148.372278_289.349590;147.989363_289.042709;147.515809_288.941489;147.014816_288.997594;146.513903_289.057953;146.036457_288.969433;145.647722_288.672659;145.317620_288.290094;144.918849_288.011556;144.435415_287.944206;143.934700_288.010558;143.433700_288.058106;142.967364_287.934942;142.594123_287.612004;142.260765_287.233209;141.846050_286.985794;141.354931_286.950291;140.854553_287.023130;140.354164_287.053603;139.900784_286.895047;139.542182_286.549725;139.201634_286.179755;138.770953_285.966736;138.274186_285.960142;137.773371_286.031816;137.273660_286.039051;136.824376_285.858577;136.463662_285.511545;136.124476_285.137684;135.708004_284.891559;135.234981_284.911926;</t>
   </si>
   <si>
-    <t>(134.000000,284.898026);(134.000000,284.694079);(134.000000,284.490132);(134.000000,284.286184);(134.000000,284.082237);(134.000000,283.878289);(134.000000,283.674342);(134.000000,283.470395);(134.000000,283.266447);(134.000000,283.062500);(134.000000,282.858553);(134.000000,282.654605);(134.000000,282.450658);(134.000000,282.246711);(134.000000,282.042763);(134.000000,281.838816);(134.000000,281.634868);(134.000000,281.430921);(134.000000,281.226974);(134.000000,281.023026);(134.000000,280.819079);(134.000000,280.615132);(134.000000,280.411184);(134.000000,280.207237);(134.000000,280.003289);(134.000000,279.799342);(134.000000,279.595395);(134.000000,279.391447);(134.000000,279.187500);(134.000000,278.983553);(134.000000,278.779605);(134.000000,278.575658);(134.000000,278.371711);(134.000000,278.167763);(134.000000,277.963816);(134.000000,277.759868);(134.000000,277.555921);(134.000000,277.351974);(134.000000,277.148026);(134.000000,276.944079);(134.000000,276.740132);(134.000000,276.536184);(134.000000,276.332237);(134.000000,276.128289);(134.000000,275.924342);(134.000000,275.720395);(134.000000,275.516447);(134.000000,275.312500);(134.000000,275.108553);(134.000000,274.904605);</t>
+    <t>134.000000_284.898026;134.000000_284.694079;134.000000_284.490132;134.000000_284.286184;134.000000_284.082237;134.000000_283.878289;134.000000_283.674342;134.000000_283.470395;134.000000_283.266447;134.000000_283.062500;134.000000_282.858553;134.000000_282.654605;134.000000_282.450658;134.000000_282.246711;134.000000_282.042763;134.000000_281.838816;134.000000_281.634868;134.000000_281.430921;134.000000_281.226974;134.000000_281.023026;134.000000_280.819079;134.000000_280.615132;134.000000_280.411184;134.000000_280.207237;134.000000_280.003289;134.000000_279.799342;134.000000_279.595395;134.000000_279.391447;134.000000_279.187500;134.000000_278.983553;134.000000_278.779605;134.000000_278.575658;134.000000_278.371711;134.000000_278.167763;134.000000_277.963816;134.000000_277.759868;134.000000_277.555921;134.000000_277.351974;134.000000_277.148026;134.000000_276.944079;134.000000_276.740132;134.000000_276.536184;134.000000_276.332237;134.000000_276.128289;134.000000_275.924342;134.000000_275.720395;134.000000_275.516447;134.000000_275.312500;134.000000_275.108553;134.000000_274.904605;</t>
   </si>
   <si>
-    <t>(134.000000,274.904605);(134.000000,274.700658);(134.000000,274.496711);(134.000000,274.292763);(134.000000,274.088816);(134.000000,273.884868);(134.000000,273.680921);(134.000000,273.476974);(134.000000,273.273026);(134.000000,273.069079);(134.000000,272.865132);(134.000000,272.661184);(134.000000,272.457237);(134.000000,272.253289);(134.000000,272.049342);(134.000000,271.845395);(134.000000,271.641447);(134.000000,271.437500);(134.000000,271.233553);(134.000000,271.029605);(134.000000,270.825658);(134.000000,270.621711);(134.000000,270.417763);(134.000000,270.213816);(134.000000,270.009868);(134.000000,269.805921);(134.000000,269.601974);(134.000000,269.398026);(134.000000,269.194079);(134.000000,268.990132);(134.000000,268.786184);(134.000000,268.582237);(134.000000,268.378289);(134.000000,268.174342);(134.000000,267.970395);(134.000000,267.766447);(134.000000,267.562500);(134.000000,267.358553);(134.000000,267.154605);(134.000000,266.950658);(134.000000,266.746711);(134.000000,266.542763);(134.000000,266.338816);(134.000000,266.134868);(134.000000,265.930921);(134.000000,265.726974);(134.000000,265.523026);(134.000000,265.319079);(134.000000,265.115132);(134.000000,264.911184);</t>
+    <t>134.000000_274.904605;134.000000_274.700658;134.000000_274.496711;134.000000_274.292763;134.000000_274.088816;134.000000_273.884868;134.000000_273.680921;134.000000_273.476974;134.000000_273.273026;134.000000_273.069079;134.000000_272.865132;134.000000_272.661184;134.000000_272.457237;134.000000_272.253289;134.000000_272.049342;134.000000_271.845395;134.000000_271.641447;134.000000_271.437500;134.000000_271.233553;134.000000_271.029605;134.000000_270.825658;134.000000_270.621711;134.000000_270.417763;134.000000_270.213816;134.000000_270.009868;134.000000_269.805921;134.000000_269.601974;134.000000_269.398026;134.000000_269.194079;134.000000_268.990132;134.000000_268.786184;134.000000_268.582237;134.000000_268.378289;134.000000_268.174342;134.000000_267.970395;134.000000_267.766447;134.000000_267.562500;134.000000_267.358553;134.000000_267.154605;134.000000_266.950658;134.000000_266.746711;134.000000_266.542763;134.000000_266.338816;134.000000_266.134868;134.000000_265.930921;134.000000_265.726974;134.000000_265.523026;134.000000_265.319079;134.000000_265.115132;134.000000_264.911184;</t>
   </si>
   <si>
-    <t>(134.000000,264.911184);(134.000000,264.707237);(134.000000,264.503289);(134.000000,264.299342);(134.000000,264.095395);(134.000000,263.891447);(134.000000,263.687500);(134.000000,263.483553);(134.000000,263.279605);(134.000000,263.075658);(134.000000,262.871711);(134.000000,262.667763);(134.000000,262.463816);(134.000000,262.259868);(134.000000,262.055921);(134.000000,261.851974);(134.000000,261.648026);(134.000000,261.444079);(134.000000,261.240132);(134.000000,261.036184);(134.000000,260.832237);(134.000000,260.628289);(134.000000,260.424342);(134.000000,260.220395);(134.000000,260.016447);(134.000000,259.812500);(134.000000,259.608553);(134.000000,259.404605);(134.000000,259.200658);(134.000000,258.996711);(134.000000,258.792763);(134.000000,258.588816);(134.000000,258.384868);(134.000000,258.180921);(134.000000,257.976974);(134.000000,257.773026);(134.000000,257.569079);(134.000000,257.365132);(134.000000,257.161184);(134.000000,256.957237);(134.000000,256.753289);(134.000000,256.549342);(134.000000,256.345395);(134.000000,256.141447);(134.000000,255.937500);(134.000000,255.733553);(134.000000,255.529605);(134.000000,255.325658);(134.000000,255.121711);(134.000000,254.917763);</t>
+    <t>134.000000_264.911184;134.000000_264.707237;134.000000_264.503289;134.000000_264.299342;134.000000_264.095395;134.000000_263.891447;134.000000_263.687500;134.000000_263.483553;134.000000_263.279605;134.000000_263.075658;134.000000_262.871711;134.000000_262.667763;134.000000_262.463816;134.000000_262.259868;134.000000_262.055921;134.000000_261.851974;134.000000_261.648026;134.000000_261.444079;134.000000_261.240132;134.000000_261.036184;134.000000_260.832237;134.000000_260.628289;134.000000_260.424342;134.000000_260.220395;134.000000_260.016447;134.000000_259.812500;134.000000_259.608553;134.000000_259.404605;134.000000_259.200658;134.000000_258.996711;134.000000_258.792763;134.000000_258.588816;134.000000_258.384868;134.000000_258.180921;134.000000_257.976974;134.000000_257.773026;134.000000_257.569079;134.000000_257.365132;134.000000_257.161184;134.000000_256.957237;134.000000_256.753289;134.000000_256.549342;134.000000_256.345395;134.000000_256.141447;134.000000_255.937500;134.000000_255.733553;134.000000_255.529605;134.000000_255.325658;134.000000_255.121711;134.000000_254.917763;</t>
   </si>
   <si>
-    <t>(135.235613,254.098512);(135.709845,254.120834);(136.118854,253.852119);(136.448371,253.456996);(136.823844,253.123109);(137.296845,253.002927);(137.807212,252.995066);(138.248678,252.803154);(138.591335,252.424246);(138.956742,252.078034);(139.423514,251.939464);(139.933190,251.988326);(140.442855,252.056521);(140.932917,251.981486);(141.334926,251.690706);(141.672093,251.301950);(142.076058,251.014781);(142.567245,250.943905);(143.076820,251.013444);(143.586378,251.060551);(144.050818,250.916679);(144.413084,250.566307);(144.756936,250.189502);(145.201182,250.006875);(145.711886,250.001443);(146.172809,249.859565);(146.531043,249.503684);(146.878369,249.131583);(147.326549,248.946889);(147.834783,248.972346);(148.343984,249.049122);(148.843847,249.013954);(149.265443,248.761156);(149.605363,248.375627);(149.990032,248.054415);(150.468515,247.941166);(150.978418,247.996976);(151.488085,248.061244);(151.968423,247.962589);(152.350041,247.643484);(152.683305,247.253096);(153.107715,247.024695);(153.613051,247.003078);(154.090898,246.904670);(154.468642,246.581531);(154.803829,246.193471);(155.231986,245.963345);(155.735787,245.957308);(156.244290,246.039948);(156.749225,246.040963);</t>
+    <t>135.235613_254.098512;135.709845_254.120834;136.118854_253.852119;136.448371_253.456996;136.823844_253.123109;137.296845_253.002927;137.807212_252.995066;138.248678_252.803154;138.591335_252.424246;138.956742_252.078034;139.423514_251.939464;139.933190_251.988326;140.442855_252.056521;140.932917_251.981486;141.334926_251.690706;141.672093_251.301950;142.076058_251.014781;142.567245_250.943905;143.076820_251.013444;143.586378_251.060551;144.050818_250.916679;144.413084_250.566307;144.756936_250.189502;145.201182_250.006875;145.711886_250.001443;146.172809_249.859565;146.531043_249.503684;146.878369_249.131583;147.326549_248.946889;147.834783_248.972346;148.343984_249.049122;148.843847_249.013954;149.265443_248.761156;149.605363_248.375627;149.990032_248.054415;150.468515_247.941166;150.978418_247.996976;151.488085_248.061244;151.968423_247.962589;152.350041_247.643484;152.683305_247.253096;153.107715_247.024695;153.613051_247.003078;154.090898_246.904670;154.468642_246.581531;154.803829_246.193471;155.231986_245.963345;155.735787_245.957308;156.244290_246.039948;156.749225_246.040963;</t>
   </si>
   <si>
-    <t>(156.749225,208.959037);(156.244290,208.960052);(155.735787,209.042692);(155.231986,209.036655);(154.803829,208.806529);(154.468642,208.418469);(154.090898,208.095330);(153.613051,207.996922);(153.107715,207.975305);(152.683305,207.746904);(152.350041,207.356516);(151.968423,207.037411);(151.488085,206.938756);(150.978418,207.003024);(150.468515,207.058834);(149.990032,206.945585);(149.605363,206.624373);(149.265443,206.238844);(148.843847,205.986046);(148.343984,205.950878);(147.834783,206.027654);(147.326549,206.053111);(146.878369,205.868417);(146.531043,205.496316);(146.172809,205.140435);(145.711886,204.998557);(145.201182,204.993125);(144.756936,204.810498);(144.413084,204.433693);(144.050818,204.083321);(143.586378,203.939449);(143.076820,203.986556);(142.567245,204.056095);(142.076058,203.985219);(141.672093,203.698050);(141.334926,203.309294);(140.932917,203.018514);(140.442855,202.943479);(139.933190,203.011674);(139.423514,203.060536);(138.956742,202.921966);(138.591335,202.575754);(138.248678,202.196846);(137.807212,202.004934);(137.296845,201.997073);(136.823844,201.876891);(136.448371,201.543004);(136.118854,201.147881);(135.709845,200.879166);(135.235613,200.901488);</t>
+    <t>156.749225_208.959037;156.244290_208.960052;155.735787_209.042692;155.231986_209.036655;154.803829_208.806529;154.468642_208.418469;154.090898_208.095330;153.613051_207.996922;153.107715_207.975305;152.683305_207.746904;152.350041_207.356516;151.968423_207.037411;151.488085_206.938756;150.978418_207.003024;150.468515_207.058834;149.990032_206.945585;149.605363_206.624373;149.265443_206.238844;148.843847_205.986046;148.343984_205.950878;147.834783_206.027654;147.326549_206.053111;146.878369_205.868417;146.531043_205.496316;146.172809_205.140435;145.711886_204.998557;145.201182_204.993125;144.756936_204.810498;144.413084_204.433693;144.050818_204.083321;143.586378_203.939449;143.076820_203.986556;142.567245_204.056095;142.076058_203.985219;141.672093_203.698050;141.334926_203.309294;140.932917_203.018514;140.442855_202.943479;139.933190_203.011674;139.423514_203.060536;138.956742_202.921966;138.591335_202.575754;138.248678_202.196846;137.807212_202.004934;137.296845_201.997073;136.823844_201.876891;136.448371_201.543004;136.118854_201.147881;135.709845_200.879166;135.235613_200.901488;</t>
   </si>
   <si>
-    <t>(134.000000,200.904605);(134.000000,200.713816);(134.000000,200.523026);(134.000000,200.332237);(134.000000,200.141447);(134.000000,199.950658);(134.000000,199.759868);(134.000000,199.569079);(134.000000,199.378289);(134.000000,199.187500);(134.000000,198.996711);(134.000000,198.805921);(134.000000,198.615132);(134.000000,198.424342);(134.000000,198.233553);(134.000000,198.042763);(134.000000,197.851974);(134.000000,197.661184);(134.000000,197.470395);(134.000000,197.279605);(134.000000,197.088816);(134.000000,196.898026);(134.000000,196.707237);(134.000000,196.516447);(134.000000,196.325658);(134.000000,196.134868);(134.000000,195.944079);(134.000000,195.753289);(134.000000,195.562500);(134.000000,195.371711);(134.000000,195.180921);(134.000000,194.990132);(134.000000,194.799342);(134.000000,194.608553);(134.000000,194.417763);(134.000000,194.226974);(134.000000,194.036184);(134.000000,193.845395);(134.000000,193.654605);(134.000000,193.463816);(134.000000,193.273026);(134.000000,193.082237);(134.000000,192.891447);(134.000000,192.700658);(134.000000,192.509868);(134.000000,192.319079);(134.000000,192.128289);(134.000000,191.937500);(134.000000,191.746711);(134.000000,191.555921);</t>
+    <t>134.000000_200.904605;134.000000_200.713816;134.000000_200.523026;134.000000_200.332237;134.000000_200.141447;134.000000_199.950658;134.000000_199.759868;134.000000_199.569079;134.000000_199.378289;134.000000_199.187500;134.000000_198.996711;134.000000_198.805921;134.000000_198.615132;134.000000_198.424342;134.000000_198.233553;134.000000_198.042763;134.000000_197.851974;134.000000_197.661184;134.000000_197.470395;134.000000_197.279605;134.000000_197.088816;134.000000_196.898026;134.000000_196.707237;134.000000_196.516447;134.000000_196.325658;134.000000_196.134868;134.000000_195.944079;134.000000_195.753289;134.000000_195.562500;134.000000_195.371711;134.000000_195.180921;134.000000_194.990132;134.000000_194.799342;134.000000_194.608553;134.000000_194.417763;134.000000_194.226974;134.000000_194.036184;134.000000_193.845395;134.000000_193.654605;134.000000_193.463816;134.000000_193.273026;134.000000_193.082237;134.000000_192.891447;134.000000_192.700658;134.000000_192.509868;134.000000_192.319079;134.000000_192.128289;134.000000_191.937500;134.000000_191.746711;134.000000_191.555921;</t>
   </si>
   <si>
-    <t>(134.000000,191.555921);(134.000000,191.365132);(134.000000,191.174342);(134.000000,190.983553);(134.000000,190.792763);(134.000000,190.601974);(134.000000,190.411184);(134.000000,190.220395);(134.000000,190.029605);(134.000000,189.838816);(134.000000,189.648026);(134.000000,189.457237);(134.000000,189.266447);(134.000000,189.075658);(134.000000,188.884868);(134.000000,188.694079);(134.000000,188.503289);(134.000000,188.312500);(134.000000,188.121711);(134.000000,187.930921);(134.000000,187.740132);(134.000000,187.549342);(134.000000,187.358553);(134.000000,187.167763);(134.000000,186.976974);(134.000000,186.786184);(134.000000,186.595395);(134.000000,186.404605);(134.000000,186.213816);(134.000000,186.023026);(134.000000,185.832237);(134.000000,185.641447);(134.000000,185.450658);(134.000000,185.259868);(134.000000,185.069079);(134.000000,184.878289);(134.000000,184.687500);(134.000000,184.496711);(134.000000,184.305921);(134.000000,184.115132);(134.000000,183.924342);(134.000000,183.733553);(134.000000,183.542763);(134.000000,183.351974);(134.000000,183.161184);(134.000000,182.970395);(134.000000,182.779605);(134.000000,182.588816);(134.000000,182.398026);(134.000000,182.207237);</t>
+    <t>134.000000_191.555921;134.000000_191.365132;134.000000_191.174342;134.000000_190.983553;134.000000_190.792763;134.000000_190.601974;134.000000_190.411184;134.000000_190.220395;134.000000_190.029605;134.000000_189.838816;134.000000_189.648026;134.000000_189.457237;134.000000_189.266447;134.000000_189.075658;134.000000_188.884868;134.000000_188.694079;134.000000_188.503289;134.000000_188.312500;134.000000_188.121711;134.000000_187.930921;134.000000_187.740132;134.000000_187.549342;134.000000_187.358553;134.000000_187.167763;134.000000_186.976974;134.000000_186.786184;134.000000_186.595395;134.000000_186.404605;134.000000_186.213816;134.000000_186.023026;134.000000_185.832237;134.000000_185.641447;134.000000_185.450658;134.000000_185.259868;134.000000_185.069079;134.000000_184.878289;134.000000_184.687500;134.000000_184.496711;134.000000_184.305921;134.000000_184.115132;134.000000_183.924342;134.000000_183.733553;134.000000_183.542763;134.000000_183.351974;134.000000_183.161184;134.000000_182.970395;134.000000_182.779605;134.000000_182.588816;134.000000_182.398026;134.000000_182.207237;</t>
   </si>
   <si>
-    <t>(134.000000,182.207237);(134.000000,182.016447);(134.000000,181.825658);(134.000000,181.634868);(134.000000,181.444079);(134.000000,181.253289);(134.000000,181.062500);(134.000000,180.871711);(134.000000,180.680921);(134.000000,180.490132);(134.000000,180.299342);(134.000000,180.108553);(134.000000,179.917763);(134.000000,179.726974);(134.000000,179.536184);(134.000000,179.345395);(134.000000,179.154605);(134.000000,178.963816);(134.000000,178.773026);(134.000000,178.582237);(134.000000,178.391447);(134.000000,178.200658);(134.000000,178.009868);(134.000000,177.819079);(134.000000,177.628289);(134.000000,177.437500);(134.000000,177.246711);(134.000000,177.055921);(134.000000,176.865132);(134.000000,176.674342);(134.000000,176.483553);(134.000000,176.292763);(134.000000,176.101974);(134.000000,175.911184);(134.000000,175.720395);(134.000000,175.529605);(134.000000,175.338816);(134.000000,175.148026);(134.000000,174.957237);(134.000000,174.766447);(134.000000,174.575658);(134.000000,174.384868);(134.000000,174.194079);(134.000000,174.003289);(134.000000,173.812500);(134.000000,173.621711);(134.000000,173.430921);(134.000000,173.240132);(134.000000,173.049342);(134.000000,172.858553);</t>
+    <t>134.000000_182.207237;134.000000_182.016447;134.000000_181.825658;134.000000_181.634868;134.000000_181.444079;134.000000_181.253289;134.000000_181.062500;134.000000_180.871711;134.000000_180.680921;134.000000_180.490132;134.000000_180.299342;134.000000_180.108553;134.000000_179.917763;134.000000_179.726974;134.000000_179.536184;134.000000_179.345395;134.000000_179.154605;134.000000_178.963816;134.000000_178.773026;134.000000_178.582237;134.000000_178.391447;134.000000_178.200658;134.000000_178.009868;134.000000_177.819079;134.000000_177.628289;134.000000_177.437500;134.000000_177.246711;134.000000_177.055921;134.000000_176.865132;134.000000_176.674342;134.000000_176.483553;134.000000_176.292763;134.000000_176.101974;134.000000_175.911184;134.000000_175.720395;134.000000_175.529605;134.000000_175.338816;134.000000_175.148026;134.000000_174.957237;134.000000_174.766447;134.000000_174.575658;134.000000_174.384868;134.000000_174.194079;134.000000_174.003289;134.000000_173.812500;134.000000_173.621711;134.000000_173.430921;134.000000_173.240132;134.000000_173.049342;134.000000_172.858553;</t>
   </si>
   <si>
-    <t>(135.236776,171.960408);(135.713758,171.955928);(136.193463,172.031331);(136.673363,172.054162);(137.105177,171.891984);(137.445118,171.555059);(137.768118,171.195952);(138.178063,170.984731);(138.655123,170.965559);(139.139346,170.997298);(139.624835,170.998695);(140.109395,171.016722);(140.593164,171.044576);(141.042164,170.931043);(141.399657,170.622419);(141.713352,170.253068);(142.104826,170.005719);(142.574930,169.959212);(143.059068,169.993805);(143.544271,169.999543);(144.029132,170.011252);(144.513224,170.044456);(144.973430,169.964143);(145.346968,169.683013);(145.658358,169.311092);(146.033510,169.032870);(146.494718,168.955740);(146.978821,168.989248);(147.463713,169.000377);(147.948886,169.006605);(148.433025,169.041241);(148.902347,168.991836);(149.292200,168.741306);(149.605473,168.371483);(149.964535,168.065439);(150.414741,167.955313);(150.898570,167.983856);(151.383161,168.001076);(151.868612,168.002945);(152.352770,168.035699);(152.828988,168.013820);(153.235564,167.796930);(153.555592,167.434765);(153.898832,167.103571);(154.335215,166.955390);(154.817547,166.975849);(155.301334,167.013139);(155.786726,167.009394);(156.272131,166.988470);(156.757428,166.989316);</t>
+    <t>135.236776_171.960408;135.713758_171.955928;136.193463_172.031331;136.673363_172.054162;137.105177_171.891984;137.445118_171.555059;137.768118_171.195952;138.178063_170.984731;138.655123_170.965559;139.139346_170.997298;139.624835_170.998695;140.109395_171.016722;140.593164_171.044576;141.042164_170.931043;141.399657_170.622419;141.713352_170.253068;142.104826_170.005719;142.574930_169.959212;143.059068_169.993805;143.544271_169.999543;144.029132_170.011252;144.513224_170.044456;144.973430_169.964143;145.346968_169.683013;145.658358_169.311092;146.033510_169.032870;146.494718_168.955740;146.978821_168.989248;147.463713_169.000377;147.948886_169.006605;148.433025_169.041241;148.902347_168.991836;149.292200_168.741306;149.605473_168.371483;149.964535_168.065439;150.414741_167.955313;150.898570_167.983856;151.383161_168.001076;151.868612_168.002945;152.352770_168.035699;152.828988_168.013820;153.235564_167.796930;153.555592_167.434765;153.898832_167.103571;154.335215_166.955390;154.817547_166.975849;155.301334_167.013139;155.786726_167.009394;156.272131_166.988470;156.757428_166.989316;</t>
   </si>
   <si>
-    <t>(317.069017,146.529257);(317.220696,145.589970);(317.397424,144.655032);(317.594684,143.724176);(317.807926,142.796823);(318.032611,141.872157);(318.264226,140.949190);(318.498284,140.026835);(318.730313,139.103971);(318.955880,138.179518);(319.173472,137.253151);(319.389278,136.326360);(319.614761,135.401920);(319.861790,134.483102);(320.139321,133.573100);(320.441653,132.670876);(320.748280,131.770061);(321.036390,130.863311);(321.293871,129.947416);(321.525621,129.024556);(321.743764,128.098320);(321.960609,127.171774);(322.185104,126.247065);(322.417461,125.324285);(322.651991,124.402051);(322.882510,123.478816);(323.104295,122.553452);(323.320263,121.626697);(323.541154,120.701126);(323.779309,119.779928);(324.046112,118.866729);(324.341771,117.962358);(324.649588,117.061938);(324.946174,116.157862);(325.214392,115.245076);(325.453733,114.324191);(325.675082,113.398733);(325.890383,112.471822);(326.110266,111.546001);(326.338457,110.622188);(326.571713,109.699632);(326.805368,108.777176);(327.035029,107.853723);(327.259799,106.929064);(327.484149,106.004302);(327.714716,105.081086);(327.958157,104.161215);(328.221068,103.246768);(328.509893,102.340242);(328.830789,101.444650);</t>
+    <t>317.069017_146.529257;317.220696_145.589970;317.397424_144.655032;317.594684_143.724176;317.807926_142.796823;318.032611_141.872157;318.264226_140.949190;318.498284_140.026835;318.730313_139.103971;318.955880_138.179518;319.173472_137.253151;319.389278_136.326360;319.614761_135.401920;319.861790_134.483102;320.139321_133.573100;320.441653_132.670876;320.748280_131.770061;321.036390_130.863311;321.293871_129.947416;321.525621_129.024556;321.743764_128.098320;321.960609_127.171774;322.185104_126.247065;322.417461_125.324285;322.651991_124.402051;322.882510_123.478816;323.104295_122.553452;323.320263_121.626697;323.541154_120.701126;323.779309_119.779928;324.046112_118.866729;324.341771_117.962358;324.649588_117.061938;324.946174_116.157862;325.214392_115.245076;325.453733_114.324191;325.675082_113.398733;325.890383_112.471822;326.110266_111.546001;326.338457_110.622188;326.571713_109.699632;326.805368_108.777176;327.035029_107.853723;327.259799_106.929064;327.484149_106.004302;327.714716_105.081086;327.958157_104.161215;328.221068_103.246768;328.509893_102.340242;328.830789_101.444650;</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,6 +735,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8478,9 +8479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:P79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8641,7 +8642,7 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -8691,7 +8692,7 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8741,7 +8742,7 @@
       <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -8791,7 +8792,7 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -8841,7 +8842,7 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -8891,7 +8892,7 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -8941,7 +8942,7 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8991,7 +8992,7 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -9041,7 +9042,7 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -9091,7 +9092,7 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -9141,7 +9142,7 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -9191,7 +9192,7 @@
       <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -9241,7 +9242,7 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -9291,7 +9292,7 @@
       <c r="O16" s="2">
         <v>0</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -9341,7 +9342,7 @@
       <c r="O17" s="2">
         <v>0</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -9391,7 +9392,7 @@
       <c r="O18" s="2">
         <v>0</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9441,7 +9442,7 @@
       <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9491,7 +9492,7 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9541,7 +9542,7 @@
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9591,7 +9592,7 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9641,7 +9642,7 @@
       <c r="O23" s="2">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -9691,7 +9692,7 @@
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -9741,7 +9742,7 @@
       <c r="O25" s="2">
         <v>0</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -9791,7 +9792,7 @@
       <c r="O26" s="2">
         <v>1</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9841,7 +9842,7 @@
       <c r="O27" s="2">
         <v>1</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9891,7 +9892,7 @@
       <c r="O28" s="2">
         <v>1</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9941,7 +9942,7 @@
       <c r="O29" s="2">
         <v>1</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9991,7 +9992,7 @@
       <c r="O30" s="2">
         <v>1</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10041,7 +10042,7 @@
       <c r="O31" s="2">
         <v>1</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10091,7 +10092,7 @@
       <c r="O32" s="2">
         <v>1</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -10141,7 +10142,7 @@
       <c r="O33" s="2">
         <v>1</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10191,7 +10192,7 @@
       <c r="O34" s="2">
         <v>1</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10241,7 +10242,7 @@
       <c r="O35" s="2">
         <v>1</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -10291,7 +10292,7 @@
       <c r="O36" s="2">
         <v>1</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10341,7 +10342,7 @@
       <c r="O37" s="2">
         <v>1</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -10391,7 +10392,7 @@
       <c r="O38" s="2">
         <v>1</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="11" t="s">
         <v>143</v>
       </c>
     </row>
@@ -10441,7 +10442,7 @@
       <c r="O39" s="2">
         <v>1</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10491,7 +10492,7 @@
       <c r="O40" s="2">
         <v>1</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="11" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10541,7 +10542,7 @@
       <c r="O41" s="2">
         <v>1</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="11" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10591,7 +10592,7 @@
       <c r="O42" s="2">
         <v>1</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="11" t="s">
         <v>147</v>
       </c>
     </row>
@@ -10641,7 +10642,7 @@
       <c r="O43" s="2">
         <v>1</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="11" t="s">
         <v>148</v>
       </c>
     </row>
@@ -10691,7 +10692,7 @@
       <c r="O44" s="2">
         <v>1</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="11" t="s">
         <v>149</v>
       </c>
     </row>
@@ -10741,7 +10742,7 @@
       <c r="O45" s="2">
         <v>1</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="11" t="s">
         <v>150</v>
       </c>
     </row>
@@ -10791,7 +10792,7 @@
       <c r="O46" s="2">
         <v>1</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -10841,7 +10842,7 @@
       <c r="O47" s="2">
         <v>1</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -10891,7 +10892,7 @@
       <c r="O48" s="2">
         <v>1</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -10941,7 +10942,7 @@
       <c r="O49" s="2">
         <v>0</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -10991,7 +10992,7 @@
       <c r="O50" s="2">
         <v>0</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -11041,7 +11042,7 @@
       <c r="O51" s="2">
         <v>0</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -11091,7 +11092,7 @@
       <c r="O52" s="2">
         <v>0</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="11" t="s">
         <v>157</v>
       </c>
     </row>
@@ -11141,7 +11142,7 @@
       <c r="O53" s="2">
         <v>0</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -11191,7 +11192,7 @@
       <c r="O54" s="2">
         <v>0</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="11" t="s">
         <v>159</v>
       </c>
     </row>
@@ -11241,7 +11242,7 @@
       <c r="O55" s="2">
         <v>0</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="11" t="s">
         <v>160</v>
       </c>
     </row>
@@ -11291,7 +11292,7 @@
       <c r="O56" s="2">
         <v>0</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="11" t="s">
         <v>161</v>
       </c>
     </row>
@@ -11341,7 +11342,7 @@
       <c r="O57" s="2">
         <v>0</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -11391,7 +11392,7 @@
       <c r="O58" s="2">
         <v>0</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -11441,7 +11442,7 @@
       <c r="O59" s="2">
         <v>0</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="11" t="s">
         <v>164</v>
       </c>
     </row>
@@ -11491,7 +11492,7 @@
       <c r="O60" s="2">
         <v>0</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P60" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -11541,7 +11542,7 @@
       <c r="O61" s="2">
         <v>0</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P61" s="11" t="s">
         <v>166</v>
       </c>
     </row>
@@ -11591,7 +11592,7 @@
       <c r="O62" s="2">
         <v>0</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -11641,7 +11642,7 @@
       <c r="O63" s="2">
         <v>0</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="11" t="s">
         <v>168</v>
       </c>
     </row>
@@ -11691,7 +11692,7 @@
       <c r="O64" s="2">
         <v>0</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P64" s="11" t="s">
         <v>169</v>
       </c>
     </row>
@@ -11741,7 +11742,7 @@
       <c r="O65" s="2">
         <v>0</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65" s="11" t="s">
         <v>170</v>
       </c>
     </row>
@@ -11791,7 +11792,7 @@
       <c r="O66" s="2">
         <v>0</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P66" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -11841,7 +11842,7 @@
       <c r="O67" s="2">
         <v>0</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P67" s="11" t="s">
         <v>172</v>
       </c>
     </row>
@@ -11891,7 +11892,7 @@
       <c r="O68" s="2">
         <v>0</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="11" t="s">
         <v>173</v>
       </c>
     </row>
@@ -11941,7 +11942,7 @@
       <c r="O69" s="2">
         <v>1</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="11" t="s">
         <v>174</v>
       </c>
     </row>
@@ -11991,7 +11992,7 @@
       <c r="O70" s="2">
         <v>1</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P70" s="11" t="s">
         <v>175</v>
       </c>
     </row>
@@ -12041,7 +12042,7 @@
       <c r="O71" s="2">
         <v>1</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P71" s="11" t="s">
         <v>176</v>
       </c>
     </row>
@@ -12091,7 +12092,7 @@
       <c r="O72" s="2">
         <v>1</v>
       </c>
-      <c r="P72" t="s">
+      <c r="P72" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -12141,7 +12142,7 @@
       <c r="O73" s="2">
         <v>1</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="11" t="s">
         <v>178</v>
       </c>
     </row>
@@ -12191,7 +12192,7 @@
       <c r="O74" s="2">
         <v>1</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="11" t="s">
         <v>179</v>
       </c>
     </row>
@@ -12241,7 +12242,7 @@
       <c r="O75" s="2">
         <v>1</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -12291,7 +12292,7 @@
       <c r="O76" s="2">
         <v>1</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P76" s="11" t="s">
         <v>181</v>
       </c>
     </row>
@@ -12341,7 +12342,7 @@
       <c r="O77" s="2">
         <v>1</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P77" s="11" t="s">
         <v>182</v>
       </c>
     </row>
@@ -12391,7 +12392,7 @@
       <c r="O78" s="2">
         <v>1</v>
       </c>
-      <c r="P78" t="s">
+      <c r="P78" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -12441,7 +12442,7 @@
       <c r="O79" s="2">
         <v>0</v>
       </c>
-      <c r="P79" t="s">
+      <c r="P79" s="11" t="s">
         <v>184</v>
       </c>
     </row>
@@ -20817,8 +20818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="K52" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20873,7 +20874,7 @@
       <c r="O1" s="2">
         <v>0</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="11" t="s">
         <v>108</v>
       </c>
     </row>
@@ -20923,7 +20924,7 @@
       <c r="O2" s="2">
         <v>0</v>
       </c>
-      <c r="P2" t="s">
+      <c r="P2" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -20973,7 +20974,7 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="11" t="s">
         <v>110</v>
       </c>
     </row>
@@ -21023,7 +21024,7 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="P4" t="s">
+      <c r="P4" s="11" t="s">
         <v>111</v>
       </c>
     </row>
@@ -21073,7 +21074,7 @@
       <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="P5" t="s">
+      <c r="P5" s="11" t="s">
         <v>112</v>
       </c>
     </row>
@@ -21123,7 +21124,7 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="11" t="s">
         <v>113</v>
       </c>
     </row>
@@ -21173,7 +21174,7 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" s="11" t="s">
         <v>114</v>
       </c>
     </row>
@@ -21223,7 +21224,7 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" s="11" t="s">
         <v>115</v>
       </c>
     </row>
@@ -21273,7 +21274,7 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" t="s">
+      <c r="P9" s="11" t="s">
         <v>116</v>
       </c>
     </row>
@@ -21323,7 +21324,7 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" t="s">
+      <c r="P10" s="11" t="s">
         <v>117</v>
       </c>
     </row>
@@ -21373,7 +21374,7 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" t="s">
+      <c r="P11" s="11" t="s">
         <v>118</v>
       </c>
     </row>
@@ -21423,7 +21424,7 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" t="s">
+      <c r="P12" s="11" t="s">
         <v>119</v>
       </c>
     </row>
@@ -21473,7 +21474,7 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" t="s">
+      <c r="P13" s="11" t="s">
         <v>120</v>
       </c>
     </row>
@@ -21523,7 +21524,7 @@
       <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P14" s="11" t="s">
         <v>121</v>
       </c>
     </row>
@@ -21573,7 +21574,7 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="P15" t="s">
+      <c r="P15" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -21623,7 +21624,7 @@
       <c r="O16" s="2">
         <v>0</v>
       </c>
-      <c r="P16" t="s">
+      <c r="P16" s="11" t="s">
         <v>123</v>
       </c>
     </row>
@@ -21673,7 +21674,7 @@
       <c r="O17" s="2">
         <v>0</v>
       </c>
-      <c r="P17" t="s">
+      <c r="P17" s="11" t="s">
         <v>124</v>
       </c>
     </row>
@@ -21723,7 +21724,7 @@
       <c r="O18" s="2">
         <v>0</v>
       </c>
-      <c r="P18" t="s">
+      <c r="P18" s="11" t="s">
         <v>125</v>
       </c>
     </row>
@@ -21773,7 +21774,7 @@
       <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="P19" t="s">
+      <c r="P19" s="11" t="s">
         <v>126</v>
       </c>
     </row>
@@ -21823,7 +21824,7 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" t="s">
+      <c r="P20" s="11" t="s">
         <v>127</v>
       </c>
     </row>
@@ -21873,7 +21874,7 @@
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" t="s">
+      <c r="P21" s="11" t="s">
         <v>128</v>
       </c>
     </row>
@@ -21923,7 +21924,7 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" t="s">
+      <c r="P22" s="11" t="s">
         <v>129</v>
       </c>
     </row>
@@ -21973,7 +21974,7 @@
       <c r="O23" s="2">
         <v>0</v>
       </c>
-      <c r="P23" t="s">
+      <c r="P23" s="11" t="s">
         <v>130</v>
       </c>
     </row>
@@ -22023,7 +22024,7 @@
       <c r="O24" s="2">
         <v>1</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" s="11" t="s">
         <v>131</v>
       </c>
     </row>
@@ -22073,7 +22074,7 @@
       <c r="O25" s="2">
         <v>1</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -22123,7 +22124,7 @@
       <c r="O26" s="2">
         <v>1</v>
       </c>
-      <c r="P26" t="s">
+      <c r="P26" s="11" t="s">
         <v>133</v>
       </c>
     </row>
@@ -22173,7 +22174,7 @@
       <c r="O27" s="2">
         <v>1</v>
       </c>
-      <c r="P27" t="s">
+      <c r="P27" s="11" t="s">
         <v>134</v>
       </c>
     </row>
@@ -22223,7 +22224,7 @@
       <c r="O28" s="2">
         <v>1</v>
       </c>
-      <c r="P28" t="s">
+      <c r="P28" s="11" t="s">
         <v>135</v>
       </c>
     </row>
@@ -22273,7 +22274,7 @@
       <c r="O29" s="2">
         <v>1</v>
       </c>
-      <c r="P29" t="s">
+      <c r="P29" s="11" t="s">
         <v>136</v>
       </c>
     </row>
@@ -22323,7 +22324,7 @@
       <c r="O30" s="2">
         <v>1</v>
       </c>
-      <c r="P30" t="s">
+      <c r="P30" s="11" t="s">
         <v>137</v>
       </c>
     </row>
@@ -22373,7 +22374,7 @@
       <c r="O31" s="2">
         <v>1</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="11" t="s">
         <v>138</v>
       </c>
     </row>
@@ -22423,7 +22424,7 @@
       <c r="O32" s="2">
         <v>1</v>
       </c>
-      <c r="P32" t="s">
+      <c r="P32" s="11" t="s">
         <v>139</v>
       </c>
     </row>
@@ -22473,7 +22474,7 @@
       <c r="O33" s="2">
         <v>1</v>
       </c>
-      <c r="P33" t="s">
+      <c r="P33" s="11" t="s">
         <v>140</v>
       </c>
     </row>
@@ -22523,7 +22524,7 @@
       <c r="O34" s="2">
         <v>1</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P34" s="11" t="s">
         <v>141</v>
       </c>
     </row>
@@ -22573,7 +22574,7 @@
       <c r="O35" s="2">
         <v>1</v>
       </c>
-      <c r="P35" t="s">
+      <c r="P35" s="11" t="s">
         <v>142</v>
       </c>
     </row>
@@ -22623,7 +22624,7 @@
       <c r="O36" s="2">
         <v>1</v>
       </c>
-      <c r="P36" t="s">
+      <c r="P36" s="11" t="s">
         <v>143</v>
       </c>
     </row>
@@ -22673,7 +22674,7 @@
       <c r="O37" s="2">
         <v>1</v>
       </c>
-      <c r="P37" t="s">
+      <c r="P37" s="11" t="s">
         <v>144</v>
       </c>
     </row>
@@ -22723,7 +22724,7 @@
       <c r="O38" s="2">
         <v>1</v>
       </c>
-      <c r="P38" t="s">
+      <c r="P38" s="11" t="s">
         <v>145</v>
       </c>
     </row>
@@ -22773,7 +22774,7 @@
       <c r="O39" s="2">
         <v>1</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P39" s="11" t="s">
         <v>146</v>
       </c>
     </row>
@@ -22823,7 +22824,7 @@
       <c r="O40" s="2">
         <v>1</v>
       </c>
-      <c r="P40" t="s">
+      <c r="P40" s="11" t="s">
         <v>147</v>
       </c>
     </row>
@@ -22873,7 +22874,7 @@
       <c r="O41" s="2">
         <v>1</v>
       </c>
-      <c r="P41" t="s">
+      <c r="P41" s="11" t="s">
         <v>148</v>
       </c>
     </row>
@@ -22923,7 +22924,7 @@
       <c r="O42" s="2">
         <v>1</v>
       </c>
-      <c r="P42" t="s">
+      <c r="P42" s="11" t="s">
         <v>149</v>
       </c>
     </row>
@@ -22973,7 +22974,7 @@
       <c r="O43" s="2">
         <v>1</v>
       </c>
-      <c r="P43" t="s">
+      <c r="P43" s="11" t="s">
         <v>150</v>
       </c>
     </row>
@@ -23023,7 +23024,7 @@
       <c r="O44" s="2">
         <v>1</v>
       </c>
-      <c r="P44" t="s">
+      <c r="P44" s="11" t="s">
         <v>151</v>
       </c>
     </row>
@@ -23073,7 +23074,7 @@
       <c r="O45" s="2">
         <v>1</v>
       </c>
-      <c r="P45" t="s">
+      <c r="P45" s="11" t="s">
         <v>152</v>
       </c>
     </row>
@@ -23123,7 +23124,7 @@
       <c r="O46" s="2">
         <v>1</v>
       </c>
-      <c r="P46" t="s">
+      <c r="P46" s="11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -23173,7 +23174,7 @@
       <c r="O47" s="2">
         <v>0</v>
       </c>
-      <c r="P47" t="s">
+      <c r="P47" s="11" t="s">
         <v>154</v>
       </c>
     </row>
@@ -23223,7 +23224,7 @@
       <c r="O48" s="2">
         <v>0</v>
       </c>
-      <c r="P48" t="s">
+      <c r="P48" s="11" t="s">
         <v>155</v>
       </c>
     </row>
@@ -23273,7 +23274,7 @@
       <c r="O49" s="2">
         <v>0</v>
       </c>
-      <c r="P49" t="s">
+      <c r="P49" s="11" t="s">
         <v>156</v>
       </c>
     </row>
@@ -23323,7 +23324,7 @@
       <c r="O50" s="2">
         <v>0</v>
       </c>
-      <c r="P50" t="s">
+      <c r="P50" s="11" t="s">
         <v>157</v>
       </c>
     </row>
@@ -23373,7 +23374,7 @@
       <c r="O51" s="2">
         <v>0</v>
       </c>
-      <c r="P51" t="s">
+      <c r="P51" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -23423,7 +23424,7 @@
       <c r="O52" s="2">
         <v>0</v>
       </c>
-      <c r="P52" t="s">
+      <c r="P52" s="11" t="s">
         <v>159</v>
       </c>
     </row>
@@ -23473,7 +23474,7 @@
       <c r="O53" s="2">
         <v>0</v>
       </c>
-      <c r="P53" t="s">
+      <c r="P53" s="11" t="s">
         <v>160</v>
       </c>
     </row>
@@ -23523,7 +23524,7 @@
       <c r="O54" s="2">
         <v>0</v>
       </c>
-      <c r="P54" t="s">
+      <c r="P54" s="11" t="s">
         <v>161</v>
       </c>
     </row>
@@ -23573,7 +23574,7 @@
       <c r="O55" s="2">
         <v>0</v>
       </c>
-      <c r="P55" t="s">
+      <c r="P55" s="11" t="s">
         <v>162</v>
       </c>
     </row>
@@ -23623,7 +23624,7 @@
       <c r="O56" s="2">
         <v>0</v>
       </c>
-      <c r="P56" t="s">
+      <c r="P56" s="11" t="s">
         <v>163</v>
       </c>
     </row>
@@ -23673,7 +23674,7 @@
       <c r="O57" s="2">
         <v>0</v>
       </c>
-      <c r="P57" t="s">
+      <c r="P57" s="11" t="s">
         <v>164</v>
       </c>
     </row>
@@ -23723,7 +23724,7 @@
       <c r="O58" s="2">
         <v>0</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -23773,7 +23774,7 @@
       <c r="O59" s="2">
         <v>0</v>
       </c>
-      <c r="P59" t="s">
+      <c r="P59" s="11" t="s">
         <v>166</v>
       </c>
     </row>
@@ -23823,7 +23824,7 @@
       <c r="O60" s="2">
         <v>0</v>
       </c>
-      <c r="P60" t="s">
+      <c r="P60" s="11" t="s">
         <v>167</v>
       </c>
     </row>
@@ -23873,7 +23874,7 @@
       <c r="O61" s="2">
         <v>0</v>
       </c>
-      <c r="P61" t="s">
+      <c r="P61" s="11" t="s">
         <v>168</v>
       </c>
     </row>
@@ -23923,7 +23924,7 @@
       <c r="O62" s="2">
         <v>0</v>
       </c>
-      <c r="P62" t="s">
+      <c r="P62" s="11" t="s">
         <v>169</v>
       </c>
     </row>
@@ -23973,7 +23974,7 @@
       <c r="O63" s="2">
         <v>0</v>
       </c>
-      <c r="P63" t="s">
+      <c r="P63" s="11" t="s">
         <v>170</v>
       </c>
     </row>
@@ -24023,7 +24024,7 @@
       <c r="O64" s="2">
         <v>0</v>
       </c>
-      <c r="P64" t="s">
+      <c r="P64" s="11" t="s">
         <v>171</v>
       </c>
     </row>
@@ -24073,7 +24074,7 @@
       <c r="O65" s="2">
         <v>0</v>
       </c>
-      <c r="P65" t="s">
+      <c r="P65" s="11" t="s">
         <v>172</v>
       </c>
     </row>
@@ -24123,7 +24124,7 @@
       <c r="O66" s="2">
         <v>0</v>
       </c>
-      <c r="P66" t="s">
+      <c r="P66" s="11" t="s">
         <v>173</v>
       </c>
     </row>
@@ -24173,7 +24174,7 @@
       <c r="O67" s="2">
         <v>1</v>
       </c>
-      <c r="P67" t="s">
+      <c r="P67" s="11" t="s">
         <v>174</v>
       </c>
     </row>
@@ -24223,7 +24224,7 @@
       <c r="O68" s="2">
         <v>1</v>
       </c>
-      <c r="P68" t="s">
+      <c r="P68" s="11" t="s">
         <v>175</v>
       </c>
     </row>
@@ -24273,7 +24274,7 @@
       <c r="O69" s="2">
         <v>1</v>
       </c>
-      <c r="P69" t="s">
+      <c r="P69" s="11" t="s">
         <v>176</v>
       </c>
     </row>
@@ -24323,7 +24324,7 @@
       <c r="O70" s="2">
         <v>1</v>
       </c>
-      <c r="P70" t="s">
+      <c r="P70" s="11" t="s">
         <v>177</v>
       </c>
     </row>
@@ -24373,7 +24374,7 @@
       <c r="O71" s="2">
         <v>1</v>
       </c>
-      <c r="P71" t="s">
+      <c r="P71" s="11" t="s">
         <v>178</v>
       </c>
     </row>
@@ -24423,7 +24424,7 @@
       <c r="O72" s="2">
         <v>1</v>
       </c>
-      <c r="P72" t="s">
+      <c r="P72" s="11" t="s">
         <v>179</v>
       </c>
     </row>
@@ -24473,7 +24474,7 @@
       <c r="O73" s="2">
         <v>1</v>
       </c>
-      <c r="P73" t="s">
+      <c r="P73" s="11" t="s">
         <v>180</v>
       </c>
     </row>
@@ -24523,7 +24524,7 @@
       <c r="O74" s="2">
         <v>1</v>
       </c>
-      <c r="P74" t="s">
+      <c r="P74" s="11" t="s">
         <v>181</v>
       </c>
     </row>
@@ -24573,7 +24574,7 @@
       <c r="O75" s="2">
         <v>1</v>
       </c>
-      <c r="P75" t="s">
+      <c r="P75" s="11" t="s">
         <v>182</v>
       </c>
     </row>
@@ -24623,7 +24624,7 @@
       <c r="O76" s="2">
         <v>1</v>
       </c>
-      <c r="P76" t="s">
+      <c r="P76" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -24673,7 +24674,7 @@
       <c r="O77" s="2">
         <v>0</v>
       </c>
-      <c r="P77" t="s">
+      <c r="P77" s="11" t="s">
         <v>184</v>
       </c>
     </row>

--- a/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
+++ b/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="381">
   <si>
     <t>Line</t>
   </si>
@@ -583,6 +583,594 @@
   </si>
   <si>
     <t>317.069017_146.529257;317.220696_145.589970;317.397424_144.655032;317.594684_143.724176;317.807926_142.796823;318.032611_141.872157;318.264226_140.949190;318.498284_140.026835;318.730313_139.103971;318.955880_138.179518;319.173472_137.253151;319.389278_136.326360;319.614761_135.401920;319.861790_134.483102;320.139321_133.573100;320.441653_132.670876;320.748280_131.770061;321.036390_130.863311;321.293871_129.947416;321.525621_129.024556;321.743764_128.098320;321.960609_127.171774;322.185104_126.247065;322.417461_125.324285;322.651991_124.402051;322.882510_123.478816;323.104295_122.553452;323.320263_121.626697;323.541154_120.701126;323.779309_119.779928;324.046112_118.866729;324.341771_117.962358;324.649588_117.061938;324.946174_116.157862;325.214392_115.245076;325.453733_114.324191;325.675082_113.398733;325.890383_112.471822;326.110266_111.546001;326.338457_110.622188;326.571713_109.699632;326.805368_108.777176;327.035029_107.853723;327.259799_106.929064;327.484149_106.004302;327.714716_105.081086;327.958157_104.161215;328.221068_103.246768;328.509893_102.340242;328.830789_101.444650;</t>
+  </si>
+  <si>
+    <t>150.082711_13.997177;150.248134_13.993359;150.413557_13.989555;150.578980_13.985776;150.744404_13.982030;150.909830_13.978327;151.075256_13.974695;151.240687_13.971264;151.406127_13.968268;151.571577_13.965968;151.737037_13.964624;151.902501_13.964496;152.067960_13.965867;152.233388_13.969165;152.398745_13.974977;152.563957_13.983925;152.728920_13.996618;152.893486_14.013643;153.057470_14.035547;153.220657_14.062732;153.382826_14.095437;153.543742_14.133821;153.703166_14.177992;153.860854_14.228005;154.016583_14.283819;154.170386_14.344778;154.322726_14.409343;154.474294_14.475721;154.625808_14.542221;154.777992_14.607160;154.931542_14.668758;155.087016_14.725274;155.244532_14.775819;155.403831_14.820439;155.564605_14.859430;155.726568_14.893169;155.889463_14.922102;156.053066_14.946760;156.217162_14.967945;156.381550_14.986774;156.546067_15.004476;156.710571_15.022295;156.874918_15.041472;157.038940_15.063213;157.202447_15.088499;157.365241_15.118001;157.527097_15.152252;157.687754_15.191725;157.846919_15.236820;158.004286_15.287825;158.159756_15.344381;158.313658_15.405118;158.466584_15.468300;158.619171_15.532303;158.772069_15.595551;158.925919_15.656423;159.081244_15.713393;159.238150_15.765855;159.396376_15.814213;159.555615_15.859145;159.715590_15.901397;159.876054_15.941768;160.036778_15.981096;160.197527_16.020327;160.358035_16.060522;160.518011_16.102764;160.677135_16.148087;160.835043_16.197450;160.991335_16.251689;161.145744_16.311081;161.298360_16.374967;161.449513_16.442261;161.599575_16.511968;161.748935_16.583176;161.897989_16.655023;162.047098_16.726756;162.196297_16.798302;162.345215_16.870426;162.493358_16.944123;162.640225_17.020319;162.785312_17.099836;162.928124_17.183356;163.068238_17.271319;163.205528_17.363636;163.340159_17.459800;163.472350_17.559297;163.602317_17.661687;163.730267_17.766592;163.856396_17.873682;163.980889_17.982673;164.103920_18.093312;164.225655_18.205378;164.346247_18.318674;164.465844_18.433021;164.584584_18.548257;164.702602_18.664234;164.820026_18.780813;164.936980_18.897864;165.053579_19.015269;165.169908_19.132941;</t>
+  </si>
+  <si>
+    <t>165.401957_19.368886;165.517766_19.487069;165.633492_19.605335;165.749177_19.723641;165.864866_19.841942;165.980602_19.960198;166.096423_20.078370;166.212348_20.196440;166.328387_20.314398;166.444548_20.432237;166.560839_20.549947;166.677268_20.667520;166.793843_20.784949;166.910573_20.902223;167.027465_21.019336;167.144523_21.136283;167.261743_21.253068;167.379117_21.369698;167.496639_21.486178;167.614302_21.602516;167.732100_21.718719;167.850025_21.834792;167.968069_21.950743;168.086222_22.066584;168.204454_22.182344;168.322726_22.298063;168.440994_22.413786;168.559218_22.529555;168.677356_22.645411;168.795366_22.761398;168.913206_22.877556;169.030834_22.993930;169.148183_23.110585;169.265155_23.227617;169.381645_23.345129;169.497550_23.463218;169.612772_23.581973;169.727216_23.701478;169.840791_23.821808;169.953415_23.943029;170.065008_24.065199;170.175492_24.188372;170.284793_24.312597;170.392843_24.437910;170.499581_24.564343;170.604956_24.691913;170.708923_24.820634;170.811444_24.950508;170.912491_25.081534;171.012043_25.213698;171.110150_25.346939;171.206952_25.481132;171.302621_25.616136;171.397312_25.751829;171.491172_25.888098;171.584334_26.024845;171.676926_26.161979;171.769070_26.299415;171.860881_26.437074;171.952473_26.574879;172.043931_26.712772;172.135224_26.850775;172.226199_26.988987;172.316683_27.127522;172.406509_27.266483;172.495524_27.405965;172.583585_27.546050;172.670565_27.686809;172.756351_27.828298;172.840847_27.970562;172.923971_28.113631;173.005659_28.257524;173.085898_28.402231;173.164738_28.547705;173.242254_28.693889;173.318516_28.840731;173.393589_28.988186;173.467531_29.136210;173.540397_29.284767;173.612240_29.433823;173.683105_29.583345;173.753037_29.733306;173.822077_29.883680;173.890263_30.034444;173.957631_30.185574;174.024219_30.337051;174.090086_30.488842;174.155319_30.640907;174.220006_30.793205;174.284226_30.945700;174.348057_31.098359;174.411570_31.251151;174.474835_31.404046;174.537917_31.557016;174.600880_31.710035;174.663790_31.863076;174.726707_32.016114;174.789696_32.169122;174.852820_32.322075;174.916144_32.474945;</t>
+  </si>
+  <si>
+    <t>175.043651_32.780328;175.107925_32.932801;175.172561_33.085121;175.237561_33.237286;175.302926_33.389294;175.368660_33.541144;175.434763_33.692833;175.501237_33.844359;175.568085_33.995721;175.635307_34.146918;175.702906_34.297946;175.770883_34.448805;175.839238_34.599492;175.907975_34.750006;175.977092_34.900345;176.046591_35.050509;176.116462_35.200499;176.186692_35.350323;176.257264_35.499984;176.328163_35.649492;176.399371_35.798853;176.470869_35.948075;176.542638_36.097166;176.614660_36.246136;176.686913_36.394994;176.759377_36.543750;176.832029_36.692414;176.904847_36.840996;176.977810_36.989507;177.050895_37.137959;177.124086_37.286358;177.197372_37.434710;177.270742_37.583020;177.344184_37.731296;177.417686_37.879541;177.491238_38.027761;177.564827_38.175964;177.638441_38.324153;177.712070_38.472335;177.785701_38.620517;177.859322_38.768703;177.932921_38.916900;178.006488_39.065113;178.080017_39.213345;178.153509_39.361595;178.226974_39.509859;178.300418_39.658133;178.373850_39.806413;178.447275_39.954696;178.520703_40.102978;178.594139_40.251256;178.667593_40.399525;178.741071_40.547783;178.814580_40.696024;178.888129_40.844246;178.961725_40.992445;179.035377_41.140616;179.109107_41.288748;179.182944_41.436826;179.256925_41.584833;179.331083_41.732752;179.405454_41.880563;179.480076_42.028247;179.554985_42.175787;179.630220_42.323159;179.705823_42.470344;179.781836_42.617318;179.858302_42.764056;179.935269_42.910532;180.012785_43.056717;180.090909_43.202580;180.169708_43.348078;180.249258_43.493166;180.329642_43.637795;180.410948_43.781906;180.493274_43.925437;180.576727_44.068315;180.661422_44.210460;180.747491_44.351776;180.835079_44.492156;180.924348_44.631472;181.015476_44.769577;181.108596_44.906346;181.203744_45.041713;181.300903_45.175643;181.400043_45.308113;181.501117_45.439115;181.604058_45.568654;181.708783_45.696757;181.815186_45.823469;181.923144_45.948860;182.032518_46.073020;182.143168_46.196043;182.254971_46.318022;182.367796_46.439056;182.481504_46.559261;182.595948_46.678766;182.710972_46.797714;182.826414_46.916255;182.942110_47.034550;</t>
+  </si>
+  <si>
+    <t>183.052304_47.048846;183.156911_47.154339;183.261509_47.259840;183.366095_47.365354;183.470662_47.470886;183.575206_47.576441;183.679721_47.682024;183.784202_47.787641;183.888645_47.893296;183.993044_47.998995;184.097395_48.104741;184.201699_48.210532;184.305960_48.316367;184.410179_48.422243;184.514360_48.528156;184.618505_48.634104;184.722618_48.740084;184.826701_48.846094;184.930757_48.952130;185.034790_49.058188;185.138816_49.164254;185.242863_49.270299;185.346964_49.376291;185.451151_49.482198;185.555459_49.587987;185.659919_49.693624;185.764565_49.799077;185.869433_49.904311;185.974555_50.009290;186.079975_50.113969;186.185760_50.218280;186.291992_50.322136;186.398759_50.425440;186.506153_50.528093;186.614266_50.629986;186.723198_50.731004;186.833050_50.831020;186.943930_50.929894;187.055946_51.027477;187.169201_51.123619;187.283786_51.218171;187.399792_51.310973;187.517315_51.401843;187.636455_51.490581;187.757311_51.576963;187.879987_51.660738;188.004578_51.741634;188.131030_51.819591;188.259020_51.895009;188.388079_51.968589;188.517729_52.041127;188.647491_52.113468;188.776882_52.186467;188.905422_52.260945;189.032661_52.337617;189.158386_52.416749;189.282698_52.498087;189.405801_52.581247;189.527896_52.665884;189.649177_52.751684;189.769837_52.838358;189.890063_52.925632;190.010040_53.013249;190.129955_53.100951;190.250000_53.188475;190.370370_53.275551;190.491262_53.361899;190.612877_53.447224;190.735421_53.531208;190.859103_53.613502;190.984136_53.693725;191.110609_53.771657;191.238314_53.847560;191.366850_53.922053;191.495800_53.995830;191.624744_54.069619;191.753262_54.144143;191.880935_54.220099;192.007361_54.298108;192.132310_54.378460;192.255851_54.460965;192.378189_54.545247;192.499529_54.630961;192.620072_54.717796;192.740012_54.805463;192.859540_54.893691;192.978846_54.982220;193.098114_55.070800;193.217529_55.159181;193.337276_55.247112;193.457539_55.334335;193.578508_55.420573;193.700376_55.505534;193.823343_55.588894;193.947611_55.670298;194.073323_55.749451;194.200351_55.826481;194.328316_55.901950;194.456791_55.976552;194.585347_56.051012;</t>
+  </si>
+  <si>
+    <t>194.840992_56.202423;194.967231_56.280734;195.091959_56.361428;195.215156_56.444443;195.337018_56.529410;195.457757_56.615968;195.577580_56.703792;195.696689_56.792585;195.815277_56.882072;195.933538_56.971991;196.051664_57.062089;196.169864_57.152089;196.288364_57.241693;196.407398_57.330585;196.527207_57.418428;196.648034_57.504862;196.770133_57.589485;196.893766_57.671845;197.019189_57.751445;197.146492_57.828001;197.275503_57.901651;197.405928_57.972771;197.537471_58.041810;197.669830_58.109276;197.802705_58.175723;197.935798_58.241734;198.068865_58.307800;198.201911_58.373905;198.335192_58.439534;198.469008_58.504061;198.603654_58.566830;198.739419_58.627130;198.876573_58.684181;199.015350_58.737137;199.155790_58.785510;199.297660_58.829535;199.440636_58.869845;199.584427_58.907167;199.728775_58.942294;199.873449_58.976062;200.018240_59.009332;200.162947_59.042964;200.307366_59.077797;200.451282_59.114640;200.594453_59.154262;200.736604_59.197378;200.877429_59.244624;201.016606_59.296511;201.153978_59.353015;201.289702_59.413396;201.424092_59.476705;201.557490_59.542089;201.690248_59.608768;201.822726_59.676007;201.955281_59.743092;202.088206_59.809437;202.221563_59.874913;202.355221_59.939772;202.489028_60.004324;202.622830_60.068885;202.756475_60.133771;202.889809_60.199293;203.022693_60.265723;203.155158_60.332983;203.287504_60.400480;203.420131_60.467420;203.553440_60.532984;203.687826_60.596299;203.823670_60.656399;203.961323_60.712199;204.101001_60.762689;204.242612_60.807475;204.385856_60.846745;204.530425_60.880835;204.676040_60.910170;204.822455_60.935242;204.969462_60.956602;205.116887_60.974891;205.264581_60.990916;205.412416_61.005602;205.560291_61.019893;205.708110_61.034738;205.855768_61.051080;206.003133_61.069843;206.150052_61.091795;206.296370_61.117433;206.441921_61.147100;206.586518_61.181099;206.729956_61.219684;206.872016_61.263064;207.012479_61.311358;207.151315_61.364172;207.288832_61.420364;207.425522_61.478558;207.561907_61.537468;207.698519_61.595845;207.835883_61.652413;207.974499_61.705808;208.114714_61.754821;208.256556_61.798901;</t>
+  </si>
+  <si>
+    <t>208.544399_61.872189;208.690011_61.901524;208.836497_61.926137;208.983679_61.946186;209.131385_61.961942;209.279454_61.973890;209.427751_61.982650;209.576179_61.988872;209.724677_61.993213;209.873207_61.996341;210.021749_61.998922;210.170288_62.001629;210.318809_62.005138;210.467285_62.010128;210.615671_62.017273;210.763889_62.027240;210.911827_62.040682;211.059333_62.058203;211.206229_62.080234;211.352333_62.107006;211.497453_62.138675;211.641386_62.175358;211.783925_62.217125;211.924864_62.264003;212.064052_62.315861;212.201609_62.371936;212.337960_62.430909;212.473627_62.491450;212.609152_62.552312;212.745078_62.612267;212.881938_62.670036;213.020227_62.724264;213.160212_62.773927;213.301848_62.818666;213.444958_62.858441;213.589354_62.893258;213.734850_62.923158;213.881258_62.948219;214.028398_62.968559;214.176093_62.984412;214.324175_62.996160;214.472504_63.004262;214.620977_63.009194;214.769517_63.011446;214.918077_63.011514;215.066630_63.009891;215.215166_63.007038;215.363684_63.003378;215.512193_62.999327;215.660702_62.995300;215.809223_62.991711;215.957760_62.988978;216.106315_62.987528;216.254874_62.987832;216.403409_62.990393;216.551868_62.995710;216.700171_63.004279;216.848207_63.016580;216.995831_63.033071;217.142870_63.054121;217.289144_63.079952;217.434465_63.110685;217.578640_63.146405;217.721474_63.187156;217.862773_63.232942;218.002360_63.283713;218.140225_63.339011;218.276682_63.397729;218.412232_63.458530;218.547405_63.520169;218.682742_63.581446;218.818777_63.641143;218.956030_63.697958;219.094901_63.750664;219.235480_63.798623;219.377619_63.841745;219.521132_63.880044;219.665836_63.913575;219.811546_63.942429;219.958085_63.966733;220.105284_63.986676;220.252978_64.002566;220.401024_64.014808;220.549303_64.023838;220.697728_64.030109;220.846234_64.034081;220.994780_64.036220;221.143340_64.036927;221.291902_64.036473;221.440459_64.035055;221.589006_64.032865;221.737544_64.030097;221.886075_64.026943;222.034601_64.023592;222.183126_64.020167;222.331649_64.016705;222.480173_64.013214;222.628695_64.009700;222.777217_64.006169;222.925739_64.002629;</t>
+  </si>
+  <si>
+    <t>223.115836_64.003615;223.347508_64.009133;223.579182_64.014614;223.810856_64.020034;224.042534_64.025348;224.274219_64.030289;224.505922_64.034254;224.737645_64.036512;224.969378_64.036324;225.201077_64.032742;225.432638_64.024320;225.663850_64.009320;225.894355_63.986043;226.123640_63.952969;226.351084_63.909055;226.576019_63.853745;226.797747_63.786748;227.015613_63.708089;227.229669_63.619463;227.441233_63.524922;227.652285_63.429222;227.864854_63.337013;228.080745_63.253044;228.300706_63.180485;228.524331_63.120144;228.750893_63.071961;228.979665_63.035638;229.209950_63.010480;229.441123_62.995175;229.672712_62.988012;229.904428_62.987179;230.136127_62.990867;230.367769_62.997410;230.599373_63.005286;230.830982_63.012998;231.062637_63.019027;231.294347_63.021671;231.526040_63.018985;231.757511_63.008963;231.988368_62.989662;232.218009_62.959333;232.445641_62.916581;232.670315_62.860397;232.890984_62.790162;233.106772_62.706081;233.317785_62.610484;233.525202_62.507204;233.730528_62.399778;233.935318_62.291319;234.140842_62.184266;234.347401_62.079220;234.554524_61.975284;234.761643_61.871342;234.968200_61.766292;235.174035_61.659831;235.379968_61.553564;235.587452_61.450396;235.797954_61.353627;236.012788_61.267079;236.232449_61.193744;236.456235_61.134078;236.683000_61.086823;236.911757_61.050207;237.141734_61.021993;237.372343_60.999257;237.603152_60.978540;237.833810_60.956278;238.063905_60.929010;238.292923_60.893987;238.520255_60.849420;238.745166_60.794001;238.966806_60.726739;239.184703_60.648114;239.399556_60.561355;239.612953_60.471004;239.826647_60.381373;240.042304_60.296662;240.260703_60.219321;240.481436_60.148850;240.703721_60.083382;240.926856_60.020836;241.150196_59.959017;241.373111_59.895699;241.594935_59.828703;241.814934_59.755996;242.032341_59.675917;242.247100_59.588925;242.460385_59.498312;242.673929_59.408323;242.889456_59.323292;243.108355_59.247538;243.330906_59.183322;243.556414_59.130327;243.784075_59.087408;244.013219_59.053135;244.243279_59.025475;244.473773_59.001533;244.704310_58.977988;244.934514_58.951501;245.163925_58.919028;</t>
+  </si>
+  <si>
+    <t>245.618135_58.828052;245.841556_58.766903;246.061513_58.694289;246.278036_58.611857;246.492340_58.523703;246.706145_58.434319;246.921207_58.348069;247.138900_58.268789;247.359391_58.197621;247.581932_58.133072;247.805746_58.073026;248.030146_58.015176;248.254451_57.956964;248.477895_57.895587;248.699599_57.828277;248.918543_57.752565;249.133837_57.667052;249.345571_57.572973;249.554795_57.473366;249.762772_57.371155;249.970792_57.269032;250.179730_57.168806;250.389456_57.070230;250.599206_56.971706;250.808171_56.871537;251.015561_56.768166;251.221098_56.661151;251.425393_56.551766;251.629473_56.441977;251.834378_56.333747;252.041084_56.229024;252.249892_56.128551;252.460135_56.031089;252.670792_55.934516;252.880843_55.836646;253.089384_55.735617;253.296229_55.631147;253.501988_55.524540;253.707462_55.417382;253.913457_55.311236;254.120542_55.207236;254.328319_55.104615;254.535516_55.000841;254.740711_54.893202;254.942482_54.779327;255.139734_54.657815;255.332361_54.529064;255.520992_54.394499;255.706316_54.255397;255.888989_54.112819;256.069618_53.967654;256.248721_53.820605;256.426721_53.672221;256.604009_53.522985;256.780968_53.373359;256.957975_53.223789;257.135209_53.074489;257.312292_52.925010;257.488446_52.774442;257.662878_52.621889;257.834845_52.466569;258.003650_52.307828;258.168278_52.144782;258.327189_51.976192;258.478925_51.801139;258.622594_51.619414;258.757844_51.431335;258.884760_51.237524;259.003714_51.038714;259.115234_50.835628;259.219897_50.628915;259.318297_50.419141;259.411019_50.206788;259.498609_49.992262;259.581565_49.775898;259.660335_49.557972;259.735319_49.338712;259.806867_49.118304;259.875291_48.896905;259.940866_48.674645;260.003837_48.451631;260.064473_48.227970;260.123088_48.003771;260.179979_47.779126;260.235385_47.554111;260.289505_47.328782;260.342506_47.103187;260.394529_46.877364;260.445699_46.651347;260.496121_46.425161;260.545892_46.198831;260.595097_45.972377;260.643813_45.745818;260.692109_45.519168;260.740053_45.292444;260.787704_45.065658;260.835120_44.838823;260.882355_44.611950;260.929464_44.385050;260.976496_44.158135;</t>
+  </si>
+  <si>
+    <t>260.913518_42.632731;260.739796_42.409833;260.563751_42.188775;260.383637_41.971038;260.197391_41.758565;260.002470_41.554102;259.797018_41.360274;259.581690_41.177417;259.359165_41.003294;259.132843_40.834066;258.906232_40.665218;258.681561_40.493808;258.459537_40.318986;258.240470_40.140476;258.024641_39.958068;257.812155_39.771773;257.602784_39.581979;257.396116_39.389242;257.191751_39.194059;256.989320_38.996870;256.788491_38.798047;256.588985_38.597896;256.390551_38.396681;256.192947_38.194650;255.995939_37.992037;255.799289_37.789077;255.602745_37.586014;255.406049_37.383098;255.208942_37.180582;255.011158_36.978727;254.812355_36.777878;254.612032_36.578547;254.409578_36.381386;254.204334_36.187139;253.995581_35.996678;253.782532_35.811051;253.564316_35.631554;253.339970_35.459817;253.108456_35.297938;252.869013_35.148094;252.622350_35.010375;252.370652_34.881967;252.116409_34.758592;251.861672_34.636228;251.606567_34.514643;251.349424_34.397498;251.088339_34.289592;250.822109_34.195252;250.551321_34.114740;250.277715_34.044147;250.002875_33.978384;249.728117_33.912285;249.454642_33.841174;249.183762_33.760907;248.916847_33.668408;248.653846_33.565126;248.392614_33.457328;248.130259_33.352369;247.864363_33.256944;247.594477_33.173399;247.321862_33.099061;247.047896_33.029755;246.773822_32.960866;246.500974_32.887388;246.230934_32.804379;245.965512_32.707793;245.705514_32.597327;245.449714_32.477277;245.195862_32.353094;244.941720_32.229511;244.686336_32.108512;244.430559_31.988338;244.175880_31.865877;243.923664_31.738455;243.674090_31.605908;243.425809_31.470925;243.176998_31.336932;242.925987_31.207147;242.672419_31.082410;242.417613_30.960191;242.163407_30.836745;241.911456_30.708796;241.662044_30.575939;241.413802_30.440885;241.164893_30.307078;240.913650_30.177747;240.659648_30.053905;240.403953_29.933563;240.148039_29.813681;239.893130_29.691691;239.638924_29.568228;239.383449_29.447460;239.124387_29.334753;238.860003_29.235392;238.590499_29.150757;238.317640_29.077388;238.043159_29.010159;237.768534_28.943505;237.495215_28.871821;237.224867_28.789867;</t>
+  </si>
+  <si>
+    <t>237.224867_28.789867;236.959409_28.693438;236.699681_28.582365;236.444398_28.461229;236.191225_28.335669;235.937838_28.210542;235.683136_28.088117;235.427696_27.967228;235.172671_27.845471;234.919059_27.720813;234.666552_27.593913;234.413215_27.468708;234.156656_27.350370;233.894886_27.244273;233.627726_27.152520;233.356782_27.072393;233.083836_26.999201;232.810384_26.927874;232.537718_26.853662;232.267125_26.772339;232.000043_26.680279;231.736927_26.577326;231.475970_26.468868;231.214068_26.362783;230.948297_26.267123;230.677384_26.187355;230.402133_26.123985;230.123916_26.074997;229.843867_26.037536;229.562914_26.007164;229.281814_25.978087;229.001276_25.944296;228.722158_25.900622;228.445520_25.843529;228.172661_25.770649;227.904902_25.680847;227.642011_25.577362;227.381610_25.467581;227.120550_25.359422;226.856154_25.259882;226.587806_25.171497;226.316665_25.091946;226.044037_25.017553;225.771093_24.944309;225.498999_24.868026;225.229042_24.784617;224.962614_24.690663;224.699963_24.586498;224.439250_24.477454;224.177662_24.370580;223.912656_24.272702;223.643464_24.186988;223.371235_24.111279;223.097445_24.041289;222.823401_23.972279;222.550465_23.899115;222.280248_23.816676;222.014655_23.720584;221.754881_23.609662;221.500059_23.487591;221.247968_23.359882;220.996257_23.231412;220.743453_23.105115;220.489762_22.980597;220.236247_22.855724;219.983944_22.728433;219.732810_22.598838;219.480909_22.470771;219.225445_22.350124;218.963873_22.243732;218.695216_22.157019;218.420636_22.091280;218.142039_22.045142;217.861069_22.016237;217.578956_22.001025;217.296446_21.995046;217.013851_21.993578;216.731257_21.991942;216.448754_21.985620;216.166648_21.970218;215.885632_21.941623;215.606776_21.896874;215.331376_21.834407;215.060853_21.753447;214.795977_21.655393;214.535433_21.546034;214.276231_21.433443;214.015141_21.325429;213.750108_21.227607;213.481384_21.140311;213.210361_21.060316;212.938320_20.983788;212.666446_20.906679;212.395948_20.824955;212.128170_20.734841;211.864233_20.634065;211.603405_20.525335;211.342962_20.415659;211.079804_20.312874;210.811695_20.224133;</t>
+  </si>
+  <si>
+    <t>210.811695_20.224133;210.538560_20.152280;210.261763_20.095925;209.982592_20.052544;209.702089_20.018407;209.421108_19.988191;209.140383_19.955830;208.860731_19.915569;208.583137_19.863206;208.308747_19.796217;208.038897_19.712907;207.774180_19.614322;207.512936_19.506595;207.251874_19.398416;206.987642_19.298500;206.718354_19.213385;206.444430_19.144512;206.167213_19.090177;205.887866_19.047853;205.607390_19.013394;205.326649_18.981025;205.046443_18.944555;204.767703_18.898518;204.491525_18.839221;204.219189_18.764390;203.952059_18.672749;203.690075_18.567016;203.430777_18.454657;203.170619_18.344364;202.906347_18.244655;202.636560_18.161198;202.361929_18.095373;202.083698_18.046881;201.803076_18.014738;201.521141_17.996786;201.238675_17.989952;200.956097_17.990944;200.673557_17.996580;200.391050_18.003929;200.108520_18.010165;199.825945_18.012388;199.543433_18.007412;199.261350_17.991845;198.980426_17.962420;198.701741_17.916632;198.426560_17.853186;198.156200_17.771639;197.891681_17.672692;197.632148_17.561005;197.374576_17.444735;197.115303_17.332427;196.851248_17.232209;196.581461_17.148740;196.306886_17.082650;196.028778_17.033378;195.748328_16.999620;195.466559_16.979025;195.184193_16.968560;194.901630_16.965106;194.619037_16.966180;194.336465_16.970107;194.053913_16.975452;193.771365_16.980998;193.488809_16.986112;193.206242_16.990554;192.923663_16.994133;192.641073_16.996778;192.358477_16.998578;192.075876_16.999676;191.793275_17.000216;191.510672_17.000343;191.228070_17.000204;190.945467_16.999946;190.662865_16.999715;190.380262_16.999658;190.097660_16.999921;189.815059_17.000652;189.532460_17.001995;189.249865_17.004095;188.967279_17.007089;188.684704_17.011013;188.402142_17.015739;188.119590_17.021066;187.837043_17.026664;187.554485_17.031669;187.271904_17.034728;186.989312_17.034382;186.706792_17.028687;186.424586_17.014839;186.143205_16.989681;185.863497_16.950353;185.586570_16.894880;185.313653_16.822271;185.046012_16.732166;184.784058_16.626470;184.525944_16.511450;184.268209_16.395558;184.007286_16.287271;183.740872_16.193585;183.468969_16.117278;</t>
+  </si>
+  <si>
+    <t>183.468969_16.117278;183.192789_16.058218;182.913571_16.015609;182.632455_15.987765;182.350356_15.972069;182.067865_15.965503;181.785277_15.965244;181.502712_15.969312;181.220201_15.976359;180.937735_15.985125;180.655293_15.994651;180.372859_16.004394;180.090418_16.013963;179.807956_16.022847;179.525450_16.030128;179.242890_16.034560;178.960301_16.034817;178.677790_16.029003;178.395632_16.014361;178.114382_15.987856;177.834928_15.946798;177.558397_15.889397;177.286023_15.814784;177.019047_15.722720;176.757678_15.615551;176.499829_15.499922;176.241979_15.384299;175.980603_15.277146;175.713619_15.185105;175.441239_15.110515;175.164703_15.053137;174.885246_15.012100;174.603995_14.985612;174.321835_14.970984;174.039324_14.965180;173.756736_14.965443;173.474175_14.969880;173.191670_14.977164;172.909207_14.986049;172.626767_14.995619;172.344332_15.005362;172.061891_15.014887;171.779425_15.023652;171.496913_15.030695;171.214348_15.034759;170.931761_15.034494;170.649269_15.027917;170.367172_15.012208;170.086057_14.984347;169.806843_14.941717;169.530667_14.882634;169.258771_14.806305;168.992364_14.712597;168.731447_14.604294;168.473714_14.488398;168.215598_14.373383;167.953638_14.267703;167.685990_14.177618;167.413069_14.105028;167.136138_14.049571;166.856428_14.010256;166.575046_13.985106;166.292840_13.971261;166.010320_13.965564;165.727728_13.965214;165.445147_13.968271;165.162589_13.973279;164.880043_13.978890;164.597491_13.984244;164.314929_13.989018;164.032355_13.993018;163.749770_13.996121;163.467177_13.998367;163.184579_13.999892;162.901978_14.000842;162.619376_14.001346;162.336774_14.001521;162.054171_14.001478;161.771569_14.001315;161.488966_14.001094;161.206364_14.000852;160.923762_14.000621;160.641159_14.000423;160.358557_14.000263;160.075954_14.000139;159.793352_14.000049;159.510749_13.999991;159.228147_13.999956;158.945544_13.999939;158.662942_13.999934;158.380339_13.999937;158.097737_13.999946;157.815134_13.999956;157.532531_13.999966;157.249929_13.999976;156.967326_13.999984;156.684724_13.999990;156.402121_13.999995;156.119519_13.999999;155.836916_14.000001;</t>
+  </si>
+  <si>
+    <t>149.961720_14.000000;149.885160_14.000000;149.808601_14.000000;149.732041_14.000000;149.655481_14.000000;149.578921_14.000000;149.502362_14.000000;149.425802_14.000000;149.349242_14.000000;149.272683_14.000000;149.196123_14.000000;149.119563_14.000000;149.043003_14.000000;148.966444_14.000000;148.889884_14.000000;148.813324_14.000000;148.736764_14.000000;148.660205_14.000000;148.583645_14.000000;148.507085_14.000000;148.430525_14.000000;148.353966_14.000000;148.277406_14.000000;148.200846_14.000000;148.124287_14.000000;148.047727_14.000000;147.971167_14.000000;147.894607_14.000000;147.818048_14.000000;147.741488_14.000000;147.664928_14.000000;147.588368_14.000000;147.511809_14.000000;147.435249_14.000000;147.358689_14.000000;147.282129_14.000000;147.205570_14.000000;147.129010_14.000000;147.052450_14.000000;146.975891_14.000000;146.899331_14.000000;146.822771_14.000000;146.746211_14.000000;146.669652_14.000000;146.593092_14.000000;146.516532_14.000000;146.439972_14.000000;146.363413_14.000000;146.286853_14.000000;146.210293_14.000000;146.133733_14.000000;146.057174_14.000000;145.980614_14.000000;145.904054_14.000000;145.827495_14.000000;145.750935_14.000000;145.674375_14.000000;145.597815_14.000000;145.521256_14.000000;145.444696_14.000000;145.368136_14.000000;145.291576_14.000000;145.215017_14.000000;145.138457_14.000000;145.061897_14.000000;144.985337_14.000000;144.908778_14.000000;144.832218_14.000000;144.755658_14.000000;144.679099_14.000000;144.602539_14.000000;144.525979_14.000000;144.449419_14.000000;144.372860_14.000000;144.296300_14.000000;144.219740_14.000000;144.143180_14.000000;144.066621_14.000000;143.990061_14.000000;143.913501_14.000000;143.836941_14.000000;143.760382_14.000000;143.683822_14.000000;143.607262_14.000000;143.530703_14.000000;143.454143_14.000000;143.377583_14.000000;143.301023_14.000000;143.224464_14.000000;143.147904_14.000000;143.071344_14.000000;142.994784_14.000000;142.918225_14.000000;142.841665_14.000000;142.765105_14.000001;142.688545_14.000001;142.611986_14.000001;142.535426_14.000001;142.458866_14.000001;142.382307_14.000001;142.305747_14.000001;142.229187_14.000001;142.152627_14.000001;142.076068_14.000001;141.999508_14.000002;141.922948_14.000002;141.846388_14.000002;141.769829_14.000002;141.693269_14.000002;141.616709_14.000002;141.540149_14.000002;141.463590_14.000002;141.387030_14.000003;141.310470_14.000003;141.233911_14.000003;141.157351_14.000003;141.080791_14.000003;141.004231_14.000003;140.927672_14.000003;140.851112_14.000003;140.774552_14.000003;140.697992_14.000003;140.621433_14.000003;140.544873_14.000003;140.468313_14.000002;140.391753_14.000002;140.315194_14.000002;140.238634_14.000001;140.162074_14.000001;140.085515_14.000001;140.008955_14.000000;139.932395_13.999999;139.855835_13.999999;139.779276_13.999998;139.702716_13.999997;139.626156_13.999996;139.549596_13.999995;139.473037_13.999993;139.396477_13.999992;139.319917_13.999991;139.243357_13.999989;139.166798_13.999987;139.090238_13.999985;139.013678_13.999983;138.937119_13.999981;138.860559_13.999979;138.783999_13.999977;138.707439_13.999974;138.630880_13.999972;138.554320_13.999969;</t>
+  </si>
+  <si>
+    <t>138.554320_13.999969;138.477760_13.999966;138.401200_13.999964;138.324641_13.999961;138.248081_13.999958;138.171521_13.999955;138.094961_13.999952;138.018402_13.999950;137.941842_13.999947;137.865282_13.999944;137.788723_13.999942;137.712163_13.999939;137.635603_13.999937;137.559043_13.999935;137.482484_13.999934;137.405924_13.999933;137.329364_13.999933;137.252804_13.999933;137.176245_13.999934;137.099685_13.999936;137.023125_13.999939;136.946565_13.999942;136.870006_13.999947;136.793446_13.999952;136.716886_13.999959;136.640327_13.999967;136.563767_13.999977;136.487207_13.999988;136.410647_14.000001;136.334088_14.000016;136.257528_14.000034;136.180968_14.000053;136.104408_14.000074;136.027849_14.000098;135.951289_14.000125;135.874729_14.000154;135.798169_14.000185;135.721610_14.000220;135.645050_14.000257;135.568490_14.000296;135.491931_14.000339;135.415371_14.000384;135.338811_14.000431;135.262251_14.000482;135.185692_14.000535;135.109132_14.000591;135.032572_14.000650;134.956013_14.000712;134.879453_14.000776;134.802893_14.000841;134.726333_14.000908;134.649774_14.000975;134.573214_14.001042;134.496654_14.001108;134.420095_14.001172;134.343535_14.001234;134.266975_14.001292;134.190416_14.001347;134.113856_14.001397;134.037296_14.001443;133.960736_14.001482;133.884177_14.001514;133.807617_14.001536;133.731057_14.001546;133.654497_14.001543;133.577938_14.001523;133.501378_14.001485;133.424818_14.001426;133.348259_14.001344;133.271699_14.001237;133.195139_14.001103;133.118580_14.000940;133.042020_14.000744;132.965461_14.000515;132.888902_14.000248;132.812343_13.999943;132.735784_13.999595;132.659225_13.999202;132.582666_13.998762;132.506108_13.998270;132.429550_13.997724;132.352993_13.997122;132.276436_13.996460;132.199880_13.995736;132.123324_13.994947;132.046769_13.994089;131.970215_13.993161;131.893662_13.992163;131.817110_13.991097;131.740558_13.989967;131.664008_13.988778;131.587458_13.987533;131.510910_13.986236;131.434362_13.984892;131.357814_13.983503;131.281268_13.982074;131.204722_13.980609;131.128177_13.979111;131.051633_13.977585;130.975089_13.976035;130.898545_13.974476;130.822001_13.972933;130.745456_13.971433;130.668909_13.970006;130.592361_13.968680;130.515811_13.967483;130.439258_13.966444;130.362703_13.965592;130.286146_13.964954;130.209588_13.964559;130.133028_13.964436;130.056469_13.964613;129.979911_13.965119;129.903357_13.965998;129.826809_13.967309;129.750271_13.969116;129.673749_13.971485;129.597248_13.974479;129.520778_13.978163;129.444349_13.982600;129.367971_13.987853;129.291659_13.993984;129.215428_14.001053;129.139297_14.009119;129.063285_14.018241;128.987415_14.028472;128.911710_14.039857;128.836192_14.052426;128.760885_14.066201;128.685813_14.081201;128.611000_14.097445;128.536471_14.114948;128.462253_14.133722;128.388371_14.153777;128.314850_14.175120;128.241717_14.197755;128.168997_14.221684;128.096715_14.246904;128.024896_14.273413;127.953552_14.301178;127.882658_14.330074;127.812154_14.359912;127.741973_14.390503;127.672044_14.421668;127.602296_14.453236;127.532655_14.485042;127.463050_14.516924;127.393405_14.548720;127.323648_14.580268;127.253705_14.611402;</t>
+  </si>
+  <si>
+    <t>127.253705_14.611402;127.183506_14.641952;127.112980_14.671738;127.042060_14.700570;126.970687_14.728259;126.898838_14.754689;126.826529_14.779830;126.753782_14.803679;126.680625_14.826234;126.607081_14.847498;126.533177_14.867473;126.458939_14.886168;126.384392_14.903593;126.309563_14.919760;126.234475_14.934685;126.159155_14.948384;126.083625_14.960879;126.007908_14.972192;125.932029_14.982354;125.856009_14.991409;125.779871_14.999412;125.703635_15.006421;125.627319_15.012496;125.550937_15.017697;125.474505_15.022086;125.398033_15.025725;125.321531_15.028679;125.245007_15.031011;125.168469_15.032786;125.091920_15.034068;125.015366_15.034922;124.938808_15.035408;124.862248_15.035565;124.785689_15.035424;124.709130_15.035014;124.632574_15.034362;124.556019_15.033497;124.479466_15.032447;124.402916_15.031242;124.326368_15.029908;124.249822_15.028476;124.173277_15.026973;124.096733_15.025428;124.020189_15.023869;123.943645_15.022320;123.867100_15.020796;123.790555_15.019300;123.714009_15.017837;123.637463_15.016410;123.560916_15.015024;123.484368_15.013682;123.407819_15.012389;123.331269_15.011147;123.254719_15.009962;123.178167_15.008836;123.101615_15.007774;123.025062_15.006779;122.948507_15.005856;122.871953_15.005002;122.795397_15.004217;122.718840_15.003497;122.642284_15.002839;122.565726_15.002240;122.489168_15.001698;122.412610_15.001210;122.336052_15.000772;122.259493_15.000382;122.182934_15.000037;122.106375_14.999734;122.029816_14.999470;121.953256_14.999243;121.876697_14.999049;121.800137_14.998888;121.723578_14.998755;121.647018_14.998650;121.570458_14.998570;121.493899_14.998512;121.417339_14.998475;121.340779_14.998457;121.264219_14.998454;121.187660_14.998465;121.111100_14.998488;121.034540_14.998520;120.957980_14.998560;120.881421_14.998605;120.804861_14.998656;120.728301_14.998711;120.651742_14.998770;120.575182_14.998832;120.498622_14.998896;120.422062_14.998962;120.345503_14.999029;120.268943_14.999096;120.192383_14.999163;120.115824_14.999228;120.039264_14.999292;119.962704_14.999354;119.886145_14.999412;119.809585_14.999468;119.733025_14.999521;119.656465_14.999572;119.579906_14.999619;119.503346_14.999664;119.426786_14.999706;119.350226_14.999746;119.273667_14.999783;119.197107_14.999817;119.120547_14.999848;119.043988_14.999877;118.967428_14.999903;118.890868_14.999927;118.814308_14.999949;118.737749_14.999968;118.661189_14.999985;118.584629_14.999999;118.508069_15.000012;118.431510_15.000024;118.354950_15.000033;118.278390_15.000041;118.201831_15.000048;118.125271_15.000054;118.048711_15.000058;117.972151_15.000061;117.895592_15.000064;117.819032_15.000066;117.742472_15.000067;117.665912_15.000067;117.589353_15.000067;117.512793_15.000066;117.436233_15.000064;117.359673_15.000063;117.283114_15.000061;117.206554_15.000058;117.129994_15.000056;117.053435_15.000053;116.976875_15.000050;116.900315_15.000047;116.823755_15.000045;116.747196_15.000042;116.670636_15.000039;116.594076_15.000036;116.517516_15.000033;116.440957_15.000031;116.364397_15.000028;116.287837_15.000026;116.211277_15.000023;116.134718_15.000021;116.058158_15.000018;115.981598_15.000016;115.905039_15.000014;</t>
+  </si>
+  <si>
+    <t>115.905039_15.000014;115.828479_15.000013;115.751919_15.000011;115.675359_15.000009;115.598800_15.000008;115.522240_15.000007;115.445680_15.000005;115.369120_15.000004;115.292561_15.000003;115.216001_15.000002;115.139441_15.000001;115.062881_15.000001;114.986322_15.000000;114.909762_14.999999;114.833202_14.999999;114.756643_14.999999;114.680083_14.999998;114.603523_14.999998;114.526963_14.999998;114.450404_14.999997;114.373844_14.999997;114.297284_14.999997;114.220724_14.999997;114.144165_14.999997;114.067605_14.999997;113.991045_14.999997;113.914485_14.999997;113.837926_14.999997;113.761366_14.999997;113.684806_14.999997;113.608247_14.999997;113.531687_14.999998;113.455127_14.999998;113.378567_14.999998;113.302008_14.999998;113.225448_14.999998;113.148888_14.999998;113.072328_14.999998;112.995769_14.999998;112.919209_14.999999;112.842649_14.999999;112.766089_14.999999;112.689530_14.999999;112.612970_14.999999;112.536410_14.999999;112.459851_14.999999;112.383291_14.999999;112.306731_14.999999;112.230171_14.999999;112.153612_15.000000;112.077052_15.000000;112.000492_15.000000;111.923932_15.000000;111.847373_15.000000;111.770813_15.000000;111.694253_15.000000;111.617693_15.000000;111.541134_15.000000;111.464574_15.000000;111.388014_15.000000;111.311455_15.000000;111.234895_15.000000;111.158335_15.000000;111.081775_15.000000;111.005216_15.000000;110.928656_15.000000;110.852096_15.000000;110.775536_15.000000;110.698977_15.000000;110.622417_15.000000;110.545857_15.000000;110.469297_15.000000;110.392738_15.000000;110.316178_15.000000;110.239618_15.000000;110.163059_15.000000;110.086499_15.000000;110.009939_15.000000;109.933379_15.000000;109.856820_15.000000;109.780260_15.000000;109.703700_15.000000;109.627140_15.000000;109.550581_15.000000;109.474021_15.000000;109.397461_15.000000;109.320901_15.000000;109.244342_15.000000;109.167782_15.000000;109.091222_15.000000;109.014663_15.000000;108.938103_15.000000;108.861543_15.000000;108.784983_15.000000;108.708424_15.000000;108.631864_15.000000;108.555304_15.000000;108.478744_15.000000;108.402185_15.000000;108.325625_15.000000;108.249065_15.000000;108.172505_15.000000;108.095946_15.000000;108.019386_15.000000;107.942826_15.000000;107.866267_15.000000;107.789707_15.000000;107.713147_15.000000;107.636587_15.000000;107.560028_15.000000;107.483468_15.000000;107.406908_15.000000;107.330348_15.000000;107.253789_15.000000;107.177229_15.000000;107.100669_15.000000;107.024109_15.000000;106.947550_15.000000;106.870990_15.000000;106.794430_15.000000;106.717871_15.000000;106.641311_15.000000;106.564751_15.000000;106.488191_15.000000;106.411632_15.000000;106.335072_15.000000;106.258512_15.000000;106.181952_15.000000;106.105393_15.000000;106.028833_15.000000;105.952273_15.000000;105.875713_15.000000;105.799154_15.000000;105.722594_15.000000;105.646034_15.000000;105.569475_15.000000;105.492915_15.000000;105.416355_15.000000;105.339795_15.000000;105.263236_15.000000;105.186676_15.000000;105.110116_15.000000;105.033556_15.000000;104.956997_15.000000;104.880437_15.000000;104.803877_15.000000;104.727317_15.000000;104.650758_15.000000;104.574198_15.000000;104.497638_15.000000;</t>
+  </si>
+  <si>
+    <t>103.947508_15.003457;103.842525_15.002567;103.737541_15.001661;103.632558_15.000729;103.527575_14.999759;103.422593_14.998743;103.317611_14.997668;103.212630_14.996526;103.107649_14.995304;103.002670_14.993993;102.897692_14.992586;102.792716_14.991085;102.687740_14.989494;102.582766_14.987821;102.477794_14.986070;102.372822_14.984248;102.267852_14.982359;102.162882_14.980411;102.057914_14.978408;101.952947_14.976361;101.847980_14.974304;101.743011_14.972299;101.638041_14.970413;101.533068_14.968712;101.428090_14.967264;101.323109_14.966136;101.218125_14.965394;101.113138_14.965107;101.008152_14.965341;100.903168_14.966186;100.798194_14.967773;100.693238_14.970262;100.588312_14.973812;100.483436_14.978582;100.378632_14.984728;100.273930_14.992405;100.169366_15.001764;100.064982_15.012953;99.960829_15.026108;99.856960_15.041341;99.753431_15.058732;99.650301_15.078348;99.547632_15.100247;99.445489_15.124478;99.343938_15.151082;99.243047_15.180087;99.142885_15.211515;99.043518_15.245374;98.944994_15.281612;98.847270_15.319965;98.750216_15.359990;98.653676_15.401247;98.557489_15.443320;98.461486_15.485816;98.365500_15.528348;98.269361_15.570531;98.172901_15.611973;98.075956_15.652265;97.978378_15.690989;97.880101_15.727903;97.781173_15.763040;97.681681_15.796548;97.581707_15.828591;97.481327_15.859344;97.380616_15.888997;97.279643_15.917746;97.178472_15.945795;97.077167_15.973353;96.975786_16.000635;96.874390_16.027860;96.773040_16.055256;96.671800_16.083051;96.570732_16.111469;96.469907_16.140729;96.369394_16.171044;96.269270_16.202617;96.169615_16.235640;96.070517_16.270291;95.972055_16.306710;95.874236_16.344827;95.776962_16.384318;95.680095_16.424802;95.583492_16.465913;95.487007_16.507299;95.390491_16.548616;95.293798_16.589515;95.196783_16.629640;95.099304_16.668620;95.001228_16.706067;94.902483_16.741711;94.803103_16.775546;94.703174_16.807728;94.602780_16.838432;94.502000_16.867846;94.400907_16.896170;94.299571_16.923614;94.198057_16.950392;94.096426_16.976727;93.994739_17.002843;93.893053_17.028964;93.791427_17.055315;93.689918_17.082116;93.588589_17.109585;93.487504_17.137935;93.386730_17.167371;93.286341_17.198089;93.186413_17.230276;93.087031_17.264104;92.988275_17.299720;92.890169_17.337089;92.792627_17.375913;92.695512_17.415796;92.598679_17.456363;92.501981_17.497250;92.405267_17.538100;92.308389_17.578558;92.211199_17.618258;92.113553_17.656819;92.015316_17.693842;91.916403_17.729015;91.816836_17.762296;91.716704_17.793838;91.616094_17.823824;91.515088_17.852452;91.413762_17.879930;91.312188_17.906477;91.210432_17.932320;91.108556_17.957691;91.006622_17.982825;90.904690_18.007969;90.802826_18.033386;90.701100_18.059346;90.599584_18.086115;90.498357_18.113953;90.397503_18.143108;90.297111_18.173815;90.197281_18.206295;90.098116_18.240747;89.999723_18.277345;89.902164_18.316110;89.805394_18.356814;89.709312_18.399120;89.613806_18.442714;89.518760_18.487303;89.424052_18.532609;89.329562_18.578369;89.235167_18.624324;89.140744_18.670223;89.046171_18.715810;88.951342_18.760862;</t>
+  </si>
+  <si>
+    <t>88.951342_18.760862;88.856239_18.805332;88.760925_18.849350;88.665480_18.893083;88.569983_18.936702;88.474513_18.980381;88.379149_19.024291;88.283972_19.068602;88.189060_19.113478;88.094494_19.159079;88.000355_19.205553;87.906683_19.252961;87.813442_19.301213;87.720556_19.350146;87.627947_19.399600;87.535535_19.449423;87.443241_19.499466;87.350988_19.549582;87.258695_19.599626;87.166285_19.649452;87.073677_19.698910;86.980799_19.747858;86.887645_19.796278;86.794302_19.844334;86.700893_19.892262;86.607541_19.940300;86.514369_19.988687;86.421501_20.037653;86.329060_20.087419;86.237170_20.138195;86.145955_20.190169;86.055536_20.243515;85.966019_20.298361;85.877431_20.354695;85.789704_20.412363;85.702749_20.471189;85.616476_20.531013;85.530798_20.591688;85.445632_20.653078;85.360892_20.715057;85.276498_20.777507;85.192370_20.840314;85.108428_20.903370;85.024594_20.966570;84.940792_21.029812;84.856949_21.093000;84.772998_21.156043;84.688869_21.218850;84.604494_21.281325;84.519803_21.343370;84.434723_21.404881;84.349184_21.465751;84.263111_21.525863;84.176429_21.585092;84.089060_21.643303;84.000929_21.700352;83.912014_21.756170;83.822396_21.810856;83.732220_21.864618;83.641632_21.917683;83.550779_21.970296;83.459812_22.022710;83.368878_22.075183;83.278126_22.127969;83.187706_22.181319;83.097764_22.235471;83.008445_22.290643;82.919846_22.346962;82.831955_22.404383;82.744702_22.462768;82.658012_22.521987;82.571811_22.581917;82.486028_22.642443;82.400592_22.703458;82.315432_22.764859;82.230480_22.826548;82.145667_22.888428;82.060927_22.950407;81.976190_23.012392;81.891393_23.074292;81.806468_23.136019;81.721353_23.197481;81.635980_23.258586;81.550285_23.319238;81.464201_23.379334;81.377658_23.438769;81.290589_23.497428;81.202921_23.555189;81.114585_23.611920;81.025507_23.667479;80.935650_23.721768;80.845085_23.774871;80.753971_23.827027;80.662477_23.878515;80.570771_23.929626;80.479024_23.980664;80.387406_24.031932;80.296087_24.083729;80.205235_24.136340;80.115020_24.190034;80.025607_24.245049;79.937130_24.301555;79.849630_24.359565;79.763080_24.418983;79.677444_24.479712;79.592685_24.541659;79.508767_24.604743;79.425654_24.668884;79.343312_24.734012;79.261707_24.800061;79.180804_24.866969;79.100572_24.934680;79.020978_25.003141;78.941990_25.072300;78.863571_25.142104;78.785682_25.212499;78.708283_25.283432;78.631336_25.354857;78.554806_25.426727;78.478658_25.499002;78.402856_25.571640;78.327367_25.644605;78.252160_25.717859;78.177202_25.791368;78.102463_25.865100;78.027911_25.939021;77.953520_26.013104;77.879269_26.087327;77.805142_26.161675;77.731128_26.236135;77.657213_26.310693;77.583385_26.385337;77.509630_26.460053;77.435935_26.534830;77.362289_26.609653;77.288679_26.684512;77.215091_26.759393;77.141514_26.834285;77.067935_26.909175;76.994342_26.984051;76.920725_27.058903;76.847079_27.133727;76.773403_27.208521;76.699693_27.283282;76.625947_27.358007;76.552162_27.432694;76.478337_27.507341;76.404468_27.581945;76.330553_27.656504;76.256590_27.731014;</t>
+  </si>
+  <si>
+    <t>76.256590_27.731014;76.182577_27.805474;76.108509_27.879881;76.034386_27.954233;75.960205_28.028526;75.885966_28.102762;75.811672_28.176942;75.737325_28.251070;75.662929_28.325148;75.588486_28.399179;75.513999_28.473166;75.439472_28.547111;75.364906_28.621019;75.290305_28.694890;75.215672_28.768730;75.141010_28.842540;75.066321_28.916323;74.991610_28.990083;74.916881_29.063825;74.842144_29.137560;74.767412_29.211299;74.692696_29.285054;74.618008_29.358838;74.543360_29.432662;74.468763_29.506538;74.394229_29.580477;74.319770_29.654492;74.245398_29.728594;74.171123_29.802794;74.096957_29.877103;74.022912_29.951531;73.948999_30.026092;73.875238_30.100802;73.801650_30.175683;73.728257_30.250754;73.655081_30.326038;73.582143_30.401552;73.509465_30.477316;73.437065_30.553346;73.364964_30.629659;73.293181_30.706272;73.221734_30.783198;73.150640_30.860450;73.079917_30.938042;73.009580_31.015983;72.939642_31.094284;72.870111_31.172945;72.800990_31.251969;72.732284_31.331352;72.663995_31.411094;72.596126_31.491195;72.528680_31.571651;72.461657_31.652460;72.395060_31.733622;72.328891_31.815132;72.263151_31.896988;72.197840_31.979188;72.132960_32.061727;72.068510_32.144603;72.004490_32.227812;71.940886_32.311339;71.877649_32.395144;71.814717_32.479179;71.752028_32.563396;71.689522_32.647749;71.627142_32.732194;71.564829_32.816689;71.502527_32.901193;71.440179_32.985662;71.377728_33.070055;71.315115_33.154328;71.252282_33.238437;71.189168_33.322336;71.125710_33.405974;71.061841_33.489298;70.997495_33.572255;70.932634_33.654809;70.867287_33.736980;70.801514_33.818810;70.735381_33.900350;70.668957_33.981653;70.602314_34.062776;70.535524_34.143779;70.468664_34.224723;70.401807_34.305671;70.335029_34.386684;70.268405_34.467823;70.202008_34.549148;70.135909_34.630715;70.070177_34.712578;70.004877_34.794786;69.940086_34.877396;69.875903_34.960478;69.812434_35.044106;69.749779_35.128346;69.688023_35.213246;69.627241_35.298846;69.567495_35.385172;69.508834_35.472240;69.451298_35.560054;69.394914_35.648612;69.339699_35.737903;69.285662_35.827913;69.232802_35.918619;69.181114_36.009998;69.130586_36.102023;69.081199_36.194666;69.032932_36.287898;68.985764_36.381690;68.939689_36.476025;68.894724_36.570893;68.850878_36.666283;68.808152_36.762181;68.766535_36.858565;68.726012_36.955414;68.686560_37.052705;68.648152_37.150412;68.610757_37.248512;68.574343_37.346980;68.538876_37.445794;68.504322_37.544930;68.470645_37.644369;68.437812_37.744089;68.405788_37.844072;68.374540_37.944300;68.344037_38.044757;68.314247_38.145429;68.285140_38.246300;68.256689_38.347358;68.228865_38.448590;68.201643_38.549987;68.174998_38.651536;68.148907_38.753229;68.123347_38.855057;68.098297_38.957012;68.073736_39.059085;68.049645_39.161271;68.026007_39.263562;68.002804_39.365953;67.980018_39.468438;67.957634_39.571011;67.935634_39.673667;67.914004_39.776402;67.892727_39.879211;67.871791_39.982089;67.851183_40.085034;67.830891_40.188041;67.810903_40.291108;67.791208_40.394232;67.771796_40.497409;</t>
+  </si>
+  <si>
+    <t>67.771796_40.497409;67.752658_40.600637;67.733784_40.703913;67.715165_40.807237;67.696794_40.910604;67.678662_41.014014;67.660762_41.117464;67.643087_41.220952;67.625630_41.324478;67.608384_41.428039;67.591344_41.531635;67.574504_41.635263;67.557858_41.738922;67.541400_41.842611;67.525126_41.946329;67.509030_42.050075;67.493108_42.153848;67.477355_42.257647;67.461767_42.361471;67.446340_42.465319;67.431070_42.569189;67.415952_42.673083;67.400984_42.776997;67.386162_42.880933;67.371481_42.984889;67.356940_43.088864;67.342534_43.192859;67.328261_43.296871;67.314117_43.400902;67.300101_43.504949;67.286208_43.609013;67.272437_43.713093;67.258784_43.817189;67.245248_43.921300;67.231826_44.025426;67.218515_44.129566;67.205314_44.233720;67.192220_44.337888;67.179231_44.442069;67.166344_44.546262;67.153559_44.650468;67.140873_44.754686;67.128284_44.858916;67.115790_44.963157;67.103390_45.067410;67.091082_45.171673;67.078864_45.275947;67.066735_45.380231;67.054692_45.484526;67.042735_45.588830;67.030862_45.693144;67.019072_45.797467;67.007363_45.901800;66.995734_46.006141;66.984182_46.110491;66.972706_46.214849;66.961304_46.319215;66.949973_46.423589;66.938711_46.527971;66.927515_46.632360;66.916385_46.736755;66.905317_46.841158;66.894311_46.945567;66.883365_47.049982;66.872476_47.154403;66.861644_47.258830;66.850867_47.363263;66.840142_47.467701;66.829470_47.572144;66.818848_47.676593;66.808275_47.781047;66.797750_47.885505;66.787272_47.989968;66.776839_48.094436;66.766450_48.198908;66.756104_48.303384;66.745800_48.407865;66.735538_48.512349;66.725314_48.616838;66.715130_48.721330;66.704984_48.825826;66.694874_48.930325;66.684801_49.034828;66.674763_49.139335;66.664758_49.243844;66.654788_49.348357;66.644850_49.452873;66.634943_49.557392;66.625068_49.661914;66.615223_49.766439;66.605407_49.870966;66.595620_49.975496;66.585861_50.080029;66.576130_50.184565;66.566425_50.289102;66.556746_50.393643;66.547092_50.498185;66.537463_50.602730;66.527859_50.707277;66.518278_50.811826;66.508719_50.916378;66.499183_51.020931;66.489669_51.125487;66.480176_51.230044;66.470704_51.334603;66.461252_51.439164;66.451819_51.543727;66.442406_51.648291;66.433011_51.752857;66.423634_51.857425;66.414275_51.961995;66.404932_52.066565;66.395607_52.171138;66.386297_52.275712;66.377003_52.380287;66.367725_52.484863;66.358461_52.589441;66.349212_52.694020;66.339976_52.798601;66.330754_52.903182;66.321545_53.007765;66.312349_53.112349;66.303165_53.216934;66.293993_53.321520;66.284832_53.426106;66.275682_53.530694;66.266543_53.635283;66.257414_53.739873;66.248295_53.844463;66.239185_53.949055;66.230085_54.053647;66.220993_54.158240;66.211910_54.262834;66.202834_54.367428;66.193767_54.472023;66.184706_54.576619;66.175653_54.681215;66.166606_54.785812;66.157565_54.890409;66.148530_54.995007;66.139501_55.099606;66.130477_55.204204;66.121458_55.308804;66.112443_55.413403;66.103432_55.518003;66.094425_55.622603;66.085422_55.727204;66.076422_55.831805;66.067424_55.936406;66.058429_56.041007;</t>
+  </si>
+  <si>
+    <t>66.000000_58.020224;66.000000_58.060672;66.000000_58.101120;66.000000_58.141568;66.000000_58.182016;66.000000_58.222464;66.000000_58.262912;66.000000_58.303360;66.000000_58.343808;66.000000_58.384256;66.000000_58.424704;66.000000_58.465152;66.000000_58.505600;66.000000_58.546049;66.000000_58.586497;66.000000_58.626945;66.000000_58.667393;66.000000_58.707841;66.000000_58.748289;66.000000_58.788737;66.000000_58.829185;66.000000_58.869633;66.000000_58.910081;66.000000_58.950529;66.000000_58.990977;66.000000_59.031425;66.000000_59.071873;66.000000_59.112321;66.000000_59.152769;66.000000_59.193217;66.000000_59.233665;66.000000_59.274113;66.000000_59.314561;66.000000_59.355009;66.000000_59.395457;66.000000_59.435905;66.000000_59.476353;66.000000_59.516801;66.000000_59.557250;66.000000_59.597698;66.000000_59.638146;66.000000_59.678594;66.000000_59.719042;66.000000_59.759490;66.000000_59.799938;66.000000_59.840386;66.000000_59.880834;66.000000_59.921282;66.000000_59.961730;66.000000_60.002178;66.000000_60.042626;66.000000_60.083074;66.000000_60.123522;66.000000_60.163970;66.000000_60.204418;66.000000_60.244866;66.000000_60.285314;66.000000_60.325762;66.000000_60.366210;66.000000_60.406658;66.000000_60.447106;66.000000_60.487554;66.000000_60.528002;66.000000_60.568451;66.000000_60.608899;66.000000_60.649347;66.000000_60.689795;66.000000_60.730243;66.000000_60.770691;66.000000_60.811139;66.000000_60.851587;66.000000_60.892035;66.000000_60.932483;66.000000_60.972931;66.000000_61.013379;66.000000_61.053827;66.000000_61.094275;66.000000_61.134723;66.000000_61.175171;66.000000_61.215619;66.000000_61.256067;66.000000_61.296515;66.000000_61.336963;66.000000_61.377411;66.000000_61.417859;66.000000_61.458307;66.000000_61.498755;66.000000_61.539203;66.000000_61.579652;66.000000_61.620100;66.000000_61.660548;66.000000_61.700996;66.000000_61.741444;66.000000_61.781892;66.000000_61.822340;66.000000_61.862788;66.000000_61.903236;66.000000_61.943684;66.000000_61.984132;66.000000_62.024580;66.000000_62.065028;66.000000_62.105476;66.000000_62.145924;66.000000_62.186372;66.000000_62.226820;66.000000_62.267268;66.000000_62.307716;66.000000_62.348164;66.000000_62.388612;66.000000_62.429060;66.000000_62.469508;66.000000_62.509956;66.000000_62.550404;66.000000_62.590853;66.000000_62.631301;66.000000_62.671749;66.000000_62.712197;66.000000_62.752645;66.000000_62.793093;66.000000_62.833541;66.000000_62.873989;66.000000_62.914437;66.000000_62.954885;66.000000_62.995333;66.000000_63.035781;66.000000_63.076229;66.000000_63.116677;66.000000_63.157125;66.000000_63.197573;66.000000_63.238021;66.000000_63.278469;66.000000_63.318917;66.000000_63.359365;66.000000_63.399813;66.000000_63.440261;66.000000_63.480709;66.000000_63.521157;66.000000_63.561605;66.000000_63.602054;66.000000_63.642502;66.000000_63.682950;66.000000_63.723398;66.000000_63.763846;66.000000_63.804294;66.000000_63.844742;66.000000_63.885190;66.000000_63.925638;66.000000_63.966086;66.000000_64.006534;66.000000_64.046982;66.000000_64.087430;66.000000_64.127878;66.000000_64.168326;66.000000_64.208774;66.000000_64.249222;66.000000_64.289670;66.000000_64.330118;66.000000_64.370566;66.000000_64.411014;66.000000_64.451462;66.000000_64.491910;66.000000_64.532358;66.000000_64.572806;66.000000_64.613255;66.000000_64.653703;66.000000_64.694151;66.000000_64.734599;66.000000_64.775047;66.000000_64.815495;66.000000_64.855943;66.000000_64.896391;66.000000_64.936839;66.000000_64.977287;66.000000_65.017735;66.000000_65.058183;66.000000_65.098631;66.000000_65.139079;66.000000_65.179527;66.000000_65.219975;66.000000_65.260423;66.000000_65.300871;66.000000_65.341319;66.000000_65.381767;66.000000_65.422215;66.000000_65.462663;66.000000_65.503111;66.000000_65.543559;66.000000_65.584007;66.000000_65.624456;66.000000_65.664904;66.000000_65.705352;66.000000_65.745800;66.000000_65.786248;66.000000_65.826696;66.000000_65.867144;66.000000_65.907592;66.000000_65.948040;66.000000_65.988488;66.000000_66.028936;66.000000_66.069384;66.000000_66.109832;66.000000_66.150280;66.000000_66.190728;66.000000_66.231176;66.000000_66.271624;66.000000_66.312072;66.000000_66.352520;66.000000_66.392968;66.000000_66.433416;66.000000_66.473864;66.000000_66.514312;66.000000_66.554760;66.000000_66.595208;66.000000_66.635657;66.000000_66.676105;66.000000_66.716553;66.000000_66.757001;66.000000_66.797449;66.000000_66.837897;66.000000_66.878345;66.000000_66.918793;66.000000_66.959241;66.000000_66.999689;66.000000_67.040137;66.000000_67.080585;66.000000_67.121033;66.000000_67.161481;66.000000_67.201929;66.000000_67.242377;66.000000_67.282825;66.000000_67.323273;66.000000_67.363721;66.000000_67.404169;66.000000_67.444617;66.000000_67.485065;66.000000_67.525513;66.000000_67.565961;66.000000_67.606409;66.000000_67.646857;66.000000_67.687306;66.000000_67.727754;66.000000_67.768202;66.000000_67.808650;66.000000_67.849098;66.000000_67.889546;66.000000_67.929994;66.000000_67.970442;66.000000_68.010890;66.000000_68.051338;66.000000_68.091786;66.000000_68.132234;66.000000_68.172682;66.000000_68.213130;66.000000_68.253578;66.000000_68.294026;66.000000_68.334474;66.000000_68.374922;66.000000_68.415370;66.000000_68.455818;66.000000_68.496266;66.000000_68.536714;66.000000_68.577162;66.000000_68.617610;66.000000_68.658058;66.000000_68.698507;66.000000_68.738955;66.000000_68.779403;66.000000_68.819851;66.000000_68.860299;66.000000_68.900747;66.000000_68.941195;66.000000_68.981643;66.000000_69.022091;66.000000_69.062539;66.000000_69.102987;66.000000_69.143435;66.000000_69.183883;66.000000_69.224331;66.000000_69.264779;66.000000_69.305227;66.000000_69.345675;66.000000_69.386123;66.000000_69.426571;66.000000_69.467019;66.000000_69.507467;66.000000_69.547915;66.000000_69.588363;66.000000_69.628811;66.000000_69.669259;66.000000_69.709708;66.000000_69.750156;66.000000_69.790604;66.000000_69.831052;66.000000_69.871500;66.000000_69.911948;66.000000_69.952396;66.000000_69.992844;66.000000_70.033292;66.000000_70.073740;66.000000_70.114188;</t>
+  </si>
+  <si>
+    <t>66.000000_70.195084;66.000000_70.235532;66.000000_70.275980;66.000000_70.316428;66.000000_70.356876;66.000000_70.397324;66.000000_70.437772;66.000000_70.478220;66.000000_70.518668;66.000000_70.559116;66.000000_70.599564;66.000000_70.640012;66.000000_70.680460;66.000000_70.720909;66.000000_70.761357;66.000000_70.801805;66.000000_70.842253;66.000000_70.882701;66.000000_70.923149;66.000000_70.963597;66.000000_71.004045;66.000000_71.044493;66.000000_71.084941;66.000000_71.125389;66.000000_71.165837;66.000000_71.206285;66.000000_71.246733;66.000000_71.287181;66.000000_71.327629;66.000000_71.368077;66.000000_71.408525;66.000000_71.448973;66.000000_71.489421;66.000000_71.529869;66.000000_71.570317;66.000000_71.610765;66.000000_71.651213;66.000000_71.691661;66.000000_71.732110;66.000000_71.772558;66.000000_71.813006;66.000000_71.853454;66.000000_71.893902;66.000000_71.934350;66.000000_71.974798;66.000000_72.015246;66.000000_72.055694;66.000000_72.096142;66.000000_72.136590;66.000000_72.177038;66.000000_72.217486;66.000000_72.257934;66.000000_72.298382;66.000000_72.338830;66.000000_72.379278;66.000000_72.419726;66.000000_72.460174;66.000000_72.500622;66.000000_72.541070;66.000000_72.581518;66.000000_72.621966;66.000000_72.662414;66.000000_72.702862;66.000000_72.743311;66.000000_72.783759;66.000000_72.824207;66.000000_72.864655;66.000000_72.905103;66.000000_72.945551;66.000000_72.985999;66.000000_73.026447;66.000000_73.066895;66.000000_73.107343;66.000000_73.147791;66.000000_73.188239;66.000000_73.228687;66.000000_73.269135;66.000000_73.309583;66.000000_73.350031;66.000000_73.390479;66.000000_73.430927;66.000000_73.471375;66.000000_73.511823;66.000000_73.552271;66.000000_73.592719;66.000000_73.633167;66.000000_73.673615;66.000000_73.714063;66.000000_73.754512;66.000000_73.794960;66.000000_73.835408;66.000000_73.875856;66.000000_73.916304;66.000000_73.956752;66.000000_73.997200;66.000000_74.037648;66.000000_74.078096;66.000000_74.118544;66.000000_74.158992;66.000000_74.199440;66.000000_74.239888;66.000000_74.280336;66.000000_74.320784;66.000000_74.361232;66.000000_74.401680;66.000000_74.442128;66.000000_74.482576;66.000000_74.523024;66.000000_74.563472;66.000000_74.603920;66.000000_74.644368;66.000000_74.684816;66.000000_74.725264;66.000000_74.765713;66.000000_74.806161;66.000000_74.846609;66.000000_74.887057;66.000000_74.927505;66.000000_74.967953;66.000000_75.008401;66.000000_75.048849;66.000000_75.089297;66.000000_75.129745;66.000000_75.170193;66.000000_75.210641;66.000000_75.251089;66.000000_75.291537;66.000000_75.331985;66.000000_75.372433;66.000000_75.412881;66.000000_75.453329;66.000000_75.493777;66.000000_75.534225;66.000000_75.574673;66.000000_75.615121;66.000000_75.655569;66.000000_75.696017;66.000000_75.736465;66.000000_75.776914;66.000000_75.817362;66.000000_75.857810;66.000000_75.898258;66.000000_75.938706;66.000000_75.979154;66.000000_76.019602;66.000000_76.060050;66.000000_76.100498;66.000000_76.140946;66.000000_76.181394;66.000000_76.221842;66.000000_76.262290;66.000000_76.302738;66.000000_76.343186;66.000000_76.383634;66.000000_76.424082;66.000000_76.464530;66.000000_76.504978;66.000000_76.545426;66.000000_76.585874;66.000000_76.626322;66.000000_76.666770;66.000000_76.707218;66.000000_76.747666;66.000000_76.788114;66.000000_76.828563;66.000000_76.869011;66.000000_76.909459;66.000000_76.949907;66.000000_76.990355;66.000000_77.030803;66.000000_77.071251;66.000000_77.111699;66.000000_77.152147;66.000000_77.192595;66.000000_77.233043;66.000000_77.273491;66.000000_77.313939;66.000000_77.354387;66.000000_77.394835;66.000000_77.435283;66.000000_77.475731;66.000000_77.516179;66.000000_77.556627;66.000000_77.597075;66.000000_77.637523;66.000000_77.677971;66.000000_77.718419;66.000000_77.758867;66.000000_77.799315;66.000000_77.839764;66.000000_77.880212;66.000000_77.920660;66.000000_77.961108;66.000000_78.001556;66.000000_78.042004;66.000000_78.082452;66.000000_78.122900;66.000000_78.163348;66.000000_78.203796;66.000000_78.244244;66.000000_78.284692;66.000000_78.325140;66.000000_78.365588;66.000000_78.406036;66.000000_78.446484;66.000000_78.486932;66.000000_78.527380;66.000000_78.567828;66.000000_78.608276;66.000000_78.648724;66.000000_78.689172;66.000000_78.729620;66.000000_78.770068;66.000000_78.810516;66.000000_78.850965;66.000000_78.891413;66.000000_78.931861;66.000000_78.972309;66.000000_79.012757;66.000000_79.053205;66.000000_79.093653;66.000000_79.134101;66.000000_79.174549;66.000000_79.214997;66.000000_79.255445;66.000000_79.295893;66.000000_79.336341;66.000000_79.376789;66.000000_79.417237;66.000000_79.457685;66.000000_79.498133;66.000000_79.538581;66.000000_79.579029;66.000000_79.619477;66.000000_79.659925;66.000000_79.700373;66.000000_79.740821;66.000000_79.781269;66.000000_79.821717;66.000000_79.862166;66.000000_79.902614;66.000000_79.943062;66.000000_79.983510;66.000000_80.023958;66.000000_80.064406;66.000000_80.104854;66.000000_80.145302;66.000000_80.185750;66.000000_80.226198;66.000000_80.266646;66.000000_80.307094;66.000000_80.347542;66.000000_80.387990;66.000000_80.428438;66.000000_80.468886;66.000000_80.509334;66.000000_80.549782;66.000000_80.590230;66.000000_80.630678;66.000000_80.671126;66.000000_80.711574;66.000000_80.752022;66.000000_80.792470;66.000000_80.832918;66.000000_80.873367;66.000000_80.913815;66.000000_80.954263;66.000000_80.994711;66.000000_81.035159;66.000000_81.075607;66.000000_81.116055;66.000000_81.156503;66.000000_81.196951;66.000000_81.237399;66.000000_81.277847;66.000000_81.318295;66.000000_81.358743;66.000000_81.399191;66.000000_81.439639;66.000000_81.480087;66.000000_81.520535;66.000000_81.560983;66.000000_81.601431;66.000000_81.641879;66.000000_81.682327;66.000000_81.722775;66.000000_81.763223;66.000000_81.803671;66.000000_81.844119;66.000000_81.884568;66.000000_81.925016;66.000000_81.965464;66.000000_82.005912;66.000000_82.046360;66.000000_82.086808;66.000000_82.127256;66.000000_82.167704;66.000000_82.208152;66.000000_82.248600;66.000000_82.289048;</t>
+  </si>
+  <si>
+    <t>66.000000_82.369944;66.000000_82.410392;66.000000_82.450840;66.000000_82.491288;66.000000_82.531736;66.000000_82.572184;66.000000_82.612632;66.000000_82.653080;66.000000_82.693528;66.000000_82.733976;66.000000_82.774424;66.000000_82.814872;66.000000_82.855320;66.000000_82.895769;66.000000_82.936217;66.000000_82.976665;66.000000_83.017113;66.000000_83.057561;66.000000_83.098009;66.000000_83.138457;66.000000_83.178905;66.000000_83.219353;66.000000_83.259801;66.000000_83.300249;66.000000_83.340697;66.000000_83.381145;66.000000_83.421593;66.000000_83.462041;66.000000_83.502489;66.000000_83.542937;66.000000_83.583385;66.000000_83.623833;66.000000_83.664281;66.000000_83.704729;66.000000_83.745177;66.000000_83.785625;66.000000_83.826073;66.000000_83.866521;66.000000_83.906970;66.000000_83.947418;66.000000_83.987866;66.000000_84.028314;66.000000_84.068762;66.000000_84.109210;66.000000_84.149658;66.000000_84.190106;66.000000_84.230554;66.000000_84.271002;66.000000_84.311450;66.000000_84.351898;66.000000_84.392346;66.000000_84.432794;66.000000_84.473242;66.000000_84.513690;66.000000_84.554138;66.000000_84.594586;66.000000_84.635034;66.000000_84.675482;66.000000_84.715930;66.000000_84.756378;66.000000_84.796826;66.000000_84.837274;66.000000_84.877722;66.000000_84.918171;66.000000_84.958619;66.000000_84.999067;66.000000_85.039515;66.000000_85.079963;66.000000_85.120411;66.000000_85.160859;66.000000_85.201307;66.000000_85.241755;66.000000_85.282203;66.000000_85.322651;66.000000_85.363099;66.000000_85.403547;66.000000_85.443995;66.000000_85.484443;66.000000_85.524891;66.000000_85.565339;66.000000_85.605787;66.000000_85.646235;66.000000_85.686683;66.000000_85.727131;66.000000_85.767579;66.000000_85.808027;66.000000_85.848475;66.000000_85.888923;66.000000_85.929371;66.000000_85.969820;66.000000_86.010268;66.000000_86.050716;66.000000_86.091164;66.000000_86.131612;66.000000_86.172060;66.000000_86.212508;66.000000_86.252956;66.000000_86.293404;66.000000_86.333852;66.000000_86.374300;66.000000_86.414748;66.000000_86.455196;66.000000_86.495644;66.000000_86.536092;66.000000_86.576540;66.000000_86.616988;66.000000_86.657436;66.000000_86.697884;66.000000_86.738332;66.000000_86.778780;66.000000_86.819228;66.000000_86.859676;66.000000_86.900124;66.000000_86.940572;66.000000_86.981021;66.000000_87.021469;66.000000_87.061917;66.000000_87.102365;66.000000_87.142813;66.000000_87.183261;66.000000_87.223709;66.000000_87.264157;66.000000_87.304605;66.000000_87.345053;66.000000_87.385501;66.000000_87.425949;66.000000_87.466397;66.000000_87.506845;66.000000_87.547293;66.000000_87.587741;66.000000_87.628189;66.000000_87.668637;66.000000_87.709085;66.000000_87.749533;66.000000_87.789981;66.000000_87.830429;66.000000_87.870877;66.000000_87.911325;66.000000_87.951773;66.000000_87.992222;66.000000_88.032670;66.000000_88.073118;66.000000_88.113566;66.000000_88.154014;66.000000_88.194462;66.000000_88.234910;66.000000_88.275358;66.000000_88.315806;66.000000_88.356254;66.000000_88.396702;66.000000_88.437150;66.000000_88.477598;66.000000_88.518046;66.000000_88.558494;66.000000_88.598942;66.000000_88.639390;66.000000_88.679838;66.000000_88.720286;66.000000_88.760734;66.000000_88.801182;66.000000_88.841630;66.000000_88.882078;66.000000_88.922526;66.000000_88.962974;66.000000_89.003423;66.000000_89.043871;66.000000_89.084319;66.000000_89.124767;66.000000_89.165215;66.000000_89.205663;66.000000_89.246111;66.000000_89.286559;66.000000_89.327007;66.000000_89.367455;66.000000_89.407903;66.000000_89.448351;66.000000_89.488799;66.000000_89.529247;66.000000_89.569695;66.000000_89.610143;66.000000_89.650591;66.000000_89.691039;66.000000_89.731487;66.000000_89.771935;66.000000_89.812383;66.000000_89.852831;66.000000_89.893279;66.000000_89.933727;66.000000_89.974175;66.000000_90.014624;66.000000_90.055072;66.000000_90.095520;66.000000_90.135968;66.000000_90.176416;66.000000_90.216864;66.000000_90.257312;66.000000_90.297760;66.000000_90.338208;66.000000_90.378656;66.000000_90.419104;66.000000_90.459552;66.000000_90.500000;66.000000_90.540448;66.000000_90.580896;66.000000_90.621344;66.000000_90.661792;66.000000_90.702240;66.000000_90.742688;66.000000_90.783136;66.000000_90.823584;66.000000_90.864032;66.000000_90.904480;66.000000_90.944928;66.000000_90.985376;66.000000_91.025825;66.000000_91.066273;66.000000_91.106721;66.000000_91.147169;66.000000_91.187617;66.000000_91.228065;66.000000_91.268513;66.000000_91.308961;66.000000_91.349409;66.000000_91.389857;66.000000_91.430305;66.000000_91.470753;66.000000_91.511201;66.000000_91.551649;66.000000_91.592097;66.000000_91.632545;66.000000_91.672993;66.000000_91.713441;66.000000_91.753889;66.000000_91.794337;66.000000_91.834785;66.000000_91.875233;66.000000_91.915681;66.000000_91.956129;66.000000_91.996577;66.000000_92.037026;66.000000_92.077474;66.000000_92.117922;66.000000_92.158370;66.000000_92.198818;66.000000_92.239266;66.000000_92.279714;66.000000_92.320162;66.000000_92.360610;66.000000_92.401058;66.000000_92.441506;66.000000_92.481954;66.000000_92.522402;66.000000_92.562850;66.000000_92.603298;66.000000_92.643746;66.000000_92.684194;66.000000_92.724642;66.000000_92.765090;66.000000_92.805538;66.000000_92.845986;66.000000_92.886434;66.000000_92.926882;66.000000_92.967330;66.000000_93.007778;66.000000_93.048227;66.000000_93.088675;66.000000_93.129123;66.000000_93.169571;66.000000_93.210019;66.000000_93.250467;66.000000_93.290915;66.000000_93.331363;66.000000_93.371811;66.000000_93.412259;66.000000_93.452707;66.000000_93.493155;66.000000_93.533603;66.000000_93.574051;66.000000_93.614499;66.000000_93.654947;66.000000_93.695395;66.000000_93.735843;66.000000_93.776291;66.000000_93.816739;66.000000_93.857187;66.000000_93.897635;66.000000_93.938083;66.000000_93.978531;66.000000_94.018979;66.000000_94.059428;66.000000_94.099876;66.000000_94.140324;66.000000_94.180772;66.000000_94.221220;66.000000_94.261668;66.000000_94.302116;66.000000_94.342564;66.000000_94.383012;66.000000_94.423460;66.000000_94.463908;</t>
+  </si>
+  <si>
+    <t>66.000000_94.544804;66.000000_94.585252;66.000000_94.625700;66.000000_94.666148;66.000000_94.706596;66.000000_94.747044;66.000000_94.787492;66.000000_94.827940;66.000000_94.868388;66.000000_94.908836;66.000000_94.949284;66.000000_94.989732;66.000000_95.030180;66.000000_95.070629;66.000000_95.111077;66.000000_95.151525;66.000000_95.191973;66.000000_95.232421;66.000000_95.272869;66.000000_95.313317;66.000000_95.353765;66.000000_95.394213;66.000000_95.434661;66.000000_95.475109;66.000000_95.515557;66.000000_95.556005;66.000000_95.596453;66.000000_95.636901;66.000000_95.677349;66.000000_95.717797;66.000000_95.758245;66.000000_95.798693;66.000000_95.839141;66.000000_95.879589;66.000000_95.920037;66.000000_95.960485;66.000000_96.000933;66.000000_96.041381;66.000000_96.081829;66.000000_96.122278;66.000000_96.162726;66.000000_96.203174;66.000000_96.243622;66.000000_96.284070;66.000000_96.324518;66.000000_96.364966;66.000000_96.405414;66.000000_96.445862;66.000000_96.486310;66.000000_96.526758;66.000000_96.567206;66.000000_96.607654;66.000000_96.648102;66.000000_96.688550;66.000000_96.728998;66.000000_96.769446;66.000000_96.809894;66.000000_96.850342;66.000000_96.890790;66.000000_96.931238;66.000000_96.971686;66.000000_97.012134;66.000000_97.052582;66.000000_97.093030;66.000000_97.133479;66.000000_97.173927;66.000000_97.214375;66.000000_97.254823;66.000000_97.295271;66.000000_97.335719;66.000000_97.376167;66.000000_97.416615;66.000000_97.457063;66.000000_97.497511;66.000000_97.537959;66.000000_97.578407;66.000000_97.618855;66.000000_97.659303;66.000000_97.699751;66.000000_97.740199;66.000000_97.780647;66.000000_97.821095;66.000000_97.861543;66.000000_97.901991;66.000000_97.942439;66.000000_97.982887;66.000000_98.023335;66.000000_98.063783;66.000000_98.104231;66.000000_98.144680;66.000000_98.185128;66.000000_98.225576;66.000000_98.266024;66.000000_98.306472;66.000000_98.346920;66.000000_98.387368;66.000000_98.427816;66.000000_98.468264;66.000000_98.508712;66.000000_98.549160;66.000000_98.589608;66.000000_98.630056;66.000000_98.670504;66.000000_98.710952;66.000000_98.751400;66.000000_98.791848;66.000000_98.832296;66.000000_98.872744;66.000000_98.913192;66.000000_98.953640;66.000000_98.994088;66.000000_99.034536;66.000000_99.074984;66.000000_99.115432;66.000000_99.155881;66.000000_99.196329;66.000000_99.236777;66.000000_99.277225;66.000000_99.317673;66.000000_99.358121;66.000000_99.398569;66.000000_99.439017;66.000000_99.479465;66.000000_99.519913;66.000000_99.560361;66.000000_99.600809;66.000000_99.641257;66.000000_99.681705;66.000000_99.722153;66.000000_99.762601;66.000000_99.803049;66.000000_99.843497;66.000000_99.883945;66.000000_99.924393;66.000000_99.964841;66.000000_100.005289;66.000000_100.045737;66.000000_100.086185;66.000000_100.126633;66.000000_100.167082;66.000000_100.207530;66.000000_100.247978;66.000000_100.288426;66.000000_100.328874;66.000000_100.369322;66.000000_100.409770;66.000000_100.450218;66.000000_100.490666;66.000000_100.531114;66.000000_100.571562;66.000000_100.612010;66.000000_100.652458;66.000000_100.692906;66.000000_100.733354;66.000000_100.773802;66.000000_100.814250;66.000000_100.854698;66.000000_100.895146;66.000000_100.935594;66.000000_100.976042;66.000000_101.016490;66.000000_101.056938;66.000000_101.097386;66.000000_101.137834;66.000000_101.178283;66.000000_101.218731;66.000000_101.259179;66.000000_101.299627;66.000000_101.340075;66.000000_101.380523;66.000000_101.420971;66.000000_101.461419;66.000000_101.501867;66.000000_101.542315;66.000000_101.582763;66.000000_101.623211;66.000000_101.663659;66.000000_101.704107;66.000000_101.744555;66.000000_101.785003;66.000000_101.825451;66.000000_101.865899;66.000000_101.906347;66.000000_101.946795;66.000000_101.987243;66.000000_102.027691;66.000000_102.068139;66.000000_102.108587;66.000000_102.149035;66.000000_102.189484;66.000000_102.229932;66.000000_102.270380;66.000000_102.310828;66.000000_102.351276;66.000000_102.391724;66.000000_102.432172;66.000000_102.472620;66.000000_102.513068;66.000000_102.553516;66.000000_102.593964;66.000000_102.634412;66.000000_102.674860;66.000000_102.715308;66.000000_102.755756;66.000000_102.796204;66.000000_102.836652;66.000000_102.877100;66.000000_102.917548;66.000000_102.957996;66.000000_102.998444;66.000000_103.038892;66.000000_103.079340;66.000000_103.119788;66.000000_103.160236;66.000000_103.200685;66.000000_103.241133;66.000000_103.281581;66.000000_103.322029;66.000000_103.362477;66.000000_103.402925;66.000000_103.443373;66.000000_103.483821;66.000000_103.524269;66.000000_103.564717;66.000000_103.605165;66.000000_103.645613;66.000000_103.686061;66.000000_103.726509;66.000000_103.766957;66.000000_103.807405;66.000000_103.847853;66.000000_103.888301;66.000000_103.928749;66.000000_103.969197;66.000000_104.009645;66.000000_104.050093;66.000000_104.090541;66.000000_104.130989;66.000000_104.171437;66.000000_104.211886;66.000000_104.252334;66.000000_104.292782;66.000000_104.333230;66.000000_104.373678;66.000000_104.414126;66.000000_104.454574;66.000000_104.495022;66.000000_104.535470;66.000000_104.575918;66.000000_104.616366;66.000000_104.656814;66.000000_104.697262;66.000000_104.737710;66.000000_104.778158;66.000000_104.818606;66.000000_104.859054;66.000000_104.899502;66.000000_104.939950;66.000000_104.980398;66.000000_105.020846;66.000000_105.061294;66.000000_105.101742;66.000000_105.142190;66.000000_105.182638;66.000000_105.223086;66.000000_105.263535;66.000000_105.303983;66.000000_105.344431;66.000000_105.384879;66.000000_105.425327;66.000000_105.465775;66.000000_105.506223;66.000000_105.546671;66.000000_105.587119;66.000000_105.627567;66.000000_105.668015;66.000000_105.708463;66.000000_105.748911;66.000000_105.789359;66.000000_105.829807;66.000000_105.870255;66.000000_105.910703;66.000000_105.951151;66.000000_105.991599;66.000000_106.032047;66.000000_106.072495;66.000000_106.112943;66.000000_106.153391;66.000000_106.193839;66.000000_106.234287;66.000000_106.274736;66.000000_106.315184;66.000000_106.355632;66.000000_106.396080;66.000000_106.436528;66.000000_106.476976;66.000000_106.517424;66.000000_106.557872;66.000000_106.598320;66.000000_106.638768;</t>
+  </si>
+  <si>
+    <t>66.000000_106.719664;66.000000_106.760112;66.000000_106.800560;66.000000_106.841008;66.000000_106.881456;66.000000_106.921904;66.000000_106.962352;66.000000_107.002800;66.000000_107.043248;66.000000_107.083696;66.000000_107.124144;66.000000_107.164592;66.000000_107.205040;66.000000_107.245488;66.000000_107.285937;66.000000_107.326385;66.000000_107.366833;66.000000_107.407281;66.000000_107.447729;66.000000_107.488177;66.000000_107.528625;66.000000_107.569073;66.000000_107.609521;66.000000_107.649969;66.000000_107.690417;66.000000_107.730865;66.000000_107.771313;66.000000_107.811761;66.000000_107.852209;66.000000_107.892657;66.000000_107.933105;66.000000_107.973553;66.000000_108.014001;66.000000_108.054449;66.000000_108.094897;66.000000_108.135345;66.000000_108.175793;66.000000_108.216241;66.000000_108.256689;66.000000_108.297138;66.000000_108.337586;66.000000_108.378034;66.000000_108.418482;66.000000_108.458930;66.000000_108.499378;66.000000_108.539826;66.000000_108.580274;66.000000_108.620722;66.000000_108.661170;66.000000_108.701618;66.000000_108.742066;66.000000_108.782514;66.000000_108.822962;66.000000_108.863410;66.000000_108.903858;66.000000_108.944306;66.000000_108.984754;66.000000_109.025202;66.000000_109.065650;66.000000_109.106098;66.000000_109.146546;66.000000_109.186994;66.000000_109.227442;66.000000_109.267890;66.000000_109.308339;66.000000_109.348787;66.000000_109.389235;66.000000_109.429683;66.000000_109.470131;66.000000_109.510579;66.000000_109.551027;66.000000_109.591475;66.000000_109.631923;66.000000_109.672371;66.000000_109.712819;66.000000_109.753267;66.000000_109.793715;66.000000_109.834163;66.000000_109.874611;66.000000_109.915059;66.000000_109.955507;66.000000_109.995955;66.000000_110.036403;66.000000_110.076851;66.000000_110.117299;66.000000_110.157747;66.000000_110.198195;66.000000_110.238643;66.000000_110.279091;66.000000_110.319540;66.000000_110.359988;66.000000_110.400436;66.000000_110.440884;66.000000_110.481332;66.000000_110.521780;66.000000_110.562228;66.000000_110.602676;66.000000_110.643124;66.000000_110.683572;66.000000_110.724020;66.000000_110.764468;66.000000_110.804916;66.000000_110.845364;66.000000_110.885812;66.000000_110.926260;66.000000_110.966708;66.000000_111.007156;66.000000_111.047604;66.000000_111.088052;66.000000_111.128500;66.000000_111.168948;66.000000_111.209396;66.000000_111.249844;66.000000_111.290292;66.000000_111.330741;66.000000_111.371189;66.000000_111.411637;66.000000_111.452085;66.000000_111.492533;66.000000_111.532981;66.000000_111.573429;66.000000_111.613877;66.000000_111.654325;66.000000_111.694773;66.000000_111.735221;66.000000_111.775669;66.000000_111.816117;66.000000_111.856565;66.000000_111.897013;66.000000_111.937461;66.000000_111.977909;66.000000_112.018357;66.000000_112.058805;66.000000_112.099253;66.000000_112.139701;66.000000_112.180149;66.000000_112.220597;66.000000_112.261045;66.000000_112.301493;66.000000_112.341942;66.000000_112.382390;66.000000_112.422838;66.000000_112.463286;66.000000_112.503734;66.000000_112.544182;66.000000_112.584630;66.000000_112.625078;66.000000_112.665526;66.000000_112.705974;66.000000_112.746422;66.000000_112.786870;66.000000_112.827318;66.000000_112.867766;66.000000_112.908214;66.000000_112.948662;66.000000_112.989110;66.000000_113.029558;66.000000_113.070006;66.000000_113.110454;66.000000_113.150902;66.000000_113.191350;66.000000_113.231798;66.000000_113.272246;66.000000_113.312694;66.000000_113.353143;66.000000_113.393591;66.000000_113.434039;66.000000_113.474487;66.000000_113.514935;66.000000_113.555383;66.000000_113.595831;66.000000_113.636279;66.000000_113.676727;66.000000_113.717175;66.000000_113.757623;66.000000_113.798071;66.000000_113.838519;66.000000_113.878967;66.000000_113.919415;66.000000_113.959863;66.000000_114.000311;66.000000_114.040759;66.000000_114.081207;66.000000_114.121655;66.000000_114.162103;66.000000_114.202551;66.000000_114.242999;66.000000_114.283447;66.000000_114.323895;66.000000_114.364343;66.000000_114.404792;66.000000_114.445240;66.000000_114.485688;66.000000_114.526136;66.000000_114.566584;66.000000_114.607032;66.000000_114.647480;66.000000_114.687928;66.000000_114.728376;66.000000_114.768824;</t>
+  </si>
+  <si>
+    <t>66.000000_114.849720;66.000000_114.890168;66.000000_114.930616;66.000000_114.971064;66.000000_115.011512;66.000000_115.051960;66.000000_115.092408;66.000000_115.132856;66.000000_115.173304;66.000000_115.213752;66.000000_115.254200;66.000000_115.294648;66.000000_115.335096;66.000000_115.375544;66.000000_115.415993;66.000000_115.456441;66.000000_115.496889;66.000000_115.537337;66.000000_115.577785;66.000000_115.618233;66.000000_115.658681;66.000000_115.699129;66.000000_115.739577;66.000000_115.780025;66.000000_115.820473;66.000000_115.860921;66.000000_115.901369;66.000000_115.941817;66.000000_115.982265;66.000000_116.022713;66.000000_116.063161;66.000000_116.103609;66.000000_116.144057;66.000000_116.184505;66.000000_116.224953;66.000000_116.265401;66.000000_116.305849;66.000000_116.346297;66.000000_116.386745;66.000000_116.427194;66.000000_116.467642;66.000000_116.508090;66.000000_116.548538;66.000000_116.588986;66.000000_116.629434;66.000000_116.669882;66.000000_116.710330;66.000000_116.750778;66.000000_116.791226;66.000000_116.831674;66.000000_116.872122;66.000000_116.912570;66.000000_116.953018;66.000000_116.993466;66.000000_117.033914;66.000000_117.074362;66.000000_117.114810;66.000000_117.155258;66.000000_117.195706;66.000000_117.236154;66.000000_117.276602;66.000000_117.317050;66.000000_117.357498;66.000000_117.397946;66.000000_117.438395;66.000000_117.478843;66.000000_117.519291;66.000000_117.559739;66.000000_117.600187;66.000000_117.640635;66.000000_117.681083;66.000000_117.721531;66.000000_117.761979;66.000000_117.802427;66.000000_117.842875;66.000000_117.883323;66.000000_117.923771;66.000000_117.964219;66.000000_118.004667;66.000000_118.045115;66.000000_118.085563;66.000000_118.126011;66.000000_118.166459;66.000000_118.206907;66.000000_118.247355;66.000000_118.287803;66.000000_118.328251;66.000000_118.368699;66.000000_118.409147;66.000000_118.449596;66.000000_118.490044;66.000000_118.530492;66.000000_118.570940;66.000000_118.611388;66.000000_118.651836;66.000000_118.692284;66.000000_118.732732;66.000000_118.773180;66.000000_118.813628;66.000000_118.854076;</t>
+  </si>
+  <si>
+    <t>66.000000_118.934972;66.000000_118.975420;66.000000_119.015868;66.000000_119.056316;66.000000_119.096764;66.000000_119.137212;66.000000_119.177660;66.000000_119.218108;66.000000_119.258556;66.000000_119.299004;66.000000_119.339452;66.000000_119.379900;66.000000_119.420348;66.000000_119.460797;66.000000_119.501245;66.000000_119.541693;66.000000_119.582141;66.000000_119.622589;66.000000_119.663037;66.000000_119.703485;66.000000_119.743933;66.000000_119.784381;66.000000_119.824829;66.000000_119.865277;66.000000_119.905725;66.000000_119.946173;66.000000_119.986621;66.000000_120.027069;66.000000_120.067517;66.000000_120.107965;66.000000_120.148413;66.000000_120.188861;66.000000_120.229309;66.000000_120.269757;66.000000_120.310205;66.000000_120.350653;66.000000_120.391101;66.000000_120.431549;66.000000_120.471998;66.000000_120.512446;66.000000_120.552894;66.000000_120.593342;66.000000_120.633790;66.000000_120.674238;66.000000_120.714686;66.000000_120.755134;66.000000_120.795582;66.000000_120.836030;66.000000_120.876478;66.000000_120.916926;</t>
+  </si>
+  <si>
+    <t>66.000000_120.997822;66.000000_121.038270;66.000000_121.078718;66.000000_121.119166;66.000000_121.159614;66.000000_121.200062;66.000000_121.240510;66.000000_121.280958;66.000000_121.321406;66.000000_121.361854;66.000000_121.402302;66.000000_121.442750;66.000000_121.483199;66.000000_121.523647;66.000000_121.564095;66.000000_121.604543;66.000000_121.644991;66.000000_121.685439;66.000000_121.725887;66.000000_121.766335;66.000000_121.806783;66.000000_121.847231;66.000000_121.887679;66.000000_121.928127;66.000000_121.968575;66.000000_122.009023;66.000000_122.049471;66.000000_122.089919;66.000000_122.130367;66.000000_122.170815;66.000000_122.211263;66.000000_122.251711;66.000000_122.292159;66.000000_122.332607;66.000000_122.373055;66.000000_122.413503;66.000000_122.453951;66.000000_122.494400;66.000000_122.534848;66.000000_122.575296;66.000000_122.615744;66.000000_122.656192;66.000000_122.696640;66.000000_122.737088;66.000000_122.777536;66.000000_122.817984;66.000000_122.858432;66.000000_122.898880;66.000000_122.939328;66.000000_122.979776;</t>
+  </si>
+  <si>
+    <t>66.000000_123.091133;66.000000_123.273399;66.000000_123.455665;66.000000_123.637931;66.000000_123.820197;66.000000_124.002463;66.000000_124.184729;66.000000_124.366995;66.000000_124.549261;66.000000_124.731527;66.000000_124.913793;66.000000_125.096059;66.000000_125.278325;66.000000_125.460591;66.000000_125.642857;66.000000_125.825123;66.000000_126.007389;66.000000_126.189655;66.000000_126.371921;66.000000_126.554187;66.000000_126.736453;66.000000_126.918719;66.000000_127.100985;66.000000_127.283251;66.000000_127.465517;66.000000_127.647783;66.000000_127.830049;66.000000_128.012315;66.000000_128.194581;66.000000_128.376847;66.000000_128.559113;66.000000_128.741379;66.000000_128.923645;66.000000_129.105911;66.000000_129.288177;66.000000_129.470443;66.000000_129.652709;66.000000_129.834975;66.000000_130.017241;66.000000_130.199507;66.000000_130.381773;66.000000_130.564039;66.000000_130.746305;66.000000_130.928571;66.000000_131.110837;66.000000_131.293103;66.000000_131.475369;66.000000_131.657635;66.000000_131.839901;66.000000_132.022167;</t>
+  </si>
+  <si>
+    <t>66.000000_132.386700;66.000000_132.568966;66.000000_132.751232;66.000000_132.933498;66.000000_133.115764;66.000000_133.298030;66.000000_133.480296;66.000000_133.662562;66.000000_133.844828;66.000000_134.027094;66.000000_134.209360;66.000000_134.391626;66.000000_134.573892;66.000000_134.756158;66.000000_134.938424;66.000000_135.120690;66.000000_135.302956;66.000000_135.485222;66.000000_135.667488;66.000000_135.849754;66.000000_136.032020;66.000000_136.214286;66.000000_136.396552;66.000000_136.578818;66.000000_136.761084;66.000000_136.943350;66.000000_137.125616;66.000000_137.307882;66.000000_137.490148;66.000000_137.672414;66.000000_137.854680;66.000000_138.036946;66.000000_138.219212;66.000000_138.401478;66.000000_138.583744;66.000000_138.766010;66.000000_138.948276;66.000000_139.130542;66.000000_139.312808;66.000000_139.495074;66.000000_139.677340;66.000000_139.859606;66.000000_140.041872;66.000000_140.224138;66.000000_140.406404;66.000000_140.588670;66.000000_140.770936;66.000000_140.953202;66.000000_141.135468;66.000000_141.317734;</t>
+  </si>
+  <si>
+    <t>66.000000_141.682266;66.000000_141.864532;66.000000_142.046798;66.000000_142.229064;66.000000_142.411330;66.000000_142.593596;66.000000_142.775862;66.000000_142.958128;66.000000_143.140394;66.000000_143.322660;66.000000_143.504926;66.000000_143.687192;66.000000_143.869458;66.000000_144.051724;66.000000_144.233990;66.000000_144.416256;66.000000_144.598522;66.000000_144.780788;66.000000_144.963054;66.000000_145.145320;66.000000_145.327586;66.000000_145.509852;66.000000_145.692118;66.000000_145.874384;66.000000_146.056650;66.000000_146.238916;66.000000_146.421182;66.000000_146.603448;66.000000_146.785714;66.000000_146.967980;66.000000_147.150246;66.000000_147.332512;66.000000_147.514778;66.000000_147.697044;66.000000_147.879310;66.000000_148.061576;66.000000_148.243842;66.000000_148.426108;66.000000_148.608374;66.000000_148.790640;66.000000_148.972906;66.000000_149.155172;66.000000_149.337438;66.000000_149.519704;66.000000_149.701970;66.000000_149.884236;66.000000_150.066502;66.000000_150.248768;66.000000_150.431034;66.000000_150.613300;</t>
+  </si>
+  <si>
+    <t>66.000000_150.977833;66.000000_151.160099;66.000000_151.342365;66.000000_151.524631;66.000000_151.706897;66.000000_151.889163;66.000000_152.071429;66.000000_152.253695;66.000000_152.435961;66.000000_152.618227;66.000000_152.800493;66.000000_152.982759;66.000000_153.165025;66.000000_153.347291;66.000000_153.529557;66.000000_153.711823;66.000000_153.894089;66.000000_154.076355;66.000000_154.258621;66.000000_154.440887;66.000000_154.623153;66.000000_154.805419;66.000000_154.987685;66.000000_155.169951;66.000000_155.352217;66.000000_155.534483;66.000000_155.716749;66.000000_155.899015;66.000000_156.081281;66.000000_156.263547;66.000000_156.445813;66.000000_156.628079;66.000000_156.810345;66.000000_156.992611;66.000000_157.174877;66.000000_157.357143;66.000000_157.539409;66.000000_157.721675;66.000000_157.903941;66.000000_158.086207;66.000000_158.268473;66.000000_158.450739;66.000000_158.633005;66.000000_158.815271;66.000000_158.997537;66.000000_159.179803;66.000000_159.362069;66.000000_159.544335;66.000000_159.726601;66.000000_159.908867;</t>
+  </si>
+  <si>
+    <t>66.031649_160.438416;66.094963_160.752513;66.158325_161.066601;66.221769_161.380672;66.285326_161.694720;66.349031_162.008738;66.412919_162.322719;66.477024_162.636656;66.541382_162.950541;66.606033_163.264366;66.671015_163.578122;66.736369_163.891801;66.802140_164.205393;66.868374_164.518887;66.935120_164.832273;67.002430_165.145538;67.070368_165.458668;67.139011_165.771643;67.208448_166.084443;67.278779_166.397044;67.350114_166.709416;67.422577_167.021529;67.496308_167.333345;67.571466_167.644819;67.648237_167.955899;67.726836_168.266522;67.807519_168.576609;67.890593_168.886064;67.976431_169.194762;68.065447_169.502557;68.157987_169.809310;68.254327_170.114889;68.354752_170.419149;68.459563_170.721924;68.569070_171.023030;68.683588_171.322264;68.803424_171.619406;68.928856_171.914228;69.060119_172.206498;69.197443_172.495967;69.341045_172.782371;69.491062_173.065466;69.647499_173.345064;69.810177_173.621081;69.978692_173.893577;70.152296_174.162867;70.329762_174.429639;70.509454_174.694923;70.689543_174.959939;70.868165_175.225941;</t>
+  </si>
+  <si>
+    <t>71.215381_175.764510;71.383794_176.037088;71.549663_176.311225;71.713662_176.586487;71.876403_176.862495;72.038467_177.138902;72.200523_177.415314;72.363390_177.691248;72.527977_177.966156;72.695285_178.239412;72.866461_178.510254;73.042822_178.777735;73.225349_179.041039;73.414303_179.299769;73.609578_179.553763;73.810932_179.802967;74.017983_180.047464;74.230280_180.287424;74.447387_180.523045;74.668829_180.754602;74.894034_180.982506;75.122463_181.207184;75.354047_181.428604;75.589232_181.646188;75.828601_181.859150;76.072794_182.066549;76.322550_182.267191;76.578730_182.459529;76.842265_182.641604;77.113761_182.811546;77.391620_182.971012;77.671753_183.126542;77.949448_183.286290;78.221270_183.455765;78.486996_183.634722;78.748495_183.819853;79.007724_184.008172;79.266592_184.196992;79.527018_184.383639;79.790980_184.565210;80.060346_184.738599;80.334967_184.903601;80.611722_185.065066;80.886382_185.230003;81.155429_185.403858;81.418160_185.587177;81.676300_185.776958;81.931868_185.970215;82.186860_186.164237;82.443448_186.356124;</t>
+  </si>
+  <si>
+    <t>82.971057_186.719403;83.246061_186.883584;83.527853_187.035951;83.813557_187.180963;84.100479_187.323585;84.388185_187.464602;84.678907_187.599163;84.975427_187.720082;85.278918_187.822104;85.587773_187.906969;85.899290_187.981862;86.211206_188.055144;86.521395_188.135176;86.827395_188.229577;87.126576_188.343551;87.418537_188.475237;87.705865_188.616984;87.992042_188.761090;88.279392_188.902832;88.567778_189.042471;88.855726_189.183002;89.142159_189.326587;89.428318_189.470720;89.717744_189.607997;90.014132_189.728998;90.319021_189.826262;90.630769_189.899023;90.946703_189.951374;91.264791_189.989393;91.583610_190.021293;91.902049_190.056481;92.218847_190.103600;92.532400_190.168516;92.840770_190.254504;93.142231_190.362306;93.437879_190.485658;93.732074_190.612575;94.029852_190.730480;94.334167_190.829910;94.644718_190.907753;94.959828_190.964556;95.277869_191.002037;95.597464_191.023452;95.917686_191.033059;96.238077_191.034938;96.558471_191.031988;96.878832_191.026199;97.199171_191.019249;97.519504_191.012011;97.839835_191.004662;</t>
+  </si>
+  <si>
+    <t>98.066459_191.000000;98.199376_191.000000;98.332293_191.000000;98.465210_191.000000;98.598127_191.000000;98.731044_191.000000;98.863961_191.000000;98.996878_191.000000;99.129795_191.000000;99.262712_191.000000;99.395629_191.000000;99.528546_191.000000;99.661463_191.000000;99.794380_191.000000;99.927297_191.000000;100.060214_191.000000;100.193131_191.000000;100.326048_191.000000;100.458965_191.000000;100.591882_191.000000;100.724799_191.000000;100.857716_191.000000;100.990633_191.000000;101.123550_191.000000;101.256467_191.000000;101.389384_191.000000;101.522302_191.000000;101.655219_191.000000;101.788136_191.000000;101.921053_191.000000;102.053970_191.000000;102.186887_191.000000;102.319804_191.000000;102.452721_191.000000;102.585638_191.000000;102.718555_191.000000;102.851472_191.000000;102.984389_191.000000;103.117306_191.000000;103.250223_191.000000;103.383140_191.000000;103.516057_191.000000;103.648974_191.000000;103.781891_191.000000;103.914808_191.000000;104.047725_191.000000;104.180642_191.000000;104.313559_191.000000;104.446476_191.000000;104.579393_191.000000;</t>
+  </si>
+  <si>
+    <t>104.845227_191.000000;104.978145_191.000000;105.111062_191.000000;105.243979_191.000000;105.376896_191.000000;105.509813_191.000000;105.642730_191.000000;105.775647_191.000000;105.908564_191.000000;106.041481_191.000000;106.174398_191.000000;106.307315_191.000000;106.440232_191.000000;106.573149_191.000000;106.706066_191.000000;106.838983_191.000000;106.971900_191.000000;107.104817_191.000000;107.237734_191.000000;107.370651_191.000000;107.503568_191.000000;107.636485_191.000000;107.769402_191.000000;107.902319_191.000000;108.035236_191.000000;108.168153_191.000000;108.301070_191.000000;108.433988_191.000000;108.566905_191.000000;108.699822_191.000000;108.832739_191.000000;108.965656_191.000000;109.098573_191.000000;109.231490_191.000000;109.364407_191.000000;109.497324_191.000000;109.630241_191.000000;109.763158_191.000000;109.896075_191.000000;110.028992_191.000000;110.161909_191.000000;110.294826_191.000000;110.427743_191.000000;110.560660_191.000000;110.693577_191.000000;110.826494_191.000000;110.959411_191.000000;111.092328_191.000000;111.225245_191.000000;111.358162_191.000000;</t>
+  </si>
+  <si>
+    <t>111.623996_191.000000;111.756913_191.000000;111.889831_191.000000;112.022748_191.000000;112.155665_191.000000;112.288582_191.000000;112.421499_191.000000;112.554416_191.000000;112.687333_191.000000;112.820250_191.000000;112.953167_191.000000;113.086084_191.000000;113.219001_191.000000;113.351918_191.000000;113.484835_191.000000;113.617752_191.000000;113.750669_191.000000;113.883586_191.000000;114.016503_191.000000;114.149420_191.000000;114.282337_191.000000;114.415254_191.000000;114.548171_191.000000;114.681088_191.000000;114.814005_191.000000;114.946922_191.000000;115.079839_191.000000;115.212756_191.000000;115.345674_191.000000;115.478591_191.000000;115.611508_191.000000;115.744425_191.000000;115.877342_191.000000;116.010259_191.000000;116.143176_191.000000;116.276093_191.000000;116.409010_191.000000;116.541927_191.000000;116.674844_191.000000;116.807761_191.000000;116.940678_191.000000;117.073595_191.000000;117.206512_191.000000;117.339429_191.000000;117.472346_191.000000;117.605263_191.000000;117.738180_191.000000;117.871097_191.000000;118.004014_191.000000;118.136931_191.000000;</t>
+  </si>
+  <si>
+    <t>118.402765_191.000000;118.535682_191.000000;118.668599_191.000000;118.801517_191.000000;118.934434_191.000000;119.067351_191.000000;119.200268_191.000000;119.333185_191.000000;119.466102_191.000000;119.599019_191.000000;119.731936_191.000000;119.864853_191.000000;119.997770_191.000000;120.130687_191.000000;120.263604_191.000000;120.396521_191.000000;120.529438_191.000000;120.662355_191.000000;120.795272_191.000000;120.928189_191.000000;121.061106_191.000000;121.194023_191.000000;121.326940_191.000000;121.459857_191.000000;121.592774_191.000000;121.725691_191.000000;121.858608_191.000000;121.991525_191.000000;122.124442_191.000000;122.257360_191.000000;122.390277_191.000000;122.523194_191.000000;122.656111_191.000000;122.789028_191.000000;122.921945_191.000000;123.054862_191.000000;123.187779_191.000000;123.320696_191.000000;123.453613_191.000000;123.586530_191.000000;123.719447_191.000000;123.852364_191.000000;123.985281_191.000000;124.118198_191.000000;124.251115_191.000000;124.384032_191.000000;124.516949_191.000000;124.649866_191.000000;124.782783_191.000000;124.915700_191.000000;</t>
+  </si>
+  <si>
+    <t>125.181534_191.000000;125.314451_191.000000;125.447368_191.000000;125.580285_191.000000;125.713202_191.000000;125.846120_191.000000;125.979037_191.000000;126.111954_191.000000;126.244871_191.000000;126.377788_191.000000;126.510705_191.000000;126.643622_191.000000;126.776539_191.000000;126.909456_191.000000;127.042373_191.000000;127.175290_191.000000;127.308207_191.000000;127.441124_191.000000;127.574041_191.000000;127.706958_191.000000;127.839875_191.000000;127.972792_191.000000;128.105709_191.000000;128.238626_191.000000;128.371543_191.000000;128.504460_191.000000;128.637377_191.000000;128.770294_191.000000;128.903211_191.000000;129.036128_191.000000;129.169045_191.000000;129.301963_191.000000;129.434880_191.000000;129.567797_191.000000;129.700714_191.000000;129.833631_191.000000;129.966548_191.000000;130.099465_191.000000;130.232382_191.000000;130.365299_191.000000;130.498216_191.000000;130.631133_191.000000;130.764050_191.000000;130.896967_191.000000;131.029884_191.000000;131.162801_191.000000;131.295718_191.000000;131.428635_191.000000;131.561552_191.000000;131.694469_191.000000;</t>
+  </si>
+  <si>
+    <t>131.960303_191.000000;132.093220_191.000000;132.226137_191.000000;132.359054_191.000000;132.491971_191.000000;132.624888_191.000000;132.757806_191.000000;132.890723_191.000000;133.023640_191.000000;133.156557_191.000000;133.289474_191.000000;133.422391_191.000000;133.555308_191.000000;133.688225_191.000000;133.821142_191.000000;133.954059_191.000000;134.086976_191.000000;134.219893_191.000000;134.352810_191.000000;134.485727_191.000000;134.618644_191.000000;134.751561_191.000000;134.884478_191.000000;135.017395_191.000000;135.150312_191.000000;135.283229_191.000000;135.416146_191.000000;135.549063_191.000000;135.681980_191.000000;135.814897_191.000000;135.947814_191.000000;136.080731_191.000000;136.213649_191.000000;136.346566_191.000000;136.479483_191.000000;136.612400_191.000000;136.745317_191.000000;136.878234_191.000000;137.011151_191.000000;137.144068_191.000000;137.276985_191.000000;137.409902_191.000000;137.542819_191.000000;137.675736_191.000000;137.808653_191.000000;137.941570_191.000000;138.074487_191.000000;138.207404_191.000000;138.340321_191.000000;138.473238_191.000000;</t>
+  </si>
+  <si>
+    <t>138.739072_191.000000;138.871989_191.000000;139.004906_191.000000;139.137823_191.000000;139.270740_191.000000;139.403657_191.000000;139.536574_191.000000;139.669492_191.000000;139.802409_191.000000;139.935326_191.000000;140.068243_191.000000;140.201160_191.000000;140.334077_191.000000;140.466994_191.000000;140.599911_191.000000;140.732828_191.000000;140.865745_191.000000;140.998662_191.000000;141.131579_191.000000;141.264496_191.000000;141.397413_191.000000;141.530330_191.000000;141.663247_191.000000;141.796164_191.000000;141.929081_191.000000;142.061998_191.000000;142.194915_191.000000;142.327832_191.000000;142.460749_191.000000;142.593666_191.000000;142.726583_191.000000;142.859500_191.000000;142.992417_191.000000;143.125335_191.000000;143.258252_191.000000;143.391169_191.000000;143.524086_191.000000;143.657003_191.000000;143.789920_191.000000;143.922837_191.000000;144.055754_191.000000;144.188671_191.000000;144.321588_191.000000;144.454505_191.000000;144.587422_191.000000;144.720339_191.000000;144.853256_191.000000;144.986173_191.000000;145.119090_191.000000;145.252007_191.000000;</t>
+  </si>
+  <si>
+    <t>145.517841_191.000000;145.650758_191.000000;145.783675_191.000000;145.916592_191.000000;146.049509_191.000000;146.182426_191.000000;146.315343_191.000000;146.448260_191.000000;146.581178_191.000000;146.714095_191.000000;146.847012_191.000000;146.979929_191.000000;147.112846_191.000000;147.245763_191.000000;147.378680_191.000000;147.511597_191.000000;147.644514_191.000000;147.777431_191.000000;147.910348_191.000000;148.043265_191.000000;148.176182_191.000000;148.309099_191.000000;148.442016_191.000000;148.574933_191.000000;148.707850_191.000000;148.840767_191.000000;148.973684_191.000000;149.106601_191.000000;149.239518_191.000000;149.372435_191.000000;149.505352_191.000000;149.638269_191.000000;149.771186_191.000000;149.904103_191.000000;150.037021_191.000000;150.169938_191.000000;150.302855_191.000000;150.435772_191.000000;150.568689_191.000000;150.701606_191.000000;150.834523_191.000000;150.967440_191.000000;151.100357_191.000000;151.233274_191.000000;151.366191_191.000000;151.499108_191.000000;151.632025_191.000000;151.764942_191.000000;151.897859_191.000000;152.030776_191.000000;</t>
+  </si>
+  <si>
+    <t>152.296610_191.000000;152.429527_191.000000;152.562444_191.000000;152.695361_191.000000;152.828278_191.000000;152.961195_191.000000;153.094112_191.000000;153.227029_191.000000;153.359946_191.000000;153.492864_191.000000;153.625781_191.000000;153.758698_191.000000;153.891615_191.000000;154.024532_191.000000;154.157449_191.000000;154.290366_191.000000;154.423283_191.000000;154.556200_191.000000;154.689117_191.000000;154.822034_191.000000;154.954951_191.000000;155.087868_191.000000;155.220785_191.000000;155.353702_191.000000;155.486619_191.000000;155.619536_191.000000;155.752453_191.000000;155.885370_191.000000;156.018287_191.000000;156.151204_191.000000;156.284121_191.000000;156.417038_191.000000;156.549955_191.000000;156.682872_191.000000;156.815789_191.000000;156.948707_191.000000;157.081624_191.000000;157.214541_191.000000;157.347458_191.000000;157.480375_191.000000;157.613292_191.000000;157.746209_191.000000;157.879126_191.000000;158.012043_191.000000;158.144960_191.000000;158.277877_191.000000;158.410794_191.000000;158.543711_191.000000;158.676628_191.000000;158.809545_191.000000;</t>
+  </si>
+  <si>
+    <t>159.075379_191.000000;159.208296_191.000000;159.341213_191.000000;159.474130_191.000000;159.607047_191.000000;159.739964_191.000000;159.872881_191.000000;160.005798_191.000000;160.138715_191.000000;160.271632_191.000000;160.404550_191.000000;160.537467_191.000000;160.670384_191.000000;160.803301_191.000000;160.936218_191.000000;161.069135_191.000000;161.202052_191.000000;161.334969_191.000000;161.467886_191.000000;161.600803_191.000000;161.733720_191.000000;161.866637_191.000000;161.999554_191.000000;162.132471_191.000000;162.265388_191.000000;162.398305_191.000000;162.531222_191.000000;162.664139_191.000000;162.797056_191.000000;162.929973_191.000000;163.062890_191.000000;163.195807_191.000000;163.328724_191.000000;163.461641_191.000000;163.594558_191.000000;163.727475_191.000000;163.860393_191.000000;163.993310_191.000000;164.126227_191.000000;164.259144_191.000000;164.392061_191.000000;164.524978_191.000000;164.657895_191.000000;164.790812_191.000000;164.923729_191.000000;165.056646_191.000000;165.189563_191.000000;165.322480_191.000000;165.455397_191.000000;165.588314_191.000000;</t>
+  </si>
+  <si>
+    <t>165.854148_191.000000;165.987065_191.000000;166.119982_191.000000;166.252899_191.000000;166.385816_191.000000;166.518733_191.000000;166.651650_191.000000;166.784567_191.000000;166.917484_191.000000;167.050401_191.000000;167.183318_191.000000;167.316236_191.000000;167.449153_191.000000;167.582070_191.000000;167.714987_191.000000;167.847904_191.000000;167.980821_191.000000;168.113738_191.000000;168.246655_191.000000;168.379572_191.000000;168.512489_191.000000;168.645406_191.000000;168.778323_191.000000;168.911240_191.000000;169.044157_191.000000;169.177074_191.000000;169.309991_191.000000;169.442908_191.000000;169.575825_191.000000;169.708742_191.000000;169.841659_191.000000;169.974576_191.000000;170.107493_191.000000;170.240410_191.000000;170.373327_191.000000;170.506244_191.000000;170.639161_191.000000;170.772079_191.000000;170.904996_191.000000;171.037913_191.000000;171.170830_191.000000;171.303747_191.000000;171.436664_191.000000;171.569581_191.000000;171.702498_191.000000;171.835415_191.000000;171.968332_191.000000;172.101249_191.000000;172.234166_191.000000;172.367083_191.000000;</t>
+  </si>
+  <si>
+    <t>172.632917_191.000000;172.765834_191.000000;172.898751_191.000000;173.031668_191.000000;173.164585_191.000000;173.297502_191.000000;173.430419_191.000000;173.563336_191.000000;173.696253_191.000000;173.829170_191.000000;173.962087_191.000000;174.095004_191.000000;174.227921_191.000000;174.360839_191.000000;174.493756_191.000000;174.626673_191.000000;174.759590_191.000000;174.892507_191.000000;175.025424_191.000000;175.158341_191.000000;175.291258_191.000000;175.424175_191.000000;175.557092_191.000000;175.690009_191.000000;175.822926_191.000000;175.955843_191.000000;176.088760_191.000000;176.221677_191.000000;176.354594_191.000000;176.487511_191.000000;176.620428_191.000000;176.753345_191.000000;176.886262_191.000000;177.019179_191.000000;177.152096_191.000000;177.285013_191.000000;177.417930_191.000000;177.550847_191.000000;177.683764_191.000000;177.816682_191.000000;177.949599_191.000000;178.082516_191.000000;178.215433_191.000000;178.348350_191.000000;178.481267_191.000000;178.614184_191.000000;178.747101_191.000000;178.880018_191.000000;179.012935_191.000000;179.145852_191.000000;</t>
+  </si>
+  <si>
+    <t>179.411686_191.000000;179.544603_191.000000;179.677520_191.000000;179.810437_191.000000;179.943354_191.000000;180.076271_191.000000;180.209188_191.000000;180.342105_191.000000;180.475022_191.000000;180.607939_191.000000;180.740856_191.000000;180.873773_191.000000;181.006690_191.000000;181.139607_191.000000;181.272525_191.000000;181.405442_191.000000;181.538359_191.000000;181.671276_191.000000;181.804193_191.000000;181.937110_191.000000;182.070027_191.000000;182.202944_191.000000;182.335861_191.000000;182.468778_191.000000;182.601695_191.000000;182.734612_191.000000;182.867529_191.000000;183.000446_191.000000;183.133363_191.000000;183.266280_191.000000;183.399197_191.000000;183.532114_191.000000;183.665031_191.000000;183.797948_191.000000;183.930865_191.000000;184.063782_191.000000;184.196699_191.000000;184.329616_191.000000;184.462533_191.000000;184.595450_191.000000;184.728368_191.000000;184.861285_191.000000;184.994202_191.000000;185.127119_191.000000;185.260036_191.000000;185.392953_191.000000;185.525870_191.000000;185.658787_191.000000;185.791704_191.000000;185.924621_191.000000;</t>
+  </si>
+  <si>
+    <t>186.190455_191.000000;186.323372_191.000000;186.456289_191.000000;186.589206_191.000000;186.722123_191.000000;186.855040_191.000000;186.987957_191.000000;187.120874_191.000000;187.253791_191.000000;187.386708_191.000000;187.519625_191.000000;187.652542_191.000000;187.785459_191.000000;187.918376_191.000000;188.051293_191.000000;188.184211_191.000000;188.317128_191.000000;188.450045_191.000000;188.582962_191.000000;188.715879_191.000000;188.848796_191.000000;188.981713_191.000000;189.114630_191.000000;189.247547_191.000000;189.380464_191.000000;189.513381_191.000000;189.646298_191.000000;189.779215_191.000000;189.912132_191.000000;190.045049_191.000000;190.177966_191.000000;190.310883_191.000000;190.443800_191.000000;190.576717_191.000000;190.709634_191.000000;190.842551_191.000000;190.975468_191.000000;191.108385_191.000000;191.241302_191.000000;191.374219_191.000000;191.507136_191.000000;191.640054_191.000000;191.772971_191.000000;191.905888_191.000000;192.038805_191.000000;192.171722_191.000000;192.304639_191.000000;192.437556_191.000000;192.570473_191.000000;192.703390_191.000000;</t>
+  </si>
+  <si>
+    <t>192.969224_191.000000;193.102141_191.000000;193.235058_191.000000;193.367975_191.000000;193.500892_191.000000;193.633809_191.000000;193.766726_191.000000;193.899643_191.000000;194.032560_191.000000;194.165477_191.000000;194.298394_191.000000;194.431311_191.000000;194.564228_191.000000;194.697145_191.000000;194.830062_191.000000;194.962979_191.000000;195.095897_191.000000;195.228814_191.000000;195.361731_191.000000;195.494648_191.000000;195.627565_191.000000;195.760482_191.000000;195.893399_191.000000;196.026316_191.000000;196.159233_191.000000;196.292150_191.000000;196.425067_191.000000;196.557984_191.000000;196.690901_191.000000;196.823818_191.000000;196.956735_191.000000;197.089652_191.000000;197.222569_191.000000;197.355486_191.000000;197.488403_191.000000;197.621320_191.000000;197.754237_191.000000;197.887154_191.000000;198.020071_191.000000;198.152988_191.000000;198.285905_191.000000;198.418822_191.000000;198.551740_191.000000;198.684657_191.000000;198.817574_191.000000;198.950491_191.000000;199.083408_191.000000;199.216325_191.000000;199.349242_191.000000;199.482159_191.000000;</t>
+  </si>
+  <si>
+    <t>199.747993_191.000000;199.880910_191.000000;200.013827_191.000000;200.146744_191.000000;200.279661_191.000000;200.412578_191.000000;200.545495_191.000000;200.678412_191.000000;200.811329_191.000000;200.944246_191.000000;201.077163_191.000000;201.210080_191.000000;201.342997_191.000000;201.475914_191.000000;201.608831_191.000000;201.741748_191.000000;201.874665_191.000000;202.007583_191.000000;202.140500_191.000000;202.273417_191.000000;202.406334_191.000000;202.539251_191.000000;202.672168_191.000000;202.805085_191.000000;202.938002_191.000000;203.070919_191.000000;203.203836_191.000000;203.336753_191.000000;203.469670_191.000000;203.602587_191.000000;203.735504_191.000000;203.868421_191.000000;204.001338_191.000000;204.134255_191.000000;204.267172_191.000000;204.400089_191.000000;204.533006_191.000000;204.665923_191.000000;204.798840_191.000000;204.931757_191.000000;205.064674_191.000000;205.197591_191.000000;205.330508_191.000000;205.463426_191.000000;205.596343_191.000000;205.729260_191.000000;205.862177_191.000000;205.995094_191.000000;206.128011_191.000000;206.260928_191.000000;</t>
+  </si>
+  <si>
+    <t>206.526762_191.000000;206.659679_191.000000;206.792596_191.000000;206.925513_191.000000;207.058430_191.000000;207.191347_191.000000;207.324264_191.000000;207.457181_191.000000;207.590098_191.000000;207.723015_191.000000;207.855932_191.000000;207.988849_191.000000;208.121766_191.000000;208.254683_191.000000;208.387600_191.000000;208.520517_191.000000;208.653434_191.000000;208.786351_191.000000;208.919269_191.000000;209.052186_191.000000;209.185103_191.000000;209.318020_191.000000;209.450937_191.000000;209.583854_191.000000;209.716771_191.000000;209.849688_191.000000;209.982605_191.000000;210.115522_191.000000;210.248439_191.000000;210.381356_191.000000;210.514273_191.000000;210.647190_191.000000;210.780107_191.000000;210.913024_191.000000;211.045941_191.000000;211.178858_191.000000;211.311775_191.000000;211.444692_191.000000;211.577609_191.000000;211.710526_191.000000;211.843443_191.000000;211.976360_191.000000;212.109277_191.000000;212.242194_191.000000;212.375112_191.000000;212.508029_191.000000;212.640946_191.000000;212.773863_191.000000;212.906780_191.000000;213.039697_191.000000;</t>
+  </si>
+  <si>
+    <t>213.305531_191.000000;213.438448_191.000000;213.571365_191.000000;213.704282_191.000000;213.837199_191.000000;213.970116_191.000000;214.103033_191.000000;214.235950_191.000000;214.368867_191.000000;214.501784_191.000000;214.634701_191.000000;214.767618_191.000000;214.900535_191.000000;215.033452_191.000000;215.166369_191.000000;215.299286_191.000000;215.432203_191.000000;215.565120_191.000000;215.698037_191.000000;215.830955_191.000000;215.963872_191.000000;216.096789_191.000000;216.229706_191.000000;216.362623_191.000000;216.495540_191.000000;216.628457_191.000000;216.761374_191.000000;216.894291_191.000000;217.027208_191.000000;217.160125_191.000000;217.293042_191.000000;217.425959_191.000000;217.558876_191.000000;217.691793_191.000000;217.824710_191.000000;217.957627_191.000000;218.090544_191.000000;218.223461_191.000000;218.356378_191.000000;218.489295_191.000000;218.622212_191.000000;218.755129_191.000000;218.888046_191.000000;219.020963_191.000000;219.153880_191.000000;219.286798_191.000000;219.419715_191.000000;219.552632_191.000000;219.685549_191.000000;219.818466_191.000000;</t>
+  </si>
+  <si>
+    <t>220.084300_191.000000;220.217217_191.000000;220.350134_191.000000;220.483051_191.000000;220.615968_191.000000;220.748885_191.000000;220.881802_191.000000;221.014719_191.000000;221.147636_191.000000;221.280553_191.000000;221.413470_191.000000;221.546387_191.000000;221.679304_191.000000;221.812221_191.000000;221.945138_191.000000;222.078055_191.000000;222.210972_191.000000;222.343889_191.000000;222.476806_191.000000;222.609723_191.000000;222.742640_191.000000;222.875558_191.000000;223.008475_191.000000;223.141392_191.000000;223.274309_191.000000;223.407226_191.000000;223.540143_191.000000;223.673060_191.000000;223.805977_191.000000;223.938894_191.000000;224.071811_191.000000;224.204728_191.000000;224.337645_191.000000;224.470562_191.000000;224.603479_191.000000;224.736396_191.000000;224.869313_191.000000;225.002230_191.000000;225.135147_191.000000;225.268064_191.000000;225.400981_191.000000;225.533898_191.000000;225.666815_191.000000;225.799732_191.000000;225.932649_191.000000;226.065566_191.000000;226.198483_191.000000;226.331401_191.000000;226.464318_191.000000;226.597235_191.000000;</t>
+  </si>
+  <si>
+    <t>226.863069_191.000000;226.995986_191.000000;227.128903_191.000000;227.261820_191.000000;227.394737_191.000000;227.527654_191.000000;227.660571_191.000000;227.793488_191.000000;227.926405_191.000000;228.059322_191.000000;228.192239_191.000000;228.325156_191.000000;228.458073_191.000000;228.590990_191.000000;228.723907_191.000000;228.856824_191.000000;228.989741_191.000000;229.122658_191.000000;229.255575_191.000000;229.388492_191.000000;229.521409_191.000000;229.654326_191.000000;229.787244_191.000000;229.920161_191.000000;230.053078_191.000000;230.185995_191.000000;230.318912_191.000000;230.451829_191.000000;230.584746_191.000000;230.717663_191.000000;230.850580_191.000000;230.983497_191.000000;231.116414_191.000000;231.249331_191.000000;231.382248_191.000000;231.515165_191.000000;231.648082_191.000000;231.780999_191.000000;231.913916_191.000000;232.046833_191.000000;232.179750_191.000000;232.312667_191.000000;232.445584_191.000000;232.578501_191.000000;232.711418_191.000000;232.844335_191.000000;232.977252_191.000000;233.110169_191.000000;233.243087_191.000000;233.376004_191.000000;</t>
+  </si>
+  <si>
+    <t>233.641838_191.000000;233.774755_191.000000;233.907672_191.000000;234.040589_191.000000;234.173506_191.000000;234.306423_191.000000;234.439340_191.000000;234.572257_191.000000;234.705174_191.000000;234.838091_191.000000;234.971008_191.000000;235.103925_191.000000;235.236842_191.000000;235.369759_191.000000;235.502676_191.000000;235.635593_191.000000;235.768510_191.000000;235.901427_191.000000;236.034344_191.000000;236.167261_191.000000;236.300178_191.000000;236.433095_191.000000;236.566012_191.000000;236.698930_191.000000;236.831847_191.000000;236.964764_191.000000;237.097681_191.000000;237.230598_191.000000;237.363515_191.000000;237.496432_191.000000;237.629349_191.000000;237.762266_191.000000;237.895183_191.000000;238.028100_191.000000;238.161017_191.000000;238.293934_191.000000;238.426851_191.000000;238.559768_191.000000;238.692685_191.000000;238.825602_191.000000;238.958519_191.000000;239.091436_191.000000;239.224353_191.000000;239.357270_191.000000;239.490187_191.000000;239.623104_191.000000;239.756021_191.000000;239.888938_191.000000;240.021855_191.000000;240.154773_191.000000;</t>
+  </si>
+  <si>
+    <t>240.420607_191.000000;240.553524_191.000000;240.686441_191.000000;240.819358_191.000000;240.952275_191.000000;241.085192_191.000000;241.218109_191.000000;241.351026_191.000000;241.483943_191.000000;241.616860_191.000000;241.749777_191.000000;241.882694_191.000000;242.015611_191.000000;242.148528_191.000000;242.281445_191.000000;242.414362_191.000000;242.547279_191.000000;242.680196_191.000000;242.813113_191.000000;242.946030_191.000000;243.078947_191.000000;243.211864_191.000000;243.344781_191.000000;243.477698_191.000000;243.610616_191.000000;243.743533_191.000000;243.876450_191.000000;244.009367_191.000000;244.142284_191.000000;244.275201_191.000000;244.408118_191.000000;244.541035_191.000000;244.673952_191.000000;244.806869_191.000000;244.939786_191.000000;245.072703_191.000000;245.205620_191.000000;245.338537_191.000000;245.471454_191.000000;245.604371_191.000000;245.737288_191.000000;245.870205_191.000000;246.003122_191.000000;246.136039_191.000000;246.268956_191.000000;246.401873_191.000000;246.534790_191.000000;246.667707_191.000000;246.800624_191.000000;246.933541_191.000000;</t>
+  </si>
+  <si>
+    <t>248.188671_190.999886;248.566013_190.999977;248.943355_191.000097;249.320697_191.000262;249.698038_191.000484;250.075380_191.000764;250.452722_191.001078;250.830064_191.001359;251.207406_191.001508;251.584747_191.001346;251.962088_191.000619;252.339426_190.999044;252.716758_190.996301;253.094075_190.992077;253.471372_190.986336;253.848650_190.979420;254.225921_190.972127;254.603217_190.966546;254.980538_190.965952;255.357709_190.974799;255.734065_190.999550;256.108054_191.047330;256.477248_191.123299;256.838755_191.229827;257.190631_191.365136;257.535814_191.517457;257.882037_191.667263;258.236311_191.795921;258.600282_191.893586;258.971370_191.959530;259.346569_191.996577;259.723482_192.010739;260.100768_192.009862;260.478011_192.001590;260.855248_191.992892;261.232537_191.990651;261.609557_192.002293;261.985148_192.035499;262.357129_192.096397;262.722698_192.188029;263.079254_192.310229;263.427848_192.454379;263.774902_192.602411;264.128107_192.734249;264.490436_192.838068;264.859751_192.913980;265.233056_192.968000;265.607953_193.010754;265.982487_193.056280;266.354660_193.117304;</t>
+  </si>
+  <si>
+    <t>267.081356_193.315909;267.433015_193.452335;267.782168_193.595398;268.135515_193.727285;268.495357_193.840321;268.859306_193.939805;269.224193_194.035927;269.586710_194.140286;269.942792_194.264229;270.289480_194.412463;270.628487_194.578018;270.965038_194.748655;271.303045_194.916367;271.642462_195.081238;271.980899_195.248087;272.317923_195.417788;272.657476_195.582188;273.005589_195.726746;273.365060_195.839447;273.733495_195.918914;274.106837_195.972213;274.482198_196.010446;274.857653_196.047861;275.231394_196.098566;275.601064_196.172598;275.963621_196.275535;276.317610_196.405443;276.666708_196.548632;277.017972_196.686144;277.375610_196.805830;277.738534_196.908852;278.103606_197.004267;278.467768_197.102959;278.827423_197.216446;279.178976_197.352698;279.522541_197.508475;279.862600_197.672006;280.203715_197.833296;280.546394_197.991270;280.887500_198.152549;281.224259_198.322656;281.557220_198.500179;281.889676_198.678662;282.224049_198.853511;282.558522_199.028161;282.887828_199.212154;283.207562_199.412190;283.517753_199.626902;283.821898_199.850208;284.123719_200.076681;</t>
+  </si>
+  <si>
+    <t>284.733845_200.520699;285.048490_200.728785;285.370670_200.925097;285.695573_201.116982;286.016462_201.315358;286.329464_201.525928;286.635680_201.746365;286.938423_201.971597;287.241037_202.197005;287.547123_202.417615;287.860629_202.627379;288.184757_202.820142;288.518453_202.996064;288.856583_203.163538;289.194176_203.332085;289.529920_203.504306;289.865828_203.676202;290.203444_203.844713;290.540276_204.014732;290.870248_204.197372;291.187923_204.400440;291.492306_204.623137;291.786093_204.859792;292.072289_205.105655;292.353930_205.356769;292.634292_205.609323;292.916736_205.859524;293.204504_206.103530;293.500283_206.337685;293.806382_206.558048;294.124586_206.760413;294.452449_206.947036;294.782478_207.129939;295.106268_207.323376;295.418889_207.534322;295.719690_207.761883;296.009351_208.003521;296.288575_208.257185;296.558004_208.521256;296.818238_208.794413;297.069861_209.075537;297.313396_209.363708;297.549297_209.658170;297.777986_209.958274;297.999898_210.263430;298.216141_210.572645;298.429000_210.884215;298.641201_211.196236;298.855430_211.506860;299.074429_211.814117;</t>
+  </si>
+  <si>
+    <t>299.532868_212.413444;299.772883_212.704563;300.020070_212.989617;300.274124_213.268573;300.534304_213.541838;300.799541_213.810208;301.068593_214.074767;301.340141_214.336771;301.612873_214.597547;301.885467_214.858466;302.156531_215.120969;302.424416_215.386699;302.687340_215.657321;302.943715_215.934135;303.192251_216.217993;303.431968_216.509326;303.662221_216.808192;303.882702_217.114339;304.093574_217.427193;304.296133_217.745519;304.492477_218.067736;304.684493_218.392561;304.873747_218.719008;305.061602_219.046265;305.249181_219.373681;305.437402_219.700727;305.627157_220.026884;305.819401_220.351576;306.015161_220.674155;306.214789_220.994357;306.417240_221.312789;306.620676_221.630594;306.823162_221.949004;307.022873_222.269155;307.218707_222.591688;307.410557_222.916610;307.598694_223.243697;307.783371_223.572750;307.964816_223.903598;308.143207_224.236103;308.318625_224.570187;308.491099_224.905800;308.660658_225.242895;308.827340_225.581422;308.991184_225.921332;309.152183_226.262598;309.310240_226.605237;309.465227_226.949275;309.617051_227.294720;309.765650_227.641564;</t>
+  </si>
+  <si>
+    <t>310.053106_228.339338;310.192189_228.690108;310.328619_229.041920;310.462772_229.394607;310.594975_229.748031;310.725517_230.102071;310.854660_230.456625;310.982640_230.811600;311.109632_231.166931;311.235701_231.522590;311.360846_231.878574;311.485064_232.234884;311.608351_232.591517;311.730705_232.948471;311.852124_233.305743;311.972609_233.663333;312.092107_234.021253;312.210436_234.379560;312.327336_234.738337;312.442569_235.097652;312.555931_235.457561;312.667256_235.818105;312.776413_236.179311;312.883304_236.541194;312.987864_236.903757;313.090046_237.266998;313.189814_237.630908;313.287149_237.995478;313.382052_238.360688;313.474546_238.726515;313.564669_239.092934;313.652472_239.459916;313.738012_239.827432;313.821356_240.195452;313.902573_240.563948;313.981737_240.932890;314.058957_241.302245;314.134427_241.671962;314.208380_242.041985;314.281024_242.412267;314.352535_242.782771;314.423071_243.153461;314.492770_243.524310;314.561757_243.895292;314.630146_244.266384;314.698042_244.637567;314.765544_245.008823;314.832744_245.380132;314.899731_245.751481;314.966591_246.122852;</t>
+  </si>
+  <si>
+    <t>315.000000_247.073292;315.000000_247.219876;315.000000_247.366460;315.000000_247.513043;315.000000_247.659627;315.000000_247.806211;315.000000_247.952795;315.000000_248.099379;315.000000_248.245963;315.000000_248.392547;315.000000_248.539130;315.000000_248.685714;315.000000_248.832298;315.000000_248.978882;315.000000_249.125466;315.000000_249.272050;315.000000_249.418634;315.000000_249.565217;315.000000_249.711801;315.000000_249.858385;315.000000_250.004969;315.000000_250.151553;315.000000_250.298137;315.000000_250.444720;315.000000_250.591304;315.000000_250.737888;315.000000_250.884472;315.000000_251.031056;315.000000_251.177640;315.000000_251.324224;315.000000_251.470807;315.000000_251.617391;315.000000_251.763975;315.000000_251.910559;315.000000_252.057143;315.000000_252.203727;315.000000_252.350311;315.000000_252.496894;315.000000_252.643478;315.000000_252.790062;315.000000_252.936646;315.000000_253.083230;315.000000_253.229814;315.000000_253.376398;315.000000_253.522981;315.000000_253.669565;315.000000_253.816149;315.000000_253.962733;315.000000_254.109317;315.000000_254.255901;315.000000_254.402484;315.000000_254.549068;315.000000_254.695652;315.000000_254.842236;315.000000_254.988820;315.000000_255.135404;315.000000_255.281988;315.000000_255.428571;315.000000_255.575155;315.000000_255.721739;315.000000_255.868323;315.000000_256.014907;315.000000_256.161491;315.000000_256.308075;315.000000_256.454658;315.000000_256.601242;315.000000_256.747826;315.000000_256.894410;315.000000_257.040994;315.000000_257.187578;315.000000_257.334161;315.000000_257.480745;315.000000_257.627329;315.000000_257.773913;315.000000_257.920497;315.000000_258.067081;315.000000_258.213665;315.000000_258.360248;315.000000_258.506832;315.000000_258.653416;315.000000_258.800000;315.000000_258.946584;315.000000_259.093168;315.000000_259.239752;315.000000_259.386335;315.000000_259.532919;315.000000_259.679503;315.000000_259.826087;315.000000_259.972671;315.000000_260.119255;315.000000_260.265839;315.000000_260.412422;315.000000_260.559006;315.000000_260.705590;315.000000_260.852174;315.000000_260.998758;315.000000_261.145342;315.000000_261.291925;315.000000_261.438509;315.000000_261.585093;</t>
+  </si>
+  <si>
+    <t>315.000000_261.878261;315.000000_262.024845;315.000000_262.171429;315.000000_262.318012;315.000000_262.464596;315.000000_262.611180;315.000000_262.757764;315.000000_262.904348;315.000000_263.050932;315.000000_263.197516;315.000000_263.344099;315.000000_263.490683;315.000000_263.637267;315.000000_263.783851;315.000000_263.930435;315.000000_264.077019;315.000000_264.223602;315.000000_264.370186;315.000000_264.516770;315.000000_264.663354;315.000000_264.809938;315.000000_264.956522;315.000000_265.103106;315.000000_265.249689;315.000000_265.396273;315.000000_265.542857;315.000000_265.689441;315.000000_265.836025;315.000000_265.982609;315.000000_266.129193;315.000000_266.275776;315.000000_266.422360;315.000000_266.568944;315.000000_266.715528;315.000000_266.862112;315.000000_267.008696;315.000000_267.155280;315.000000_267.301863;315.000000_267.448447;315.000000_267.595031;315.000000_267.741615;315.000000_267.888199;315.000000_268.034783;315.000000_268.181366;315.000000_268.327950;315.000000_268.474534;315.000000_268.621118;315.000000_268.767702;315.000000_268.914286;315.000000_269.060870;315.000000_269.207453;315.000000_269.354037;315.000000_269.500621;315.000000_269.647205;315.000000_269.793789;315.000000_269.940373;315.000000_270.086957;315.000000_270.233540;315.000000_270.380124;315.000000_270.526708;315.000000_270.673292;315.000000_270.819876;315.000000_270.966460;315.000000_271.113043;315.000000_271.259627;315.000000_271.406211;315.000000_271.552795;315.000000_271.699379;315.000000_271.845963;315.000000_271.992547;315.000000_272.139130;315.000000_272.285714;315.000000_272.432298;315.000000_272.578882;315.000000_272.725466;315.000000_272.872050;315.000000_273.018634;315.000000_273.165217;315.000000_273.311801;315.000000_273.458385;315.000000_273.604969;315.000000_273.751553;315.000000_273.898137;315.000000_274.044720;315.000000_274.191304;315.000000_274.337888;315.000000_274.484472;315.000000_274.631056;315.000000_274.777640;315.000000_274.924224;315.000000_275.070807;315.000000_275.217391;315.000000_275.363975;315.000000_275.510559;315.000000_275.657143;315.000000_275.803727;315.000000_275.950311;315.000000_276.096894;315.000000_276.243478;315.000000_276.390062;</t>
+  </si>
+  <si>
+    <t>315.000000_276.683230;315.000000_276.829814;315.000000_276.976398;315.000000_277.122981;315.000000_277.269565;315.000000_277.416149;315.000000_277.562733;315.000000_277.709317;315.000000_277.855901;315.000000_278.002484;315.000000_278.149068;315.000000_278.295652;315.000000_278.442236;315.000000_278.588820;315.000000_278.735404;315.000000_278.881988;315.000000_279.028571;315.000000_279.175155;315.000000_279.321739;315.000000_279.468323;315.000000_279.614907;315.000000_279.761491;315.000000_279.908075;315.000000_280.054658;315.000000_280.201242;315.000000_280.347826;315.000000_280.494410;315.000000_280.640994;315.000000_280.787578;315.000000_280.934161;315.000000_281.080745;315.000000_281.227329;315.000000_281.373913;315.000000_281.520497;315.000000_281.667081;315.000000_281.813665;315.000000_281.960248;315.000000_282.106832;315.000000_282.253416;315.000000_282.400000;315.000000_282.546584;315.000000_282.693168;315.000000_282.839752;315.000000_282.986335;315.000000_283.132919;315.000000_283.279503;315.000000_283.426087;315.000000_283.572671;315.000000_283.719255;315.000000_283.865839;315.000000_284.012422;315.000000_284.159006;315.000000_284.305590;315.000000_284.452174;315.000000_284.598758;315.000000_284.745342;315.000000_284.891925;315.000000_285.038509;315.000000_285.185093;315.000000_285.331677;315.000000_285.478261;315.000000_285.624845;315.000000_285.771429;315.000000_285.918012;315.000000_286.064596;315.000000_286.211180;315.000000_286.357764;315.000000_286.504348;315.000000_286.650932;315.000000_286.797516;315.000000_286.944099;315.000000_287.090683;315.000000_287.237267;315.000000_287.383851;315.000000_287.530435;315.000000_287.677019;315.000000_287.823602;315.000000_287.970186;315.000000_288.116770;315.000000_288.263354;315.000000_288.409938;315.000000_288.556522;315.000000_288.703106;315.000000_288.849689;315.000000_288.996273;315.000000_289.142857;315.000000_289.289441;315.000000_289.436025;315.000000_289.582609;315.000000_289.729193;315.000000_289.875776;315.000000_290.022360;315.000000_290.168944;315.000000_290.315528;315.000000_290.462112;315.000000_290.608696;315.000000_290.755280;315.000000_290.901863;315.000000_291.048447;315.000000_291.195031;315.000000_291.341615;315.000000_291.488199;315.000000_291.634783;315.000000_291.781366;315.000000_291.927950;315.000000_292.074534;315.000000_292.221118;315.000000_292.367702;315.000000_292.514286;315.000000_292.660870;315.000000_292.807453;315.000000_292.954037;315.000000_293.100621;315.000000_293.247205;315.000000_293.393789;315.000000_293.540373;315.000000_293.686957;315.000000_293.833540;315.000000_293.980124;315.000000_294.126708;315.000000_294.273292;315.000000_294.419876;315.000000_294.566460;315.000000_294.713043;315.000000_294.859627;315.000000_295.006211;315.000000_295.152795;315.000000_295.299379;315.000000_295.445963;315.000000_295.592547;315.000000_295.739130;315.000000_295.885714;315.000000_296.032298;315.000000_296.178882;315.000000_296.325466;315.000000_296.472050;315.000000_296.618634;315.000000_296.765217;315.000000_296.911801;315.000000_297.058385;315.000000_297.204969;315.000000_297.351553;315.000000_297.498137;315.000000_297.644720;315.000000_297.791304;315.000000_297.937888;315.000000_298.084472;315.000000_298.231056;315.000000_298.377640;315.000000_298.524224;315.000000_298.670807;315.000000_298.817391;315.000000_298.963975;315.000000_299.110559;315.000000_299.257143;315.000000_299.403727;315.000000_299.550311;315.000000_299.696894;315.000000_299.843478;315.000000_299.990062;315.000000_300.136646;315.000000_300.283230;315.000000_300.429814;315.000000_300.576398;315.000000_300.722981;315.000000_300.869565;315.000000_301.016149;315.000000_301.162733;315.000000_301.309317;315.000000_301.455901;315.000000_301.602484;315.000000_301.749068;315.000000_301.895652;315.000000_302.042236;315.000000_302.188820;315.000000_302.335404;315.000000_302.481988;315.000000_302.628571;315.000000_302.775155;315.000000_302.921739;315.000000_303.068323;315.000000_303.214907;315.000000_303.361491;315.000000_303.508075;315.000000_303.654658;315.000000_303.801242;315.000000_303.947826;315.000000_304.094410;315.000000_304.240994;315.000000_304.387578;315.000000_304.534161;315.000000_304.680745;315.000000_304.827329;315.000000_304.973913;315.000000_305.120497;315.000000_305.267081;315.000000_305.413665;315.000000_305.560248;315.000000_305.706832;315.000000_305.853416;</t>
+  </si>
+  <si>
+    <t>315.000000_306.146584;315.000000_306.293168;315.000000_306.439752;315.000000_306.586335;315.000000_306.732919;315.000000_306.879503;315.000000_307.026087;315.000000_307.172671;315.000000_307.319255;315.000000_307.465839;315.000000_307.612422;315.000000_307.759006;315.000000_307.905590;315.000000_308.052174;315.000000_308.198758;315.000000_308.345342;315.000000_308.491925;315.000000_308.638509;315.000000_308.785093;315.000000_308.931677;315.000000_309.078261;315.000000_309.224845;315.000000_309.371429;315.000000_309.518012;315.000000_309.664596;315.000000_309.811180;315.000000_309.957764;315.000000_310.104348;315.000000_310.250932;315.000000_310.397516;315.000000_310.544099;315.000000_310.690683;315.000000_310.837267;315.000000_310.983851;315.000000_311.130435;315.000000_311.277019;315.000000_311.423602;315.000000_311.570186;315.000000_311.716770;315.000000_311.863354;315.000000_312.009938;315.000000_312.156522;315.000000_312.303106;315.000000_312.449689;315.000000_312.596273;315.000000_312.742857;315.000000_312.889441;315.000000_313.036025;315.000000_313.182609;315.000000_313.329193;315.000000_313.475776;315.000000_313.622360;315.000000_313.768944;315.000000_313.915528;315.000000_314.062112;315.000000_314.208696;315.000000_314.355280;315.000000_314.501863;315.000000_314.648447;315.000000_314.795031;315.000000_314.941615;315.000000_315.088199;315.000000_315.234783;315.000000_315.381366;315.000000_315.527950;315.000000_315.674534;315.000000_315.821118;315.000000_315.967702;315.000000_316.114286;315.000000_316.260870;315.000000_316.407453;315.000000_316.554037;315.000000_316.700621;315.000000_316.847205;315.000000_316.993789;315.000000_317.140373;315.000000_317.286957;315.000000_317.433540;315.000000_317.580124;315.000000_317.726708;315.000000_317.873292;315.000000_318.019876;315.000000_318.166460;315.000000_318.313043;315.000000_318.459627;315.000000_318.606211;315.000000_318.752795;315.000000_318.899379;315.000000_319.045963;315.000000_319.192547;315.000000_319.339130;315.000000_319.485714;315.000000_319.632298;315.000000_319.778882;315.000000_319.925466;315.000000_320.072050;315.000000_320.218634;315.000000_320.365217;315.000000_320.511801;315.000000_320.658385;315.000000_320.804969;315.000000_320.951553;315.000000_321.098137;315.000000_321.244720;315.000000_321.391304;315.000000_321.537888;315.000000_321.684472;315.000000_321.831056;315.000000_321.977640;315.000000_322.124224;315.000000_322.270807;315.000000_322.417391;315.000000_322.563975;315.000000_322.710559;315.000000_322.857143;315.000000_323.003727;315.000000_323.150311;315.000000_323.296894;315.000000_323.443478;315.000000_323.590062;315.000000_323.736646;315.000000_323.883230;315.000000_324.029814;315.000000_324.176398;315.000000_324.322981;315.000000_324.469565;315.000000_324.616149;315.000000_324.762733;315.000000_324.909317;315.000000_325.055901;315.000000_325.202484;315.000000_325.349068;315.000000_325.495652;315.000000_325.642236;315.000000_325.788820;315.000000_325.935404;315.000000_326.081988;315.000000_326.228571;315.000000_326.375155;315.000000_326.521739;315.000000_326.668323;315.000000_326.814907;315.000000_326.961491;315.000000_327.108075;315.000000_327.254658;315.000000_327.401242;315.000000_327.547826;315.000000_327.694410;315.000000_327.840994;315.000000_327.987578;315.000000_328.134161;315.000000_328.280745;315.000000_328.427329;315.000000_328.573913;315.000000_328.720497;315.000000_328.867081;315.000000_329.013665;315.000000_329.160248;315.000000_329.306832;315.000000_329.453416;315.000000_329.600000;315.000000_329.746584;315.000000_329.893168;315.000000_330.039752;315.000000_330.186335;315.000000_330.332919;315.000000_330.479503;315.000000_330.626087;315.000000_330.772671;315.000000_330.919255;315.000000_331.065839;315.000000_331.212422;315.000000_331.359006;315.000000_331.505590;315.000000_331.652174;315.000000_331.798758;315.000000_331.945342;315.000000_332.091925;315.000000_332.238509;315.000000_332.385093;315.000000_332.531677;315.000000_332.678261;315.000000_332.824845;315.000000_332.971429;315.000000_333.118012;315.000000_333.264596;315.000000_333.411180;315.000000_333.557764;315.000000_333.704348;315.000000_333.850932;315.000000_333.997516;315.000000_334.144099;315.000000_334.290683;315.000000_334.437267;315.000000_334.583851;315.000000_334.730435;315.000000_334.877019;315.000000_335.023602;315.000000_335.170186;315.000000_335.316770;</t>
+  </si>
+  <si>
+    <t>315.000000_335.609938;315.000000_335.756522;315.000000_335.903106;315.000000_336.049689;315.000000_336.196273;315.000000_336.342857;315.000000_336.489441;315.000000_336.636025;315.000000_336.782609;315.000000_336.929193;315.000000_337.075776;315.000000_337.222360;315.000000_337.368944;315.000000_337.515528;315.000000_337.662112;315.000000_337.808696;315.000000_337.955280;315.000000_338.101863;315.000000_338.248447;315.000000_338.395031;315.000000_338.541615;315.000000_338.688199;315.000000_338.834783;315.000000_338.981366;315.000000_339.127950;315.000000_339.274534;315.000000_339.421118;315.000000_339.567702;315.000000_339.714286;315.000000_339.860870;315.000000_340.007453;315.000000_340.154037;315.000000_340.300621;315.000000_340.447205;315.000000_340.593789;315.000000_340.740373;315.000000_340.886957;315.000000_341.033540;315.000000_341.180124;315.000000_341.326708;315.000000_341.473292;315.000000_341.619876;315.000000_341.766460;315.000000_341.913043;315.000000_342.059627;315.000000_342.206211;315.000000_342.352795;315.000000_342.499379;315.000000_342.645963;315.000000_342.792547;315.000000_342.939130;315.000000_343.085714;315.000000_343.232298;315.000000_343.378882;315.000000_343.525466;315.000000_343.672050;315.000000_343.818634;315.000000_343.965217;315.000000_344.111801;315.000000_344.258385;315.000000_344.404969;315.000000_344.551553;315.000000_344.698137;315.000000_344.844720;315.000000_344.991304;315.000000_345.137888;315.000000_345.284472;315.000000_345.431056;315.000000_345.577640;315.000000_345.724224;315.000000_345.870807;315.000000_346.017391;315.000000_346.163975;315.000000_346.310559;315.000000_346.457143;315.000000_346.603727;315.000000_346.750311;315.000000_346.896894;315.000000_347.043478;315.000000_347.190062;315.000000_347.336646;315.000000_347.483230;315.000000_347.629814;315.000000_347.776398;315.000000_347.922981;315.000000_348.069565;315.000000_348.216149;315.000000_348.362733;315.000000_348.509317;315.000000_348.655901;315.000000_348.802484;315.000000_348.949068;315.000000_349.095652;315.000000_349.242236;315.000000_349.388820;315.000000_349.535404;315.000000_349.681988;315.000000_349.828571;315.000000_349.975155;315.000000_350.121739;</t>
+  </si>
+  <si>
+    <t>315.000000_350.414907;315.000000_350.561491;315.000000_350.708075;315.000000_350.854658;315.000000_351.001242;315.000000_351.147826;315.000000_351.294410;315.000000_351.440994;315.000000_351.587578;315.000000_351.734161;315.000000_351.880745;315.000000_352.027329;315.000000_352.173913;315.000000_352.320497;315.000000_352.467081;315.000000_352.613665;315.000000_352.760248;315.000000_352.906832;315.000000_353.053416;315.000000_353.200000;315.000000_353.346584;315.000000_353.493168;315.000000_353.639752;315.000000_353.786335;315.000000_353.932919;315.000000_354.079503;315.000000_354.226087;315.000000_354.372671;315.000000_354.519255;315.000000_354.665839;315.000000_354.812422;315.000000_354.959006;315.000000_355.105590;315.000000_355.252174;315.000000_355.398758;315.000000_355.545342;315.000000_355.691925;315.000000_355.838509;315.000000_355.985093;315.000000_356.131677;315.000000_356.278261;315.000000_356.424845;315.000000_356.571429;315.000000_356.718012;315.000000_356.864596;315.000000_357.011180;315.000000_357.157764;315.000000_357.304348;315.000000_357.450932;315.000000_357.597516;315.000000_357.744099;315.000000_357.890683;315.000000_358.037267;315.000000_358.183851;315.000000_358.330435;315.000000_358.477019;315.000000_358.623602;315.000000_358.770186;315.000000_358.916770;315.000000_359.063354;315.000000_359.209938;315.000000_359.356522;315.000000_359.503106;315.000000_359.649689;315.000000_359.796273;315.000000_359.942857;315.000000_360.089441;315.000000_360.236025;315.000000_360.382609;315.000000_360.529193;315.000000_360.675776;315.000000_360.822360;315.000000_360.968944;315.000000_361.115528;315.000000_361.262112;315.000000_361.408696;315.000000_361.555280;315.000000_361.701863;315.000000_361.848447;315.000000_361.995031;315.000000_362.141615;315.000000_362.288199;315.000000_362.434783;315.000000_362.581366;315.000000_362.727950;315.000000_362.874534;315.000000_363.021118;315.000000_363.167702;315.000000_363.314286;315.000000_363.460870;315.000000_363.607453;315.000000_363.754037;315.000000_363.900621;315.000000_364.047205;315.000000_364.193789;315.000000_364.340373;315.000000_364.486957;315.000000_364.633540;315.000000_364.780124;315.000000_364.926708;</t>
+  </si>
+  <si>
+    <t>314.990363_365.314389;314.971090_365.506491;314.951816_365.698593;314.932541_365.890695;314.913264_366.082797;314.893986_366.274899;314.874706_366.467000;314.855424_366.659102;314.836139_366.851203;314.816851_367.043303;314.797560_367.235404;314.778264_367.427504;314.758965_367.619603;314.739661_367.811702;314.720352_368.003801;314.701037_368.195899;314.681717_368.387997;314.662391_368.580093;314.643059_368.772190;314.623720_368.964285;314.604373_369.156380;314.585020_369.348474;314.565658_369.540568;314.546288_369.732660;314.526909_369.924752;314.507521_370.116842;314.488124_370.308932;314.468717_370.501021;314.449300_370.693109;314.429872_370.885195;314.410434_371.077281;314.390983_371.269365;314.371522_371.461448;314.352047_371.653530;314.332561_371.845611;314.313061_372.037690;314.293548_372.229768;314.274021_372.421845;314.254480_372.613920;314.234925_372.805994;314.215354_372.998066;314.195768_373.190136;314.176166_373.382205;314.156547_373.574273;314.136912_373.766338;314.117260_373.958402;314.097590_374.150464;314.077902_374.342524;314.058196_374.534582;314.038471_374.726639;314.018726_374.918693;313.998961_375.110745;313.979176_375.302795;313.959367_375.494843;313.939533_375.686888;313.919671_375.878930;313.899779_376.070970;313.879853_376.263005;313.859891_376.455037;313.839890_376.647065;313.819848_376.839088;313.799762_377.031107;313.779629_377.223121;313.759445_377.415130;313.739209_377.607133;313.718916_377.799130;313.698563_377.991121;313.678148_378.183105;313.657667_378.375082;313.637117_378.567052;313.616493_378.759014;313.595793_378.950968;313.575011_379.142913;313.554146_379.334849;313.533192_379.526775;313.512145_379.718691;313.491001_379.910596;313.469755_380.102490;313.448402_380.294372;313.426938_380.486242;313.405357_380.678099;313.383655_380.869941;313.361824_381.061770;313.339860_381.253583;313.317756_381.445380;313.295505_381.637160;313.273101_381.828923;313.250537_382.020666;313.227804_382.212389;313.204894_382.404092;313.181800_382.595772;313.158511_382.787429;313.135018_382.979061;313.111311_383.170667;313.087379_383.362244;313.063209_383.553792;313.038789_383.745308;313.014106_383.936790;312.989144_384.128236;312.963893_384.319644;</t>
+  </si>
+  <si>
+    <t>312.963893_384.319644;312.938345_384.511013;312.912493_384.702341;312.886328_384.893626;312.859843_385.084867;312.833030_385.276063;312.805881_385.467211;312.778387_385.658310;312.750539_385.849357;312.722327_386.040352;312.693744_386.231290;312.664778_386.422172;312.635419_386.612993;312.605658_386.803752;312.575484_386.994446;312.544885_387.185072;312.513850_387.375628;312.482368_387.566110;312.450427_387.756516;312.418014_387.946842;312.385117_388.137085;312.351723_388.327241;312.317819_388.517307;312.283391_388.707279;312.248426_388.897153;312.212909_389.086925;312.176828_389.276590;312.140168_389.466143;312.102915_389.655581;312.065055_389.844899;312.026573_390.034091;311.987456_390.223153;311.947688_390.412079;311.907251_390.600863;311.866127_390.789499;311.824297_390.977979;311.781741_391.166297;311.738442_391.354445;311.694378_391.542415;311.649533_391.730201;311.603886_391.917793;311.557420_392.105184;311.510117_392.292365;311.461961_392.479329;311.412935_392.666067;311.363027_392.852570;311.312224_393.038832;311.260516_393.224845;311.207895_393.410601;311.154358_393.596096;311.099904_393.781323;311.044535_393.966279;310.988260_394.150961;310.931086_394.335367;310.873018_394.519494;310.814066_394.703339;310.754239_394.886902;310.693556_395.070183;310.632037_395.253185;310.569710_395.435914;310.506608_395.618377;310.442770_395.800583;310.378240_395.982546;310.313071_396.164281;310.247317_396.345805;310.181044_396.527140;310.114318_396.708310;310.047214_396.889339;309.979808_397.070257;309.912179_397.251091;309.844408_397.431872;309.776577_397.612630;309.708766_397.793397;309.641058_397.974201;309.573533_398.155074;309.506269_398.336045;309.439343_398.517140;309.372826_398.698386;309.306785_398.879806;309.241284_399.061422;309.176379_399.243251;309.112123_399.425311;309.048563_399.607614;308.985734_399.790171;308.923625_399.972975;308.862169_400.155998;308.801280_400.339212;308.740883_400.522588;308.680905_400.706102;308.621278_400.889730;308.561938_401.073451;308.502825_401.257246;308.443879_401.441094;308.385044_401.624977;308.326262_401.808877;308.267477_401.992777;308.208635_402.176658;308.149678_402.360503;308.090550_402.544292;308.031190_402.728007;</t>
+  </si>
+  <si>
+    <t>308.031190_402.728007;307.971540_402.911628;307.911549_403.095137;307.851173_403.278520;307.790369_403.461762;307.729093_403.644846;307.667294_403.827755;307.604921_404.010468;307.541917_404.192965;307.478221_404.375221;307.413765_404.557210;307.348476_404.738901;307.282274_404.920262;307.215067_405.101252;307.146755_405.281828;307.077226_405.461939;307.006352_405.641524;306.934012_405.820523;306.860119_405.998887;306.784615_406.176574;306.707439_406.353541;306.628530_406.529742;306.547825_406.705128;306.465263_406.879647;306.380780_407.053243;306.294314_407.225860;306.205804_407.397438;306.115190_407.567914;306.022420_407.737225;305.927473_407.905325;305.830442_408.072232;305.731518_408.238025;305.630950_408.402827;305.529030_408.566798;305.426089_408.730131;305.322492_408.893049;305.218625_409.055795;305.114880_409.218618;305.011645_409.381766;304.909200_409.545410;304.807596_409.709578;304.706753_409.874214;304.606588_410.039265;304.507022_410.204677;304.407980_410.370403;304.309389_410.536398;304.211180_410.702620;304.113286_410.869028;304.015643_411.035583;303.918175_411.202240;303.820781_411.368941;303.723342_411.535615;303.625736_411.702192;303.527842_411.868599;303.429534_412.034762;303.330679_412.200600;303.231143_412.366029;303.130778_412.530957;303.029429_412.695282;302.926971_412.858918;302.823407_413.021855;302.718848_413.184157;302.613430_413.345901;302.507297_413.507179;302.400607_413.668088;302.293521_413.828734;302.186208_413.989229;302.078839_414.149687;301.971572_414.310213;301.864444_414.470831;301.757325_414.631455;301.650031_414.791963;301.542378_414.952230;301.434171_415.112123;301.325212_415.271504;301.215288_415.430220;301.104170_415.588102;300.991618_415.744963;300.877489_415.900681;300.761847_416.055279;300.644865_416.208867;300.526741_416.361579;300.407691_416.513570;300.287946_416.665015;300.167745_416.816100;300.047341_416.967021;299.926978_417.117977;299.806881_417.269143;299.687249_417.420678;299.568274_417.572728;299.450136_417.725430;299.333007_417.878906;299.217046_418.033266;299.102397_418.188602;298.989181_418.344985;298.877360_418.502370;298.766661_418.660547;298.656727_418.819258;298.547217_418.978261;298.437801_419.137330;</t>
+  </si>
+  <si>
+    <t>298.437801_419.137330;298.328153_419.296238;298.217938_419.454754;298.106810_419.612629;297.994400_419.769593;297.880414_419.925415;297.764718_420.079971;297.647263_420.233194;297.528000_420.385014;297.406883_420.535358;297.283861_420.684147;297.158885_420.831299;297.031906_420.976725;296.902869_421.120327;296.771703_421.261986;296.638323_421.401561;296.502640_421.538897;296.364561_421.673823;296.223992_421.806150;296.080837_421.935672;295.934994_422.062159;295.786354_422.185342;295.634796_422.304912;295.480195_422.420517;295.322434_422.531764;295.161403_422.638214;294.997022_422.739405;294.829547_422.835406;294.659850_422.927459;294.489123_423.017606;294.318569_423.108077;294.149393_423.201075;293.982769_423.298535;293.819456_423.401439;293.659545_423.509567;293.502829_423.622286;293.349090_423.739040;293.198113_423.859349;293.049689_423.982800;292.903608_424.109019;292.759632_424.237638;292.617509_424.368303;292.476994_424.500700;292.337863_424.634550;292.199900_424.769606;292.062902_424.905643;291.926684_425.042460;291.791107_425.179913;291.656072_425.317899;291.521491_425.456328;291.387279_425.595115;291.253349_425.734174;291.119620_425.873426;290.986008_426.012791;290.852432_426.152191;290.718816_426.291552;290.585082_426.430799;290.451152_426.569858;290.316948_426.708653;290.182392_426.847106;290.047401_426.985135;289.911881_427.122644;289.775689_427.259488;289.638643_427.395475;289.500544_427.530392;289.361187_427.664007;289.220352_427.796061;289.077806_427.926264;288.933303_428.054289;288.786582_428.179762;288.637374_428.302260;288.485389_428.421289;288.330324_428.536265;288.171861_428.646498;288.009687_428.751176;287.843757_428.849791;287.674596_428.942785;287.503073_429.031380;287.330088_429.117107;287.156533_429.201683;286.983273_429.286857;286.810789_429.373592;286.638927_429.461558;286.467245_429.549875;286.295292_429.637661;286.122619_429.724016;285.948824_429.808082;285.773878_429.889732;285.598223_429.969855;285.422444_430.049708;285.247127_430.130562;285.072860_430.213644;284.900117_430.299841;284.728853_430.388952;284.558544_430.479884;284.388584_430.571472;284.218366_430.662577;284.047286_430.752044;283.874903_430.838965;283.701271_430.923373;</t>
+  </si>
+  <si>
+    <t>283.701271_430.923373;283.526820_431.006083;283.352015_431.088046;283.177319_431.170239;283.003184_431.253610;282.829767_431.338465;282.656638_431.423911;282.483051_431.508416;282.308254_431.590366;282.131516_431.668003;281.952210_431.739449;281.770221_431.803758;281.586038_431.861536;281.400287_431.914111;281.213521_431.963000;281.026224_432.009839;280.838827_432.056283;280.651725_432.103888;280.465316_432.154110;280.280038_432.208324;280.096393_432.267793;279.914833_432.333337;279.735267_432.404211;279.556970_432.478260;279.379035_432.553186;279.200540_432.626750;279.020593_432.696638;278.838639_432.761090;278.654795_432.819967;278.469542_432.874285;278.283333_432.925257;278.096573_432.974193;277.909636_433.022455;277.722886_433.071428;277.536699_433.122482;277.351487_433.176936;277.167709_433.236013;276.985854_433.300742;276.806070_433.371045;276.627830_433.445221;276.450248_433.520980;276.272406_433.596118;276.093394_433.668387;275.912458_433.735644;275.729453_433.797061;275.544797_433.853357;275.358974_433.905708;275.172417_433.955404;274.985517_434.003808;274.798645_434.052316;274.612171_434.102321;274.426492_434.155176;274.242048_434.212157;274.059331_434.274418;273.878699_434.342494;273.699899_434.415296;273.522125_434.490596;273.344463_434.566164;273.165994_434.639782;272.985856_434.709165;272.803625_434.772827;272.619539_434.830945;272.434097_434.884617;272.247752_434.935093;272.060908_434.983709;271.873941_435.031854;271.687219_435.080933;271.501128_435.132330;271.316090_435.187365;271.132578_435.247257;270.951068_435.312944;270.771591_435.384038;270.593520_435.458624;270.415965_435.534445;270.238015_435.609324;270.058775_435.681020;269.877583_435.747587;269.694430_435.808574;269.509783_435.864914;269.324123_435.917850;269.137881_435.968722;268.951456_436.018927;268.765229_436.069852;268.579579_436.122827;268.394916_436.179117;268.211691_436.239893;268.030399_436.306184;267.851295_436.378191;267.673917_436.454402;267.497287_436.532353;267.320362_436.609622;267.142107_436.683732;266.961591_436.752064;266.778374_436.812739;266.592649_436.865250;266.404835_436.909728;266.215340_436.946421;266.024551_436.975686;265.832821_436.998035;265.640462_437.014214;</t>
+  </si>
+  <si>
+    <t>264.854305_437.000000;264.562914_437.000000;264.271523_437.000000;263.980132_437.000000;263.688742_437.000000;263.397351_437.000000;263.105960_437.000000;262.814570_437.000000;262.523179_437.000000;262.231788_437.000000;261.940397_437.000000;261.649007_437.000000;261.357616_437.000000;261.066225_437.000000;260.774834_437.000000;260.483444_437.000000;260.192053_437.000000;259.900662_437.000000;259.609272_437.000000;259.317881_437.000000;259.026490_437.000000;258.735099_437.000000;258.443709_437.000000;258.152318_437.000000;257.860927_437.000000;257.569536_437.000000;257.278146_437.000000;256.986755_437.000000;256.695364_437.000000;256.403974_437.000000;256.112583_437.000000;255.821192_437.000000;255.529801_437.000000;255.238411_437.000000;254.947020_437.000000;254.655629_437.000000;254.364238_437.000000;254.072848_437.000000;253.781457_437.000000;253.490066_437.000000;253.198675_437.000000;252.907285_437.000000;252.615894_437.000000;252.324503_437.000000;252.033113_437.000000;251.741722_437.000000;251.450331_437.000000;251.158940_437.000000;250.867550_437.000000;250.576159_437.000000;250.284768_437.000000;249.993377_437.000000;249.701987_437.000000;249.410596_437.000000;249.119205_437.000000;248.827815_437.000000;248.536424_437.000000;248.245033_437.000000;247.953642_437.000000;247.662252_437.000000;247.370861_437.000000;247.079470_437.000000;246.788079_437.000000;246.496689_437.000000;246.205298_437.000000;245.913907_437.000000;245.622517_437.000000;245.331126_437.000000;245.039735_437.000000;244.748344_437.000000;244.456954_437.000000;244.165563_437.000000;243.874172_437.000000;243.582781_437.000000;243.291391_437.000000;243.000000_437.000000;242.708609_437.000000;242.417219_437.000000;242.125828_437.000000;241.834437_437.000000;241.543046_437.000000;241.251656_437.000000;240.960265_437.000000;240.668874_437.000000;240.377483_437.000000;240.086093_437.000000;239.794702_437.000000;239.503311_437.000000;239.211921_437.000000;238.920530_437.000000;238.629139_437.000000;238.337748_437.000000;238.046358_437.000000;237.754967_437.000000;237.463576_437.000000;237.172185_437.000000;236.880795_437.000000;236.589404_437.000000;236.298013_437.000000;236.006623_437.000000;</t>
+  </si>
+  <si>
+    <t>236.006623_437.000000;235.715232_437.000000;235.423841_437.000000;235.132450_437.000000;234.841060_437.000000;234.549669_437.000000;234.258278_437.000000;233.966887_437.000000;233.675497_437.000000;233.384106_437.000000;233.092715_437.000000;232.801325_437.000000;232.509934_437.000000;232.218543_437.000000;231.927152_437.000000;231.635762_437.000000;231.344371_437.000000;231.052980_437.000000;230.761589_437.000000;230.470199_437.000000;230.178808_437.000000;229.887417_437.000000;229.596026_437.000000;229.304636_437.000000;229.013245_437.000000;228.721854_437.000000;228.430464_437.000000;228.139073_437.000000;227.847682_437.000000;227.556291_437.000000;227.264901_437.000000;226.973510_437.000000;226.682119_437.000000;226.390728_437.000000;226.099338_437.000000;225.807947_437.000000;225.516556_437.000000;225.225166_437.000000;224.933775_437.000000;224.642384_437.000000;224.350993_437.000000;224.059603_437.000000;223.768212_437.000000;223.476821_437.000000;223.185430_437.000000;222.894040_437.000000;222.602649_437.000000;222.311258_437.000000;222.019868_437.000000;221.728477_437.000000;221.437086_437.000000;221.145695_437.000000;220.854305_437.000000;220.562914_437.000000;220.271523_437.000000;219.980132_437.000000;219.688742_437.000000;219.397351_437.000000;219.105960_437.000000;218.814570_437.000000;218.523179_437.000000;218.231788_437.000000;217.940397_437.000000;217.649007_437.000000;217.357616_437.000000;217.066225_437.000000;216.774834_437.000000;216.483444_437.000000;216.192053_437.000000;215.900662_437.000000;215.609272_437.000000;215.317881_437.000000;215.026490_437.000000;214.735099_437.000000;214.443709_437.000000;214.152318_437.000000;213.860927_437.000000;213.569536_437.000000;213.278146_437.000000;212.986755_437.000000;212.695364_437.000000;212.403974_437.000000;212.112583_437.000000;211.821192_437.000000;211.529801_437.000000;211.238411_437.000000;210.947020_437.000000;210.655629_437.000000;210.364238_437.000000;210.072848_437.000000;209.781457_437.000000;209.490066_437.000000;209.198675_437.000000;208.907285_437.000000;208.615894_437.000000;208.324503_437.000000;208.033113_437.000000;207.741722_437.000000;207.450331_437.000000;207.158940_437.000000;</t>
+  </si>
+  <si>
+    <t>207.158940_437.000000;206.867550_437.000000;206.576159_437.000000;206.284768_437.000000;205.993377_437.000000;205.701987_437.000000;205.410596_437.000000;205.119205_437.000000;204.827815_437.000000;204.536424_437.000000;204.245033_437.000000;203.953642_437.000000;203.662252_437.000000;203.370861_437.000000;203.079470_437.000000;202.788079_437.000000;202.496689_437.000000;202.205298_437.000000;201.913907_437.000000;201.622517_437.000000;201.331126_437.000000;201.039735_437.000000;200.748344_437.000000;200.456954_437.000000;200.165563_437.000000;199.874172_437.000000;199.582781_437.000000;199.291391_437.000000;199.000000_437.000000;198.708609_437.000000;198.417219_437.000000;198.125828_437.000000;197.834437_437.000000;197.543046_437.000000;197.251656_437.000000;196.960265_437.000000;196.668874_437.000000;196.377483_437.000000;196.086093_437.000000;195.794702_437.000000;195.503311_437.000000;195.211921_437.000000;194.920530_437.000000;194.629139_437.000000;194.337748_437.000000;194.046358_437.000000;193.754967_437.000000;193.463576_437.000000;193.172185_437.000000;192.880795_437.000000;192.589404_437.000000;192.298013_437.000000;192.006623_437.000000;191.715232_437.000000;191.423841_437.000000;191.132450_437.000000;190.841060_437.000000;190.549669_437.000000;190.258278_437.000000;189.966887_437.000000;189.675497_437.000000;189.384106_437.000000;189.092715_437.000000;188.801325_437.000000;188.509934_437.000000;188.218543_437.000000;187.927152_437.000000;187.635762_437.000000;187.344371_437.000000;187.052980_437.000000;186.761589_437.000000;186.470199_437.000000;186.178808_437.000000;185.887417_437.000000;185.596026_437.000000;185.304636_437.000000;185.013245_437.000000;184.721854_437.000000;184.430464_437.000000;184.139073_437.000000;183.847682_437.000000;183.556291_437.000000;183.264901_437.000000;182.973510_437.000000;182.682119_437.000000;182.390728_437.000000;182.099338_437.000000;181.807947_437.000000;181.516556_437.000000;181.225166_437.000000;180.933775_437.000000;180.642384_437.000000;180.350993_437.000000;180.059603_437.000000;179.768212_437.000000;179.476821_437.000000;179.185430_437.000000;178.894040_437.000000;178.602649_437.000000;178.311258_437.000000;</t>
+  </si>
+  <si>
+    <t>176.985598_437.000000;176.956795_437.000000;176.927991_437.000000;176.899188_437.000000;176.870384_437.000000;176.841581_437.000000;176.812777_437.000000;176.783973_437.000000;176.755170_437.000000;176.726366_437.000000;176.697563_437.000000;176.668759_437.000000;176.639956_437.000000;176.611152_437.000000;176.582349_437.000000;176.553545_437.000000;176.524742_437.000000;176.495938_437.000000;176.467134_437.000000;176.438331_437.000000;176.409527_437.000000;176.380724_437.000000;176.351920_437.000000;176.323117_437.000000;176.294313_437.000000;176.265510_437.000000;176.236706_437.000000;176.207903_437.000000;176.179099_437.000000;176.150295_437.000000;176.121492_437.000000;176.092688_437.000000;176.063885_437.000000;176.035081_437.000000;176.006278_437.000000;175.977474_437.000000;175.948671_437.000000;175.919867_437.000000;175.891064_437.000000;175.862260_437.000000;175.833456_437.000000;175.804653_437.000000;175.775849_437.000000;175.747046_437.000000;175.718242_437.000000;175.689439_437.000000;175.660635_437.000000;175.631832_437.000000;175.603028_437.000000;175.574225_437.000000;175.545421_437.000000;175.516617_437.000000;175.487814_437.000000;175.459010_437.000000;175.430207_437.000000;175.401403_437.000000;175.372600_437.000000;175.343796_437.000000;175.314993_437.000000;175.286189_437.000000;175.257386_437.000000;175.228582_437.000000;175.199778_437.000000;175.170975_437.000000;175.142171_437.000000;175.113368_437.000000;175.084564_437.000000;175.055761_437.000000;175.026957_437.000000;174.998154_437.000000;174.969350_437.000000;174.940547_437.000000;174.911743_437.000000;174.882939_437.000000;174.854136_437.000000;174.825332_437.000000;174.796529_437.000000;174.767725_437.000000;174.738922_437.000000;174.710118_437.000000;174.681315_437.000000;174.652511_437.000000;174.623708_437.000000;174.594904_437.000000;174.566100_437.000000;174.537297_437.000000;174.508493_437.000000;174.479690_437.000000;174.450886_437.000000;174.422083_437.000000;174.393279_437.000000;174.364476_437.000000;174.335672_437.000000;174.306869_437.000000;174.278065_437.000000;174.249261_437.000000;174.220458_437.000000;174.191654_437.000000;174.162851_437.000000;174.134047_437.000000;174.105244_437.000000;174.076440_437.000000;174.047637_437.000000;174.018833_437.000000;173.990030_437.000000;173.961226_437.000000;173.932422_437.000000;173.903619_437.000000;173.874815_437.000000;173.846012_437.000000;173.817208_437.000000;173.788405_437.000000;173.759601_437.000000;173.730798_437.000000;173.701994_437.000000;173.673191_437.000000;173.644387_437.000000;173.615583_437.000000;173.586780_437.000000;173.557976_437.000000;173.529173_437.000000;173.500369_437.000000;173.471566_437.000000;173.442762_437.000000;173.413959_437.000000;173.385155_437.000000;173.356352_437.000000;173.327548_437.000000;173.298744_437.000000;173.269941_437.000000;173.241137_437.000000;173.212334_437.000000;173.183530_437.000000;173.154727_437.000000;173.125923_437.000000;173.097120_437.000000;173.068316_437.000000;173.039513_437.000000;173.010709_437.000000;172.981905_437.000000;172.953102_437.000000;172.924298_437.000000;172.895495_437.000000;172.866691_437.000000;172.837888_437.000000;172.809084_437.000000;172.780281_437.000000;172.751477_437.000000;172.722674_437.000000;172.693870_437.000000;172.665066_437.000000;172.636263_437.000000;172.607459_437.000000;172.578656_437.000000;172.549852_437.000000;172.521049_437.000000;172.492245_437.000000;172.463442_437.000000;172.434638_437.000000;172.405835_437.000000;172.377031_437.000000;172.348227_437.000000;172.319424_437.000000;172.290620_437.000000;172.261817_437.000000;172.233013_437.000000;172.204210_437.000000;172.175406_437.000000;172.146603_437.000000;172.117799_437.000000;172.088996_437.000000;172.060192_437.000000;172.031388_437.000000;172.002585_437.000000;171.973781_437.000000;171.944978_437.000000;171.916174_437.000000;171.887371_437.000000;171.858567_437.000000;171.829764_437.000000;171.800960_437.000000;171.772157_437.000000;171.743353_437.000000;171.714549_437.000000;171.685746_437.000000;171.656942_437.000000;171.628139_437.000000;171.599335_437.000000;171.570532_437.000000;171.541728_437.000000;171.512925_437.000000;171.484121_437.000000;171.455318_437.000000;171.426514_437.000000;171.397710_437.000000;171.368907_437.000000;171.340103_437.000000;171.311300_437.000000;171.282496_437.000000;171.253693_437.000000;171.224889_437.000000;171.196086_437.000000;171.167282_437.000000;171.138479_437.000000;171.109675_437.000000;171.080871_437.000000;171.052068_437.000000;171.023264_437.000000;170.994461_437.000000;170.965657_437.000000;170.936854_437.000000;170.908050_437.000000;170.879247_437.000000;170.850443_437.000000;170.821640_437.000000;170.792836_437.000000;170.764032_437.000000;170.735229_437.000000;170.706425_437.000000;170.677622_437.000000;170.648818_437.000000;170.620015_437.000000;170.591211_437.000000;170.562408_437.000000;170.533604_437.000000;170.504801_437.000000;170.475997_437.000000;170.447194_437.000000;170.418390_437.000000;170.389586_437.000000;170.360783_437.000000;170.331979_437.000000;170.303176_437.000000;170.274372_437.000000;170.245569_437.000000;170.216765_437.000000;170.187962_437.000000;170.159158_437.000000;170.130355_437.000000;170.101551_437.000000;170.072747_437.000000;170.043944_437.000000;170.015140_437.000000;169.986337_437.000000;169.957533_437.000000;169.928730_437.000000;169.899926_437.000000;169.871123_437.000000;169.842319_437.000000;169.813516_437.000000;169.784712_437.000000;169.755908_437.000000;169.727105_437.000000;169.698301_437.000000;169.669498_437.000000;169.640694_437.000000;169.611891_437.000000;169.583087_437.000000;169.554284_437.000000;169.525480_437.000000;169.496677_437.000000;169.467873_437.000000;169.439069_437.000000;169.410266_437.000000;169.381462_437.000000;169.352659_437.000000;169.323855_437.000000;169.295052_437.000000;169.266248_437.000000;169.237445_437.000000;169.208641_437.000000;169.179838_437.000000;169.151034_437.000000;169.122230_437.000000;169.093427_437.000000;169.064623_437.000000;169.035820_437.000000;169.007016_437.000000;168.978213_437.000000;168.949409_437.000000;168.920606_437.000000;168.891802_437.000000;168.862999_437.000000;168.834195_437.000000;168.805391_437.000000;168.776588_437.000000;168.747784_437.000000;168.718981_437.000000;168.690177_437.000000;168.661374_437.000000;168.632570_437.000000;168.603767_437.000000;168.574963_437.000000;168.546160_437.000000;168.517356_437.000000;168.488552_437.000000;168.459749_437.000000;168.430945_437.000000;168.402142_437.000000;168.373338_437.000000;</t>
+  </si>
+  <si>
+    <t>168.373338_437.000000;168.344535_437.000000;168.315731_437.000000;168.286928_437.000000;168.258124_437.000000;168.229321_437.000000;168.200517_437.000000;168.171713_437.000000;168.142910_437.000000;168.114106_437.000000;168.085303_437.000000;168.056499_437.000000;168.027696_437.000000;167.998892_437.000000;167.970089_437.000000;167.941285_437.000000;167.912482_437.000000;167.883678_437.000000;167.854874_437.000000;167.826071_437.000000;167.797267_437.000000;167.768464_437.000000;167.739660_437.000000;167.710857_437.000000;167.682053_437.000000;167.653250_437.000000;167.624446_437.000000;167.595643_437.000000;167.566839_437.000000;167.538035_437.000000;167.509232_437.000000;167.480428_437.000000;167.451625_437.000000;167.422821_437.000000;167.394018_437.000000;167.365214_437.000000;167.336411_437.000000;167.307607_437.000000;167.278804_437.000000;167.250000_437.000000;167.221196_437.000000;167.192393_437.000000;167.163589_437.000000;167.134786_437.000000;167.105982_437.000000;167.077179_437.000000;167.048375_437.000000;167.019572_437.000000;166.990768_437.000000;166.961965_437.000000;166.933161_437.000000;166.904357_437.000000;166.875554_437.000000;166.846750_437.000000;166.817947_437.000000;166.789143_437.000000;166.760340_437.000000;166.731536_437.000000;166.702733_437.000000;166.673929_437.000000;166.645126_437.000000;166.616322_437.000000;166.587518_437.000000;166.558715_437.000000;166.529911_437.000000;166.501108_437.000000;166.472304_437.000000;166.443501_437.000000;166.414697_437.000000;166.385894_437.000000;166.357090_437.000000;166.328287_437.000000;166.299483_437.000000;166.270679_437.000000;166.241876_437.000000;166.213072_437.000000;166.184269_437.000000;166.155465_437.000000;166.126662_437.000000;166.097858_437.000000;166.069055_437.000000;166.040251_437.000000;166.011448_437.000000;165.982644_437.000000;165.953840_437.000000;165.925037_437.000000;165.896233_437.000000;165.867430_437.000000;165.838626_437.000000;165.809823_437.000000;165.781019_437.000000;165.752216_437.000000;165.723412_437.000000;165.694609_437.000000;165.665805_437.000000;165.637001_437.000000;165.608198_437.000000;165.579394_437.000000;165.550591_437.000000;165.521787_437.000000;165.492984_437.000000;165.464180_437.000000;165.435377_437.000000;165.406573_437.000000;165.377770_437.000000;165.348966_437.000000;165.320162_437.000000;165.291359_437.000000;165.262555_437.000000;165.233752_437.000000;165.204948_437.000000;165.176145_437.000000;165.147341_437.000000;165.118538_437.000000;165.089734_437.000000;165.060931_437.000000;165.032127_437.000000;165.003323_437.000000;164.974520_437.000000;164.945716_437.000000;164.916913_437.000000;164.888109_437.000000;164.859306_437.000000;164.830502_437.000000;164.801699_437.000000;164.772895_437.000000;164.744092_437.000000;164.715288_437.000000;164.686484_437.000000;164.657681_437.000000;164.628877_437.000000;164.600074_437.000000;164.571270_437.000000;164.542467_437.000000;164.513663_437.000000;164.484860_437.000000;164.456056_437.000000;164.427253_437.000000;164.398449_437.000000;164.369645_437.000000;164.340842_437.000000;164.312038_437.000000;164.283235_437.000000;164.254431_437.000000;164.225628_437.000000;164.196824_437.000000;164.168021_437.000000;164.139217_437.000000;164.110414_437.000000;164.081610_437.000000;164.052806_437.000000;164.024003_437.000000;163.995199_437.000000;163.966396_437.000000;163.937592_437.000000;163.908789_437.000000;163.879985_437.000000;163.851182_437.000000;163.822378_437.000000;163.793575_437.000000;163.764771_437.000000;163.735968_437.000000;163.707164_437.000000;163.678360_437.000000;163.649557_437.000000;163.620753_437.000000;163.591950_437.000000;163.563146_437.000000;163.534343_437.000000;163.505539_437.000000;163.476736_437.000000;163.447932_437.000000;163.419129_437.000000;163.390325_437.000000;163.361521_437.000000;163.332718_437.000000;163.303914_437.000000;163.275111_437.000000;163.246307_437.000000;163.217504_437.000000;163.188700_437.000000;163.159897_437.000000;163.131093_437.000000;163.102290_437.000000;163.073486_437.000000;163.044682_437.000000;163.015879_437.000000;162.987075_437.000000;162.958272_437.000000;162.929468_437.000000;162.900665_437.000000;162.871861_437.000000;162.843058_437.000000;162.814254_437.000000;162.785451_437.000000;162.756647_437.000000;162.727843_437.000000;162.699040_437.000000;162.670236_437.000000;162.641433_437.000000;162.612629_437.000000;162.583826_437.000000;162.555022_437.000000;162.526219_437.000000;162.497415_437.000000;162.468612_437.000000;162.439808_437.000000;162.411004_437.000000;162.382201_437.000000;162.353397_437.000000;162.324594_437.000000;162.295790_437.000000;162.266987_437.000000;162.238183_437.000000;162.209380_437.000000;162.180576_437.000000;162.151773_437.000000;162.122969_437.000000;162.094165_437.000000;162.065362_437.000000;162.036558_437.000000;162.007755_437.000000;161.978951_437.000000;161.950148_437.000000;161.921344_437.000000;161.892541_437.000000;161.863737_437.000000;161.834934_437.000000;161.806130_437.000000;161.777326_437.000000;161.748523_437.000000;161.719719_437.000000;161.690916_437.000000;161.662112_437.000000;161.633309_437.000000;161.604505_437.000000;161.575702_437.000000;161.546898_437.000000;161.518095_437.000000;161.489291_437.000000;161.460487_437.000000;161.431684_437.000000;161.402880_437.000000;161.374077_437.000000;161.345273_437.000000;161.316470_437.000000;161.287666_437.000000;161.258863_437.000000;161.230059_437.000000;161.201256_437.000000;161.172452_437.000000;161.143648_437.000000;161.114845_437.000000;161.086041_437.000000;161.057238_437.000000;161.028434_437.000000;160.999631_437.000000;160.970827_437.000000;160.942024_437.000000;160.913220_437.000000;160.884417_437.000000;160.855613_437.000000;160.826809_437.000000;160.798006_437.000000;160.769202_437.000000;160.740399_437.000000;160.711595_437.000000;160.682792_437.000000;160.653988_437.000000;160.625185_437.000000;160.596381_437.000000;160.567578_437.000000;160.538774_437.000000;160.509970_437.000000;160.481167_437.000000;160.452363_437.000000;160.423560_437.000000;160.394756_437.000000;160.365953_437.000000;160.337149_437.000000;160.308346_437.000000;160.279542_437.000000;160.250739_437.000000;160.221935_437.000000;160.193131_437.000000;160.164328_437.000000;160.135524_437.000000;160.106721_437.000000;160.077917_437.000000;160.049114_437.000000;160.020310_437.000000;159.991507_437.000000;159.962703_437.000000;159.933900_437.000000;159.905096_437.000000;159.876292_437.000000;159.847489_437.000000;159.818685_437.000000;159.789882_437.000000;159.761078_437.000000;</t>
+  </si>
+  <si>
+    <t>159.761078_437.000000;159.732275_437.000000;159.703471_437.000000;159.674668_437.000000;159.645864_437.000000;159.617061_437.000000;159.588257_437.000000;159.559453_437.000000;159.530650_437.000000;159.501846_437.000000;159.473043_437.000000;159.444239_437.000000;159.415436_437.000000;159.386632_437.000000;159.357829_437.000000;159.329025_437.000000;159.300222_437.000000;159.271418_437.000000;159.242614_437.000000;159.213811_437.000000;159.185007_437.000000;159.156204_437.000000;159.127400_437.000000;159.098597_437.000000;159.069793_437.000000;159.040990_437.000000;159.012186_437.000000;158.983383_437.000000;158.954579_437.000000;158.925775_437.000000;158.896972_437.000000;158.868168_437.000000;158.839365_437.000000;158.810561_437.000000;158.781758_437.000000;158.752954_437.000000;158.724151_437.000000;158.695347_437.000000;158.666544_437.000000;158.637740_437.000000;158.608936_437.000000;158.580133_437.000000;158.551329_437.000000;158.522526_437.000000;158.493722_437.000000;158.464919_437.000000;158.436115_437.000000;158.407312_437.000000;158.378508_437.000000;158.349705_437.000000;158.320901_437.000000;158.292097_437.000000;158.263294_437.000000;158.234490_437.000000;158.205687_437.000000;158.176883_437.000000;158.148080_437.000000;158.119276_437.000000;158.090473_437.000000;158.061669_437.000000;158.032866_437.000000;158.004062_437.000000;157.975258_437.000000;157.946455_437.000000;157.917651_437.000000;157.888848_437.000000;157.860044_437.000000;157.831241_437.000000;157.802437_437.000000;157.773634_437.000000;157.744830_437.000000;157.716027_437.000000;157.687223_437.000000;157.658419_437.000000;157.629616_437.000000;157.600812_437.000000;157.572009_437.000000;157.543205_437.000000;157.514402_437.000000;157.485598_437.000000;157.456795_437.000000;157.427991_437.000000;157.399188_437.000000;157.370384_437.000000;157.341581_437.000000;157.312777_437.000000;157.283973_437.000000;157.255170_437.000000;157.226366_437.000000;157.197563_437.000000;157.168759_437.000000;157.139956_437.000000;157.111152_437.000000;157.082349_437.000000;157.053545_437.000000;157.024742_437.000000;156.995938_437.000000;156.967134_437.000000;156.938331_437.000000;156.909527_437.000000;156.880724_437.000000;156.851920_437.000000;156.823117_437.000000;156.794313_437.000000;156.765510_437.000000;156.736706_437.000000;156.707903_437.000000;156.679099_437.000000;156.650295_437.000000;156.621492_437.000000;156.592688_437.000000;156.563885_437.000000;156.535081_437.000000;156.506278_437.000000;156.477474_437.000000;156.448671_437.000000;156.419867_437.000000;156.391064_437.000000;156.362260_437.000000;156.333456_437.000000;156.304653_437.000000;156.275849_437.000000;156.247046_437.000000;156.218242_437.000000;156.189439_437.000000;156.160635_437.000000;156.131832_437.000000;156.103028_437.000000;156.074225_437.000000;156.045421_437.000000;156.016617_437.000000;155.987814_437.000000;155.959010_437.000000;155.930207_437.000000;155.901403_437.000000;155.872600_437.000000;155.843796_437.000000;155.814993_437.000000;155.786189_437.000000;155.757386_437.000000;155.728582_437.000000;155.699778_437.000000;155.670975_437.000000;155.642171_437.000000;155.613368_437.000000;155.584564_437.000000;155.555761_437.000000;155.526957_437.000000;155.498154_437.000000;155.469350_437.000000;155.440547_437.000000;155.411743_437.000000;155.382939_437.000000;155.354136_437.000000;155.325332_437.000000;155.296529_437.000000;155.267725_437.000000;155.238922_437.000000;155.210118_437.000000;155.181315_437.000000;155.152511_437.000000;155.123708_437.000000;155.094904_437.000000;155.066100_437.000000;155.037297_437.000000;155.008493_437.000000;154.979690_437.000000;154.950886_437.000000;154.922083_437.000000;154.893279_437.000000;154.864476_437.000000;154.835672_437.000000;154.806869_437.000000;154.778065_437.000000;154.749261_437.000000;154.720458_437.000000;154.691654_437.000000;154.662851_437.000000;154.634047_437.000000;154.605244_437.000000;154.576440_437.000000;154.547637_437.000000;154.518833_437.000000;154.490030_437.000000;154.461226_437.000000;154.432422_437.000000;154.403619_437.000000;154.374815_437.000000;154.346012_437.000000;154.317208_437.000000;154.288405_437.000000;154.259601_437.000000;154.230798_437.000000;154.201994_437.000000;154.173191_437.000000;154.144387_437.000000;154.115583_437.000000;154.086780_437.000000;154.057976_437.000000;154.029173_437.000000;154.000369_437.000000;153.971566_437.000000;153.942762_437.000000;153.913959_437.000000;153.885155_437.000000;153.856352_437.000000;153.827548_437.000000;153.798744_437.000000;153.769941_437.000000;153.741137_437.000000;153.712334_437.000000;153.683530_437.000000;153.654727_437.000000;153.625923_437.000000;153.597120_437.000000;153.568316_437.000000;153.539513_437.000000;153.510709_437.000000;153.481905_437.000000;153.453102_437.000000;153.424298_437.000000;153.395495_437.000000;153.366691_437.000000;153.337888_437.000000;153.309084_437.000000;153.280281_437.000000;153.251477_437.000000;153.222674_437.000000;153.193870_437.000000;153.165066_437.000000;153.136263_437.000000;153.107459_437.000000;153.078656_437.000000;153.049852_437.000000;153.021049_437.000000;152.992245_437.000000;152.963442_437.000000;152.934638_437.000000;152.905835_437.000000;152.877031_437.000000;152.848227_437.000000;152.819424_437.000000;152.790620_437.000000;152.761817_437.000000;152.733013_437.000000;152.704210_437.000000;152.675406_437.000000;152.646603_437.000000;152.617799_437.000000;152.588996_437.000000;152.560192_437.000000;152.531388_437.000000;152.502585_437.000000;152.473781_437.000000;152.444978_437.000000;152.416174_437.000000;152.387371_437.000000;152.358567_437.000000;152.329764_437.000000;152.300960_437.000000;152.272157_437.000000;152.243353_437.000000;152.214549_437.000000;152.185746_437.000000;152.156942_437.000000;152.128139_437.000000;152.099335_437.000000;152.070532_437.000000;152.041728_437.000000;152.012925_437.000000;151.984121_437.000000;151.955318_437.000000;151.926514_437.000000;151.897710_437.000000;151.868907_437.000000;151.840103_437.000000;151.811300_437.000000;151.782496_437.000000;151.753693_437.000000;151.724889_437.000000;151.696086_437.000000;151.667282_437.000000;151.638479_437.000000;151.609675_437.000000;151.580871_437.000000;151.552068_437.000000;151.523264_437.000000;151.494461_437.000000;151.465657_437.000000;151.436854_437.000000;151.408050_437.000000;151.379247_437.000000;151.350443_437.000000;151.321640_437.000000;151.292836_437.000000;151.264032_437.000000;151.235229_437.000000;151.206425_437.000000;151.177622_437.000000;151.148818_437.000000;</t>
+  </si>
+  <si>
+    <t>151.148818_437.000000;151.120015_437.000000;151.091211_437.000000;151.062408_437.000000;151.033604_437.000000;151.004801_437.000000;150.975997_437.000000;150.947194_437.000000;150.918390_437.000000;150.889586_437.000000;150.860783_437.000000;150.831979_437.000000;150.803176_437.000000;150.774372_437.000000;150.745569_437.000000;150.716765_437.000000;150.687962_437.000000;150.659158_437.000000;150.630355_437.000000;150.601551_437.000000;150.572747_437.000000;150.543944_437.000000;150.515140_437.000000;150.486337_437.000000;150.457533_437.000000;150.428730_437.000000;150.399926_437.000000;150.371123_437.000000;150.342319_437.000000;150.313516_437.000000;150.284712_437.000000;150.255908_437.000000;150.227105_437.000000;150.198301_437.000000;150.169498_437.000000;150.140694_437.000000;150.111891_437.000000;150.083087_437.000000;150.054284_437.000000;150.025480_437.000000;149.996677_437.000000;149.967873_437.000000;149.939069_437.000000;149.910266_437.000000;149.881462_437.000000;149.852659_437.000000;149.823855_437.000000;149.795052_437.000000;149.766248_437.000000;149.737445_437.000000;149.708641_437.000000;149.679838_437.000000;149.651034_437.000000;149.622230_437.000000;149.593427_437.000000;149.564623_437.000000;149.535820_437.000000;149.507016_437.000000;149.478213_437.000000;149.449409_437.000000;149.420606_437.000000;149.391802_437.000000;149.362999_437.000000;149.334195_437.000000;149.305391_437.000000;149.276588_437.000000;149.247784_437.000000;149.218981_437.000000;149.190177_437.000000;149.161374_437.000000;149.132570_437.000000;149.103767_437.000000;149.074963_437.000000;149.046160_437.000000;149.017356_437.000000;148.988552_437.000000;148.959749_437.000000;148.930945_437.000000;148.902142_437.000000;148.873338_437.000000;148.844535_437.000000;148.815731_437.000000;148.786928_437.000000;148.758124_437.000000;148.729321_437.000000;148.700517_437.000000;148.671713_437.000000;148.642910_437.000000;148.614106_437.000000;148.585303_437.000000;148.556499_437.000000;148.527696_437.000000;148.498892_437.000000;148.470089_437.000000;148.441285_437.000000;148.412482_437.000000;148.383678_437.000000;148.354874_437.000000;148.326071_437.000000;148.297267_437.000000;148.268464_437.000000;148.239660_437.000000;148.210857_437.000000;148.182053_437.000000;148.153250_437.000000;148.124446_437.000000;148.095643_437.000000;148.066839_437.000000;148.038035_437.000000;148.009232_437.000000;147.980428_437.000000;147.951625_437.000000;147.922821_437.000000;147.894018_437.000000;147.865214_437.000000;147.836411_437.000000;147.807607_437.000000;147.778804_437.000000;147.750000_437.000000;147.721196_437.000000;147.692393_437.000000;147.663589_437.000000;147.634786_437.000000;147.605982_437.000000;147.577179_437.000000;147.548375_437.000000;147.519572_437.000000;147.490768_437.000000;147.461965_437.000000;147.433161_437.000000;147.404357_437.000000;147.375554_437.000000;147.346750_437.000000;147.317947_437.000000;147.289143_437.000000;147.260340_437.000000;147.231536_437.000000;147.202733_437.000000;147.173929_437.000000;147.145126_437.000000;147.116322_437.000000;147.087518_437.000000;147.058715_437.000000;147.029911_437.000000;147.001108_437.000000;146.972304_437.000000;146.943501_437.000000;146.914697_437.000000;146.885894_437.000000;146.857090_437.000000;146.828287_437.000000;146.799483_437.000000;146.770679_437.000000;146.741876_437.000000;146.713072_437.000000;146.684269_437.000000;146.655465_437.000000;146.626662_437.000000;146.597858_437.000000;146.569055_437.000000;146.540251_437.000000;146.511448_437.000000;146.482644_437.000000;146.453840_437.000000;146.425037_437.000000;146.396233_437.000000;146.367430_437.000000;146.338626_437.000000;146.309823_437.000000;146.281019_437.000000;146.252216_437.000000;146.223412_437.000000;146.194609_437.000000;146.165805_437.000000;146.137001_437.000000;146.108198_437.000000;146.079394_437.000000;146.050591_437.000000;146.021787_437.000000;145.992984_437.000000;145.964180_437.000000;145.935377_437.000000;145.906573_437.000000;145.877770_437.000000;145.848966_437.000000;145.820162_437.000000;145.791359_437.000000;145.762555_437.000000;145.733752_437.000000;145.704948_437.000000;145.676145_437.000000;145.647341_437.000000;145.618538_437.000000;145.589734_437.000000;145.560931_437.000000;145.532127_437.000000;145.503323_437.000000;145.474520_437.000000;145.445716_437.000000;145.416913_437.000000;145.388109_437.000000;145.359306_437.000000;145.330502_437.000000;145.301699_437.000000;145.272895_437.000000;145.244092_437.000000;145.215288_437.000000;145.186484_437.000000;145.157681_437.000000;145.128877_437.000000;145.100074_437.000000;145.071270_437.000000;145.042467_437.000000;145.013663_437.000000;144.984860_437.000000;144.956056_437.000000;144.927253_437.000000;144.898449_437.000000;144.869645_437.000000;144.840842_437.000000;144.812038_437.000000;144.783235_437.000000;144.754431_437.000000;144.725628_437.000000;144.696824_437.000000;144.668021_437.000000;144.639217_437.000000;144.610414_437.000000;144.581610_437.000000;144.552806_437.000000;144.524003_437.000000;144.495199_437.000000;144.466396_437.000000;144.437592_437.000000;144.408789_437.000000;144.379985_437.000000;144.351182_437.000000;144.322378_437.000000;144.293575_437.000000;144.264771_437.000000;144.235968_437.000000;144.207164_437.000000;144.178360_437.000000;144.149557_437.000000;144.120753_437.000000;144.091950_437.000000;144.063146_437.000000;144.034343_437.000000;144.005539_437.000000;143.976736_437.000000;143.947932_437.000000;143.919129_437.000000;143.890325_437.000000;143.861521_437.000000;143.832718_437.000000;143.803914_437.000000;143.775111_437.000000;143.746307_437.000000;143.717504_437.000000;143.688700_437.000000;143.659897_437.000000;143.631093_437.000000;143.602290_437.000000;143.573486_437.000000;143.544682_437.000000;143.515879_437.000000;143.487075_437.000000;143.458272_437.000000;143.429468_437.000000;143.400665_437.000000;143.371861_437.000000;143.343058_437.000000;143.314254_437.000000;143.285451_437.000000;143.256647_437.000000;143.227843_437.000000;143.199040_437.000000;143.170236_437.000000;143.141433_437.000000;143.112629_437.000000;143.083826_437.000000;143.055022_437.000000;143.026219_437.000000;142.997415_437.000000;142.968612_437.000000;142.939808_437.000000;142.911004_437.000000;142.882201_437.000000;142.853397_437.000000;142.824594_437.000000;142.795790_437.000000;142.766987_437.000000;142.738183_437.000000;142.709380_437.000000;142.680576_437.000000;142.651773_437.000000;142.622969_437.000000;142.594165_437.000000;142.565362_437.000000;142.536558_437.000000;</t>
+  </si>
+  <si>
+    <t>142.536558_437.000000;142.507755_437.000000;142.478951_437.000000;142.450148_437.000000;142.421344_437.000000;142.392541_437.000000;142.363737_437.000000;142.334934_437.000000;142.306130_437.000000;142.277326_437.000000;142.248523_437.000000;142.219719_437.000000;142.190916_437.000000;142.162112_437.000000;142.133309_437.000000;142.104505_437.000000;142.075702_437.000000;142.046898_437.000000;142.018095_437.000000;141.989291_437.000000;141.960487_437.000000;141.931684_437.000000;141.902880_437.000000;141.874077_437.000000;141.845273_437.000000;141.816470_437.000000;141.787666_437.000000;141.758863_437.000000;141.730059_437.000000;141.701256_437.000000;141.672452_437.000000;141.643648_437.000000;141.614845_437.000000;141.586041_437.000000;141.557238_437.000000;141.528434_437.000000;141.499631_437.000000;141.470827_437.000000;141.442024_437.000000;141.413220_437.000000;141.384417_437.000000;141.355613_437.000000;141.326809_437.000000;141.298006_437.000000;141.269202_437.000000;141.240399_437.000000;141.211595_437.000000;141.182792_437.000000;141.153988_437.000000;141.125185_437.000000;141.096381_437.000000;141.067578_437.000000;141.038774_437.000000;141.009970_437.000000;140.981167_437.000000;140.952363_437.000000;140.923560_437.000000;140.894756_437.000000;140.865953_437.000000;140.837149_437.000000;140.808346_437.000000;140.779542_437.000000;140.750739_437.000000;140.721935_437.000000;140.693131_437.000000;140.664328_437.000000;140.635524_437.000000;140.606721_437.000000;140.577917_437.000000;140.549114_437.000000;140.520310_437.000000;140.491507_437.000000;140.462703_437.000000;140.433900_437.000000;140.405096_437.000000;140.376292_437.000000;140.347489_437.000000;140.318685_437.000000;140.289882_437.000000;140.261078_437.000000;140.232275_437.000000;140.203471_437.000000;140.174668_437.000000;140.145864_437.000000;140.117061_437.000000;140.088257_437.000000;140.059453_437.000000;140.030650_437.000000;140.001846_437.000000;139.973043_437.000000;139.944239_437.000000;139.915436_437.000000;139.886632_437.000000;139.857829_437.000000;139.829025_437.000000;139.800222_437.000000;139.771418_437.000000;139.742614_437.000000;139.713811_437.000000;139.685007_437.000000;139.656204_437.000000;139.627400_437.000000;139.598597_437.000000;139.569793_437.000000;139.540990_437.000000;139.512186_437.000000;139.483383_437.000000;139.454579_437.000000;139.425775_437.000000;139.396972_437.000000;139.368168_437.000000;139.339365_437.000000;139.310561_437.000000;139.281758_437.000000;139.252954_437.000000;139.224151_437.000000;139.195347_437.000000;139.166544_437.000000;139.137740_437.000000;139.108936_437.000000;139.080133_437.000000;139.051329_437.000000;139.022526_437.000000;138.993722_437.000000;138.964919_437.000000;138.936115_437.000000;138.907312_437.000000;138.878508_437.000000;138.849705_437.000000;138.820901_437.000000;138.792097_437.000000;138.763294_437.000000;138.734490_437.000000;138.705687_437.000000;138.676883_437.000000;138.648080_437.000000;138.619276_437.000000;138.590473_437.000000;138.561669_437.000000;138.532866_437.000000;138.504062_437.000000;138.475258_437.000000;138.446455_437.000000;138.417651_437.000000;138.388848_437.000000;138.360044_437.000000;138.331241_437.000000;138.302437_437.000000;138.273634_437.000000;138.244830_437.000000;138.216027_437.000000;138.187223_437.000000;138.158419_437.000000;138.129616_437.000000;138.100812_437.000000;138.072009_437.000000;138.043205_437.000000;138.014402_437.000000;137.985598_437.000000;137.956795_437.000000;137.927991_437.000000;137.899188_437.000000;137.870384_437.000000;137.841581_437.000000;137.812777_437.000000;137.783973_437.000000;137.755170_437.000000;137.726366_437.000000;137.697563_437.000000;137.668759_437.000000;137.639956_437.000000;137.611152_437.000000;137.582349_437.000000;137.553545_437.000000;137.524742_437.000000;137.495938_437.000000;137.467134_437.000000;137.438331_437.000000;137.409527_437.000000;137.380724_437.000000;137.351920_437.000000;137.323117_437.000000;137.294313_437.000000;137.265510_437.000000;137.236706_437.000000;137.207903_437.000000;137.179099_437.000000;137.150295_437.000000;137.121492_437.000000;137.092688_437.000000;137.063885_437.000000;137.035081_437.000000;137.006278_437.000000;136.977474_437.000000;136.948671_437.000000;136.919867_437.000000;136.891064_437.000000;136.862260_437.000000;136.833456_437.000000;136.804653_437.000000;136.775849_437.000000;136.747046_437.000000;136.718242_437.000000;136.689439_437.000000;136.660635_437.000000;136.631832_437.000000;136.603028_437.000000;136.574225_437.000000;136.545421_437.000000;136.516617_437.000000;136.487814_437.000000;136.459010_437.000000;136.430207_437.000000;136.401403_437.000000;136.372600_437.000000;136.343796_437.000000;136.314993_437.000000;136.286189_437.000000;136.257386_437.000000;136.228582_437.000000;136.199778_437.000000;136.170975_437.000000;136.142171_437.000000;136.113368_437.000000;136.084564_437.000000;136.055761_437.000000;136.026957_437.000000;135.998154_437.000000;135.969350_437.000000;135.940547_437.000000;135.911743_437.000000;135.882939_437.000000;135.854136_437.000000;135.825332_437.000000;135.796529_437.000000;135.767725_437.000000;135.738922_437.000000;135.710118_437.000000;135.681315_437.000000;135.652511_437.000000;135.623708_437.000000;135.594904_437.000000;135.566100_437.000000;135.537297_437.000000;135.508493_437.000000;135.479690_437.000000;135.450886_437.000000;135.422083_437.000000;135.393279_437.000000;135.364476_437.000000;135.335672_437.000000;135.306869_437.000000;135.278065_437.000000;135.249261_437.000000;135.220458_437.000000;135.191654_437.000000;135.162851_437.000000;135.134047_437.000000;135.105244_437.000000;135.076440_437.000000;135.047637_437.000000;135.018833_437.000000;134.990030_437.000000;134.961226_437.000000;134.932422_437.000000;134.903619_437.000000;134.874815_437.000000;134.846012_437.000000;134.817208_437.000000;134.788405_437.000000;134.759601_437.000000;134.730798_437.000000;134.701994_437.000000;134.673191_437.000000;134.644387_437.000000;134.615583_437.000000;134.586780_437.000000;134.557976_437.000000;134.529173_437.000000;134.500369_437.000000;134.471566_437.000000;134.442762_437.000000;134.413959_437.000000;134.385155_437.000000;134.356352_437.000000;134.327548_437.000000;134.298744_437.000000;134.269941_437.000000;134.241137_437.000000;134.212334_437.000000;134.183530_437.000000;134.154727_437.000000;134.125923_437.000000;134.097120_437.000000;134.068316_437.000000;134.039513_437.000000;134.010709_437.000000;133.981905_437.000000;133.953102_437.000000;133.924298_437.000000;</t>
+  </si>
+  <si>
+    <t>133.924298_437.000000;133.895495_437.000000;133.866691_437.000000;133.837888_437.000000;133.809084_437.000000;133.780281_437.000000;133.751477_437.000000;133.722674_437.000000;133.693870_437.000000;133.665066_437.000000;133.636263_437.000000;133.607459_437.000000;133.578656_437.000000;133.549852_437.000000;133.521049_437.000000;133.492245_437.000000;133.463442_437.000000;133.434638_437.000000;133.405835_437.000000;133.377031_437.000000;133.348227_437.000000;133.319424_437.000000;133.290620_437.000000;133.261817_437.000000;133.233013_437.000000;133.204210_437.000000;133.175406_437.000000;133.146603_437.000000;133.117799_437.000000;133.088996_437.000000;133.060192_437.000000;133.031388_437.000000;133.002585_437.000000;132.973781_437.000000;132.944978_437.000000;132.916174_437.000000;132.887371_437.000000;132.858567_437.000000;132.829764_437.000000;132.800960_437.000000;132.772157_437.000000;132.743353_437.000000;132.714549_437.000000;132.685746_437.000000;132.656942_437.000000;132.628139_437.000000;132.599335_437.000000;132.570532_437.000000;132.541728_437.000000;132.512925_437.000000;132.484121_437.000000;132.455318_437.000000;132.426514_437.000000;132.397710_437.000000;132.368907_437.000000;132.340103_437.000000;132.311300_437.000000;132.282496_437.000000;132.253693_437.000000;132.224889_437.000000;132.196086_437.000000;132.167282_437.000000;132.138479_437.000000;132.109675_437.000000;132.080871_437.000000;132.052068_437.000000;132.023264_437.000000;131.994461_437.000000;131.965657_437.000000;131.936854_437.000000;131.908050_437.000000;131.879247_437.000000;131.850443_437.000000;131.821640_437.000000;131.792836_437.000000;131.764032_437.000000;131.735229_437.000000;131.706425_437.000000;131.677622_437.000000;131.648818_437.000000;131.620015_437.000000;131.591211_437.000000;131.562408_437.000000;131.533604_437.000000;131.504801_437.000000;131.475997_437.000000;131.447194_437.000000;131.418390_437.000000;131.389586_437.000000;131.360783_437.000000;131.331979_437.000000;131.303176_437.000000;131.274372_437.000000;131.245569_437.000000;131.216765_437.000000;131.187962_437.000000;131.159158_437.000000;131.130355_437.000000;131.101551_437.000000;131.072747_437.000000;131.043944_437.000000;131.015140_437.000000;130.986337_437.000000;130.957533_437.000000;130.928730_437.000000;130.899926_437.000000;130.871123_437.000000;130.842319_437.000000;130.813516_437.000000;130.784712_437.000000;130.755908_437.000000;130.727105_437.000000;130.698301_437.000000;130.669498_437.000000;130.640694_437.000000;130.611891_437.000000;130.583087_437.000000;130.554284_437.000000;130.525480_437.000000;130.496677_437.000000;130.467873_437.000000;130.439069_437.000000;130.410266_437.000000;130.381462_437.000000;130.352659_437.000000;130.323855_437.000000;130.295052_437.000000;130.266248_437.000000;130.237445_437.000000;130.208641_437.000000;130.179838_437.000000;130.151034_437.000000;130.122230_437.000000;130.093427_437.000000;130.064623_437.000000;130.035820_437.000000;130.007016_437.000000;129.978213_437.000000;129.949409_437.000000;129.920606_437.000000;129.891802_437.000000;129.862999_437.000000;129.834195_437.000000;129.805391_437.000000;129.776588_437.000000;129.747784_437.000000;129.718981_437.000000;129.690177_437.000000;129.661374_437.000000;129.632570_437.000000;129.603767_437.000000;129.574963_437.000000;129.546160_437.000000;129.517356_437.000000;129.488552_437.000000;129.459749_437.000000;129.430945_437.000000;129.402142_437.000000;129.373338_437.000000;129.344535_437.000000;129.315731_437.000000;129.286928_437.000000;129.258124_437.000000;129.229321_437.000000;129.200517_437.000000;129.171713_437.000000;129.142910_437.000000;129.114106_437.000000;129.085303_437.000000;129.056499_437.000000;129.027696_437.000000;128.998892_437.000000;128.970089_437.000000;128.941285_437.000000;128.912482_437.000000;128.883678_437.000000;128.854874_437.000000;128.826071_437.000000;128.797267_437.000000;128.768464_437.000000;128.739660_437.000000;128.710857_437.000000;128.682053_437.000000;128.653250_437.000000;128.624446_437.000000;128.595643_437.000000;128.566839_437.000000;128.538035_437.000000;128.509232_437.000000;128.480428_437.000000;128.451625_437.000000;128.422821_437.000000;128.394018_437.000000;128.365214_437.000000;128.336411_437.000000;128.307607_437.000000;128.278804_437.000000;128.250000_437.000000;128.221196_437.000000;128.192393_437.000000;128.163589_437.000000;128.134786_437.000000;128.105982_437.000000;128.077179_437.000000;128.048375_437.000000;128.019572_437.000000;127.990768_437.000000;127.961965_437.000000;127.933161_437.000000;127.904357_437.000000;127.875554_437.000000;127.846750_437.000000;127.817947_437.000000;127.789143_437.000000;127.760340_437.000000;127.731536_437.000000;127.702733_437.000000;127.673929_437.000000;127.645126_437.000000;127.616322_437.000000;127.587518_437.000000;127.558715_437.000000;127.529911_437.000000;127.501108_437.000000;127.472304_437.000000;127.443501_437.000000;127.414697_437.000000;127.385894_437.000000;127.357090_437.000000;127.328287_437.000000;127.299483_437.000000;127.270679_437.000000;127.241876_437.000000;127.213072_437.000000;127.184269_437.000000;127.155465_437.000000;127.126662_437.000000;127.097858_437.000000;127.069055_437.000000;127.040251_437.000000;127.011448_437.000000;126.982644_437.000000;126.953840_437.000000;126.925037_437.000000;126.896233_437.000000;126.867430_437.000000;126.838626_437.000000;126.809823_437.000000;126.781019_437.000000;126.752216_437.000000;126.723412_437.000000;126.694609_437.000000;126.665805_437.000000;126.637001_437.000000;126.608198_437.000000;126.579394_437.000000;126.550591_437.000000;126.521787_437.000000;126.492984_437.000000;126.464180_437.000000;126.435377_437.000000;126.406573_437.000000;126.377770_437.000000;126.348966_437.000000;126.320162_437.000000;126.291359_437.000000;126.262555_437.000000;126.233752_437.000000;126.204948_437.000000;126.176145_437.000000;126.147341_437.000000;126.118538_437.000000;126.089734_437.000000;126.060931_437.000000;126.032127_437.000000;126.003323_437.000000;125.974520_437.000000;125.945716_437.000000;125.916913_437.000000;125.888109_437.000000;125.859306_437.000000;125.830502_437.000000;125.801699_437.000000;125.772895_437.000000;125.744092_437.000000;125.715288_437.000000;125.686484_437.000000;125.657681_437.000000;125.628877_437.000000;125.600074_437.000000;125.571270_437.000000;125.542467_437.000000;125.513663_437.000000;125.484860_437.000000;125.456056_437.000000;125.427253_437.000000;125.398449_437.000000;125.369645_437.000000;125.340842_437.000000;125.312038_437.000000;</t>
+  </si>
+  <si>
+    <t>125.312038_437.000000;125.283235_437.000000;125.254431_437.000000;125.225628_437.000000;125.196824_437.000000;125.168021_437.000000;125.139217_437.000000;125.110414_437.000000;125.081610_437.000000;125.052806_437.000000;125.024003_437.000000;124.995199_437.000000;124.966396_437.000000;124.937592_437.000000;124.908789_437.000000;124.879985_437.000000;124.851182_437.000000;124.822378_437.000000;124.793575_437.000000;124.764771_437.000000;124.735968_437.000000;124.707164_437.000000;124.678360_437.000000;124.649557_437.000000;124.620753_437.000000;124.591950_437.000000;124.563146_437.000000;124.534343_437.000000;124.505539_437.000000;124.476736_437.000000;124.447932_437.000000;124.419129_437.000000;124.390325_437.000000;124.361521_437.000000;124.332718_437.000000;124.303914_437.000000;124.275111_437.000000;124.246307_437.000000;124.217504_437.000000;124.188700_437.000000;124.159897_437.000000;124.131093_437.000000;124.102290_437.000000;124.073486_437.000000;124.044682_437.000000;124.015879_437.000000;123.987075_437.000000;123.958272_437.000000;123.929468_437.000000;123.900665_437.000000;123.871861_437.000000;123.843058_437.000000;123.814254_437.000000;123.785451_437.000000;123.756647_437.000000;123.727843_437.000000;123.699040_437.000000;123.670236_437.000000;123.641433_437.000000;123.612629_437.000000;123.583826_437.000000;123.555022_437.000000;123.526219_437.000000;123.497415_437.000000;123.468612_437.000000;123.439808_437.000000;123.411004_437.000000;123.382201_437.000000;123.353397_437.000000;123.324594_437.000000;123.295790_437.000000;123.266987_437.000000;123.238183_437.000000;123.209380_437.000000;123.180576_437.000000;123.151773_437.000000;123.122969_437.000000;123.094165_437.000000;123.065362_437.000000;123.036558_437.000000;123.007755_437.000000;122.978951_437.000000;122.950148_437.000000;122.921344_437.000000;122.892541_437.000000;122.863737_437.000000;122.834934_437.000000;122.806130_437.000000;122.777326_437.000000;122.748523_437.000000;122.719719_437.000000;122.690916_437.000000;122.662112_437.000000;122.633309_437.000000;122.604505_437.000000;122.575702_437.000000;122.546898_437.000000;122.518095_437.000000;122.489291_437.000000;122.460487_437.000000;122.431684_437.000000;122.402880_437.000000;122.374077_437.000000;122.345273_437.000000;122.316470_437.000000;122.287666_437.000000;122.258863_437.000000;122.230059_437.000000;122.201256_437.000000;122.172452_437.000000;122.143648_437.000000;122.114845_437.000000;122.086041_437.000000;122.057238_437.000000;122.028434_437.000000;121.999631_437.000000;121.970827_437.000000;121.942024_437.000000;121.913220_437.000000;121.884417_437.000000;121.855613_437.000000;121.826809_437.000000;121.798006_437.000000;121.769202_437.000000;121.740399_437.000000;121.711595_437.000000;121.682792_437.000000;121.653988_437.000000;121.625185_437.000000;121.596381_437.000000;121.567578_437.000000;121.538774_437.000000;121.509970_437.000000;121.481167_437.000000;121.452363_437.000000;121.423560_437.000000;121.394756_437.000000;121.365953_437.000000;121.337149_437.000000;121.308346_437.000000;121.279542_437.000000;121.250739_437.000000;121.221935_437.000000;121.193131_437.000000;121.164328_437.000000;121.135524_437.000000;121.106721_437.000000;121.077917_437.000000;121.049114_437.000000;121.020310_437.000000;120.991507_437.000000;120.962703_437.000000;120.933900_437.000000;120.905096_437.000000;120.876292_437.000000;120.847489_437.000000;120.818685_437.000000;120.789882_437.000000;120.761078_437.000000;120.732275_437.000000;120.703471_437.000000;120.674668_437.000000;120.645864_437.000000;120.617061_437.000000;120.588257_437.000000;120.559453_437.000000;120.530650_437.000000;120.501846_437.000000;120.473043_437.000000;120.444239_437.000000;120.415436_437.000000;120.386632_437.000000;120.357829_437.000000;120.329025_437.000000;120.300222_437.000000;120.271418_437.000000;120.242614_437.000000;120.213811_437.000000;120.185007_437.000000;120.156204_437.000000;120.127400_437.000000;120.098597_437.000000;120.069793_437.000000;120.040990_437.000000;120.012186_437.000000;119.983383_437.000000;119.954579_437.000000;119.925775_437.000000;119.896972_437.000000;119.868168_437.000000;119.839365_437.000000;119.810561_437.000000;119.781758_437.000000;119.752954_437.000000;119.724151_437.000000;119.695347_437.000000;119.666544_437.000000;119.637740_437.000000;119.608936_437.000000;119.580133_437.000000;119.551329_437.000000;119.522526_437.000000;119.493722_437.000000;119.464919_437.000000;119.436115_437.000000;119.407312_437.000000;119.378508_437.000000;119.349705_437.000000;119.320901_437.000000;119.292097_437.000000;119.263294_437.000000;119.234490_437.000000;119.205687_437.000000;119.176883_437.000000;119.148080_437.000000;119.119276_437.000000;119.090473_437.000000;119.061669_437.000000;119.032866_437.000000;119.004062_437.000000;118.975258_437.000000;118.946455_437.000000;118.917651_437.000000;118.888848_437.000000;118.860044_437.000000;118.831241_437.000000;118.802437_437.000000;118.773634_437.000000;118.744830_437.000000;118.716027_437.000000;118.687223_437.000000;118.658419_437.000000;118.629616_437.000000;118.600812_437.000000;118.572009_437.000000;118.543205_437.000000;118.514402_437.000000;118.485598_437.000000;118.456795_437.000000;118.427991_437.000000;118.399188_437.000000;118.370384_437.000000;118.341581_437.000000;118.312777_437.000000;118.283973_437.000000;118.255170_437.000000;118.226366_437.000000;118.197563_437.000000;118.168759_437.000000;118.139956_437.000000;118.111152_437.000000;118.082349_437.000000;118.053545_437.000000;118.024742_437.000000;117.995938_437.000000;117.967134_437.000000;117.938331_437.000000;117.909527_437.000000;117.880724_437.000000;117.851920_437.000000;117.823117_437.000000;117.794313_437.000000;117.765510_437.000000;117.736706_437.000000;117.707903_437.000000;117.679099_437.000000;117.650295_437.000000;117.621492_437.000000;117.592688_437.000000;117.563885_437.000000;117.535081_437.000000;117.506278_437.000000;117.477474_437.000000;117.448671_437.000000;117.419867_437.000000;117.391064_437.000000;117.362260_437.000000;117.333456_437.000000;117.304653_437.000000;117.275849_437.000000;117.247046_437.000000;117.218242_437.000000;117.189439_437.000000;117.160635_437.000000;117.131832_437.000000;117.103028_437.000000;117.074225_437.000000;117.045421_437.000000;117.016617_437.000000;116.987814_437.000000;116.959010_437.000000;116.930207_437.000000;116.901403_437.000000;116.872600_437.000000;116.843796_437.000000;116.814993_437.000000;116.786189_437.000000;116.757386_437.000000;116.728582_437.000000;116.699778_437.000000;</t>
+  </si>
+  <si>
+    <t>116.699778_437.000000;116.670975_437.000000;116.642171_437.000000;116.613368_437.000000;116.584564_437.000000;116.555761_437.000000;116.526957_437.000000;116.498154_437.000000;116.469350_437.000000;116.440547_437.000000;116.411743_437.000000;116.382939_437.000000;116.354136_437.000000;116.325332_437.000000;116.296529_437.000000;116.267725_437.000000;116.238922_437.000000;116.210118_437.000000;116.181315_437.000000;116.152511_437.000000;116.123708_437.000000;116.094904_437.000000;116.066100_437.000000;116.037297_437.000000;116.008493_437.000000;115.979690_437.000000;115.950886_437.000000;115.922083_437.000000;115.893279_437.000000;115.864476_437.000000;115.835672_437.000000;115.806869_437.000000;115.778065_437.000000;115.749261_437.000000;115.720458_437.000000;115.691654_437.000000;115.662851_437.000000;115.634047_437.000000;115.605244_437.000000;115.576440_437.000000;115.547637_437.000000;115.518833_437.000000;115.490030_437.000000;115.461226_437.000000;115.432422_437.000000;115.403619_437.000000;115.374815_437.000000;115.346012_437.000000;115.317208_437.000000;115.288405_437.000000;115.259601_437.000000;115.230798_437.000000;115.201994_437.000000;115.173191_437.000000;115.144387_437.000000;115.115583_437.000000;115.086780_437.000000;115.057976_437.000000;115.029173_437.000000;115.000369_437.000000;114.971566_437.000000;114.942762_437.000000;114.913959_437.000000;114.885155_437.000000;114.856352_437.000000;114.827548_437.000000;114.798744_437.000000;114.769941_437.000000;114.741137_437.000000;114.712334_437.000000;114.683530_437.000000;114.654727_437.000000;114.625923_437.000000;114.597120_437.000000;114.568316_437.000000;114.539513_437.000000;114.510709_437.000000;114.481905_437.000000;114.453102_437.000000;114.424298_437.000000;114.395495_437.000000;114.366691_437.000000;114.337888_437.000000;114.309084_437.000000;114.280281_437.000000;114.251477_437.000000;114.222674_437.000000;114.193870_437.000000;114.165066_437.000000;114.136263_437.000000;114.107459_437.000000;114.078656_437.000000;114.049852_437.000000;114.021049_437.000000;113.992245_437.000000;113.963442_437.000000;113.934638_437.000000;113.905835_437.000000;113.877031_437.000000;113.848227_437.000000;113.819424_437.000000;113.790620_437.000000;113.761817_437.000000;113.733013_437.000000;113.704210_437.000000;113.675406_437.000000;113.646603_437.000000;113.617799_437.000000;113.588996_437.000000;113.560192_437.000000;113.531388_437.000000;113.502585_437.000000;113.473781_437.000000;113.444978_437.000000;113.416174_437.000000;113.387371_437.000000;113.358567_437.000000;113.329764_437.000000;113.300960_437.000000;113.272157_437.000000;113.243353_437.000000;113.214549_437.000000;113.185746_437.000000;113.156942_437.000000;113.128139_437.000000;113.099335_437.000000;113.070532_437.000000;113.041728_437.000000;113.012925_437.000000;112.984121_437.000000;112.955318_437.000000;112.926514_437.000000;112.897710_437.000000;112.868907_437.000000;112.840103_437.000000;112.811300_437.000000;112.782496_437.000000;112.753693_437.000000;112.724889_437.000000;112.696086_437.000000;112.667282_437.000000;112.638479_437.000000;112.609675_437.000000;112.580871_437.000000;112.552068_437.000000;112.523264_437.000000;112.494461_437.000000;112.465657_437.000000;112.436854_437.000000;112.408050_437.000000;112.379247_437.000000;112.350443_437.000000;112.321640_437.000000;112.292836_437.000000;112.264032_437.000000;112.235229_437.000000;112.206425_437.000000;112.177622_437.000000;112.148818_437.000000;112.120015_437.000000;112.091211_437.000000;112.062408_437.000000;112.033604_437.000000;112.004801_437.000000;111.975997_437.000000;111.947194_437.000000;111.918390_437.000000;111.889586_437.000000;111.860783_437.000000;111.831979_437.000000;111.803176_437.000000;111.774372_437.000000;111.745569_437.000000;111.716765_437.000000;111.687962_437.000000;111.659158_437.000000;111.630355_437.000000;111.601551_437.000000;111.572747_437.000000;111.543944_437.000000;111.515140_437.000000;111.486337_437.000000;111.457533_437.000000;111.428730_437.000000;111.399926_437.000000;111.371123_437.000000;111.342319_437.000000;111.313516_437.000000;111.284712_437.000000;111.255908_437.000000;111.227105_437.000000;111.198301_437.000000;111.169498_437.000000;111.140694_437.000000;111.111891_437.000000;111.083087_437.000000;111.054284_437.000000;111.025480_437.000000;110.996677_437.000000;110.967873_437.000000;110.939069_437.000000;110.910266_437.000000;110.881462_437.000000;110.852659_437.000000;110.823855_437.000000;110.795052_437.000000;110.766248_437.000000;110.737445_437.000000;110.708641_437.000000;110.679838_437.000000;110.651034_437.000000;110.622230_437.000000;110.593427_437.000000;110.564623_437.000000;110.535820_437.000000;110.507016_437.000000;110.478213_437.000000;110.449409_437.000000;110.420606_437.000000;110.391802_437.000000;110.362999_437.000000;110.334195_437.000000;110.305391_437.000000;110.276588_437.000000;110.247784_437.000000;110.218981_437.000000;110.190177_437.000000;110.161374_437.000000;110.132570_437.000000;110.103767_437.000000;110.074963_437.000000;110.046160_437.000000;110.017356_437.000000;109.988552_437.000000;109.959749_437.000000;109.930945_437.000000;109.902142_437.000000;109.873338_437.000000;109.844535_437.000000;109.815731_437.000000;109.786928_437.000000;109.758124_437.000000;109.729321_437.000000;109.700517_437.000000;109.671713_437.000000;109.642910_437.000000;109.614106_437.000000;109.585303_437.000000;109.556499_437.000000;109.527696_437.000000;109.498892_437.000000;109.470089_437.000000;109.441285_437.000000;109.412482_437.000000;109.383678_437.000000;109.354874_437.000000;109.326071_437.000000;109.297267_437.000000;109.268464_437.000000;109.239660_437.000000;109.210857_437.000000;109.182053_437.000000;109.153250_437.000000;109.124446_437.000000;109.095643_437.000000;109.066839_437.000000;109.038035_437.000000;109.009232_437.000000;108.980428_437.000000;108.951625_437.000000;108.922821_437.000000;108.894018_437.000000;108.865214_437.000000;108.836411_437.000000;108.807607_437.000000;108.778804_437.000000;108.750000_437.000000;108.721196_437.000000;108.692393_437.000000;108.663589_437.000000;108.634786_437.000000;108.605982_437.000000;108.577179_437.000000;108.548375_437.000000;108.519572_437.000000;108.490768_437.000000;108.461965_437.000000;108.433161_437.000000;108.404357_437.000000;108.375554_437.000000;108.346750_437.000000;108.317947_437.000000;108.289143_437.000000;108.260340_437.000000;108.231536_437.000000;108.202733_437.000000;108.173929_437.000000;108.145126_437.000000;108.116322_437.000000;108.087518_437.000000;</t>
+  </si>
+  <si>
+    <t>108.087518_437.000000;108.058715_437.000000;108.029911_437.000000;108.001108_437.000000;107.972304_437.000000;107.943501_437.000000;107.914697_437.000000;107.885894_437.000000;107.857090_437.000000;107.828287_437.000000;107.799483_437.000000;107.770679_437.000000;107.741876_437.000000;107.713072_437.000000;107.684269_437.000000;107.655465_437.000000;107.626662_437.000000;107.597858_437.000000;107.569055_437.000000;107.540251_437.000000;107.511448_437.000000;107.482644_437.000000;107.453840_437.000000;107.425037_437.000000;107.396233_437.000000;107.367430_437.000000;107.338626_437.000000;107.309823_437.000000;107.281019_437.000000;107.252216_437.000000;107.223412_437.000000;107.194609_437.000000;107.165805_437.000000;107.137001_437.000000;107.108198_437.000000;107.079394_437.000000;107.050591_437.000000;107.021787_437.000000;106.992984_437.000000;106.964180_437.000000;106.935377_437.000000;106.906573_437.000000;106.877770_437.000000;106.848966_437.000000;106.820162_437.000000;106.791359_437.000000;106.762555_437.000000;106.733752_437.000000;106.704948_437.000000;106.676145_437.000000;106.647341_437.000000;106.618538_437.000000;106.589734_437.000000;106.560931_437.000000;106.532127_437.000000;106.503323_437.000000;106.474520_437.000000;106.445716_437.000000;106.416913_437.000000;106.388109_437.000000;106.359306_437.000000;106.330502_437.000000;106.301699_437.000000;106.272895_437.000000;106.244092_437.000000;106.215288_437.000000;106.186484_437.000000;106.157681_437.000000;106.128877_437.000000;106.100074_437.000000;106.071270_437.000000;106.042467_437.000000;106.013663_437.000000;105.984860_437.000000;105.956056_437.000000;105.927253_437.000000;105.898449_437.000000;105.869645_437.000000;105.840842_437.000000;105.812038_437.000000;105.783235_437.000000;105.754431_437.000000;105.725628_437.000000;105.696824_437.000000;105.668021_437.000000;105.639217_437.000000;105.610414_437.000000;105.581610_437.000000;105.552806_437.000000;105.524003_437.000000;105.495199_437.000000;105.466396_437.000000;105.437592_437.000000;105.408789_437.000000;105.379985_437.000000;105.351182_437.000000;105.322378_437.000000;105.293575_437.000000;105.264771_437.000000;105.235968_437.000000;105.207164_437.000000;105.178360_437.000000;105.149557_437.000000;105.120753_437.000000;105.091950_437.000000;105.063146_437.000000;105.034343_437.000000;105.005539_437.000000;104.976736_437.000000;104.947932_437.000000;104.919129_437.000000;104.890325_437.000000;104.861521_437.000000;104.832718_437.000000;104.803914_437.000000;104.775111_437.000000;104.746307_437.000000;104.717504_437.000000;104.688700_437.000000;104.659897_437.000000;104.631093_437.000000;104.602290_437.000000;104.573486_437.000000;104.544682_437.000000;104.515879_437.000000;104.487075_437.000000;104.458272_437.000000;104.429468_437.000000;104.400665_437.000000;104.371861_437.000000;104.343058_437.000000;104.314254_437.000000;104.285451_437.000000;104.256647_437.000000;104.227843_437.000000;104.199040_437.000000;104.170236_437.000000;104.141433_437.000000;104.112629_437.000000;104.083826_437.000000;104.055022_437.000000;104.026219_437.000000;103.997415_437.000000;103.968612_437.000000;103.939808_437.000000;103.911004_437.000000;103.882201_437.000000;103.853397_437.000000;103.824594_437.000000;103.795790_437.000000;103.766987_437.000000;103.738183_437.000000;103.709380_437.000000;103.680576_437.000000;103.651773_437.000000;103.622969_437.000000;103.594165_437.000000;103.565362_437.000000;103.536558_437.000000;103.507755_437.000000;103.478951_437.000000;103.450148_437.000000;103.421344_437.000000;103.392541_437.000000;103.363737_437.000000;103.334934_437.000000;103.306130_437.000000;103.277326_437.000000;103.248523_437.000000;103.219719_437.000000;103.190916_437.000000;103.162112_437.000000;103.133309_437.000000;103.104505_437.000000;103.075702_437.000000;103.046898_437.000000;103.018095_437.000000;102.989291_437.000000;102.960487_437.000000;102.931684_437.000000;102.902880_437.000000;102.874077_437.000000;102.845273_437.000000;102.816470_437.000000;102.787666_437.000000;102.758863_437.000000;102.730059_437.000000;102.701256_437.000000;102.672452_437.000000;102.643648_437.000000;102.614845_437.000000;102.586041_437.000000;102.557238_437.000000;102.528434_437.000000;102.499631_437.000000;102.470827_437.000000;102.442024_437.000000;102.413220_437.000000;102.384417_437.000000;102.355613_437.000000;102.326809_437.000000;102.298006_437.000000;102.269202_437.000000;102.240399_437.000000;102.211595_437.000000;102.182792_437.000000;102.153988_437.000000;102.125185_437.000000;102.096381_437.000000;102.067578_437.000000;102.038774_437.000000;102.009970_437.000000;101.981167_437.000000;101.952363_437.000000;101.923560_437.000000;101.894756_437.000000;101.865953_437.000000;101.837149_437.000000;101.808346_437.000000;101.779542_437.000000;101.750739_437.000000;101.721935_437.000000;101.693131_437.000000;101.664328_437.000000;101.635524_437.000000;101.606721_437.000000;101.577917_437.000000;101.549114_437.000000;101.520310_437.000000;101.491507_437.000000;101.462703_437.000000;101.433900_437.000000;101.405096_437.000000;101.376292_437.000000;101.347489_437.000000;101.318685_437.000000;101.289882_437.000000;101.261078_437.000000;101.232275_437.000000;101.203471_437.000000;101.174668_437.000000;101.145864_437.000000;101.117061_437.000000;101.088257_437.000000;101.059453_437.000000;101.030650_437.000000;101.001846_437.000000;100.973043_437.000000;100.944239_437.000000;100.915436_437.000000;100.886632_437.000000;100.857829_437.000000;100.829025_437.000000;100.800222_437.000000;100.771418_437.000000;100.742614_437.000000;100.713811_437.000000;100.685007_437.000000;100.656204_437.000000;100.627400_437.000000;100.598597_437.000000;100.569793_437.000000;100.540990_437.000000;100.512186_437.000000;100.483383_437.000000;100.454579_437.000000;100.425775_437.000000;100.396972_437.000000;100.368168_437.000000;100.339365_437.000000;100.310561_437.000000;100.281758_437.000000;100.252954_437.000000;100.224151_437.000000;100.195347_437.000000;100.166544_437.000000;100.137740_437.000000;100.108936_437.000000;100.080133_437.000000;100.051329_437.000000;100.022526_437.000000;99.993722_437.000000;99.964919_437.000000;99.936115_437.000000;99.907312_437.000000;99.878508_437.000000;99.849705_437.000000;99.820901_437.000000;99.792097_437.000000;99.763294_437.000000;99.734490_437.000000;99.705687_437.000000;99.676883_437.000000;99.648080_437.000000;99.619276_437.000000;99.590473_437.000000;99.561669_437.000000;99.532866_437.000000;99.504062_437.000000;99.475258_437.000000;</t>
+  </si>
+  <si>
+    <t>97.918685_437.000000;97.756055_437.000000;97.593426_437.000000;97.430796_437.000000;97.268166_437.000000;97.105536_437.000000;96.942907_437.000000;96.780277_437.000000;96.617647_437.000000;96.455017_437.000000;96.292388_437.000000;96.129758_437.000000;95.967128_437.000000;95.804498_437.000000;95.641869_437.000000;95.479239_437.000000;95.316609_437.000000;95.153979_437.000000;94.991349_437.000000;94.828720_437.000000;94.666090_437.000000;94.503460_437.000000;94.340830_437.000000;94.178201_437.000000;94.015571_437.000000;93.852941_437.000000;93.690311_437.000000;93.527682_437.000000;93.365052_437.000000;93.202422_437.000000;93.039792_437.000000;92.877163_437.000000;92.714533_437.000000;92.551903_437.000000;92.389273_437.000000;92.226644_437.000000;92.064014_437.000000;91.901384_437.000000;91.738754_437.000000;91.576125_437.000000;91.413495_437.000000;91.250865_437.000000;91.088235_437.000000;90.925606_437.000000;90.762976_437.000000;90.600346_437.000000;90.437716_437.000000;90.275087_437.000000;90.112457_437.000000;89.949827_437.000000;89.787197_437.000000;89.624567_437.000000;89.461938_437.000000;89.299308_437.000000;89.136678_437.000000;88.974048_437.000000;88.811419_437.000000;88.648789_437.000000;88.486159_437.000000;88.323529_437.000000;88.160900_437.000000;87.998270_437.000000;87.835640_437.000000;87.673010_437.000000;87.510381_437.000000;87.347751_437.000000;87.185121_437.000000;87.022491_437.000000;86.859862_437.000000;86.697232_437.000000;86.534602_437.000000;86.371972_437.000000;86.209343_437.000000;86.046713_437.000000;85.884083_437.000000;85.721453_437.000000;85.558824_437.000000;85.396194_437.000000;85.233564_437.000000;85.070934_437.000000;84.908304_437.000000;84.745675_437.000000;84.583045_437.000000;84.420415_437.000000;84.257785_437.000000;84.095156_437.000000;83.932526_437.000000;83.769896_437.000000;83.607266_437.000000;83.444637_437.000000;83.282007_437.000000;83.119377_437.000000;82.956747_437.000000;82.794118_437.000000;82.631488_437.000000;82.468858_437.000000;82.306228_437.000000;82.143599_437.000000;81.980969_437.000000;81.818339_437.000000;</t>
+  </si>
+  <si>
+    <t>81.818339_437.000000;81.655709_437.000000;81.493080_437.000000;81.330450_437.000000;81.167820_437.000000;81.005190_437.000000;80.842561_437.000000;80.679931_437.000000;80.517301_437.000000;80.354671_437.000000;80.192042_437.000000;80.029412_437.000000;79.866782_437.000000;79.704152_437.000000;79.541522_437.000000;79.378893_437.000000;79.216263_437.000000;79.053633_437.000000;78.891003_437.000000;78.728374_437.000000;78.565744_437.000000;78.403114_437.000000;78.240484_437.000000;78.077855_437.000000;77.915225_437.000000;77.752595_437.000000;77.589965_437.000000;77.427336_437.000000;77.264706_437.000000;77.102076_437.000000;76.939446_437.000000;76.776817_437.000000;76.614187_437.000000;76.451557_437.000000;76.288927_437.000000;76.126298_437.000000;75.963668_437.000000;75.801038_437.000000;75.638408_437.000000;75.475779_437.000000;75.313149_437.000000;75.150519_437.000000;74.987889_437.000000;74.825260_437.000000;74.662630_437.000000;74.500000_437.000000;74.337370_437.000000;74.174740_437.000000;74.012111_437.000000;73.849481_437.000000;73.686851_437.000000;73.524221_437.000000;73.361592_437.000000;73.198962_437.000000;73.036332_437.000000;72.873702_437.000000;72.711073_437.000000;72.548443_437.000000;72.385813_437.000000;72.223183_437.000000;72.060554_437.000000;71.897924_437.000000;71.735294_437.000000;71.572664_437.000000;71.410035_437.000000;71.247405_437.000000;71.084775_437.000000;70.922145_437.000000;70.759516_437.000000;70.596886_437.000000;70.434256_437.000000;70.271626_437.000000;70.108997_437.000000;69.946367_437.000000;69.783737_437.000000;69.621107_437.000000;69.458478_437.000000;69.295848_437.000000;69.133218_437.000000;68.970588_437.000000;68.807958_437.000000;68.645329_437.000000;68.482699_437.000000;68.320069_437.000000;68.157439_437.000000;67.994810_437.000000;67.832180_437.000000;</t>
+  </si>
+  <si>
+    <t>67.832180_437.000000;67.669550_437.000000;67.506920_437.000000;67.344291_437.000000;67.181661_437.000000;67.019031_437.000000;66.856401_437.000000;66.693772_437.000000;66.531142_437.000000;66.368512_437.000000;66.205882_437.000000;66.043253_437.000000;65.880623_437.000000;65.717993_437.000000;65.555363_437.000000;65.392734_437.000000;65.230104_437.000000;65.067474_437.000000;64.904844_437.000000;64.742215_437.000000;64.579585_437.000000;64.416955_437.000000;64.254325_437.000000;64.091696_437.000000;63.929066_437.000000;63.766436_437.000000;63.603806_437.000000;63.441176_437.000000;63.278547_437.000000;63.115917_437.000000;62.953287_437.000000;62.790657_437.000000;62.628028_437.000000;62.465398_437.000000;62.302768_437.000000;62.140138_437.000000;61.977509_437.000000;61.814879_437.000000;61.652249_437.000000;61.489619_437.000000;61.326990_437.000000;61.164360_437.000000;61.001730_437.000000;60.839100_437.000000;60.676471_437.000000;60.513841_437.000000;60.351211_437.000000;60.188581_437.000000;60.025952_437.000000;59.863322_437.000000;59.700692_437.000000;59.538062_437.000000;59.375433_437.000000;59.212803_437.000000;59.050173_437.000000;58.887543_437.000000;58.724913_437.000000;58.562284_437.000000;58.399654_437.000000;58.237024_437.000000;58.074394_437.000000;57.911765_437.000000;57.749135_437.000000;57.586505_437.000000;57.423875_437.000000;57.261246_437.000000;57.098616_437.000000;56.935986_437.000000;56.773356_437.000000;56.610727_437.000000;56.448097_437.000000;56.285467_437.000000;56.122837_437.000000;55.960208_437.000000;55.797578_437.000000;55.634948_437.000000;55.472318_437.000000;55.309689_437.000000;55.147059_437.000000;54.984429_437.000000;54.821799_437.000000;54.659170_437.000000;54.496540_437.000000;54.333910_437.000000;54.171280_437.000000;54.008651_437.000000;53.846021_437.000000;53.683391_437.000000;53.520761_437.000000;53.358131_437.000000;53.195502_437.000000;53.032872_437.000000;52.870242_437.000000;52.707612_437.000000;52.544983_437.000000;52.382353_437.000000;52.219723_437.000000;52.057093_437.000000;51.894464_437.000000;51.731834_437.000000;</t>
+  </si>
+  <si>
+    <t>50.920241_436.773897;50.760350_436.678043;50.599337_436.584099;50.436448_436.493469;50.270935_436.407768;50.102082_436.328920;49.929348_436.259081;49.752801_436.199547;49.573117_436.150231;49.391077_436.110401;49.207370_436.079027;49.022560_436.054851;48.837082_436.036297;48.651266_436.021325;48.465348_436.007610;48.279519_435.992795;48.094011_435.974538;47.909172_435.950601;47.725498_435.919087;47.543635_435.878510;47.364380_435.827715;47.188633_435.765916;47.017309_435.692768;46.850952_435.608882;46.689311_435.516145;46.531626_435.416775;46.377080_435.312558;46.224874_435.204933;46.074241_435.095104;45.924457_434.984117;45.774876_434.872855;45.624920_434.762100;45.474018_434.652643;45.321583_434.545340;45.167007_434.441160;45.009668_434.341223;44.849250_434.246315;44.686117_434.156129;44.521040_434.069528;44.354820_433.985126;44.188254_433.901402;44.022136_433.816801;43.857092_433.730132;43.693350_433.641026;43.530886_433.549608;43.369657_433.456029;43.209618_433.360428;43.050722_433.262938;42.893052_433.163480;42.737116_433.061340;42.583742_432.955411;42.433738_432.844780;42.287821_432.728827;42.146575_432.607236;42.010423_432.479969;41.879336_432.347476;41.752602_432.210790;41.629259_432.071022;41.508474_431.929029;41.389528_431.785487;41.271777_431.640960;41.154626_431.495945;41.037506_431.350905;40.919925_431.206239;40.801639_431.062149;40.682605_430.918677;40.562804_430.775843;40.442220_430.633672;40.320833_430.492185;40.198622_430.351408;40.075570_430.211368;39.951670_430.072076;39.827029_429.933446;39.701883_429.795272;39.576507_429.657305;</t>
+  </si>
+  <si>
+    <t>39.576507_429.657305;39.451181_429.519294;39.326184_429.380985;39.201788_429.242136;39.078257_429.102517;38.955841_428.961921;38.834784_428.820155;38.715317_428.677047;38.597650_428.532457;38.481965_428.386278;38.368411_428.238438;38.257112_428.088893;38.148158_427.937632;38.041617_427.784662;37.937490_427.630038;37.835630_427.473909;37.735784_427.316484;37.637709_427.157947;37.541194_426.998455;37.446050_426.838141;37.352107_426.677119;37.259211_426.515491;37.167220_426.353345;37.076006_426.190762;36.985447_426.027811;36.895444_425.864554;36.805917_425.701034;36.716801_425.537290;36.628032_425.373358;36.539548_425.209271;36.451289_425.045064;36.363196_424.880767;36.275212_424.716412;36.187280_424.552029;36.099342_424.387650;36.011343_424.223302;35.923254_424.059004;35.835108_423.894735;35.746981_423.730457;35.658949_423.566128;35.571089_423.401706;35.483475_423.237153;35.396182_423.072431;35.309279_422.907501;35.222835_422.742332;35.136912_422.576890;35.051574_422.411146;34.966885_422.245070;34.882974_422.078599;34.800032_421.911644;34.718247_421.744120;34.637780_421.575959;34.558768_421.407111;34.481317_421.237540;34.405510_421.067229;34.331405_420.896170;34.259036_420.724370;34.188421_420.551841;34.119558_420.378606;34.052433_420.204690;33.987022_420.030121;33.923294_419.854931;33.861219_419.679149;33.800758_419.502805;33.741869_419.325929;33.684504_419.148553;33.628614_418.970707;33.574148_418.792419;33.521052_418.613718;33.469275_418.434631;33.418766_418.255182;33.369474_418.075394;33.321349_417.895290;33.274344_417.714891;33.228414_417.534215;</t>
+  </si>
+  <si>
+    <t>33.228414_417.534215;33.183513_417.353280;33.139601_417.172103;33.096636_416.990699;33.054580_416.809082;33.013396_416.627265;32.973048_416.445261;32.933494_416.263082;32.894693_416.080741;32.856606_415.898250;32.819196_415.715619;32.782430_415.532857;32.746278_415.349973;32.710712_415.166974;32.675705_414.983866;32.641234_414.800658;32.607276_414.617353;32.573809_414.433958;32.540814_414.250478;32.508273_414.066917;32.476168_413.883278;32.444484_413.699567;32.413204_413.515786;32.382316_413.331940;32.351804_413.148030;32.321657_412.964060;32.291863_412.780033;32.262409_412.595951;32.233286_412.411816;32.204483_412.227631;32.175990_412.043398;32.147797_411.859118;32.119897_411.674794;32.092281_411.490427;32.064940_411.306019;32.037868_411.121572;32.011056_410.937087;31.984497_410.752564;31.958181_410.568008;31.932096_410.383418;31.906229_410.198798;31.880570_410.014148;31.855107_409.829472;31.829831_409.644770;31.804733_409.460043;31.779803_409.275294;31.755034_409.090523;31.730416_408.905732;31.705944_408.720922;31.681608_408.536093;31.657404_408.351247;31.633323_408.166386;31.609359_407.981508;31.585508_407.796617;31.561762_407.611712;31.538116_407.426794;31.514565_407.241864;31.491103_407.056922;31.467726_406.871970;31.444429_406.687008;31.421207_406.502036;31.398055_406.317056;31.374969_406.132067;31.351944_405.947071;31.328977_405.762067;31.306063_405.577057;31.283199_405.392041;31.260379_405.207019;31.237601_405.021992;31.214861_404.836961;31.192154_404.651925;31.169478_404.466886;31.146827_404.281843;31.124200_404.096798;31.101592_403.911750;</t>
+  </si>
+  <si>
+    <t>31.007577_402.350932;31.022733_402.150392;31.037891_401.949851;31.053052_401.749311;31.068220_401.548771;31.083394_401.348232;31.098576_401.147693;31.113769_400.947155;31.128974_400.746618;31.144192_400.546082;31.159425_400.345548;31.174675_400.145014;31.189943_399.944482;31.205231_399.743951;31.220541_399.543422;31.235874_399.342895;31.251233_399.142370;31.266618_398.941847;31.282032_398.741326;31.297476_398.540807;31.312953_398.340291;31.328464_398.139778;31.344012_397.939267;31.359597_397.738759;31.375223_397.538255;31.390892_397.337753;31.406605_397.137256;31.422364_396.936761;31.438173_396.736271;31.454033_396.535785;31.469946_396.335303;31.485916_396.134826;31.501944_395.934353;31.518034_395.733885;31.534188_395.533422;31.550408_395.332965;31.566698_395.132513;31.583061_394.932067;31.599500_394.731628;31.616017_394.531195;31.632618_394.330768;31.649304_394.130349;31.666079_393.929938;31.682949_393.729534;31.699915_393.529138;31.716984_393.328751;31.734158_393.128373;31.751443_392.928005;31.768843_392.727647;31.786365_392.527299;31.804012_392.326962;31.821790_392.126637;31.839707_391.926324;31.857767_391.726024;31.875978_391.525738;31.894347_391.325466;31.912882_391.125209;31.931590_390.924969;31.950480_390.724745;31.969562_390.524540;31.988845_390.324354;32.008341_390.124189;32.028056_389.924045;32.048000_389.723924;32.068179_389.523826;32.088599_389.323753;32.109268_389.123706;32.130195_388.923685;32.151387_388.723692;32.172853_388.523729;32.194602_388.323796;32.216644_388.123895;32.238990_387.924028;32.261650_387.724196;32.284635_387.524401;</t>
+  </si>
+  <si>
+    <t>32.331632_387.124931;32.355670_386.925261;32.380087_386.725636;32.404899_386.526060;32.430122_386.326536;32.455774_386.127066;32.481873_385.927654;32.508442_385.728305;32.535501_385.529021;32.563075_385.329808;32.591188_385.130670;32.619869_384.931614;32.649148_384.732644;32.679057_384.533769;32.709633_384.334994;32.740914_384.136330;32.772944_383.937785;32.805770_383.739370;32.839444_383.541097;32.874024_383.342981;32.909576_383.145036;32.946171_382.947282;32.983892_382.749740;33.022828_382.552434;33.063075_382.355391;33.104728_382.158641;33.147894_381.962218;33.192688_381.766160;33.239238_381.570512;33.287684_381.375325;33.338179_381.180659;33.390889_380.986582;33.445993_380.793172;33.503683_380.600518;33.564156_380.408720;33.627614_380.217891;33.694251_380.028150;33.764239_379.839620;33.837708_379.652420;33.914718_379.466649;33.995225_379.282366;34.079139_379.099609;34.166432_378.918443;34.257098_378.738940;34.351055_378.561137;34.448125_378.385012;34.548015_378.210470;34.650316_378.037326;34.754498_377.865305;34.859931_377.694046;34.965916_377.523127;35.071805_377.352149;35.177250_377.180895;35.282144_377.009305;35.386418_376.837337;35.490006_376.664955;35.592845_376.492126;35.694878_376.318819;35.796052_376.145009;35.896317_375.970674;35.995633_375.795796;36.094006_375.620386;36.191540_375.444508;36.288383_375.268249;36.384677_375.091688;36.480554_374.914901;36.576146_374.737959;36.671578_374.560931;36.766974_374.383883;36.862458_374.206883;36.958155_374.029997;37.054195_373.853299;37.150733_373.676872;37.247947_373.500816;37.346029_373.325244;</t>
+  </si>
+  <si>
+    <t>37.545645_372.976055;37.647660_372.802740;37.751515_372.630523;37.857536_372.459633;37.966100_372.290351;38.077602_372.122993;38.192329_371.957830;38.310462_371.795089;38.432174_371.635011;38.557643_371.477862;38.687045_371.323939;38.820553_371.173568;38.958335_371.027109;39.100552_370.884957;39.247374_370.747575;39.398972_370.615491;39.555491_370.489290;39.717037_370.369603;39.883662_370.257110;40.055303_370.152439;40.231456_370.055524;40.411100_369.965189;40.593051_369.879547;40.776137_369.796330;40.959209_369.713085;41.141400_369.627937;41.322608_369.540707;41.503282_369.452372;41.683928_369.363981;41.865053_369.276579;42.047118_369.191161;42.230182_369.107902;42.413779_369.025814;42.597265_368.943481;42.779996_368.859496;42.961318_368.772530;43.140799_368.681828;43.318629_368.587915;43.495449_368.492101;43.671941_368.395681;43.848790_368.299921;44.026652_368.206066;44.205818_368.114726;44.386015_368.025428;44.566741_367.937200;44.747491_367.849021;44.927762_367.759871;45.107213_367.669083;45.286161_367.577303;45.465509_367.486312;45.646245_367.398140;45.829333_367.315018;46.015639_367.239485;46.205537_367.173564;46.398681_367.117842;46.594419_367.072016;46.792124_367.035537;46.991238_367.007661;47.191291_366.987469;47.391914_366.973879;47.592841_366.965706;47.793903_366.961726;47.995009_366.960698;48.196118_366.961557;48.397219_366.963593;48.598313_366.966294;48.799406_366.969154;49.000502_366.971674;49.201606_366.973490;49.402715_366.974492;49.603827_366.974708;49.804939_366.974166;50.006047_366.972905;50.207151_366.971096;50.408254_366.969153;</t>
+  </si>
+  <si>
+    <t>50.810471_366.967029;51.011579_366.967940;51.212661_366.971069;51.413661_366.977425;51.614467_366.988145;51.814895_367.004350;52.014674_367.027107;52.213457_367.057288;52.410854_367.095466;52.606440_367.142013;52.799767_367.197180;52.990390_367.261064;53.178204_367.332847;53.363851_367.410148;53.548451_367.489949;53.733203_367.569393;53.919297_367.645595;54.107683_367.715865;54.298520_367.779195;54.491303_367.836375;54.685480_367.888675;54.880566_367.937513;55.076126_367.984436;55.271712_368.031254;55.466814_368.080024;55.660857_368.132791;55.853181_368.191451;56.043056_368.257553;56.230102_368.331310;56.414545_368.411403;56.596901_368.496176;56.777735_368.584168;56.957636_368.674063;57.136931_368.765161;57.315179_368.858277;57.491377_368.955182;57.664480_369.057480;57.833485_369.166383;57.997498_369.282645;58.156089_369.406213;58.309537_369.536142;58.458440_369.671273;58.603359_369.810683;58.744795_369.953635;58.883196_370.099533;59.018975_370.247880;59.152688_370.398098;59.285133_370.549439;59.417174_370.701133;59.549661_370.852438;59.683463_371.002576;59.819518_371.150666;59.958879_371.295632;60.102428_371.436437;60.250072_371.572957;60.400783_371.706103;60.553272_371.837223;60.706151_371.967890;60.858010_372.099734;61.007508_372.234232;61.153651_372.372358;61.295969_372.514420;61.434272_372.660393;61.568443_372.810172;61.698433_372.963596;61.824245_373.120465;61.945932_373.280559;62.063639_373.443604;62.177769_373.609179;62.288897_373.776790;62.397542_373.946024;62.504146_374.116553;62.609092_374.288109;62.712717_374.460468;62.815325_374.633435;</t>
+  </si>
+  <si>
+    <t>63.018591_374.980519;63.119743_375.154342;63.220855_375.328188;63.322119_375.501947;63.423729_375.675502;63.525885_375.848736;63.628799_376.021521;63.732694_376.193718;63.837813_376.365169;63.944422_376.535696;64.052779_376.705116;64.162949_376.873364;64.274770_377.040521;64.388004_377.206724;64.502384_377.372142;64.617615_377.536968;64.733384_377.701418;64.849366_377.865718;64.965229_378.030101;65.080664_378.194785;65.195430_378.359936;65.309347_378.525673;65.422248_378.692103;65.533983_378.859318;65.644415_379.027396;65.753421_379.196401;65.860897_379.366384;65.966753_379.537380;66.070851_379.709450;66.172878_379.882755;66.272427_380.057492;66.369171_380.233795;66.462884_380.411728;66.553432_380.591291;66.640760_380.772443;66.724878_380.955107;66.805845_381.139191;66.883755_381.324589;66.958728_381.511197;67.030889_381.698910;67.100336_381.887644;67.167147_382.077328;67.231412_382.267890;67.293239_382.459258;67.352746_382.651360;67.410055_382.844130;67.465290_383.037505;67.518570_383.231428;67.570010_383.425848;67.619721_383.620717;67.667805_383.815995;67.714361_384.011643;67.759478_384.207627;67.803242_384.403919;67.845731_384.600490;67.887018_384.797318;67.927171_384.994380;67.966252_385.191658;68.004320_385.389134;68.041431_385.586792;68.077641_385.784618;68.113001_385.982597;68.147559_386.180717;68.181359_386.378969;68.214440_386.577341;68.246840_386.775827;68.278591_386.974417;68.309724_387.173104;68.340270_387.371883;68.370254_387.570748;68.399702_387.769693;68.428637_387.968713;68.457079_388.167803;68.485051_388.366961;68.512569_388.566182;</t>
+  </si>
+  <si>
+    <t>68.566319_388.964799;68.592582_389.164189;68.618458_389.363630;68.643960_389.563119;68.669101_389.762654;68.693894_389.962232;68.718351_390.161852;68.742482_390.361512;68.766298_390.561209;68.789810_390.760942;68.813026_390.960710;68.835957_391.160511;68.858609_391.360344;68.880993_391.560207;68.903114_391.760099;68.924982_391.960019;68.946603_392.159966;68.967984_392.359939;68.989132_392.559936;69.010052_392.759958;69.030755_392.960002;69.051250_393.160067;69.071547_393.360153;69.091657_393.560257;69.111589_393.760380;69.131350_393.960519;69.150949_394.160674;69.170393_394.360845;69.189689_394.561029;69.208844_394.761228;69.227864_394.961439;69.246755_395.161662;69.265523_395.361897;69.284173_395.562143;69.302710_395.762399;69.321139_395.962666;69.339464_396.162941;69.357691_396.363226;69.375823_396.563520;69.393865_396.763821;69.411820_396.964131;69.429692_397.164448;69.447484_397.364772;69.465201_397.565102;69.482845_397.765439;69.500420_397.965783;69.517929_398.166131;69.535374_398.366486;69.552760_398.566846;69.570088_398.767210;69.587361_398.967580;69.604583_399.167953;69.621755_399.368331;69.638880_399.568714;69.655961_399.769099;69.673000_399.969489;69.689999_400.169882;69.706962_400.370278;69.723889_400.570677;69.740783_400.771078;69.757647_400.971482;69.774483_401.171889;69.791292_401.372298;69.808077_401.572709;69.824839_401.773122;69.841581_401.973536;69.858306_402.173952;69.875014_402.374369;69.891707_402.574788;69.908388_402.775207;69.925059_402.975628;69.941722_403.176049;69.958377_403.376470;69.975028_403.576893;69.991676_403.777315;</t>
+  </si>
+  <si>
+    <t>70.016571_404.991400;70.049720_405.198550;70.082887_405.405697;70.116083_405.612839;70.149320_405.819974;70.182611_406.027101;70.215968_406.234218;70.249403_406.441322;70.282930_406.648410;70.316561_406.855482;70.350311_407.062535;70.384192_407.269566;70.418220_407.476574;70.452409_407.683554;70.486777_407.890505;70.521338_408.097424;70.556111_408.304307;70.591114_408.511152;70.626367_408.717954;70.661890_408.924710;70.697705_409.131415;70.733837_409.338065;70.770310_409.544656;70.807153_409.751180;70.844394_409.957633;70.882067_410.164008;70.920206_410.370297;70.958852_410.576492;70.998046_410.782583;71.037829_410.988562;71.078227_411.194420;71.119260_411.400153;71.160949_411.605754;71.203315_411.811216;71.246379_412.016534;71.290164_412.221698;71.334693_412.426703;71.379991_412.631539;71.426082_412.836198;71.472994_413.040670;71.520752_413.244946;71.569385_413.449016;71.618920_413.652868;71.669387_413.856492;71.720816_414.059875;71.773238_414.263004;71.826682_414.465867;71.881181_414.668449;71.936765_414.870735;71.993465_415.072711;72.051315_415.274362;72.110354_415.475667;72.170624_415.676607;72.232171_415.877159;72.295039_416.077301;72.359275_416.277008;72.424927_416.476254;72.492041_416.675012;72.560665_416.873253;72.630847_417.070949;72.702630_417.268068;72.776059_417.464580;72.851174_417.660454;72.928012_417.855658;73.006605_418.050162;73.086982_418.243936;73.169173_418.436947;73.253204_418.629163;73.339095_418.820556;73.426855_419.011099;73.516482_419.200771;73.607961_419.389557;73.701263_419.577449;73.796340_419.764448;73.893129_419.950568;</t>
+  </si>
+  <si>
+    <t>74.091522_420.320260;74.193043_420.503842;74.296134_420.686547;74.400820_420.868342;74.507126_421.049195;74.615073_421.229073;74.724683_421.407943;74.835971_421.585772;74.948954_421.762531;75.063615_421.938205;75.179820_422.112862;75.297303_422.286664;75.415751_422.459810;75.534829_422.632524;75.654184_422.805047;75.773458_422.977627;75.892293_423.150508;76.010353_423.323919;76.127469_423.497968;76.243736_423.672587;76.359356_423.847635;76.474524_424.022981;76.589431_424.198498;76.704262_424.374064;76.819203_424.549559;76.934439_424.724860;77.050142_424.899853;77.166369_425.074499;77.283050_425.248841;77.400084_425.422947;77.517367_425.596886;77.634790_425.770730;77.752246_425.944551;77.869627_426.118423;77.986829_426.292417;78.103858_426.466525;78.220982_426.640571;78.338629_426.814262;78.457256_426.987286;78.577350_427.159291;78.699453_427.329872;78.824181_427.498538;78.952254_427.664670;79.084443_427.827534;79.221323_427.986467;79.363254_428.140898;79.510565_428.290193;79.663587_428.433614;79.822635_428.570302;79.987975_428.699284;80.159442_428.820011;80.335944_428.933308;80.515759_429.041332;80.697023_429.146937;80.877842_429.253293;81.056417_429.363336;81.231690_429.478557;81.403515_429.598866;81.572024_429.723785;81.737356_429.852884;81.899656_429.985780;82.059083_430.122113;82.215913_430.261433;82.370539_430.403199;82.523367_430.546906;82.674772_430.692114;82.825110_430.838428;82.974720_430.985487;83.123939_431.132944;83.273115_431.280444;83.422610_431.427621;83.572792_431.574096;83.724038_431.719468;83.876748_431.863301;84.031338_432.005106;</t>
+  </si>
+  <si>
+    <t>84.347812_432.280503;84.510514_432.412899;84.676777_432.540779;84.847079_432.663209;85.021886_432.779088;85.201251_432.887783;85.384518_432.989795;85.570696_433.086432;85.758761_433.179373;85.947700_433.270541;86.136779_433.361420;86.326105_433.451780;86.516415_433.540030;86.708502_433.624307;86.903106_433.702532;87.100742_433.772677;87.301215_433.834294;87.503752_433.888841;87.707583_433.938412;87.912057_433.985306;88.116599_434.031913;88.320649_434.080593;88.523604_434.133590;88.724758_434.192980;88.923281_434.260568;89.118436_434.337325;89.310243_434.422182;89.499490_434.512667;89.687149_434.606432;89.874227_434.701360;90.061673_434.795556;90.249901_434.888181;90.438671_434.979699;90.627552_435.070988;90.816115_435.162930;91.003946_435.256353;91.191034_435.351260;91.378120_435.446172;91.566319_435.538832;91.756742_435.626775;91.950427_435.707172;92.148005_435.777349;92.349217_435.836340;92.553237_435.884822;92.759274_435.923968;92.966676_435.955222;93.174927_435.980378;93.383616_436.001744;93.592424_436.021961;93.801072_436.043708;94.009227_436.069618;94.216475_436.101870;94.422357_436.141860;94.626350_436.190516;94.827857_436.248573;95.026267_436.316449;95.221525_436.393016;95.414553_436.475141;95.606770_436.559178;95.799652_436.641651;95.994622_436.718965;96.192589_436.788156;96.393563_436.848052;96.597081_436.898649;96.802655_436.940132;97.009817_436.972821;97.218119_436.997308;97.427158_437.014562;97.636620_437.025771;97.846294_437.032184;98.056052_437.035049;98.265834_437.035364;98.475611_437.033785;98.685375_437.030855;98.895127_437.027113;</t>
+  </si>
+  <si>
+    <t>177.243663_436.145381;177.758097_435.258516;178.361960_434.433604;179.051085_433.674847;179.728565_432.906138;180.329688_432.076761;180.871143_431.205632;181.395600_430.323805;181.941427_429.455516;182.542893_428.625763;183.206786_427.844562;183.897706_427.086171;184.559151_426.303067;185.151747_425.467318;185.677640_424.587113;186.161595_423.682620;186.623345_422.766430;187.075957_421.845644;187.530207_420.925672;187.997225_420.012189;188.491452_419.113369;189.035421_418.244535;189.649893_417.424721;190.325642_416.653475;191.018438_415.896811;191.680073_415.113561;192.289474_414.288995;192.865182_413.439810;193.440268_412.590155;194.027659_411.748959;194.638566_410.925099;195.307028_410.148950;196.025034_409.416453;196.766500_408.708147;197.572084_408.079156;</t>
+  </si>
+  <si>
+    <t>198.072695_408.000000;198.218085_408.000000;198.363475_408.000000;198.508865_408.000000;198.654255_408.000000;198.799645_408.000000;198.945035_408.000000;199.090426_408.000000;199.235816_408.000000;199.381206_408.000000;199.526596_408.000000;199.671986_408.000000;199.817376_408.000000;199.962766_408.000000;200.108156_408.000000;200.253546_408.000000;200.398936_408.000000;200.544326_408.000000;200.689716_408.000000;200.835106_408.000000;200.980496_408.000000;201.125887_408.000000;201.271277_408.000000;201.416667_408.000000;201.562057_408.000000;201.707447_408.000000;201.852837_408.000000;201.998227_408.000000;202.143617_408.000000;202.289007_408.000000;202.434397_408.000000;202.579787_408.000000;202.725177_408.000000;202.870567_408.000000;203.015957_408.000000;203.161348_408.000000;203.306738_408.000000;203.452128_408.000000;203.597518_408.000000;203.742908_408.000000;203.888298_408.000000;204.033688_408.000000;204.179078_408.000000;204.324468_408.000000;204.469858_408.000000;204.615248_408.000000;204.760638_408.000000;204.906028_408.000000;205.051418_408.000000;205.196809_408.000000;205.342199_408.000000;205.487589_408.000000;205.632979_408.000000;205.778369_408.000000;205.923759_408.000000;206.069149_408.000000;206.214539_408.000000;206.359929_408.000000;206.505319_408.000000;206.650709_408.000000;206.796099_408.000000;206.941489_408.000000;207.086879_408.000000;207.232270_408.000000;207.377660_408.000000;207.523050_408.000000;207.668440_408.000000;207.813830_408.000000;207.959220_408.000000;208.104610_408.000000;208.250000_408.000000;208.395390_408.000000;208.540780_408.000000;208.686170_408.000000;208.831560_408.000000;208.976950_408.000000;209.122340_408.000000;209.267730_408.000000;209.413121_408.000000;209.558511_408.000000;209.703901_408.000000;209.849291_408.000000;209.994681_408.000000;210.140071_408.000000;210.285461_408.000000;210.430851_408.000000;210.576241_408.000000;210.721631_408.000000;210.867021_408.000000;211.012411_408.000000;211.157801_408.000000;211.303191_408.000000;211.448582_408.000000;211.593972_408.000000;211.739362_408.000000;211.884752_408.000000;212.030142_408.000000;212.175532_408.000000;212.320922_408.000000;212.466312_408.000000;</t>
+  </si>
+  <si>
+    <t>212.757092_408.000000;212.902482_408.000000;213.047872_408.000000;213.193262_408.000000;213.338652_408.000000;213.484043_408.000000;213.629433_408.000000;213.774823_408.000000;213.920213_408.000000;214.065603_408.000000;214.210993_408.000000;214.356383_408.000000;214.501773_408.000000;214.647163_408.000000;214.792553_408.000000;214.937943_408.000000;215.083333_408.000000;215.228723_408.000000;215.374113_408.000000;215.519504_408.000000;215.664894_408.000000;215.810284_408.000000;215.955674_408.000000;216.101064_408.000000;216.246454_408.000000;216.391844_408.000000;216.537234_408.000000;216.682624_408.000000;216.828014_408.000000;216.973404_408.000000;217.118794_408.000000;217.264184_408.000000;217.409574_408.000000;217.554965_408.000000;217.700355_408.000000;217.845745_408.000000;217.991135_408.000000;218.136525_408.000000;218.281915_408.000000;218.427305_408.000000;218.572695_408.000000;218.718085_408.000000;218.863475_408.000000;219.008865_408.000000;219.154255_408.000000;219.299645_408.000000;219.445035_408.000000;219.590426_408.000000;219.735816_408.000000;219.881206_408.000000;220.026596_408.000000;220.171986_408.000000;220.317376_408.000000;220.462766_408.000000;220.608156_408.000000;220.753546_408.000000;220.898936_408.000000;221.044326_408.000000;221.189716_408.000000;221.335106_408.000000;221.480496_408.000000;221.625887_408.000000;221.771277_408.000000;221.916667_408.000000;222.062057_408.000000;222.207447_408.000000;222.352837_408.000000;222.498227_408.000000;222.643617_408.000000;222.789007_408.000000;222.934397_408.000000;223.079787_408.000000;223.225177_408.000000;223.370567_408.000000;223.515957_408.000000;223.661348_408.000000;223.806738_408.000000;223.952128_408.000000;224.097518_408.000000;224.242908_408.000000;224.388298_408.000000;224.533688_408.000000;224.679078_408.000000;224.824468_408.000000;224.969858_408.000000;225.115248_408.000000;225.260638_408.000000;225.406028_408.000000;225.551418_408.000000;225.696809_408.000000;225.842199_408.000000;225.987589_408.000000;226.132979_408.000000;226.278369_408.000000;226.423759_408.000000;226.569149_408.000000;226.714539_408.000000;226.859929_408.000000;227.005319_408.000000;227.150709_408.000000;</t>
+  </si>
+  <si>
+    <t>227.441489_408.000000;227.586879_408.000000;227.732270_408.000000;227.877660_408.000000;228.023050_408.000000;228.168440_408.000000;228.313830_408.000000;228.459220_408.000000;228.604610_408.000000;228.750000_408.000000;228.895390_408.000000;229.040780_408.000000;229.186170_408.000000;229.331560_408.000000;229.476950_408.000000;229.622340_408.000000;229.767730_408.000000;229.913121_408.000000;230.058511_408.000000;230.203901_408.000000;230.349291_408.000000;230.494681_408.000000;230.640071_408.000000;230.785461_408.000000;230.930851_408.000000;231.076241_408.000000;231.221631_408.000000;231.367021_408.000000;231.512411_408.000000;231.657801_408.000000;231.803191_408.000000;231.948582_408.000000;232.093972_408.000000;232.239362_408.000000;232.384752_408.000000;232.530142_408.000000;232.675532_408.000000;232.820922_408.000000;232.966312_408.000000;233.111702_408.000000;233.257092_408.000000;233.402482_408.000000;233.547872_408.000000;233.693262_408.000000;233.838652_408.000000;233.984043_408.000000;234.129433_408.000000;234.274823_408.000000;234.420213_408.000000;234.565603_408.000000;234.710993_408.000000;234.856383_408.000000;235.001773_408.000000;235.147163_408.000000;235.292553_408.000000;235.437943_408.000000;235.583333_408.000000;235.728723_408.000000;235.874113_408.000000;236.019504_408.000000;236.164894_408.000000;236.310284_408.000000;236.455674_408.000000;236.601064_408.000000;236.746454_408.000000;236.891844_408.000000;237.037234_408.000000;237.182624_408.000000;237.328014_408.000000;237.473404_408.000000;237.618794_408.000000;237.764184_408.000000;237.909574_408.000000;238.054965_408.000000;238.200355_408.000000;238.345745_408.000000;238.491135_408.000000;238.636525_408.000000;238.781915_408.000000;238.927305_408.000000;</t>
+  </si>
+  <si>
+    <t>239.098154_408.027519;239.294467_408.031338;239.490791_408.034483;239.687129_408.036502;239.883476_408.036945;240.079815_408.035322;240.276105_408.030892;240.472266_408.022637;240.668150_408.009486;240.863534_407.990400;241.058110_407.964417;241.251509_407.930815;241.443330_407.889168;241.633153_407.839215;241.820546_407.780813;242.005101_407.713980;242.186809_407.639693;242.366420_407.560395;242.545110_407.479014;242.724109_407.398324;242.904633_407.321159;243.087720_407.250381;243.273737_407.187736;243.462398_407.133567;243.653277_407.087803;243.845944_407.050256;244.039992_407.020615;244.235031_406.998333;244.430717_406.982575;244.626779_406.972361;244.823033_406.966663;245.019363_406.964445;245.215708_406.964837;245.412040_406.967270;245.608347_406.971306;245.804627_406.976513;246.000887_406.982462;246.197135_406.988803;246.393376_406.995334;246.589615_407.001931;246.785856_407.008473;246.982103_407.014836;247.178361_407.020840;247.374638_407.026173;247.570940_407.030446;247.767268_407.033263;247.963612_407.034229;248.159951_407.032838;248.356237_407.028298;248.552378_407.019632;248.748218_407.005866;248.943530_406.986058;249.138012_406.959374;249.331315_406.925209;249.523053_406.883170;249.712815_406.832978;249.900176_406.774467;250.084810_406.707828;250.266952_406.634574;250.447478_406.557366;250.627462_406.478888;250.808005_406.401722;250.990171_406.328525;251.174597_406.261261;251.361132_406.200052;251.549234_406.143801;251.738397_406.091194;251.928170_406.040807;252.118127_405.991114;252.307818_405.940425;252.496736_405.886960;252.684315_405.829018;252.869912_405.765065;253.052870_405.693945;253.232995_405.615890;253.410785_405.532602;253.587001_405.446007;253.762440_405.357837;253.937911_405.269728;254.114069_405.183010;254.291030_405.097937;254.468458_405.013838;254.645956_404.929887;254.823129_404.845255;254.999591_404.759155;255.175258_404.671443;255.350631_404.583139;255.526515_404.495866;255.703724_404.411338;255.883045_404.331435;256.065136_404.258125;256.250066_404.192294;256.437278_404.133207;256.626110_404.079464;256.815978_404.029462;257.006373_403.981474;257.196840_403.933775;257.386968_403.884750;257.576332_403.832885;257.764462_403.776747;</t>
+  </si>
+  <si>
+    <t>258.135055_403.647223;258.317450_403.574559;258.498873_403.499471;258.680290_403.424366;258.862664_403.351650;259.046864_403.283750;259.233201_403.221964;259.421320_403.165793;259.610696_403.113973;259.800863_403.065106;259.991406_403.017707;260.181921_402.970199;260.371972_402.920892;260.561073_402.868094;260.748667_402.810223;260.934124_402.745878;261.116911_402.674310;261.297100_402.596378;261.475343_402.514049;261.652420_402.429220;261.829139_402.343641;262.006295_402.258978;262.184334_402.176191;262.363070_402.094911;262.542008_402.014073;262.720643_401.932575;262.898470_401.849334;263.075040_401.763469;263.250302_401.674957;263.424644_401.584640;263.598565_401.493509;263.772563_401.402526;263.947136_401.312656;264.122575_401.224492;264.298515_401.137323;264.474073_401.049393;264.648299_400.958876;264.820242_400.864124;264.988969_400.763788;265.153852_400.657258;265.314867_400.544948;265.472328_400.427693;265.626560_400.306212;265.777879_400.181114;265.926581_400.052910;266.072949_399.922043;266.217261_399.788908;266.359795_399.653870;266.500813_399.517247;266.640562_399.379323;266.779273_399.240356;266.917169_399.100578;267.054459_398.960205;267.191327_398.819421;267.327934_398.678382;267.464432_398.537238;267.600972_398.396134;267.737704_398.255217;267.874783_398.114638;268.012364_397.974550;268.150620_397.835129;268.289749_397.696580;268.429964_397.559131;268.571492_397.423036;268.714572_397.288577;268.859460_397.156070;269.006428_397.025878;269.155734_396.898378;269.307600_396.773942;269.462228_396.652962;269.619828_396.535887;269.780617_396.423240;269.944806_396.315622;270.112420_396.213420;270.282838_396.115930;270.454898_396.021342;270.627362_395.927484;270.798987_395.832116;270.968538_395.733140;271.135057_395.629162;271.298270_395.520059;271.458363_395.406417;271.615565_395.288799;271.770097_395.167690;271.922178_395.043512;272.072018_394.916636;272.219855_394.787427;272.365940_394.656239;272.510522_394.523393;272.653832_394.389174;272.796091_394.253841;272.937510_394.117629;273.078273_393.980739;273.218481_393.843280;273.358158_393.705282;273.497313_393.566758;273.635958_393.427722;273.774102_393.288190;273.911756_393.148173;274.048919_393.007676;</t>
+  </si>
+  <si>
+    <t>274.321446_392.724939;274.456515_392.582429;274.590591_392.438984;274.723534_392.294490;274.855214_392.148844;274.985513_392.001962;275.114330_391.853779;275.241590_391.704258;275.367240_391.553381;275.491234_391.401140;275.613532_391.247533;275.734105_391.092569;275.852930_390.936261;275.969992_390.778627;276.085349_390.619742;276.199257_390.459812;276.312094_390.299123;276.424226_390.137942;276.536002_389.976512;276.647759_389.815069;276.759834_389.653848;276.872574_389.493092;276.986340_389.333061;277.101410_389.173966;277.217827_389.015853;277.335472_388.858651;277.454202_388.702268;277.573864_388.546595;277.694291_388.391512;277.815308_388.236890;277.936732_388.082587;278.058377_387.928458;278.180049_387.774350;278.301554_387.620110;278.422698_387.465587;278.543292_387.310635;278.663155_387.155117;278.782115_386.998908;278.900011_386.841894;279.016703_386.683985;279.132219_386.525212;279.246817_386.365774;279.360836_386.205921;279.474604_386.045890;279.588443_385.885908;279.702674_385.726207;279.817631_385.567029;279.933665_385.408634;280.051112_385.251287;280.170100_385.095101;280.290503_384.940003;280.412114_384.785849;280.534710_384.632476;280.658048_384.479699;280.781878_384.327320;280.905938_384.175127;281.029958_384.022903;281.153626_383.870392;281.276578_383.717305;281.398447_383.563356;281.518892_383.408292;281.637606_383.251899;281.754318_383.094009;281.868802_382.934497;281.980876_382.773284;282.090465_382.610371;282.197681_382.445885;282.302733_382.280008;282.405817_382.112898;282.507104_381.944693;282.606749_381.775510;282.704892_381.605450;282.801658_381.434602;282.897160_381.263044;282.991503_381.090846;283.084769_380.918062;283.177006_380.744726;283.268242_380.570862;283.358505_380.396490;283.447821_380.221631;283.536213_380.046303;283.623706_379.870525;283.710323_379.694313;283.796086_379.517684;283.881015_379.340653;283.965132_379.163234;284.048450_378.985439;284.130965_378.807270;284.212657_378.628721;284.293503_378.449788;</t>
+  </si>
+  <si>
+    <t>284.452596_378.090761;284.530815_377.910664;284.608136_377.730180;284.684554_377.549312;284.760063_377.368062;284.834662_377.186436;284.908350_377.004439;284.981130_376.822076;285.053015_376.639359;285.124049_376.456309;285.194294_376.272955;285.263808_376.089322;285.332647_375.905436;285.400862_375.721316;285.468500_375.536984;285.535604_375.352457;285.602217_375.167752;285.668377_374.982884;285.734121_374.797867;285.799483_374.612716;285.864497_374.427442;285.929194_374.242057;285.993605_374.056572;286.057756_373.870998;286.121671_373.685341;286.185370_373.499611;286.248872_373.313813;286.312197_373.127955;286.375363_372.942043;286.438387_372.756082;286.501287_372.570080;286.564081_372.384042;286.626786_372.197973;286.689418_372.011880;286.751994_371.825769;286.814531_371.639644;286.877045_371.453511;286.939551_371.267376;287.002067_371.081244;287.064604_370.895119;287.127168_370.709003;287.189759_370.522896;287.252380_370.336800;287.315031_370.150713;287.377713_369.964637;287.440428_369.778572;287.503178_369.592519;287.565964_369.406478;287.628786_369.220449;287.691646_369.034433;287.754547_368.848431;287.817488_368.662442;287.880471_368.476468;287.943498_368.290508;288.006570_368.104564;288.069681_367.918633;288.132816_367.732710;288.195952_367.546788;288.259071_367.360859;288.322150_367.174918;288.385170_366.988956;288.448110_366.802966;288.510949_366.616943;288.573667_366.430880;288.636246_366.244769;288.698666_366.058605;288.760908_365.872381;288.822954_365.686092;288.884787_365.499732;288.946390_365.313296;289.007746_365.126778;289.068832_364.940172;289.129614_364.753467;289.190057_364.566652;289.250127_364.379716;289.309792_364.192651;289.369021_364.005448;289.427787_363.818098;289.486066_363.630597;289.543835_363.442937;289.601074_363.255116;289.657764_363.067128;289.713891_362.878971;289.769442_362.690643;289.824404_362.502143;289.878769_362.313470;289.932529_362.124623;289.985679_361.935604;290.038217_361.746413;290.090147_361.557055;290.141475_361.367533;290.192210_361.177851;290.242361_360.988014;290.291936_360.798026;290.340943_360.607891;290.389393_360.417612;290.437293_360.227195;290.484653_360.036642;290.531482_359.845958;290.577788_359.655147;</t>
+  </si>
+  <si>
+    <t>290.668870_359.273156;290.713664_359.081984;290.757970_358.890699;290.801799_358.699303;290.845158_358.507800;290.888056_358.316194;290.930502_358.124487;290.972503_357.932682;291.014069_357.740782;291.055209_357.548790;291.095938_357.356711;291.136267_357.164547;291.176211_356.972303;291.215780_356.779982;291.254986_356.587586;291.293840_356.395118;291.332353_356.202582;291.370533_356.009980;291.408391_355.817315;291.445935_355.624588;291.483174_355.431801;291.520116_355.238958;291.556769_355.046059;291.593140_354.853107;291.629236_354.660103;291.665065_354.467050;291.700632_354.273948;291.735945_354.080800;291.771009_353.887606;291.805830_353.694368;291.840414_353.501088;291.874767_353.307766;291.908892_353.114405;291.942797_352.921004;291.976484_352.727565;292.009960_352.534090;292.043231_352.340579;292.076306_352.147035;292.109195_351.953459;292.141907_351.759853;292.174451_351.566219;292.206835_351.372558;292.239067_351.178872;292.271155_350.985161;292.303107_350.791428;292.334929_350.597674;292.366628_350.403900;292.398211_350.210107;292.429685_350.016295;292.461056_349.822468;292.492329_349.628624;292.523511_349.434766;292.554608_349.240894;292.585624_349.047009;292.616566_348.853112;292.647439_348.659205;292.678248_348.465287;292.708999_348.271360;292.739695_348.077424;292.770343_347.883480;292.800946_347.689530;292.831511_347.495573;292.862041_347.301611;292.892542_347.107645;292.923017_346.913674;292.953472_346.719700;292.983911_346.525724;293.014338_346.331746;293.044757_346.137766;293.075166_345.943785;293.105568_345.749803;293.135961_345.555820;293.166347_345.361835;293.196726_345.167849;293.227097_344.973862;293.257462_344.779874;293.287820_344.585885;293.318171_344.391895;293.348517_344.197904;293.378857_344.003913;293.409191_343.809920;293.439520_343.615926;293.469845_343.421932;293.500164_343.227937;293.530479_343.033941;293.560790_342.839945;293.591097_342.645948;293.621401_342.451950;293.651701_342.257952;293.681998_342.063954;293.712293_341.869955;293.742584_341.675956;293.772874_341.481956;293.803161_341.287956;293.833447_341.093956;293.863731_340.899955;293.894015_340.705954;293.924297_340.511953;293.954578_340.317952;293.984859_340.123951;</t>
+  </si>
+  <si>
+    <t>294.000000_339.953966;294.000000_339.861898;294.000000_339.769830;294.000000_339.677762;294.000000_339.585694;294.000000_339.493626;294.000000_339.401558;294.000000_339.309490;294.000000_339.217422;294.000000_339.125354;294.000000_339.033286;294.000000_338.941218;294.000000_338.849150;294.000000_338.757082;294.000000_338.665014;294.000000_338.572946;294.000000_338.480878;294.000000_338.388810;294.000000_338.296742;294.000000_338.204674;294.000000_338.112606;294.000000_338.020538;294.000000_337.928470;294.000000_337.836402;294.000000_337.744334;294.000000_337.652266;294.000000_337.560198;294.000000_337.468130;294.000000_337.376062;294.000000_337.283994;294.000000_337.191926;294.000000_337.099858;294.000000_337.007790;294.000000_336.915722;294.000000_336.823654;294.000000_336.731586;294.000000_336.639518;294.000000_336.547450;294.000000_336.455382;294.000000_336.363314;294.000000_336.271246;294.000000_336.179178;294.000000_336.087110;294.000000_335.995042;294.000000_335.902975;294.000000_335.810907;294.000000_335.718839;294.000000_335.626771;294.000000_335.534703;294.000000_335.442635;294.000000_335.350567;294.000000_335.258499;294.000000_335.166431;294.000000_335.074363;294.000000_334.982295;294.000000_334.890227;294.000000_334.798159;294.000000_334.706091;294.000000_334.614023;294.000000_334.521955;294.000000_334.429887;294.000000_334.337819;294.000000_334.245751;294.000000_334.153683;294.000000_334.061615;294.000000_333.969547;294.000000_333.877479;294.000000_333.785411;294.000000_333.693343;294.000000_333.601275;294.000000_333.509207;294.000000_333.417139;294.000000_333.325071;294.000000_333.233003;294.000000_333.140935;294.000000_333.048867;294.000000_332.956799;294.000000_332.864731;294.000000_332.772663;294.000000_332.680595;294.000000_332.588527;294.000000_332.496459;294.000000_332.404391;294.000000_332.312323;294.000000_332.220255;294.000000_332.128187;294.000000_332.036119;294.000000_331.944051;294.000000_331.851983;294.000000_331.759915;294.000000_331.667847;294.000000_331.575779;294.000000_331.483711;294.000000_331.391643;294.000000_331.299575;294.000000_331.207507;294.000000_331.115439;294.000000_331.023371;294.000000_330.931303;294.000000_330.839235;</t>
+  </si>
+  <si>
+    <t>294.000000_330.839235;294.000000_330.747167;294.000000_330.655099;294.000000_330.563031;294.000000_330.470963;294.000000_330.378895;294.000000_330.286827;294.000000_330.194759;294.000000_330.102691;294.000000_330.010623;294.000000_329.918555;294.000000_329.826487;294.000000_329.734419;294.000000_329.642351;294.000000_329.550283;294.000000_329.458215;294.000000_329.366147;294.000000_329.274079;294.000000_329.182011;294.000000_329.089943;294.000000_328.997875;294.000000_328.905807;294.000000_328.813739;294.000000_328.721671;294.000000_328.629603;294.000000_328.537535;294.000000_328.445467;294.000000_328.353399;294.000000_328.261331;294.000000_328.169263;294.000000_328.077195;294.000000_327.985127;294.000000_327.893059;294.000000_327.800992;294.000000_327.708924;294.000000_327.616856;294.000000_327.524788;294.000000_327.432720;294.000000_327.340652;294.000000_327.248584;294.000000_327.156516;294.000000_327.064448;294.000000_326.972380;294.000000_326.880312;294.000000_326.788244;294.000000_326.696176;294.000000_326.604108;294.000000_326.512040;294.000000_326.419972;294.000000_326.327904;294.000000_326.235836;294.000000_326.143768;294.000000_326.051700;294.000000_325.959632;294.000000_325.867564;294.000000_325.775496;294.000000_325.683428;294.000000_325.591360;294.000000_325.499292;294.000000_325.407224;294.000000_325.315156;294.000000_325.223088;294.000000_325.131020;294.000000_325.038952;294.000000_324.946884;294.000000_324.854816;294.000000_324.762748;294.000000_324.670680;294.000000_324.578612;294.000000_324.486544;294.000000_324.394476;294.000000_324.302408;294.000000_324.210340;294.000000_324.118272;294.000000_324.026204;294.000000_323.934136;294.000000_323.842068;294.000000_323.750000;294.000000_323.657932;294.000000_323.565864;294.000000_323.473796;294.000000_323.381728;294.000000_323.289660;294.000000_323.197592;294.000000_323.105524;294.000000_323.013456;294.000000_322.921388;294.000000_322.829320;294.000000_322.737252;294.000000_322.645184;294.000000_322.553116;294.000000_322.461048;294.000000_322.368980;294.000000_322.276912;294.000000_322.184844;294.000000_322.092776;294.000000_322.000708;294.000000_321.908640;294.000000_321.816572;294.000000_321.724504;</t>
+  </si>
+  <si>
+    <t>294.000000_321.724504;294.000000_321.632436;294.000000_321.540368;294.000000_321.448300;294.000000_321.356232;294.000000_321.264164;294.000000_321.172096;294.000000_321.080028;294.000000_320.987960;294.000000_320.895892;294.000000_320.803824;294.000000_320.711756;294.000000_320.619688;294.000000_320.527620;294.000000_320.435552;294.000000_320.343484;294.000000_320.251416;294.000000_320.159348;294.000000_320.067280;294.000000_319.975212;294.000000_319.883144;294.000000_319.791076;294.000000_319.699008;294.000000_319.606941;294.000000_319.514873;294.000000_319.422805;294.000000_319.330737;294.000000_319.238669;294.000000_319.146601;294.000000_319.054533;294.000000_318.962465;294.000000_318.870397;294.000000_318.778329;294.000000_318.686261;294.000000_318.594193;294.000000_318.502125;294.000000_318.410057;294.000000_318.317989;294.000000_318.225921;294.000000_318.133853;294.000000_318.041785;294.000000_317.949717;294.000000_317.857649;294.000000_317.765581;294.000000_317.673513;294.000000_317.581445;294.000000_317.489377;294.000000_317.397309;294.000000_317.305241;294.000000_317.213173;294.000000_317.121105;294.000000_317.029037;294.000000_316.936969;294.000000_316.844901;294.000000_316.752833;294.000000_316.660765;294.000000_316.568697;294.000000_316.476629;294.000000_316.384561;294.000000_316.292493;294.000000_316.200425;294.000000_316.108357;294.000000_316.016289;294.000000_315.924221;294.000000_315.832153;294.000000_315.740085;294.000000_315.648017;294.000000_315.555949;294.000000_315.463881;294.000000_315.371813;294.000000_315.279745;294.000000_315.187677;294.000000_315.095609;294.000000_315.003541;294.000000_314.911473;294.000000_314.819405;294.000000_314.727337;294.000000_314.635269;294.000000_314.543201;294.000000_314.451133;294.000000_314.359065;294.000000_314.266997;294.000000_314.174929;294.000000_314.082861;294.000000_313.990793;294.000000_313.898725;294.000000_313.806657;294.000000_313.714589;294.000000_313.622521;294.000000_313.530453;294.000000_313.438385;294.000000_313.346317;294.000000_313.254249;294.000000_313.162181;294.000000_313.070113;294.000000_312.978045;294.000000_312.885977;294.000000_312.793909;294.000000_312.701841;294.000000_312.609773;</t>
+  </si>
+  <si>
+    <t>294.000000_312.609773;294.000000_312.517705;294.000000_312.425637;294.000000_312.333569;294.000000_312.241501;294.000000_312.149433;294.000000_312.057365;294.000000_311.965297;294.000000_311.873229;294.000000_311.781161;294.000000_311.689093;294.000000_311.597025;294.000000_311.504958;294.000000_311.412890;294.000000_311.320822;294.000000_311.228754;294.000000_311.136686;294.000000_311.044618;294.000000_310.952550;294.000000_310.860482;294.000000_310.768414;294.000000_310.676346;294.000000_310.584278;294.000000_310.492210;294.000000_310.400142;294.000000_310.308074;294.000000_310.216006;294.000000_310.123938;294.000000_310.031870;294.000000_309.939802;294.000000_309.847734;294.000000_309.755666;294.000000_309.663598;294.000000_309.571530;294.000000_309.479462;294.000000_309.387394;294.000000_309.295326;294.000000_309.203258;294.000000_309.111190;294.000000_309.019122;294.000000_308.927054;294.000000_308.834986;294.000000_308.742918;294.000000_308.650850;294.000000_308.558782;294.000000_308.466714;294.000000_308.374646;294.000000_308.282578;294.000000_308.190510;294.000000_308.098442;294.000000_308.006374;294.000000_307.914306;294.000000_307.822238;294.000000_307.730170;294.000000_307.638102;294.000000_307.546034;294.000000_307.453966;294.000000_307.361898;294.000000_307.269830;294.000000_307.177762;294.000000_307.085694;294.000000_306.993626;294.000000_306.901558;294.000000_306.809490;294.000000_306.717422;294.000000_306.625354;294.000000_306.533286;294.000000_306.441218;294.000000_306.349150;294.000000_306.257082;294.000000_306.165014;294.000000_306.072946;294.000000_305.980878;294.000000_305.888810;294.000000_305.796742;294.000000_305.704674;294.000000_305.612606;294.000000_305.520538;294.000000_305.428470;294.000000_305.336402;294.000000_305.244334;294.000000_305.152266;294.000000_305.060198;294.000000_304.968130;294.000000_304.876062;294.000000_304.783994;294.000000_304.691926;294.000000_304.599858;294.000000_304.507790;294.000000_304.415722;294.000000_304.323654;294.000000_304.231586;294.000000_304.139518;294.000000_304.047450;294.000000_303.955382;294.000000_303.863314;294.000000_303.771246;294.000000_303.679178;294.000000_303.587110;294.000000_303.495042;</t>
+  </si>
+  <si>
+    <t>294.000000_303.495042;294.000000_303.402975;294.000000_303.310907;294.000000_303.218839;294.000000_303.126771;294.000000_303.034703;294.000000_302.942635;294.000000_302.850567;294.000000_302.758499;294.000000_302.666431;294.000000_302.574363;294.000000_302.482295;294.000000_302.390227;294.000000_302.298159;294.000000_302.206091;294.000000_302.114023;294.000000_302.021955;294.000000_301.929887;294.000000_301.837819;294.000000_301.745751;294.000000_301.653683;294.000000_301.561615;294.000000_301.469547;294.000000_301.377479;294.000000_301.285411;294.000000_301.193343;294.000000_301.101275;294.000000_301.009207;294.000000_300.917139;294.000000_300.825071;294.000000_300.733003;294.000000_300.640935;294.000000_300.548867;294.000000_300.456799;294.000000_300.364731;294.000000_300.272663;294.000000_300.180595;294.000000_300.088527;294.000000_299.996459;294.000000_299.904391;294.000000_299.812323;294.000000_299.720255;294.000000_299.628187;294.000000_299.536119;294.000000_299.444051;294.000000_299.351983;294.000000_299.259915;294.000000_299.167847;294.000000_299.075779;294.000000_298.983711;294.000000_298.891643;294.000000_298.799575;294.000000_298.707507;294.000000_298.615439;294.000000_298.523371;294.000000_298.431303;294.000000_298.339235;294.000000_298.247167;294.000000_298.155099;294.000000_298.063031;294.000000_297.970963;294.000000_297.878895;294.000000_297.786827;294.000000_297.694759;294.000000_297.602691;294.000000_297.510623;294.000000_297.418555;294.000000_297.326487;294.000000_297.234419;294.000000_297.142351;294.000000_297.050283;294.000000_296.958215;294.000000_296.866147;294.000000_296.774079;294.000000_296.682011;294.000000_296.589943;294.000000_296.497875;294.000000_296.405807;294.000000_296.313739;294.000000_296.221671;294.000000_296.129603;294.000000_296.037535;294.000000_295.945467;294.000000_295.853399;294.000000_295.761331;294.000000_295.669263;294.000000_295.577195;294.000000_295.485127;294.000000_295.393059;294.000000_295.300992;294.000000_295.208924;294.000000_295.116856;294.000000_295.024788;294.000000_294.932720;294.000000_294.840652;294.000000_294.748584;294.000000_294.656516;294.000000_294.564448;294.000000_294.472380;294.000000_294.380312;</t>
+  </si>
+  <si>
+    <t>294.000000_294.380312;294.000000_294.288244;294.000000_294.196176;294.000000_294.104108;294.000000_294.012040;294.000000_293.919972;294.000000_293.827904;294.000000_293.735836;294.000000_293.643768;294.000000_293.551700;294.000000_293.459632;294.000000_293.367564;294.000000_293.275496;294.000000_293.183428;294.000000_293.091360;294.000000_292.999292;294.000000_292.907224;294.000000_292.815156;294.000000_292.723088;294.000000_292.631020;294.000000_292.538952;294.000000_292.446884;294.000000_292.354816;294.000000_292.262748;294.000000_292.170680;294.000000_292.078612;294.000000_291.986544;294.000000_291.894476;294.000000_291.802408;294.000000_291.710340;294.000000_291.618272;294.000000_291.526204;294.000000_291.434136;294.000000_291.342068;294.000000_291.250000;294.000000_291.157932;294.000000_291.065864;294.000000_290.973796;294.000000_290.881728;294.000000_290.789660;294.000000_290.697592;294.000000_290.605524;294.000000_290.513456;294.000000_290.421388;294.000000_290.329320;294.000000_290.237252;294.000000_290.145184;294.000000_290.053116;294.000000_289.961048;294.000000_289.868980;294.000000_289.776912;294.000000_289.684844;294.000000_289.592776;294.000000_289.500708;294.000000_289.408640;294.000000_289.316572;294.000000_289.224504;294.000000_289.132436;294.000000_289.040368;294.000000_288.948300;294.000000_288.856232;294.000000_288.764164;294.000000_288.672096;294.000000_288.580028;294.000000_288.487960;294.000000_288.395892;294.000000_288.303824;294.000000_288.211756;294.000000_288.119688;294.000000_288.027620;294.000000_287.935552;294.000000_287.843484;294.000000_287.751416;294.000000_287.659348;294.000000_287.567280;294.000000_287.475212;294.000000_287.383144;294.000000_287.291076;294.000000_287.199008;294.000000_287.106941;294.000000_287.014873;294.000000_286.922805;294.000000_286.830737;294.000000_286.738669;294.000000_286.646601;294.000000_286.554533;294.000000_286.462465;294.000000_286.370397;294.000000_286.278329;294.000000_286.186261;294.000000_286.094193;294.000000_286.002125;294.000000_285.910057;294.000000_285.817989;294.000000_285.725921;294.000000_285.633853;294.000000_285.541785;294.000000_285.449717;294.000000_285.357649;294.000000_285.265581;</t>
+  </si>
+  <si>
+    <t>294.000000_285.265581;294.000000_285.173513;294.000000_285.081445;294.000000_284.989377;294.000000_284.897309;294.000000_284.805241;294.000000_284.713173;294.000000_284.621105;294.000000_284.529037;294.000000_284.436969;294.000000_284.344901;294.000000_284.252833;294.000000_284.160765;294.000000_284.068697;294.000000_283.976629;294.000000_283.884561;294.000000_283.792493;294.000000_283.700425;294.000000_283.608357;294.000000_283.516289;294.000000_283.424221;294.000000_283.332153;294.000000_283.240085;294.000000_283.148017;294.000000_283.055949;294.000000_282.963881;294.000000_282.871813;294.000000_282.779745;294.000000_282.687677;294.000000_282.595609;294.000000_282.503541;294.000000_282.411473;294.000000_282.319405;294.000000_282.227337;294.000000_282.135269;294.000000_282.043201;294.000000_281.951133;294.000000_281.859065;294.000000_281.766997;294.000000_281.674929;294.000000_281.582861;294.000000_281.490793;294.000000_281.398725;294.000000_281.306657;294.000000_281.214589;294.000000_281.122521;294.000000_281.030453;294.000000_280.938385;294.000000_280.846317;294.000000_280.754249;294.000000_280.662181;294.000000_280.570113;294.000000_280.478045;294.000000_280.385977;294.000000_280.293909;294.000000_280.201841;294.000000_280.109773;294.000000_280.017705;294.000000_279.925637;294.000000_279.833569;294.000000_279.741501;294.000000_279.649433;294.000000_279.557365;294.000000_279.465297;294.000000_279.373229;294.000000_279.281161;294.000000_279.189093;294.000000_279.097025;294.000000_279.004958;294.000000_278.912890;294.000000_278.820822;294.000000_278.728754;294.000000_278.636686;294.000000_278.544618;294.000000_278.452550;294.000000_278.360482;294.000000_278.268414;294.000000_278.176346;294.000000_278.084278;294.000000_277.992210;294.000000_277.900142;294.000000_277.808074;294.000000_277.716006;294.000000_277.623938;294.000000_277.531870;294.000000_277.439802;294.000000_277.347734;294.000000_277.255666;294.000000_277.163598;294.000000_277.071530;294.000000_276.979462;294.000000_276.887394;294.000000_276.795326;294.000000_276.703258;294.000000_276.611190;294.000000_276.519122;294.000000_276.427054;294.000000_276.334986;294.000000_276.242918;294.000000_276.150850;</t>
+  </si>
+  <si>
+    <t>293.969301_274.341400;293.907885_273.936219;293.846414_273.531045;293.784851_273.125886;293.723159_272.720746;293.661299_272.315632;293.599233_271.910549;293.536918_271.505504;293.474314_271.100505;293.411377_270.695556;293.348059_270.290668;293.284312_269.885846;293.220083_269.481101;293.155318_269.076441;293.089956_268.671877;293.023932_268.267421;292.957177_267.863085;292.889623_267.458881;292.821198_267.054824;292.751825_266.650929;292.681419_266.247213;292.609885_265.843695;292.537114_265.440399;292.462986_265.037350;292.387363_264.634579;292.310085_264.232122;292.230970_263.830023;292.149802_263.428334;292.066325_263.027118;291.980243_262.626454;291.891281_262.226421;291.799238_261.827086;291.703946_261.428514;291.605235_261.030775;291.502943_260.633943;291.396916_260.238093;291.287020_259.843300;291.173152_259.449634;291.055251_259.057158;290.933303_258.665920;290.807292_258.275972;290.677201_257.887367;290.543059_257.500141;290.404970_257.114304;290.263127_256.729831;290.117819_256.346652;289.969448_255.964648;289.818560_255.583629;289.665861_255.203331;289.512165_254.823435;</t>
+  </si>
+  <si>
+    <t>289.512165_254.823435;289.358336_254.443592;289.205248_254.063450;289.053734_253.682679;288.904406_253.301047;288.757291_252.918556;288.611989_252.535371;288.468081_252.151660;288.325185_251.767571;288.182941_251.383239;288.041008_250.998792;287.899013_250.614368;287.756469_250.230148;287.612780_249.846356;287.467292_249.463243;287.319272_249.081102;287.167867_248.700294;287.012047_248.321276;286.850759_247.944558;286.683208_247.570588;286.508753_247.199794;286.326671_246.832692;286.136121_246.469924;285.936208_246.112241;285.726693_245.760093;285.508565_245.413199;285.283755_245.070576;285.054848_244.730661;284.824117_244.391978;284.591834_244.054359;284.356654_243.718758;284.116912_243.386414;283.871025_243.058603;283.618859_242.735588;283.362017_242.416262;283.102701_242.098932;282.843235_241.781724;282.585731_241.462927;282.331988_241.141140;282.083564_240.815241;281.841171_240.484830;281.603392_240.151063;281.367337_239.816068;281.130058_239.481943;280.888837_239.150669;280.642657_238.823059;280.392546_238.498431;280.140170_238.175554;279.887319_237.853048;279.635790_237.529513;</t>
+  </si>
+  <si>
+    <t>279.635790_237.529513;279.387281_237.203661;279.143323_236.874397;278.904931_236.541086;278.671188_236.204482;278.439306_235.866585;278.206162_235.529563;277.968559_235.195691;277.723966_234.866926;277.471265_234.544360;277.210002_234.228698;276.939726_233.920730;276.659870_233.621459;276.369673_233.332231;276.068270_233.054741;275.754711_232.791120;275.427921_232.544186;275.086810_232.317586;274.732375_232.112309;274.371417_231.918304;274.014852_231.716650;273.670815_231.494550;273.340935_231.251743;273.023294_230.993011;272.715745_230.722279;272.416005_230.442872;272.121852_230.157559;271.831400_229.868463;271.543378_229.576941;271.257003_229.283799;270.971599_228.989710;270.686654_228.695176;270.401910_228.400447;270.117220_228.105666;269.832394_227.811016;269.547056_227.516863;269.260655_227.223746;268.972581_226.932276;268.681859_226.643455;268.386879_226.359005;</t>
+  </si>
+  <si>
+    <t>268.386879_226.359005;268.085605_226.081267;267.775745_225.813208;267.454725_225.558743;267.119672_225.323291;266.768940_225.112042;266.406009_224.922021;266.038691_224.740320;265.672714_224.555954;265.307697_224.369664;264.939824_224.189179;264.568140_224.016618;264.196369_223.844243;263.829264_223.662285;263.466982_223.470769;263.104808_223.279043;262.738466_223.095497;262.368391_222.919485;261.998500_222.743091;261.630164_222.563461;261.259176_222.389581;260.879328_222.236798;260.489377_222.111823;260.093443_222.006376;259.696201_221.905701;259.301656_221.795352;258.913776_221.663977;258.532755_221.513344;258.152435_221.360847;257.765860_221.225665;257.372131_221.112568;256.974978_221.011579;256.578395_220.908494;256.186885_220.788321;255.805059_220.640640;255.432853_220.469495;255.064636_220.289622;254.695536_220.111576;254.326185_219.934047;253.960760_219.748710;253.600721_219.553054;253.242538_219.353945;252.880955_219.161194;252.514390_218.978044;252.145836_218.798851;251.778220_218.617750;251.408990_218.440097;251.031132_218.282590;250.640637_218.160774;250.240004_218.077001;</t>
+  </si>
+  <si>
+    <t>250.240004_218.077001;249.834149_218.021758;249.426499_217.979921;249.019516_217.932745;248.615937_217.863592;248.219402_217.762306;247.833382_217.626254;247.455699_217.467415;247.077322_217.310351;246.690078_217.177826;246.292626_217.080236;245.888150_217.017295;245.479947_216.984612;245.070398_216.974519;244.660658_216.978825;244.251048_216.991195;243.841530_217.006643;243.431954_217.020264;243.022237_217.027071;242.612584_217.021006;242.203939_216.993942;241.798506_216.937436;241.399619_216.845984;241.010963_216.717919;240.632852_216.560523;240.258460_216.393934;239.877713_216.243380;239.485863_216.125461;239.084845_216.043638;238.678354_215.994676;238.269383_215.971633;237.859683_215.965405;237.449902_215.968442;237.040158_215.975670;236.630424_215.983541;236.220670_215.990311;235.810893_215.995390;235.401098_215.998680;234.991293_216.000526;234.581484_216.001342;234.171674_216.001495;233.761864_216.001302;233.352054_216.000978;232.942244_216.000641;232.532434_216.000363;232.122625_216.000162;231.712815_216.000034;231.303005_215.999966;230.893195_215.999939;230.483385_215.999936;</t>
+  </si>
+  <si>
+    <t>229.929081_216.000000;229.787244_216.000000;229.645406_216.000000;229.503568_216.000000;229.361731_216.000000;229.219893_216.000000;229.078055_216.000000;228.936218_216.000000;228.794380_216.000000;228.652542_216.000000;228.510705_216.000000;228.368867_216.000000;228.227029_216.000000;228.085192_216.000000;227.943354_216.000000;227.801517_216.000000;227.659679_216.000000;227.517841_216.000000;227.376004_216.000000;227.234166_216.000000;227.092328_216.000000;226.950491_216.000000;226.808653_216.000000;226.666815_216.000000;226.524978_216.000000;226.383140_216.000000;226.241302_216.000000;226.099465_216.000000;225.957627_216.000000;225.815789_216.000000;225.673952_216.000000;225.532114_216.000000;225.390277_216.000000;225.248439_216.000000;225.106601_216.000000;224.964764_216.000000;224.822926_216.000000;224.681088_216.000000;224.539251_216.000000;224.397413_216.000000;224.255575_216.000000;224.113738_216.000000;223.971900_216.000000;223.830062_216.000000;223.688225_216.000000;223.546387_216.000000;223.404550_216.000000;223.262712_216.000000;223.120874_216.000000;222.979037_216.000000;</t>
+  </si>
+  <si>
+    <t>222.979037_216.000000;222.837199_216.000000;222.695361_216.000000;222.553524_216.000000;222.411686_216.000000;222.269848_216.000000;222.128011_216.000000;221.986173_216.000000;221.844335_216.000000;221.702498_216.000000;221.560660_216.000000;221.418822_216.000000;221.276985_216.000000;221.135147_216.000000;220.993310_216.000000;220.851472_216.000000;220.709634_216.000000;220.567797_216.000000;220.425959_216.000000;220.284121_216.000000;220.142284_216.000000;220.000446_216.000000;219.858608_216.000000;219.716771_216.000000;219.574933_216.000000;219.433095_216.000000;219.291258_216.000000;219.149420_216.000000;219.007583_216.000000;218.865745_216.000000;218.723907_216.000000;218.582070_216.000000;218.440232_216.000000;218.298394_216.000000;218.156557_216.000000;218.014719_216.000000;217.872881_216.000000;217.731044_216.000000;217.589206_216.000000;217.447368_216.000000;217.305531_216.000000;217.163693_216.000000;217.021855_216.000000;216.880018_216.000000;216.738180_216.000000;216.596343_216.000000;216.454505_216.000000;216.312667_216.000000;216.170830_216.000000;216.028992_216.000000;</t>
+  </si>
+  <si>
+    <t>216.028992_216.000000;215.887154_216.000000;215.745317_216.000000;215.603479_216.000000;215.461641_216.000000;215.319804_216.000000;215.177966_216.000000;215.036128_216.000000;214.894291_216.000000;214.752453_216.000000;214.610616_216.000000;214.468778_216.000000;214.326940_216.000000;214.185103_216.000000;214.043265_216.000000;213.901427_216.000000;213.759590_216.000000;213.617752_216.000000;213.475914_216.000000;213.334077_216.000000;213.192239_216.000000;213.050401_216.000000;212.908564_216.000000;212.766726_216.000000;212.624888_216.000000;212.483051_216.000000;212.341213_216.000000;212.199376_216.000000;212.057538_216.000000;211.915700_216.000000;211.773863_216.000000;211.632025_216.000000;211.490187_216.000000;211.348350_216.000000;211.206512_216.000000;211.064674_216.000000;210.922837_216.000000;210.780999_216.000000;210.639161_216.000000;210.497324_216.000000;210.355486_216.000000;210.213649_216.000000;210.071811_216.000000;209.929973_216.000000;209.788136_216.000000;209.646298_216.000000;209.504460_216.000000;209.362623_216.000000;209.220785_216.000000;209.078947_216.000000;</t>
+  </si>
+  <si>
+    <t>209.078947_216.000000;208.937110_216.000000;208.795272_216.000000;208.653434_216.000000;208.511597_216.000000;208.369759_216.000000;208.227921_216.000000;208.086084_216.000000;207.944246_216.000000;207.802409_216.000000;207.660571_216.000000;207.518733_216.000000;207.376896_216.000000;207.235058_216.000000;207.093220_216.000000;206.951383_216.000000;206.809545_216.000000;206.667707_216.000000;206.525870_216.000000;206.384032_216.000000;206.242194_216.000000;206.100357_216.000000;205.958519_216.000000;205.816682_216.000000;205.674844_216.000000;205.533006_216.000000;205.391169_216.000000;205.249331_216.000000;205.107493_216.000000;204.965656_216.000000;204.823818_216.000000;204.681980_216.000000;204.540143_216.000000;204.398305_216.000000;204.256467_216.000000;204.114630_216.000000;203.972792_216.000000;203.830955_216.000000;203.689117_216.000000;203.547279_216.000000;203.405442_216.000000;203.263604_216.000000;203.121766_216.000000;202.979929_216.000000;202.838091_216.000000;202.696253_216.000000;202.554416_216.000000;202.412578_216.000000;202.270740_216.000000;202.128903_216.000000;</t>
+  </si>
+  <si>
+    <t>202.128903_216.000000;201.987065_216.000000;201.845227_216.000000;201.703390_216.000000;201.561552_216.000000;201.419715_216.000000;201.277877_216.000000;201.136039_216.000000;200.994202_216.000000;200.852364_216.000000;200.710526_216.000000;200.568689_216.000000;200.426851_216.000000;200.285013_216.000000;200.143176_216.000000;200.001338_216.000000;199.859500_216.000000;199.717663_216.000000;199.575825_216.000000;199.433988_216.000000;199.292150_216.000000;199.150312_216.000000;199.008475_216.000000;198.866637_216.000000;198.724799_216.000000;198.582962_216.000000;198.441124_216.000000;198.299286_216.000000;198.157449_216.000000;198.015611_216.000000;197.873773_216.000000;197.731936_216.000000;197.590098_216.000000;197.448260_216.000000;197.306423_216.000000;197.164585_216.000000;197.022748_216.000000;196.880910_216.000000;196.739072_216.000000;196.597235_216.000000;196.455397_216.000000;196.313559_216.000000;196.171722_216.000000;196.029884_216.000000;195.888046_216.000000;195.746209_216.000000;195.604371_216.000000;195.462533_216.000000;195.320696_216.000000;195.178858_216.000000;</t>
+  </si>
+  <si>
+    <t>195.178858_216.000000;195.037021_216.000000;194.895183_216.000000;194.753345_216.000000;194.611508_216.000000;194.469670_216.000000;194.327832_216.000000;194.185995_216.000000;194.044157_216.000000;193.902319_216.000000;193.760482_216.000000;193.618644_216.000000;193.476806_216.000000;193.334969_216.000000;193.193131_216.000000;193.051293_216.000000;192.909456_216.000000;192.767618_216.000000;192.625781_216.000000;192.483943_216.000000;192.342105_216.000000;192.200268_216.000000;192.058430_216.000000;191.916592_216.000000;191.774755_216.000000;191.632917_216.000000;191.491079_216.000000;191.349242_216.000000;191.207404_216.000000;191.065566_216.000000;190.923729_216.000000;190.781891_216.000000;190.640054_216.000000;190.498216_216.000000;190.356378_216.000000;190.214541_216.000000;190.072703_216.000000;189.930865_216.000000;189.789028_216.000000;189.647190_216.000000;189.505352_216.000000;189.363515_216.000000;189.221677_216.000000;189.079839_216.000000;188.938002_216.000000;188.796164_216.000000;188.654326_216.000000;188.512489_216.000000;188.370651_216.000000;188.228814_216.000000;</t>
+  </si>
+  <si>
+    <t>188.228814_216.000000;188.086976_216.000000;187.945138_216.000000;187.803301_216.000000;187.661463_216.000000;187.519625_216.000000;187.377788_216.000000;187.235950_216.000000;187.094112_216.000000;186.952275_216.000000;186.810437_216.000000;186.668599_216.000000;186.526762_216.000000;186.384924_216.000000;186.243087_216.000000;186.101249_216.000000;185.959411_216.000000;185.817574_216.000000;185.675736_216.000000;185.533898_216.000000;185.392061_216.000000;185.250223_216.000000;185.108385_216.000000;184.966548_216.000000;184.824710_216.000000;184.682872_216.000000;184.541035_216.000000;184.399197_216.000000;184.257360_216.000000;184.115522_216.000000;183.973684_216.000000;183.831847_216.000000;183.690009_216.000000;183.548171_216.000000;183.406334_216.000000;183.264496_216.000000;183.122658_216.000000;182.980821_216.000000;182.838983_216.000000;182.697145_216.000000;182.555308_216.000000;182.413470_216.000000;182.271632_216.000000;182.129795_216.000000;181.987957_216.000000;181.846120_216.000000;181.704282_216.000000;181.562444_216.000000;181.420607_216.000000;181.278769_216.000000;</t>
+  </si>
+  <si>
+    <t>181.278769_216.000000;181.136931_216.000000;180.995094_216.000000;180.853256_216.000000;180.711418_216.000000;180.569581_216.000000;180.427743_216.000000;180.285905_216.000000;180.144068_216.000000;180.002230_216.000000;179.860393_216.000000;179.718555_216.000000;179.576717_216.000000;179.434880_216.000000;179.293042_216.000000;179.151204_216.000000;179.009367_216.000000;178.867529_216.000000;178.725691_216.000000;178.583854_216.000000;178.442016_216.000000;178.300178_216.000000;178.158341_216.000000;178.016503_216.000000;177.874665_216.000000;177.732828_216.000000;177.590990_216.000000;177.449153_216.000000;177.307315_216.000000;177.165477_216.000000;177.023640_216.000000;176.881802_216.000000;176.739964_216.000000;176.598127_216.000000;176.456289_216.000000;176.314451_216.000000;176.172614_216.000000;176.030776_216.000000;175.888938_216.000000;175.747101_216.000000;175.605263_216.000000;175.463426_216.000000;175.321588_216.000000;175.179750_216.000000;175.037913_216.000000;174.896075_216.000000;174.754237_216.000000;174.612400_216.000000;174.470562_216.000000;174.328724_216.000000;</t>
+  </si>
+  <si>
+    <t>174.328724_216.000000;174.186887_216.000000;174.045049_216.000000;173.903211_216.000000;173.761374_216.000000;173.619536_216.000000;173.477698_216.000000;173.335861_216.000000;173.194023_216.000000;173.052186_216.000000;172.910348_216.000000;172.768510_216.000000;172.626673_216.000000;172.484835_216.000000;172.342997_216.000000;172.201160_216.000000;172.059322_216.000000;171.917484_216.000000;171.775647_216.000000;171.633809_216.000000;171.491971_216.000000;171.350134_216.000000;171.208296_216.000000;171.066459_216.000000;170.924621_216.000000;170.782783_216.000000;170.640946_216.000000;170.499108_216.000000;170.357270_216.000000;170.215433_216.000000;170.073595_216.000000;169.931757_216.000000;169.789920_216.000000;169.648082_216.000000;169.506244_216.000000;169.364407_216.000000;169.222569_216.000000;169.080731_216.000000;168.938894_216.000000;168.797056_216.000000;168.655219_216.000000;168.513381_216.000000;168.371543_216.000000;168.229706_216.000000;168.087868_216.000000;167.946030_216.000000;167.804193_216.000000;167.662355_216.000000;167.520517_216.000000;167.378680_216.000000;</t>
+  </si>
+  <si>
+    <t>167.378680_216.000000;167.236842_216.000000;167.095004_216.000000;166.953167_216.000000;166.811329_216.000000;166.669492_216.000000;166.527654_216.000000;166.385816_216.000000;166.243979_216.000000;166.102141_216.000000;165.960303_216.000000;165.818466_216.000000;165.676628_216.000000;165.534790_216.000000;165.392953_216.000000;165.251115_216.000000;165.109277_216.000000;164.967440_216.000000;164.825602_216.000000;164.683764_216.000000;164.541927_216.000000;164.400089_216.000000;164.258252_216.000000;164.116414_216.000000;163.974576_216.000000;163.832739_216.000000;163.690901_216.000000;163.549063_216.000000;163.407226_216.000000;163.265388_216.000000;163.123550_216.000000;162.981713_216.000000;162.839875_216.000000;162.698037_216.000000;162.556200_216.000000;162.414362_216.000000;162.272525_216.000000;162.130687_216.000000;161.988849_216.000000;161.847012_216.000000;161.705174_216.000000;161.563336_216.000000;161.421499_216.000000;161.279661_216.000000;161.137823_216.000000;160.995986_216.000000;160.854148_216.000000;160.712310_216.000000;160.570473_216.000000;160.428635_216.000000;</t>
+  </si>
+  <si>
+    <t>160.428635_216.000000;160.286798_216.000000;160.144960_216.000000;160.003122_216.000000;159.861285_216.000000;159.719447_216.000000;159.577609_216.000000;159.435772_216.000000;159.293934_216.000000;159.152096_216.000000;159.010259_216.000000;158.868421_216.000000;158.726583_216.000000;158.584746_216.000000;158.442908_216.000000;158.301070_216.000000;158.159233_216.000000;158.017395_216.000000;157.875558_216.000000;157.733720_216.000000;157.591882_216.000000;157.450045_216.000000;157.308207_216.000000;157.166369_216.000000;157.024532_216.000000;156.882694_216.000000;156.740856_216.000000;156.599019_216.000000;156.457181_216.000000;156.315343_216.000000;156.173506_216.000000;156.031668_216.000000;155.889831_216.000000;155.747993_216.000000;155.606155_216.000000;155.464318_216.000000;155.322480_216.000000;155.180642_216.000000;155.038805_216.000000;154.896967_216.000000;154.755129_216.000000;154.613292_216.000000;154.471454_216.000000;154.329616_216.000000;154.187779_216.000000;154.045941_216.000000;153.904103_216.000000;153.762266_216.000000;153.620428_216.000000;153.478591_216.000000;</t>
+  </si>
+  <si>
+    <t>153.478591_216.000000;153.336753_216.000000;153.194915_216.000000;153.053078_216.000000;152.911240_216.000000;152.769402_216.000000;152.627565_216.000000;152.485727_216.000000;152.343889_216.000000;152.202052_216.000000;152.060214_216.000000;151.918376_216.000000;151.776539_216.000000;151.634701_216.000000;151.492864_216.000000;151.351026_216.000000;151.209188_216.000000;151.067351_216.000000;150.925513_216.000000;150.783675_216.000000;150.641838_216.000000;150.500000_216.000000;150.358162_216.000000;150.216325_216.000000;150.074487_216.000000;149.932649_216.000000;149.790812_216.000000;149.648974_216.000000;149.507136_216.000000;149.365299_216.000000;149.223461_216.000000;149.081624_216.000000;148.939786_216.000000;148.797948_216.000000;148.656111_216.000000;148.514273_216.000000;148.372435_216.000000;148.230598_216.000000;148.088760_216.000000;147.946922_216.000000;147.805085_216.000000;147.663247_216.000000;147.521409_216.000000;147.379572_216.000000;147.237734_216.000000;147.095897_216.000000;146.954059_216.000000;146.812221_216.000000;146.670384_216.000000;146.528546_216.000000;</t>
+  </si>
+  <si>
+    <t>146.528546_216.000000;146.386708_216.000000;146.244871_216.000000;146.103033_216.000000;145.961195_216.000000;145.819358_216.000000;145.677520_216.000000;145.535682_216.000000;145.393845_216.000000;145.252007_216.000000;145.110169_216.000000;144.968332_216.000000;144.826494_216.000000;144.684657_216.000000;144.542819_216.000000;144.400981_216.000000;144.259144_216.000000;144.117306_216.000000;143.975468_216.000000;143.833631_216.000000;143.691793_216.000000;143.549955_216.000000;143.408118_216.000000;143.266280_216.000000;143.124442_216.000000;142.982605_216.000000;142.840767_216.000000;142.698930_216.000000;142.557092_216.000000;142.415254_216.000000;142.273417_216.000000;142.131579_216.000000;141.989741_216.000000;141.847904_216.000000;141.706066_216.000000;141.564228_216.000000;141.422391_216.000000;141.280553_216.000000;141.138715_216.000000;140.996878_216.000000;140.855040_216.000000;140.713202_216.000000;140.571365_216.000000;140.429527_216.000000;140.287690_216.000000;140.145852_216.000000;140.004014_216.000000;139.862177_216.000000;139.720339_216.000000;139.578501_216.000000;</t>
+  </si>
+  <si>
+    <t>139.578501_216.000000;139.436664_216.000000;139.294826_216.000000;139.152988_216.000000;139.011151_216.000000;138.869313_216.000000;138.727475_216.000000;138.585638_216.000000;138.443800_216.000000;138.301963_216.000000;138.160125_216.000000;138.018287_216.000000;137.876450_216.000000;137.734612_216.000000;137.592774_216.000000;137.450937_216.000000;137.309099_216.000000;137.167261_216.000000;137.025424_216.000000;136.883586_216.000000;136.741748_216.000000;136.599911_216.000000;136.458073_216.000000;136.316236_216.000000;136.174398_216.000000;136.032560_216.000000;135.890723_216.000000;135.748885_216.000000;135.607047_216.000000;135.465210_216.000000;135.323372_216.000000;135.181534_216.000000;135.039697_216.000000;134.897859_216.000000;134.756021_216.000000;134.614184_216.000000;134.472346_216.000000;134.330508_216.000000;134.188671_216.000000;134.046833_216.000000;133.904996_216.000000;133.763158_216.000000;133.621320_216.000000;133.479483_216.000000;133.337645_216.000000;133.195807_216.000000;133.053970_216.000000;132.912132_216.000000;132.770294_216.000000;132.628457_216.000000;</t>
+  </si>
+  <si>
+    <t>132.628457_216.000000;132.486619_216.000000;132.344781_216.000000;132.202944_216.000000;132.061106_216.000000;131.919269_216.000000;131.777431_216.000000;131.635593_216.000000;131.493756_216.000000;131.351918_216.000000;131.210080_216.000000;131.068243_216.000000;130.926405_216.000000;130.784567_216.000000;130.642730_216.000000;130.500892_216.000000;130.359054_216.000000;130.217217_216.000000;130.075379_216.000000;129.933541_216.000000;129.791704_216.000000;129.649866_216.000000;129.508029_216.000000;129.366191_216.000000;129.224353_216.000000;129.082516_216.000000;128.940678_216.000000;128.798840_216.000000;128.657003_216.000000;128.515165_216.000000;128.373327_216.000000;128.231490_216.000000;128.089652_216.000000;127.947814_216.000000;127.805977_216.000000;127.664139_216.000000;127.522302_216.000000;127.380464_216.000000;127.238626_216.000000;127.096789_216.000000;126.954951_216.000000;126.813113_216.000000;126.671276_216.000000;126.529438_216.000000;126.387600_216.000000;126.245763_216.000000;126.103925_216.000000;125.962087_216.000000;125.820250_216.000000;125.678412_216.000000;</t>
+  </si>
+  <si>
+    <t>125.678412_216.000000;125.536574_216.000000;125.394737_216.000000;125.252899_216.000000;125.111062_216.000000;124.969224_216.000000;124.827386_216.000000;124.685549_216.000000;124.543711_216.000000;124.401873_216.000000;124.260036_216.000000;124.118198_216.000000;123.976360_216.000000;123.834523_216.000000;123.692685_216.000000;123.550847_216.000000;123.409010_216.000000;123.267172_216.000000;123.125335_216.000000;122.983497_216.000000;122.841659_216.000000;122.699822_216.000000;122.557984_216.000000;122.416146_216.000000;122.274309_216.000000;122.132471_216.000000;121.990633_216.000000;121.848796_216.000000;121.706958_216.000000;121.565120_216.000000;121.423283_216.000000;121.281445_216.000000;121.139607_216.000000;120.997770_216.000000;120.855932_216.000000;120.714095_216.000000;120.572257_216.000000;120.430419_216.000000;120.288582_216.000000;120.146744_216.000000;120.004906_216.000000;119.863069_216.000000;119.721231_216.000000;119.579393_216.000000;119.437556_216.000000;119.295718_216.000000;119.153880_216.000000;119.012043_216.000000;118.870205_216.000000;118.728368_216.000000;</t>
+  </si>
+  <si>
+    <t>118.728368_216.000000;118.586530_216.000000;118.444692_216.000000;118.302855_216.000000;118.161017_216.000000;118.019179_216.000000;117.877342_216.000000;117.735504_216.000000;117.593666_216.000000;117.451829_216.000000;117.309991_216.000000;117.168153_216.000000;117.026316_216.000000;116.884478_216.000000;116.742640_216.000000;116.600803_216.000000;116.458965_216.000000;116.317128_216.000000;116.175290_216.000000;116.033452_216.000000;115.891615_216.000000;115.749777_216.000000;115.607939_216.000000;115.466102_216.000000;115.324264_216.000000;115.182426_216.000000;115.040589_216.000000;114.898751_216.000000;114.756913_216.000000;114.615076_216.000000;114.473238_216.000000;114.331401_216.000000;114.189563_216.000000;114.047725_216.000000;113.905888_216.000000;113.764050_216.000000;113.622212_216.000000;113.480375_216.000000;113.338537_216.000000;113.196699_216.000000;113.054862_216.000000;112.913024_216.000000;112.771186_216.000000;112.629349_216.000000;112.487511_216.000000;112.345674_216.000000;112.203836_216.000000;112.061998_216.000000;111.920161_216.000000;111.778323_216.000000;</t>
+  </si>
+  <si>
+    <t>111.778323_216.000000;111.636485_216.000000;111.494648_216.000000;111.352810_216.000000;111.210972_216.000000;111.069135_216.000000;110.927297_216.000000;110.785459_216.000000;110.643622_216.000000;110.501784_216.000000;110.359946_216.000000;110.218109_216.000000;110.076271_216.000000;109.934434_216.000000;109.792596_216.000000;109.650758_216.000000;109.508921_216.000000;109.367083_216.000000;109.225245_216.000000;109.083408_216.000000;108.941570_216.000000;108.799732_216.000000;108.657895_216.000000;108.516057_216.000000;108.374219_216.000000;108.232382_216.000000;108.090544_216.000000;107.948707_216.000000;107.806869_216.000000;107.665031_216.000000;107.523194_216.000000;107.381356_216.000000;107.239518_216.000000;107.097681_216.000000;106.955843_216.000000;106.814005_216.000000;106.672168_216.000000;106.530330_216.000000;106.388492_216.000000;106.246655_216.000000;106.104817_216.000000;105.962979_216.000000;105.821142_216.000000;105.679304_216.000000;105.537467_216.000000;105.395629_216.000000;105.253791_216.000000;105.111954_216.000000;104.970116_216.000000;104.828278_216.000000;</t>
+  </si>
+  <si>
+    <t>104.828278_216.000000;104.686441_216.000000;104.544603_216.000000;104.402765_216.000000;104.260928_216.000000;104.119090_216.000000;103.977252_216.000000;103.835415_216.000000;103.693577_216.000000;103.551740_216.000000;103.409902_216.000000;103.268064_216.000000;103.126227_216.000000;102.984389_216.000000;102.842551_216.000000;102.700714_216.000000;102.558876_216.000000;102.417038_216.000000;102.275201_216.000000;102.133363_216.000000;101.991525_216.000000;101.849688_216.000000;101.707850_216.000000;101.566012_216.000000;101.424175_216.000000;101.282337_216.000000;101.140500_216.000000;100.998662_216.000000;100.856824_216.000000;100.714987_216.000000;100.573149_216.000000;100.431311_216.000000;100.289474_216.000000;100.147636_216.000000;100.005798_216.000000;99.863961_216.000000;99.722123_216.000000;99.580285_216.000000;99.438448_216.000000;99.296610_216.000000;99.154773_216.000000;99.012935_216.000000;98.871097_216.000000;98.729260_216.000000;98.587422_216.000000;98.445584_216.000000;98.303747_216.000000;98.161909_216.000000;98.020071_216.000000;97.878234_216.000000;</t>
+  </si>
+  <si>
+    <t>97.878234_216.000000;97.736396_216.000000;97.594558_216.000000;97.452721_216.000000;97.310883_216.000000;97.169045_216.000000;97.027208_216.000000;96.885370_216.000000;96.743533_216.000000;96.601695_216.000000;96.459857_216.000000;96.318020_216.000000;96.176182_216.000000;96.034344_216.000000;95.892507_216.000000;95.750669_216.000000;95.608831_216.000000;95.466994_216.000000;95.325156_216.000000;95.183318_216.000000;95.041481_216.000000;94.899643_216.000000;94.757806_216.000000;94.615968_216.000000;94.474130_216.000000;94.332293_216.000000;94.190455_216.000000;94.048617_216.000000;93.906780_216.000000;93.764942_216.000000;93.623104_216.000000;93.481267_216.000000;93.339429_216.000000;93.197591_216.000000;93.055754_216.000000;92.913916_216.000000;92.772079_216.000000;92.630241_216.000000;92.488403_216.000000;92.346566_216.000000;92.204728_216.000000;92.062890_216.000000;91.921053_216.000000;91.779215_216.000000;91.637377_216.000000;91.495540_216.000000;91.353702_216.000000;91.211864_216.000000;91.070027_216.000000;90.928189_216.000000;</t>
+  </si>
+  <si>
+    <t>90.928189_216.000000;90.786351_216.000000;90.644514_216.000000;90.502676_216.000000;90.360839_216.000000;90.219001_216.000000;90.077163_216.000000;89.935326_216.000000;89.793488_216.000000;89.651650_216.000000;89.509813_216.000000;89.367975_216.000000;89.226137_216.000000;89.084300_216.000000;88.942462_216.000000;88.800624_216.000000;88.658787_216.000000;88.516949_216.000000;88.375112_216.000000;88.233274_216.000000;88.091436_216.000000;87.949599_216.000000;87.807761_216.000000;87.665923_216.000000;87.524086_216.000000;87.382248_216.000000;87.240410_216.000000;87.098573_216.000000;86.956735_216.000000;86.814897_216.000000;86.673060_216.000000;86.531222_216.000000;86.389384_216.000000;86.247547_216.000000;86.105709_216.000000;85.963872_216.000000;85.822034_216.000000;85.680196_216.000000;85.538359_216.000000;85.396521_216.000000;85.254683_216.000000;85.112846_216.000000;84.971008_216.000000;84.829170_216.000000;84.687333_216.000000;84.545495_216.000000;84.403657_216.000000;84.261820_216.000000;84.119982_216.000000;83.978145_216.000000;</t>
+  </si>
+  <si>
+    <t>83.978145_216.000000;83.836307_216.000000;83.694469_216.000000;83.552632_216.000000;83.410794_216.000000;83.268956_216.000000;83.127119_216.000000;82.985281_216.000000;82.843443_216.000000;82.701606_216.000000;82.559768_216.000000;82.417930_216.000000;82.276093_216.000000;82.134255_216.000000;81.992417_216.000000;81.850580_216.000000;81.708742_216.000000;81.566905_216.000000;81.425067_216.000000;81.283229_216.000000;81.141392_216.000000;80.999554_216.000000;80.857716_216.000000;80.715879_216.000000;80.574041_216.000000;80.432203_216.000000;80.290366_216.000000;80.148528_216.000000;80.006690_216.000000;79.864853_216.000000;79.723015_216.000000;79.581178_216.000000;79.439340_216.000000;79.297502_216.000000;79.155665_216.000000;79.013827_216.000000;78.871989_216.000000;78.730152_216.000000;78.588314_216.000000;78.446476_216.000000;78.304639_216.000000;78.162801_216.000000;78.020963_216.000000;77.879126_216.000000;77.737288_216.000000;77.595450_216.000000;77.453613_216.000000;77.311775_216.000000;77.169938_216.000000;77.028100_216.000000;</t>
+  </si>
+  <si>
+    <t>76.870452_215.747466;76.609788_215.592101;76.344403_215.445096;76.071217_215.313529;75.788367_215.204730;75.496939_215.121391;75.199826_215.060781;74.899521_215.017899;74.597761_214.985952;74.295695_214.956774;73.994287_214.921892;73.694707_214.874278;73.398390_214.809663;73.107041_214.725619;72.821909_214.622295;72.541576_214.506167;72.262057_214.388016;71.979035_214.278870;71.689992_214.187216;71.395258_214.115911;71.096394_214.064437;70.794911_214.031143;70.492095_214.012418;70.188787_214.003125;69.885359_213.997808;69.581971_213.990976;69.278862_213.977162;68.976635_213.951049;68.676361_213.908382;68.379448_213.846707;68.087496_213.764800;67.801504_213.663837;67.520049_213.550448;67.239564_213.434599;66.956277_213.326013;66.668459_213.230137;66.377239_213.144901;66.084629_213.064431;65.792561_212.982080;65.503375_212.890406;65.220080_212.782271;64.945985_212.652817;64.682492_212.502749;64.427934_212.337725;64.179498_212.163501;63.934496_211.984429;63.690548_211.803909;63.445572_211.624800;63.197531_211.449996;62.944470_211.282604;</t>
+  </si>
+  <si>
+    <t>62.944470_211.282604;62.686207_211.123314;62.425220_210.968455;62.165012_210.812312;61.908802_210.649767;61.657806_210.479261;61.410944_210.302779;61.166580_210.122831;60.923139_209.941629;60.679063_209.761288;60.432768_209.584011;60.182609_209.412270;59.927072_209.248692;59.666446_209.093290;59.403480_208.941815;59.141747_208.788254;58.884413_208.627509;58.632431_208.458463;58.384491_208.283496;58.138847_208.105298;57.893817_207.926251;57.647759_207.748629;57.399031_207.574791;57.145934_207.407431;56.887083_207.249167;56.623354_207.099077;56.358144_206.951566;56.095457_206.799693;55.838683_206.638126;55.589043_206.465710;55.345951_206.284137;55.108589_206.095106;54.876193_205.899983;54.648093_205.699843;54.423705_205.495542;54.202495_205.287797;53.983986_205.077209;53.768038_204.863996;53.555028_204.647854;53.345524_204.428316;53.140024_204.205030;52.938966_203.977741;52.742845_203.746183;52.552222_203.510085;52.367549_203.269307;52.189111_203.023875;52.017035_202.773939;51.851080_202.519891;51.690449_202.262433;51.534169_202.002303;</t>
+  </si>
+  <si>
+    <t>51.534169_202.002303;51.381419_201.740080;51.231510_201.476220;51.083848_201.211093;50.937920_200.945007;50.793333_200.678189;50.649798_200.410803;50.507064_200.142989;50.364890_199.874876;50.223046_199.606589;50.081303_199.338248;49.939472_199.069954;49.797562_198.801702;49.655801_198.533370;49.514471_198.264813;49.373840_197.995887;49.234170_197.726463;49.095701_197.456420;48.958685_197.185637;48.823565_196.913905;48.690993_196.640923;48.561585_196.366430;48.435810_196.090255;48.313995_195.812312;48.196333_195.532586;48.082904_195.251117;47.973701_194.967981;47.868657_194.683276;47.767666_194.397107;47.670586_194.109587;47.577249_193.820829;47.487469_193.530944;47.401056_193.240038;47.317817_192.948206;47.237567_192.655538;47.160126_192.362113;47.085322_192.068004;47.012996_191.773276;46.942956_191.477996;46.874935_191.182243;46.808646_190.886096;46.743848_190.589620;46.680337_190.292865;46.617938_189.995873;46.556501_189.698681;46.495894_189.401319;46.436000_189.103812;46.376711_188.806184;46.317932_188.508455;46.259572_188.210643;</t>
+  </si>
+  <si>
+    <t>46.000000_185.856061;46.000000_185.568182;46.000000_185.280303;46.000000_184.992424;46.000000_184.704545;46.000000_184.416667;46.000000_184.128788;46.000000_183.840909;46.000000_183.553030;46.000000_183.265152;46.000000_182.977273;46.000000_182.689394;46.000000_182.401515;46.000000_182.113636;46.000000_181.825758;46.000000_181.537879;46.000000_181.250000;46.000000_180.962121;46.000000_180.674242;46.000000_180.386364;46.000000_180.098485;46.000000_179.810606;46.000000_179.522727;46.000000_179.234848;46.000000_178.946970;46.000000_178.659091;46.000000_178.371212;46.000000_178.083333;46.000000_177.795455;46.000000_177.507576;46.000000_177.219697;46.000000_176.931818;46.000000_176.643939;46.000000_176.356061;46.000000_176.068182;46.000000_175.780303;46.000000_175.492424;46.000000_175.204545;46.000000_174.916667;46.000000_174.628788;46.000000_174.340909;46.000000_174.053030;46.000000_173.765152;46.000000_173.477273;46.000000_173.189394;46.000000_172.901515;46.000000_172.613636;46.000000_172.325758;46.000000_172.037879;46.000000_171.750000;</t>
+  </si>
+  <si>
+    <t>46.000000_171.750000;46.000000_171.462121;46.000000_171.174242;46.000000_170.886364;46.000000_170.598485;46.000000_170.310606;46.000000_170.022727;46.000000_169.734848;46.000000_169.446970;46.000000_169.159091;46.000000_168.871212;46.000000_168.583333;46.000000_168.295455;46.000000_168.007576;46.000000_167.719697;46.000000_167.431818;46.000000_167.143939;46.000000_166.856061;46.000000_166.568182;46.000000_166.280303;46.000000_165.992424;46.000000_165.704545;46.000000_165.416667;46.000000_165.128788;46.000000_164.840909;46.000000_164.553030;46.000000_164.265152;46.000000_163.977273;46.000000_163.689394;46.000000_163.401515;46.000000_163.113636;46.000000_162.825758;46.000000_162.537879;46.000000_162.250000;46.000000_161.962121;46.000000_161.674242;46.000000_161.386364;46.000000_161.098485;46.000000_160.810606;46.000000_160.522727;</t>
+  </si>
+  <si>
+    <t>46.000000_160.522727;46.000000_160.234848;46.000000_159.946970;46.000000_159.659091;46.000000_159.371212;46.000000_159.083333;46.000000_158.795455;46.000000_158.507576;46.000000_158.219697;46.000000_157.931818;46.000000_157.643939;46.000000_157.356061;46.000000_157.068182;46.000000_156.780303;46.000000_156.492424;46.000000_156.204545;46.000000_155.916667;46.000000_155.628788;46.000000_155.340909;46.000000_155.053030;46.000000_154.765152;46.000000_154.477273;46.000000_154.189394;46.000000_153.901515;46.000000_153.613636;46.000000_153.325758;46.000000_153.037879;46.000000_152.750000;46.000000_152.462121;46.000000_152.174242;46.000000_151.886364;46.000000_151.598485;46.000000_151.310606;46.000000_151.022727;46.000000_150.734848;46.000000_150.446970;46.000000_150.159091;46.000000_149.871212;46.000000_149.583333;46.000000_149.295455;</t>
+  </si>
+  <si>
+    <t>46.233489_147.500322;46.706121_146.713376;47.195144_145.936601;47.701225_145.170752;48.213307_144.408849;48.731170_143.650921;49.270188_142.908123;49.833252_142.183210;50.402707_141.463198;50.958041_140.732407;51.494961_139.987881;52.035820_139.246314;52.606248_138.527572;53.208754_137.835258;53.824025_137.153992;54.423802_136.459389;54.986854_135.735026;55.512789_134.982946;56.021635_134.218891;56.530537_133.454863;57.039281_132.690730;57.549221_131.927415;58.079243_131.178272;58.647241_130.457747;59.248881_129.764654;59.860013_129.079689;60.452216_128.378650;61.009235_127.649482;61.538744_126.899709;62.072992_126.153444;62.648297_125.439319;63.291152_124.787174;64.019760_124.235759;64.812779_123.775984;65.609165_123.320525;</t>
+  </si>
+  <si>
+    <t>248.588821_190.999634;249.766463_190.998818;250.944101_191.000235;252.121686_191.009647;253.299204_191.025744;254.475182_190.999040;255.627846_190.805410;256.740078_190.429804;257.865778_190.109430;259.025204_189.911363;260.154810_189.606029;261.265595_189.224177;262.414001_189.012792;263.589244_188.989836;264.766437_189.015075;265.937961_188.948567;267.071191_188.667132;268.181173_188.282046;269.324746_188.029432;270.481897_187.825857;271.602507_187.480006;272.717373_187.106816;273.838237_186.752058;274.921521_186.297153;275.974397_185.770236;277.020349_185.229822;278.074085_184.704693;279.161077_184.260242;280.288100_183.927103;281.396718_183.545214;282.453536_183.029325;283.449628_182.407078;284.400170_181.712588;285.388156_181.077216;286.425595_180.521022;287.485401_180.008695;288.548918_179.503655;289.594092_178.962334;290.575988_178.321855;291.466899_177.554600;292.312062_176.734736;293.148288_175.905544;293.983118_175.074965;294.795127_174.222702;295.546645_173.318003;296.215172_172.350344;296.820886_171.340827;297.407813_170.319887;298.015302_169.311385;298.664381_168.329241;</t>
+  </si>
+  <si>
+    <t>315.000000_168.760000;315.000000_170.280000;315.000000_171.800000;315.000000_173.320000;315.000000_174.840000;315.000000_176.360000;315.000000_177.880000;315.000000_179.400000;315.000000_180.920000;315.000000_182.440000;315.000000_183.960000;315.000000_185.480000;315.000000_187.000000;315.000000_188.520000;315.000000_190.040000;315.000000_191.560000;315.000000_193.080000;315.000000_194.600000;315.000000_196.120000;315.000000_197.640000;315.000000_199.160000;315.000000_200.680000;315.000000_202.200000;315.000000_203.720000;315.000000_205.240000;315.000000_206.760000;315.000000_208.280000;315.000000_209.800000;315.000000_211.320000;315.000000_212.840000;315.000000_214.360000;315.000000_215.880000;315.000000_217.400000;315.000000_218.920000;315.000000_220.440000;315.000000_221.960000;315.000000_223.480000;315.000000_225.000000;315.000000_226.520000;315.000000_228.040000;315.000000_229.560000;315.000000_231.080000;315.000000_232.600000;315.000000_234.120000;315.000000_235.640000;315.000000_237.160000;315.000000_238.680000;315.000000_240.200000;315.000000_241.720000;315.000000_243.240000;</t>
+  </si>
+  <si>
+    <t>217.155812_122.026449;217.467452_122.032128;217.779122_122.035349;218.090798_122.034368;218.402353_122.026548;218.713415_122.008132;219.023212_121.975170;219.330540_121.924411;219.633872_121.853759;219.931509_121.762114;220.222588_121.651156;220.508964_121.528191;220.794646_121.403570;221.083656_121.287112;221.377631_121.183852;221.675347_121.091720;221.974915_121.005658;222.274648_120.920160;222.572893_120.829716;222.867835_120.729202;223.158005_120.615686;223.444558_120.493096;223.731342_120.371065;224.022509_120.260319;224.320282_120.169211;224.623979_120.100273;224.931746_120.052402;225.241907_120.023148;225.553165_120.008113;225.864771_120.001579;226.176437_119.997596;226.488018_119.990194;226.799178_119.973441;227.109084_119.941725;227.416376_119.890932;227.719346_119.818882;228.016181_119.724741;228.306559_119.611866;228.593117_119.489282;228.880132_119.367808;229.171243_119.256770;229.467196_119.159277;229.766374_119.071971;230.067028_118.989775;230.367550_118.907106;230.666245_118.818208;230.961194_118.717785;231.251360_118.604217;231.538438_118.482842;231.826035_118.362739;</t>
+  </si>
+  <si>
+    <t>232.413704_118.155910;232.713189_118.069668;233.014097_117.988399;233.314805_117.906414;233.613731_117.818283;233.909115_117.719113;234.199783_117.606854;234.487326_117.486585;234.775706_117.368411;235.068839_117.263053;235.368312_117.177606;235.672925_117.112533;235.980829_117.064977;236.290537_117.030357;236.600897_117.001615;236.910989_116.970339;237.219754_116.928542;237.525666_116.869900;237.826596_116.789898;238.120213_116.686304;238.406235_116.562846;238.687177_116.427932;238.966519_116.289662;239.246726_116.153161;239.527652_116.018133;239.807526_115.880964;240.084651_115.738363;240.358892_115.590253;240.632104_115.440232;240.906760_115.292905;241.184682_115.151880;241.465476_115.016600;241.746937_114.882695;242.026718_114.745358;242.303848_114.602736;242.579670_114.457569;242.856578_114.314513;243.136586_114.177682;243.419670_114.047276;243.703772_113.919069;243.986467_113.787831;244.266324_113.650660;244.544010_113.509098;244.821387_113.366925;245.100090_113.227387;245.379647_113.089552;245.657081_112.947578;245.928719_112.794988;246.191716_112.628020;246.445610_112.447419;</t>
+  </si>
+  <si>
+    <t>246.931233_112.056874;247.165570_111.851395;247.395807_111.641314;247.622984_111.427917;247.848060_111.212299;248.071901_110.995396;248.295031_110.777761;248.517578_110.559530;248.739553_110.340717;248.960965_110.121334;249.181631_109.901202;249.400891_109.679673;249.617802_109.455850;249.831468_109.228935;250.041080_108.998277;250.245813_108.763287;250.444805_108.523427;250.637348_108.278366;250.822969_108.028024;251.001433_107.772530;251.172978_107.512331;251.338419_107.248197;251.498703_106.980893;251.654612_106.711009;251.806795_106.439003;251.955802_106.165241;252.102067_105.890003;252.245859_105.613464;252.387333_105.335732;252.526621_105.056896;252.663843_104.777038;252.799111_104.496230;252.932527_104.214536;253.064174_103.932012;253.194073_103.648680;253.322191_103.364537;253.448491_103.079582;253.572945_102.793817;253.695535_102.507246;253.816251_102.219882;253.935090_101.931736;254.052076_101.642832;254.167344_101.353238;254.281140_101.063062;254.393705_100.772406;254.505261_100.481361;254.616014_100.190010;254.726154_99.898425;254.835863_99.606679;254.945316_99.314836;</t>
+  </si>
+  <si>
+    <t>255.025525_97.738635;255.076606_97.458237;255.127780_97.177857;255.179109_96.897504;255.230659_96.617192;255.282497_96.336933;255.334694_96.056741;255.387326_95.776631;255.440476_95.496618;255.494234_95.216721;255.548698_94.936961;255.603981_94.657362;255.660207_94.377951;255.717522_94.098762;255.776094_93.819834;255.836122_93.541216;255.897846_93.262969;255.961559_92.985172;256.027608_92.707923;256.096307_92.431318;256.167886_92.155446;256.242567_91.880398;256.320581_91.606279;256.402170_91.333203;256.487576_91.061298;256.577030_90.790699;256.670742_90.521546;256.768869_90.253973;256.871493_89.988091;256.978578_89.723975;257.090007_89.461661;257.205696_89.201198;257.325570_88.942634;257.449451_88.685964;257.577030_88.431109;257.707851_88.177902;257.841313_87.926073;257.976679_87.675259;258.113281_87.425116;258.250830_87.175492;258.389311_86.926385;258.528735_86.677803;258.669109_86.429757;258.810443_86.182256;258.952746_85.935312;259.096085_85.688967;259.240736_85.443392;259.387167_85.198876;259.535920_84.955767;259.687609_84.714484;</t>
+  </si>
+  <si>
+    <t>260.002783_84.239589;260.167810_84.007246;260.338248_83.778842;260.513974_83.554480;260.694744_83.334160;260.880199_83.117765;261.069867_82.905047;261.263217_82.695665;261.459688_82.489204;261.658659_82.285146;261.859445_82.082869;262.061335_81.881692;262.263792_81.681085;262.466519_81.480750;262.669294_81.280465;262.871898_81.080006;263.074134_80.879176;263.275981_80.677955;263.477616_80.476522;263.679273_80.275110;263.881183_80.073952;264.083607_79.873313;264.286983_79.673640;264.491954_79.475608;264.699244_79.280011;264.909631_79.087761;265.123955_78.899924;265.343107_78.717765;265.568035_78.542824;265.799767_78.377056;266.039293_78.222839;266.286432_78.081103;266.539142_77.949414;266.794593_77.823029;267.050066_77.696685;267.304236_77.567740;267.557795_77.437587;267.812199_77.309109;268.068779_77.185069;268.327689_77.065945;268.587554_76.948890;268.846500_76.829843;269.102862_76.705374;269.356418_76.575249;269.608603_76.442456;269.861281_76.310612;270.116040_76.182870;270.372967_76.059518;270.630573_75.937572;270.887024_75.813244;</t>
+  </si>
+  <si>
+    <t>271.392147_75.549223;271.642583_75.413158;271.894053_75.279036;272.148094_75.149887;272.404734_75.025949;272.662645_74.904651;272.920295_74.782803;273.176694_74.658354;273.432648_74.532979;273.690373_74.411353;273.952170_74.298946;274.219370_74.200200;274.491227_74.114905;274.765872_74.038842;275.041634_73.966828;275.317093_73.893688;275.590922_73.814781;275.861666_73.726020;276.128018_73.624891;276.390605_73.514153;276.652253_73.401150;276.916283_73.294005;277.185240_73.200247;277.459563_73.123637;277.738132_73.064200;278.019703_73.020999;278.303165_72.992357;278.587626_72.975717;278.872503_72.968045;279.157498_72.966374;279.442497_72.968488;279.727474_72.972900;280.012436_72.978269;280.297399_72.983571;280.582372_72.988348;280.867355_72.992419;281.152349_72.995641;281.437351_72.998006;281.722359_72.999634;282.007369_73.000670;282.292381_73.001248;282.577394_73.001483;282.862406_73.001482;283.147419_73.001345;283.432431_73.001138;283.717444_73.000897;284.002456_73.000649;284.287469_73.000414;284.572481_73.000195;284.857494_72.999985;</t>
+  </si>
+  <si>
+    <t>285.126337_72.999989;285.379010_72.999977;285.631684_72.999966;285.884357_72.999955;286.137031_72.999945;286.389705_72.999937;286.642378_72.999933;286.895052_72.999935;287.147725_72.999946;287.400399_72.999968;287.653072_73.000007;287.905746_73.000066;288.158419_73.000149;288.411093_73.000260;288.663766_73.000400;288.916440_73.000569;289.169113_73.000765;289.421787_73.000975;289.674460_73.001179;289.927134_73.001354;290.179807_73.001469;290.432481_73.001469;290.685154_73.001282;290.937827_73.000832;291.190500_73.000040;291.443170_72.998813;291.695837_72.997050;291.948499_72.994648;292.201153_72.991545;292.453798_72.987781;292.706435_72.983465;292.959064_72.978718;293.211690_72.973817;293.464325_72.969431;293.716978_72.966488;293.969646_72.965940;294.222288_72.969006;294.474790_72.977509;294.726899_72.993627;294.978169_73.019477;295.227957_73.056868;295.475479_73.107029;295.719858_73.170708;295.960173_73.248301;296.196043_73.338627;296.428553_73.437471;296.659868_73.539140;296.892316_73.638130;297.127844_73.729419;297.366874_73.811133;297.608505_73.884899;297.851724_73.953330;298.095631_74.019305;298.339369_74.085891;298.582039_74.156214;298.822636_74.233237;299.060125_74.319298;299.294434_74.413766;299.526980_74.512580;299.759765_74.610819;299.994751_74.703559;300.233048_74.787358;300.474271_74.862418;300.717359_74.931291;300.961355_74.996933;301.205395_75.062412;301.448653_75.130696;301.690252_75.204562;301.929198_75.286519;302.164840_75.377553;302.398009_75.474865;302.630807_75.573083;302.865496_75.666582;303.103968_75.749719;303.346711_75.819366;</t>
+  </si>
+  <si>
+    <t>303.841483_75.920571;304.091666_75.955598;304.342736_75.983874;304.594112_76.009434;304.845307_76.036627;305.095773_76.069646;305.344836_76.111769;305.591699_76.165160;305.835392_76.231430;306.074930_76.311405;306.310393_76.402881;306.543403_76.500580;306.776197_76.598806;307.010990_76.692041;307.249027_76.776586;307.489964_76.852562;307.732802_76.922310;307.976640_76.988528;308.220655_77.054104;308.464016_77.122029;308.705818_77.195235;308.945040_77.276387;309.181038_77.366499;309.414593_77.462882;309.647617_77.560567;309.882160_77.654466;310.119900_77.739796;310.361103_77.814827;310.604805_77.881425;310.849963_77.942545;311.095675_78.001444;311.341038_78.061747;311.585020_78.127309;311.826390_78.201759;312.063791_78.287920;312.296683_78.385709;312.525871_78.492003;312.752741_78.603222;312.978735_78.716227;313.204688_78.829316;313.430032_78.943601;313.653356_79.061748;313.873194_79.186209;314.088288_79.318669;314.298494_79.458795;314.504849_79.604573;314.708622_79.753960;314.911027_79.905206;315.113220_80.056738;315.316235_80.207161;315.521022_80.355152;315.728543_80.499263;315.939802_80.637803;316.155341_80.769579;316.374147_80.895914;316.593986_81.020471;316.812468_81.147358;317.027289_81.280282;317.237015_81.421092;317.441556_81.569359;317.641373_81.723953;317.836926_81.883918;318.028658_82.048457;318.217031_82.216838;318.402557_82.388357;318.585742_82.562381;318.767054_82.738358;318.946933_82.915802;319.125768_83.094300;319.303835_83.273564;319.481330_83.453396;319.658432_83.633614;319.835322_83.814042;320.012174_83.994506;320.189131_84.174867;</t>
+  </si>
+  <si>
+    <t>320.543689_84.534956;320.721415_84.714558;320.899525_84.893781;321.078079_85.072561;321.257126_85.250847;321.436701_85.428601;321.616834_85.605789;321.797557_85.782376;321.978902_85.958324;322.160870_86.133628;322.343391_86.308356;322.526350_86.482625;322.709627_86.656560;322.893101_86.830288;323.076618_87.003970;323.259829_87.177973;323.442181_87.352876;323.623083_87.529274;323.801979_87.707702;323.978356_87.888617;324.151644_88.072485;324.321113_88.259871;324.486018_88.451278;324.645781_88.646990;324.800009_88.847092;324.948476_89.051503;325.091154_89.260000;325.228272_89.472200;325.360210_89.687664;325.487341_89.906004;325.610007_90.126886;325.728519_90.350027;325.843164_90.575182;325.954202_90.802138;326.061859_91.030720;326.166299_91.260790;326.267640_91.492242;326.366002_91.724977;326.461505_91.958901;326.554272_92.193923;326.644424_92.429961;326.732079_92.666938;326.817354_92.904783;326.900358_93.143430;326.981199_93.382819;327.060002_93.622887;327.136945_93.863558;327.212227_94.104754;327.286025_94.346409;327.358492_94.588467;327.429761_94.830880;327.499950_95.073608;327.569166_95.316616;327.637501_95.559873;327.705043_95.803352;327.771867_96.047028;327.838045_96.290881;327.903642_96.534891;327.968720_96.779040;328.033332_97.023313;328.097524_97.267696;328.161333_97.512180;328.224792_97.756755;328.287931_98.001412;328.350781_98.246144;328.413371_98.490943;328.475729_98.735801;328.537881_98.980711;328.599854_99.225667;328.661672_99.470661;328.723361_99.715689;328.784945_99.960742;328.846447_100.205817;328.907891_100.450906;328.969301_100.696003;</t>
+  </si>
+  <si>
+    <t>328.918966_100.929753;328.757326_101.157676;328.596952_101.386491;328.438628_101.616724;328.283051_101.848820;328.130813_102.083115;327.982366_102.319828;327.837788_102.558926;327.696703_102.800105;327.558612_103.043014;327.423086_103.287365;327.289749_103.532919;327.158272_103.779474;327.028359_104.026858;326.899715_104.274905;326.771995_104.523429;326.644821_104.772234;326.517824_105.021129;326.390641_105.269929;326.262904_105.518444;326.134229_105.766475;326.004205_106.013800;325.872372_106.260164;325.738185_106.505252;325.601000_106.748670;325.460051_106.989922;325.314398_107.228354;325.162861_107.463073;325.003916_107.692811;324.835946_107.915999;324.657711_108.131044;324.468297_108.336266;324.266911_108.529696;324.053002_108.709109;323.826950_108.872967;323.591290_109.022880;323.350331_109.164309;323.108829_109.304836;322.871086_109.451526;322.639102_109.607164;322.412716_109.770868;322.191389_109.941369;321.974577_110.117592;321.761456_110.298281;321.550762_110.481810;321.341093_110.666514;321.131081_110.850827;320.919367_111.033171;320.704679_111.211989;320.485832_111.385664;320.261580_111.552258;320.030592_111.709304;319.792238_111.854905;319.547742_111.990046;319.299571_112.118416;319.050304_112.244678;318.801820_112.372467;318.554156_112.501847;318.306073_112.630415;318.056228_112.755493;317.803823_112.875309;317.549531_112.991110;317.295051_113.106504;317.042167_113.225311;316.792016_113.349757;316.544058_113.478561;316.296624_113.608379;316.047959_113.735798;315.796943_113.858503;315.544096_113.977429;315.291047_114.095927;315.039503_114.217553;314.790530_114.344348;314.543569_114.475057;314.296989_114.606489;</t>
+  </si>
+  <si>
+    <t>314.296989_114.606489;314.049080_114.735372;313.798761_114.859491;313.546583_114.979829;313.294212_115.099765;313.043397_115.222885;312.795243_115.351274;312.549182_115.483668;312.303522_115.616811;312.056481_115.747349;311.806829_115.872794;311.554849_115.993533;311.301898_116.112244;311.049414_116.231936;310.798177_116.354224;310.547227_116.477104;310.294413_116.596036;310.037576_116.705833;309.775523_116.802406;309.509017_116.886101;309.239823_116.960905;308.969512_117.031669;308.699416_117.103232;308.430757_117.179919;308.164859_117.265548;307.903002_117.362766;307.644812_117.469519;307.387757_117.579054;307.128676_117.683558;306.864951_117.775357;306.595902_117.850027;306.322581_117.907217;306.046292_117.947899;305.768192_117.973924;305.489207_117.988561;305.209899_117.996010;304.930515_118.000628;304.651170_118.006804;304.372051_118.018929;304.093621_118.041326;303.816739_118.077792;303.542549_118.130669;303.272314_118.200943;303.007311_118.288897;302.747733_118.392016;302.491492_118.503415;302.235122_118.614506;301.975192_118.716706;301.709769_118.803376;301.439187_118.872307;301.164748_118.923883;300.887712_118.959202;300.609211_118.980783;300.330074_118.992599;300.050733_118.999091;299.771370_119.004763;299.492126_119.014126;299.213319_119.031651;298.935631_119.061591;298.660104_119.107058;298.387962_119.169575;298.120511_119.249772;297.858659_119.346813;297.601323_119.455579;297.345396_119.567725;297.087326_119.674678;296.824312_119.768469;296.555767_119.844929;296.282804_119.903777;296.006718_119.945759;295.728712_119.972697;295.449764_119.988018;295.170473_119.996066;294.891101_120.001328;294.611777_120.008330;</t>
+  </si>
+  <si>
+    <t>294.611777_120.008330;294.332713_120.021595;294.054421_120.045564;293.777815_120.084012;293.504084_120.139182;293.234547_120.212055;292.970492_120.302809;292.711877_120.408352;292.456360_120.521411;292.200454_120.633560;291.940817_120.736497;291.675742_120.824287;291.405664_120.895240;291.131762_120.949681;290.855188_120.988504;290.576986_121.013566;290.297971_121.027596;290.018638_121.033608;289.739227_121.034303;289.459822_121.031570;289.180441_121.026819;288.901071_121.021373;288.621698_121.016109;288.342316_121.011373;288.062923_121.007362;287.783518_121.004220;287.504105_121.001936;287.224687_121.000390;286.945266_120.999453;286.665844_120.999002;286.386421_120.998927;286.106999_120.999121;285.827576_120.999483;285.548154_120.999927;285.268732_121.000384;284.989309_121.000786;284.709887_121.001055;284.430464_121.001094;284.151042_121.000795;283.871620_121.000048;283.592201_120.998734;283.312786_120.996722;283.033378_120.993880;282.753981_120.990142;282.474595_120.985598;282.195221_120.980434;281.915853_120.974892;281.636480_120.969643;281.357085_120.965900;281.077672_120.965047;280.798292_120.968734;280.519117_120.979420;280.240544_121.000132;279.963281_121.033793;279.688326_121.082660;279.416834_121.147995;279.150029_121.230361;278.888849_121.329201;278.632429_121.440091;278.377836_121.555232;278.121558_121.666460;277.860606_121.765911;277.594021_121.848986;277.322701_121.915029;277.047870_121.964584;276.770687_121.998882;276.492156_122.020140;276.213000_122.031266;275.933625_122.035296;275.654211_122.034713;275.374814_122.031180;275.095438_122.026063;274.816070_122.020570;274.536696_122.015352;274.257314_122.010607;</t>
+  </si>
+  <si>
+    <t>273.846354_122.000000;273.539063_122.000000;273.231771_122.000000;272.924479_122.000000;272.617188_122.000000;272.309896_122.000000;272.002604_122.000000;271.695313_122.000000;271.388021_122.000000;271.080729_122.000000;270.773438_122.000000;270.466146_122.000000;270.158854_122.000000;269.851563_122.000000;269.544271_122.000000;269.236979_122.000000;268.929688_122.000000;268.622396_122.000000;268.315104_122.000000;268.007813_122.000000;267.700521_122.000000;267.393229_122.000000;267.085938_122.000000;266.778646_122.000000;266.471354_122.000000;266.164063_122.000000;265.856771_122.000000;265.549479_122.000000;265.242188_122.000000;264.934896_122.000000;264.627604_122.000000;264.320313_122.000000;264.013021_122.000000;263.705729_122.000000;263.398438_122.000000;263.091146_122.000000;262.783854_122.000000;262.476563_122.000000;262.169271_122.000000;261.861979_122.000000;261.554688_122.000000;261.247396_122.000000;260.940104_122.000000;260.632813_122.000000;260.325521_122.000000;260.018229_122.000000;259.710938_122.000000;259.403646_122.000000;259.096354_122.000000;258.789063_122.000000;258.481771_122.000000;258.174479_122.000000;257.867188_122.000000;257.559896_122.000000;257.252604_122.000000;256.945313_122.000000;256.638021_122.000000;256.330729_122.000000;256.023438_122.000000;255.716146_122.000000;255.408854_122.000000;255.101563_122.000000;254.794271_122.000000;254.486979_122.000000;254.179688_122.000000;253.872396_122.000000;253.565104_122.000000;253.257813_122.000000;252.950521_122.000000;252.643229_122.000000;</t>
+  </si>
+  <si>
+    <t>252.643229_122.000000;252.335938_122.000000;252.028646_122.000000;251.721354_122.000000;251.414063_122.000000;251.106771_122.000000;250.799479_122.000000;250.492188_122.000000;250.184896_122.000000;249.877604_122.000000;249.570313_122.000000;249.263021_122.000000;248.955729_122.000000;248.648438_122.000000;248.341146_122.000000;248.033854_122.000000;247.726563_122.000000;247.419271_122.000000;247.111979_122.000000;246.804688_122.000000;246.497396_122.000000;246.190104_122.000000;245.882813_122.000000;245.575521_122.000000;245.268229_122.000000;244.960938_122.000000;244.653646_122.000000;244.346354_122.000000;244.039062_122.000000;243.731771_122.000000;243.424479_122.000000;243.117187_122.000000;242.809896_122.000000;242.502604_122.000000;242.195312_122.000000;241.888021_122.000000;241.580729_122.000000;241.273437_122.000000;240.966146_122.000000;240.658854_122.000000;240.351562_122.000000;240.044271_122.000000;239.736979_122.000000;239.429687_122.000000;239.122396_122.000000;238.815104_122.000000;238.507812_122.000000;238.200521_122.000000;237.893229_122.000000;237.585937_122.000000;237.278646_122.000000;236.971354_122.000000;236.664062_122.000000;236.356771_122.000000;236.049479_122.000000;235.742187_122.000000;235.434896_122.000000;235.127604_122.000000;234.820312_122.000000;234.513021_122.000000;</t>
+  </si>
+  <si>
+    <t>234.513021_122.000000;234.205729_122.000000;233.898437_122.000000;233.591146_122.000000;233.283854_122.000000;232.976562_122.000000;232.669271_122.000000;232.361979_122.000000;232.054687_122.000000;231.747396_122.000000;231.440104_122.000000;231.132812_122.000000;230.825521_122.000000;230.518229_122.000000;230.210938_122.000000;229.903646_122.000000;229.596354_122.000000;229.289063_122.000000;228.981771_122.000000;228.674479_122.000000;228.367188_122.000000;228.059896_122.000000;227.752604_122.000000;227.445313_122.000000;227.138021_122.000000;226.830729_122.000000;226.523438_122.000000;226.216146_122.000000;225.908854_122.000000;225.601563_122.000000;225.294271_122.000000;224.986979_122.000000;224.679688_122.000000;224.372396_122.000000;224.065104_122.000000;223.757813_122.000000;223.450521_122.000000;223.143229_122.000000;222.835938_122.000000;222.528646_122.000000;222.221354_122.000000;221.914063_122.000000;221.606771_122.000000;221.299479_122.000000;220.992188_122.000000;220.684896_122.000000;220.377604_122.000000;220.070313_122.000000;219.763021_122.000000;219.455729_122.000000;219.148438_122.000000;218.841146_122.000000;218.533854_122.000000;218.226563_122.000000;217.919271_122.000000;217.611979_122.000000;217.304688_122.000000;216.997396_122.000000;216.690104_122.000000;216.382813_122.000000;</t>
+  </si>
+  <si>
+    <t>185.927250_122.002248;185.781749_122.002126;185.636249_122.001980;185.490748_122.001792;185.345248_122.001546;185.199747_122.001226;185.054247_122.000814;184.908748_122.000295;184.763248_121.999648;184.617750_121.998852;184.472253_121.997887;184.326757_121.996731;184.181263_121.995364;184.035771_121.993763;183.890282_121.991915;183.744796_121.989830;183.599314_121.987531;183.453834_121.985046;183.308358_121.982401;183.162884_121.979622;183.017412_121.976736;182.871941_121.973806;182.726468_121.970974;182.580989_121.968433;182.435504_121.966379;182.290010_121.965008;182.144512_121.964516;181.999014_121.965102;181.853528_121.967029;181.708078_121.970679;181.562700_121.976492;181.417452_121.984910;181.272415_121.996361;181.127695_122.011264;180.983427_122.030012;180.839762_122.052916;180.696861_122.080173;180.554889_122.111910;180.414019_122.148221;180.274426_122.189166;180.136285_122.234768;179.999760_122.285000;179.864859_122.339463;179.731287_122.397138;179.598574_122.456778;179.466220_122.517216;179.333717_122.577326;179.200563_122.635967;179.066269_122.691922;178.930426_122.743975;178.792899_122.791393;178.653811_122.834011;178.513336_122.871812;178.371655_122.904813;178.228951_122.933067;178.085402_122.956661;177.941179_122.975729;177.796452_122.990518;177.651374_123.001399;177.506074_123.008790;177.360647_123.013128;177.215163_123.014859;177.069668_123.014435;176.924185_123.012303;176.778727_123.008867;176.633292_123.004491;176.487877_122.999531;176.342468_122.994343;176.197056_122.989281;176.051628_122.984700;175.906176_122.980971;175.760699_122.978519;175.615205_122.977817;175.469719_122.979340;175.324290_122.983563;175.178990_122.990955;175.033924_123.001973;174.889228_123.017047;174.745068_123.036568;174.601642_123.060879;174.459175_123.090275;174.317915_123.124997;174.178125_123.165222;174.040075_123.211055;173.903963_123.262372;173.769759_123.318517;173.637224_123.378520;173.506064_123.441486;173.375960_123.506618;173.246586_123.573192;173.117608_123.640535;172.988703_123.708018;172.859720_123.775351;172.730799_123.842802;172.602214_123.910890;172.474242_123.980121;172.347162_124.050970;172.221249_124.123868;172.096775_124.199191;171.973986_124.277227;</t>
+  </si>
+  <si>
+    <t>171.973986_124.277227;171.852954_124.357964;171.733511_124.441040;171.615409_124.526016;171.498406_124.612502;171.382270_124.700150;171.266774_124.788642;171.151698_124.877681;171.036826_124.966983;170.921944_125.056272;170.806841_125.145276;170.691309_125.233720;170.575133_125.321317;170.458097_125.407758;170.339974_125.492705;170.220531_125.575782;170.099529_125.656565;169.976735_125.734589;169.852090_125.809623;169.725805_125.881869;169.598199_125.951763;169.469599_126.019817;169.340333_126.086603;169.210728_126.152732;169.081113_126.218840;168.951783_126.285503;168.822833_126.352898;168.694116_126.420740;168.565426_126.488631;168.436553_126.556174;168.307289_126.622964;168.177427_126.688580;168.046762_126.752576;167.915149_126.814598;167.782652_126.874713;167.649507_126.933385;167.515969_126.991159;167.382289_127.048604;167.248715_127.106297;167.115500_127.164808;166.982887_127.224668;166.850992_127.286096;166.719722_127.348850;166.588890_127.412514;166.458303_127.476682;166.327772_127.540963;166.197103_127.604962;166.066105_127.668283;165.934638_127.730625;165.802819_127.792222;165.671021_127.853863;165.539670_127.916444;165.409193_127.980820;165.280026_128.047772;165.152603_128.117975;165.027352_128.191970;164.904608_128.270049;164.784489_128.352114;164.666957_128.437848;164.551948_128.526942;164.439387_128.619115;164.329195_128.714109;164.221289_128.811695;164.115583_128.911662;164.011993_129.013822;163.910428_129.117997;163.810788_129.224016;163.712966_129.331716;163.616864_129.440956;163.522390_129.551607;163.429458_129.663556;163.337985_129.776703;163.247898_129.890956;163.159125_130.006233;163.071600_130.122462;162.985259_130.239572;162.899993_130.357469;162.815634_130.476017;162.731999_130.595078;162.648918_130.714526;162.566229_130.834246;162.483777_130.954130;162.401410_131.074072;162.318977_131.193969;162.236329_131.313717;162.153310_131.433209;162.069759_131.552329;161.985514_131.670958;161.900474_131.789018;161.814648_131.906509;161.728090_132.023461;161.640862_132.139915;161.553027_132.255912;161.464656_132.371501;161.375821_132.486734;161.286599_132.601668;161.197069_132.716362;161.107313_132.830880;161.017414_132.945285;160.927461_133.059649;</t>
+  </si>
+  <si>
+    <t>160.927461_133.059649;160.837557_133.174050;160.747813_133.288577;160.658337_133.403313;160.569236_133.518341;160.480615_133.633738;160.392571_133.749577;160.305197_133.865921;160.218581_133.982830;160.132802_134.100355;160.047934_134.218538;159.964072_134.337438;159.881475_134.457217;159.800548_134.578128;159.721664_134.700379;159.645106_134.824099;159.571070_134.949344;159.499669_135.076108;159.430946_135.204344;159.364886_135.333973;159.301434_135.464898;159.240502_135.597017;159.181983_135.730222;159.125758_135.864414;159.071704_135.999494;159.019694_136.135376;158.969606_136.271979;158.921313_136.409227;158.874692_136.547053;158.829630_136.685397;158.786022_136.824206;158.743774_136.963436;158.702799_137.103046;158.663017_137.243001;158.624357_137.383270;158.586751_137.523825;158.550139_137.664643;158.514464_137.805702;158.479675_137.946981;158.445724_138.088464;158.412567_138.230136;158.380164_138.371982;158.348476_138.513989;158.317470_138.656147;158.287112_138.798445;158.257372_138.940874;158.228222_139.083424;158.199637_139.226089;158.171590_139.368860;158.144060_139.511732;158.117025_139.654699;158.090465_139.797755;158.064360_139.940894;158.038693_140.084113;158.013448_140.227406;157.988606_140.370771;157.964148_140.514201;157.940048_140.657691;157.916284_140.801238;157.892833_140.944836;157.869675_141.088482;157.846794_141.232172;157.824172_141.375904;157.801795_141.519673;157.779648_141.663478;157.757718_141.807317;157.735994_141.951186;157.714464_142.095085;157.693117_142.239011;157.671944_142.382963;157.650935_142.526939;157.630081_142.670937;157.609376_142.814957;157.588809_142.958997;157.568375_143.103056;157.548067_143.247132;157.527877_143.391225;157.507800_143.535334;157.487829_143.679457;157.467958_143.823595;157.448183_143.967745;157.428498_144.111908;157.408897_144.256082;157.389376_144.400268;157.369931_144.544463;157.350556_144.688668;157.331247_144.832882;157.312001_144.977104;157.292812_145.121333;157.273677_145.265570;157.254592_145.409814;157.235553_145.554063;157.216556_145.698319;157.197598_145.842579;157.178675_145.986844;157.159783_146.131113;157.140920_146.275385;157.122081_146.419661;157.103263_146.563940;157.084464_146.708221;</t>
+  </si>
+  <si>
+    <t>156.958266_302.246682;156.874955_302.548234;156.792108_302.849914;156.710016_303.151801;156.628946_303.453963;156.549130_303.756458;156.470765_304.059333;156.394007_304.362618;156.318978_304.666335;156.245761_304.970495;156.174408_305.275096;156.104945_305.580135;156.037372_305.885597;155.971654_306.191465;155.907648_306.497695;155.845120_306.804231;155.783854_307.111022;155.723662_307.418026;155.664386_307.725208;155.605885_308.032539;155.548034_308.339993;155.490719_308.647547;155.433838_308.955182;155.377293_309.262879;155.320993_309.570621;155.264852_309.878392;155.208783_310.186176;155.152704_310.493958;155.096530_310.801723;155.040175_311.109455;154.983554_311.417137;154.926594_311.724758;154.869245_312.032306;154.811459_312.339772;154.753185_312.647146;154.694370_312.954417;154.634955_313.261573;154.574876_313.568599;154.514062_313.875480;154.452437_314.182200;154.389915_314.488738;154.326399_314.795071;154.261780_315.101173;154.195937_315.407014;154.128725_315.712558;154.059983_316.017760;153.989521_316.322569;153.917159_316.626933;153.842763_316.930805;153.766212_317.234141;153.687376_317.536891;153.606116_317.839000;153.522284_318.140404;153.435719_318.441034;153.346251_318.740812;153.253698_319.039651;153.157870_319.337456;153.058566_319.634118;152.955590_319.929526;152.848819_320.223582;152.738245_320.516230;152.623956_320.807447;152.506137_321.097256;152.385090_321.385732;152.261240_321.673019;152.135136_321.959324;152.007435_322.244923;151.878769_322.530089;151.749583_322.815020;151.620205_323.099864;151.490965_323.384770;151.362185_323.669885;151.234180_323.955348;151.107246_324.241288;150.981636_324.527813;</t>
+  </si>
+  <si>
+    <t>150.981636_324.527813;150.857343_324.814911;150.733986_325.102413;150.611060_325.390101;150.488071_325.677761;150.364523_325.965181;150.239899_326.252135;150.113638_326.538372;149.985117_326.823599;149.853736_327.107518;149.718996_327.389855;149.580393_327.670314;149.437325_327.948516;149.289055_328.223974;149.134664_328.496038;148.973020_328.763840;148.803141_329.026482;148.624603_329.283312;148.437422_329.533911;148.241923_329.778081;148.038795_330.015956;147.829008_330.247992;147.613564_330.474800;147.393515_330.697157;147.170091_330.916134;146.944631_331.133024;146.718196_331.348899;146.491381_331.564374;146.264613_331.779899;146.038316_331.995918;145.812827_332.212779;145.588274_332.430609;145.364647_332.649390;145.141925_332.869094;144.920083_333.089684;144.699048_333.311084;144.478693_333.533161;144.258882_333.755776;144.039476_333.978791;143.820298_334.202031;143.601063_334.425214;143.381410_334.647986;143.160968_334.869975;142.939340_335.090779;142.715974_335.309821;142.490099_335.526267;142.260821_335.739096;142.027170_335.947094;141.788161_336.148892;141.542927_336.343049;141.290665_336.527943;141.030578_336.701599;140.763021_336.863563;140.491070_337.018190;140.219521_337.173507;139.953109_337.337317;139.694533_337.513217;139.443577_337.699898;139.198961_337.894859;138.959460_338.096099;138.723671_338.301699;138.489864_338.509565;138.256226_338.717621;138.020950_338.923813;137.782353_339.126131;137.539059_339.322750;137.289834_339.511753;137.033377_339.690752;136.769439_339.858546;136.500481_340.018306;136.230754_340.176791;135.964523_340.340984;135.704117_340.514256;135.448897_340.695139;135.197066_340.880745;</t>
+  </si>
+  <si>
+    <t>135.197066_340.880745;134.946871_341.068565;134.696443_341.256072;134.443666_341.440372;134.186252_341.618072;133.921995_341.785320;133.650446_341.940481;133.373574_342.086058;133.094165_342.226779;132.814276_342.366553;132.533437_342.504377;132.249149_342.634796;131.958942_342.751139;131.662216_342.849668;131.360801_342.933159;131.057101_343.008203;130.753075_343.081958;130.450439_343.161080;130.151034_343.251411;129.856588_343.356693;129.566540_343.473828;129.277641_343.593863;128.986097_343.707106;128.689852_343.807285;128.389675_343.895216;128.087423_343.975907;127.784744_344.055016;127.483229_344.138351;127.184647_344.231445;126.890751_344.338295;126.601237_344.456737;126.313061_344.578500;126.022412_344.694040;125.726954_344.796484;125.427217_344.885860;125.125104_344.967049;124.822326_345.045783;124.520494_345.127981;124.221363_345.219325;123.926794_345.324290;123.636868_345.441679;123.348840_345.563796;123.058902_345.681157;122.764406_345.786351;122.465536_345.878582;122.164161_345.962459;121.862024_346.043621;121.560719_346.127750;121.261903_346.220164;120.967366_346.325260;120.677302_346.442310;120.388877_346.563482;120.097877_346.678090;119.801118_346.776344;119.498351_346.854216;119.191350_346.913594;118.881785_346.958201;118.570991_346.993855;118.260066_347.028425;117.950083_347.070164;117.642361_347.125739;117.338497_347.199277;117.040369_347.293233;116.748798_347.406170;116.461432_347.529794;116.173671_347.652461;115.881167_347.762904;115.582149_347.854034;115.277584_347.924523;114.969069_347.975185;114.658091_348.007974;114.345859_348.026223;114.033144_348.033974;113.720311_348.034901;113.407486_348.031527;</t>
+  </si>
+  <si>
+    <t>111.892617_348.000000;111.677852_348.000000;111.463087_348.000000;111.248322_348.000000;111.033557_348.000000;110.818792_348.000000;110.604027_348.000000;110.389262_348.000000;110.174497_348.000000;109.959732_348.000000;109.744966_348.000000;109.530201_348.000000;109.315436_348.000000;109.100671_348.000000;108.885906_348.000000;108.671141_348.000000;108.456376_348.000000;108.241611_348.000000;108.026846_348.000000;107.812081_348.000000;107.597315_348.000000;107.382550_348.000000;107.167785_348.000000;106.953020_348.000000;106.738255_348.000000;106.523490_348.000000;106.308725_348.000000;106.093960_348.000000;105.879195_348.000000;105.664430_348.000000;105.449664_348.000000;105.234899_348.000000;105.020134_348.000000;104.805369_348.000000;104.590604_348.000000;104.375839_348.000000;104.161074_348.000000;103.946309_348.000000;103.731544_348.000000;103.516779_348.000000;103.302013_348.000000;103.087248_348.000000;102.872483_348.000000;102.657718_348.000000;102.442953_348.000000;102.228188_348.000000;102.013423_348.000000;101.798658_348.000000;101.583893_348.000000;101.369128_348.000000;</t>
+  </si>
+  <si>
+    <t>101.369128_348.000000;101.154362_348.000000;100.939597_348.000000;100.724832_348.000000;100.510067_348.000000;100.295302_348.000000;100.080537_348.000000;99.865772_348.000000;99.651007_348.000000;99.436242_348.000000;99.221477_348.000000;99.006711_348.000000;98.791946_348.000000;98.577181_348.000000;98.362416_348.000000;98.147651_348.000000;97.932886_348.000000;97.718121_348.000000;97.503356_348.000000;97.288591_348.000000;97.073826_348.000000;96.859060_348.000000;96.644295_348.000000;96.429530_348.000000;96.214765_348.000000;96.000000_348.000000;95.785235_348.000000;95.570470_348.000000;95.355705_348.000000;95.140940_348.000000;94.926174_348.000000;94.711409_348.000000;94.496644_348.000000;94.281879_348.000000;94.067114_348.000000;93.852349_348.000000;93.637584_348.000000;93.422819_348.000000;93.208054_348.000000;92.993289_348.000000;92.778523_348.000000;92.563758_348.000000;92.348993_348.000000;92.134228_348.000000;91.919463_348.000000;91.704698_348.000000;91.489933_348.000000;91.275168_348.000000;91.060403_348.000000;90.845638_348.000000;</t>
+  </si>
+  <si>
+    <t>90.845638_348.000000;90.630872_348.000000;90.416107_348.000000;90.201342_348.000000;89.986577_348.000000;89.771812_348.000000;89.557047_348.000000;89.342282_348.000000;89.127517_348.000000;88.912752_348.000000;88.697987_348.000000;88.483221_348.000000;88.268456_348.000000;88.053691_348.000000;87.838926_348.000000;87.624161_348.000000;87.409396_348.000000;87.194631_348.000000;86.979866_348.000000;86.765101_348.000000;86.550336_348.000000;86.335570_348.000000;86.120805_348.000000;85.906040_348.000000;85.691275_348.000000;85.476510_348.000000;85.261745_348.000000;85.046980_348.000000;84.832215_348.000000;84.617450_348.000000;84.402685_348.000000;84.187919_348.000000;83.973154_348.000000;83.758389_348.000000;83.543624_348.000000;83.328859_348.000000;83.114094_348.000000;82.899329_348.000000;82.684564_348.000000;82.469799_348.000000;82.255034_348.000000;82.040268_348.000000;81.825503_348.000000;81.610738_348.000000;81.395973_348.000000;81.181208_348.000000;80.966443_348.000000;80.751678_348.000000;80.536913_348.000000;80.322148_348.000000;</t>
+  </si>
+  <si>
+    <t>80.322148_348.000000;80.107383_348.000000;79.892617_348.000000;79.677852_348.000000;79.463087_348.000000;79.248322_348.000000;79.033557_348.000000;78.818792_348.000000;78.604027_348.000000;78.389262_348.000000;78.174497_348.000000;77.959732_348.000000;77.744966_348.000000;77.530201_348.000000;77.315436_348.000000;77.100671_348.000000;76.885906_348.000000;76.671141_348.000000;76.456376_348.000000;76.241611_348.000000;76.026846_348.000000;75.812081_348.000000;75.597315_348.000000;75.382550_348.000000;75.167785_348.000000;74.953020_348.000000;74.738255_348.000000;74.523490_348.000000;74.308725_348.000000;74.093960_348.000000;73.879195_348.000000;73.664430_348.000000;73.449664_348.000000;73.234899_348.000000;73.020134_348.000000;72.805369_348.000000;72.590604_348.000000;72.375839_348.000000;72.161074_348.000000;71.946309_348.000000;71.731544_348.000000;71.516779_348.000000;71.302013_348.000000;</t>
+  </si>
+  <si>
+    <t>71.302013_348.000000;71.087248_348.000000;70.872483_348.000000;70.657718_348.000000;70.442953_348.000000;70.228188_348.000000;70.013423_348.000000;69.798658_348.000000;69.583893_348.000000;69.369128_348.000000;69.154362_348.000000;68.939597_348.000000;68.724832_348.000000;68.510067_348.000000;68.295302_348.000000;68.080537_348.000000;67.865772_348.000000;67.651007_348.000000;67.436242_348.000000;67.221477_348.000000;67.006711_348.000000;66.791946_348.000000;66.577181_348.000000;66.362416_348.000000;66.147651_348.000000;65.932886_348.000000;65.718121_348.000000;65.503356_348.000000;65.288591_348.000000;65.073826_348.000000;64.859060_348.000000;64.644295_348.000000;64.429530_348.000000;64.214765_348.000000;64.000000_348.000000;63.785235_348.000000;63.570470_348.000000;63.355705_348.000000;63.140940_348.000000;62.926174_348.000000;62.711409_348.000000;62.496644_348.000000;62.281879_348.000000;62.067114_348.000000;61.852349_348.000000;61.637584_348.000000;61.422819_348.000000;61.208054_348.000000;60.993289_348.000000;60.778523_348.000000;</t>
+  </si>
+  <si>
+    <t>60.778523_348.000000;60.563758_348.000000;60.348993_348.000000;60.134228_348.000000;59.919463_348.000000;59.704698_348.000000;59.489933_348.000000;59.275168_348.000000;59.060403_348.000000;58.845638_348.000000;58.630872_348.000000;58.416107_348.000000;58.201342_348.000000;57.986577_348.000000;57.771812_348.000000;57.557047_348.000000;57.342282_348.000000;57.127517_348.000000;56.912752_348.000000;56.697987_348.000000;56.483221_348.000000;56.268456_348.000000;56.053691_348.000000;55.838926_348.000000;55.624161_348.000000;55.409396_348.000000;55.194631_348.000000;54.979866_348.000000;54.765101_348.000000;54.550336_348.000000;54.335570_348.000000;54.120805_348.000000;53.906040_348.000000;53.691275_348.000000;53.476510_348.000000;53.261745_348.000000;53.046980_348.000000;52.832215_348.000000;52.617450_348.000000;52.402685_348.000000;52.187919_348.000000;51.973154_348.000000;51.758389_348.000000;51.543624_348.000000;51.328859_348.000000;51.114094_348.000000;50.899329_348.000000;50.684564_348.000000;50.469799_348.000000;50.255034_348.000000;</t>
+  </si>
+  <si>
+    <t>49.865633_347.738345;49.595085_347.571169;49.319062_347.413380;49.033969_347.273100;48.737801_347.158563;48.431879_347.073321;48.119422_347.015971;47.803341_346.982987;47.485717_346.969597;47.167729_346.970405;46.849833_346.979935;46.532066_346.993477;46.214303_347.007159;45.896421_347.017233;45.578424_347.019516;45.260646_347.009321;44.943966_346.981971;44.629921_346.933424;44.320640_346.860748;44.018587_346.762384;43.725031_346.640651;43.438275_346.503235;43.154659_346.359294;42.870673_346.216090;42.585216_346.075827;42.299758_345.935568;42.016310_345.791332;41.735835_345.641392;41.457079_345.488240;41.177527_345.336568;40.894884_345.190797;40.608852_345.051751;40.321437_344.915542;40.035229_344.776851;39.751782_344.632615;39.470205_344.484715;39.188075_344.337888;38.903128_344.196669;38.615046_344.061917;38.325841_343.929550;38.038162_343.793951;37.753722_343.651708;37.471963_343.504167;37.190875_343.355338;36.908590_343.208810;36.625240_343.064335;36.343445_342.916905;36.066551_342.760599;35.796916_342.592122;35.534151_342.413014;35.275967_342.227297;35.020007_342.038500;34.764086_341.849649;34.506239_341.663456;34.244566_341.482723;33.977196_341.310603;33.704074_341.147708;33.428383_340.989108;33.154830_340.826928;32.887718_340.654488;32.629000_340.469676;32.378150_340.274257;32.134119_340.070352;31.895882_339.859678;31.662243_339.643894;31.431827_339.424657;31.203307_339.203435;30.975427_338.981552;30.746977_338.760259;30.516760_338.540810;30.283537_338.324574;30.045965_338.113146;29.802776_337.908232;29.553146_337.711236;29.296594_337.523371;</t>
+  </si>
+  <si>
+    <t>29.296594_337.523371;29.032712_337.345981;28.762503_337.178303;28.490253_337.013875;28.222263_336.842769;27.964489_336.656886;27.720310_336.453483;27.489695_336.234714;27.271320_336.003654;27.063896_335.762667;26.865906_335.513827;26.674965_335.259491;26.488297_335.001981;26.303470_334.743138;26.118248_334.484578;25.930490_334.227865;25.738791_333.974088;25.542695_333.723694;25.342018_333.476959;25.136572_333.234185;24.926206_332.995662;24.711117_332.761386;24.491969_332.530893;24.269661_332.303438;24.045198_332.078102;23.819738_331.853761;23.594677_331.629022;23.371530_331.402390;23.151736_331.172517;22.936582_330.938310;22.727179_330.698959;22.524434_330.453953;22.328992_330.203088;22.141229_329.946427;21.961241_329.684251;21.788501_329.417229;21.621895_329.146323;21.460312_328.872384;21.302847_328.596051;21.148754_328.317819;20.997401_328.038086;20.848276_327.757156;20.700993_327.475256;20.555234_327.192564;20.410711_326.909237;20.267158_326.625418;20.124321_326.341237;19.981965_326.056815;19.839935_325.772229;19.698197_325.487498;19.556769_325.202614;19.415668_324.917567;19.274911_324.632350;19.134515_324.346955;18.994499_324.061374;18.854928_323.775574;18.715954_323.489485;18.577762_323.203017;18.440530_322.916088;18.304423_322.628623;18.169595_322.340558;18.036183_322.051833;17.904303_321.762406;17.774032_321.472252;17.645418_321.181359;17.518497_320.889723;17.393300_320.597344;17.269846_320.304224;17.148150_320.010370;17.028220_319.715791;16.910195_319.420444;16.794557_319.124156;16.681945_318.826708;16.572851_318.527953;16.467600_318.227823;</t>
+  </si>
+  <si>
+    <t>16.467600_318.227823;16.366363_317.926317;16.269184_317.623478;16.176016_317.319380;16.086742_317.014116;16.001201_316.707784;15.919183_316.400489;15.840435_316.092339;15.764702_315.783433;15.691754_315.473857;15.621383_315.163684;15.553402_314.852978;15.487643_314.541795;15.423953_314.230180;15.362194_313.918177;15.302243_313.605821;15.243985_313.293145;15.187317_312.980177;15.132145_312.666941;15.078382_312.353460;15.025950_312.039754;14.974774_311.725840;14.924787_311.411735;14.875921_311.097453;14.828117_310.783008;14.781318_310.468412;14.735474_310.153675;14.690537_309.838807;14.646465_309.523817;14.603216_309.208713;14.560754_308.893502;14.519044_308.578190;14.478053_308.262784;14.437751_307.947289;14.398110_307.631711;14.359104_307.316053;14.320707_307.000321;14.282898_306.684518;14.245652_306.368648;14.208951_306.052714;14.172775_305.736719;14.137105_305.420667;14.101924_305.104560;14.067215_304.788401;14.032964_304.472192;13.999154_304.155936;13.965768_303.839635;13.932781_303.523291;13.900166_303.206909;13.867899_302.890492;13.835956_302.574041;13.804316_302.257560;13.772961_301.941051;13.741872_301.624515;13.711032_301.307955;13.680425_300.991373;13.650036_300.674769;13.619851_300.358146;13.589858_300.041505;13.560043_299.724847;13.530394_299.408173;13.500901_299.091485;13.471552_298.774783;13.442336_298.458069;13.413245_298.141344;13.384268_297.824608;13.355397_297.507862;13.326621_297.191108;13.297934_296.874346;13.269325_296.557576;13.240788_296.240800;13.212313_295.924019;13.183894_295.607232;13.155523_295.290442;13.127192_294.973647;</t>
+  </si>
+  <si>
+    <t>13.012299_293.302166;13.036899_293.085898;13.061508_292.869632;13.086133_292.653368;13.110780_292.437106;13.135455_292.220847;13.160164_292.004592;13.184915_291.788342;13.209713_291.572097;13.234565_291.355859;13.259479_291.139628;13.284461_290.923404;13.309518_290.707189;13.334658_290.490984;13.359889_290.274789;13.385218_290.058606;13.410654_289.842436;13.436205_289.626279;13.461880_289.410136;13.487688_289.194010;13.513640_288.977901;13.539745_288.761810;13.566013_288.545739;13.592458_288.329689;13.619089_288.113663;13.645921_287.897661;13.672966_287.681686;13.700239_287.465740;13.727756_287.249824;13.755533_287.033942;13.783588_286.818096;13.811940_286.602288;13.840610_286.386523;13.869620_286.170803;13.898997_285.955133;13.928766_285.739516;13.958958_285.523959;13.989605_285.308465;14.020743_285.093042;14.052396_284.877694;14.084586_284.662426;14.117333_284.447242;14.150658_284.232147;14.184584_284.017145;14.219135_283.802243;14.254336_283.587447;14.290214_283.372763;14.326796_283.158198;14.364112_282.943759;14.402195_282.729455;14.441077_282.515294;14.480794_282.301287;14.521384_282.087444;14.562885_281.873776;14.605340_281.660295;14.648793_281.447016;14.693290_281.233952;14.738882_281.021119;14.785619_280.808536;14.833558_280.596220;14.882754_280.384192;14.933267_280.172474;14.985160_279.961090;15.038497_279.750066;15.093351_279.539431;15.149797_279.329218;15.207918_279.119462;15.267796_278.910201;15.329516_278.701476;15.393165_278.493332;15.458827_278.285814;15.526585_278.078971;15.596515_277.872853;15.668686_277.667509;15.743151_277.462986;</t>
+  </si>
+  <si>
+    <t>15.899086_277.056568;15.980552_276.854731;16.064304_276.653832;16.150312_276.453889;16.238547_276.254918;16.328953_276.056924;16.421439_275.859893;16.515878_275.663789;16.612100_275.468554;16.709896_275.274102;16.809017_275.080321;16.909177_274.887074;17.010066_274.694206;17.111433_274.501588;17.213154_274.309158;17.315163_274.116880;17.417393_273.924719;17.519776_273.732640;17.622242_273.540605;17.724722_273.348578;17.827146_273.156521;17.929445_272.964397;18.031558_272.772174;18.133487_272.579853;18.235312_272.387477;18.337136_272.195101;18.439062_272.002779;18.541196_271.810568;18.643644_271.618523;18.746515_271.426705;18.849922_271.235176;18.953985_271.044002;19.058833_270.853258;19.164626_270.663037;19.271554_270.473452;19.379830_270.284634;19.489688_270.096734;19.601390_269.909925;19.715234_269.724415;19.831562_269.540455;19.950768_269.358351;20.073256_269.178441;20.199221_269.000949;20.328622_268.825946;20.461331_268.653436;20.597161_268.483372;20.735862_268.315638;20.877125_268.150053;21.020576_267.986358;21.165783_267.824216;21.312250_267.663208;21.459440_267.502860;21.606797_267.342664;21.753760_267.182107;21.899777_267.020692;22.044338_266.857974;22.187082_266.693662;22.327820_266.527629;22.466427_266.359812;22.602798_266.190175;22.736849_266.018699;22.868513_265.845384;22.997750_265.670251;23.124713_265.493461;23.249891_265.315399;23.373908_265.136524;23.497350_264.957251;23.620779_264.777970;23.744759_264.599069;23.869872_264.420961;23.996745_264.244106;24.125935_264.068940;24.257789_263.895772;24.392542_263.724852;24.530444_263.556467;</t>
+  </si>
+  <si>
+    <t>24.816853_263.228719;24.966020_263.070244;25.119639_262.916088;25.278029_262.766850;25.441472_262.623175;25.610238_262.485808;25.784580_262.355610;25.964702_262.233561;26.150496_262.120331;26.341091_262.015328;26.535080_261.916669;26.730986_261.821830;26.927347_261.727921;27.122959_261.632474;27.317557_261.534968;27.511680_261.436515;27.705987_261.338428;27.901135_261.242036;28.097666_261.148506;28.295560_261.057886;28.494249_260.969009;28.693057_260.880399;28.891314_260.790570;29.088468_260.698353;29.284682_260.604141;29.480889_260.509913;29.678190_260.418023;29.877660_260.330999;30.080183_260.251423;30.285839_260.180309;30.493895_260.116476;30.703510_260.057895;30.913950_260.002303;31.124562_259.947357;31.334760_259.890865;31.543965_259.830844;31.751541_259.765464;31.956769_259.693104;32.159229_259.613311;32.359526_259.528149;32.559050_259.441162;32.759298_259.355886;32.961724_259.276014;33.167333_259.204852;33.376188_259.143876;33.587752_259.093063;33.801447_259.052091;34.016734_259.020463;34.233121_258.997405;34.450186_258.981785;34.667617_258.972274;34.885214_258.967488;35.102865_258.966078;35.320522_258.967025;35.538167_258.969650;35.755797_258.973347;35.973419_258.977516;36.191041_258.981663;36.408668_258.985545;36.626301_258.989075;36.843941_258.992177;37.061587_258.994781;37.279239_258.996864;37.496895_258.998471;37.714553_258.999664;37.932213_259.000509;38.149875_259.001067;38.367536_259.001390;38.585198_259.001528;38.802860_259.001524;39.020522_259.001426;39.238184_259.001268;39.455846_259.001070;39.673507_259.000843;39.891169_259.000600;</t>
+  </si>
+  <si>
+    <t>40.129891_259.165779;40.390431_259.334933;40.653256_259.500487;40.919919_259.659738;41.191163_259.811049;41.465081_259.957553;41.737675_260.106451;42.004788_260.264804;42.263677_260.436228;42.514145_260.619810;42.757234_260.813108;42.993981_261.014156;43.225397_261.221343;43.452518_261.433245;43.676346_261.648633;43.897804_261.866465;44.117715_262.085863;44.336694_262.306191;44.555180_262.527009;44.773573_262.747919;44.992271_262.968528;45.211605_263.188502;45.431775_263.407640;45.652908_263.625807;45.875129_263.842863;46.098538_264.058698;46.323044_264.273391;46.548352_264.487243;46.774111_264.700620;46.999953_264.913909;47.225225_265.127799;47.448744_265.343510;47.669120_265.562421;47.885084_265.785670;48.095489_266.014151;48.299065_266.248714;48.494545_266.490051;48.681068_266.738368;48.858244_266.993440;49.026092_267.254752;49.185154_267.521519;49.336398_267.792810;49.480793_268.067818;49.619134_268.345928;49.752085_268.626659;49.880201_268.909634;50.003954_269.194547;50.123816_269.481121;50.240299_269.769088;50.353883_270.058212;50.464973_270.348305;50.573909_270.639214;50.680985_270.930814;50.786457_271.222998;50.890551_271.515677;50.993468_271.808771;51.095362_272.102223;51.196311_272.396002;51.296353_272.690091;51.395523_272.984475;51.493852_273.279140;51.591372_273.574075;51.688111_273.869267;51.784097_274.164704;51.879357_274.460377;51.973913_274.756275;52.067778_275.052394;52.160922_275.348740;52.253285_275.645330;52.344813_275.942178;52.435456_276.239299;52.525170_276.536701;52.613915_276.834393;52.701658_277.132383;52.788371_277.430673;</t>
+  </si>
+  <si>
+    <t>52.958621_278.028168;53.042130_278.327371;53.124578_278.626868;53.206008_278.926644;53.286466_279.226683;53.365992_279.526970;53.444627_279.827491;53.522406_280.128235;53.599364_280.429190;53.675534_280.730346;53.750945_281.031693;53.825626_281.333222;53.899603_281.634923;53.972903_281.936791;54.045550_282.238816;54.117573_282.540990;54.189001_282.843306;54.259863_283.145755;54.330186_283.448330;54.399995_283.751023;54.469316_284.053829;54.538171_284.356741;54.606581_284.659754;54.674567_284.962863;54.742149_285.266061;54.809346_285.569346;54.876175_285.872711;54.942654_286.176154;55.008797_286.479670;55.074596_286.783260;55.140006_287.086935;55.204971_287.390705;55.269437_287.694582;55.333356_287.998574;55.396684_288.302689;55.459381_288.606936;55.521412_288.911318;55.582747_289.215842;55.643359_289.520510;55.703227_289.825326;55.762334_290.130290;55.820665_290.435403;55.878211_290.740666;55.934963_291.046076;55.990919_291.351634;56.046068_291.657339;56.100388_291.963191;56.153849_292.269196;56.206427_292.575353;56.258107_292.881663;56.308878_293.188125;56.358734_293.494736;56.407678_293.801495;56.455713_294.108398;56.502846_294.415440;56.549090_294.722618;56.594457_295.029927;56.638963_295.337361;56.682624_295.644916;56.725461_295.952588;56.767490_296.260370;56.808733_296.568259;56.849210_296.876250;56.888941_297.184338;56.927946_297.492518;56.966247_297.800787;57.003862_298.109141;57.040814_298.417574;57.077121_298.726084;57.112805_299.034667;57.147883_299.343320;57.182376_299.652038;57.216301_299.960819;57.249677_300.269660;57.282519_300.578559;</t>
+  </si>
+  <si>
+    <t>57.346668_301.196516;57.378006_301.505571;57.408873_301.814673;57.439282_302.123820;57.469248_302.433011;57.498783_302.742243;57.527900_303.051515;57.556611_303.360824;57.584927_303.670170;57.612860_303.979551;57.640420_304.288966;57.667617_304.598412;57.694462_304.907889;57.720965_305.217396;57.747133_305.526931;57.772977_305.836494;57.798504_306.146082;57.823724_306.455696;57.848643_306.765335;57.873270_307.074996;57.897612_307.384681;57.921675_307.694387;57.945468_308.004113;57.968996_308.313861;57.992266_308.623627;58.015285_308.933412;58.038063_309.243216;58.060613_309.553035;58.082946_309.862871;58.105074_310.172721;58.127006_310.482586;58.148753_310.792463;58.170324_311.102352;58.191727_311.412254;58.212970_311.722166;58.234060_312.032088;58.255006_312.342021;58.275813_312.651963;58.296489_312.961913;58.317038_313.271872;58.337468_313.581839;58.357784_313.891814;58.377990_314.201795;58.398093_314.511783;58.418097_314.821778;58.438006_315.131779;58.457825_315.441785;58.477559_315.751797;58.497212_316.061814;58.516787_316.371837;58.536288_316.681863;58.555720_316.991894;58.575085_317.301930;58.594388_317.611969;58.613631_317.922011;58.632819_318.232058;58.651954_318.542107;58.671039_318.852160;58.690078_319.162215;58.709073_319.472273;58.728028_319.782334;58.746945_320.092397;58.765827_320.402462;58.784677_320.712529;58.803498_321.022598;58.822292_321.332668;58.841062_321.642740;58.859811_321.952813;58.878540_322.262887;58.897254_322.572963;58.915954_322.883039;58.934642_323.193115;58.953322_323.503193;58.971996_323.813270;58.990666_324.123348;</t>
+  </si>
+  <si>
+    <t>59.033375_325.989233;59.100193_326.266716;59.167215_326.544150;59.234580_326.821501;59.302436_327.098733;59.370941_327.375804;59.440266_327.652671;59.510605_327.929282;59.582176_328.205576;59.655232_328.481481;59.730072_328.756907;59.807061_329.031739;59.886649_329.305827;59.969413_329.578970;60.056032_329.850912;60.147105_330.121392;60.243105_330.390158;60.344522_330.656924;60.451876_330.921352;60.565705_331.183051;60.686531_331.441588;60.814804_331.696506;60.950826_331.947371;61.094655_332.193842;61.246032_332.435755;61.404278_332.673242;61.568199_332.906864;61.736088_333.137668;61.905828_333.367123;62.075288_333.596784;62.243383_333.827445;62.410189_334.059041;62.576029_334.291331;62.741211_334.524089;62.906032_334.757104;63.070746_334.990193;63.235394_335.223330;63.399780_335.456652;63.563659_335.690329;63.726790_335.924529;63.888945_336.159405;64.049967_336.395059;64.210228_336.631233;64.370744_336.867232;64.532755_337.102205;64.697601_337.335187;64.866831_337.564989;65.042279_337.790048;65.225649_338.008668;65.418191_338.219218;65.621041_338.419799;65.835435_338.607902;66.062483_338.780398;66.301771_338.935506;66.550595_339.075025;66.805164_339.203988;67.061704_339.329081;67.318022_339.454627;67.574096_339.580673;67.830654_339.705727;68.088264_339.828594;68.346267_339.950639;68.602512_340.076272;68.854396_340.210314;69.099613_340.356112;69.337679_340.513393;69.570065_340.679031;69.798628_340.849947;70.025123_341.023614;70.251250_341.197764;70.478722_341.370139;70.709313_341.538287;70.944886_341.699313;71.186768_341.850651;71.434477_341.992312;</t>
+  </si>
+  <si>
+    <t>71.939739_342.257851;72.193943_342.387625;72.449533_342.514608;72.708745_342.633877;72.973754_342.739317;73.245506_342.825639;73.522883_342.891942;73.803898_342.941037;74.086976_342.976912;74.371015_343.004729;74.655244_343.030690;74.938977_343.061282;75.221338_343.102242;75.501240_343.157329;75.777402_343.228682;76.048462_343.317427;76.314470_343.420628;76.577885_343.530493;76.842269_343.637928;77.110795_343.734194;77.384550_343.814301;77.662531_343.878390;77.943416_343.928471;78.226085_343.967616;78.509563_344.000749;78.793022_344.034035;79.075629_344.073606;79.356405_344.124286;79.634220_344.189082;79.907730_344.270008;80.176010_344.366977;80.440279_344.474705;80.703747_344.584443;80.969916_344.687219;81.241082_344.775674;81.517143_344.847501;81.796740_344.904235;82.078650_344.948344;82.361825_344.983843;82.645364_345.016502;82.928451_345.052662;83.210152_345.098037;83.489374_345.156547;83.764848_345.230561;84.035194_345.321476;84.300385_345.426751;84.562863_345.538838;84.826261_345.648671;85.093910_345.747331;85.367177_345.828965;85.645253_345.892380;85.926781_345.938253;86.210492_345.968174;86.495321_345.985391;86.780574_345.994363;87.065935_345.999786;87.351265_346.006418;87.636358_346.019043;87.920717_346.042373;88.203408_346.080509;88.483182_346.135964;88.758643_346.209835;89.028421_346.302334;89.292549_346.410210;89.553517_346.525759;89.815040_346.640008;90.080616_346.744175;90.351883_346.832273;90.628250_346.902804;90.908454_346.956183;91.191280_346.993491;91.475642_347.016880;91.760733_347.029350;92.046086_347.034112;92.331492_347.033866;</t>
+  </si>
+  <si>
+    <t>92.902252_347.025359;93.187614_347.019902;93.472984_347.014826;93.758364_347.010403;94.043756_347.006832;94.329159_347.004195;94.614567_347.002385;94.899980_347.001224;95.185394_347.000523;95.470808_347.000073;95.756223_346.999647;96.041637_346.999017;96.327050_346.997968;96.612460_346.996305;96.897863_346.993844;97.183258_346.990447;97.468640_346.986150;97.754010_346.981136;98.039372_346.975633;98.324736_346.970256;98.610120_346.966226;98.895525_346.965018;99.180902_346.968342;99.466083_346.978742;99.750664_346.999426;100.033902_347.033521;100.314744_347.083449;100.591959_347.150564;100.864241_347.235455;101.130662_347.337360;101.392306_347.451275;101.652400_347.568795;101.914678_347.681196;102.182095_347.780413;102.455315_347.862241;102.733242_347.926358;103.014578_347.973452;103.298114_348.005053;103.582840_348.023746;103.868075_348.032709;104.153465_348.035087;104.438867_348.033259;104.724246_348.028841;105.009606_348.023289;105.294967_348.017727;105.580337_348.012669;105.865718_348.008325;106.151112_348.004867;106.436515_348.002315;106.721924_348.000546;107.007336_347.999412;107.292751_347.998774;107.578165_347.998507;107.863580_347.998496;108.148995_347.998633;108.434410_347.998843;108.719825_347.999086;109.005239_347.999324;109.290654_347.999533;109.576069_347.999704;109.861484_347.999837;110.146899_347.999934;110.432314_348.000000;110.717729_348.000039;111.003144_348.000060;111.288558_348.000067;111.573973_348.000065;111.859388_348.000057;112.144803_348.000047;112.430218_348.000037;112.715633_348.000027;113.001048_348.000018;113.286463_348.000009;113.571878_348.000002;113.857293_347.999996;</t>
+  </si>
+  <si>
+    <t>156.758859_292.052997;156.277411_292.010108;155.799326_291.940977;155.328964_291.832313;154.871442_291.678458;154.424947_291.493408;153.977646_291.310433;153.520635_291.153869;153.055960_291.020686;152.590044_290.891668;152.129335_290.745987;151.678181_290.573009;151.231467_290.388191;150.778043_290.221510;150.314988_290.083311;149.847695_289.959337;149.382431_289.828361;148.925457_289.671766;148.477365_289.490557;148.028665_289.310964;147.570699_289.157253;147.105004_289.027717;146.637926_288.902967;146.175757_288.761955;145.723360_288.592409;145.276640_288.407591;144.824243_288.238045;144.362074_288.097033;143.894996_287.972283;143.429301_287.842747;142.971335_287.689036;142.522635_287.509443;142.074543_287.328234;141.617569_287.171639;141.152305_287.040663;140.685012_286.916689;140.221957_286.778490;139.768533_286.611809;139.321819_286.426991;138.870665_286.254013;138.409956_286.108332;137.944040_285.979314;137.479365_285.846131;137.022354_285.689567;136.575053_285.506592;136.128558_285.321542;135.671036_285.167687;135.200674_285.059023;134.722589_284.989892;134.241141_284.947003;</t>
+  </si>
+  <si>
+    <t>134.245300_254.060277;134.735084_254.022436;135.221284_253.954965;135.698302_253.841312;136.158813_253.673196;136.602742_253.463329;137.040496_253.240117;137.480311_253.021013;137.920828_252.803297;138.359687_252.582256;138.803102_252.370999;139.260278_252.192842;139.730743_252.052245;140.206491_251.929336;140.679989_251.798546;141.144669_251.640095;141.601298_251.458779;142.060656_251.285020;142.529743_251.139908;143.005069_251.015472;143.479497_250.887903;143.944989_250.732361;144.396014_250.538668;144.837221_250.322445;145.278391_250.106089;145.721609_249.893911;146.162779_249.677555;146.603986_249.461332;147.055011_249.267639;147.520503_249.112097;147.994931_248.984528;148.470257_248.860092;148.939344_248.714980;149.398702_248.541221;149.855331_248.359905;150.320011_248.201454;150.793509_248.070664;151.269257_247.947755;151.739722_247.807158;152.196898_247.629001;152.640313_247.417744;153.079172_247.196703;153.519689_246.978987;153.959504_246.759883;154.397258_246.536671;154.841187_246.326804;155.301698_246.158688;155.778716_246.045035;156.264916_245.977564;156.754700_245.939723;</t>
+  </si>
+  <si>
+    <t>156.754700_209.060277;156.264916_209.022436;155.778716_208.954965;155.301698_208.841312;154.841187_208.673196;154.397258_208.463329;153.959504_208.240117;153.519689_208.021013;153.079172_207.803297;152.640313_207.582256;152.196898_207.370999;151.739722_207.192842;151.269257_207.052245;150.793509_206.929336;150.320011_206.798546;149.855331_206.640095;149.398702_206.458779;148.939344_206.285020;148.470257_206.139908;147.994931_206.015472;147.520503_205.887903;147.055011_205.732361;146.603986_205.538668;146.162779_205.322445;145.721609_205.106089;145.278391_204.893911;144.837221_204.677555;144.396014_204.461332;143.944989_204.267639;143.479497_204.112097;143.005069_203.984528;142.529743_203.860092;142.060656_203.714980;141.601298_203.541221;141.144669_203.359905;140.679989_203.201454;140.206491_203.070664;139.730743_202.947755;139.260278_202.807158;138.803102_202.629001;138.359687_202.417744;137.920828_202.196703;137.480311_201.978987;137.040496_201.759883;136.602742_201.536671;136.158813_201.326804;135.698302_201.158688;135.221284_201.045035;134.735084_200.977564;134.245300_200.939723;</t>
+  </si>
+  <si>
+    <t>134.237392_172.029146;134.712207_172.034385;135.186974_172.029751;135.660947_172.005188;136.131743_171.947647;136.595027_171.847109;137.045758_171.700273;137.484911_171.520175;137.924050_171.340051;138.374831_171.193396;138.837829_171.090841;139.307405_171.021867;139.778792_170.964738;140.247846_170.892585;140.709799_170.785470;141.159683_170.635727;141.600162_170.458599;142.043829_170.290363;142.499481_170.159488;142.965300_170.069873;143.435930_170.007618;143.907102_169.949031;144.374700_169.868634;144.833626_169.749549;145.280100_169.589476;145.719900_169.410524;146.166374_169.250451;146.625300_169.131366;147.092898_169.050969;147.564070_168.992382;148.034700_168.930127;148.500519_168.840512;148.956171_168.709637;149.399838_168.541401;149.840317_168.364273;150.290201_168.214530;150.752154_168.107415;151.221208_168.035262;151.692595_167.978133;152.162171_167.909159;152.625169_167.806604;153.075950_167.659949;153.515089_167.479825;153.954242_167.299727;154.404973_167.152891;154.868257_167.052353;155.339053_166.994812;155.813026_166.970249;156.287793_166.965615;156.762608_166.970854;</t>
+  </si>
+  <si>
+    <t>317.099817_146.335950;317.299833_145.406789;317.501013_144.477879;317.704181_143.549403;317.910247_142.621566;318.120137_141.694589;318.334455_140.768626;318.553450_139.843758;318.777313_138.920056;319.006241_137.997598;319.240401_137.076454;319.479885_136.156679;319.724727_135.238317;319.974912_134.321395;320.229881_133.405791;320.487818_132.491015;320.746037_131.576318;321.001817_130.660939;321.253440_129.744410;321.500853_128.826734;321.744752_127.908117;321.985782_126.988743;322.224637_126.068800;322.462188_125.148519;322.699400_124.228151;322.937230_123.307942;323.176579_122.388128;323.418163_121.468898;323.662575_120.550418;323.910454_119.632868;324.162155_118.716358;324.416719_117.800639;324.671969_116.885109;324.925522_115.969109;325.175525_115.052136;325.421546_114.134086;325.664141_113.215123;325.903909_112.295419;326.141453_111.375137;326.377566_110.454486;326.613217_109.533717;326.849391_108.613082;327.087081_107.692838;327.327264_106.773242;327.570910_105.854559;327.819102_104.937096;328.072994_104.021196;328.332886_103.106979;328.597671_102.194165;328.865539_101.282248;</t>
   </si>
 </sst>
 </file>
@@ -703,7 +1291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,6 +1323,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1053,8 +1643,8 @@
   <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P10" sqref="P10"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:P154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1809,9 @@
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="9"/>
+      <c r="P3" s="12" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
@@ -1267,7 +1859,9 @@
       <c r="O4" s="9">
         <v>0</v>
       </c>
-      <c r="P4" s="9"/>
+      <c r="P4" s="12" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -1315,7 +1909,9 @@
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="9"/>
+      <c r="P5" s="12" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -1363,7 +1959,9 @@
       <c r="O6" s="9">
         <v>0</v>
       </c>
-      <c r="P6" s="9"/>
+      <c r="P6" s="12" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
@@ -1411,7 +2009,9 @@
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="9"/>
+      <c r="P7" s="12" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -1459,7 +2059,9 @@
       <c r="O8" s="9">
         <v>0</v>
       </c>
-      <c r="P8" s="9"/>
+      <c r="P8" s="12" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
@@ -1507,7 +2109,9 @@
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="9"/>
+      <c r="P9" s="12" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
@@ -1555,7 +2159,9 @@
       <c r="O10" s="9">
         <v>0</v>
       </c>
-      <c r="P10" s="9"/>
+      <c r="P10" s="12" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
@@ -1603,7 +2209,9 @@
       <c r="O11" s="9">
         <v>0</v>
       </c>
-      <c r="P11" s="9"/>
+      <c r="P11" s="12" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
@@ -1651,7 +2259,9 @@
       <c r="O12" s="9">
         <v>0</v>
       </c>
-      <c r="P12" s="9"/>
+      <c r="P12" s="12" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
@@ -1699,7 +2309,9 @@
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="9"/>
+      <c r="P13" s="12" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -1747,7 +2359,9 @@
       <c r="O14" s="9">
         <v>0</v>
       </c>
-      <c r="P14" s="9"/>
+      <c r="P14" s="12" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
@@ -1795,7 +2409,9 @@
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="9"/>
+      <c r="P15" s="12" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
@@ -1843,7 +2459,9 @@
       <c r="O16" s="9">
         <v>0</v>
       </c>
-      <c r="P16" s="9"/>
+      <c r="P16" s="12" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
@@ -1891,7 +2509,9 @@
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="9"/>
+      <c r="P17" s="12" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
@@ -1939,7 +2559,9 @@
       <c r="O18" s="9">
         <v>0</v>
       </c>
-      <c r="P18" s="9"/>
+      <c r="P18" s="12" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -1987,7 +2609,9 @@
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="9"/>
+      <c r="P19" s="12" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
@@ -2035,7 +2659,9 @@
       <c r="O20" s="9">
         <v>0</v>
       </c>
-      <c r="P20" s="9"/>
+      <c r="P20" s="12" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
@@ -2083,7 +2709,9 @@
       <c r="O21" s="9">
         <v>0</v>
       </c>
-      <c r="P21" s="9"/>
+      <c r="P21" s="12" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
@@ -2131,7 +2759,9 @@
       <c r="O22" s="9">
         <v>0</v>
       </c>
-      <c r="P22" s="9"/>
+      <c r="P22" s="12" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
@@ -2179,7 +2809,9 @@
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="9"/>
+      <c r="P23" s="12" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
@@ -2227,7 +2859,9 @@
       <c r="O24" s="9">
         <v>0</v>
       </c>
-      <c r="P24" s="9"/>
+      <c r="P24" s="12" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
@@ -2275,7 +2909,9 @@
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="9"/>
+      <c r="P25" s="12" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
@@ -2323,7 +2959,9 @@
       <c r="O26" s="9">
         <v>0</v>
       </c>
-      <c r="P26" s="9"/>
+      <c r="P26" s="12" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
@@ -2371,7 +3009,9 @@
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="9"/>
+      <c r="P27" s="12" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
@@ -2419,7 +3059,9 @@
       <c r="O28" s="9">
         <v>0</v>
       </c>
-      <c r="P28" s="9"/>
+      <c r="P28" s="12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
@@ -2467,7 +3109,9 @@
       <c r="O29" s="9">
         <v>0</v>
       </c>
-      <c r="P29" s="9"/>
+      <c r="P29" s="12" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
@@ -2515,7 +3159,9 @@
       <c r="O30" s="9">
         <v>0</v>
       </c>
-      <c r="P30" s="9"/>
+      <c r="P30" s="12" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
@@ -2563,7 +3209,9 @@
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="9"/>
+      <c r="P31" s="12" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
@@ -2611,7 +3259,9 @@
       <c r="O32" s="9">
         <v>0</v>
       </c>
-      <c r="P32" s="9"/>
+      <c r="P32" s="12" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
@@ -2659,7 +3309,9 @@
       <c r="O33" s="9">
         <v>0</v>
       </c>
-      <c r="P33" s="9"/>
+      <c r="P33" s="12" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
@@ -2707,7 +3359,9 @@
       <c r="O34" s="9">
         <v>0</v>
       </c>
-      <c r="P34" s="9"/>
+      <c r="P34" s="12" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
@@ -2755,7 +3409,9 @@
       <c r="O35" s="9">
         <v>0</v>
       </c>
-      <c r="P35" s="9"/>
+      <c r="P35" s="12" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
@@ -2803,7 +3459,9 @@
       <c r="O36" s="9">
         <v>0</v>
       </c>
-      <c r="P36" s="9"/>
+      <c r="P36" s="12" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
@@ -2851,7 +3509,9 @@
       <c r="O37" s="9">
         <v>0</v>
       </c>
-      <c r="P37" s="9"/>
+      <c r="P37" s="12" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
@@ -2899,7 +3559,9 @@
       <c r="O38" s="9">
         <v>1</v>
       </c>
-      <c r="P38" s="9"/>
+      <c r="P38" s="12" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
@@ -2947,7 +3609,9 @@
       <c r="O39" s="9">
         <v>1</v>
       </c>
-      <c r="P39" s="9"/>
+      <c r="P39" s="12" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
@@ -2995,7 +3659,9 @@
       <c r="O40" s="9">
         <v>1</v>
       </c>
-      <c r="P40" s="9"/>
+      <c r="P40" s="12" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
@@ -3043,7 +3709,9 @@
       <c r="O41" s="9">
         <v>1</v>
       </c>
-      <c r="P41" s="9"/>
+      <c r="P41" s="12" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
@@ -3091,7 +3759,9 @@
       <c r="O42" s="9">
         <v>1</v>
       </c>
-      <c r="P42" s="9"/>
+      <c r="P42" s="12" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
@@ -3139,7 +3809,9 @@
       <c r="O43" s="9">
         <v>1</v>
       </c>
-      <c r="P43" s="9"/>
+      <c r="P43" s="12" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
@@ -3187,7 +3859,9 @@
       <c r="O44" s="9">
         <v>1</v>
       </c>
-      <c r="P44" s="9"/>
+      <c r="P44" s="12" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
@@ -3235,7 +3909,9 @@
       <c r="O45" s="9">
         <v>1</v>
       </c>
-      <c r="P45" s="9"/>
+      <c r="P45" s="12" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
@@ -3283,7 +3959,9 @@
       <c r="O46" s="9">
         <v>1</v>
       </c>
-      <c r="P46" s="9"/>
+      <c r="P46" s="12" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
@@ -3331,7 +4009,9 @@
       <c r="O47" s="9">
         <v>1</v>
       </c>
-      <c r="P47" s="9"/>
+      <c r="P47" s="12" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
@@ -3379,7 +4059,9 @@
       <c r="O48" s="9">
         <v>1</v>
       </c>
-      <c r="P48" s="9"/>
+      <c r="P48" s="12" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
@@ -3427,7 +4109,9 @@
       <c r="O49" s="9">
         <v>1</v>
       </c>
-      <c r="P49" s="9"/>
+      <c r="P49" s="12" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
@@ -3475,7 +4159,9 @@
       <c r="O50" s="9">
         <v>1</v>
       </c>
-      <c r="P50" s="9"/>
+      <c r="P50" s="12" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
@@ -3523,7 +4209,9 @@
       <c r="O51" s="9">
         <v>1</v>
       </c>
-      <c r="P51" s="9"/>
+      <c r="P51" s="12" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
@@ -3571,7 +4259,9 @@
       <c r="O52" s="9">
         <v>1</v>
       </c>
-      <c r="P52" s="9"/>
+      <c r="P52" s="12" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
@@ -3619,7 +4309,9 @@
       <c r="O53" s="9">
         <v>1</v>
       </c>
-      <c r="P53" s="9"/>
+      <c r="P53" s="12" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
@@ -3667,7 +4359,9 @@
       <c r="O54" s="9">
         <v>1</v>
       </c>
-      <c r="P54" s="9"/>
+      <c r="P54" s="12" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
@@ -3715,7 +4409,9 @@
       <c r="O55" s="9">
         <v>1</v>
       </c>
-      <c r="P55" s="9"/>
+      <c r="P55" s="12" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
@@ -3763,7 +4459,9 @@
       <c r="O56" s="9">
         <v>1</v>
       </c>
-      <c r="P56" s="9"/>
+      <c r="P56" s="12" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
@@ -3811,7 +4509,9 @@
       <c r="O57" s="9">
         <v>1</v>
       </c>
-      <c r="P57" s="9"/>
+      <c r="P57" s="12" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
@@ -3859,7 +4559,9 @@
       <c r="O58" s="9">
         <v>1</v>
       </c>
-      <c r="P58" s="9"/>
+      <c r="P58" s="12" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
@@ -3907,7 +4609,9 @@
       <c r="O59" s="9">
         <v>1</v>
       </c>
-      <c r="P59" s="9"/>
+      <c r="P59" s="12" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
@@ -3955,7 +4659,9 @@
       <c r="O60" s="9">
         <v>0</v>
       </c>
-      <c r="P60" s="9"/>
+      <c r="P60" s="12" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
@@ -4003,7 +4709,9 @@
       <c r="O61" s="9">
         <v>0</v>
       </c>
-      <c r="P61" s="9"/>
+      <c r="P61" s="12" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
@@ -4051,7 +4759,9 @@
       <c r="O62" s="9">
         <v>0</v>
       </c>
-      <c r="P62" s="9"/>
+      <c r="P62" s="12" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
@@ -4099,7 +4809,9 @@
       <c r="O63" s="9">
         <v>0</v>
       </c>
-      <c r="P63" s="9"/>
+      <c r="P63" s="12" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
@@ -4147,7 +4859,9 @@
       <c r="O64" s="9">
         <v>0</v>
       </c>
-      <c r="P64" s="9"/>
+      <c r="P64" s="12" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
@@ -4195,7 +4909,9 @@
       <c r="O65" s="9">
         <v>0</v>
       </c>
-      <c r="P65" s="9"/>
+      <c r="P65" s="12" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
@@ -4243,7 +4959,9 @@
       <c r="O66" s="9">
         <v>0</v>
       </c>
-      <c r="P66" s="9"/>
+      <c r="P66" s="12" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
@@ -4291,7 +5009,9 @@
       <c r="O67" s="9">
         <v>0</v>
       </c>
-      <c r="P67" s="9"/>
+      <c r="P67" s="12" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
@@ -4339,7 +5059,9 @@
       <c r="O68" s="9">
         <v>0</v>
       </c>
-      <c r="P68" s="9"/>
+      <c r="P68" s="12" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
@@ -4387,7 +5109,9 @@
       <c r="O69" s="9">
         <v>0</v>
       </c>
-      <c r="P69" s="9"/>
+      <c r="P69" s="12" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
@@ -4435,7 +5159,9 @@
       <c r="O70" s="9">
         <v>0</v>
       </c>
-      <c r="P70" s="9"/>
+      <c r="P70" s="12" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
@@ -4483,7 +5209,9 @@
       <c r="O71" s="9">
         <v>0</v>
       </c>
-      <c r="P71" s="9"/>
+      <c r="P71" s="12" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
@@ -4531,7 +5259,9 @@
       <c r="O72" s="9">
         <v>0</v>
       </c>
-      <c r="P72" s="9"/>
+      <c r="P72" s="12" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
@@ -4579,7 +5309,9 @@
       <c r="O73" s="9">
         <v>0</v>
       </c>
-      <c r="P73" s="9"/>
+      <c r="P73" s="12" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
@@ -4627,7 +5359,9 @@
       <c r="O74" s="9">
         <v>0</v>
       </c>
-      <c r="P74" s="9"/>
+      <c r="P74" s="12" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
@@ -4675,7 +5409,9 @@
       <c r="O75" s="9">
         <v>0</v>
       </c>
-      <c r="P75" s="9"/>
+      <c r="P75" s="12" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
@@ -4723,7 +5459,9 @@
       <c r="O76" s="9">
         <v>0</v>
       </c>
-      <c r="P76" s="9"/>
+      <c r="P76" s="12" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
@@ -4771,7 +5509,9 @@
       <c r="O77" s="9">
         <v>0</v>
       </c>
-      <c r="P77" s="9"/>
+      <c r="P77" s="12" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
@@ -4819,7 +5559,9 @@
       <c r="O78" s="9">
         <v>0</v>
       </c>
-      <c r="P78" s="9"/>
+      <c r="P78" s="12" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
@@ -4867,7 +5609,9 @@
       <c r="O79" s="9">
         <v>0</v>
       </c>
-      <c r="P79" s="9"/>
+      <c r="P79" s="12" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
@@ -4915,7 +5659,9 @@
       <c r="O80" s="9">
         <v>0</v>
       </c>
-      <c r="P80" s="9"/>
+      <c r="P80" s="12" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
@@ -4963,7 +5709,9 @@
       <c r="O81" s="9">
         <v>0</v>
       </c>
-      <c r="P81" s="9"/>
+      <c r="P81" s="12" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
@@ -5011,7 +5759,9 @@
       <c r="O82" s="9">
         <v>0</v>
       </c>
-      <c r="P82" s="9"/>
+      <c r="P82" s="12" t="s">
+        <v>264</v>
+      </c>
     </row>
     <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
@@ -5059,7 +5809,9 @@
       <c r="O83" s="9">
         <v>0</v>
       </c>
-      <c r="P83" s="9"/>
+      <c r="P83" s="12" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
@@ -5107,7 +5859,9 @@
       <c r="O84" s="9">
         <v>0</v>
       </c>
-      <c r="P84" s="9"/>
+      <c r="P84" s="12" t="s">
+        <v>266</v>
+      </c>
     </row>
     <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
@@ -5155,7 +5909,9 @@
       <c r="O85" s="9">
         <v>0</v>
       </c>
-      <c r="P85" s="9"/>
+      <c r="P85" s="12" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
@@ -5203,7 +5959,9 @@
       <c r="O86" s="9">
         <v>0</v>
       </c>
-      <c r="P86" s="9"/>
+      <c r="P86" s="12" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
@@ -5251,7 +6009,9 @@
       <c r="O87" s="9">
         <v>0</v>
       </c>
-      <c r="P87" s="9"/>
+      <c r="P87" s="12" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
@@ -5299,7 +6059,9 @@
       <c r="O88" s="9">
         <v>0</v>
       </c>
-      <c r="P88" s="9"/>
+      <c r="P88" s="12" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
@@ -5347,7 +6109,9 @@
       <c r="O89" s="9">
         <v>0</v>
       </c>
-      <c r="P89" s="9"/>
+      <c r="P89" s="12" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
@@ -5395,7 +6159,9 @@
       <c r="O90" s="9">
         <v>0</v>
       </c>
-      <c r="P90" s="9"/>
+      <c r="P90" s="12" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
@@ -5443,7 +6209,9 @@
       <c r="O91" s="9">
         <v>0</v>
       </c>
-      <c r="P91" s="9"/>
+      <c r="P91" s="12" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
@@ -5491,7 +6259,9 @@
       <c r="O92" s="9">
         <v>0</v>
       </c>
-      <c r="P92" s="9"/>
+      <c r="P92" s="12" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
@@ -5539,7 +6309,9 @@
       <c r="O93" s="9">
         <v>0</v>
       </c>
-      <c r="P93" s="9"/>
+      <c r="P93" s="12" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5587,7 +6359,9 @@
       <c r="O94" s="9">
         <v>0</v>
       </c>
-      <c r="P94" s="9"/>
+      <c r="P94" s="12" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
@@ -5635,7 +6409,9 @@
       <c r="O95" s="9">
         <v>0</v>
       </c>
-      <c r="P95" s="9"/>
+      <c r="P95" s="12" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
@@ -5683,7 +6459,9 @@
       <c r="O96" s="9">
         <v>0</v>
       </c>
-      <c r="P96" s="9"/>
+      <c r="P96" s="12" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
@@ -5731,7 +6509,9 @@
       <c r="O97" s="9">
         <v>0</v>
       </c>
-      <c r="P97" s="9"/>
+      <c r="P97" s="12" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
@@ -5779,7 +6559,9 @@
       <c r="O98" s="9">
         <v>0</v>
       </c>
-      <c r="P98" s="9"/>
+      <c r="P98" s="12" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
@@ -5827,7 +6609,9 @@
       <c r="O99" s="9">
         <v>0</v>
       </c>
-      <c r="P99" s="9"/>
+      <c r="P99" s="12" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
@@ -5875,7 +6659,9 @@
       <c r="O100" s="9">
         <v>0</v>
       </c>
-      <c r="P100" s="9"/>
+      <c r="P100" s="12" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
@@ -5923,7 +6709,9 @@
       <c r="O101" s="9">
         <v>0</v>
       </c>
-      <c r="P101" s="9"/>
+      <c r="P101" s="12" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
@@ -5971,7 +6759,9 @@
       <c r="O102" s="9">
         <v>0</v>
       </c>
-      <c r="P102" s="9"/>
+      <c r="P102" s="12" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
@@ -6019,7 +6809,9 @@
       <c r="O103" s="9">
         <v>0</v>
       </c>
-      <c r="P103" s="9"/>
+      <c r="P103" s="12" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
@@ -6067,7 +6859,9 @@
       <c r="O104" s="9">
         <v>0</v>
       </c>
-      <c r="P104" s="9"/>
+      <c r="P104" s="12" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
@@ -6115,7 +6909,9 @@
       <c r="O105" s="9">
         <v>0</v>
       </c>
-      <c r="P105" s="9"/>
+      <c r="P105" s="12" t="s">
+        <v>287</v>
+      </c>
     </row>
     <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
@@ -6163,7 +6959,9 @@
       <c r="O106" s="9">
         <v>0</v>
       </c>
-      <c r="P106" s="9"/>
+      <c r="P106" s="12" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
@@ -6211,7 +7009,9 @@
       <c r="O107" s="9">
         <v>0</v>
       </c>
-      <c r="P107" s="9"/>
+      <c r="P107" s="12" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
@@ -6259,7 +7059,9 @@
       <c r="O108" s="9">
         <v>0</v>
       </c>
-      <c r="P108" s="9"/>
+      <c r="P108" s="12" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
@@ -6307,7 +7109,9 @@
       <c r="O109" s="9">
         <v>0</v>
       </c>
-      <c r="P109" s="9"/>
+      <c r="P109" s="12" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
@@ -6355,7 +7159,9 @@
       <c r="O110" s="9">
         <v>0</v>
       </c>
-      <c r="P110" s="9"/>
+      <c r="P110" s="12" t="s">
+        <v>292</v>
+      </c>
     </row>
     <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
@@ -6403,7 +7209,9 @@
       <c r="O111" s="9">
         <v>0</v>
       </c>
-      <c r="P111" s="9"/>
+      <c r="P111" s="12" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
@@ -6451,7 +7259,9 @@
       <c r="O112" s="9">
         <v>0</v>
       </c>
-      <c r="P112" s="9"/>
+      <c r="P112" s="12" t="s">
+        <v>294</v>
+      </c>
     </row>
     <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
@@ -6499,7 +7309,9 @@
       <c r="O113" s="9">
         <v>0</v>
       </c>
-      <c r="P113" s="9"/>
+      <c r="P113" s="12" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
@@ -6547,7 +7359,9 @@
       <c r="O114" s="9">
         <v>0</v>
       </c>
-      <c r="P114" s="9"/>
+      <c r="P114" s="12" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
@@ -6595,7 +7409,9 @@
       <c r="O115" s="9">
         <v>0</v>
       </c>
-      <c r="P115" s="9"/>
+      <c r="P115" s="12" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
@@ -6643,7 +7459,9 @@
       <c r="O116" s="9">
         <v>0</v>
       </c>
-      <c r="P116" s="9"/>
+      <c r="P116" s="12" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
@@ -6691,7 +7509,9 @@
       <c r="O117" s="9">
         <v>0</v>
       </c>
-      <c r="P117" s="9"/>
+      <c r="P117" s="12" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
@@ -6739,7 +7559,9 @@
       <c r="O118" s="9">
         <v>0</v>
       </c>
-      <c r="P118" s="9"/>
+      <c r="P118" s="12" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
@@ -6787,7 +7609,9 @@
       <c r="O119" s="9">
         <v>0</v>
       </c>
-      <c r="P119" s="9"/>
+      <c r="P119" s="12" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
@@ -6835,7 +7659,9 @@
       <c r="O120" s="9">
         <v>0</v>
       </c>
-      <c r="P120" s="9"/>
+      <c r="P120" s="12" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
@@ -6883,7 +7709,9 @@
       <c r="O121" s="9">
         <v>0</v>
       </c>
-      <c r="P121" s="9"/>
+      <c r="P121" s="12" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
@@ -6931,7 +7759,9 @@
       <c r="O122" s="9">
         <v>0</v>
       </c>
-      <c r="P122" s="9"/>
+      <c r="P122" s="12" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
@@ -6979,7 +7809,9 @@
       <c r="O123" s="9">
         <v>0</v>
       </c>
-      <c r="P123" s="9"/>
+      <c r="P123" s="12" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
@@ -7027,7 +7859,9 @@
       <c r="O124" s="9">
         <v>1</v>
       </c>
-      <c r="P124" s="9"/>
+      <c r="P124" s="12" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
@@ -7075,7 +7909,9 @@
       <c r="O125" s="9">
         <v>1</v>
       </c>
-      <c r="P125" s="9"/>
+      <c r="P125" s="12" t="s">
+        <v>307</v>
+      </c>
     </row>
     <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
@@ -7123,7 +7959,9 @@
       <c r="O126" s="9">
         <v>1</v>
       </c>
-      <c r="P126" s="9"/>
+      <c r="P126" s="12" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
@@ -7171,7 +8009,9 @@
       <c r="O127" s="9">
         <v>1</v>
       </c>
-      <c r="P127" s="9"/>
+      <c r="P127" s="12" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
@@ -7219,7 +8059,9 @@
       <c r="O128" s="9">
         <v>1</v>
       </c>
-      <c r="P128" s="9"/>
+      <c r="P128" s="12" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
@@ -7267,7 +8109,9 @@
       <c r="O129" s="9">
         <v>1</v>
       </c>
-      <c r="P129" s="9"/>
+      <c r="P129" s="12" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
@@ -7315,7 +8159,9 @@
       <c r="O130" s="9">
         <v>1</v>
       </c>
-      <c r="P130" s="9"/>
+      <c r="P130" s="12" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
@@ -7363,7 +8209,9 @@
       <c r="O131" s="9">
         <v>1</v>
       </c>
-      <c r="P131" s="9"/>
+      <c r="P131" s="12" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
@@ -7411,7 +8259,9 @@
       <c r="O132" s="9">
         <v>1</v>
       </c>
-      <c r="P132" s="9"/>
+      <c r="P132" s="12" t="s">
+        <v>314</v>
+      </c>
     </row>
     <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
@@ -7459,7 +8309,9 @@
       <c r="O133" s="9">
         <v>1</v>
       </c>
-      <c r="P133" s="9"/>
+      <c r="P133" s="12" t="s">
+        <v>315</v>
+      </c>
     </row>
     <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
@@ -7507,7 +8359,9 @@
       <c r="O134" s="9">
         <v>1</v>
       </c>
-      <c r="P134" s="9"/>
+      <c r="P134" s="12" t="s">
+        <v>316</v>
+      </c>
     </row>
     <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
@@ -7555,7 +8409,9 @@
       <c r="O135" s="9">
         <v>1</v>
       </c>
-      <c r="P135" s="9"/>
+      <c r="P135" s="12" t="s">
+        <v>317</v>
+      </c>
     </row>
     <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
@@ -7603,7 +8459,9 @@
       <c r="O136" s="9">
         <v>1</v>
       </c>
-      <c r="P136" s="9"/>
+      <c r="P136" s="12" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
@@ -7651,7 +8509,9 @@
       <c r="O137" s="9">
         <v>1</v>
       </c>
-      <c r="P137" s="9"/>
+      <c r="P137" s="12" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
@@ -7699,7 +8559,9 @@
       <c r="O138" s="9">
         <v>1</v>
       </c>
-      <c r="P138" s="9"/>
+      <c r="P138" s="12" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
@@ -7747,7 +8609,9 @@
       <c r="O139" s="9">
         <v>1</v>
       </c>
-      <c r="P139" s="9"/>
+      <c r="P139" s="12" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
@@ -7795,7 +8659,9 @@
       <c r="O140" s="9">
         <v>1</v>
       </c>
-      <c r="P140" s="9"/>
+      <c r="P140" s="12" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
@@ -7843,7 +8709,9 @@
       <c r="O141" s="9">
         <v>1</v>
       </c>
-      <c r="P141" s="9"/>
+      <c r="P141" s="12" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
@@ -7891,7 +8759,9 @@
       <c r="O142" s="9">
         <v>1</v>
       </c>
-      <c r="P142" s="9"/>
+      <c r="P142" s="12" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
@@ -7939,7 +8809,9 @@
       <c r="O143" s="9">
         <v>1</v>
       </c>
-      <c r="P143" s="9"/>
+      <c r="P143" s="12" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
@@ -7987,7 +8859,9 @@
       <c r="O144" s="9">
         <v>1</v>
       </c>
-      <c r="P144" s="9"/>
+      <c r="P144" s="12" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
@@ -8035,7 +8909,9 @@
       <c r="O145" s="9">
         <v>1</v>
       </c>
-      <c r="P145" s="9"/>
+      <c r="P145" s="12" t="s">
+        <v>327</v>
+      </c>
     </row>
     <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
@@ -8083,7 +8959,9 @@
       <c r="O146" s="9">
         <v>0</v>
       </c>
-      <c r="P146" s="9"/>
+      <c r="P146" s="12" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
@@ -8131,7 +9009,9 @@
       <c r="O147" s="9">
         <v>0</v>
       </c>
-      <c r="P147" s="9"/>
+      <c r="P147" s="12" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
@@ -8179,7 +9059,9 @@
       <c r="O148" s="9">
         <v>0</v>
       </c>
-      <c r="P148" s="9"/>
+      <c r="P148" s="12" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
@@ -8227,7 +9109,9 @@
       <c r="O149" s="9">
         <v>0</v>
       </c>
-      <c r="P149" s="9"/>
+      <c r="P149" s="12" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
@@ -8275,7 +9159,9 @@
       <c r="O150" s="9">
         <v>0</v>
       </c>
-      <c r="P150" s="9"/>
+      <c r="P150" s="12" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
@@ -8323,7 +9209,9 @@
       <c r="O151" s="9">
         <v>0</v>
       </c>
-      <c r="P151" s="9"/>
+      <c r="P151" s="12" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
@@ -8371,7 +9259,9 @@
       <c r="O152" s="9">
         <v>0</v>
       </c>
-      <c r="P152" s="9"/>
+      <c r="P152" s="12" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="153" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
@@ -8419,7 +9309,9 @@
       <c r="O153" s="9">
         <v>0</v>
       </c>
-      <c r="P153" s="9"/>
+      <c r="P153" s="12" t="s">
+        <v>335</v>
+      </c>
     </row>
     <row r="154" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
@@ -8467,7 +9359,9 @@
       <c r="O154" s="9">
         <v>0</v>
       </c>
-      <c r="P154" s="9"/>
+      <c r="P154" s="12" t="s">
+        <v>336</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8479,9 +9373,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3:P79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8642,8 +9536,8 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="11" t="s">
-        <v>108</v>
+      <c r="P3" s="13" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -8692,8 +9586,8 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>109</v>
+      <c r="P4" s="13" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -8742,8 +9636,8 @@
       <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>110</v>
+      <c r="P5" s="13" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -8792,8 +9686,8 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="11" t="s">
-        <v>111</v>
+      <c r="P6" s="13" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -8842,8 +9736,8 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="11" t="s">
-        <v>112</v>
+      <c r="P7" s="13" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -8892,8 +9786,8 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="11" t="s">
-        <v>113</v>
+      <c r="P8" s="13" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -8942,8 +9836,8 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>114</v>
+      <c r="P9" s="13" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -8992,8 +9886,8 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>115</v>
+      <c r="P10" s="13" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -9042,8 +9936,8 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>116</v>
+      <c r="P11" s="13" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -9092,8 +9986,8 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>117</v>
+      <c r="P12" s="13" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -9142,8 +10036,8 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="11" t="s">
-        <v>118</v>
+      <c r="P13" s="13" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -9192,8 +10086,8 @@
       <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" s="11" t="s">
-        <v>119</v>
+      <c r="P14" s="13" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -9242,8 +10136,8 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>120</v>
+      <c r="P15" s="13" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -9292,8 +10186,8 @@
       <c r="O16" s="2">
         <v>0</v>
       </c>
-      <c r="P16" s="11" t="s">
-        <v>121</v>
+      <c r="P16" s="13" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -9342,8 +10236,8 @@
       <c r="O17" s="2">
         <v>0</v>
       </c>
-      <c r="P17" s="11" t="s">
-        <v>122</v>
+      <c r="P17" s="13" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -9392,7 +10286,7 @@
       <c r="O18" s="2">
         <v>0</v>
       </c>
-      <c r="P18" s="11" t="s">
+      <c r="P18" s="13" t="s">
         <v>123</v>
       </c>
     </row>
@@ -9442,7 +10336,7 @@
       <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="P19" s="11" t="s">
+      <c r="P19" s="13" t="s">
         <v>124</v>
       </c>
     </row>
@@ -9492,7 +10386,7 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="11" t="s">
+      <c r="P20" s="13" t="s">
         <v>125</v>
       </c>
     </row>
@@ -9542,7 +10436,7 @@
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" s="11" t="s">
+      <c r="P21" s="13" t="s">
         <v>126</v>
       </c>
     </row>
@@ -9592,7 +10486,7 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="11" t="s">
+      <c r="P22" s="13" t="s">
         <v>127</v>
       </c>
     </row>
@@ -9642,8 +10536,8 @@
       <c r="O23" s="2">
         <v>0</v>
       </c>
-      <c r="P23" s="11" t="s">
-        <v>128</v>
+      <c r="P23" s="13" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -9692,8 +10586,8 @@
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>129</v>
+      <c r="P24" s="13" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -9742,8 +10636,8 @@
       <c r="O25" s="2">
         <v>0</v>
       </c>
-      <c r="P25" s="11" t="s">
-        <v>130</v>
+      <c r="P25" s="13" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -9792,7 +10686,7 @@
       <c r="O26" s="2">
         <v>1</v>
       </c>
-      <c r="P26" s="11" t="s">
+      <c r="P26" s="13" t="s">
         <v>131</v>
       </c>
     </row>
@@ -9842,7 +10736,7 @@
       <c r="O27" s="2">
         <v>1</v>
       </c>
-      <c r="P27" s="11" t="s">
+      <c r="P27" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -9892,7 +10786,7 @@
       <c r="O28" s="2">
         <v>1</v>
       </c>
-      <c r="P28" s="11" t="s">
+      <c r="P28" s="13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -9942,7 +10836,7 @@
       <c r="O29" s="2">
         <v>1</v>
       </c>
-      <c r="P29" s="11" t="s">
+      <c r="P29" s="13" t="s">
         <v>134</v>
       </c>
     </row>
@@ -9992,7 +10886,7 @@
       <c r="O30" s="2">
         <v>1</v>
       </c>
-      <c r="P30" s="11" t="s">
+      <c r="P30" s="13" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10042,7 +10936,7 @@
       <c r="O31" s="2">
         <v>1</v>
       </c>
-      <c r="P31" s="11" t="s">
+      <c r="P31" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -10092,7 +10986,7 @@
       <c r="O32" s="2">
         <v>1</v>
       </c>
-      <c r="P32" s="11" t="s">
+      <c r="P32" s="13" t="s">
         <v>137</v>
       </c>
     </row>
@@ -10142,7 +11036,7 @@
       <c r="O33" s="2">
         <v>1</v>
       </c>
-      <c r="P33" s="11" t="s">
+      <c r="P33" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -10192,7 +11086,7 @@
       <c r="O34" s="2">
         <v>1</v>
       </c>
-      <c r="P34" s="11" t="s">
+      <c r="P34" s="13" t="s">
         <v>139</v>
       </c>
     </row>
@@ -10242,7 +11136,7 @@
       <c r="O35" s="2">
         <v>1</v>
       </c>
-      <c r="P35" s="11" t="s">
+      <c r="P35" s="13" t="s">
         <v>140</v>
       </c>
     </row>
@@ -10292,7 +11186,7 @@
       <c r="O36" s="2">
         <v>1</v>
       </c>
-      <c r="P36" s="11" t="s">
+      <c r="P36" s="13" t="s">
         <v>141</v>
       </c>
     </row>
@@ -10342,7 +11236,7 @@
       <c r="O37" s="2">
         <v>1</v>
       </c>
-      <c r="P37" s="11" t="s">
+      <c r="P37" s="13" t="s">
         <v>142</v>
       </c>
     </row>
@@ -10392,7 +11286,7 @@
       <c r="O38" s="2">
         <v>1</v>
       </c>
-      <c r="P38" s="11" t="s">
+      <c r="P38" s="13" t="s">
         <v>143</v>
       </c>
     </row>
@@ -10442,7 +11336,7 @@
       <c r="O39" s="2">
         <v>1</v>
       </c>
-      <c r="P39" s="11" t="s">
+      <c r="P39" s="13" t="s">
         <v>144</v>
       </c>
     </row>
@@ -10492,7 +11386,7 @@
       <c r="O40" s="2">
         <v>1</v>
       </c>
-      <c r="P40" s="11" t="s">
+      <c r="P40" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -10542,7 +11436,7 @@
       <c r="O41" s="2">
         <v>1</v>
       </c>
-      <c r="P41" s="11" t="s">
+      <c r="P41" s="13" t="s">
         <v>146</v>
       </c>
     </row>
@@ -10592,7 +11486,7 @@
       <c r="O42" s="2">
         <v>1</v>
       </c>
-      <c r="P42" s="11" t="s">
+      <c r="P42" s="13" t="s">
         <v>147</v>
       </c>
     </row>
@@ -10642,7 +11536,7 @@
       <c r="O43" s="2">
         <v>1</v>
       </c>
-      <c r="P43" s="11" t="s">
+      <c r="P43" s="13" t="s">
         <v>148</v>
       </c>
     </row>
@@ -10692,7 +11586,7 @@
       <c r="O44" s="2">
         <v>1</v>
       </c>
-      <c r="P44" s="11" t="s">
+      <c r="P44" s="13" t="s">
         <v>149</v>
       </c>
     </row>
@@ -10742,7 +11636,7 @@
       <c r="O45" s="2">
         <v>1</v>
       </c>
-      <c r="P45" s="11" t="s">
+      <c r="P45" s="13" t="s">
         <v>150</v>
       </c>
     </row>
@@ -10792,7 +11686,7 @@
       <c r="O46" s="2">
         <v>1</v>
       </c>
-      <c r="P46" s="11" t="s">
+      <c r="P46" s="13" t="s">
         <v>151</v>
       </c>
     </row>
@@ -10842,7 +11736,7 @@
       <c r="O47" s="2">
         <v>1</v>
       </c>
-      <c r="P47" s="11" t="s">
+      <c r="P47" s="13" t="s">
         <v>152</v>
       </c>
     </row>
@@ -10892,8 +11786,8 @@
       <c r="O48" s="2">
         <v>1</v>
       </c>
-      <c r="P48" s="11" t="s">
-        <v>153</v>
+      <c r="P48" s="13" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -10942,8 +11836,8 @@
       <c r="O49" s="2">
         <v>0</v>
       </c>
-      <c r="P49" s="11" t="s">
-        <v>154</v>
+      <c r="P49" s="13" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -10992,8 +11886,8 @@
       <c r="O50" s="2">
         <v>0</v>
       </c>
-      <c r="P50" s="11" t="s">
-        <v>155</v>
+      <c r="P50" s="13" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -11042,8 +11936,8 @@
       <c r="O51" s="2">
         <v>0</v>
       </c>
-      <c r="P51" s="11" t="s">
-        <v>156</v>
+      <c r="P51" s="13" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -11092,8 +11986,8 @@
       <c r="O52" s="2">
         <v>0</v>
       </c>
-      <c r="P52" s="11" t="s">
-        <v>157</v>
+      <c r="P52" s="13" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -11142,8 +12036,8 @@
       <c r="O53" s="2">
         <v>0</v>
       </c>
-      <c r="P53" s="11" t="s">
-        <v>158</v>
+      <c r="P53" s="13" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -11192,8 +12086,8 @@
       <c r="O54" s="2">
         <v>0</v>
       </c>
-      <c r="P54" s="11" t="s">
-        <v>159</v>
+      <c r="P54" s="13" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -11242,8 +12136,8 @@
       <c r="O55" s="2">
         <v>0</v>
       </c>
-      <c r="P55" s="11" t="s">
-        <v>160</v>
+      <c r="P55" s="13" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -11292,8 +12186,8 @@
       <c r="O56" s="2">
         <v>0</v>
       </c>
-      <c r="P56" s="11" t="s">
-        <v>161</v>
+      <c r="P56" s="13" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -11342,8 +12236,8 @@
       <c r="O57" s="2">
         <v>0</v>
       </c>
-      <c r="P57" s="11" t="s">
-        <v>162</v>
+      <c r="P57" s="13" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -11392,8 +12286,8 @@
       <c r="O58" s="2">
         <v>0</v>
       </c>
-      <c r="P58" s="11" t="s">
-        <v>163</v>
+      <c r="P58" s="13" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -11442,8 +12336,8 @@
       <c r="O59" s="2">
         <v>0</v>
       </c>
-      <c r="P59" s="11" t="s">
-        <v>164</v>
+      <c r="P59" s="13" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -11492,8 +12386,8 @@
       <c r="O60" s="2">
         <v>0</v>
       </c>
-      <c r="P60" s="11" t="s">
-        <v>165</v>
+      <c r="P60" s="13" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -11542,8 +12436,8 @@
       <c r="O61" s="2">
         <v>0</v>
       </c>
-      <c r="P61" s="11" t="s">
-        <v>166</v>
+      <c r="P61" s="13" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -11592,8 +12486,8 @@
       <c r="O62" s="2">
         <v>0</v>
       </c>
-      <c r="P62" s="11" t="s">
-        <v>167</v>
+      <c r="P62" s="13" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -11642,8 +12536,8 @@
       <c r="O63" s="2">
         <v>0</v>
       </c>
-      <c r="P63" s="11" t="s">
-        <v>168</v>
+      <c r="P63" s="13" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -11692,8 +12586,8 @@
       <c r="O64" s="2">
         <v>0</v>
       </c>
-      <c r="P64" s="11" t="s">
-        <v>169</v>
+      <c r="P64" s="13" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -11742,8 +12636,8 @@
       <c r="O65" s="2">
         <v>0</v>
       </c>
-      <c r="P65" s="11" t="s">
-        <v>170</v>
+      <c r="P65" s="13" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -11792,8 +12686,8 @@
       <c r="O66" s="2">
         <v>0</v>
       </c>
-      <c r="P66" s="11" t="s">
-        <v>171</v>
+      <c r="P66" s="13" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -11842,8 +12736,8 @@
       <c r="O67" s="2">
         <v>0</v>
       </c>
-      <c r="P67" s="11" t="s">
-        <v>172</v>
+      <c r="P67" s="13" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -11892,8 +12786,8 @@
       <c r="O68" s="2">
         <v>0</v>
       </c>
-      <c r="P68" s="11" t="s">
-        <v>173</v>
+      <c r="P68" s="13" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -11942,8 +12836,8 @@
       <c r="O69" s="2">
         <v>1</v>
       </c>
-      <c r="P69" s="11" t="s">
-        <v>174</v>
+      <c r="P69" s="13" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -11992,7 +12886,7 @@
       <c r="O70" s="2">
         <v>1</v>
       </c>
-      <c r="P70" s="11" t="s">
+      <c r="P70" s="13" t="s">
         <v>175</v>
       </c>
     </row>
@@ -12042,7 +12936,7 @@
       <c r="O71" s="2">
         <v>1</v>
       </c>
-      <c r="P71" s="11" t="s">
+      <c r="P71" s="13" t="s">
         <v>176</v>
       </c>
     </row>
@@ -12092,7 +12986,7 @@
       <c r="O72" s="2">
         <v>1</v>
       </c>
-      <c r="P72" s="11" t="s">
+      <c r="P72" s="13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -12142,8 +13036,8 @@
       <c r="O73" s="2">
         <v>1</v>
       </c>
-      <c r="P73" s="11" t="s">
-        <v>178</v>
+      <c r="P73" s="13" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -12192,8 +13086,8 @@
       <c r="O74" s="2">
         <v>1</v>
       </c>
-      <c r="P74" s="11" t="s">
-        <v>179</v>
+      <c r="P74" s="13" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -12242,7 +13136,7 @@
       <c r="O75" s="2">
         <v>1</v>
       </c>
-      <c r="P75" s="11" t="s">
+      <c r="P75" s="13" t="s">
         <v>180</v>
       </c>
     </row>
@@ -12292,7 +13186,7 @@
       <c r="O76" s="2">
         <v>1</v>
       </c>
-      <c r="P76" s="11" t="s">
+      <c r="P76" s="13" t="s">
         <v>181</v>
       </c>
     </row>
@@ -12342,7 +13236,7 @@
       <c r="O77" s="2">
         <v>1</v>
       </c>
-      <c r="P77" s="11" t="s">
+      <c r="P77" s="13" t="s">
         <v>182</v>
       </c>
     </row>
@@ -12392,8 +13286,8 @@
       <c r="O78" s="2">
         <v>1</v>
       </c>
-      <c r="P78" s="11" t="s">
-        <v>183</v>
+      <c r="P78" s="13" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -12442,8 +13336,8 @@
       <c r="O79" s="2">
         <v>0</v>
       </c>
-      <c r="P79" s="11" t="s">
-        <v>184</v>
+      <c r="P79" s="13" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -13653,10 +14547,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O152"/>
+  <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:O152"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13665,7 +14559,7 @@
     <col min="13" max="13" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>29</v>
       </c>
@@ -13708,11 +14602,14 @@
       <c r="N1" s="2">
         <v>0</v>
       </c>
-      <c r="O1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O1" s="9">
+        <v>0</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>29</v>
       </c>
@@ -13755,11 +14652,14 @@
       <c r="N2" s="2">
         <v>0</v>
       </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O2" s="9">
+        <v>0</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>29</v>
       </c>
@@ -13802,11 +14702,14 @@
       <c r="N3" s="2">
         <v>0</v>
       </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O3" s="9">
+        <v>0</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
@@ -13849,11 +14752,14 @@
       <c r="N4" s="2">
         <v>0</v>
       </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O4" s="9">
+        <v>0</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>29</v>
       </c>
@@ -13896,11 +14802,14 @@
       <c r="N5" s="2">
         <v>0</v>
       </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O5" s="9">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>29</v>
       </c>
@@ -13943,11 +14852,14 @@
       <c r="N6" s="2">
         <v>0</v>
       </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="9">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -13990,11 +14902,14 @@
       <c r="N7" s="2">
         <v>0</v>
       </c>
-      <c r="O7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O7" s="9">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>29</v>
       </c>
@@ -14037,11 +14952,14 @@
       <c r="N8" s="2">
         <v>0</v>
       </c>
-      <c r="O8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O8" s="9">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>29</v>
       </c>
@@ -14084,11 +15002,14 @@
       <c r="N9" s="2">
         <v>0</v>
       </c>
-      <c r="O9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="9">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -14131,11 +15052,14 @@
       <c r="N10" s="2">
         <v>0</v>
       </c>
-      <c r="O10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>29</v>
       </c>
@@ -14178,11 +15102,14 @@
       <c r="N11" s="2">
         <v>0</v>
       </c>
-      <c r="O11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O11" s="9">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>29</v>
       </c>
@@ -14225,11 +15152,14 @@
       <c r="N12" s="2">
         <v>0</v>
       </c>
-      <c r="O12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O12" s="9">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>29</v>
       </c>
@@ -14272,11 +15202,14 @@
       <c r="N13" s="2">
         <v>0</v>
       </c>
-      <c r="O13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O13" s="9">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>29</v>
       </c>
@@ -14319,11 +15252,14 @@
       <c r="N14" s="2">
         <v>0</v>
       </c>
-      <c r="O14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O14" s="9">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
@@ -14366,11 +15302,14 @@
       <c r="N15" s="2">
         <v>0</v>
       </c>
-      <c r="O15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O15" s="9">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>29</v>
       </c>
@@ -14413,11 +15352,14 @@
       <c r="N16" s="2">
         <v>0</v>
       </c>
-      <c r="O16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O16" s="9">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>29</v>
       </c>
@@ -14460,11 +15402,14 @@
       <c r="N17" s="2">
         <v>0</v>
       </c>
-      <c r="O17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="9">
+        <v>0</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>29</v>
       </c>
@@ -14507,11 +15452,14 @@
       <c r="N18" s="2">
         <v>0</v>
       </c>
-      <c r="O18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="9">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>29</v>
       </c>
@@ -14554,11 +15502,14 @@
       <c r="N19" s="2">
         <v>0</v>
       </c>
-      <c r="O19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="9">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -14601,11 +15552,14 @@
       <c r="N20" s="2">
         <v>0</v>
       </c>
-      <c r="O20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="9">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>29</v>
       </c>
@@ -14648,11 +15602,14 @@
       <c r="N21" s="2">
         <v>0</v>
       </c>
-      <c r="O21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="9">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>29</v>
       </c>
@@ -14695,11 +15652,14 @@
       <c r="N22" s="2">
         <v>0</v>
       </c>
-      <c r="O22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O22" s="9">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
@@ -14742,11 +15702,14 @@
       <c r="N23" s="2">
         <v>0</v>
       </c>
-      <c r="O23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O23" s="9">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>29</v>
       </c>
@@ -14789,11 +15752,14 @@
       <c r="N24" s="2">
         <v>0</v>
       </c>
-      <c r="O24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O24" s="9">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
@@ -14836,11 +15802,14 @@
       <c r="N25" s="2">
         <v>0</v>
       </c>
-      <c r="O25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O25" s="9">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>29</v>
       </c>
@@ -14883,11 +15852,14 @@
       <c r="N26" s="2">
         <v>0</v>
       </c>
-      <c r="O26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="9">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>29</v>
       </c>
@@ -14930,11 +15902,14 @@
       <c r="N27" s="2">
         <v>0</v>
       </c>
-      <c r="O27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="9">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -14977,11 +15952,14 @@
       <c r="N28" s="2">
         <v>0</v>
       </c>
-      <c r="O28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="9">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>29</v>
       </c>
@@ -15024,11 +16002,14 @@
       <c r="N29" s="2">
         <v>0</v>
       </c>
-      <c r="O29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="9">
+        <v>0</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
@@ -15071,11 +16052,14 @@
       <c r="N30" s="2">
         <v>0</v>
       </c>
-      <c r="O30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="9">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>29</v>
       </c>
@@ -15118,11 +16102,14 @@
       <c r="N31" s="2">
         <v>0</v>
       </c>
-      <c r="O31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O31" s="9">
+        <v>0</v>
+      </c>
+      <c r="P31" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -15165,11 +16152,14 @@
       <c r="N32" s="2">
         <v>0</v>
       </c>
-      <c r="O32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O32" s="9">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>29</v>
       </c>
@@ -15212,11 +16202,14 @@
       <c r="N33" s="2">
         <v>0</v>
       </c>
-      <c r="O33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O33" s="9">
+        <v>0</v>
+      </c>
+      <c r="P33" s="13" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>29</v>
       </c>
@@ -15259,11 +16252,14 @@
       <c r="N34" s="2">
         <v>0</v>
       </c>
-      <c r="O34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O34" s="9">
+        <v>0</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>29</v>
       </c>
@@ -15306,11 +16302,14 @@
       <c r="N35" s="2">
         <v>0</v>
       </c>
-      <c r="O35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O35" s="9">
+        <v>0</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>29</v>
       </c>
@@ -15353,11 +16352,14 @@
       <c r="N36" s="2">
         <v>0</v>
       </c>
-      <c r="O36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O36" s="9">
+        <v>1</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>29</v>
       </c>
@@ -15400,11 +16402,14 @@
       <c r="N37" s="2">
         <v>0</v>
       </c>
-      <c r="O37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O37" s="9">
+        <v>1</v>
+      </c>
+      <c r="P37" s="13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>29</v>
       </c>
@@ -15447,11 +16452,14 @@
       <c r="N38" s="2">
         <v>0</v>
       </c>
-      <c r="O38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O38" s="9">
+        <v>1</v>
+      </c>
+      <c r="P38" s="13" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>29</v>
       </c>
@@ -15494,11 +16502,14 @@
       <c r="N39" s="2">
         <v>0</v>
       </c>
-      <c r="O39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O39" s="9">
+        <v>1</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>29</v>
       </c>
@@ -15541,11 +16552,14 @@
       <c r="N40" s="2">
         <v>0</v>
       </c>
-      <c r="O40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O40" s="9">
+        <v>1</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>29</v>
       </c>
@@ -15588,11 +16602,14 @@
       <c r="N41" s="2">
         <v>0</v>
       </c>
-      <c r="O41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O41" s="9">
+        <v>1</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>29</v>
       </c>
@@ -15635,11 +16652,14 @@
       <c r="N42" s="2">
         <v>0</v>
       </c>
-      <c r="O42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O42" s="9">
+        <v>1</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>29</v>
       </c>
@@ -15682,11 +16702,14 @@
       <c r="N43" s="2">
         <v>0</v>
       </c>
-      <c r="O43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O43" s="9">
+        <v>1</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>29</v>
       </c>
@@ -15729,11 +16752,14 @@
       <c r="N44" s="2">
         <v>0</v>
       </c>
-      <c r="O44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O44" s="9">
+        <v>1</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>29</v>
       </c>
@@ -15776,11 +16802,14 @@
       <c r="N45" s="2">
         <v>0</v>
       </c>
-      <c r="O45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O45" s="9">
+        <v>1</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>29</v>
       </c>
@@ -15823,11 +16852,14 @@
       <c r="N46" s="2">
         <v>0</v>
       </c>
-      <c r="O46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O46" s="9">
+        <v>1</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>29</v>
       </c>
@@ -15870,11 +16902,14 @@
       <c r="N47" s="2">
         <v>0</v>
       </c>
-      <c r="O47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O47" s="9">
+        <v>1</v>
+      </c>
+      <c r="P47" s="13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>29</v>
       </c>
@@ -15917,11 +16952,14 @@
       <c r="N48" s="2">
         <v>0</v>
       </c>
-      <c r="O48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O48" s="9">
+        <v>1</v>
+      </c>
+      <c r="P48" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>29</v>
       </c>
@@ -15964,11 +17002,14 @@
       <c r="N49" s="2">
         <v>0</v>
       </c>
-      <c r="O49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O49" s="9">
+        <v>1</v>
+      </c>
+      <c r="P49" s="13" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>29</v>
       </c>
@@ -16011,11 +17052,14 @@
       <c r="N50" s="2">
         <v>0</v>
       </c>
-      <c r="O50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O50" s="9">
+        <v>1</v>
+      </c>
+      <c r="P50" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>29</v>
       </c>
@@ -16058,11 +17102,14 @@
       <c r="N51" s="2">
         <v>0</v>
       </c>
-      <c r="O51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O51" s="9">
+        <v>1</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>29</v>
       </c>
@@ -16105,11 +17152,14 @@
       <c r="N52" s="2">
         <v>0</v>
       </c>
-      <c r="O52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O52" s="9">
+        <v>1</v>
+      </c>
+      <c r="P52" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>29</v>
       </c>
@@ -16152,11 +17202,14 @@
       <c r="N53" s="2">
         <v>0</v>
       </c>
-      <c r="O53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O53" s="9">
+        <v>1</v>
+      </c>
+      <c r="P53" s="13" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>29</v>
       </c>
@@ -16199,11 +17252,14 @@
       <c r="N54" s="2">
         <v>0</v>
       </c>
-      <c r="O54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O54" s="9">
+        <v>1</v>
+      </c>
+      <c r="P54" s="13" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>29</v>
       </c>
@@ -16246,11 +17302,14 @@
       <c r="N55" s="2">
         <v>0</v>
       </c>
-      <c r="O55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O55" s="9">
+        <v>1</v>
+      </c>
+      <c r="P55" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>29</v>
       </c>
@@ -16293,11 +17352,14 @@
       <c r="N56" s="2">
         <v>0</v>
       </c>
-      <c r="O56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O56" s="9">
+        <v>1</v>
+      </c>
+      <c r="P56" s="13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>29</v>
       </c>
@@ -16340,11 +17402,14 @@
       <c r="N57" s="2">
         <v>0</v>
       </c>
-      <c r="O57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O57" s="9">
+        <v>1</v>
+      </c>
+      <c r="P57" s="13" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>29</v>
       </c>
@@ -16387,11 +17452,14 @@
       <c r="N58" s="2">
         <v>0</v>
       </c>
-      <c r="O58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O58" s="9">
+        <v>0</v>
+      </c>
+      <c r="P58" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>29</v>
       </c>
@@ -16434,11 +17502,14 @@
       <c r="N59" s="2">
         <v>0</v>
       </c>
-      <c r="O59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O59" s="9">
+        <v>0</v>
+      </c>
+      <c r="P59" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>29</v>
       </c>
@@ -16481,11 +17552,14 @@
       <c r="N60" s="2">
         <v>0</v>
       </c>
-      <c r="O60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O60" s="9">
+        <v>0</v>
+      </c>
+      <c r="P60" s="13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>29</v>
       </c>
@@ -16528,11 +17602,14 @@
       <c r="N61" s="2">
         <v>0</v>
       </c>
-      <c r="O61" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O61" s="9">
+        <v>0</v>
+      </c>
+      <c r="P61" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>29</v>
       </c>
@@ -16575,11 +17652,14 @@
       <c r="N62" s="2">
         <v>0</v>
       </c>
-      <c r="O62" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O62" s="9">
+        <v>0</v>
+      </c>
+      <c r="P62" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>29</v>
       </c>
@@ -16622,11 +17702,14 @@
       <c r="N63" s="2">
         <v>0</v>
       </c>
-      <c r="O63" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="9">
+        <v>0</v>
+      </c>
+      <c r="P63" s="13" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>29</v>
       </c>
@@ -16669,11 +17752,14 @@
       <c r="N64" s="2">
         <v>0</v>
       </c>
-      <c r="O64" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O64" s="9">
+        <v>0</v>
+      </c>
+      <c r="P64" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>29</v>
       </c>
@@ -16716,11 +17802,14 @@
       <c r="N65" s="2">
         <v>0</v>
       </c>
-      <c r="O65" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O65" s="9">
+        <v>0</v>
+      </c>
+      <c r="P65" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>29</v>
       </c>
@@ -16763,11 +17852,14 @@
       <c r="N66" s="2">
         <v>0</v>
       </c>
-      <c r="O66" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O66" s="9">
+        <v>0</v>
+      </c>
+      <c r="P66" s="13" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>29</v>
       </c>
@@ -16810,11 +17902,14 @@
       <c r="N67" s="2">
         <v>0</v>
       </c>
-      <c r="O67" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O67" s="9">
+        <v>0</v>
+      </c>
+      <c r="P67" s="13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>29</v>
       </c>
@@ -16857,11 +17952,14 @@
       <c r="N68" s="2">
         <v>0</v>
       </c>
-      <c r="O68" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O68" s="9">
+        <v>0</v>
+      </c>
+      <c r="P68" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>29</v>
       </c>
@@ -16904,11 +18002,14 @@
       <c r="N69" s="2">
         <v>0</v>
       </c>
-      <c r="O69" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O69" s="9">
+        <v>0</v>
+      </c>
+      <c r="P69" s="13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>29</v>
       </c>
@@ -16951,11 +18052,14 @@
       <c r="N70" s="2">
         <v>0</v>
       </c>
-      <c r="O70" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O70" s="9">
+        <v>0</v>
+      </c>
+      <c r="P70" s="13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>29</v>
       </c>
@@ -16998,11 +18102,14 @@
       <c r="N71" s="2">
         <v>0</v>
       </c>
-      <c r="O71" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O71" s="9">
+        <v>0</v>
+      </c>
+      <c r="P71" s="13" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>29</v>
       </c>
@@ -17045,11 +18152,14 @@
       <c r="N72" s="2">
         <v>0</v>
       </c>
-      <c r="O72" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O72" s="9">
+        <v>0</v>
+      </c>
+      <c r="P72" s="13" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>29</v>
       </c>
@@ -17092,11 +18202,14 @@
       <c r="N73" s="2">
         <v>0</v>
       </c>
-      <c r="O73" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O73" s="9">
+        <v>0</v>
+      </c>
+      <c r="P73" s="13" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>29</v>
       </c>
@@ -17139,11 +18252,14 @@
       <c r="N74" s="2">
         <v>0</v>
       </c>
-      <c r="O74" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O74" s="9">
+        <v>0</v>
+      </c>
+      <c r="P74" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>29</v>
       </c>
@@ -17186,11 +18302,14 @@
       <c r="N75" s="2">
         <v>0</v>
       </c>
-      <c r="O75" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O75" s="9">
+        <v>0</v>
+      </c>
+      <c r="P75" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>29</v>
       </c>
@@ -17233,11 +18352,14 @@
       <c r="N76" s="2">
         <v>0</v>
       </c>
-      <c r="O76" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O76" s="9">
+        <v>0</v>
+      </c>
+      <c r="P76" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>29</v>
       </c>
@@ -17280,11 +18402,14 @@
       <c r="N77" s="2">
         <v>0</v>
       </c>
-      <c r="O77" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O77" s="9">
+        <v>0</v>
+      </c>
+      <c r="P77" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>29</v>
       </c>
@@ -17327,11 +18452,14 @@
       <c r="N78" s="2">
         <v>0</v>
       </c>
-      <c r="O78" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O78" s="9">
+        <v>0</v>
+      </c>
+      <c r="P78" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>29</v>
       </c>
@@ -17374,11 +18502,14 @@
       <c r="N79" s="2">
         <v>0</v>
       </c>
-      <c r="O79" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O79" s="9">
+        <v>0</v>
+      </c>
+      <c r="P79" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>29</v>
       </c>
@@ -17421,11 +18552,14 @@
       <c r="N80" s="2">
         <v>0</v>
       </c>
-      <c r="O80" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O80" s="9">
+        <v>0</v>
+      </c>
+      <c r="P80" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>29</v>
       </c>
@@ -17468,11 +18602,14 @@
       <c r="N81" s="2">
         <v>0</v>
       </c>
-      <c r="O81" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O81" s="9">
+        <v>0</v>
+      </c>
+      <c r="P81" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>29</v>
       </c>
@@ -17515,11 +18652,14 @@
       <c r="N82" s="2">
         <v>0</v>
       </c>
-      <c r="O82" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O82" s="9">
+        <v>0</v>
+      </c>
+      <c r="P82" s="13" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>29</v>
       </c>
@@ -17562,11 +18702,14 @@
       <c r="N83" s="2">
         <v>0</v>
       </c>
-      <c r="O83" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O83" s="9">
+        <v>0</v>
+      </c>
+      <c r="P83" s="13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>29</v>
       </c>
@@ -17609,11 +18752,14 @@
       <c r="N84" s="2">
         <v>0</v>
       </c>
-      <c r="O84" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O84" s="9">
+        <v>0</v>
+      </c>
+      <c r="P84" s="13" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>29</v>
       </c>
@@ -17656,11 +18802,14 @@
       <c r="N85" s="2">
         <v>0</v>
       </c>
-      <c r="O85" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O85" s="9">
+        <v>0</v>
+      </c>
+      <c r="P85" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>29</v>
       </c>
@@ -17703,11 +18852,14 @@
       <c r="N86" s="2">
         <v>0</v>
       </c>
-      <c r="O86" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O86" s="9">
+        <v>0</v>
+      </c>
+      <c r="P86" s="13" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>29</v>
       </c>
@@ -17750,11 +18902,14 @@
       <c r="N87" s="2">
         <v>0</v>
       </c>
-      <c r="O87" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O87" s="9">
+        <v>0</v>
+      </c>
+      <c r="P87" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>29</v>
       </c>
@@ -17797,11 +18952,14 @@
       <c r="N88" s="2">
         <v>0</v>
       </c>
-      <c r="O88" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O88" s="9">
+        <v>0</v>
+      </c>
+      <c r="P88" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>29</v>
       </c>
@@ -17844,11 +19002,14 @@
       <c r="N89" s="2">
         <v>0</v>
       </c>
-      <c r="O89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O89" s="9">
+        <v>0</v>
+      </c>
+      <c r="P89" s="13" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>29</v>
       </c>
@@ -17891,11 +19052,14 @@
       <c r="N90" s="2">
         <v>0</v>
       </c>
-      <c r="O90" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O90" s="9">
+        <v>0</v>
+      </c>
+      <c r="P90" s="13" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>29</v>
       </c>
@@ -17938,11 +19102,14 @@
       <c r="N91" s="2">
         <v>0</v>
       </c>
-      <c r="O91" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O91" s="9">
+        <v>0</v>
+      </c>
+      <c r="P91" s="13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>29</v>
       </c>
@@ -17985,11 +19152,14 @@
       <c r="N92" s="2">
         <v>0</v>
       </c>
-      <c r="O92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O92" s="9">
+        <v>0</v>
+      </c>
+      <c r="P92" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>29</v>
       </c>
@@ -18032,11 +19202,14 @@
       <c r="N93" s="2">
         <v>0</v>
       </c>
-      <c r="O93" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O93" s="9">
+        <v>0</v>
+      </c>
+      <c r="P93" s="13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>29</v>
       </c>
@@ -18079,11 +19252,14 @@
       <c r="N94" s="2">
         <v>0</v>
       </c>
-      <c r="O94" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O94" s="9">
+        <v>0</v>
+      </c>
+      <c r="P94" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>29</v>
       </c>
@@ -18126,11 +19302,14 @@
       <c r="N95" s="2">
         <v>0</v>
       </c>
-      <c r="O95" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O95" s="9">
+        <v>0</v>
+      </c>
+      <c r="P95" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>29</v>
       </c>
@@ -18173,11 +19352,14 @@
       <c r="N96" s="2">
         <v>0</v>
       </c>
-      <c r="O96" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O96" s="9">
+        <v>0</v>
+      </c>
+      <c r="P96" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>29</v>
       </c>
@@ -18220,11 +19402,14 @@
       <c r="N97" s="2">
         <v>0</v>
       </c>
-      <c r="O97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O97" s="9">
+        <v>0</v>
+      </c>
+      <c r="P97" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>29</v>
       </c>
@@ -18267,11 +19452,14 @@
       <c r="N98" s="2">
         <v>0</v>
       </c>
-      <c r="O98" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O98" s="9">
+        <v>0</v>
+      </c>
+      <c r="P98" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>29</v>
       </c>
@@ -18314,11 +19502,14 @@
       <c r="N99" s="2">
         <v>0</v>
       </c>
-      <c r="O99" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O99" s="9">
+        <v>0</v>
+      </c>
+      <c r="P99" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>29</v>
       </c>
@@ -18361,11 +19552,14 @@
       <c r="N100" s="2">
         <v>0</v>
       </c>
-      <c r="O100" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O100" s="9">
+        <v>0</v>
+      </c>
+      <c r="P100" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>29</v>
       </c>
@@ -18408,11 +19602,14 @@
       <c r="N101" s="2">
         <v>0</v>
       </c>
-      <c r="O101" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O101" s="9">
+        <v>0</v>
+      </c>
+      <c r="P101" s="13" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>29</v>
       </c>
@@ -18455,11 +19652,14 @@
       <c r="N102" s="2">
         <v>0</v>
       </c>
-      <c r="O102" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O102" s="9">
+        <v>0</v>
+      </c>
+      <c r="P102" s="13" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>29</v>
       </c>
@@ -18502,11 +19702,14 @@
       <c r="N103" s="2">
         <v>0</v>
       </c>
-      <c r="O103" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O103" s="9">
+        <v>0</v>
+      </c>
+      <c r="P103" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>29</v>
       </c>
@@ -18549,11 +19752,14 @@
       <c r="N104" s="2">
         <v>0</v>
       </c>
-      <c r="O104" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O104" s="9">
+        <v>0</v>
+      </c>
+      <c r="P104" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>29</v>
       </c>
@@ -18596,11 +19802,14 @@
       <c r="N105" s="2">
         <v>0</v>
       </c>
-      <c r="O105" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O105" s="9">
+        <v>0</v>
+      </c>
+      <c r="P105" s="13" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>29</v>
       </c>
@@ -18643,11 +19852,14 @@
       <c r="N106" s="2">
         <v>0</v>
       </c>
-      <c r="O106" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O106" s="9">
+        <v>0</v>
+      </c>
+      <c r="P106" s="13" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>29</v>
       </c>
@@ -18690,11 +19902,14 @@
       <c r="N107" s="2">
         <v>0</v>
       </c>
-      <c r="O107" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O107" s="9">
+        <v>0</v>
+      </c>
+      <c r="P107" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>29</v>
       </c>
@@ -18737,11 +19952,14 @@
       <c r="N108" s="2">
         <v>0</v>
       </c>
-      <c r="O108" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O108" s="9">
+        <v>0</v>
+      </c>
+      <c r="P108" s="13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>29</v>
       </c>
@@ -18784,11 +20002,14 @@
       <c r="N109" s="2">
         <v>0</v>
       </c>
-      <c r="O109" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O109" s="9">
+        <v>0</v>
+      </c>
+      <c r="P109" s="13" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>29</v>
       </c>
@@ -18831,11 +20052,14 @@
       <c r="N110" s="2">
         <v>0</v>
       </c>
-      <c r="O110" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O110" s="9">
+        <v>0</v>
+      </c>
+      <c r="P110" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>29</v>
       </c>
@@ -18878,11 +20102,14 @@
       <c r="N111" s="2">
         <v>0</v>
       </c>
-      <c r="O111" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O111" s="9">
+        <v>0</v>
+      </c>
+      <c r="P111" s="13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>29</v>
       </c>
@@ -18925,11 +20152,14 @@
       <c r="N112" s="2">
         <v>0</v>
       </c>
-      <c r="O112" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O112" s="9">
+        <v>0</v>
+      </c>
+      <c r="P112" s="13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>29</v>
       </c>
@@ -18972,11 +20202,14 @@
       <c r="N113" s="2">
         <v>0</v>
       </c>
-      <c r="O113" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O113" s="9">
+        <v>0</v>
+      </c>
+      <c r="P113" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>29</v>
       </c>
@@ -19019,11 +20252,14 @@
       <c r="N114" s="2">
         <v>0</v>
       </c>
-      <c r="O114" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O114" s="9">
+        <v>0</v>
+      </c>
+      <c r="P114" s="13" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>29</v>
       </c>
@@ -19066,11 +20302,14 @@
       <c r="N115" s="2">
         <v>0</v>
       </c>
-      <c r="O115" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O115" s="9">
+        <v>0</v>
+      </c>
+      <c r="P115" s="13" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>29</v>
       </c>
@@ -19113,11 +20352,14 @@
       <c r="N116" s="2">
         <v>0</v>
       </c>
-      <c r="O116" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O116" s="9">
+        <v>0</v>
+      </c>
+      <c r="P116" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>29</v>
       </c>
@@ -19160,11 +20402,14 @@
       <c r="N117" s="2">
         <v>0</v>
       </c>
-      <c r="O117" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O117" s="9">
+        <v>0</v>
+      </c>
+      <c r="P117" s="13" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>29</v>
       </c>
@@ -19207,11 +20452,14 @@
       <c r="N118" s="2">
         <v>0</v>
       </c>
-      <c r="O118" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O118" s="9">
+        <v>0</v>
+      </c>
+      <c r="P118" s="13" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>29</v>
       </c>
@@ -19254,11 +20502,14 @@
       <c r="N119" s="2">
         <v>0</v>
       </c>
-      <c r="O119" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O119" s="9">
+        <v>0</v>
+      </c>
+      <c r="P119" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>29</v>
       </c>
@@ -19301,11 +20552,14 @@
       <c r="N120" s="2">
         <v>0</v>
       </c>
-      <c r="O120" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O120" s="9">
+        <v>0</v>
+      </c>
+      <c r="P120" s="13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>29</v>
       </c>
@@ -19348,11 +20602,14 @@
       <c r="N121" s="2">
         <v>0</v>
       </c>
-      <c r="O121" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O121" s="9">
+        <v>0</v>
+      </c>
+      <c r="P121" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>29</v>
       </c>
@@ -19395,11 +20652,14 @@
       <c r="N122" s="2">
         <v>0</v>
       </c>
-      <c r="O122" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O122" s="9">
+        <v>1</v>
+      </c>
+      <c r="P122" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>29</v>
       </c>
@@ -19442,11 +20702,14 @@
       <c r="N123" s="2">
         <v>0</v>
       </c>
-      <c r="O123" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O123" s="9">
+        <v>1</v>
+      </c>
+      <c r="P123" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>29</v>
       </c>
@@ -19489,11 +20752,14 @@
       <c r="N124" s="2">
         <v>0</v>
       </c>
-      <c r="O124" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O124" s="9">
+        <v>1</v>
+      </c>
+      <c r="P124" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>29</v>
       </c>
@@ -19536,11 +20802,14 @@
       <c r="N125" s="2">
         <v>0</v>
       </c>
-      <c r="O125" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O125" s="9">
+        <v>1</v>
+      </c>
+      <c r="P125" s="13" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>29</v>
       </c>
@@ -19583,11 +20852,14 @@
       <c r="N126" s="2">
         <v>0</v>
       </c>
-      <c r="O126" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O126" s="9">
+        <v>1</v>
+      </c>
+      <c r="P126" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>29</v>
       </c>
@@ -19630,11 +20902,14 @@
       <c r="N127" s="2">
         <v>0</v>
       </c>
-      <c r="O127" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O127" s="9">
+        <v>1</v>
+      </c>
+      <c r="P127" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>29</v>
       </c>
@@ -19677,11 +20952,14 @@
       <c r="N128" s="2">
         <v>0</v>
       </c>
-      <c r="O128" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O128" s="9">
+        <v>1</v>
+      </c>
+      <c r="P128" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>29</v>
       </c>
@@ -19724,11 +21002,14 @@
       <c r="N129" s="2">
         <v>0</v>
       </c>
-      <c r="O129" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O129" s="9">
+        <v>1</v>
+      </c>
+      <c r="P129" s="13" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>29</v>
       </c>
@@ -19771,11 +21052,14 @@
       <c r="N130" s="2">
         <v>0</v>
       </c>
-      <c r="O130" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O130" s="9">
+        <v>1</v>
+      </c>
+      <c r="P130" s="13" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>29</v>
       </c>
@@ -19818,11 +21102,14 @@
       <c r="N131" s="2">
         <v>0</v>
       </c>
-      <c r="O131" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O131" s="9">
+        <v>1</v>
+      </c>
+      <c r="P131" s="13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>29</v>
       </c>
@@ -19865,11 +21152,14 @@
       <c r="N132" s="2">
         <v>0</v>
       </c>
-      <c r="O132" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O132" s="9">
+        <v>1</v>
+      </c>
+      <c r="P132" s="13" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>29</v>
       </c>
@@ -19912,11 +21202,14 @@
       <c r="N133" s="2">
         <v>0</v>
       </c>
-      <c r="O133" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O133" s="9">
+        <v>1</v>
+      </c>
+      <c r="P133" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>29</v>
       </c>
@@ -19959,11 +21252,14 @@
       <c r="N134" s="2">
         <v>0</v>
       </c>
-      <c r="O134" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O134" s="9">
+        <v>1</v>
+      </c>
+      <c r="P134" s="13" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>29</v>
       </c>
@@ -20006,11 +21302,14 @@
       <c r="N135" s="2">
         <v>0</v>
       </c>
-      <c r="O135" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O135" s="9">
+        <v>1</v>
+      </c>
+      <c r="P135" s="13" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>29</v>
       </c>
@@ -20053,11 +21352,14 @@
       <c r="N136" s="2">
         <v>0</v>
       </c>
-      <c r="O136" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O136" s="9">
+        <v>1</v>
+      </c>
+      <c r="P136" s="13" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>29</v>
       </c>
@@ -20100,11 +21402,14 @@
       <c r="N137" s="2">
         <v>0</v>
       </c>
-      <c r="O137" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O137" s="9">
+        <v>1</v>
+      </c>
+      <c r="P137" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>29</v>
       </c>
@@ -20147,11 +21452,14 @@
       <c r="N138" s="2">
         <v>0</v>
       </c>
-      <c r="O138" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O138" s="9">
+        <v>1</v>
+      </c>
+      <c r="P138" s="13" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>29</v>
       </c>
@@ -20194,11 +21502,14 @@
       <c r="N139" s="2">
         <v>0</v>
       </c>
-      <c r="O139" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O139" s="9">
+        <v>1</v>
+      </c>
+      <c r="P139" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>29</v>
       </c>
@@ -20241,11 +21552,14 @@
       <c r="N140" s="2">
         <v>0</v>
       </c>
-      <c r="O140" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O140" s="9">
+        <v>1</v>
+      </c>
+      <c r="P140" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>29</v>
       </c>
@@ -20288,11 +21602,14 @@
       <c r="N141" s="2">
         <v>0</v>
       </c>
-      <c r="O141" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O141" s="9">
+        <v>1</v>
+      </c>
+      <c r="P141" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>29</v>
       </c>
@@ -20335,11 +21652,14 @@
       <c r="N142" s="2">
         <v>0</v>
       </c>
-      <c r="O142" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O142" s="9">
+        <v>1</v>
+      </c>
+      <c r="P142" s="13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>29</v>
       </c>
@@ -20382,11 +21702,14 @@
       <c r="N143" s="2">
         <v>0</v>
       </c>
-      <c r="O143" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O143" s="9">
+        <v>1</v>
+      </c>
+      <c r="P143" s="13" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>29</v>
       </c>
@@ -20429,11 +21752,14 @@
       <c r="N144" s="2">
         <v>0</v>
       </c>
-      <c r="O144" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O144" s="9">
+        <v>0</v>
+      </c>
+      <c r="P144" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>29</v>
       </c>
@@ -20476,11 +21802,14 @@
       <c r="N145" s="2">
         <v>0</v>
       </c>
-      <c r="O145" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O145" s="9">
+        <v>0</v>
+      </c>
+      <c r="P145" s="13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>29</v>
       </c>
@@ -20523,11 +21852,14 @@
       <c r="N146" s="2">
         <v>0</v>
       </c>
-      <c r="O146" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O146" s="9">
+        <v>0</v>
+      </c>
+      <c r="P146" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>29</v>
       </c>
@@ -20570,11 +21902,14 @@
       <c r="N147" s="2">
         <v>0</v>
       </c>
-      <c r="O147" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O147" s="9">
+        <v>0</v>
+      </c>
+      <c r="P147" s="13" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>29</v>
       </c>
@@ -20617,11 +21952,14 @@
       <c r="N148" s="2">
         <v>0</v>
       </c>
-      <c r="O148" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O148" s="9">
+        <v>0</v>
+      </c>
+      <c r="P148" s="13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>29</v>
       </c>
@@ -20664,11 +22002,14 @@
       <c r="N149" s="2">
         <v>0</v>
       </c>
-      <c r="O149" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O149" s="9">
+        <v>0</v>
+      </c>
+      <c r="P149" s="13" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>29</v>
       </c>
@@ -20711,11 +22052,14 @@
       <c r="N150" s="2">
         <v>0</v>
       </c>
-      <c r="O150" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O150" s="9">
+        <v>0</v>
+      </c>
+      <c r="P150" s="13" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>29</v>
       </c>
@@ -20758,11 +22102,14 @@
       <c r="N151" s="2">
         <v>0</v>
       </c>
-      <c r="O151" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O151" s="9">
+        <v>0</v>
+      </c>
+      <c r="P151" s="13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>29</v>
       </c>
@@ -20805,8 +22152,11 @@
       <c r="N152" s="2">
         <v>0</v>
       </c>
-      <c r="O152" s="1">
-        <v>0</v>
+      <c r="O152" s="9">
+        <v>0</v>
+      </c>
+      <c r="P152" s="13" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
+++ b/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="2"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="337">
   <si>
     <t>Line</t>
   </si>
@@ -354,51 +354,6 @@
     <t>Coordinates</t>
   </si>
   <si>
-    <t>217.163268_120.999802;217.489804_120.999639;217.816340_120.999825;218.142876_121.000138;218.469412_121.000353;218.795948_121.000245;219.122483_120.999665;219.449018_120.998979;219.775553_120.999149;220.102082_121.001049;220.428607_121.003620;220.755130_121.003358;221.081566_120.996619;221.407945_120.986844;221.734313_120.986911;222.059724_121.009338;222.384220_121.045126;222.708896_121.053197;223.015293_120.969982;223.270264_120.777195;223.479417_120.527395;223.683912_120.273266;223.926550_120.062199;224.223953_119.953943;224.547575_119.947778;224.872058_119.982967;225.197010_120.012211;225.523227_120.018472;225.849508_120.007638;226.175627_119.991245;226.501932_119.981470;226.828104_119.989404;227.153004_120.019611;227.477617_120.053072;227.800713_120.041076;228.095504_119.925496;228.335895_119.710877;228.540845_119.457030;228.751842_119.208833;229.008274_119.017491;229.314903_118.933133;229.639076_118.942329;229.961419_118.992986;230.283297_119.047287;230.607595_119.070342;230.922266_119.013056;231.193664_118.846480;231.414349_118.607901;231.618001_118.352770;231.844958_118.121105;</t>
-  </si>
-  <si>
-    <t>232.443039_117.929303;232.767068_117.960037;233.088704_118.016048;233.411424_118.063319;233.735008_118.061550;234.035173_117.958989;234.282139_117.753626;234.488760_117.501359;234.696423_117.250059;234.946296_117.049122;235.248923_116.954891;235.573361_116.956295;235.898284_116.987775;236.223969_117.003153;236.550363_116.997350;236.876612_116.997725;237.201667_117.023956;237.526368_117.055648;237.847216_117.032134;238.129907_116.893381;238.352910_116.659259;238.548588_116.397998;238.766522_116.158182;239.044031_116.012511;239.363225_115.991522;239.688265_116.017890;240.001476_115.972245;240.262786_115.796949;240.466822_115.543716;240.662061_115.282489;240.901963_115.071978;241.202336_114.985709;241.526778_115.002849;241.850203_115.009469;242.142151_114.900605;242.371200_114.675222;242.563935_114.411883;242.774818_114.165496;243.047133_114.011783;243.365172_113.986781;243.690164_114.014001;244.004148_113.971724;244.267724_113.799991;244.473972_113.548688;244.669572_113.287635;244.906944_113.072885;245.204879_112.976070;245.529250_112.984428;245.854140_112.999625;246.163312_112.927922;</t>
-  </si>
-  <si>
-    <t>246.640537_112.500456;246.831860_112.235969;247.025213_111.973036;247.235802_111.723974;247.464102_111.490808;247.703088_111.268377;247.944988_111.049045;248.183526_110.826103;248.416887_110.597731;248.646411_110.365485;248.873714_110.131054;249.100380_109.896005;249.327842_109.661728;249.557365_109.429478;249.790135_109.200493;250.027112_108.975875;250.267106_108.754457;250.505532_108.531383;250.736033_108.300280;250.951276_108.055174;251.144752_107.792698;251.315475_107.514721;251.467393_107.225876;251.605508_106.930076;251.734994_106.630335;251.860998_106.329092;251.988597_106.028531;252.121537_105.730309;252.260582_105.434879;252.404696_105.141879;252.552714_104.850827;252.703466_104.561175;252.855781_104.272341;253.008501_103.983719;253.160639_103.694791;253.311505_103.405198;253.460548_103.114663;253.607213_102.822924;253.750941_102.529728;253.891160_102.234840;254.027285_101.938044;254.158720_101.639145;254.284854_101.337975;254.405067_101.034397;254.518729_100.728310;254.625203_100.419655;254.723856_100.108417;254.814062_99.794632;254.895211_99.478389;254.966724_99.159834;</t>
-  </si>
-  <si>
-    <t>254.903319_98.875801;254.711809_98.625985;254.524217_98.373216;254.341015_98.117251;254.162763_97.857820;253.990132_97.594622;253.823933_97.327325;253.665154_97.055568;253.515008_96.778962;253.375006_96.497109;253.247030_96.209628;253.133443_95.916209;253.037200_95.616716;252.961951_95.311360;252.912055_95.000974;252.892383_94.687375;252.907723_94.373700;252.961703_94.064460;253.055520_93.764937;253.187224_93.479945;253.352125_93.212592;253.544114_92.963739;253.757042_92.732321;253.985538_92.516082;254.225258_92.312229;254.472796_92.117853;254.725458_91.930133;254.981047_91.746389;255.237669_91.564079;255.493564_91.380758;255.746970_91.194033;255.995985_91.001530;256.238438_90.800884;256.471765_90.589773;256.692898_90.366020;256.898219_90.127794;257.084231_89.874276;257.250440_89.607250;257.399955_89.330404;257.537036_89.047108;257.666118_88.760026;257.791639_88.471349;257.918016_88.183049;258.049307_87.896979;258.187013_87.613936;258.329590_87.333297;258.474651_87.053927;258.619808_86.774605;258.762672_86.494112;258.900857_86.211301;</t>
-  </si>
-  <si>
-    <t>259.157334_85.636435;259.279916_85.346495;259.404976_85.057633;259.537519_84.772182;259.682588_84.492987;259.845098_84.223725;260.029151_83.968882;260.234468_83.730722;260.455235_83.506526;260.684389_83.290750;260.915813_83.077365;261.144630_82.861217;261.369241_82.640691;261.590869_82.417152;261.811240_82.192367;262.032066_81.968031;262.254236_81.745028;262.477343_81.522959;262.700453_81.300892;262.922630_81.077894;263.143309_80.853415;263.363233_80.628194;263.584239_80.404040;263.808327_80.182985;264.037299_79.967020;264.270112_79.755160;264.501337_79.541606;264.723852_79.319170;264.930946_79.082524;265.120465_78.831466;265.303024_78.575058;265.499712_78.330100;265.734842_78.126185;266.019317_78.014115;266.330051_78.003451;266.643588_78.028081;266.949383_77.993627;267.210996_77.840383;267.415500_77.603680;267.601508_77.349884;267.816455_77.124606;268.090766_76.999709;268.400716_76.991582;268.713937_77.017422;269.014920_76.968821;269.265658_76.796692;269.462174_76.552359;269.648774_76.299191;269.873986_76.087188;270.158442_75.988196;</t>
-  </si>
-  <si>
-    <t>270.783493_76.015892;271.076651_75.941381;271.314039_75.746825;271.504634_75.497060;271.695569_75.247595;271.933832_75.054364;272.227562_74.980631;272.540617_74.998911;272.852958_75.007530;273.140649_74.913691;273.373258_74.709611;273.566362_74.461507;273.762070_74.215724;274.001463_74.020996;274.293310_73.929999;274.605494_73.934732;274.916099_73.983965;275.225744_74.040308;275.537913_74.072980;275.846289_74.040299;276.120590_73.904163;276.343336_73.685525;276.538895_73.439023;276.744622_73.201965;276.995406_73.022813;277.292885_72.946896;277.606037_72.954566;277.918890_72.988832;278.232527_73.011945;278.547137_73.013918;278.861782_73.004973;279.176457_72.997442;279.491226_72.996064;279.806005_72.998225;280.120784_73.000444;280.435570_73.001088;280.750358_73.000605;281.065146_72.999961;281.379934_72.999709;281.694722_72.999805;282.009511_72.999986;282.324299_73.000076;282.639087_73.000062;282.953876_73.000011;283.268664_72.999978;283.583452_72.999976;283.898241_72.999993;284.213029_73.000014;284.527817_73.000026;284.842606_73.000014;</t>
-  </si>
-  <si>
-    <t>285.131662_73.000000;285.394986_72.999999;285.658310_73.000000;285.921634_73.000000;286.184958_73.000000;286.448282_73.000000;286.711606_73.000000;286.974930_73.000000;287.238254_72.999999;287.501578_72.999998;287.764902_72.999999;288.028226_73.000001;288.291550_73.000004;288.554874_73.000006;288.818198_73.000004;289.081522_72.999996;289.344846_72.999984;289.608171_72.999978;289.871495_72.999989;290.134819_73.000024;290.398143_73.000067;290.661467_73.000080;290.924791_73.000021;291.188115_72.999876;291.451439_72.999726;291.714763_72.999720;291.978086_73.000012;292.241410_73.000591;292.504733_73.001089;292.768057_73.000931;293.031376_72.999585;293.294690_72.997338;293.558007_72.995788;293.821318_72.997129;294.084556_73.003155;294.347737_73.011728;294.610979_73.015827;294.874010_73.007586;295.136060_72.983362;295.397618_72.953238;295.659952_72.941354;295.916432_72.982117;296.144732_73.101669;296.333547_73.282569;296.498461_73.487599;296.661474_73.694259;296.844431_73.881770;297.065568_74.015418;297.318505_74.071399;297.580478_74.065830;297.840942_74.028845;298.100006_73.981733;298.360037_73.941216;298.622036_73.926548;298.879133_73.965446;299.110009_74.080756;299.302338_74.257685;299.469553_74.460777;299.632866_74.667251;299.813206_74.857713;300.029599_75.000032;300.279534_75.066894;300.541297_75.068713;300.802154_75.035288;301.061287_74.988626;301.320965_74.945582;301.582737_74.924966;301.841518_74.954009;302.076649_75.059544;302.272357_75.231896;302.439808_75.434669;302.601260_75.642622;302.778608_75.835971;302.992491_75.981657;303.241681_76.049028;</t>
-  </si>
-  <si>
-    <t>303.765601_76.024987;304.027699_76.001309;304.290697_75.995178;304.553916_76.001579;304.817125_76.004610;305.079790_75.990720;305.341624_75.963193;305.603903_75.944562;305.863461_75.968661;306.100267_76.069406;306.297433_76.239850;306.465535_76.442037;306.626822_76.650128;306.803166_76.844486;307.015339_76.993194;307.263171_77.066026;307.524707_77.070788;307.785643_77.038288;308.044800_76.991775;308.304431_76.948390;308.566156_76.926236;308.825699_76.951045;309.063979_77.049941;309.264253_77.216644;309.435077_77.416467;309.597538_77.623662;309.772412_77.819638;309.980210_77.975610;310.224422_78.059475;310.485336_78.072831;310.746648_78.044673;311.005881_77.998761;311.265053_77.952477;311.526298_77.924073;311.786745_77.939786;312.027641_78.030685;312.228623_78.195301;312.396547_78.397427;312.555052_78.607656;312.727540_78.805507;312.936989_78.957205;313.184626_79.025157;313.446591_79.022426;313.708886_79.000171;313.970153_79.006596;314.217210_79.082256;314.431869_79.229324;314.612020_79.419793;314.767808_79.631660;314.910054_79.853172;315.047698_80.077652;315.188565_80.300073;315.340667_80.514734;315.513493_80.712365;315.717217_80.875757;315.954976_80.978562;316.213427_81.009841;316.476095_80.997122;316.738765_80.983223;316.997589_81.011573;317.235206_81.113363;317.437939_81.277997;317.611668_81.475092;317.769818_81.685521;317.924942_81.898282;318.087651_82.105130;318.262440_82.301864;318.447388_82.489179;318.638936_82.669823;318.833317_82.847458;319.026817_83.026041;319.217184_83.207950;319.404470_83.393042;319.589674_83.580225;319.773803_83.768468;</t>
-  </si>
-  <si>
-    <t>320.142620_84.144407;320.328277_84.331143;320.514585_84.517231;320.701257_84.702954;320.888007_84.888600;321.074572_85.074430;321.260858_85.260541;321.446958_85.446837;321.633012_85.633178;321.819163_85.819425;322.005543_86.005440;322.192181_86.191198;322.378903_86.376870;322.565440_86.562729;322.751516_86.749049;322.936851_86.936104;323.121326_87.124009;323.305385_87.312323;323.489939_87.500148;323.675953_87.686524;323.864353_87.870479;324.055836_88.051217;324.249572_88.229555;324.442827_88.408407;324.632173_88.591341;324.813816_88.781827;324.983385_88.982992;325.137448_89.196218;325.275943_89.419961;325.401297_89.651404;325.516428_89.888159;325.624382_90.128310;325.728205_90.370296;325.830904_90.612767;325.935455_90.854436;326.044545_91.094073;326.159070_91.331166;326.277897_91.566143;326.399388_91.799763;326.521905_92.032849;326.643798_92.266259;326.763385_92.500853;326.878933_92.737450;326.988656_92.976787;327.091202_93.219277;327.186288_93.464792;327.274315_93.712932;327.355759_93.963314;327.431124_94.215599;327.500926_94.469483;327.565694_94.724702;327.625959_94.981024;327.682251_95.238252;327.735097_95.496212;327.785019_95.754756;327.832531_96.013754;327.878145_96.273096;327.922365_96.532680;327.965691_96.792415;328.008620_97.052216;328.051649_97.312000;328.095274_97.571685;328.139994_97.831183;328.186310_98.090399;328.234729_98.349230;328.285764_98.607555;328.339932_98.865240;328.397758_99.122126;328.459769_99.378030;328.526497_99.632742;328.598472_99.886017;328.676218_100.137576;328.760250_100.387100;328.851059_100.634233;328.949109_100.878577;</t>
-  </si>
-  <si>
-    <t>328.882559_101.083504;328.655585_101.260647;328.445001_101.457028;328.251449_101.670280;328.074575_101.897637;327.913137_102.136281;327.765234_102.383609;327.628555_102.637366;327.500586_102.895664;327.378742_103.156932;327.260442_103.419839;327.143137_103.683195;327.024318_103.945866;326.902102_104.206967;326.776236_104.466332;326.647572_104.724325;326.517053_104.981387;326.385620_105.237985;326.254231_105.494605;326.123879_105.751752;325.995581_106.009926;325.869741_106.269308;325.745546_106.529485;325.621538_106.789752;325.496265_107.049410;325.368396_107.307794;325.236803_107.564295;325.100605_107.818374;324.958840_108.069376;324.807690_108.314721;324.638961_108.547917;324.441824_108.756440;324.206330_108.916681;323.935468_108.998304;323.649205_109.005723;323.361654_108.986432;323.076042_108.998458;322.810388_109.092163;322.584846_109.266435;322.394294_109.481794;322.220204_109.711514;322.044879_109.940243;321.855010_110.156701;321.649449_110.358597;321.437147_110.553630;321.228594_110.752531;321.033922_110.964677;320.856951_111.191934;320.688086_111.425580;320.509417_111.651350;320.300874_111.847206;320.048700_111.972380;319.767159_112.003589;319.480093_111.980813;319.193603_111.974489;318.927140_112.055629;318.710284_112.236791;318.534160_112.464313;318.362870_112.695935;318.160068_112.895904;317.904842_113.004353;317.620384_113.010932;317.333614_112.983427;317.051739_113.005235;316.805854_113.134126;316.612782_113.344977;316.444489_113.578935;316.263717_113.802129;316.035387_113.964424;315.761363_114.018479;315.474643_113.997186;315.188192_113.983231;314.920177_114.056723;314.701853_114.235102;314.526130_114.462839;</t>
-  </si>
-  <si>
-    <t>314.526130_114.462839;314.356246_114.695508;314.154804_114.896771;313.900105_115.005768;313.615661_115.012087;313.328911_114.984426;313.047166_115.006678;312.801495_115.136131;312.608405_115.347025;312.439848_115.580795;312.258809_115.803782;312.030447_115.966254;311.756476_116.021634;311.469657_116.002004;311.183009_115.987361;310.912026_116.054534;310.686231_116.223700;310.502794_116.445041;310.330206_116.675873;310.135999_116.886501;309.894250_117.029702;309.615329_117.077782;309.328950_117.057733;309.044974_117.008766;308.761383_116.957205;308.475428_116.926318;308.191108_116.947918;307.931575_117.056577;307.716860_117.244057;307.534021_117.466502;307.354552_117.691929;307.149873_117.891915;306.899919_118.020845;306.618371_118.059052;306.331330_118.040500;306.045001_118.007162;305.757780_117.985041;305.469665_117.981372;305.181573_117.990792;304.893656_118.005574;304.605628_118.017306;304.317463_118.017792;304.029941_118.000304;303.743575_117.967635;303.456830_117.941231;303.172060_117.960050;302.912213_118.066478;302.698276_118.254611;302.516734_118.478118;302.337995_118.704091;302.132399_118.902728;301.880517_119.027057;301.598068_119.060150;301.311126_119.038915;301.024855_119.005151;300.737578_118.983958;300.449448_118.981415;300.161378_118.991638;299.873471_119.006633;299.585430_119.017878;299.297274_119.017264;299.009842_118.998372;298.723521_118.965188;298.436698_118.940509;298.152654_118.964351;297.895639_119.077401;297.684852_119.269633;297.504463_119.494164;297.324822_119.719352;297.116261_119.914384;296.861372_120.032210;296.577944_120.059858;296.291068_120.036558;296.004771_120.003086;295.717404_119.983213;</t>
-  </si>
-  <si>
-    <t>295.717404_119.983213;295.429257_119.981797;295.141204_119.992628;294.853299_120.007649;294.565242_120.018328;294.277099_120.016610;293.989758_119.996354;293.703475_119.962751;293.416583_119.939960;293.133419_119.969096;292.879413_120.088820;292.671805_120.285004;292.492537_120.510511;292.311867_120.734787;292.100084_120.925715;291.842079_121.036374;291.557744_121.058242;291.270910_121.033163;290.984448_121.001402;290.696863_120.985279;290.408671_120.986549;290.120520_120.995567;289.832327_121.002633;289.544045_121.004186;289.255753_121.002353;288.967463_121.000009;288.679166_120.998914;288.390866_120.999074;288.102567_120.999727;287.814267_121.000206;287.525967_121.000296;287.237667_121.000157;286.949366_120.999993;286.661066_120.999925;286.372766_120.999942;286.084466_120.999985;285.796165_121.000006;285.507865_121.000000;285.219565_120.999994;284.931265_121.000013;284.642964_121.000056;284.354664_121.000076;284.066364_121.000013;283.778064_120.999853;283.489763_120.999707;283.201463_120.999779;282.913163_121.000239;282.624864_121.000897;282.336564_121.001105;282.048267_121.000091;281.759977_120.997783;281.471685_120.995849;281.183401_120.997141;280.895202_121.003940;280.607054_121.013076;280.318857_121.015047;280.031212_120.999989;279.744716_120.968662;279.457943_120.942279;279.173078_120.960311;278.912945_121.065903;278.698811_121.253722;278.517330_121.477269;278.338775_121.703389;278.133345_121.902187;277.881497_122.026455;277.599022_122.059284;277.312057_122.038093;277.025682_122.005297;276.738283_121.986159;276.450114_121.985311;276.161961_121.994021;275.873794_122.002286;275.585527_122.005219;275.297236_122.003768;</t>
-  </si>
-  <si>
-    <t>273.848958_122.000000;273.546875_122.000000;273.244792_122.000000;272.942708_122.000000;272.640625_122.000000;272.338542_122.000000;272.036458_122.000000;271.734375_122.000000;271.432292_122.000000;271.130208_122.000000;270.828125_122.000000;270.526042_122.000000;270.223958_122.000000;269.921875_122.000000;269.619792_122.000000;269.317708_122.000000;269.015625_122.000000;268.713542_122.000000;268.411458_122.000000;268.109375_122.000000;267.807292_122.000000;267.505208_122.000000;267.203125_122.000000;266.901042_122.000000;266.598958_122.000000;266.296875_122.000000;265.994792_122.000000;265.692708_122.000000;265.390625_122.000000;265.088542_122.000000;264.786458_122.000000;264.484375_122.000000;264.182292_122.000000;263.880208_122.000000;263.578125_122.000000;263.276042_122.000000;262.973958_122.000000;262.671875_122.000000;262.369792_122.000000;262.067708_122.000000;261.765625_122.000000;261.463542_122.000000;261.161458_122.000000;260.859375_122.000000;260.557292_122.000000;260.255208_122.000000;259.953125_122.000000;259.651042_122.000000;259.348958_122.000000;259.046875_122.000000;258.744792_122.000000;258.442708_122.000000;258.140625_122.000000;257.838542_122.000000;257.536458_122.000000;257.234375_122.000000;256.932292_122.000000;256.630208_122.000000;256.328125_122.000000;256.026042_122.000000;255.723958_122.000000;255.421875_122.000000;255.119792_122.000000;254.817708_122.000000;254.515625_122.000000;254.213542_122.000000;253.911458_122.000000;253.609375_122.000000;253.307292_122.000000;253.005208_122.000000;</t>
-  </si>
-  <si>
-    <t>253.005208_122.000000;252.703125_122.000000;252.401042_122.000000;252.098958_122.000000;251.796875_122.000000;251.494792_122.000000;251.192708_122.000000;250.890625_122.000000;250.588542_122.000000;250.286458_122.000000;249.984375_122.000000;249.682292_122.000000;249.380208_122.000000;249.078125_122.000000;248.776042_122.000000;248.473958_122.000000;248.171875_122.000000;247.869792_122.000000;247.567708_122.000000;247.265625_122.000000;246.963542_122.000000;246.661458_122.000000;246.359375_122.000000;246.057292_122.000000;245.755208_122.000000;245.453125_122.000000;245.151042_122.000000;244.848958_122.000000;244.546875_122.000000;244.244792_122.000000;243.942708_122.000000;243.640625_122.000000;243.338542_122.000000;243.036458_122.000000;242.734375_122.000000;242.432292_122.000000;242.130208_122.000000;241.828125_122.000000;241.526042_122.000000;241.223958_122.000000;240.921875_122.000000;240.619792_122.000000;240.317708_122.000000;240.015625_122.000000;239.713542_122.000000;239.411458_122.000000;239.109375_122.000000;238.807292_122.000000;238.505208_122.000000;238.203125_122.000000;237.901042_122.000000;237.598958_122.000000;237.296875_122.000000;236.994792_122.000000;236.692708_122.000000;236.390625_122.000000;236.088542_122.000000;235.786458_122.000000;235.484375_122.000000;235.182292_122.000000;</t>
-  </si>
-  <si>
-    <t>235.182292_122.000000;234.880208_122.000000;234.578125_122.000000;234.276042_122.000000;233.973958_122.000000;233.671875_122.000000;233.369792_122.000000;233.067708_122.000000;232.765625_122.000000;232.463542_122.000000;232.161458_122.000000;231.859375_122.000000;231.557292_122.000000;231.255208_122.000000;230.953125_122.000000;230.651042_122.000000;230.348958_122.000000;230.046875_122.000000;229.744792_122.000000;229.442708_122.000000;229.140625_122.000000;228.838542_122.000000;228.536458_122.000000;228.234375_122.000000;227.932292_122.000000;227.630208_122.000000;227.328125_122.000000;227.026042_122.000000;226.723958_122.000000;226.421875_122.000000;226.119792_122.000000;225.817708_122.000000;225.515625_122.000000;225.213542_122.000000;224.911458_122.000000;224.609375_122.000000;224.307292_122.000000;224.005208_122.000000;223.703125_122.000000;223.401042_122.000000;223.098958_122.000000;222.796875_122.000000;222.494792_122.000000;222.192708_122.000000;221.890625_122.000000;221.588542_122.000000;221.286458_122.000000;220.984375_122.000000;220.682292_122.000000;220.380208_122.000000;220.078125_122.000000;219.776042_122.000000;219.473958_122.000000;219.171875_122.000000;218.869792_122.000000;218.567708_122.000000;218.265625_122.000000;217.963542_122.000000;217.661458_122.000000;217.359375_122.000000;</t>
-  </si>
-  <si>
     <t>215.988038_122.000000;215.964115_122.000000;215.940191_122.000000;215.916268_122.000000;215.892344_122.000000;215.868421_122.000000;215.844498_122.000000;215.820574_122.000000;215.796651_122.000000;215.772727_122.000000;215.748804_122.000000;215.724880_122.000000;215.700957_122.000000;215.677033_122.000000;215.653110_122.000000;215.629187_122.000000;215.605263_122.000000;215.581340_122.000000;215.557416_122.000000;215.533493_122.000000;215.509569_122.000000;215.485646_122.000000;215.461722_122.000000;215.437799_122.000000;215.413876_122.000000;215.389952_122.000000;215.366029_122.000000;215.342105_122.000000;215.318182_122.000000;215.294258_122.000000;215.270335_122.000000;215.246411_122.000000;215.222488_122.000000;215.198565_122.000000;215.174641_122.000000;215.150718_122.000000;215.126794_122.000000;215.102871_122.000000;215.078947_122.000000;215.055024_122.000000;215.031100_122.000000;215.007177_122.000000;214.983254_122.000000;214.959330_122.000000;214.935407_122.000000;214.911483_122.000000;214.887560_122.000000;214.863636_122.000000;214.839713_122.000000;214.815789_122.000000;</t>
   </si>
   <si>
@@ -414,15 +369,6 @@
     <t>190.964115_122.000000;190.940191_122.000000;190.916268_122.000000;190.892344_122.000000;190.868421_122.000000;190.844498_122.000000;190.820574_122.000000;190.796651_122.000000;190.772727_122.000000;190.748804_122.000000;190.724880_122.000000;190.700957_122.000000;190.677033_122.000000;190.653110_122.000000;190.629187_122.000000;190.605263_122.000000;190.581340_122.000000;190.557416_122.000000;190.533493_122.000000;190.509569_122.000000;190.485646_122.000000;190.461722_122.000000;190.437799_122.000000;190.413876_122.000000;190.389952_122.000000;190.366029_122.000000;190.342105_122.000000;190.318182_122.000000;190.294258_122.000000;190.270335_122.000000;190.246411_122.000000;190.222488_122.000000;190.198565_122.000000;190.174641_122.000000;190.150718_122.000000;190.126794_122.000000;190.102871_122.000000;190.078947_122.000000;190.055024_122.000000;190.031100_122.000000;190.007177_122.000000;189.983254_122.000000;189.959330_122.000000;189.935407_122.000000;189.911483_122.000000;189.887560_122.000000;189.863636_122.000000;189.839713_122.000000;189.815789_122.000000;189.791866_122.000000;189.767943_122.000000;189.744019_122.000000;189.720096_122.000000;189.696172_122.000000;189.672249_122.000000;189.648325_122.000000;189.624402_122.000000;189.600478_122.000000;189.576555_122.000000;189.552632_122.000000;189.528708_122.000000;189.504785_122.000000;189.480861_122.000000;189.456938_122.000000;189.433014_122.000000;189.409091_122.000000;189.385167_122.000000;189.361244_122.000000;189.337321_122.000000;189.313397_122.000000;189.289474_122.000000;189.265550_122.000000;189.241627_122.000000;189.217703_122.000000;189.193780_122.000000;189.169856_122.000000;189.145933_122.000000;189.122010_122.000000;189.098086_122.000000;189.074163_122.000000;189.050239_122.000000;189.026316_122.000000;189.002392_122.000000;188.978469_122.000000;188.954545_122.000000;188.930622_122.000000;188.906699_122.000000;188.882775_122.000000;188.858852_122.000000;188.834928_122.000000;188.811005_122.000000;188.787081_122.000000;188.763158_122.000000;188.739234_122.000000;188.715311_122.000000;188.691388_122.000000;188.667464_122.000000;188.643541_122.000000;188.619617_122.000000;188.595694_122.000000;188.571770_122.000000;188.547847_122.000000;188.523923_122.000000;188.500000_122.000000;188.476077_122.000000;188.452153_122.000000;188.428230_122.000000;188.404306_122.000000;188.380383_122.000000;188.356459_122.000000;188.332536_122.000000;188.308612_122.000000;188.284689_122.000000;188.260766_122.000000;188.236842_122.000000;188.212919_122.000000;188.188995_122.000000;188.165072_122.000000;188.141148_122.000000;188.117225_122.000000;188.093301_122.000000;188.069378_122.000000;188.045455_122.000000;188.021531_122.000000;187.997608_122.000000;187.973684_122.000000;187.949761_122.000000;187.925837_122.000000;187.901914_122.000000;187.877990_122.000000;187.854067_122.000000;187.830144_122.000000;187.806220_122.000000;187.782297_122.000000;187.758373_122.000000;187.734450_122.000000;187.710526_122.000000;187.686603_122.000000;187.662679_122.000000;187.638756_122.000000;187.614833_122.000000;187.590909_122.000000;187.566986_122.000000;187.543062_122.000000;187.519139_122.000000;187.495215_122.000000;187.471292_122.000000;187.447368_122.000000;187.423445_122.000000;187.399522_122.000000;187.375598_122.000000;187.351675_122.000000;187.327751_122.000000;187.303828_122.000000;187.279904_122.000000;187.255981_122.000000;187.232057_122.000000;187.208134_122.000000;187.184211_122.000000;187.160287_122.000000;187.136364_122.000000;187.112440_122.000000;187.088517_122.000000;187.064593_122.000000;187.040670_122.000000;187.016746_122.000000;186.992823_122.000000;186.968900_122.000000;186.944976_122.000000;186.921053_122.000000;186.897129_122.000000;186.873206_122.000000;186.849282_122.000000;186.825359_122.000000;186.801435_122.000000;186.777512_122.000000;186.753589_122.000000;186.729665_122.000000;186.705742_122.000000;186.681818_122.000000;186.657895_122.000000;186.633971_122.000000;186.610048_122.000000;186.586124_122.000000;186.562201_122.000000;186.538278_122.000000;186.514354_122.000000;186.490431_122.000000;186.466507_122.000000;186.442584_122.000000;186.418660_122.000000;186.394737_122.000000;186.370813_122.000000;186.346890_122.000000;186.322967_122.000000;186.299043_122.000000;186.275120_122.000000;186.251196_122.000000;186.227273_122.000000;186.203349_122.000000;</t>
   </si>
   <si>
-    <t>185.923039_122.000129;185.769116_122.000323;185.615194_122.000400;185.461271_122.000382;185.307349_122.000293;185.153426_122.000158;184.999504_121.999999;184.845581_121.999841;184.691659_121.999706;184.537736_121.999618;184.383813_121.999601;184.229891_121.999677;184.075968_121.999872;183.922046_122.000197;183.768124_122.000603;183.614202_122.000985;183.460280_122.001224;183.306357_122.001202;183.152435_122.000804;182.998515_121.999919;182.844599_121.998581;182.690684_121.997087;182.536766_121.995875;182.382845_121.995388;182.228926_121.996079;182.075025_121.998415;181.921166_122.002690;181.767345_122.008261;181.613515_122.013553;181.459637_122.016826;181.305736_122.016428;181.151951_122.010873;180.998538_121.998990;180.845645_121.981420;180.692994_121.961694;180.540043_121.944719;180.386509_121.936005;180.233135_121.942532;180.083245_121.973076;179.943836_122.034849;179.820334_122.125164;179.711598_122.233600;179.612960_122.351620;179.519606_122.473979;179.427147_122.597033;179.331289_122.717387;179.227406_122.830661;179.110582_122.929901;178.977532_123.004625;178.831096_123.047837;178.678553_123.063280;178.524893_123.059988;178.371694_123.045770;178.218968_123.026666;178.066218_123.007786;177.913001_122.993551;177.759317_122.985832;177.605435_122.983822;177.451540_122.985997;177.297690_122.990623;177.143857_122.995852;176.989991_122.999848;176.836084_123.001576;176.682164_123.001350;176.528247_123.000085;176.374331_122.998690;176.220412_122.998070;176.066498_122.999152;175.912621_123.002603;175.758789_123.007855;175.604959_123.013157;175.451084_123.016567;175.297185_123.016233;175.143411_123.010493;174.990046_122.998071;174.837242_122.979754;174.684680_122.959347;174.531779_122.941971;174.378256_122.933413;174.224992_122.941096;174.075803_122.974313;173.938345_123.040057;173.817869_123.134390;173.712367_123.246015;173.616575_123.366381;173.525372_123.490361;173.434111_123.614297;173.338135_123.734512;173.232312_123.845819;173.111396_123.939552;172.973235_124.003294;172.823287_124.031756;172.669800_124.033710;172.516424_124.021778;172.363345_124.005737;172.209949_123.994171;172.056498_123.996955;171.906176_124.024908;171.764481_124.082349;171.635389_124.164863;</t>
-  </si>
-  <si>
-    <t>171.635389_124.164863;171.519522_124.265556;171.415251_124.378478;171.320188_124.499393;171.231989_124.625473;171.148589_124.754816;171.068191_124.886065;170.989184_125.018162;170.910032_125.150172;170.829166_125.281130;170.744900_125.409903;170.655332_125.535000;170.558269_125.654284;170.451253_125.764542;170.331924_125.860974;170.199073_125.937050;170.054278_125.985859;169.902466_126.004946;169.748894_126.001338;169.595734_125.986498;169.442718_125.969935;169.289242_125.960627;169.136274_125.969651;168.989728_126.010531;168.858779_126.088095;168.746357_126.192185;168.647795_126.310126;168.557044_126.434394;168.468707_126.560442;168.377731_126.684541;168.278690_126.802063;168.165527_126.905297;168.033720_126.981232;167.886480_127.018781;167.733329_127.023100;167.580140_127.009556;167.427400_126.990574;167.274238_126.976612;167.121027_126.979968;166.973409_127.016107;166.841036_127.090918;166.727508_127.193700;166.628383_127.311136;166.537513_127.435310;166.449396_127.561511;166.358927_127.685986;166.260670_127.804183;166.148534_127.908581;166.017778_127.986441;165.871264_128.027187;165.718276_128.035531;165.564846_128.025454;165.411881_128.008409;165.258716_127.993763;165.105191_127.991774;164.954245_128.015223;164.812390_128.071378;164.684601_128.155651;164.570901_128.258789;164.468339_128.373330;164.373331_128.494354;164.282580_128.618662;164.193156_128.743942;164.102329_128.868195;164.007408_128.989298;163.906553_129.105472;163.799963_129.216443;163.689106_129.323188;163.575554_129.427088;163.460910_129.529795;163.346860_129.633154;163.235258_129.739119;163.128215_129.849631;163.028138_129.966411;162.937095_130.090324;162.855383_130.220627;162.781749_130.355708;162.714640_130.494181;162.652482_130.634971;162.593749_130.777237;162.536974_130.920304;162.480742_131.063587;162.423666_131.206533;162.364364_131.348561;162.301441_131.489008;162.233483_131.627066;162.159078_131.761728;162.076882_131.891738;161.985800_132.015641;161.886009_132.132672;161.779339_132.243545;161.668046_132.349833;161.554103_132.453306;161.439281_132.555814;161.325287_132.659232;161.213905_132.765427;161.107141_132.876209;161.007297_132.993193;160.916177_133.117068;160.833903_133.247030;</t>
-  </si>
-  <si>
-    <t>160.833903_133.247030;160.759388_133.381631;160.691298_133.519625;160.628222_133.660003;160.568734_133.801954;160.511429_133.944809;160.454924_134.087985;160.397845_134.230930;160.338812_134.373073;160.276428_134.513763;160.209277_134.652220;160.135946_134.787477;160.055093_134.918336;159.965699_135.043482;159.868079_135.162354;159.763893_135.275572;159.654979_135.384290;159.542945_135.489820;159.429223_135.593543;159.315132_135.696865;159.201971_135.801195;159.091092_135.907928;158.983952_136.018382;158.881668_136.133334;158.784673_136.252783;158.693055_136.376409;158.606848_136.503870;158.526030_136.634818;158.450534_136.768908;158.380253_136.905808;158.315045_137.045200;158.254745_137.186787;158.199164_137.330295;158.148102_137.475476;158.101350_137.622105;158.058695_137.769980;158.019925_137.918923;157.984829_138.068776;157.953203_138.219401;157.924847_138.370677;157.899570_138.522500;157.877188_138.674779;157.857526_138.827433;157.840418_138.980395;157.825705_139.133607;157.813236_139.287018;157.802870_139.440586;157.794470_139.594276;157.787908_139.748055;157.783063_139.901899;157.779818_140.055785;157.778064_140.209695;157.777694_140.363615;157.778608_140.517533;157.780709_140.671440;157.783906_140.825328;157.788108_140.979192;157.793230_141.133029;157.799188_141.286836;157.805900_141.440611;157.813287_141.594356;157.821271_141.748071;157.829775_141.901758;157.838723_142.055420;157.848040_142.209061;157.857650_142.362683;157.867478_142.516292;157.877446_142.669891;157.887479_142.823486;157.897497_142.977082;157.907420_143.130684;157.917164_143.284298;157.926642_143.437929;157.935766_143.591581;157.944442_143.745258;157.952570_143.898966;157.960045_144.052706;157.966757_144.206481;157.972586_144.360293;157.977403_144.514139;157.981070_144.668017;157.983436_144.821919;157.984336_144.975836;157.983589_145.129753;157.980996_145.283649;157.976333_145.437496;157.969356_145.591255;157.959787_145.744872;157.947317_145.898278;157.931597_146.051382;157.912231_146.204064;157.888774_146.356168;157.860722_146.507488;157.827507_146.657750;157.788495_146.806600;157.742983_146.953580;157.690210_147.098097;157.629382_147.239392;157.559711_147.376514;157.480483_147.508312;</t>
-  </si>
-  <si>
     <t>157.000000_148.066753;157.000000_148.200258;157.000000_148.333764;157.000000_148.467270;157.000000_148.600775;157.000000_148.734281;157.000000_148.867786;157.000000_149.001292;157.000000_149.134798;157.000000_149.268303;157.000000_149.401809;157.000000_149.535314;157.000000_149.668820;157.000000_149.802326;157.000000_149.935831;157.000000_150.069337;157.000000_150.202842;157.000000_150.336348;157.000000_150.469854;157.000000_150.603359;157.000000_150.736865;157.000000_150.870370;157.000000_151.003876;157.000000_151.137382;157.000000_151.270887;157.000000_151.404393;157.000000_151.537898;157.000000_151.671404;157.000000_151.804910;157.000000_151.938415;157.000000_152.071921;157.000000_152.205426;157.000000_152.338932;157.000000_152.472438;157.000000_152.605943;157.000000_152.739449;157.000000_152.872954;157.000000_153.006460;157.000000_153.139966;157.000000_153.273471;157.000000_153.406977;157.000000_153.540482;157.000000_153.673988;157.000000_153.807494;157.000000_153.940999;157.000000_154.074505;157.000000_154.208010;157.000000_154.341516;157.000000_154.475022;157.000000_154.608527;</t>
   </si>
   <si>
@@ -489,72 +435,6 @@
     <t>157.000000_296.391473;157.000000_296.524978;157.000000_296.658484;157.000000_296.791990;157.000000_296.925495;157.000000_297.059001;157.000000_297.192506;157.000000_297.326012;157.000000_297.459518;157.000000_297.593023;157.000000_297.726529;157.000000_297.860034;157.000000_297.993540;157.000000_298.127046;157.000000_298.260551;157.000000_298.394057;157.000000_298.527562;157.000000_298.661068;157.000000_298.794574;157.000000_298.928079;157.000000_299.061585;157.000000_299.195090;157.000000_299.328596;157.000000_299.462102;157.000000_299.595607;157.000000_299.729113;157.000000_299.862618;157.000000_299.996124;157.000000_300.129630;157.000000_300.263135;157.000000_300.396641;157.000000_300.530146;157.000000_300.663652;157.000000_300.797158;157.000000_300.930663;157.000000_301.064169;157.000000_301.197674;157.000000_301.331180;157.000000_301.464686;157.000000_301.598191;157.000000_301.731697;157.000000_301.865202;157.000000_301.998708;157.000000_302.132214;157.000000_302.265719;157.000000_302.399225;157.000000_302.532730;157.000000_302.666236;157.000000_302.799742;157.000000_302.933247;</t>
   </si>
   <si>
-    <t>156.872845_303.098728;156.625884_303.304977;156.394601_303.528630;156.180822_303.769048;155.986016_304.025080;155.811139_304.295131;155.656544_304.577310;155.521980_304.869609;155.406659_305.170059;155.309391_305.476868;155.228717_305.788486;155.163039_306.103637;155.110723_306.421305;155.070161_306.740707;155.039820_307.061257;155.018255_307.382531;155.004123_307.704227;154.996174_308.026143;154.993243_308.348150;154.994240_308.670173;154.998132_308.992176;155.003935_309.314153;155.010696_309.636113;155.017480_309.958072;155.023356_310.280047;155.027385_310.602050;155.028606_310.924072;155.026024_311.246083;155.018596_311.568012;155.005222_311.889743;154.984924_312.211105;154.957354_312.531926;154.922733_312.852065;154.881390_313.171408;154.833696_313.489866;154.780052_313.807379;154.720886_314.123913;154.656649_314.439458;154.587809_314.754034;154.514850_315.067682;154.438262_315.380467;154.358544_315.692469;154.276195_316.003789;154.191718_316.314540;154.105612_316.624844;154.018371_316.934831;153.930278_317.244578;153.841053_317.554000;153.750026_317.862894;153.656494_318.171038;153.559759_318.478188;153.459124_318.784079;153.353895_319.088417;153.243383_319.390871;153.126906_319.691074;153.003810_319.988618;152.873859_320.283232;152.737628_320.575005;152.596130_320.864267;152.450377_321.151415;152.301360_321.436887;152.150049_321.721152;151.997398_322.004703;151.844445_322.288091;151.692392_322.571961;151.542542_322.856997;151.396229_323.143857;151.254830_323.433161;151.119776_323.725468;150.992518_324.021239;150.873739_324.320518;150.762714_324.622773;150.657994_324.927282;150.558064_325.233405;150.461385_325.540577;</t>
-  </si>
-  <si>
-    <t>150.461385_325.540577;150.366415_325.848284;150.271623_326.156047;150.175502_326.463395;150.076575_326.769846;149.973371_327.074876;149.864068_327.377757;149.746320_327.677427;149.617566_327.972496;149.475225_328.261201;149.316756_328.541304;149.139819_328.810030;148.942844_329.064359;148.727704_329.303664;148.500001_329.531251;148.265817_329.752272;148.030574_329.972186;147.798177_330.195083;147.569383_330.421690;147.342924_330.650640;147.117327_330.880443;146.891248_331.109770;146.664136_331.338076;146.436260_331.565619;146.208052_331.792830;145.979932_332.020128;145.752127_332.247743;145.524549_332.475584;145.296959_332.703414;145.069119_332.930993;144.840895_333.158188;144.612511_333.385222;144.384465_333.612594;144.157288_333.840834;143.931406_334.070354;143.706379_334.300715;143.480671_334.530406;143.252404_334.757539;143.019731_334.980131;142.782763_335.198169;142.545952_335.416372;142.316276_335.641925;142.100554_335.880646;141.902293_336.134088;141.712768_336.394410;141.511563_336.645191;141.274337_336.858462;140.987343_336.984926;140.670560_337.009257;140.349331_336.989495;140.032082_337.010826;139.744018_337.134121;139.505897_337.346222;139.303541_337.596114;139.111000_337.854201;138.906063_338.102062;138.681078_338.332009;138.445213_338.551214;138.212444_338.773572;137.995967_339.011360;137.798079_339.265151;137.603349_339.521519;137.387256_339.758616;137.125833_339.936763;136.820697_340.011941;136.499944_340.005724;136.178893_339.994404;135.868952_340.054129;135.597186_340.215226;135.374306_340.444773;135.185760_340.705208;135.013960_340.977503;134.844060_341.251032;134.661000_341.515519;134.446461_341.753326;</t>
-  </si>
-  <si>
-    <t>134.446461_341.753326;134.182813_341.927930;133.876505_341.998419;133.555970_341.987169;133.235389_341.975132;132.933329_342.052146;132.683453_342.243609;132.479679_342.492036;132.280217_342.744401;132.042098_342.953653;131.749189_343.061885;131.430463_343.067081;131.112211_343.020764;130.795274_342.963975;130.475979_342.929254;130.160036_342.959611;129.877910_343.095605;129.648236_343.317276;129.446665_343.568234;129.234618_343.809318;128.976589_343.990615;128.671688_344.067237;128.351809_344.055994;128.033888_344.006068;127.716398_343.952802;127.396540_343.929537;127.085458_343.983590;126.815924_344.144711;126.596723_344.378361;126.396220_344.630258;126.175678_344.862450;125.904305_345.020115;125.592387_345.070641;125.272575_345.045647;124.955142_344.991968;124.637142_344.942697;124.317318_344.933604;124.013606_345.014019;123.757537_345.198487;123.546581_345.440644;123.344711_345.691332;123.113323_345.910882;122.829371_346.042827;122.512865_346.069725;122.193617_346.033821;121.876535_345.977795;121.557987_345.933817;121.239314_345.942028;120.946259_346.051467;120.706073_346.258938;120.503325_346.508665;120.297987_346.756001;120.050670_346.953076;119.751842_347.045561;119.431867_347.044528;119.111463_347.013076;118.790327_346.996325;118.468438_347.001089;118.146614_347.002698;117.825754_346.980613;117.505357_346.949904;117.186842_346.962695;116.897475_347.079081;116.662865_347.293571;116.462812_347.545603;116.255506_347.790919;116.001532_347.977104;115.697819_348.054779;115.377533_348.044901;115.057568_348.009104;114.736666_347.986647;114.414805_347.986271;114.092940_347.996195;113.771026_348.003815;113.449015_348.004863;</t>
-  </si>
-  <si>
-    <t>111.895973_348.000000;111.687919_348.000000;111.479866_348.000000;111.271812_348.000000;111.063758_348.000000;110.855705_348.000000;110.647651_348.000000;110.439597_348.000000;110.231544_348.000000;110.023490_348.000000;109.815436_348.000000;109.607383_348.000000;109.399329_348.000000;109.191275_348.000000;108.983221_348.000000;108.775168_348.000000;108.567114_348.000000;108.359060_348.000000;108.151007_348.000000;107.942953_348.000000;107.734899_348.000000;107.526846_348.000000;107.318792_348.000000;107.110738_348.000000;106.902685_348.000000;106.694631_348.000000;106.486577_348.000000;106.278523_348.000000;106.070470_348.000000;105.862416_348.000000;105.654362_348.000000;105.446309_348.000000;105.238255_348.000000;105.030201_348.000000;104.822148_348.000000;104.614094_348.000000;104.406040_348.000000;104.197987_348.000000;103.989933_348.000000;103.781879_348.000000;103.573826_348.000000;103.365772_348.000000;103.157718_348.000000;102.949664_348.000000;102.741611_348.000000;102.533557_348.000000;102.325503_348.000000;102.117450_348.000000;101.909396_348.000000;101.701342_348.000000;</t>
-  </si>
-  <si>
-    <t>101.701342_348.000000;101.493289_348.000000;101.285235_348.000000;101.077181_348.000000;100.869128_348.000000;100.661074_348.000000;100.453020_348.000000;100.244966_348.000000;100.036913_348.000000;99.828859_348.000000;99.620805_348.000000;99.412752_348.000000;99.204698_348.000000;98.996644_348.000000;98.788591_348.000000;98.580537_348.000000;98.372483_348.000000;98.164430_348.000000;97.956376_348.000000;97.748322_348.000000;97.540268_348.000000;97.332215_348.000000;97.124161_348.000000;96.916107_348.000000;96.708054_348.000000;96.500000_348.000000;96.291946_348.000000;96.083893_348.000000;95.875839_348.000000;95.667785_348.000000;95.459732_348.000000;95.251678_348.000000;95.043624_348.000000;94.835570_348.000000;94.627517_348.000000;94.419463_348.000000;94.211409_348.000000;94.003356_348.000000;93.795302_348.000000;93.587248_348.000000;93.379195_348.000000;93.171141_348.000000;92.963087_348.000000;92.755034_348.000000;92.546980_348.000000;92.338926_348.000000;92.130872_348.000000;91.922819_348.000000;91.714765_348.000000;91.506711_348.000000;</t>
-  </si>
-  <si>
-    <t>91.506711_348.000000;91.298658_348.000000;91.090604_348.000000;90.882550_348.000000;90.674497_348.000000;90.466443_348.000000;90.258389_348.000000;90.050336_348.000000;89.842282_348.000000;89.634228_348.000000;89.426174_348.000000;89.218121_348.000000;89.010067_348.000000;88.802013_348.000000;88.593960_348.000000;88.385906_348.000000;88.177852_348.000000;87.969799_348.000000;87.761745_348.000000;87.553691_348.000000;87.345638_348.000000;87.137584_348.000000;86.929530_348.000000;86.721477_348.000000;86.513423_348.000000;86.305369_348.000000;86.097315_348.000000;85.889262_348.000000;85.681208_348.000000;85.473154_348.000000;85.265101_348.000000;85.057047_348.000000;84.848993_348.000000;84.640940_348.000000;84.432886_348.000000;84.224832_348.000000;84.016779_348.000000;83.808725_348.000000;83.600671_348.000000;83.392617_348.000000;83.184564_348.000000;82.976510_348.000000;82.768456_348.000000;82.560403_348.000000;82.352349_348.000000;82.144295_348.000000;81.936242_348.000000;81.728188_348.000000;81.520134_348.000000;81.312081_348.000000;</t>
-  </si>
-  <si>
-    <t>81.312081_348.000000;81.104027_348.000000;80.895973_348.000000;80.687919_348.000000;80.479866_348.000000;80.271812_348.000000;80.063758_348.000000;79.855705_348.000000;79.647651_348.000000;79.439597_348.000000;79.231544_348.000000;79.023490_348.000000;78.815436_348.000000;78.607383_348.000000;78.399329_348.000000;78.191275_348.000000;77.983221_348.000000;77.775168_348.000000;77.567114_348.000000;77.359060_348.000000;77.151007_348.000000;76.942953_348.000000;76.734899_348.000000;76.526846_348.000000;76.318792_348.000000;76.110738_348.000000;75.902685_348.000000;75.694631_348.000000;75.486577_348.000000;75.278523_348.000000;75.070470_348.000000;74.862416_348.000000;74.654362_348.000000;74.446309_348.000000;74.238255_348.000000;74.030201_348.000000;73.822148_348.000000;73.614094_348.000000;73.406040_348.000000;73.197987_348.000000;72.989933_348.000000;72.781879_348.000000;72.573826_348.000000;</t>
-  </si>
-  <si>
-    <t>72.573826_348.000000;72.365772_348.000000;72.157718_348.000000;71.949664_348.000000;71.741611_348.000000;71.533557_348.000000;71.325503_348.000000;71.117450_348.000000;70.909396_348.000000;70.701342_348.000000;70.493289_348.000000;70.285235_348.000000;70.077181_348.000000;69.869128_348.000000;69.661074_348.000000;69.453020_348.000000;69.244966_348.000000;69.036913_348.000000;68.828859_348.000000;68.620805_348.000000;68.412752_348.000000;68.204698_348.000000;67.996644_348.000000;67.788591_348.000000;67.580537_348.000000;67.372483_348.000000;67.164430_348.000000;66.956376_348.000000;66.748322_348.000000;66.540268_348.000000;66.332215_348.000000;66.124161_348.000000;65.916107_348.000000;65.708054_348.000000;65.500000_348.000000;65.291946_348.000000;65.083893_348.000000;64.875839_348.000000;64.667785_348.000000;64.459732_348.000000;64.251678_348.000000;64.043624_348.000000;63.835570_348.000000;63.627517_348.000000;63.419463_348.000000;63.211409_348.000000;63.003356_348.000000;62.795302_348.000000;62.587248_348.000000;62.379195_348.000000;</t>
-  </si>
-  <si>
-    <t>62.379195_348.000000;62.171141_348.000000;61.963087_348.000000;61.755034_348.000000;61.546980_348.000000;61.338926_348.000000;61.130872_348.000000;60.922819_348.000000;60.714765_348.000000;60.506711_348.000000;60.298658_348.000000;60.090604_348.000000;59.882550_348.000000;59.674497_348.000000;59.466443_348.000000;59.258389_348.000000;59.050336_348.000000;58.842282_348.000000;58.634228_348.000000;58.426174_348.000000;58.218121_348.000000;58.010067_348.000000;57.802013_348.000000;57.593960_348.000000;57.385906_348.000000;57.177852_348.000000;56.969799_348.000000;56.761745_348.000000;56.553691_348.000000;56.345638_348.000000;56.137584_348.000000;55.929530_348.000000;55.721477_348.000000;55.513423_348.000000;55.305369_348.000000;55.097315_348.000000;54.889262_348.000000;54.681208_348.000000;54.473154_348.000000;54.265101_348.000000;54.057047_348.000000;53.848993_348.000000;53.640940_348.000000;53.432886_348.000000;53.224832_348.000000;53.016779_348.000000;52.808725_348.000000;52.600671_348.000000;52.392617_348.000000;52.184564_348.000000;</t>
-  </si>
-  <si>
-    <t>49.947733_347.845849;49.814359_347.550828;49.616335_347.297477;49.352775_347.115458;49.046233_347.016138;48.723547_346.981454;48.397955_346.982887;48.072357_346.995961;47.746638_347.004034;47.420782_347.003743;47.094921_347.001050;46.769055_347.001105;46.443187_347.003026;46.117342_347.001229;45.791614_346.992410;45.465890_346.984112;45.140429_346.992233;44.816425_347.024365;44.492645_347.058502;44.171829_347.038604;43.887027_346.905352;43.661615_346.674970;43.465922_346.414565;43.251094_346.172306;42.977972_346.018542;42.660927_345.990191;42.336525_346.017124;42.021578_345.980616;41.755680_345.815179;41.548980_345.565440;41.355474_345.303593;41.121565_345.085634;40.825961_344.987873;40.502602_344.999910;40.179163_345.012796;39.882951_344.916774;39.648372_344.699824;39.454889_344.437980;39.248746_344.187726;38.983482_344.021313;38.668802_343.984525;38.344456_344.011984;38.027931_343.982644;37.757472_343.825396;37.546613_343.579555;37.352673_343.317916;37.123477_343.093104;36.832744_342.978749;36.510014_342.976758;36.185433_342.998192;35.870363_342.949533;35.593986_342.791080;35.369865_342.557758;35.181678_342.292335;35.009399_342.015780;34.836828_341.739411;34.648800_341.473797;34.427695_341.236969;34.157558_341.065226;33.846340_340.995443;33.521627_341.002898;33.196823_341.011860;32.885647_340.943693;32.616595_340.770960;32.394990_340.534114;32.199016_340.273968;32.005473_340.011887;31.798538_339.760519;31.574872_339.523819;31.338709_339.299431;31.095186_339.082928;30.849624_338.868705;30.607346_338.650832;30.373605_338.423953;30.153384_338.184073;</t>
-  </si>
-  <si>
-    <t>30.153384_338.184073;29.950014_337.929774;29.757407_337.666954;29.557581_337.409931;29.326874_337.182852;29.046601_337.031840;28.729905_336.986511;28.404804_337.002600;28.081087_336.997885;27.775553_336.906626;27.513250_336.720837;27.298174_336.478270;27.118390_336.207216;26.961883_335.921639;26.820375_335.628193;26.688011_335.330439;26.558552_335.031386;26.424599_334.734366;26.278024_334.443523;26.110857_334.164277;25.917672_333.902573;25.700810_333.659817;25.468759_333.431197;25.229554_333.209919;24.989788_332.989235;24.753730_332.764615;24.522040_332.535477;24.293505_332.303179;24.066735_332.069152;23.840300_331.834798;23.612840_331.601443;23.383086_331.370355;23.149832_331.142812;22.912348_330.919691;22.672655_330.698919;22.436012_330.474941;22.209010_330.241380;21.999227_329.992526;21.812139_329.726247;21.647131_329.445561;21.499652_329.155132;21.364526_328.858658;21.236489_328.559004;21.110326_328.258544;20.980995_327.959453;20.845468_327.663128;20.703913_327.369623;20.557855_327.078323;20.408858_326.788509;20.258488_326.499401;20.108314_326.210192;19.959812_325.920124;19.813568_325.628911;19.668989_325.336865;19.525094_325.044481;19.380901_324.752243;19.235437_324.460639;19.087734_324.170164;18.937049_323.881228;18.783923_323.593573;18.630308_323.306177;18.478501_323.017827;18.330842_322.727346;18.189742_322.433645;18.057710_322.135788;17.936834_321.833250;17.826947_321.526523;17.725665_321.216818;17.630157_320.905264;17.537572_320.592820;17.445058_320.280354;17.349767_319.968734;17.248856_319.658906;17.139511_319.351983;17.019011_319.049305;</t>
-  </si>
-  <si>
-    <t>17.019011_319.049305;16.886060_318.751887;16.742617_318.459333;16.592609_318.170053;16.439956_317.882146;16.288507_317.593609;16.142179_317.302472;16.005030_317.006950;15.880102_316.706085;15.768043_316.400180;15.668064_316.090101;15.579199_315.776641;15.500408_315.460486;15.430608_315.142213;15.368696_314.822303;15.313572_314.501145;15.264143_314.179054;15.219334_313.856284;15.178089_313.533034;15.139367_313.209470;15.102141_312.885729;15.065392_312.561933;15.028100_312.238199;14.989285_311.914646;14.948360_311.591354;14.905264_311.268343;14.860121_310.945613;14.813052_310.623157;14.764183_310.300968;14.713643_309.979038;14.661558_309.657353;14.608059_309.335901;14.553276_309.014664;14.497341_308.693627;14.440387_308.372768;14.382546_308.052067;14.323955_307.731503;14.264746_307.411052;14.205057_307.090691;14.145022_306.770393;14.084780_306.450135;14.024467_306.129890;13.964221_305.809633;13.904180_305.489337;13.844484_305.168976;13.785270_304.848526;13.726678_304.527962;13.668849_304.207260;13.611920_303.886397;13.556033_303.565350;13.501328_303.244101;13.447943_302.922629;13.396020_302.600919;13.345697_302.278954;13.297113_301.956723;13.250406_301.634215;13.205716_301.311421;13.163177_300.988337;13.122925_300.664960;13.085096_300.341292;13.049820_300.017335;13.017229_299.693098;12.987450_299.368591;12.960610_299.043828;12.936831_298.718827;12.916233_298.393609;12.898931_298.068199;12.885037_297.742627;12.874660_297.416924;12.867902_297.091126;12.864860_296.765272;12.865629_296.439406;12.870293_296.113572;12.878935_295.787820;12.891629_295.462201;</t>
-  </si>
-  <si>
-    <t>12.968310_293.891650;12.906773_293.674428;12.848956_293.456187;12.794917_293.236981;12.744712_293.016864;12.698390_292.795898;12.655993_292.574146;12.617559_292.351673;12.583114_292.128547;12.552679_291.904839;12.526267_291.680621;12.503882_291.455965;12.485517_291.230944;12.471161_291.005632;12.460789_290.780101;12.454371_290.554423;12.451867_290.328667;12.453229_290.102901;12.458399_289.877190;12.467313_289.651596;12.479900_289.426176;12.496082_289.200985;12.515773_288.976074;12.538882_288.751487;12.565314_288.527267;12.594968_288.303449;12.627739_288.080067;12.663519_287.857146;12.702196_287.634709;12.743657_287.412773;12.787786_287.191352;12.834465_286.970454;12.883576_286.750084;12.934999_286.530241;12.988615_286.310922;13.044302_286.092120;13.101943_285.873824;13.161416_285.656019;13.222603_285.438689;13.285385_285.221815;13.349645_285.005374;13.415266_284.789341;13.482131_284.573689;13.550126_284.358391;13.619136_284.143416;13.689049_283.928733;13.759751_283.714308;13.831133_283.500109;13.903082_283.286099;13.975489_283.072243;14.048246_282.858507;14.121242_282.644852;14.194371_282.431242;14.267524_282.217640;14.340595_282.004010;14.413475_281.790316;14.486059_281.576520;14.558239_281.362588;14.629909_281.148485;14.700962_280.934176;14.771291_280.719629;14.840788_280.504811;14.909347_280.289691;14.976860_280.074242;15.043284_279.858454;15.108806_279.642390;15.173801_279.426166;15.238671_279.209905;15.303818_278.993728;15.369644_278.777756;15.436552_278.562119;15.504945_278.346948;15.575225_278.132388;15.647793_277.918592;15.723047_277.705729;</t>
-  </si>
-  <si>
-    <t>15.883189_277.283556;15.968842_277.074668;16.058589_276.867507;16.152230_276.662073;16.249206_276.458189;16.348916_276.255624;16.450773_276.054128;16.554205_275.853434;16.658645_275.653262;16.763537_275.453325;16.868327_275.253335;16.972462_275.053004;17.075513_274.852114;17.177428_274.650645;17.278441_274.448721;17.378818_274.246481;17.478829_274.044058;17.578741_273.841588;17.678827_273.639202;17.779357_273.437038;17.880602_273.235230;17.982830_273.033920;18.086161_272.833173;18.190339_272.632864;18.294866_272.432737;18.399223_272.232521;18.502891_272.031948;18.605353_271.830757;18.706091_271.628700;18.804589_271.425543;18.900334_271.221077;18.992830_271.015125;19.082095_270.807748;19.169234_270.599462;19.255973_270.391007;19.344073_270.183129;19.435305_269.976617;19.531459_269.772369;19.634333_269.571447;19.745697_269.375141;19.867219_269.185002;20.000297_269.002816;20.144937_268.829644;20.298973_268.664685;20.459429_268.505896;20.623656_268.350972;20.789270_268.197516;20.953994_268.043114;21.116058_267.885936;21.275340_267.725928;21.433065_267.564375;21.590660_267.402695;21.749562_267.242307;21.911158_267.084649;22.076414_266.930842;22.244474_266.780077;22.412691_266.629483;22.577998_266.475745;22.737053_266.315634;22.885995_266.146208;23.020582_265.965311;23.138828_265.773285;23.242792_265.573028;23.336367_265.367621;23.423543_265.159368;23.508261_264.950085;23.594463_264.741420;23.686207_264.535177;23.787749_264.333670;23.903468_264.140114;24.037068_263.958627;24.187864_263.790993;24.350081_263.634089;24.517163_263.482245;24.683549_263.329656;</t>
-  </si>
-  <si>
-    <t>24.994549_263.002995;25.133243_262.825011;25.265418_262.641977;25.399556_262.460428;25.545045_262.288244;25.712459_262.138733;25.909011_262.034603;26.127595_261.994126;26.352460_262.002619;26.577052_262.025340;26.801829_262.030254;27.017126_261.979832;27.202322_261.858638;27.353498_261.692401;27.486802_261.510310;27.619411_261.327679;27.768406_261.159290;27.950646_261.033241;28.164372_260.978925;28.388953_260.984091;28.613373_261.008388;28.838053_261.016309;29.053793_260.968186;29.241026_260.849546;29.395787_260.686623;29.532445_260.507064;29.666665_260.325566;29.813696_260.155022;29.989321_260.017572;30.196569_259.938746;30.419634_259.919124;30.644143_259.937253;30.866772_259.974217;31.088467_260.016945;31.310955_260.054897;31.535290_260.076576;31.759475_260.065922;31.972821_260.002663;32.159359_259.880897;32.316800_259.720312;32.457643_259.544005;32.595724_259.365408;32.744507_259.196172;32.918052_259.054938;33.122051_258.967689;33.344063_258.939697;33.569143_258.949525;33.793425_258.975095;34.017785_258.999875;34.243003_259.013749;34.468701_259.015865;34.694399_259.010526;34.920048_259.002875;35.145752_258.997437;35.371518_258.995663;35.597295_258.996449;35.823067_258.998395;36.048840_259.000181;36.274619_259.001062;36.500399_259.001105;36.726179_259.000673;36.951960_259.000135;37.177740_258.999781;37.403521_258.999683;37.629302_258.999755;37.855082_258.999902;38.080863_259.000030;38.306644_259.000094;38.532425_259.000098;38.758206_259.000062;38.983986_259.000004;39.209767_258.999946;39.435548_258.999905;39.661329_258.999902;39.887110_258.999956;</t>
-  </si>
-  <si>
-    <t>40.025835_259.155942;40.105493_259.460214;40.258517_259.730160;40.501124_259.915255;40.801951_259.990084;41.117133_259.990228;41.432631_259.967447;41.747904_259.965894;42.051277_260.034681;42.318415_260.194424;42.542881_260.415217;42.741437_260.661219;42.933671_260.912463;43.135157_261.156115;43.351083_261.387110;43.577608_261.607874;43.809212_261.823390;44.040403_262.039347;44.267939_262.259138;44.491971_262.482517;44.713961_262.707934;44.935374_262.933919;45.157420_263.159282;45.380500_263.383622;45.604390_263.607153;45.828793_263.830171;46.053409_264.052974;46.277947_264.275855;46.502126_264.499097;46.725667_264.722978;46.948289_264.947771;47.169992_265.173472;47.391574_265.399292;47.614405_265.623874;47.839878_265.845793;48.069039_266.063892;48.300602_266.279463;48.530347_266.496940;48.752895_266.721658;48.962184_266.958575;49.152940_267.210540;49.323906_267.476421;49.477146_267.752995;49.615402_268.037429;49.741599_268.327469;49.858691_268.621340;49.969609_268.917620;50.076865_269.215256;50.181754_269.513735;50.284646_269.812910;50.385820_270.112670;50.485564_270.412910;50.584175_270.713524;50.681958_271.014409;50.779221_271.315463;50.876276_271.616584;50.973436_271.917671;51.070966_272.218638;51.168992_272.519444;51.267533_272.820082;51.366596_273.120548;51.466192_273.420838;51.566327_273.720949;51.667010_274.020876;51.768251_274.320615;51.870059_274.620162;51.972442_274.919513;52.075357_275.218682;52.178597_275.517739;52.281831_275.816797;52.384717_276.115976;52.486910_276.415392;52.588065_276.715159;52.687833_277.015391;52.785867_277.316192;</t>
-  </si>
-  <si>
-    <t>52.975321_277.919902;53.066112_278.222966;53.154137_278.526845;53.239519_278.831477;53.322402_279.136800;53.402930_279.442752;53.481249_279.749278;53.557504_280.056324;53.631843_280.363840;53.704412_280.671778;53.775357_280.980095;53.844827_281.288748;53.912969_281.597698;53.979929_281.906905;54.045848_282.216337;54.110839_282.525964;54.174994_282.835767;54.238403_283.145722;54.301157_283.455812;54.363346_283.766015;54.425061_284.076312;54.486393_284.386686;54.547433_284.697117;54.608272_285.007588;54.669001_285.318080;54.729712_285.628576;54.790496_285.939058;54.851444_286.249507;54.912647_286.559906;54.974196_286.870237;55.036164_287.180484;55.098546_287.490648;55.161267_287.800744;55.224242_288.110789;55.287385_288.420799;55.350609_288.730793;55.413830_289.040788;55.476961_289.350800;55.539917_289.660849;55.602611_289.970950;55.664959_290.281121;55.726873_290.591379;55.788269_290.901740;55.849059_291.212220;55.909159_291.522835;55.968480_291.833599;56.026947_292.144525;56.084532_292.455615;56.141262_292.766862;56.197173_293.078258;56.252304_293.389792;56.306693_293.701458;56.360376_294.013245;56.413392_294.325147;56.465779_294.637155;56.517574_294.949261;56.568816_295.261459;56.619542_295.573742;56.669791_295.886101;56.719599_296.198531;56.769006_296.511025;56.818049_296.823576;56.866767_297.136178;56.915196_297.448825;56.963377_297.761510;57.011343_298.074229;57.059116_298.386976;57.106689_298.699755;57.154049_299.012565;57.201183_299.325410;57.248077_299.638291;57.294717_299.951210;57.341090_300.264168;57.387182_300.577168;57.432980_300.890211;</t>
-  </si>
-  <si>
-    <t>57.523638_301.516434;57.568471_301.829617;57.612955_302.142849;57.657076_302.456133;57.700821_302.769469;57.744176_303.082860;57.787128_303.396306;57.829662_303.709810;57.871765_304.023371;57.913423_304.336992;57.954623_304.650673;57.995350_304.964416;58.035591_305.278222;58.075332_305.592091;58.114560_305.906025;58.153260_306.220025;58.191419_306.534091;58.229023_306.848223;58.266058_307.162423;58.302510_307.476692;58.338366_307.791029;58.373611_308.105435;58.408232_308.419910;58.442215_308.734455;58.475546_309.049070;58.508211_309.363754;58.540196_309.678508;58.571487_309.993332;58.602071_310.308226;58.631934_310.623189;58.661061_310.938220;58.689439_311.253320;58.717054_311.568488;58.743893_311.883722;58.769940_312.199024;58.795184_312.514390;58.819608_312.829821;58.843201_313.145315;58.865948_313.460872;58.887835_313.776489;58.908849_314.092165;58.928976_314.407899;58.948202_314.723690;58.966513_315.039535;58.983897_315.355432;59.000338_315.671379;59.015825_315.987375;59.030343_316.303417;59.043879_316.619502;59.056419_316.935628;59.067950_317.251793;59.078459_317.567994;59.087932_317.884227;59.096357_318.200489;59.103720_318.516779;59.110009_318.833091;59.115209_319.149423;59.119309_319.465771;59.122295_319.782132;59.124155_320.098502;59.124876_320.414876;59.124446_320.731250;59.122852_321.047621;59.120082_321.363984;59.116123_321.680334;59.110964_321.996666;59.104592_322.312977;59.096996_322.629260;59.088164_322.945512;59.078084_323.261726;59.066745_323.577897;59.054135_323.894020;59.040244_324.210090;59.025059_324.526100;59.008571_324.842045;</t>
-  </si>
-  <si>
-    <t>58.948500_325.142382;58.850761_325.428938;58.764025_325.719004;58.689272_326.012373;58.627528_326.308739;58.579840_326.607673;58.547244_326.908612;58.530719_327.210844;58.531132_327.513513;58.549183_327.815631;58.585340_328.116112;58.639798_328.413816;58.712449_328.707610;58.802881_328.996433;58.910400_329.279351;59.034079_329.555602;59.172819_329.824621;59.325414_330.086051;59.490614_330.339723;59.667176_330.585643;59.853902_330.823955;60.049667_331.054917;60.253430_331.278870;60.464242_331.496216;60.681244_331.707393;60.903664_331.912867;61.130246_332.113768;61.357425_332.314002;61.579276_332.520002;61.788617_332.738430;61.976721_332.974984;62.137306_333.230978;62.273114_333.501320;62.393315_333.779192;62.507710_334.059584;62.625982_334.338310;62.757805_334.610686;62.912601_334.870300;63.096580_335.109826;63.305357_335.328666;63.526608_335.535364;63.748412_335.741488;63.958521_335.959067;64.145229_336.196597;64.304938_336.453304;64.442623_336.722757;64.565765_336.999340;64.682148_337.278910;64.798913_337.558317;64.922179_337.834866;65.057160_338.105797;65.210058_338.366785;65.389928_338.609273;65.608106_338.815816;65.871133_338.954522;66.165076_339.000152;66.466699_338.982110;66.768019_338.970928;67.051279_339.045719;67.284153_339.228359;67.472645_339.464491;67.655635_339.705461;67.872767_339.910667;68.143923_340.018900;68.443583_340.025924;68.745262_340.001883;69.043166_340.023511;69.315275_340.139435;69.541755_340.335762;69.729272_340.572446;69.894417_340.826076;70.051378_341.085047;70.212431_341.341402;70.390726_341.585527;70.602253_341.799370;</t>
-  </si>
-  <si>
-    <t>71.151679_342.000382;71.453313_341.984803;71.754843_341.971935;72.041239_342.038752;72.280607_342.212248;72.474203_342.443920;72.657608_342.684729;72.868467_342.898215;73.131642_343.028311;73.428777_343.056725;73.730091_343.030796;74.031340_343.002071;74.333727_342.995511;74.636442_343.002918;74.938943_342.999498;75.240421_342.973797;75.541777_342.946739;75.840585_342.966337;76.110621_343.082600;76.330173_343.286197;76.517966_343.523457;76.709159_343.757677;76.938448_343.948108;77.216663_344.044150;77.517109_344.050051;77.818327_344.020015;78.119997_343.997777;78.422609_343.997921;78.725325_344.004482;79.027568_343.993957;79.328799_343.964037;79.630332_343.944872;79.924326_343.989618;80.180299_344.135592;80.386948_344.354407;80.572142_344.593916;80.771067_344.820774;81.015778_344.987141;81.304168_345.053002;81.605605_345.042655;81.906757_345.011417;82.208763_344.995664;82.511460_345.000220;82.814146_345.003903;83.116079_344.986601;83.417253_344.955547;83.718576_344.948949;84.004814_345.022061;84.246095_345.194329;84.443382_345.422857;84.629251_345.661821;84.838486_345.877864;85.097194_346.018933;85.392177_346.059893;85.693548_346.038459;85.994292_346.003445;86.296146_345.982923;86.598815_345.982502;86.901359_345.994804;87.203790_346.010320;87.506419_346.019187;87.808960_346.012388;88.110340_345.985210;88.411124_345.950665;88.712336_345.944566;88.998417_346.018835;89.239745_346.191267;89.437364_346.419515;89.623515_346.658263;89.832655_346.874481;90.090960_347.016468;90.385728_347.058506;90.687160_347.037924;90.988045_347.004224;91.290018_346.985817;</t>
-  </si>
-  <si>
-    <t>91.895407_346.996020;92.198138_347.002968;92.500957_347.004008;92.803782_347.001825;93.106607_346.999600;93.409440_346.998881;93.712274_346.999300;94.015108_346.999958;94.317942_347.000271;94.620777_347.000219;94.923611_347.000054;95.226446_346.999977;95.529280_347.000004;95.832115_347.000019;96.134950_346.999917;96.437784_346.999754;96.740619_346.999753;97.043453_347.000152;97.346287_347.000828;97.649121_347.001098;97.951952_347.000066;98.254777_346.997659;98.557603_346.995829;98.860412_346.997897;99.163122_347.005854;99.465814_347.014552;99.768476_347.012378;100.070189_346.989939;100.371033_346.955724;100.672461_346.942833;100.962635_347.003196;101.211068_347.163546;101.412896_347.387571;101.598513_347.626770;101.802448_347.848608;102.053988_348.003389;102.345741_348.057886;102.647195_348.042368;102.948041_348.008175;103.249836_347.986965;103.552516_347.985789;103.855204_347.994741;104.157920_348.002404;104.460733_348.004138;104.763559_348.002182;105.066383_347.999822;105.369215_347.998886;105.672049_347.999205;105.974883_347.999884;106.277717_348.000269;106.580552_348.000260;106.883386_348.000083;107.186221_347.999946;107.489055_347.999922;107.791890_347.999963;108.094725_348.000007;108.397559_348.000022;108.700394_348.000014;109.003229_348.000001;109.306063_347.999995;109.608898_347.999995;109.911732_347.999999;110.214567_348.000001;110.517402_348.000001;110.820236_348.000001;111.123071_348.000000;111.425906_348.000000;111.728740_348.000000;112.031575_348.000000;112.334410_348.000000;112.637244_348.000000;112.940079_348.000000;113.242913_348.000000;113.545748_348.000000;113.848583_348.000000;</t>
-  </si>
-  <si>
-    <t>156.752786_291.961942;156.255431_291.961438;155.755233_292.037185;155.257426_292.040058;154.821550_291.838508;154.477511_291.472929;154.123473_291.120932;153.675031_290.949562;153.175135_290.972489;152.674837_291.046720;152.181463_291.022288;151.760915_290.786970;151.425361_290.410787;151.057610_290.079159;150.595830_289.942995;150.094943_289.984727;149.594356_290.053888;149.107809_289.998611;148.703122_289.731306;148.372278_289.349590;147.989363_289.042709;147.515809_288.941489;147.014816_288.997594;146.513903_289.057953;146.036457_288.969433;145.647722_288.672659;145.317620_288.290094;144.918849_288.011556;144.435415_287.944206;143.934700_288.010558;143.433700_288.058106;142.967364_287.934942;142.594123_287.612004;142.260765_287.233209;141.846050_286.985794;141.354931_286.950291;140.854553_287.023130;140.354164_287.053603;139.900784_286.895047;139.542182_286.549725;139.201634_286.179755;138.770953_285.966736;138.274186_285.960142;137.773371_286.031816;137.273660_286.039051;136.824376_285.858577;136.463662_285.511545;136.124476_285.137684;135.708004_284.891559;135.234981_284.911926;</t>
-  </si>
-  <si>
     <t>134.000000_284.898026;134.000000_284.694079;134.000000_284.490132;134.000000_284.286184;134.000000_284.082237;134.000000_283.878289;134.000000_283.674342;134.000000_283.470395;134.000000_283.266447;134.000000_283.062500;134.000000_282.858553;134.000000_282.654605;134.000000_282.450658;134.000000_282.246711;134.000000_282.042763;134.000000_281.838816;134.000000_281.634868;134.000000_281.430921;134.000000_281.226974;134.000000_281.023026;134.000000_280.819079;134.000000_280.615132;134.000000_280.411184;134.000000_280.207237;134.000000_280.003289;134.000000_279.799342;134.000000_279.595395;134.000000_279.391447;134.000000_279.187500;134.000000_278.983553;134.000000_278.779605;134.000000_278.575658;134.000000_278.371711;134.000000_278.167763;134.000000_277.963816;134.000000_277.759868;134.000000_277.555921;134.000000_277.351974;134.000000_277.148026;134.000000_276.944079;134.000000_276.740132;134.000000_276.536184;134.000000_276.332237;134.000000_276.128289;134.000000_275.924342;134.000000_275.720395;134.000000_275.516447;134.000000_275.312500;134.000000_275.108553;134.000000_274.904605;</t>
   </si>
   <si>
@@ -564,12 +444,6 @@
     <t>134.000000_264.911184;134.000000_264.707237;134.000000_264.503289;134.000000_264.299342;134.000000_264.095395;134.000000_263.891447;134.000000_263.687500;134.000000_263.483553;134.000000_263.279605;134.000000_263.075658;134.000000_262.871711;134.000000_262.667763;134.000000_262.463816;134.000000_262.259868;134.000000_262.055921;134.000000_261.851974;134.000000_261.648026;134.000000_261.444079;134.000000_261.240132;134.000000_261.036184;134.000000_260.832237;134.000000_260.628289;134.000000_260.424342;134.000000_260.220395;134.000000_260.016447;134.000000_259.812500;134.000000_259.608553;134.000000_259.404605;134.000000_259.200658;134.000000_258.996711;134.000000_258.792763;134.000000_258.588816;134.000000_258.384868;134.000000_258.180921;134.000000_257.976974;134.000000_257.773026;134.000000_257.569079;134.000000_257.365132;134.000000_257.161184;134.000000_256.957237;134.000000_256.753289;134.000000_256.549342;134.000000_256.345395;134.000000_256.141447;134.000000_255.937500;134.000000_255.733553;134.000000_255.529605;134.000000_255.325658;134.000000_255.121711;134.000000_254.917763;</t>
   </si>
   <si>
-    <t>135.235613_254.098512;135.709845_254.120834;136.118854_253.852119;136.448371_253.456996;136.823844_253.123109;137.296845_253.002927;137.807212_252.995066;138.248678_252.803154;138.591335_252.424246;138.956742_252.078034;139.423514_251.939464;139.933190_251.988326;140.442855_252.056521;140.932917_251.981486;141.334926_251.690706;141.672093_251.301950;142.076058_251.014781;142.567245_250.943905;143.076820_251.013444;143.586378_251.060551;144.050818_250.916679;144.413084_250.566307;144.756936_250.189502;145.201182_250.006875;145.711886_250.001443;146.172809_249.859565;146.531043_249.503684;146.878369_249.131583;147.326549_248.946889;147.834783_248.972346;148.343984_249.049122;148.843847_249.013954;149.265443_248.761156;149.605363_248.375627;149.990032_248.054415;150.468515_247.941166;150.978418_247.996976;151.488085_248.061244;151.968423_247.962589;152.350041_247.643484;152.683305_247.253096;153.107715_247.024695;153.613051_247.003078;154.090898_246.904670;154.468642_246.581531;154.803829_246.193471;155.231986_245.963345;155.735787_245.957308;156.244290_246.039948;156.749225_246.040963;</t>
-  </si>
-  <si>
-    <t>156.749225_208.959037;156.244290_208.960052;155.735787_209.042692;155.231986_209.036655;154.803829_208.806529;154.468642_208.418469;154.090898_208.095330;153.613051_207.996922;153.107715_207.975305;152.683305_207.746904;152.350041_207.356516;151.968423_207.037411;151.488085_206.938756;150.978418_207.003024;150.468515_207.058834;149.990032_206.945585;149.605363_206.624373;149.265443_206.238844;148.843847_205.986046;148.343984_205.950878;147.834783_206.027654;147.326549_206.053111;146.878369_205.868417;146.531043_205.496316;146.172809_205.140435;145.711886_204.998557;145.201182_204.993125;144.756936_204.810498;144.413084_204.433693;144.050818_204.083321;143.586378_203.939449;143.076820_203.986556;142.567245_204.056095;142.076058_203.985219;141.672093_203.698050;141.334926_203.309294;140.932917_203.018514;140.442855_202.943479;139.933190_203.011674;139.423514_203.060536;138.956742_202.921966;138.591335_202.575754;138.248678_202.196846;137.807212_202.004934;137.296845_201.997073;136.823844_201.876891;136.448371_201.543004;136.118854_201.147881;135.709845_200.879166;135.235613_200.901488;</t>
-  </si>
-  <si>
     <t>134.000000_200.904605;134.000000_200.713816;134.000000_200.523026;134.000000_200.332237;134.000000_200.141447;134.000000_199.950658;134.000000_199.759868;134.000000_199.569079;134.000000_199.378289;134.000000_199.187500;134.000000_198.996711;134.000000_198.805921;134.000000_198.615132;134.000000_198.424342;134.000000_198.233553;134.000000_198.042763;134.000000_197.851974;134.000000_197.661184;134.000000_197.470395;134.000000_197.279605;134.000000_197.088816;134.000000_196.898026;134.000000_196.707237;134.000000_196.516447;134.000000_196.325658;134.000000_196.134868;134.000000_195.944079;134.000000_195.753289;134.000000_195.562500;134.000000_195.371711;134.000000_195.180921;134.000000_194.990132;134.000000_194.799342;134.000000_194.608553;134.000000_194.417763;134.000000_194.226974;134.000000_194.036184;134.000000_193.845395;134.000000_193.654605;134.000000_193.463816;134.000000_193.273026;134.000000_193.082237;134.000000_192.891447;134.000000_192.700658;134.000000_192.509868;134.000000_192.319079;134.000000_192.128289;134.000000_191.937500;134.000000_191.746711;134.000000_191.555921;</t>
   </si>
   <si>
@@ -577,12 +451,6 @@
   </si>
   <si>
     <t>134.000000_182.207237;134.000000_182.016447;134.000000_181.825658;134.000000_181.634868;134.000000_181.444079;134.000000_181.253289;134.000000_181.062500;134.000000_180.871711;134.000000_180.680921;134.000000_180.490132;134.000000_180.299342;134.000000_180.108553;134.000000_179.917763;134.000000_179.726974;134.000000_179.536184;134.000000_179.345395;134.000000_179.154605;134.000000_178.963816;134.000000_178.773026;134.000000_178.582237;134.000000_178.391447;134.000000_178.200658;134.000000_178.009868;134.000000_177.819079;134.000000_177.628289;134.000000_177.437500;134.000000_177.246711;134.000000_177.055921;134.000000_176.865132;134.000000_176.674342;134.000000_176.483553;134.000000_176.292763;134.000000_176.101974;134.000000_175.911184;134.000000_175.720395;134.000000_175.529605;134.000000_175.338816;134.000000_175.148026;134.000000_174.957237;134.000000_174.766447;134.000000_174.575658;134.000000_174.384868;134.000000_174.194079;134.000000_174.003289;134.000000_173.812500;134.000000_173.621711;134.000000_173.430921;134.000000_173.240132;134.000000_173.049342;134.000000_172.858553;</t>
-  </si>
-  <si>
-    <t>135.236776_171.960408;135.713758_171.955928;136.193463_172.031331;136.673363_172.054162;137.105177_171.891984;137.445118_171.555059;137.768118_171.195952;138.178063_170.984731;138.655123_170.965559;139.139346_170.997298;139.624835_170.998695;140.109395_171.016722;140.593164_171.044576;141.042164_170.931043;141.399657_170.622419;141.713352_170.253068;142.104826_170.005719;142.574930_169.959212;143.059068_169.993805;143.544271_169.999543;144.029132_170.011252;144.513224_170.044456;144.973430_169.964143;145.346968_169.683013;145.658358_169.311092;146.033510_169.032870;146.494718_168.955740;146.978821_168.989248;147.463713_169.000377;147.948886_169.006605;148.433025_169.041241;148.902347_168.991836;149.292200_168.741306;149.605473_168.371483;149.964535_168.065439;150.414741_167.955313;150.898570_167.983856;151.383161_168.001076;151.868612_168.002945;152.352770_168.035699;152.828988_168.013820;153.235564_167.796930;153.555592_167.434765;153.898832_167.103571;154.335215_166.955390;154.817547_166.975849;155.301334_167.013139;155.786726_167.009394;156.272131_166.988470;156.757428_166.989316;</t>
-  </si>
-  <si>
-    <t>317.069017_146.529257;317.220696_145.589970;317.397424_144.655032;317.594684_143.724176;317.807926_142.796823;318.032611_141.872157;318.264226_140.949190;318.498284_140.026835;318.730313_139.103971;318.955880_138.179518;319.173472_137.253151;319.389278_136.326360;319.614761_135.401920;319.861790_134.483102;320.139321_133.573100;320.441653_132.670876;320.748280_131.770061;321.036390_130.863311;321.293871_129.947416;321.525621_129.024556;321.743764_128.098320;321.960609_127.171774;322.185104_126.247065;322.417461_125.324285;322.651991_124.402051;322.882510_123.478816;323.104295_122.553452;323.320263_121.626697;323.541154_120.701126;323.779309_119.779928;324.046112_118.866729;324.341771_117.962358;324.649588_117.061938;324.946174_116.157862;325.214392_115.245076;325.453733_114.324191;325.675082_113.398733;325.890383_112.471822;326.110266_111.546001;326.338457_110.622188;326.571713_109.699632;326.805368_108.777176;327.035029_107.853723;327.259799_106.929064;327.484149_106.004302;327.714716_105.081086;327.958157_104.161215;328.221068_103.246768;328.509893_102.340242;328.830789_101.444650;</t>
   </si>
   <si>
     <t>150.082711_13.997177;150.248134_13.993359;150.413557_13.989555;150.578980_13.985776;150.744404_13.982030;150.909830_13.978327;151.075256_13.974695;151.240687_13.971264;151.406127_13.968268;151.571577_13.965968;151.737037_13.964624;151.902501_13.964496;152.067960_13.965867;152.233388_13.969165;152.398745_13.974977;152.563957_13.983925;152.728920_13.996618;152.893486_14.013643;153.057470_14.035547;153.220657_14.062732;153.382826_14.095437;153.543742_14.133821;153.703166_14.177992;153.860854_14.228005;154.016583_14.283819;154.170386_14.344778;154.322726_14.409343;154.474294_14.475721;154.625808_14.542221;154.777992_14.607160;154.931542_14.668758;155.087016_14.725274;155.244532_14.775819;155.403831_14.820439;155.564605_14.859430;155.726568_14.893169;155.889463_14.922102;156.053066_14.946760;156.217162_14.967945;156.381550_14.986774;156.546067_15.004476;156.710571_15.022295;156.874918_15.041472;157.038940_15.063213;157.202447_15.088499;157.365241_15.118001;157.527097_15.152252;157.687754_15.191725;157.846919_15.236820;158.004286_15.287825;158.159756_15.344381;158.313658_15.405118;158.466584_15.468300;158.619171_15.532303;158.772069_15.595551;158.925919_15.656423;159.081244_15.713393;159.238150_15.765855;159.396376_15.814213;159.555615_15.859145;159.715590_15.901397;159.876054_15.941768;160.036778_15.981096;160.197527_16.020327;160.358035_16.060522;160.518011_16.102764;160.677135_16.148087;160.835043_16.197450;160.991335_16.251689;161.145744_16.311081;161.298360_16.374967;161.449513_16.442261;161.599575_16.511968;161.748935_16.583176;161.897989_16.655023;162.047098_16.726756;162.196297_16.798302;162.345215_16.870426;162.493358_16.944123;162.640225_17.020319;162.785312_17.099836;162.928124_17.183356;163.068238_17.271319;163.205528_17.363636;163.340159_17.459800;163.472350_17.559297;163.602317_17.661687;163.730267_17.766592;163.856396_17.873682;163.980889_17.982673;164.103920_18.093312;164.225655_18.205378;164.346247_18.318674;164.465844_18.433021;164.584584_18.548257;164.702602_18.664234;164.820026_18.780813;164.936980_18.897864;165.053579_19.015269;165.169908_19.132941;</t>
@@ -1291,7 +1159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1323,7 +1191,6 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -1643,7 +1510,7 @@
   <dimension ref="A1:P154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:P154"/>
     </sheetView>
   </sheetViews>
@@ -1809,8 +1676,8 @@
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="12" t="s">
-        <v>185</v>
+      <c r="P3" s="11" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -1854,13 +1721,13 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" s="9">
         <v>0</v>
       </c>
-      <c r="P4" s="12" t="s">
-        <v>186</v>
+      <c r="P4" s="11" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -1909,8 +1776,8 @@
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>187</v>
+      <c r="P5" s="11" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -1959,8 +1826,8 @@
       <c r="O6" s="9">
         <v>0</v>
       </c>
-      <c r="P6" s="12" t="s">
-        <v>188</v>
+      <c r="P6" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2009,8 +1876,8 @@
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="12" t="s">
-        <v>189</v>
+      <c r="P7" s="11" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2059,8 +1926,8 @@
       <c r="O8" s="9">
         <v>0</v>
       </c>
-      <c r="P8" s="12" t="s">
-        <v>190</v>
+      <c r="P8" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2109,8 +1976,8 @@
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="12" t="s">
-        <v>191</v>
+      <c r="P9" s="11" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2159,8 +2026,8 @@
       <c r="O10" s="9">
         <v>0</v>
       </c>
-      <c r="P10" s="12" t="s">
-        <v>192</v>
+      <c r="P10" s="11" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2204,13 +2071,13 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O11" s="9">
         <v>0</v>
       </c>
-      <c r="P11" s="12" t="s">
-        <v>193</v>
+      <c r="P11" s="11" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2259,8 +2126,8 @@
       <c r="O12" s="9">
         <v>0</v>
       </c>
-      <c r="P12" s="12" t="s">
-        <v>194</v>
+      <c r="P12" s="11" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2309,8 +2176,8 @@
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="12" t="s">
-        <v>195</v>
+      <c r="P13" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2359,8 +2226,8 @@
       <c r="O14" s="9">
         <v>0</v>
       </c>
-      <c r="P14" s="12" t="s">
-        <v>196</v>
+      <c r="P14" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2409,8 +2276,8 @@
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="12" t="s">
-        <v>197</v>
+      <c r="P15" s="11" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2459,8 +2326,8 @@
       <c r="O16" s="9">
         <v>0</v>
       </c>
-      <c r="P16" s="12" t="s">
-        <v>198</v>
+      <c r="P16" s="11" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2509,8 +2376,8 @@
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="12" t="s">
-        <v>199</v>
+      <c r="P17" s="11" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2554,13 +2421,13 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" s="9">
         <v>0</v>
       </c>
-      <c r="P18" s="12" t="s">
-        <v>200</v>
+      <c r="P18" s="11" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2609,8 +2476,8 @@
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="12" t="s">
-        <v>201</v>
+      <c r="P19" s="11" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2659,8 +2526,8 @@
       <c r="O20" s="9">
         <v>0</v>
       </c>
-      <c r="P20" s="12" t="s">
-        <v>202</v>
+      <c r="P20" s="11" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2709,8 +2576,8 @@
       <c r="O21" s="9">
         <v>0</v>
       </c>
-      <c r="P21" s="12" t="s">
-        <v>203</v>
+      <c r="P21" s="11" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2759,8 +2626,8 @@
       <c r="O22" s="9">
         <v>0</v>
       </c>
-      <c r="P22" s="12" t="s">
-        <v>204</v>
+      <c r="P22" s="11" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2809,8 +2676,8 @@
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="12" t="s">
-        <v>205</v>
+      <c r="P23" s="11" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2854,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O24" s="9">
         <v>0</v>
       </c>
-      <c r="P24" s="12" t="s">
-        <v>206</v>
+      <c r="P24" s="11" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2909,8 +2776,8 @@
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="12" t="s">
-        <v>207</v>
+      <c r="P25" s="11" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -2959,8 +2826,8 @@
       <c r="O26" s="9">
         <v>0</v>
       </c>
-      <c r="P26" s="12" t="s">
-        <v>208</v>
+      <c r="P26" s="11" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3009,8 +2876,8 @@
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="12" t="s">
-        <v>209</v>
+      <c r="P27" s="11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3059,8 +2926,8 @@
       <c r="O28" s="9">
         <v>0</v>
       </c>
-      <c r="P28" s="12" t="s">
-        <v>210</v>
+      <c r="P28" s="11" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3109,8 +2976,8 @@
       <c r="O29" s="9">
         <v>0</v>
       </c>
-      <c r="P29" s="12" t="s">
-        <v>211</v>
+      <c r="P29" s="11" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3159,8 +3026,8 @@
       <c r="O30" s="9">
         <v>0</v>
       </c>
-      <c r="P30" s="12" t="s">
-        <v>212</v>
+      <c r="P30" s="11" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3209,8 +3076,8 @@
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="12" t="s">
-        <v>213</v>
+      <c r="P31" s="11" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3259,8 +3126,8 @@
       <c r="O32" s="9">
         <v>0</v>
       </c>
-      <c r="P32" s="12" t="s">
-        <v>214</v>
+      <c r="P32" s="11" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3304,13 +3171,13 @@
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O33" s="9">
         <v>0</v>
       </c>
-      <c r="P33" s="12" t="s">
-        <v>215</v>
+      <c r="P33" s="11" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3359,8 +3226,8 @@
       <c r="O34" s="9">
         <v>0</v>
       </c>
-      <c r="P34" s="12" t="s">
-        <v>216</v>
+      <c r="P34" s="11" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3409,8 +3276,8 @@
       <c r="O35" s="9">
         <v>0</v>
       </c>
-      <c r="P35" s="12" t="s">
-        <v>217</v>
+      <c r="P35" s="11" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3459,8 +3326,8 @@
       <c r="O36" s="9">
         <v>0</v>
       </c>
-      <c r="P36" s="12" t="s">
-        <v>218</v>
+      <c r="P36" s="11" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3509,8 +3376,8 @@
       <c r="O37" s="9">
         <v>0</v>
       </c>
-      <c r="P37" s="12" t="s">
-        <v>219</v>
+      <c r="P37" s="11" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3559,8 +3426,8 @@
       <c r="O38" s="9">
         <v>1</v>
       </c>
-      <c r="P38" s="12" t="s">
-        <v>220</v>
+      <c r="P38" s="11" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3609,8 +3476,8 @@
       <c r="O39" s="9">
         <v>1</v>
       </c>
-      <c r="P39" s="12" t="s">
-        <v>221</v>
+      <c r="P39" s="11" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3659,8 +3526,8 @@
       <c r="O40" s="9">
         <v>1</v>
       </c>
-      <c r="P40" s="12" t="s">
-        <v>222</v>
+      <c r="P40" s="11" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3704,13 +3571,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O41" s="9">
         <v>1</v>
       </c>
-      <c r="P41" s="12" t="s">
-        <v>223</v>
+      <c r="P41" s="11" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3759,8 +3626,8 @@
       <c r="O42" s="9">
         <v>1</v>
       </c>
-      <c r="P42" s="12" t="s">
-        <v>224</v>
+      <c r="P42" s="11" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3809,8 +3676,8 @@
       <c r="O43" s="9">
         <v>1</v>
       </c>
-      <c r="P43" s="12" t="s">
-        <v>225</v>
+      <c r="P43" s="11" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3859,8 +3726,8 @@
       <c r="O44" s="9">
         <v>1</v>
       </c>
-      <c r="P44" s="12" t="s">
-        <v>226</v>
+      <c r="P44" s="11" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3909,8 +3776,8 @@
       <c r="O45" s="9">
         <v>1</v>
       </c>
-      <c r="P45" s="12" t="s">
-        <v>227</v>
+      <c r="P45" s="11" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -3959,8 +3826,8 @@
       <c r="O46" s="9">
         <v>1</v>
       </c>
-      <c r="P46" s="12" t="s">
-        <v>228</v>
+      <c r="P46" s="11" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4009,8 +3876,8 @@
       <c r="O47" s="9">
         <v>1</v>
       </c>
-      <c r="P47" s="12" t="s">
-        <v>229</v>
+      <c r="P47" s="11" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4059,8 +3926,8 @@
       <c r="O48" s="9">
         <v>1</v>
       </c>
-      <c r="P48" s="12" t="s">
-        <v>230</v>
+      <c r="P48" s="11" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4109,8 +3976,8 @@
       <c r="O49" s="9">
         <v>1</v>
       </c>
-      <c r="P49" s="12" t="s">
-        <v>231</v>
+      <c r="P49" s="11" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4154,13 +4021,13 @@
         <v>0</v>
       </c>
       <c r="N50" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O50" s="9">
         <v>1</v>
       </c>
-      <c r="P50" s="12" t="s">
-        <v>232</v>
+      <c r="P50" s="11" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4209,8 +4076,8 @@
       <c r="O51" s="9">
         <v>1</v>
       </c>
-      <c r="P51" s="12" t="s">
-        <v>233</v>
+      <c r="P51" s="11" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4259,8 +4126,8 @@
       <c r="O52" s="9">
         <v>1</v>
       </c>
-      <c r="P52" s="12" t="s">
-        <v>234</v>
+      <c r="P52" s="11" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4309,8 +4176,8 @@
       <c r="O53" s="9">
         <v>1</v>
       </c>
-      <c r="P53" s="12" t="s">
-        <v>235</v>
+      <c r="P53" s="11" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4359,8 +4226,8 @@
       <c r="O54" s="9">
         <v>1</v>
       </c>
-      <c r="P54" s="12" t="s">
-        <v>236</v>
+      <c r="P54" s="11" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4409,8 +4276,8 @@
       <c r="O55" s="9">
         <v>1</v>
       </c>
-      <c r="P55" s="12" t="s">
-        <v>237</v>
+      <c r="P55" s="11" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4459,8 +4326,8 @@
       <c r="O56" s="9">
         <v>1</v>
       </c>
-      <c r="P56" s="12" t="s">
-        <v>238</v>
+      <c r="P56" s="11" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4509,8 +4376,8 @@
       <c r="O57" s="9">
         <v>1</v>
       </c>
-      <c r="P57" s="12" t="s">
-        <v>239</v>
+      <c r="P57" s="11" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4559,8 +4426,8 @@
       <c r="O58" s="9">
         <v>1</v>
       </c>
-      <c r="P58" s="12" t="s">
-        <v>240</v>
+      <c r="P58" s="11" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4604,13 +4471,13 @@
         <v>49</v>
       </c>
       <c r="N59" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O59" s="9">
         <v>1</v>
       </c>
-      <c r="P59" s="12" t="s">
-        <v>241</v>
+      <c r="P59" s="11" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4659,8 +4526,8 @@
       <c r="O60" s="9">
         <v>0</v>
       </c>
-      <c r="P60" s="12" t="s">
-        <v>242</v>
+      <c r="P60" s="11" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4709,8 +4576,8 @@
       <c r="O61" s="9">
         <v>0</v>
       </c>
-      <c r="P61" s="12" t="s">
-        <v>243</v>
+      <c r="P61" s="11" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4759,8 +4626,8 @@
       <c r="O62" s="9">
         <v>0</v>
       </c>
-      <c r="P62" s="12" t="s">
-        <v>244</v>
+      <c r="P62" s="11" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4809,8 +4676,8 @@
       <c r="O63" s="9">
         <v>0</v>
       </c>
-      <c r="P63" s="12" t="s">
-        <v>245</v>
+      <c r="P63" s="11" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4859,8 +4726,8 @@
       <c r="O64" s="9">
         <v>0</v>
       </c>
-      <c r="P64" s="12" t="s">
-        <v>246</v>
+      <c r="P64" s="11" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4909,8 +4776,8 @@
       <c r="O65" s="9">
         <v>0</v>
       </c>
-      <c r="P65" s="12" t="s">
-        <v>247</v>
+      <c r="P65" s="11" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -4959,8 +4826,8 @@
       <c r="O66" s="9">
         <v>0</v>
       </c>
-      <c r="P66" s="12" t="s">
-        <v>248</v>
+      <c r="P66" s="11" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5004,13 +4871,13 @@
         <v>0</v>
       </c>
       <c r="N67" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O67" s="9">
         <v>0</v>
       </c>
-      <c r="P67" s="12" t="s">
-        <v>249</v>
+      <c r="P67" s="11" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5059,8 +4926,8 @@
       <c r="O68" s="9">
         <v>0</v>
       </c>
-      <c r="P68" s="12" t="s">
-        <v>250</v>
+      <c r="P68" s="11" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5109,8 +4976,8 @@
       <c r="O69" s="9">
         <v>0</v>
       </c>
-      <c r="P69" s="12" t="s">
-        <v>251</v>
+      <c r="P69" s="11" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5159,8 +5026,8 @@
       <c r="O70" s="9">
         <v>0</v>
       </c>
-      <c r="P70" s="12" t="s">
-        <v>252</v>
+      <c r="P70" s="11" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5209,8 +5076,8 @@
       <c r="O71" s="9">
         <v>0</v>
       </c>
-      <c r="P71" s="12" t="s">
-        <v>253</v>
+      <c r="P71" s="11" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5259,8 +5126,8 @@
       <c r="O72" s="9">
         <v>0</v>
       </c>
-      <c r="P72" s="12" t="s">
-        <v>254</v>
+      <c r="P72" s="11" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5309,8 +5176,8 @@
       <c r="O73" s="9">
         <v>0</v>
       </c>
-      <c r="P73" s="12" t="s">
-        <v>255</v>
+      <c r="P73" s="11" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5359,8 +5226,8 @@
       <c r="O74" s="9">
         <v>0</v>
       </c>
-      <c r="P74" s="12" t="s">
-        <v>256</v>
+      <c r="P74" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5404,13 +5271,13 @@
         <v>0</v>
       </c>
       <c r="N75" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O75" s="9">
         <v>0</v>
       </c>
-      <c r="P75" s="12" t="s">
-        <v>257</v>
+      <c r="P75" s="11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5459,8 +5326,8 @@
       <c r="O76" s="9">
         <v>0</v>
       </c>
-      <c r="P76" s="12" t="s">
-        <v>258</v>
+      <c r="P76" s="11" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5509,8 +5376,8 @@
       <c r="O77" s="9">
         <v>0</v>
       </c>
-      <c r="P77" s="12" t="s">
-        <v>259</v>
+      <c r="P77" s="11" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5559,8 +5426,8 @@
       <c r="O78" s="9">
         <v>0</v>
       </c>
-      <c r="P78" s="12" t="s">
-        <v>260</v>
+      <c r="P78" s="11" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5604,13 +5471,13 @@
         <v>51</v>
       </c>
       <c r="N79" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O79" s="9">
         <v>0</v>
       </c>
-      <c r="P79" s="12" t="s">
-        <v>261</v>
+      <c r="P79" s="11" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5659,8 +5526,8 @@
       <c r="O80" s="9">
         <v>0</v>
       </c>
-      <c r="P80" s="12" t="s">
-        <v>262</v>
+      <c r="P80" s="11" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5709,8 +5576,8 @@
       <c r="O81" s="9">
         <v>0</v>
       </c>
-      <c r="P81" s="12" t="s">
-        <v>263</v>
+      <c r="P81" s="11" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5759,8 +5626,8 @@
       <c r="O82" s="9">
         <v>0</v>
       </c>
-      <c r="P82" s="12" t="s">
-        <v>264</v>
+      <c r="P82" s="11" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5809,8 +5676,8 @@
       <c r="O83" s="9">
         <v>0</v>
       </c>
-      <c r="P83" s="12" t="s">
-        <v>265</v>
+      <c r="P83" s="11" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5859,8 +5726,8 @@
       <c r="O84" s="9">
         <v>0</v>
       </c>
-      <c r="P84" s="12" t="s">
-        <v>266</v>
+      <c r="P84" s="11" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5909,8 +5776,8 @@
       <c r="O85" s="9">
         <v>0</v>
       </c>
-      <c r="P85" s="12" t="s">
-        <v>267</v>
+      <c r="P85" s="11" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -5959,8 +5826,8 @@
       <c r="O86" s="9">
         <v>0</v>
       </c>
-      <c r="P86" s="12" t="s">
-        <v>268</v>
+      <c r="P86" s="11" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6009,8 +5876,8 @@
       <c r="O87" s="9">
         <v>0</v>
       </c>
-      <c r="P87" s="12" t="s">
-        <v>269</v>
+      <c r="P87" s="11" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6059,8 +5926,8 @@
       <c r="O88" s="9">
         <v>0</v>
       </c>
-      <c r="P88" s="12" t="s">
-        <v>270</v>
+      <c r="P88" s="11" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6109,8 +5976,8 @@
       <c r="O89" s="9">
         <v>0</v>
       </c>
-      <c r="P89" s="12" t="s">
-        <v>271</v>
+      <c r="P89" s="11" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6154,13 +6021,13 @@
         <v>0</v>
       </c>
       <c r="N90" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O90" s="9">
         <v>0</v>
       </c>
-      <c r="P90" s="12" t="s">
-        <v>272</v>
+      <c r="P90" s="11" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6209,8 +6076,8 @@
       <c r="O91" s="9">
         <v>0</v>
       </c>
-      <c r="P91" s="12" t="s">
-        <v>273</v>
+      <c r="P91" s="11" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6259,8 +6126,8 @@
       <c r="O92" s="9">
         <v>0</v>
       </c>
-      <c r="P92" s="12" t="s">
-        <v>274</v>
+      <c r="P92" s="11" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6309,8 +6176,8 @@
       <c r="O93" s="9">
         <v>0</v>
       </c>
-      <c r="P93" s="12" t="s">
-        <v>275</v>
+      <c r="P93" s="11" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6359,8 +6226,8 @@
       <c r="O94" s="9">
         <v>0</v>
       </c>
-      <c r="P94" s="12" t="s">
-        <v>276</v>
+      <c r="P94" s="11" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6409,8 +6276,8 @@
       <c r="O95" s="9">
         <v>0</v>
       </c>
-      <c r="P95" s="12" t="s">
-        <v>277</v>
+      <c r="P95" s="11" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6459,8 +6326,8 @@
       <c r="O96" s="9">
         <v>0</v>
       </c>
-      <c r="P96" s="12" t="s">
-        <v>278</v>
+      <c r="P96" s="11" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6509,8 +6376,8 @@
       <c r="O97" s="9">
         <v>0</v>
       </c>
-      <c r="P97" s="12" t="s">
-        <v>279</v>
+      <c r="P97" s="11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6554,13 +6421,13 @@
         <v>0</v>
       </c>
       <c r="N98" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O98" s="9">
         <v>0</v>
       </c>
-      <c r="P98" s="12" t="s">
-        <v>280</v>
+      <c r="P98" s="11" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6609,8 +6476,8 @@
       <c r="O99" s="9">
         <v>0</v>
       </c>
-      <c r="P99" s="12" t="s">
-        <v>281</v>
+      <c r="P99" s="11" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6659,8 +6526,8 @@
       <c r="O100" s="9">
         <v>0</v>
       </c>
-      <c r="P100" s="12" t="s">
-        <v>282</v>
+      <c r="P100" s="11" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6709,8 +6576,8 @@
       <c r="O101" s="9">
         <v>0</v>
       </c>
-      <c r="P101" s="12" t="s">
-        <v>283</v>
+      <c r="P101" s="11" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6759,8 +6626,8 @@
       <c r="O102" s="9">
         <v>0</v>
       </c>
-      <c r="P102" s="12" t="s">
-        <v>284</v>
+      <c r="P102" s="11" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6809,8 +6676,8 @@
       <c r="O103" s="9">
         <v>0</v>
       </c>
-      <c r="P103" s="12" t="s">
-        <v>285</v>
+      <c r="P103" s="11" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6859,8 +6726,8 @@
       <c r="O104" s="9">
         <v>0</v>
       </c>
-      <c r="P104" s="12" t="s">
-        <v>286</v>
+      <c r="P104" s="11" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6909,8 +6776,8 @@
       <c r="O105" s="9">
         <v>0</v>
       </c>
-      <c r="P105" s="12" t="s">
-        <v>287</v>
+      <c r="P105" s="11" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -6959,8 +6826,8 @@
       <c r="O106" s="9">
         <v>0</v>
       </c>
-      <c r="P106" s="12" t="s">
-        <v>288</v>
+      <c r="P106" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7009,8 +6876,8 @@
       <c r="O107" s="9">
         <v>0</v>
       </c>
-      <c r="P107" s="12" t="s">
-        <v>289</v>
+      <c r="P107" s="11" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7059,8 +6926,8 @@
       <c r="O108" s="9">
         <v>0</v>
       </c>
-      <c r="P108" s="12" t="s">
-        <v>290</v>
+      <c r="P108" s="11" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7109,8 +6976,8 @@
       <c r="O109" s="9">
         <v>0</v>
       </c>
-      <c r="P109" s="12" t="s">
-        <v>291</v>
+      <c r="P109" s="11" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7159,8 +7026,8 @@
       <c r="O110" s="9">
         <v>0</v>
       </c>
-      <c r="P110" s="12" t="s">
-        <v>292</v>
+      <c r="P110" s="11" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7209,8 +7076,8 @@
       <c r="O111" s="9">
         <v>0</v>
       </c>
-      <c r="P111" s="12" t="s">
-        <v>293</v>
+      <c r="P111" s="11" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7259,8 +7126,8 @@
       <c r="O112" s="9">
         <v>0</v>
       </c>
-      <c r="P112" s="12" t="s">
-        <v>294</v>
+      <c r="P112" s="11" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7309,8 +7176,8 @@
       <c r="O113" s="9">
         <v>0</v>
       </c>
-      <c r="P113" s="12" t="s">
-        <v>295</v>
+      <c r="P113" s="11" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7359,8 +7226,8 @@
       <c r="O114" s="9">
         <v>0</v>
       </c>
-      <c r="P114" s="12" t="s">
-        <v>296</v>
+      <c r="P114" s="11" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7409,8 +7276,8 @@
       <c r="O115" s="9">
         <v>0</v>
       </c>
-      <c r="P115" s="12" t="s">
-        <v>297</v>
+      <c r="P115" s="11" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7454,13 +7321,13 @@
         <v>0</v>
       </c>
       <c r="N116" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O116" s="9">
         <v>0</v>
       </c>
-      <c r="P116" s="12" t="s">
-        <v>298</v>
+      <c r="P116" s="11" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7509,8 +7376,8 @@
       <c r="O117" s="9">
         <v>0</v>
       </c>
-      <c r="P117" s="12" t="s">
-        <v>299</v>
+      <c r="P117" s="11" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7559,8 +7426,8 @@
       <c r="O118" s="9">
         <v>0</v>
       </c>
-      <c r="P118" s="12" t="s">
-        <v>300</v>
+      <c r="P118" s="11" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7609,8 +7476,8 @@
       <c r="O119" s="9">
         <v>0</v>
       </c>
-      <c r="P119" s="12" t="s">
-        <v>301</v>
+      <c r="P119" s="11" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7659,8 +7526,8 @@
       <c r="O120" s="9">
         <v>0</v>
       </c>
-      <c r="P120" s="12" t="s">
-        <v>302</v>
+      <c r="P120" s="11" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7709,8 +7576,8 @@
       <c r="O121" s="9">
         <v>0</v>
       </c>
-      <c r="P121" s="12" t="s">
-        <v>303</v>
+      <c r="P121" s="11" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7759,8 +7626,8 @@
       <c r="O122" s="9">
         <v>0</v>
       </c>
-      <c r="P122" s="12" t="s">
-        <v>304</v>
+      <c r="P122" s="11" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7809,8 +7676,8 @@
       <c r="O123" s="9">
         <v>0</v>
       </c>
-      <c r="P123" s="12" t="s">
-        <v>305</v>
+      <c r="P123" s="11" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7859,8 +7726,8 @@
       <c r="O124" s="9">
         <v>1</v>
       </c>
-      <c r="P124" s="12" t="s">
-        <v>306</v>
+      <c r="P124" s="11" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7904,13 +7771,13 @@
         <v>0</v>
       </c>
       <c r="N125" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O125" s="9">
         <v>1</v>
       </c>
-      <c r="P125" s="12" t="s">
-        <v>307</v>
+      <c r="P125" s="11" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -7959,8 +7826,8 @@
       <c r="O126" s="9">
         <v>1</v>
       </c>
-      <c r="P126" s="12" t="s">
-        <v>308</v>
+      <c r="P126" s="11" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8009,8 +7876,8 @@
       <c r="O127" s="9">
         <v>1</v>
       </c>
-      <c r="P127" s="12" t="s">
-        <v>309</v>
+      <c r="P127" s="11" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8059,8 +7926,8 @@
       <c r="O128" s="9">
         <v>1</v>
       </c>
-      <c r="P128" s="12" t="s">
-        <v>310</v>
+      <c r="P128" s="11" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8109,8 +7976,8 @@
       <c r="O129" s="9">
         <v>1</v>
       </c>
-      <c r="P129" s="12" t="s">
-        <v>311</v>
+      <c r="P129" s="11" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8159,8 +8026,8 @@
       <c r="O130" s="9">
         <v>1</v>
       </c>
-      <c r="P130" s="12" t="s">
-        <v>312</v>
+      <c r="P130" s="11" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8209,8 +8076,8 @@
       <c r="O131" s="9">
         <v>1</v>
       </c>
-      <c r="P131" s="12" t="s">
-        <v>313</v>
+      <c r="P131" s="11" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8259,8 +8126,8 @@
       <c r="O132" s="9">
         <v>1</v>
       </c>
-      <c r="P132" s="12" t="s">
-        <v>314</v>
+      <c r="P132" s="11" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8309,8 +8176,8 @@
       <c r="O133" s="9">
         <v>1</v>
       </c>
-      <c r="P133" s="12" t="s">
-        <v>315</v>
+      <c r="P133" s="11" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8354,13 +8221,13 @@
         <v>0</v>
       </c>
       <c r="N134" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O134" s="9">
         <v>1</v>
       </c>
-      <c r="P134" s="12" t="s">
-        <v>316</v>
+      <c r="P134" s="11" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8409,8 +8276,8 @@
       <c r="O135" s="9">
         <v>1</v>
       </c>
-      <c r="P135" s="12" t="s">
-        <v>317</v>
+      <c r="P135" s="11" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8459,8 +8326,8 @@
       <c r="O136" s="9">
         <v>1</v>
       </c>
-      <c r="P136" s="12" t="s">
-        <v>318</v>
+      <c r="P136" s="11" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8509,8 +8376,8 @@
       <c r="O137" s="9">
         <v>1</v>
       </c>
-      <c r="P137" s="12" t="s">
-        <v>319</v>
+      <c r="P137" s="11" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8559,8 +8426,8 @@
       <c r="O138" s="9">
         <v>1</v>
       </c>
-      <c r="P138" s="12" t="s">
-        <v>320</v>
+      <c r="P138" s="11" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8609,8 +8476,8 @@
       <c r="O139" s="9">
         <v>1</v>
       </c>
-      <c r="P139" s="12" t="s">
-        <v>321</v>
+      <c r="P139" s="11" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8659,8 +8526,8 @@
       <c r="O140" s="9">
         <v>1</v>
       </c>
-      <c r="P140" s="12" t="s">
-        <v>322</v>
+      <c r="P140" s="11" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8709,8 +8576,8 @@
       <c r="O141" s="9">
         <v>1</v>
       </c>
-      <c r="P141" s="12" t="s">
-        <v>323</v>
+      <c r="P141" s="11" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8759,8 +8626,8 @@
       <c r="O142" s="9">
         <v>1</v>
       </c>
-      <c r="P142" s="12" t="s">
-        <v>324</v>
+      <c r="P142" s="11" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8804,13 +8671,13 @@
         <v>0</v>
       </c>
       <c r="N143" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O143" s="9">
         <v>1</v>
       </c>
-      <c r="P143" s="12" t="s">
-        <v>325</v>
+      <c r="P143" s="11" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8859,8 +8726,8 @@
       <c r="O144" s="9">
         <v>1</v>
       </c>
-      <c r="P144" s="12" t="s">
-        <v>326</v>
+      <c r="P144" s="11" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8909,8 +8776,8 @@
       <c r="O145" s="9">
         <v>1</v>
       </c>
-      <c r="P145" s="12" t="s">
-        <v>327</v>
+      <c r="P145" s="11" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -8959,8 +8826,8 @@
       <c r="O146" s="9">
         <v>0</v>
       </c>
-      <c r="P146" s="12" t="s">
-        <v>328</v>
+      <c r="P146" s="11" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -9009,8 +8876,8 @@
       <c r="O147" s="9">
         <v>0</v>
       </c>
-      <c r="P147" s="12" t="s">
-        <v>329</v>
+      <c r="P147" s="11" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -9059,8 +8926,8 @@
       <c r="O148" s="9">
         <v>0</v>
       </c>
-      <c r="P148" s="12" t="s">
-        <v>330</v>
+      <c r="P148" s="11" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -9109,8 +8976,8 @@
       <c r="O149" s="9">
         <v>0</v>
       </c>
-      <c r="P149" s="12" t="s">
-        <v>331</v>
+      <c r="P149" s="11" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -9159,8 +9026,8 @@
       <c r="O150" s="9">
         <v>0</v>
       </c>
-      <c r="P150" s="12" t="s">
-        <v>332</v>
+      <c r="P150" s="11" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -9209,8 +9076,8 @@
       <c r="O151" s="9">
         <v>0</v>
       </c>
-      <c r="P151" s="12" t="s">
-        <v>333</v>
+      <c r="P151" s="11" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -9259,8 +9126,8 @@
       <c r="O152" s="9">
         <v>0</v>
       </c>
-      <c r="P152" s="12" t="s">
-        <v>334</v>
+      <c r="P152" s="11" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="153" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -9309,8 +9176,8 @@
       <c r="O153" s="9">
         <v>0</v>
       </c>
-      <c r="P153" s="12" t="s">
-        <v>335</v>
+      <c r="P153" s="11" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="154" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -9359,8 +9226,8 @@
       <c r="O154" s="9">
         <v>0</v>
       </c>
-      <c r="P154" s="12" t="s">
-        <v>336</v>
+      <c r="P154" s="11" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -9373,9 +9240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3:P79"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:P79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9536,8 +9403,8 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>337</v>
+      <c r="P3" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -9586,8 +9453,8 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>338</v>
+      <c r="P4" s="12" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -9636,8 +9503,8 @@
       <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="P5" s="13" t="s">
-        <v>339</v>
+      <c r="P5" s="12" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -9686,8 +9553,8 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>340</v>
+      <c r="P6" s="12" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -9736,8 +9603,8 @@
       <c r="O7" s="2">
         <v>0</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>341</v>
+      <c r="P7" s="12" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -9786,8 +9653,8 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>342</v>
+      <c r="P8" s="12" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -9834,10 +9701,10 @@
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>343</v>
+        <v>18</v>
+      </c>
+      <c r="P9" s="12" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -9886,8 +9753,8 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" s="13" t="s">
-        <v>344</v>
+      <c r="P10" s="12" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -9936,8 +9803,8 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="13" t="s">
-        <v>345</v>
+      <c r="P11" s="12" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -9986,8 +9853,8 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>346</v>
+      <c r="P12" s="12" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -10036,8 +9903,8 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>347</v>
+      <c r="P13" s="12" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -10086,8 +9953,8 @@
       <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" s="13" t="s">
-        <v>348</v>
+      <c r="P14" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -10136,8 +10003,8 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="P15" s="13" t="s">
-        <v>349</v>
+      <c r="P15" s="12" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -10186,8 +10053,8 @@
       <c r="O16" s="2">
         <v>0</v>
       </c>
-      <c r="P16" s="13" t="s">
-        <v>350</v>
+      <c r="P16" s="12" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -10236,8 +10103,8 @@
       <c r="O17" s="2">
         <v>0</v>
       </c>
-      <c r="P17" s="13" t="s">
-        <v>351</v>
+      <c r="P17" s="12" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -10284,10 +10151,10 @@
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>0</v>
-      </c>
-      <c r="P18" s="13" t="s">
-        <v>123</v>
+        <v>19</v>
+      </c>
+      <c r="P18" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -10336,8 +10203,8 @@
       <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="P19" s="13" t="s">
-        <v>124</v>
+      <c r="P19" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -10386,8 +10253,8 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="13" t="s">
-        <v>125</v>
+      <c r="P20" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -10436,8 +10303,8 @@
       <c r="O21" s="2">
         <v>0</v>
       </c>
-      <c r="P21" s="13" t="s">
-        <v>126</v>
+      <c r="P21" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -10486,8 +10353,8 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="13" t="s">
-        <v>127</v>
+      <c r="P22" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -10534,10 +10401,10 @@
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>0</v>
-      </c>
-      <c r="P23" s="13" t="s">
-        <v>352</v>
+        <v>20</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -10586,8 +10453,8 @@
       <c r="O24" s="2">
         <v>0</v>
       </c>
-      <c r="P24" s="13" t="s">
-        <v>353</v>
+      <c r="P24" s="12" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -10636,8 +10503,8 @@
       <c r="O25" s="2">
         <v>0</v>
       </c>
-      <c r="P25" s="13" t="s">
-        <v>354</v>
+      <c r="P25" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -10686,8 +10553,8 @@
       <c r="O26" s="2">
         <v>1</v>
       </c>
-      <c r="P26" s="13" t="s">
-        <v>131</v>
+      <c r="P26" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -10734,10 +10601,10 @@
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>1</v>
-      </c>
-      <c r="P27" s="13" t="s">
-        <v>132</v>
+        <v>21</v>
+      </c>
+      <c r="P27" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -10786,8 +10653,8 @@
       <c r="O28" s="2">
         <v>1</v>
       </c>
-      <c r="P28" s="13" t="s">
-        <v>133</v>
+      <c r="P28" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -10836,8 +10703,8 @@
       <c r="O29" s="2">
         <v>1</v>
       </c>
-      <c r="P29" s="13" t="s">
-        <v>134</v>
+      <c r="P29" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -10886,8 +10753,8 @@
       <c r="O30" s="2">
         <v>1</v>
       </c>
-      <c r="P30" s="13" t="s">
-        <v>135</v>
+      <c r="P30" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -10936,8 +10803,8 @@
       <c r="O31" s="2">
         <v>1</v>
       </c>
-      <c r="P31" s="13" t="s">
-        <v>136</v>
+      <c r="P31" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -10986,8 +10853,8 @@
       <c r="O32" s="2">
         <v>1</v>
       </c>
-      <c r="P32" s="13" t="s">
-        <v>137</v>
+      <c r="P32" s="12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -11036,8 +10903,8 @@
       <c r="O33" s="2">
         <v>1</v>
       </c>
-      <c r="P33" s="13" t="s">
-        <v>138</v>
+      <c r="P33" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -11086,8 +10953,8 @@
       <c r="O34" s="2">
         <v>1</v>
       </c>
-      <c r="P34" s="13" t="s">
-        <v>139</v>
+      <c r="P34" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -11136,8 +11003,8 @@
       <c r="O35" s="2">
         <v>1</v>
       </c>
-      <c r="P35" s="13" t="s">
-        <v>140</v>
+      <c r="P35" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -11186,8 +11053,8 @@
       <c r="O36" s="2">
         <v>1</v>
       </c>
-      <c r="P36" s="13" t="s">
-        <v>141</v>
+      <c r="P36" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -11234,10 +11101,10 @@
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>1</v>
-      </c>
-      <c r="P37" s="13" t="s">
-        <v>142</v>
+        <v>22</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -11286,8 +11153,8 @@
       <c r="O38" s="2">
         <v>1</v>
       </c>
-      <c r="P38" s="13" t="s">
-        <v>143</v>
+      <c r="P38" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -11336,8 +11203,8 @@
       <c r="O39" s="2">
         <v>1</v>
       </c>
-      <c r="P39" s="13" t="s">
-        <v>144</v>
+      <c r="P39" s="12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -11386,8 +11253,8 @@
       <c r="O40" s="2">
         <v>1</v>
       </c>
-      <c r="P40" s="13" t="s">
-        <v>145</v>
+      <c r="P40" s="12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -11436,8 +11303,8 @@
       <c r="O41" s="2">
         <v>1</v>
       </c>
-      <c r="P41" s="13" t="s">
-        <v>146</v>
+      <c r="P41" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -11486,8 +11353,8 @@
       <c r="O42" s="2">
         <v>1</v>
       </c>
-      <c r="P42" s="13" t="s">
-        <v>147</v>
+      <c r="P42" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -11536,8 +11403,8 @@
       <c r="O43" s="2">
         <v>1</v>
       </c>
-      <c r="P43" s="13" t="s">
-        <v>148</v>
+      <c r="P43" s="12" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -11586,8 +11453,8 @@
       <c r="O44" s="2">
         <v>1</v>
       </c>
-      <c r="P44" s="13" t="s">
-        <v>149</v>
+      <c r="P44" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -11636,8 +11503,8 @@
       <c r="O45" s="2">
         <v>1</v>
       </c>
-      <c r="P45" s="13" t="s">
-        <v>150</v>
+      <c r="P45" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -11686,8 +11553,8 @@
       <c r="O46" s="2">
         <v>1</v>
       </c>
-      <c r="P46" s="13" t="s">
-        <v>151</v>
+      <c r="P46" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -11734,10 +11601,10 @@
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>1</v>
-      </c>
-      <c r="P47" s="13" t="s">
-        <v>152</v>
+        <v>23</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -11786,8 +11653,8 @@
       <c r="O48" s="2">
         <v>1</v>
       </c>
-      <c r="P48" s="13" t="s">
-        <v>355</v>
+      <c r="P48" s="12" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -11836,8 +11703,8 @@
       <c r="O49" s="2">
         <v>0</v>
       </c>
-      <c r="P49" s="13" t="s">
-        <v>356</v>
+      <c r="P49" s="12" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -11884,10 +11751,10 @@
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <v>0</v>
-      </c>
-      <c r="P50" s="13" t="s">
-        <v>357</v>
+        <v>24</v>
+      </c>
+      <c r="P50" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -11936,8 +11803,8 @@
       <c r="O51" s="2">
         <v>0</v>
       </c>
-      <c r="P51" s="13" t="s">
-        <v>358</v>
+      <c r="P51" s="12" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -11986,8 +11853,8 @@
       <c r="O52" s="2">
         <v>0</v>
       </c>
-      <c r="P52" s="13" t="s">
-        <v>359</v>
+      <c r="P52" s="12" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -12036,8 +11903,8 @@
       <c r="O53" s="2">
         <v>0</v>
       </c>
-      <c r="P53" s="13" t="s">
-        <v>360</v>
+      <c r="P53" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -12086,8 +11953,8 @@
       <c r="O54" s="2">
         <v>0</v>
       </c>
-      <c r="P54" s="13" t="s">
-        <v>361</v>
+      <c r="P54" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -12136,8 +12003,8 @@
       <c r="O55" s="2">
         <v>0</v>
       </c>
-      <c r="P55" s="13" t="s">
-        <v>362</v>
+      <c r="P55" s="12" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -12186,8 +12053,8 @@
       <c r="O56" s="2">
         <v>0</v>
       </c>
-      <c r="P56" s="13" t="s">
-        <v>363</v>
+      <c r="P56" s="12" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -12236,8 +12103,8 @@
       <c r="O57" s="2">
         <v>0</v>
       </c>
-      <c r="P57" s="13" t="s">
-        <v>364</v>
+      <c r="P57" s="12" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -12286,8 +12153,8 @@
       <c r="O58" s="2">
         <v>0</v>
       </c>
-      <c r="P58" s="13" t="s">
-        <v>365</v>
+      <c r="P58" s="12" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -12336,8 +12203,8 @@
       <c r="O59" s="2">
         <v>0</v>
       </c>
-      <c r="P59" s="13" t="s">
-        <v>366</v>
+      <c r="P59" s="12" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -12386,8 +12253,8 @@
       <c r="O60" s="2">
         <v>0</v>
       </c>
-      <c r="P60" s="13" t="s">
-        <v>367</v>
+      <c r="P60" s="12" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -12436,8 +12303,8 @@
       <c r="O61" s="2">
         <v>0</v>
       </c>
-      <c r="P61" s="13" t="s">
-        <v>368</v>
+      <c r="P61" s="12" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -12484,10 +12351,10 @@
         <v>0</v>
       </c>
       <c r="O62" s="2">
-        <v>0</v>
-      </c>
-      <c r="P62" s="13" t="s">
-        <v>369</v>
+        <v>25</v>
+      </c>
+      <c r="P62" s="12" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -12536,8 +12403,8 @@
       <c r="O63" s="2">
         <v>0</v>
       </c>
-      <c r="P63" s="13" t="s">
-        <v>370</v>
+      <c r="P63" s="12" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -12586,8 +12453,8 @@
       <c r="O64" s="2">
         <v>0</v>
       </c>
-      <c r="P64" s="13" t="s">
-        <v>371</v>
+      <c r="P64" s="12" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -12636,8 +12503,8 @@
       <c r="O65" s="2">
         <v>0</v>
       </c>
-      <c r="P65" s="13" t="s">
-        <v>372</v>
+      <c r="P65" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -12686,8 +12553,8 @@
       <c r="O66" s="2">
         <v>0</v>
       </c>
-      <c r="P66" s="13" t="s">
-        <v>373</v>
+      <c r="P66" s="12" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -12736,8 +12603,8 @@
       <c r="O67" s="2">
         <v>0</v>
       </c>
-      <c r="P67" s="13" t="s">
-        <v>374</v>
+      <c r="P67" s="12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -12786,8 +12653,8 @@
       <c r="O68" s="2">
         <v>0</v>
       </c>
-      <c r="P68" s="13" t="s">
-        <v>375</v>
+      <c r="P68" s="12" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -12836,8 +12703,8 @@
       <c r="O69" s="2">
         <v>1</v>
       </c>
-      <c r="P69" s="13" t="s">
-        <v>376</v>
+      <c r="P69" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -12886,8 +12753,8 @@
       <c r="O70" s="2">
         <v>1</v>
       </c>
-      <c r="P70" s="13" t="s">
-        <v>175</v>
+      <c r="P70" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -12936,8 +12803,8 @@
       <c r="O71" s="2">
         <v>1</v>
       </c>
-      <c r="P71" s="13" t="s">
-        <v>176</v>
+      <c r="P71" s="12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -12986,8 +12853,8 @@
       <c r="O72" s="2">
         <v>1</v>
       </c>
-      <c r="P72" s="13" t="s">
-        <v>177</v>
+      <c r="P72" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -13036,8 +12903,8 @@
       <c r="O73" s="2">
         <v>1</v>
       </c>
-      <c r="P73" s="13" t="s">
-        <v>377</v>
+      <c r="P73" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -13086,8 +12953,8 @@
       <c r="O74" s="2">
         <v>1</v>
       </c>
-      <c r="P74" s="13" t="s">
-        <v>378</v>
+      <c r="P74" s="12" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -13136,8 +13003,8 @@
       <c r="O75" s="2">
         <v>1</v>
       </c>
-      <c r="P75" s="13" t="s">
-        <v>180</v>
+      <c r="P75" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -13186,8 +13053,8 @@
       <c r="O76" s="2">
         <v>1</v>
       </c>
-      <c r="P76" s="13" t="s">
-        <v>181</v>
+      <c r="P76" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -13236,8 +13103,8 @@
       <c r="O77" s="2">
         <v>1</v>
       </c>
-      <c r="P77" s="13" t="s">
-        <v>182</v>
+      <c r="P77" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
@@ -13286,8 +13153,8 @@
       <c r="O78" s="2">
         <v>1</v>
       </c>
-      <c r="P78" s="13" t="s">
-        <v>379</v>
+      <c r="P78" s="12" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
@@ -13336,8 +13203,8 @@
       <c r="O79" s="2">
         <v>0</v>
       </c>
-      <c r="P79" s="13" t="s">
-        <v>380</v>
+      <c r="P79" s="12" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
@@ -14549,8 +14416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14605,8 +14472,8 @@
       <c r="O1" s="9">
         <v>0</v>
       </c>
-      <c r="P1" s="13" t="s">
-        <v>185</v>
+      <c r="P1" s="12" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -14650,13 +14517,13 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" s="9">
         <v>0</v>
       </c>
-      <c r="P2" s="13" t="s">
-        <v>186</v>
+      <c r="P2" s="12" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -14705,8 +14572,8 @@
       <c r="O3" s="9">
         <v>0</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>187</v>
+      <c r="P3" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -14755,8 +14622,8 @@
       <c r="O4" s="9">
         <v>0</v>
       </c>
-      <c r="P4" s="13" t="s">
-        <v>188</v>
+      <c r="P4" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -14805,8 +14672,8 @@
       <c r="O5" s="9">
         <v>0</v>
       </c>
-      <c r="P5" s="13" t="s">
-        <v>189</v>
+      <c r="P5" s="12" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -14855,8 +14722,8 @@
       <c r="O6" s="9">
         <v>0</v>
       </c>
-      <c r="P6" s="13" t="s">
-        <v>190</v>
+      <c r="P6" s="12" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -14905,8 +14772,8 @@
       <c r="O7" s="9">
         <v>0</v>
       </c>
-      <c r="P7" s="13" t="s">
-        <v>191</v>
+      <c r="P7" s="12" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -14955,8 +14822,8 @@
       <c r="O8" s="9">
         <v>0</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>192</v>
+      <c r="P8" s="12" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15000,13 +14867,13 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9" s="9">
         <v>0</v>
       </c>
-      <c r="P9" s="13" t="s">
-        <v>193</v>
+      <c r="P9" s="12" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15055,8 +14922,8 @@
       <c r="O10" s="9">
         <v>0</v>
       </c>
-      <c r="P10" s="13" t="s">
-        <v>194</v>
+      <c r="P10" s="12" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15105,8 +14972,8 @@
       <c r="O11" s="9">
         <v>0</v>
       </c>
-      <c r="P11" s="13" t="s">
-        <v>195</v>
+      <c r="P11" s="12" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15155,8 +15022,8 @@
       <c r="O12" s="9">
         <v>0</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>196</v>
+      <c r="P12" s="12" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15205,8 +15072,8 @@
       <c r="O13" s="9">
         <v>0</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>197</v>
+      <c r="P13" s="12" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15255,8 +15122,8 @@
       <c r="O14" s="9">
         <v>0</v>
       </c>
-      <c r="P14" s="13" t="s">
-        <v>198</v>
+      <c r="P14" s="12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15305,8 +15172,8 @@
       <c r="O15" s="9">
         <v>0</v>
       </c>
-      <c r="P15" s="13" t="s">
-        <v>199</v>
+      <c r="P15" s="12" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15350,13 +15217,13 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O16" s="9">
         <v>0</v>
       </c>
-      <c r="P16" s="13" t="s">
-        <v>200</v>
+      <c r="P16" s="12" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15405,8 +15272,8 @@
       <c r="O17" s="9">
         <v>0</v>
       </c>
-      <c r="P17" s="13" t="s">
-        <v>201</v>
+      <c r="P17" s="12" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15455,8 +15322,8 @@
       <c r="O18" s="9">
         <v>0</v>
       </c>
-      <c r="P18" s="13" t="s">
-        <v>202</v>
+      <c r="P18" s="12" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15505,8 +15372,8 @@
       <c r="O19" s="9">
         <v>0</v>
       </c>
-      <c r="P19" s="13" t="s">
-        <v>203</v>
+      <c r="P19" s="12" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15555,8 +15422,8 @@
       <c r="O20" s="9">
         <v>0</v>
       </c>
-      <c r="P20" s="13" t="s">
-        <v>204</v>
+      <c r="P20" s="12" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15605,8 +15472,8 @@
       <c r="O21" s="9">
         <v>0</v>
       </c>
-      <c r="P21" s="13" t="s">
-        <v>205</v>
+      <c r="P21" s="12" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15650,13 +15517,13 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O22" s="9">
         <v>0</v>
       </c>
-      <c r="P22" s="13" t="s">
-        <v>206</v>
+      <c r="P22" s="12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15705,8 +15572,8 @@
       <c r="O23" s="9">
         <v>0</v>
       </c>
-      <c r="P23" s="13" t="s">
-        <v>207</v>
+      <c r="P23" s="12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15755,8 +15622,8 @@
       <c r="O24" s="9">
         <v>0</v>
       </c>
-      <c r="P24" s="13" t="s">
-        <v>208</v>
+      <c r="P24" s="12" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15805,8 +15672,8 @@
       <c r="O25" s="9">
         <v>0</v>
       </c>
-      <c r="P25" s="13" t="s">
-        <v>209</v>
+      <c r="P25" s="12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15855,8 +15722,8 @@
       <c r="O26" s="9">
         <v>0</v>
       </c>
-      <c r="P26" s="13" t="s">
-        <v>210</v>
+      <c r="P26" s="12" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15905,8 +15772,8 @@
       <c r="O27" s="9">
         <v>0</v>
       </c>
-      <c r="P27" s="13" t="s">
-        <v>211</v>
+      <c r="P27" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -15955,8 +15822,8 @@
       <c r="O28" s="9">
         <v>0</v>
       </c>
-      <c r="P28" s="13" t="s">
-        <v>212</v>
+      <c r="P28" s="12" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16005,8 +15872,8 @@
       <c r="O29" s="9">
         <v>0</v>
       </c>
-      <c r="P29" s="13" t="s">
-        <v>213</v>
+      <c r="P29" s="12" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16055,8 +15922,8 @@
       <c r="O30" s="9">
         <v>0</v>
       </c>
-      <c r="P30" s="13" t="s">
-        <v>214</v>
+      <c r="P30" s="12" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16100,13 +15967,13 @@
         <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O31" s="9">
         <v>0</v>
       </c>
-      <c r="P31" s="13" t="s">
-        <v>215</v>
+      <c r="P31" s="12" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16155,8 +16022,8 @@
       <c r="O32" s="9">
         <v>0</v>
       </c>
-      <c r="P32" s="13" t="s">
-        <v>216</v>
+      <c r="P32" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16205,8 +16072,8 @@
       <c r="O33" s="9">
         <v>0</v>
       </c>
-      <c r="P33" s="13" t="s">
-        <v>217</v>
+      <c r="P33" s="12" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16255,8 +16122,8 @@
       <c r="O34" s="9">
         <v>0</v>
       </c>
-      <c r="P34" s="13" t="s">
-        <v>218</v>
+      <c r="P34" s="12" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="35" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16305,8 +16172,8 @@
       <c r="O35" s="9">
         <v>0</v>
       </c>
-      <c r="P35" s="13" t="s">
-        <v>219</v>
+      <c r="P35" s="12" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="36" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16355,8 +16222,8 @@
       <c r="O36" s="9">
         <v>1</v>
       </c>
-      <c r="P36" s="13" t="s">
-        <v>220</v>
+      <c r="P36" s="12" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="37" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16405,8 +16272,8 @@
       <c r="O37" s="9">
         <v>1</v>
       </c>
-      <c r="P37" s="13" t="s">
-        <v>221</v>
+      <c r="P37" s="12" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16455,8 +16322,8 @@
       <c r="O38" s="9">
         <v>1</v>
       </c>
-      <c r="P38" s="13" t="s">
-        <v>222</v>
+      <c r="P38" s="12" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="39" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16500,13 +16367,13 @@
         <v>0</v>
       </c>
       <c r="N39" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O39" s="9">
         <v>1</v>
       </c>
-      <c r="P39" s="13" t="s">
-        <v>223</v>
+      <c r="P39" s="12" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="40" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16555,8 +16422,8 @@
       <c r="O40" s="9">
         <v>1</v>
       </c>
-      <c r="P40" s="13" t="s">
-        <v>224</v>
+      <c r="P40" s="12" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="41" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16605,8 +16472,8 @@
       <c r="O41" s="9">
         <v>1</v>
       </c>
-      <c r="P41" s="13" t="s">
-        <v>225</v>
+      <c r="P41" s="12" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="42" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16655,8 +16522,8 @@
       <c r="O42" s="9">
         <v>1</v>
       </c>
-      <c r="P42" s="13" t="s">
-        <v>226</v>
+      <c r="P42" s="12" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16705,8 +16572,8 @@
       <c r="O43" s="9">
         <v>1</v>
       </c>
-      <c r="P43" s="13" t="s">
-        <v>227</v>
+      <c r="P43" s="12" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16755,8 +16622,8 @@
       <c r="O44" s="9">
         <v>1</v>
       </c>
-      <c r="P44" s="13" t="s">
-        <v>228</v>
+      <c r="P44" s="12" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16805,8 +16672,8 @@
       <c r="O45" s="9">
         <v>1</v>
       </c>
-      <c r="P45" s="13" t="s">
-        <v>229</v>
+      <c r="P45" s="12" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="46" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16855,8 +16722,8 @@
       <c r="O46" s="9">
         <v>1</v>
       </c>
-      <c r="P46" s="13" t="s">
-        <v>230</v>
+      <c r="P46" s="12" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16905,8 +16772,8 @@
       <c r="O47" s="9">
         <v>1</v>
       </c>
-      <c r="P47" s="13" t="s">
-        <v>231</v>
+      <c r="P47" s="12" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="48" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -16950,13 +16817,13 @@
         <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O48" s="9">
         <v>1</v>
       </c>
-      <c r="P48" s="13" t="s">
-        <v>232</v>
+      <c r="P48" s="12" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="49" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17005,8 +16872,8 @@
       <c r="O49" s="9">
         <v>1</v>
       </c>
-      <c r="P49" s="13" t="s">
-        <v>233</v>
+      <c r="P49" s="12" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="50" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17055,8 +16922,8 @@
       <c r="O50" s="9">
         <v>1</v>
       </c>
-      <c r="P50" s="13" t="s">
-        <v>234</v>
+      <c r="P50" s="12" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="51" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17105,8 +16972,8 @@
       <c r="O51" s="9">
         <v>1</v>
       </c>
-      <c r="P51" s="13" t="s">
-        <v>235</v>
+      <c r="P51" s="12" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17155,8 +17022,8 @@
       <c r="O52" s="9">
         <v>1</v>
       </c>
-      <c r="P52" s="13" t="s">
-        <v>236</v>
+      <c r="P52" s="12" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="53" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17205,8 +17072,8 @@
       <c r="O53" s="9">
         <v>1</v>
       </c>
-      <c r="P53" s="13" t="s">
-        <v>237</v>
+      <c r="P53" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="54" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17255,8 +17122,8 @@
       <c r="O54" s="9">
         <v>1</v>
       </c>
-      <c r="P54" s="13" t="s">
-        <v>238</v>
+      <c r="P54" s="12" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="55" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17305,8 +17172,8 @@
       <c r="O55" s="9">
         <v>1</v>
       </c>
-      <c r="P55" s="13" t="s">
-        <v>239</v>
+      <c r="P55" s="12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17355,8 +17222,8 @@
       <c r="O56" s="9">
         <v>1</v>
       </c>
-      <c r="P56" s="13" t="s">
-        <v>240</v>
+      <c r="P56" s="12" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="57" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17400,13 +17267,13 @@
         <v>49</v>
       </c>
       <c r="N57" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O57" s="9">
         <v>1</v>
       </c>
-      <c r="P57" s="13" t="s">
-        <v>241</v>
+      <c r="P57" s="12" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="58" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17455,8 +17322,8 @@
       <c r="O58" s="9">
         <v>0</v>
       </c>
-      <c r="P58" s="13" t="s">
-        <v>242</v>
+      <c r="P58" s="12" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17505,8 +17372,8 @@
       <c r="O59" s="9">
         <v>0</v>
       </c>
-      <c r="P59" s="13" t="s">
-        <v>243</v>
+      <c r="P59" s="12" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="60" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17555,8 +17422,8 @@
       <c r="O60" s="9">
         <v>0</v>
       </c>
-      <c r="P60" s="13" t="s">
-        <v>244</v>
+      <c r="P60" s="12" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17605,8 +17472,8 @@
       <c r="O61" s="9">
         <v>0</v>
       </c>
-      <c r="P61" s="13" t="s">
-        <v>245</v>
+      <c r="P61" s="12" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17655,8 +17522,8 @@
       <c r="O62" s="9">
         <v>0</v>
       </c>
-      <c r="P62" s="13" t="s">
-        <v>246</v>
+      <c r="P62" s="12" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="63" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17705,8 +17572,8 @@
       <c r="O63" s="9">
         <v>0</v>
       </c>
-      <c r="P63" s="13" t="s">
-        <v>247</v>
+      <c r="P63" s="12" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="64" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17755,8 +17622,8 @@
       <c r="O64" s="9">
         <v>0</v>
       </c>
-      <c r="P64" s="13" t="s">
-        <v>248</v>
+      <c r="P64" s="12" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="65" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17800,13 +17667,13 @@
         <v>0</v>
       </c>
       <c r="N65" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O65" s="9">
         <v>0</v>
       </c>
-      <c r="P65" s="13" t="s">
-        <v>249</v>
+      <c r="P65" s="12" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17855,8 +17722,8 @@
       <c r="O66" s="9">
         <v>0</v>
       </c>
-      <c r="P66" s="13" t="s">
-        <v>250</v>
+      <c r="P66" s="12" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="67" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17905,8 +17772,8 @@
       <c r="O67" s="9">
         <v>0</v>
       </c>
-      <c r="P67" s="13" t="s">
-        <v>251</v>
+      <c r="P67" s="12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="68" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -17955,8 +17822,8 @@
       <c r="O68" s="9">
         <v>0</v>
       </c>
-      <c r="P68" s="13" t="s">
-        <v>252</v>
+      <c r="P68" s="12" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18005,8 +17872,8 @@
       <c r="O69" s="9">
         <v>0</v>
       </c>
-      <c r="P69" s="13" t="s">
-        <v>253</v>
+      <c r="P69" s="12" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18055,8 +17922,8 @@
       <c r="O70" s="9">
         <v>0</v>
       </c>
-      <c r="P70" s="13" t="s">
-        <v>254</v>
+      <c r="P70" s="12" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="71" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18105,8 +17972,8 @@
       <c r="O71" s="9">
         <v>0</v>
       </c>
-      <c r="P71" s="13" t="s">
-        <v>255</v>
+      <c r="P71" s="12" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18155,8 +18022,8 @@
       <c r="O72" s="9">
         <v>0</v>
       </c>
-      <c r="P72" s="13" t="s">
-        <v>256</v>
+      <c r="P72" s="12" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18200,13 +18067,13 @@
         <v>0</v>
       </c>
       <c r="N73" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O73" s="9">
         <v>0</v>
       </c>
-      <c r="P73" s="13" t="s">
-        <v>257</v>
+      <c r="P73" s="12" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="74" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18255,8 +18122,8 @@
       <c r="O74" s="9">
         <v>0</v>
       </c>
-      <c r="P74" s="13" t="s">
-        <v>258</v>
+      <c r="P74" s="12" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="75" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18305,8 +18172,8 @@
       <c r="O75" s="9">
         <v>0</v>
       </c>
-      <c r="P75" s="13" t="s">
-        <v>259</v>
+      <c r="P75" s="12" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="76" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18355,8 +18222,8 @@
       <c r="O76" s="9">
         <v>0</v>
       </c>
-      <c r="P76" s="13" t="s">
-        <v>260</v>
+      <c r="P76" s="12" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18400,13 +18267,13 @@
         <v>51</v>
       </c>
       <c r="N77" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O77" s="9">
         <v>0</v>
       </c>
-      <c r="P77" s="13" t="s">
-        <v>261</v>
+      <c r="P77" s="12" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="78" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18455,8 +18322,8 @@
       <c r="O78" s="9">
         <v>0</v>
       </c>
-      <c r="P78" s="13" t="s">
-        <v>262</v>
+      <c r="P78" s="12" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="79" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18505,8 +18372,8 @@
       <c r="O79" s="9">
         <v>0</v>
       </c>
-      <c r="P79" s="13" t="s">
-        <v>263</v>
+      <c r="P79" s="12" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="80" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18555,8 +18422,8 @@
       <c r="O80" s="9">
         <v>0</v>
       </c>
-      <c r="P80" s="13" t="s">
-        <v>264</v>
+      <c r="P80" s="12" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18605,8 +18472,8 @@
       <c r="O81" s="9">
         <v>0</v>
       </c>
-      <c r="P81" s="13" t="s">
-        <v>265</v>
+      <c r="P81" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="82" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18655,8 +18522,8 @@
       <c r="O82" s="9">
         <v>0</v>
       </c>
-      <c r="P82" s="13" t="s">
-        <v>266</v>
+      <c r="P82" s="12" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="83" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18705,8 +18572,8 @@
       <c r="O83" s="9">
         <v>0</v>
       </c>
-      <c r="P83" s="13" t="s">
-        <v>267</v>
+      <c r="P83" s="12" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="84" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18755,8 +18622,8 @@
       <c r="O84" s="9">
         <v>0</v>
       </c>
-      <c r="P84" s="13" t="s">
-        <v>268</v>
+      <c r="P84" s="12" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="85" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18805,8 +18672,8 @@
       <c r="O85" s="9">
         <v>0</v>
       </c>
-      <c r="P85" s="13" t="s">
-        <v>269</v>
+      <c r="P85" s="12" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="86" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18855,8 +18722,8 @@
       <c r="O86" s="9">
         <v>0</v>
       </c>
-      <c r="P86" s="13" t="s">
-        <v>270</v>
+      <c r="P86" s="12" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18905,8 +18772,8 @@
       <c r="O87" s="9">
         <v>0</v>
       </c>
-      <c r="P87" s="13" t="s">
-        <v>271</v>
+      <c r="P87" s="12" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -18950,13 +18817,13 @@
         <v>0</v>
       </c>
       <c r="N88" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O88" s="9">
         <v>0</v>
       </c>
-      <c r="P88" s="13" t="s">
-        <v>272</v>
+      <c r="P88" s="12" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19005,8 +18872,8 @@
       <c r="O89" s="9">
         <v>0</v>
       </c>
-      <c r="P89" s="13" t="s">
-        <v>273</v>
+      <c r="P89" s="12" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19055,8 +18922,8 @@
       <c r="O90" s="9">
         <v>0</v>
       </c>
-      <c r="P90" s="13" t="s">
-        <v>274</v>
+      <c r="P90" s="12" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19105,8 +18972,8 @@
       <c r="O91" s="9">
         <v>0</v>
       </c>
-      <c r="P91" s="13" t="s">
-        <v>275</v>
+      <c r="P91" s="12" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="92" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19155,8 +19022,8 @@
       <c r="O92" s="9">
         <v>0</v>
       </c>
-      <c r="P92" s="13" t="s">
-        <v>276</v>
+      <c r="P92" s="12" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19205,8 +19072,8 @@
       <c r="O93" s="9">
         <v>0</v>
       </c>
-      <c r="P93" s="13" t="s">
-        <v>277</v>
+      <c r="P93" s="12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="94" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19255,8 +19122,8 @@
       <c r="O94" s="9">
         <v>0</v>
       </c>
-      <c r="P94" s="13" t="s">
-        <v>278</v>
+      <c r="P94" s="12" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="95" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19305,8 +19172,8 @@
       <c r="O95" s="9">
         <v>0</v>
       </c>
-      <c r="P95" s="13" t="s">
-        <v>279</v>
+      <c r="P95" s="12" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19350,13 +19217,13 @@
         <v>0</v>
       </c>
       <c r="N96" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O96" s="9">
         <v>0</v>
       </c>
-      <c r="P96" s="13" t="s">
-        <v>280</v>
+      <c r="P96" s="12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19405,8 +19272,8 @@
       <c r="O97" s="9">
         <v>0</v>
       </c>
-      <c r="P97" s="13" t="s">
-        <v>281</v>
+      <c r="P97" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19455,8 +19322,8 @@
       <c r="O98" s="9">
         <v>0</v>
       </c>
-      <c r="P98" s="13" t="s">
-        <v>282</v>
+      <c r="P98" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19505,8 +19372,8 @@
       <c r="O99" s="9">
         <v>0</v>
       </c>
-      <c r="P99" s="13" t="s">
-        <v>283</v>
+      <c r="P99" s="12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="100" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19555,8 +19422,8 @@
       <c r="O100" s="9">
         <v>0</v>
       </c>
-      <c r="P100" s="13" t="s">
-        <v>284</v>
+      <c r="P100" s="12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="101" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19605,8 +19472,8 @@
       <c r="O101" s="9">
         <v>0</v>
       </c>
-      <c r="P101" s="13" t="s">
-        <v>285</v>
+      <c r="P101" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="102" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19655,8 +19522,8 @@
       <c r="O102" s="9">
         <v>0</v>
       </c>
-      <c r="P102" s="13" t="s">
-        <v>286</v>
+      <c r="P102" s="12" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="103" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19705,8 +19572,8 @@
       <c r="O103" s="9">
         <v>0</v>
       </c>
-      <c r="P103" s="13" t="s">
-        <v>287</v>
+      <c r="P103" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="104" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19755,8 +19622,8 @@
       <c r="O104" s="9">
         <v>0</v>
       </c>
-      <c r="P104" s="13" t="s">
-        <v>288</v>
+      <c r="P104" s="12" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="105" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19805,8 +19672,8 @@
       <c r="O105" s="9">
         <v>0</v>
       </c>
-      <c r="P105" s="13" t="s">
-        <v>289</v>
+      <c r="P105" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="106" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19855,8 +19722,8 @@
       <c r="O106" s="9">
         <v>0</v>
       </c>
-      <c r="P106" s="13" t="s">
-        <v>290</v>
+      <c r="P106" s="12" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="107" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19905,8 +19772,8 @@
       <c r="O107" s="9">
         <v>0</v>
       </c>
-      <c r="P107" s="13" t="s">
-        <v>291</v>
+      <c r="P107" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -19955,8 +19822,8 @@
       <c r="O108" s="9">
         <v>0</v>
       </c>
-      <c r="P108" s="13" t="s">
-        <v>292</v>
+      <c r="P108" s="12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="109" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20005,8 +19872,8 @@
       <c r="O109" s="9">
         <v>0</v>
       </c>
-      <c r="P109" s="13" t="s">
-        <v>293</v>
+      <c r="P109" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="110" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20055,8 +19922,8 @@
       <c r="O110" s="9">
         <v>0</v>
       </c>
-      <c r="P110" s="13" t="s">
-        <v>294</v>
+      <c r="P110" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="111" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20105,8 +19972,8 @@
       <c r="O111" s="9">
         <v>0</v>
       </c>
-      <c r="P111" s="13" t="s">
-        <v>295</v>
+      <c r="P111" s="12" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20155,8 +20022,8 @@
       <c r="O112" s="9">
         <v>0</v>
       </c>
-      <c r="P112" s="13" t="s">
-        <v>296</v>
+      <c r="P112" s="12" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="113" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20205,8 +20072,8 @@
       <c r="O113" s="9">
         <v>0</v>
       </c>
-      <c r="P113" s="13" t="s">
-        <v>297</v>
+      <c r="P113" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="114" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20250,13 +20117,13 @@
         <v>0</v>
       </c>
       <c r="N114" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O114" s="9">
         <v>0</v>
       </c>
-      <c r="P114" s="13" t="s">
-        <v>298</v>
+      <c r="P114" s="12" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="115" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20305,8 +20172,8 @@
       <c r="O115" s="9">
         <v>0</v>
       </c>
-      <c r="P115" s="13" t="s">
-        <v>299</v>
+      <c r="P115" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="116" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20355,8 +20222,8 @@
       <c r="O116" s="9">
         <v>0</v>
       </c>
-      <c r="P116" s="13" t="s">
-        <v>300</v>
+      <c r="P116" s="12" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="117" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20405,8 +20272,8 @@
       <c r="O117" s="9">
         <v>0</v>
       </c>
-      <c r="P117" s="13" t="s">
-        <v>301</v>
+      <c r="P117" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="118" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20455,8 +20322,8 @@
       <c r="O118" s="9">
         <v>0</v>
       </c>
-      <c r="P118" s="13" t="s">
-        <v>302</v>
+      <c r="P118" s="12" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="119" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20505,8 +20372,8 @@
       <c r="O119" s="9">
         <v>0</v>
       </c>
-      <c r="P119" s="13" t="s">
-        <v>303</v>
+      <c r="P119" s="12" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="120" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20555,8 +20422,8 @@
       <c r="O120" s="9">
         <v>0</v>
       </c>
-      <c r="P120" s="13" t="s">
-        <v>304</v>
+      <c r="P120" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="121" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20605,8 +20472,8 @@
       <c r="O121" s="9">
         <v>0</v>
       </c>
-      <c r="P121" s="13" t="s">
-        <v>305</v>
+      <c r="P121" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="122" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20655,8 +20522,8 @@
       <c r="O122" s="9">
         <v>1</v>
       </c>
-      <c r="P122" s="13" t="s">
-        <v>306</v>
+      <c r="P122" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="123" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20700,13 +20567,13 @@
         <v>0</v>
       </c>
       <c r="N123" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O123" s="9">
         <v>1</v>
       </c>
-      <c r="P123" s="13" t="s">
-        <v>307</v>
+      <c r="P123" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20755,8 +20622,8 @@
       <c r="O124" s="9">
         <v>1</v>
       </c>
-      <c r="P124" s="13" t="s">
-        <v>308</v>
+      <c r="P124" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="125" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20805,8 +20672,8 @@
       <c r="O125" s="9">
         <v>1</v>
       </c>
-      <c r="P125" s="13" t="s">
-        <v>309</v>
+      <c r="P125" s="12" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20855,8 +20722,8 @@
       <c r="O126" s="9">
         <v>1</v>
       </c>
-      <c r="P126" s="13" t="s">
-        <v>310</v>
+      <c r="P126" s="12" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="127" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20905,8 +20772,8 @@
       <c r="O127" s="9">
         <v>1</v>
       </c>
-      <c r="P127" s="13" t="s">
-        <v>311</v>
+      <c r="P127" s="12" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -20955,8 +20822,8 @@
       <c r="O128" s="9">
         <v>1</v>
       </c>
-      <c r="P128" s="13" t="s">
-        <v>312</v>
+      <c r="P128" s="12" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21005,8 +20872,8 @@
       <c r="O129" s="9">
         <v>1</v>
       </c>
-      <c r="P129" s="13" t="s">
-        <v>313</v>
+      <c r="P129" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21055,8 +20922,8 @@
       <c r="O130" s="9">
         <v>1</v>
       </c>
-      <c r="P130" s="13" t="s">
-        <v>314</v>
+      <c r="P130" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="131" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21105,8 +20972,8 @@
       <c r="O131" s="9">
         <v>1</v>
       </c>
-      <c r="P131" s="13" t="s">
-        <v>315</v>
+      <c r="P131" s="12" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21150,13 +21017,13 @@
         <v>0</v>
       </c>
       <c r="N132" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O132" s="9">
         <v>1</v>
       </c>
-      <c r="P132" s="13" t="s">
-        <v>316</v>
+      <c r="P132" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="133" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21205,8 +21072,8 @@
       <c r="O133" s="9">
         <v>1</v>
       </c>
-      <c r="P133" s="13" t="s">
-        <v>317</v>
+      <c r="P133" s="12" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="134" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21255,8 +21122,8 @@
       <c r="O134" s="9">
         <v>1</v>
       </c>
-      <c r="P134" s="13" t="s">
-        <v>318</v>
+      <c r="P134" s="12" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21305,8 +21172,8 @@
       <c r="O135" s="9">
         <v>1</v>
       </c>
-      <c r="P135" s="13" t="s">
-        <v>319</v>
+      <c r="P135" s="12" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21355,8 +21222,8 @@
       <c r="O136" s="9">
         <v>1</v>
       </c>
-      <c r="P136" s="13" t="s">
-        <v>320</v>
+      <c r="P136" s="12" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21405,8 +21272,8 @@
       <c r="O137" s="9">
         <v>1</v>
       </c>
-      <c r="P137" s="13" t="s">
-        <v>321</v>
+      <c r="P137" s="12" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21455,8 +21322,8 @@
       <c r="O138" s="9">
         <v>1</v>
       </c>
-      <c r="P138" s="13" t="s">
-        <v>322</v>
+      <c r="P138" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21505,8 +21372,8 @@
       <c r="O139" s="9">
         <v>1</v>
       </c>
-      <c r="P139" s="13" t="s">
-        <v>323</v>
+      <c r="P139" s="12" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21555,8 +21422,8 @@
       <c r="O140" s="9">
         <v>1</v>
       </c>
-      <c r="P140" s="13" t="s">
-        <v>324</v>
+      <c r="P140" s="12" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21600,13 +21467,13 @@
         <v>0</v>
       </c>
       <c r="N141" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O141" s="9">
         <v>1</v>
       </c>
-      <c r="P141" s="13" t="s">
-        <v>325</v>
+      <c r="P141" s="12" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21655,8 +21522,8 @@
       <c r="O142" s="9">
         <v>1</v>
       </c>
-      <c r="P142" s="13" t="s">
-        <v>326</v>
+      <c r="P142" s="12" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="143" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21705,8 +21572,8 @@
       <c r="O143" s="9">
         <v>1</v>
       </c>
-      <c r="P143" s="13" t="s">
-        <v>327</v>
+      <c r="P143" s="12" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="144" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21755,8 +21622,8 @@
       <c r="O144" s="9">
         <v>0</v>
       </c>
-      <c r="P144" s="13" t="s">
-        <v>328</v>
+      <c r="P144" s="12" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="145" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21805,8 +21672,8 @@
       <c r="O145" s="9">
         <v>0</v>
       </c>
-      <c r="P145" s="13" t="s">
-        <v>329</v>
+      <c r="P145" s="12" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="146" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21855,8 +21722,8 @@
       <c r="O146" s="9">
         <v>0</v>
       </c>
-      <c r="P146" s="13" t="s">
-        <v>330</v>
+      <c r="P146" s="12" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="147" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21905,8 +21772,8 @@
       <c r="O147" s="9">
         <v>0</v>
       </c>
-      <c r="P147" s="13" t="s">
-        <v>331</v>
+      <c r="P147" s="12" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="148" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -21955,8 +21822,8 @@
       <c r="O148" s="9">
         <v>0</v>
       </c>
-      <c r="P148" s="13" t="s">
-        <v>332</v>
+      <c r="P148" s="12" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="149" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -22005,8 +21872,8 @@
       <c r="O149" s="9">
         <v>0</v>
       </c>
-      <c r="P149" s="13" t="s">
-        <v>333</v>
+      <c r="P149" s="12" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="150" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -22055,8 +21922,8 @@
       <c r="O150" s="9">
         <v>0</v>
       </c>
-      <c r="P150" s="13" t="s">
-        <v>334</v>
+      <c r="P150" s="12" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="151" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -22105,8 +21972,8 @@
       <c r="O151" s="9">
         <v>0</v>
       </c>
-      <c r="P151" s="13" t="s">
-        <v>335</v>
+      <c r="P151" s="12" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="152" spans="1:16" ht="16.5" x14ac:dyDescent="0.25">
@@ -22155,8 +22022,8 @@
       <c r="O152" s="9">
         <v>0</v>
       </c>
-      <c r="P152" s="13" t="s">
-        <v>336</v>
+      <c r="P152" s="12" t="s">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -22168,8 +22035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView topLeftCell="K52" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:P77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22224,8 +22091,8 @@
       <c r="O1" s="2">
         <v>0</v>
       </c>
-      <c r="P1" s="11" t="s">
-        <v>108</v>
+      <c r="P1" s="12" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -22274,8 +22141,8 @@
       <c r="O2" s="2">
         <v>0</v>
       </c>
-      <c r="P2" s="11" t="s">
-        <v>109</v>
+      <c r="P2" s="12" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -22324,8 +22191,8 @@
       <c r="O3" s="2">
         <v>0</v>
       </c>
-      <c r="P3" s="11" t="s">
-        <v>110</v>
+      <c r="P3" s="12" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -22374,8 +22241,8 @@
       <c r="O4" s="2">
         <v>0</v>
       </c>
-      <c r="P4" s="11" t="s">
-        <v>111</v>
+      <c r="P4" s="12" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -22424,8 +22291,8 @@
       <c r="O5" s="2">
         <v>0</v>
       </c>
-      <c r="P5" s="11" t="s">
-        <v>112</v>
+      <c r="P5" s="12" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -22474,8 +22341,8 @@
       <c r="O6" s="2">
         <v>0</v>
       </c>
-      <c r="P6" s="11" t="s">
-        <v>113</v>
+      <c r="P6" s="12" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -22522,10 +22389,10 @@
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>0</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>114</v>
+        <v>18</v>
+      </c>
+      <c r="P7" s="12" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -22574,8 +22441,8 @@
       <c r="O8" s="2">
         <v>0</v>
       </c>
-      <c r="P8" s="11" t="s">
-        <v>115</v>
+      <c r="P8" s="12" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -22624,8 +22491,8 @@
       <c r="O9" s="2">
         <v>0</v>
       </c>
-      <c r="P9" s="11" t="s">
-        <v>116</v>
+      <c r="P9" s="12" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -22674,8 +22541,8 @@
       <c r="O10" s="2">
         <v>0</v>
       </c>
-      <c r="P10" s="11" t="s">
-        <v>117</v>
+      <c r="P10" s="12" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -22724,8 +22591,8 @@
       <c r="O11" s="2">
         <v>0</v>
       </c>
-      <c r="P11" s="11" t="s">
-        <v>118</v>
+      <c r="P11" s="12" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -22774,8 +22641,8 @@
       <c r="O12" s="2">
         <v>0</v>
       </c>
-      <c r="P12" s="11" t="s">
-        <v>119</v>
+      <c r="P12" s="12" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -22824,8 +22691,8 @@
       <c r="O13" s="2">
         <v>0</v>
       </c>
-      <c r="P13" s="11" t="s">
-        <v>120</v>
+      <c r="P13" s="12" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -22874,8 +22741,8 @@
       <c r="O14" s="2">
         <v>0</v>
       </c>
-      <c r="P14" s="11" t="s">
-        <v>121</v>
+      <c r="P14" s="12" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -22924,8 +22791,8 @@
       <c r="O15" s="2">
         <v>0</v>
       </c>
-      <c r="P15" s="11" t="s">
-        <v>122</v>
+      <c r="P15" s="12" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -22972,10 +22839,10 @@
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>0</v>
-      </c>
-      <c r="P16" s="11" t="s">
-        <v>123</v>
+        <v>19</v>
+      </c>
+      <c r="P16" s="12" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
@@ -23024,8 +22891,8 @@
       <c r="O17" s="2">
         <v>0</v>
       </c>
-      <c r="P17" s="11" t="s">
-        <v>124</v>
+      <c r="P17" s="12" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -23074,8 +22941,8 @@
       <c r="O18" s="2">
         <v>0</v>
       </c>
-      <c r="P18" s="11" t="s">
-        <v>125</v>
+      <c r="P18" s="12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -23124,8 +22991,8 @@
       <c r="O19" s="2">
         <v>0</v>
       </c>
-      <c r="P19" s="11" t="s">
-        <v>126</v>
+      <c r="P19" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
@@ -23174,8 +23041,8 @@
       <c r="O20" s="2">
         <v>0</v>
       </c>
-      <c r="P20" s="11" t="s">
-        <v>127</v>
+      <c r="P20" s="12" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
@@ -23222,10 +23089,10 @@
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
-      </c>
-      <c r="P21" s="11" t="s">
-        <v>128</v>
+        <v>20</v>
+      </c>
+      <c r="P21" s="12" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
@@ -23274,8 +23141,8 @@
       <c r="O22" s="2">
         <v>0</v>
       </c>
-      <c r="P22" s="11" t="s">
-        <v>129</v>
+      <c r="P22" s="12" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
@@ -23324,8 +23191,8 @@
       <c r="O23" s="2">
         <v>0</v>
       </c>
-      <c r="P23" s="11" t="s">
-        <v>130</v>
+      <c r="P23" s="12" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
@@ -23374,8 +23241,8 @@
       <c r="O24" s="2">
         <v>1</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>131</v>
+      <c r="P24" s="12" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -23422,10 +23289,10 @@
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>1</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>132</v>
+        <v>21</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
@@ -23474,8 +23341,8 @@
       <c r="O26" s="2">
         <v>1</v>
       </c>
-      <c r="P26" s="11" t="s">
-        <v>133</v>
+      <c r="P26" s="12" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
@@ -23524,8 +23391,8 @@
       <c r="O27" s="2">
         <v>1</v>
       </c>
-      <c r="P27" s="11" t="s">
-        <v>134</v>
+      <c r="P27" s="12" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
@@ -23574,8 +23441,8 @@
       <c r="O28" s="2">
         <v>1</v>
       </c>
-      <c r="P28" s="11" t="s">
-        <v>135</v>
+      <c r="P28" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
@@ -23624,8 +23491,8 @@
       <c r="O29" s="2">
         <v>1</v>
       </c>
-      <c r="P29" s="11" t="s">
-        <v>136</v>
+      <c r="P29" s="12" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
@@ -23674,8 +23541,8 @@
       <c r="O30" s="2">
         <v>1</v>
       </c>
-      <c r="P30" s="11" t="s">
-        <v>137</v>
+      <c r="P30" s="12" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -23724,8 +23591,8 @@
       <c r="O31" s="2">
         <v>1</v>
       </c>
-      <c r="P31" s="11" t="s">
-        <v>138</v>
+      <c r="P31" s="12" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
@@ -23774,8 +23641,8 @@
       <c r="O32" s="2">
         <v>1</v>
       </c>
-      <c r="P32" s="11" t="s">
-        <v>139</v>
+      <c r="P32" s="12" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
@@ -23824,8 +23691,8 @@
       <c r="O33" s="2">
         <v>1</v>
       </c>
-      <c r="P33" s="11" t="s">
-        <v>140</v>
+      <c r="P33" s="12" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -23874,8 +23741,8 @@
       <c r="O34" s="2">
         <v>1</v>
       </c>
-      <c r="P34" s="11" t="s">
-        <v>141</v>
+      <c r="P34" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -23922,10 +23789,10 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>1</v>
-      </c>
-      <c r="P35" s="11" t="s">
-        <v>142</v>
+        <v>22</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
@@ -23974,8 +23841,8 @@
       <c r="O36" s="2">
         <v>1</v>
       </c>
-      <c r="P36" s="11" t="s">
-        <v>143</v>
+      <c r="P36" s="12" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
@@ -24024,8 +23891,8 @@
       <c r="O37" s="2">
         <v>1</v>
       </c>
-      <c r="P37" s="11" t="s">
-        <v>144</v>
+      <c r="P37" s="12" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
@@ -24074,8 +23941,8 @@
       <c r="O38" s="2">
         <v>1</v>
       </c>
-      <c r="P38" s="11" t="s">
-        <v>145</v>
+      <c r="P38" s="12" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
@@ -24124,8 +23991,8 @@
       <c r="O39" s="2">
         <v>1</v>
       </c>
-      <c r="P39" s="11" t="s">
-        <v>146</v>
+      <c r="P39" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
@@ -24174,8 +24041,8 @@
       <c r="O40" s="2">
         <v>1</v>
       </c>
-      <c r="P40" s="11" t="s">
-        <v>147</v>
+      <c r="P40" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
@@ -24224,8 +24091,8 @@
       <c r="O41" s="2">
         <v>1</v>
       </c>
-      <c r="P41" s="11" t="s">
-        <v>148</v>
+      <c r="P41" s="12" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
@@ -24274,8 +24141,8 @@
       <c r="O42" s="2">
         <v>1</v>
       </c>
-      <c r="P42" s="11" t="s">
-        <v>149</v>
+      <c r="P42" s="12" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
@@ -24324,8 +24191,8 @@
       <c r="O43" s="2">
         <v>1</v>
       </c>
-      <c r="P43" s="11" t="s">
-        <v>150</v>
+      <c r="P43" s="12" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.25">
@@ -24374,8 +24241,8 @@
       <c r="O44" s="2">
         <v>1</v>
       </c>
-      <c r="P44" s="11" t="s">
-        <v>151</v>
+      <c r="P44" s="12" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.25">
@@ -24422,10 +24289,10 @@
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <v>1</v>
-      </c>
-      <c r="P45" s="11" t="s">
-        <v>152</v>
+        <v>23</v>
+      </c>
+      <c r="P45" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.25">
@@ -24474,8 +24341,8 @@
       <c r="O46" s="2">
         <v>1</v>
       </c>
-      <c r="P46" s="11" t="s">
-        <v>153</v>
+      <c r="P46" s="12" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.25">
@@ -24524,8 +24391,8 @@
       <c r="O47" s="2">
         <v>0</v>
       </c>
-      <c r="P47" s="11" t="s">
-        <v>154</v>
+      <c r="P47" s="12" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.25">
@@ -24572,10 +24439,10 @@
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>0</v>
-      </c>
-      <c r="P48" s="11" t="s">
-        <v>155</v>
+        <v>24</v>
+      </c>
+      <c r="P48" s="12" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.25">
@@ -24624,8 +24491,8 @@
       <c r="O49" s="2">
         <v>0</v>
       </c>
-      <c r="P49" s="11" t="s">
-        <v>156</v>
+      <c r="P49" s="12" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.25">
@@ -24674,8 +24541,8 @@
       <c r="O50" s="2">
         <v>0</v>
       </c>
-      <c r="P50" s="11" t="s">
-        <v>157</v>
+      <c r="P50" s="12" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.25">
@@ -24724,8 +24591,8 @@
       <c r="O51" s="2">
         <v>0</v>
       </c>
-      <c r="P51" s="11" t="s">
-        <v>158</v>
+      <c r="P51" s="12" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.25">
@@ -24774,8 +24641,8 @@
       <c r="O52" s="2">
         <v>0</v>
       </c>
-      <c r="P52" s="11" t="s">
-        <v>159</v>
+      <c r="P52" s="12" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.25">
@@ -24824,8 +24691,8 @@
       <c r="O53" s="2">
         <v>0</v>
       </c>
-      <c r="P53" s="11" t="s">
-        <v>160</v>
+      <c r="P53" s="12" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.25">
@@ -24874,8 +24741,8 @@
       <c r="O54" s="2">
         <v>0</v>
       </c>
-      <c r="P54" s="11" t="s">
-        <v>161</v>
+      <c r="P54" s="12" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -24924,8 +24791,8 @@
       <c r="O55" s="2">
         <v>0</v>
       </c>
-      <c r="P55" s="11" t="s">
-        <v>162</v>
+      <c r="P55" s="12" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -24974,8 +24841,8 @@
       <c r="O56" s="2">
         <v>0</v>
       </c>
-      <c r="P56" s="11" t="s">
-        <v>163</v>
+      <c r="P56" s="12" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -25024,8 +24891,8 @@
       <c r="O57" s="2">
         <v>0</v>
       </c>
-      <c r="P57" s="11" t="s">
-        <v>164</v>
+      <c r="P57" s="12" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
@@ -25074,8 +24941,8 @@
       <c r="O58" s="2">
         <v>0</v>
       </c>
-      <c r="P58" s="11" t="s">
-        <v>165</v>
+      <c r="P58" s="12" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
@@ -25124,8 +24991,8 @@
       <c r="O59" s="2">
         <v>0</v>
       </c>
-      <c r="P59" s="11" t="s">
-        <v>166</v>
+      <c r="P59" s="12" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.25">
@@ -25172,10 +25039,10 @@
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <v>0</v>
-      </c>
-      <c r="P60" s="11" t="s">
-        <v>167</v>
+        <v>25</v>
+      </c>
+      <c r="P60" s="12" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.25">
@@ -25224,8 +25091,8 @@
       <c r="O61" s="2">
         <v>0</v>
       </c>
-      <c r="P61" s="11" t="s">
-        <v>168</v>
+      <c r="P61" s="12" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.25">
@@ -25274,8 +25141,8 @@
       <c r="O62" s="2">
         <v>0</v>
       </c>
-      <c r="P62" s="11" t="s">
-        <v>169</v>
+      <c r="P62" s="12" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.25">
@@ -25324,8 +25191,8 @@
       <c r="O63" s="2">
         <v>0</v>
       </c>
-      <c r="P63" s="11" t="s">
-        <v>170</v>
+      <c r="P63" s="12" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.25">
@@ -25374,8 +25241,8 @@
       <c r="O64" s="2">
         <v>0</v>
       </c>
-      <c r="P64" s="11" t="s">
-        <v>171</v>
+      <c r="P64" s="12" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
@@ -25424,8 +25291,8 @@
       <c r="O65" s="2">
         <v>0</v>
       </c>
-      <c r="P65" s="11" t="s">
-        <v>172</v>
+      <c r="P65" s="12" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
@@ -25474,8 +25341,8 @@
       <c r="O66" s="2">
         <v>0</v>
       </c>
-      <c r="P66" s="11" t="s">
-        <v>173</v>
+      <c r="P66" s="12" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
@@ -25524,8 +25391,8 @@
       <c r="O67" s="2">
         <v>1</v>
       </c>
-      <c r="P67" s="11" t="s">
-        <v>174</v>
+      <c r="P67" s="12" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
@@ -25574,8 +25441,8 @@
       <c r="O68" s="2">
         <v>1</v>
       </c>
-      <c r="P68" s="11" t="s">
-        <v>175</v>
+      <c r="P68" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
@@ -25624,8 +25491,8 @@
       <c r="O69" s="2">
         <v>1</v>
       </c>
-      <c r="P69" s="11" t="s">
-        <v>176</v>
+      <c r="P69" s="12" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
@@ -25674,8 +25541,8 @@
       <c r="O70" s="2">
         <v>1</v>
       </c>
-      <c r="P70" s="11" t="s">
-        <v>177</v>
+      <c r="P70" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
@@ -25724,8 +25591,8 @@
       <c r="O71" s="2">
         <v>1</v>
       </c>
-      <c r="P71" s="11" t="s">
-        <v>178</v>
+      <c r="P71" s="12" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
@@ -25774,8 +25641,8 @@
       <c r="O72" s="2">
         <v>1</v>
       </c>
-      <c r="P72" s="11" t="s">
-        <v>179</v>
+      <c r="P72" s="12" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
@@ -25824,8 +25691,8 @@
       <c r="O73" s="2">
         <v>1</v>
       </c>
-      <c r="P73" s="11" t="s">
-        <v>180</v>
+      <c r="P73" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
@@ -25874,8 +25741,8 @@
       <c r="O74" s="2">
         <v>1</v>
       </c>
-      <c r="P74" s="11" t="s">
-        <v>181</v>
+      <c r="P74" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
@@ -25924,8 +25791,8 @@
       <c r="O75" s="2">
         <v>1</v>
       </c>
-      <c r="P75" s="11" t="s">
-        <v>182</v>
+      <c r="P75" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
@@ -25974,8 +25841,8 @@
       <c r="O76" s="2">
         <v>1</v>
       </c>
-      <c r="P76" s="11" t="s">
-        <v>183</v>
+      <c r="P76" s="12" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
@@ -26024,8 +25891,8 @@
       <c r="O77" s="2">
         <v>0</v>
       </c>
-      <c r="P77" s="11" t="s">
-        <v>184</v>
+      <c r="P77" s="12" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
+++ b/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4650" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="3"/>
+    <workbookView xWindow="5580" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -1509,9 +1509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:P154"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N144" sqref="N144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,7 +1671,7 @@
         <v>56</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="9">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="N4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="9">
         <v>0</v>
@@ -2021,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="9">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" s="9">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O12" s="9">
         <v>0</v>
@@ -2371,7 +2371,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" s="9">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O18" s="9">
         <v>0</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O19" s="9">
         <v>0</v>
@@ -2671,7 +2671,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O23" s="9">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O24" s="9">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O25" s="9">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O32" s="9">
         <v>0</v>
@@ -3171,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="N33" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O33" s="9">
         <v>0</v>
@@ -3221,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O34" s="9">
         <v>0</v>
@@ -3521,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O40" s="9">
         <v>1</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="N41" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O41" s="9">
         <v>1</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="N42" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O42" s="9">
         <v>1</v>
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O49" s="9">
         <v>1</v>
@@ -4021,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="N50" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O50" s="9">
         <v>1</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O51" s="9">
         <v>1</v>
@@ -4421,7 +4421,7 @@
         <v>0</v>
       </c>
       <c r="N58" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O58" s="9">
         <v>1</v>
@@ -4471,7 +4471,7 @@
         <v>49</v>
       </c>
       <c r="N59" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O59" s="9">
         <v>1</v>
@@ -4521,7 +4521,7 @@
         <v>43</v>
       </c>
       <c r="N60" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O60" s="9">
         <v>0</v>
@@ -4821,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O66" s="9">
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="N67" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O67" s="9">
         <v>0</v>
@@ -4921,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="N68" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O68" s="9">
         <v>0</v>
@@ -5221,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O74" s="9">
         <v>0</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="N75" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O75" s="9">
         <v>0</v>
@@ -5321,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O76" s="9">
         <v>0</v>
@@ -5421,7 +5421,7 @@
         <v>45</v>
       </c>
       <c r="N78" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O78" s="9">
         <v>0</v>
@@ -5471,7 +5471,7 @@
         <v>51</v>
       </c>
       <c r="N79" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O79" s="9">
         <v>0</v>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="N80" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O80" s="9">
         <v>0</v>
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O89" s="9">
         <v>0</v>
@@ -6021,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="N90" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O90" s="9">
         <v>0</v>
@@ -6071,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="N91" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O91" s="9">
         <v>0</v>
@@ -6371,7 +6371,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O97" s="9">
         <v>0</v>
@@ -6421,7 +6421,7 @@
         <v>0</v>
       </c>
       <c r="N98" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O98" s="9">
         <v>0</v>
@@ -6471,7 +6471,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O99" s="9">
         <v>0</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="N115" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O115" s="9">
         <v>0</v>
@@ -7321,7 +7321,7 @@
         <v>0</v>
       </c>
       <c r="N116" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O116" s="9">
         <v>0</v>
@@ -7371,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="N117" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O117" s="9">
         <v>0</v>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="N124" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O124" s="9">
         <v>1</v>
@@ -7771,7 +7771,7 @@
         <v>0</v>
       </c>
       <c r="N125" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O125" s="9">
         <v>1</v>
@@ -7821,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="N126" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O126" s="9">
         <v>1</v>
@@ -8171,7 +8171,7 @@
         <v>0</v>
       </c>
       <c r="N133" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O133" s="9">
         <v>1</v>
@@ -8221,7 +8221,7 @@
         <v>0</v>
       </c>
       <c r="N134" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O134" s="9">
         <v>1</v>
@@ -8271,7 +8271,7 @@
         <v>0</v>
       </c>
       <c r="N135" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O135" s="9">
         <v>1</v>
@@ -8621,7 +8621,7 @@
         <v>0</v>
       </c>
       <c r="N142" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O142" s="9">
         <v>1</v>
@@ -8671,7 +8671,7 @@
         <v>0</v>
       </c>
       <c r="N143" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O143" s="9">
         <v>1</v>
@@ -8721,7 +8721,7 @@
         <v>0</v>
       </c>
       <c r="N144" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O144" s="9">
         <v>1</v>
@@ -9240,9 +9240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:P79"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9398,7 +9398,7 @@
         <v>88</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O3" s="2">
         <v>0</v>
@@ -9648,7 +9648,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -9701,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P9" s="12" t="s">
         <v>299</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -10098,7 +10098,7 @@
         <v>86</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>108</v>
@@ -10198,7 +10198,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O19" s="2">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -10401,7 +10401,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P23" s="12" t="s">
         <v>308</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -10548,7 +10548,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O26" s="2">
         <v>1</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="P27" s="12" t="s">
         <v>114</v>
@@ -10648,7 +10648,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O28" s="2">
         <v>1</v>
@@ -11048,7 +11048,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O36" s="2">
         <v>1</v>
@@ -11101,7 +11101,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="P37" s="12" t="s">
         <v>124</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O38" s="2">
         <v>1</v>
@@ -11548,7 +11548,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O46" s="2">
         <v>1</v>
@@ -11601,7 +11601,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P47" s="12" t="s">
         <v>134</v>
@@ -11648,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O48" s="2">
         <v>1</v>
@@ -11698,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O49" s="2">
         <v>0</v>
@@ -11751,7 +11751,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P50" s="12" t="s">
         <v>313</v>
@@ -11798,7 +11798,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O51" s="2">
         <v>0</v>
@@ -12298,7 +12298,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O61" s="2">
         <v>0</v>
@@ -12351,7 +12351,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P62" s="12" t="s">
         <v>325</v>
@@ -12398,7 +12398,7 @@
         <v>0</v>
       </c>
       <c r="N63" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O63" s="2">
         <v>0</v>
@@ -22035,8 +22035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
+++ b/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="1"/>
+    <workbookView xWindow="6615" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -1509,9 +1509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N144" sqref="N144"/>
+      <selection pane="bottomLeft" activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9156,7 +9156,7 @@
         <v>55</v>
       </c>
       <c r="I153" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J153" s="2">
         <v>0</v>
@@ -9240,8 +9240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N83" sqref="N83"/>
     </sheetView>
   </sheetViews>
@@ -14416,8 +14416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P152"/>
+    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="K160" sqref="K160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21952,7 +21952,7 @@
         <v>55</v>
       </c>
       <c r="I151" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J151" s="2">
         <v>0</v>

--- a/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
+++ b/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6615" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="2"/>
+    <workbookView xWindow="7650" yWindow="0" windowWidth="16170" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -1509,9 +1509,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A120" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I154" sqref="I154"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:P154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1659,7 +1659,7 @@
         <v>-1</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -2511,7 +2511,7 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="2">
@@ -2561,7 +2561,7 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>1</v>
       </c>
       <c r="L21" s="2">
@@ -2611,7 +2611,7 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>0</v>
       </c>
       <c r="L22" s="2">
@@ -2661,7 +2661,7 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" s="2">
@@ -2711,7 +2711,7 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -2761,7 +2761,7 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="2">
@@ -2811,7 +2811,7 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>0</v>
       </c>
       <c r="L26" s="2">
@@ -2861,7 +2861,7 @@
       <c r="J27" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>0</v>
       </c>
       <c r="L27" s="2">
@@ -2911,7 +2911,7 @@
       <c r="J28" s="2">
         <v>0</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="2">
@@ -2961,7 +2961,7 @@
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>0</v>
       </c>
       <c r="L29" s="2">
@@ -3009,9 +3009,9 @@
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>0</v>
-      </c>
-      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1">
         <v>0</v>
       </c>
       <c r="L30" s="2">
@@ -3061,7 +3061,7 @@
       <c r="J31" s="2">
         <v>0</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>0</v>
       </c>
       <c r="L31" s="2">
@@ -3111,7 +3111,7 @@
       <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>0</v>
       </c>
       <c r="L32" s="2">
@@ -3161,7 +3161,7 @@
       <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>0</v>
       </c>
       <c r="L33" s="2" t="s">
@@ -3211,7 +3211,7 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>0</v>
       </c>
       <c r="L34" s="2">
@@ -3261,7 +3261,7 @@
       <c r="J35" s="2">
         <v>0</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>0</v>
       </c>
       <c r="L35" s="2">
@@ -3311,7 +3311,7 @@
       <c r="J36" s="2">
         <v>0</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>0</v>
       </c>
       <c r="L36" s="2">
@@ -3361,7 +3361,7 @@
       <c r="J37" s="2">
         <v>0</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>0</v>
       </c>
       <c r="L37" s="2">
@@ -3411,7 +3411,7 @@
       <c r="J38" s="2">
         <v>0</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>0</v>
       </c>
       <c r="L38" s="2">
@@ -3461,7 +3461,7 @@
       <c r="J39" s="2">
         <v>0</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>0</v>
       </c>
       <c r="L39" s="2">
@@ -3511,7 +3511,7 @@
       <c r="J40" s="2">
         <v>0</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>0</v>
       </c>
       <c r="L40" s="2">
@@ -3561,7 +3561,7 @@
       <c r="J41" s="2">
         <v>0</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>0</v>
       </c>
       <c r="L41" s="2" t="s">
@@ -3611,7 +3611,7 @@
       <c r="J42" s="2">
         <v>0</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>0</v>
       </c>
       <c r="L42" s="2">
@@ -3661,7 +3661,7 @@
       <c r="J43" s="2">
         <v>0</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>0</v>
       </c>
       <c r="L43" s="2">
@@ -3711,7 +3711,7 @@
       <c r="J44" s="2">
         <v>0</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>0</v>
       </c>
       <c r="L44" s="2">
@@ -3761,7 +3761,7 @@
       <c r="J45" s="2">
         <v>0</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>0</v>
       </c>
       <c r="L45" s="2">
@@ -3811,7 +3811,7 @@
       <c r="J46" s="2">
         <v>0</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>0</v>
       </c>
       <c r="L46" s="2">
@@ -3861,7 +3861,7 @@
       <c r="J47" s="2">
         <v>0</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1">
         <v>0</v>
       </c>
       <c r="L47" s="2">
@@ -3911,7 +3911,7 @@
       <c r="J48" s="2">
         <v>0</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1">
         <v>0</v>
       </c>
       <c r="L48" s="2">
@@ -3961,7 +3961,7 @@
       <c r="J49" s="2">
         <v>0</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>0</v>
       </c>
       <c r="L49" s="2">
@@ -4011,7 +4011,7 @@
       <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>0</v>
       </c>
       <c r="L50" s="2" t="s">
@@ -4061,7 +4061,7 @@
       <c r="J51" s="2">
         <v>0</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>0</v>
       </c>
       <c r="L51" s="2">
@@ -4111,7 +4111,7 @@
       <c r="J52" s="2">
         <v>0</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>0</v>
       </c>
       <c r="L52" s="2">
@@ -4161,7 +4161,7 @@
       <c r="J53" s="2">
         <v>0</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="1">
         <v>0</v>
       </c>
       <c r="L53" s="2">
@@ -4211,7 +4211,7 @@
       <c r="J54" s="2">
         <v>0</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="1">
         <v>0</v>
       </c>
       <c r="L54" s="2">
@@ -4261,7 +4261,7 @@
       <c r="J55" s="2">
         <v>0</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="1">
         <v>0</v>
       </c>
       <c r="L55" s="2">
@@ -4311,7 +4311,7 @@
       <c r="J56" s="2">
         <v>0</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="1">
         <v>0</v>
       </c>
       <c r="L56" s="2">
@@ -4361,7 +4361,7 @@
       <c r="J57" s="2">
         <v>0</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="1">
         <v>0</v>
       </c>
       <c r="L57" s="2">
@@ -4411,7 +4411,7 @@
       <c r="J58" s="2">
         <v>0</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="1">
         <v>0</v>
       </c>
       <c r="L58" s="2">
@@ -4461,7 +4461,7 @@
       <c r="J59" s="2">
         <v>0</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="1">
         <v>0</v>
       </c>
       <c r="L59" s="2" t="s">
@@ -4511,7 +4511,7 @@
       <c r="J60" s="2">
         <v>0</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="1">
         <v>0</v>
       </c>
       <c r="L60" s="2">
@@ -4561,7 +4561,7 @@
       <c r="J61" s="2">
         <v>0</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="1">
         <v>0</v>
       </c>
       <c r="L61" s="2">
@@ -4611,7 +4611,7 @@
       <c r="J62" s="2">
         <v>0</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="1">
         <v>0</v>
       </c>
       <c r="L62" s="2">
@@ -4661,7 +4661,7 @@
       <c r="J63" s="2">
         <v>0</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="1">
         <v>0</v>
       </c>
       <c r="L63" s="2">
@@ -4709,9 +4709,9 @@
         <v>1</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
-      </c>
-      <c r="K64" s="2">
+        <v>1</v>
+      </c>
+      <c r="K64" s="1">
         <v>0</v>
       </c>
       <c r="L64" s="2">
@@ -4761,7 +4761,7 @@
       <c r="J65" s="2">
         <v>0</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="1">
         <v>0</v>
       </c>
       <c r="L65" s="2">
@@ -4811,7 +4811,7 @@
       <c r="J66" s="2">
         <v>0</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="1">
         <v>0</v>
       </c>
       <c r="L66" s="2">
@@ -4861,7 +4861,7 @@
       <c r="J67" s="2">
         <v>0</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="1">
         <v>0</v>
       </c>
       <c r="L67" s="2" t="s">
@@ -4911,7 +4911,7 @@
       <c r="J68" s="2">
         <v>0</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="1">
         <v>0</v>
       </c>
       <c r="L68" s="2">
@@ -4961,7 +4961,7 @@
       <c r="J69" s="2">
         <v>0</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="1">
         <v>0</v>
       </c>
       <c r="L69" s="2">
@@ -5011,7 +5011,7 @@
       <c r="J70" s="2">
         <v>0</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="1">
         <v>0</v>
       </c>
       <c r="L70" s="2">
@@ -5061,7 +5061,7 @@
       <c r="J71" s="2">
         <v>0</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="1">
         <v>0</v>
       </c>
       <c r="L71" s="2">
@@ -5111,7 +5111,7 @@
       <c r="J72" s="2">
         <v>0</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="1">
         <v>0</v>
       </c>
       <c r="L72" s="2">
@@ -5161,7 +5161,7 @@
       <c r="J73" s="2">
         <v>0</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="1">
         <v>0</v>
       </c>
       <c r="L73" s="2">
@@ -5211,7 +5211,7 @@
       <c r="J74" s="2">
         <v>0</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="1">
         <v>0</v>
       </c>
       <c r="L74" s="2">
@@ -5261,7 +5261,7 @@
       <c r="J75" s="2">
         <v>0</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="1">
         <v>0</v>
       </c>
       <c r="L75" s="2" t="s">
@@ -5311,7 +5311,7 @@
       <c r="J76" s="2">
         <v>0</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="1">
         <v>0</v>
       </c>
       <c r="L76" s="2">
@@ -5361,7 +5361,7 @@
       <c r="J77" s="2">
         <v>0</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="1">
         <v>0</v>
       </c>
       <c r="L77" s="2">
@@ -5409,9 +5409,9 @@
         <v>1</v>
       </c>
       <c r="J78" s="2">
-        <v>0</v>
-      </c>
-      <c r="K78" s="2">
+        <v>1</v>
+      </c>
+      <c r="K78" s="1">
         <v>0</v>
       </c>
       <c r="L78" s="2">
@@ -5459,9 +5459,9 @@
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <v>0</v>
-      </c>
-      <c r="K79" s="2">
+        <v>1</v>
+      </c>
+      <c r="K79" s="1">
         <v>0</v>
       </c>
       <c r="L79" s="2" t="s">
@@ -5511,7 +5511,7 @@
       <c r="J80" s="2">
         <v>0</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="1">
         <v>0</v>
       </c>
       <c r="L80" s="2">
@@ -5561,7 +5561,7 @@
       <c r="J81" s="2">
         <v>0</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="1">
         <v>0</v>
       </c>
       <c r="L81" s="2">
@@ -5611,7 +5611,7 @@
       <c r="J82" s="2">
         <v>0</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="1">
         <v>0</v>
       </c>
       <c r="L82" s="2">
@@ -5661,7 +5661,7 @@
       <c r="J83" s="2">
         <v>0</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="1">
         <v>0</v>
       </c>
       <c r="L83" s="2">
@@ -5711,7 +5711,7 @@
       <c r="J84" s="2">
         <v>0</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="1">
         <v>0</v>
       </c>
       <c r="L84" s="2">
@@ -5761,7 +5761,7 @@
       <c r="J85" s="2">
         <v>0</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="1">
         <v>0</v>
       </c>
       <c r="L85" s="2">
@@ -5811,7 +5811,7 @@
       <c r="J86" s="2">
         <v>0</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="1">
         <v>0</v>
       </c>
       <c r="L86" s="2">
@@ -5859,9 +5859,9 @@
         <v>0</v>
       </c>
       <c r="J87" s="2">
-        <v>0</v>
-      </c>
-      <c r="K87" s="2">
+        <v>1</v>
+      </c>
+      <c r="K87" s="1">
         <v>0</v>
       </c>
       <c r="L87" s="2">
@@ -5911,7 +5911,7 @@
       <c r="J88" s="2">
         <v>0</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="1">
         <v>0</v>
       </c>
       <c r="L88" s="2">
@@ -5961,7 +5961,7 @@
       <c r="J89" s="2">
         <v>0</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="1">
         <v>0</v>
       </c>
       <c r="L89" s="2">
@@ -6011,7 +6011,7 @@
       <c r="J90" s="2">
         <v>0</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="1">
         <v>0</v>
       </c>
       <c r="L90" s="2" t="s">
@@ -6061,7 +6061,7 @@
       <c r="J91" s="2">
         <v>0</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="1">
         <v>0</v>
       </c>
       <c r="L91" s="2">
@@ -6111,7 +6111,7 @@
       <c r="J92" s="2">
         <v>0</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="1">
         <v>0</v>
       </c>
       <c r="L92" s="2">
@@ -6161,7 +6161,7 @@
       <c r="J93" s="2">
         <v>0</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="1">
         <v>0</v>
       </c>
       <c r="L93" s="2">
@@ -6211,7 +6211,7 @@
       <c r="J94" s="2">
         <v>0</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="1">
         <v>0</v>
       </c>
       <c r="L94" s="2">
@@ -6261,7 +6261,7 @@
       <c r="J95" s="2">
         <v>0</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95" s="1">
         <v>0</v>
       </c>
       <c r="L95" s="2">
@@ -6311,7 +6311,7 @@
       <c r="J96" s="2">
         <v>0</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96" s="1">
         <v>0</v>
       </c>
       <c r="L96" s="2">
@@ -6361,7 +6361,7 @@
       <c r="J97" s="2">
         <v>0</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97" s="1">
         <v>0</v>
       </c>
       <c r="L97" s="2">
@@ -6411,7 +6411,7 @@
       <c r="J98" s="2">
         <v>0</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="1">
         <v>0</v>
       </c>
       <c r="L98" s="2" t="s">
@@ -6461,7 +6461,7 @@
       <c r="J99" s="2">
         <v>0</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="1">
         <v>0</v>
       </c>
       <c r="L99" s="2">
@@ -6511,7 +6511,7 @@
       <c r="J100" s="2">
         <v>0</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="1">
         <v>0</v>
       </c>
       <c r="L100" s="2">
@@ -6561,7 +6561,7 @@
       <c r="J101" s="2">
         <v>0</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="1">
         <v>0</v>
       </c>
       <c r="L101" s="2">
@@ -6609,9 +6609,9 @@
         <v>1</v>
       </c>
       <c r="J102" s="2">
-        <v>0</v>
-      </c>
-      <c r="K102" s="2">
+        <v>1</v>
+      </c>
+      <c r="K102" s="1">
         <v>0</v>
       </c>
       <c r="L102" s="2">
@@ -6661,7 +6661,7 @@
       <c r="J103" s="2">
         <v>0</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="1">
         <v>0</v>
       </c>
       <c r="L103" s="2">
@@ -6711,7 +6711,7 @@
       <c r="J104" s="2">
         <v>0</v>
       </c>
-      <c r="K104" s="2">
+      <c r="K104" s="1">
         <v>0</v>
       </c>
       <c r="L104" s="2">
@@ -6761,7 +6761,7 @@
       <c r="J105" s="2">
         <v>0</v>
       </c>
-      <c r="K105" s="2">
+      <c r="K105" s="1">
         <v>0</v>
       </c>
       <c r="L105" s="2">
@@ -6811,7 +6811,7 @@
       <c r="J106" s="2">
         <v>0</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106" s="1">
         <v>0</v>
       </c>
       <c r="L106" s="2">
@@ -6861,7 +6861,7 @@
       <c r="J107" s="2">
         <v>0</v>
       </c>
-      <c r="K107" s="2">
+      <c r="K107" s="1">
         <v>0</v>
       </c>
       <c r="L107" s="2">
@@ -6911,7 +6911,7 @@
       <c r="J108" s="2">
         <v>0</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108" s="1">
         <v>0</v>
       </c>
       <c r="L108" s="2">
@@ -6961,7 +6961,7 @@
       <c r="J109" s="2">
         <v>0</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="1">
         <v>0</v>
       </c>
       <c r="L109" s="2">
@@ -7011,7 +7011,7 @@
       <c r="J110" s="2">
         <v>0</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="1">
         <v>0</v>
       </c>
       <c r="L110" s="2">
@@ -7061,7 +7061,7 @@
       <c r="J111" s="2">
         <v>0</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="1">
         <v>0</v>
       </c>
       <c r="L111" s="2">
@@ -7111,7 +7111,7 @@
       <c r="J112" s="2">
         <v>0</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="1">
         <v>0</v>
       </c>
       <c r="L112" s="2">
@@ -7161,7 +7161,7 @@
       <c r="J113" s="2">
         <v>0</v>
       </c>
-      <c r="K113" s="2">
+      <c r="K113" s="1">
         <v>0</v>
       </c>
       <c r="L113" s="2">
@@ -7211,7 +7211,7 @@
       <c r="J114" s="2">
         <v>0</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="1">
         <v>0</v>
       </c>
       <c r="L114" s="2">
@@ -7261,7 +7261,7 @@
       <c r="J115" s="2">
         <v>0</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="1">
         <v>0</v>
       </c>
       <c r="L115" s="2">
@@ -7311,7 +7311,7 @@
       <c r="J116" s="2">
         <v>0</v>
       </c>
-      <c r="K116" s="2">
+      <c r="K116" s="1">
         <v>0</v>
       </c>
       <c r="L116" s="2" t="s">
@@ -7361,7 +7361,7 @@
       <c r="J117" s="2">
         <v>0</v>
       </c>
-      <c r="K117" s="2">
+      <c r="K117" s="1">
         <v>0</v>
       </c>
       <c r="L117" s="2">
@@ -7411,7 +7411,7 @@
       <c r="J118" s="2">
         <v>0</v>
       </c>
-      <c r="K118" s="2">
+      <c r="K118" s="1">
         <v>0</v>
       </c>
       <c r="L118" s="2">
@@ -7461,7 +7461,7 @@
       <c r="J119" s="2">
         <v>0</v>
       </c>
-      <c r="K119" s="2">
+      <c r="K119" s="1">
         <v>0</v>
       </c>
       <c r="L119" s="2">
@@ -7511,7 +7511,7 @@
       <c r="J120" s="2">
         <v>0</v>
       </c>
-      <c r="K120" s="2">
+      <c r="K120" s="1">
         <v>0</v>
       </c>
       <c r="L120" s="2">
@@ -7561,7 +7561,7 @@
       <c r="J121" s="2">
         <v>0</v>
       </c>
-      <c r="K121" s="2">
+      <c r="K121" s="1">
         <v>0</v>
       </c>
       <c r="L121" s="2">
@@ -7611,7 +7611,7 @@
       <c r="J122" s="2">
         <v>0</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122" s="1">
         <v>0</v>
       </c>
       <c r="L122" s="2">
@@ -7661,7 +7661,7 @@
       <c r="J123" s="2">
         <v>0</v>
       </c>
-      <c r="K123" s="2">
+      <c r="K123" s="1">
         <v>0</v>
       </c>
       <c r="L123" s="2">
@@ -7711,7 +7711,7 @@
       <c r="J124" s="2">
         <v>0</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124" s="1">
         <v>0</v>
       </c>
       <c r="L124" s="2">
@@ -7761,7 +7761,7 @@
       <c r="J125" s="2">
         <v>0</v>
       </c>
-      <c r="K125" s="2">
+      <c r="K125" s="1">
         <v>0</v>
       </c>
       <c r="L125" s="2" t="s">
@@ -7811,7 +7811,7 @@
       <c r="J126" s="2">
         <v>0</v>
       </c>
-      <c r="K126" s="2">
+      <c r="K126" s="1">
         <v>0</v>
       </c>
       <c r="L126" s="2">
@@ -7861,7 +7861,7 @@
       <c r="J127" s="2">
         <v>0</v>
       </c>
-      <c r="K127" s="2">
+      <c r="K127" s="1">
         <v>0</v>
       </c>
       <c r="L127" s="2">
@@ -7911,7 +7911,7 @@
       <c r="J128" s="2">
         <v>0</v>
       </c>
-      <c r="K128" s="2">
+      <c r="K128" s="1">
         <v>0</v>
       </c>
       <c r="L128" s="2">
@@ -7961,7 +7961,7 @@
       <c r="J129" s="2">
         <v>0</v>
       </c>
-      <c r="K129" s="2">
+      <c r="K129" s="1">
         <v>0</v>
       </c>
       <c r="L129" s="2">
@@ -8011,7 +8011,7 @@
       <c r="J130" s="2">
         <v>0</v>
       </c>
-      <c r="K130" s="2">
+      <c r="K130" s="1">
         <v>0</v>
       </c>
       <c r="L130" s="2">
@@ -8061,7 +8061,7 @@
       <c r="J131" s="2">
         <v>0</v>
       </c>
-      <c r="K131" s="2">
+      <c r="K131" s="1">
         <v>0</v>
       </c>
       <c r="L131" s="2">
@@ -8111,7 +8111,7 @@
       <c r="J132" s="2">
         <v>0</v>
       </c>
-      <c r="K132" s="2">
+      <c r="K132" s="1">
         <v>0</v>
       </c>
       <c r="L132" s="2">
@@ -8161,7 +8161,7 @@
       <c r="J133" s="2">
         <v>0</v>
       </c>
-      <c r="K133" s="2">
+      <c r="K133" s="1">
         <v>0</v>
       </c>
       <c r="L133" s="2">
@@ -8211,7 +8211,7 @@
       <c r="J134" s="2">
         <v>0</v>
       </c>
-      <c r="K134" s="2">
+      <c r="K134" s="1">
         <v>0</v>
       </c>
       <c r="L134" s="2" t="s">
@@ -8261,7 +8261,7 @@
       <c r="J135" s="2">
         <v>0</v>
       </c>
-      <c r="K135" s="2">
+      <c r="K135" s="1">
         <v>0</v>
       </c>
       <c r="L135" s="2">
@@ -8311,7 +8311,7 @@
       <c r="J136" s="2">
         <v>0</v>
       </c>
-      <c r="K136" s="2">
+      <c r="K136" s="1">
         <v>0</v>
       </c>
       <c r="L136" s="2">
@@ -8361,7 +8361,7 @@
       <c r="J137" s="2">
         <v>0</v>
       </c>
-      <c r="K137" s="2">
+      <c r="K137" s="1">
         <v>0</v>
       </c>
       <c r="L137" s="2">
@@ -8411,7 +8411,7 @@
       <c r="J138" s="2">
         <v>0</v>
       </c>
-      <c r="K138" s="2">
+      <c r="K138" s="1">
         <v>0</v>
       </c>
       <c r="L138" s="2">
@@ -8461,7 +8461,7 @@
       <c r="J139" s="2">
         <v>0</v>
       </c>
-      <c r="K139" s="2">
+      <c r="K139" s="1">
         <v>0</v>
       </c>
       <c r="L139" s="2">
@@ -8511,7 +8511,7 @@
       <c r="J140" s="2">
         <v>0</v>
       </c>
-      <c r="K140" s="2">
+      <c r="K140" s="1">
         <v>0</v>
       </c>
       <c r="L140" s="2">
@@ -8561,7 +8561,7 @@
       <c r="J141" s="2">
         <v>0</v>
       </c>
-      <c r="K141" s="2">
+      <c r="K141" s="1">
         <v>0</v>
       </c>
       <c r="L141" s="2">
@@ -8611,7 +8611,7 @@
       <c r="J142" s="2">
         <v>0</v>
       </c>
-      <c r="K142" s="2">
+      <c r="K142" s="1">
         <v>0</v>
       </c>
       <c r="L142" s="2">
@@ -8661,7 +8661,7 @@
       <c r="J143" s="2">
         <v>0</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K143" s="1">
         <v>0</v>
       </c>
       <c r="L143" s="2" t="s">
@@ -8711,7 +8711,7 @@
       <c r="J144" s="2">
         <v>0</v>
       </c>
-      <c r="K144" s="2">
+      <c r="K144" s="1">
         <v>0</v>
       </c>
       <c r="L144" s="2">
@@ -8761,7 +8761,7 @@
       <c r="J145" s="2">
         <v>0</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K145" s="1">
         <v>0</v>
       </c>
       <c r="L145" s="2">
@@ -8811,7 +8811,7 @@
       <c r="J146" s="2">
         <v>0</v>
       </c>
-      <c r="K146" s="2">
+      <c r="K146" s="1">
         <v>0</v>
       </c>
       <c r="L146" s="2">
@@ -8861,7 +8861,7 @@
       <c r="J147" s="2">
         <v>0</v>
       </c>
-      <c r="K147" s="2">
+      <c r="K147" s="1">
         <v>0</v>
       </c>
       <c r="L147" s="2">
@@ -8911,7 +8911,7 @@
       <c r="J148" s="2">
         <v>0</v>
       </c>
-      <c r="K148" s="2">
+      <c r="K148" s="1">
         <v>0</v>
       </c>
       <c r="L148" s="2">
@@ -8961,7 +8961,7 @@
       <c r="J149" s="2">
         <v>0</v>
       </c>
-      <c r="K149" s="2">
+      <c r="K149" s="1">
         <v>0</v>
       </c>
       <c r="L149" s="2">
@@ -9011,7 +9011,7 @@
       <c r="J150" s="2">
         <v>0</v>
       </c>
-      <c r="K150" s="2">
+      <c r="K150" s="1">
         <v>0</v>
       </c>
       <c r="L150" s="2">
@@ -9061,7 +9061,7 @@
       <c r="J151" s="2">
         <v>0</v>
       </c>
-      <c r="K151" s="2">
+      <c r="K151" s="1">
         <v>0</v>
       </c>
       <c r="L151" s="2">
@@ -9109,9 +9109,9 @@
         <v>1</v>
       </c>
       <c r="J152" s="2">
-        <v>0</v>
-      </c>
-      <c r="K152" s="2">
+        <v>1</v>
+      </c>
+      <c r="K152" s="1">
         <v>0</v>
       </c>
       <c r="L152" s="2">
@@ -9161,7 +9161,7 @@
       <c r="J153" s="2">
         <v>0</v>
       </c>
-      <c r="K153" s="2">
+      <c r="K153" s="1">
         <v>0</v>
       </c>
       <c r="L153" s="2">
@@ -9209,9 +9209,9 @@
         <v>1</v>
       </c>
       <c r="J154" s="2">
-        <v>0</v>
-      </c>
-      <c r="K154" s="2">
+        <v>1</v>
+      </c>
+      <c r="K154" s="1">
         <v>0</v>
       </c>
       <c r="L154" s="2">
@@ -14416,8 +14416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="K160" sqref="K160"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14455,7 +14455,7 @@
         <v>-1</v>
       </c>
       <c r="J1" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1" s="2">
         <v>0</v>
@@ -14467,7 +14467,7 @@
         <v>56</v>
       </c>
       <c r="N1" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O1" s="9">
         <v>0</v>
@@ -14517,7 +14517,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="9">
         <v>0</v>
@@ -14567,7 +14567,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" s="9">
         <v>0</v>
@@ -14817,7 +14817,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" s="9">
         <v>0</v>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" s="9">
         <v>0</v>
@@ -14917,7 +14917,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O10" s="9">
         <v>0</v>
@@ -15055,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="2">
         <v>0</v>
@@ -15167,7 +15167,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" s="9">
         <v>0</v>
@@ -15217,7 +15217,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O16" s="9">
         <v>0</v>
@@ -15267,7 +15267,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" s="9">
         <v>0</v>
@@ -15307,7 +15307,7 @@
       <c r="J18" s="2">
         <v>0</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="1">
         <v>0</v>
       </c>
       <c r="L18" s="2">
@@ -15357,7 +15357,7 @@
       <c r="J19" s="2">
         <v>0</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="1">
         <v>1</v>
       </c>
       <c r="L19" s="2">
@@ -15407,7 +15407,7 @@
       <c r="J20" s="2">
         <v>0</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="1">
         <v>0</v>
       </c>
       <c r="L20" s="2">
@@ -15457,7 +15457,7 @@
       <c r="J21" s="2">
         <v>0</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="1">
         <v>0</v>
       </c>
       <c r="L21" s="2">
@@ -15467,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O21" s="9">
         <v>0</v>
@@ -15507,7 +15507,7 @@
       <c r="J22" s="2">
         <v>0</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="1">
         <v>0</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -15517,7 +15517,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O22" s="9">
         <v>0</v>
@@ -15557,7 +15557,7 @@
       <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>0</v>
       </c>
       <c r="L23" s="2">
@@ -15567,7 +15567,7 @@
         <v>0</v>
       </c>
       <c r="N23" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O23" s="9">
         <v>0</v>
@@ -15607,7 +15607,7 @@
       <c r="J24" s="2">
         <v>0</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="1">
         <v>0</v>
       </c>
       <c r="L24" s="2">
@@ -15657,7 +15657,7 @@
       <c r="J25" s="2">
         <v>0</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="1">
         <v>0</v>
       </c>
       <c r="L25" s="2">
@@ -15707,7 +15707,7 @@
       <c r="J26" s="2">
         <v>0</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="1">
         <v>0</v>
       </c>
       <c r="L26" s="2">
@@ -15757,7 +15757,7 @@
       <c r="J27" s="2">
         <v>0</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="1">
         <v>0</v>
       </c>
       <c r="L27" s="2">
@@ -15805,9 +15805,9 @@
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
-      </c>
-      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1">
         <v>0</v>
       </c>
       <c r="L28" s="2">
@@ -15857,7 +15857,7 @@
       <c r="J29" s="2">
         <v>0</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="1">
         <v>0</v>
       </c>
       <c r="L29" s="2">
@@ -15907,7 +15907,7 @@
       <c r="J30" s="2">
         <v>0</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="1">
         <v>0</v>
       </c>
       <c r="L30" s="2">
@@ -15917,7 +15917,7 @@
         <v>0</v>
       </c>
       <c r="N30" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O30" s="9">
         <v>0</v>
@@ -15957,7 +15957,7 @@
       <c r="J31" s="2">
         <v>0</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="1">
         <v>0</v>
       </c>
       <c r="L31" s="2" t="s">
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="N31" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O31" s="9">
         <v>0</v>
@@ -16007,7 +16007,7 @@
       <c r="J32" s="2">
         <v>0</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="1">
         <v>0</v>
       </c>
       <c r="L32" s="2">
@@ -16017,7 +16017,7 @@
         <v>0</v>
       </c>
       <c r="N32" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O32" s="9">
         <v>0</v>
@@ -16057,7 +16057,7 @@
       <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="1">
         <v>0</v>
       </c>
       <c r="L33" s="2">
@@ -16107,7 +16107,7 @@
       <c r="J34" s="2">
         <v>0</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="1">
         <v>0</v>
       </c>
       <c r="L34" s="2">
@@ -16157,7 +16157,7 @@
       <c r="J35" s="2">
         <v>0</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="1">
         <v>0</v>
       </c>
       <c r="L35" s="2">
@@ -16207,7 +16207,7 @@
       <c r="J36" s="2">
         <v>0</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="1">
         <v>0</v>
       </c>
       <c r="L36" s="2">
@@ -16257,7 +16257,7 @@
       <c r="J37" s="2">
         <v>0</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="1">
         <v>0</v>
       </c>
       <c r="L37" s="2">
@@ -16307,7 +16307,7 @@
       <c r="J38" s="2">
         <v>0</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="1">
         <v>0</v>
       </c>
       <c r="L38" s="2">
@@ -16317,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="N38" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O38" s="9">
         <v>1</v>
@@ -16357,7 +16357,7 @@
       <c r="J39" s="2">
         <v>0</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="1">
         <v>0</v>
       </c>
       <c r="L39" s="2" t="s">
@@ -16367,7 +16367,7 @@
         <v>0</v>
       </c>
       <c r="N39" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="O39" s="9">
         <v>1</v>
@@ -16407,7 +16407,7 @@
       <c r="J40" s="2">
         <v>0</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="1">
         <v>0</v>
       </c>
       <c r="L40" s="2">
@@ -16417,7 +16417,7 @@
         <v>0</v>
       </c>
       <c r="N40" s="2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O40" s="9">
         <v>1</v>
@@ -16457,7 +16457,7 @@
       <c r="J41" s="2">
         <v>0</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="1">
         <v>0</v>
       </c>
       <c r="L41" s="2">
@@ -16507,7 +16507,7 @@
       <c r="J42" s="2">
         <v>0</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="1">
         <v>0</v>
       </c>
       <c r="L42" s="2">
@@ -16557,7 +16557,7 @@
       <c r="J43" s="2">
         <v>0</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="1">
         <v>0</v>
       </c>
       <c r="L43" s="2">
@@ -16607,7 +16607,7 @@
       <c r="J44" s="2">
         <v>0</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="1">
         <v>0</v>
       </c>
       <c r="L44" s="2">
@@ -16657,7 +16657,7 @@
       <c r="J45" s="2">
         <v>0</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="1">
         <v>0</v>
       </c>
       <c r="L45" s="2">
@@ -16707,7 +16707,7 @@
       <c r="J46" s="2">
         <v>0</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="1">
         <v>0</v>
       </c>
       <c r="L46" s="2">
@@ -16757,7 +16757,7 @@
       <c r="J47" s="2">
         <v>0</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="1">
         <v>0</v>
       </c>
       <c r="L47" s="2">
@@ -16767,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O47" s="9">
         <v>1</v>
@@ -16807,7 +16807,7 @@
       <c r="J48" s="2">
         <v>0</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="1">
         <v>0</v>
       </c>
       <c r="L48" s="2" t="s">
@@ -16817,7 +16817,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O48" s="9">
         <v>1</v>
@@ -16857,7 +16857,7 @@
       <c r="J49" s="2">
         <v>0</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="1">
         <v>0</v>
       </c>
       <c r="L49" s="2">
@@ -16867,7 +16867,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O49" s="9">
         <v>1</v>
@@ -16907,7 +16907,7 @@
       <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="1">
         <v>0</v>
       </c>
       <c r="L50" s="2">
@@ -16957,7 +16957,7 @@
       <c r="J51" s="2">
         <v>0</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="1">
         <v>0</v>
       </c>
       <c r="L51" s="2">
@@ -17007,7 +17007,7 @@
       <c r="J52" s="2">
         <v>0</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="1">
         <v>0</v>
       </c>
       <c r="L52" s="2">
@@ -17057,7 +17057,7 @@
       <c r="J53" s="2">
         <v>0</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="1">
         <v>0</v>
       </c>
       <c r="L53" s="2">
@@ -17107,7 +17107,7 @@
       <c r="J54" s="2">
         <v>0</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="1">
         <v>0</v>
       </c>
       <c r="L54" s="2">
@@ -17157,7 +17157,7 @@
       <c r="J55" s="2">
         <v>0</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="1">
         <v>0</v>
       </c>
       <c r="L55" s="2">
@@ -17207,7 +17207,7 @@
       <c r="J56" s="2">
         <v>0</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="1">
         <v>0</v>
       </c>
       <c r="L56" s="2">
@@ -17217,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="N56" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O56" s="9">
         <v>1</v>
@@ -17257,7 +17257,7 @@
       <c r="J57" s="2">
         <v>0</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="1">
         <v>0</v>
       </c>
       <c r="L57" s="2" t="s">
@@ -17267,7 +17267,7 @@
         <v>49</v>
       </c>
       <c r="N57" s="2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O57" s="9">
         <v>1</v>
@@ -17307,7 +17307,7 @@
       <c r="J58" s="2">
         <v>0</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="1">
         <v>0</v>
       </c>
       <c r="L58" s="2">
@@ -17317,7 +17317,7 @@
         <v>43</v>
       </c>
       <c r="N58" s="2">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O58" s="9">
         <v>0</v>
@@ -17357,7 +17357,7 @@
       <c r="J59" s="2">
         <v>0</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="1">
         <v>0</v>
       </c>
       <c r="L59" s="2">
@@ -17407,7 +17407,7 @@
       <c r="J60" s="2">
         <v>0</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="1">
         <v>0</v>
       </c>
       <c r="L60" s="2">
@@ -17457,7 +17457,7 @@
       <c r="J61" s="2">
         <v>0</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="1">
         <v>0</v>
       </c>
       <c r="L61" s="2">
@@ -17505,9 +17505,9 @@
         <v>1</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
-      </c>
-      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+      <c r="K62" s="1">
         <v>0</v>
       </c>
       <c r="L62" s="2">
@@ -17557,7 +17557,7 @@
       <c r="J63" s="2">
         <v>0</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="1">
         <v>0</v>
       </c>
       <c r="L63" s="2">
@@ -17607,7 +17607,7 @@
       <c r="J64" s="2">
         <v>0</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="1">
         <v>0</v>
       </c>
       <c r="L64" s="2">
@@ -17617,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="N64" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O64" s="9">
         <v>0</v>
@@ -17657,7 +17657,7 @@
       <c r="J65" s="2">
         <v>0</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="1">
         <v>0</v>
       </c>
       <c r="L65" s="2" t="s">
@@ -17667,7 +17667,7 @@
         <v>0</v>
       </c>
       <c r="N65" s="2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="O65" s="9">
         <v>0</v>
@@ -17707,7 +17707,7 @@
       <c r="J66" s="2">
         <v>0</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="1">
         <v>0</v>
       </c>
       <c r="L66" s="2">
@@ -17717,7 +17717,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="2">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="O66" s="9">
         <v>0</v>
@@ -17757,7 +17757,7 @@
       <c r="J67" s="2">
         <v>0</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="1">
         <v>0</v>
       </c>
       <c r="L67" s="2">
@@ -17807,7 +17807,7 @@
       <c r="J68" s="2">
         <v>0</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="1">
         <v>0</v>
       </c>
       <c r="L68" s="2">
@@ -17857,7 +17857,7 @@
       <c r="J69" s="2">
         <v>0</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="1">
         <v>0</v>
       </c>
       <c r="L69" s="2">
@@ -17907,7 +17907,7 @@
       <c r="J70" s="2">
         <v>0</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="1">
         <v>0</v>
       </c>
       <c r="L70" s="2">
@@ -17957,7 +17957,7 @@
       <c r="J71" s="2">
         <v>0</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="1">
         <v>0</v>
       </c>
       <c r="L71" s="2">
@@ -18007,7 +18007,7 @@
       <c r="J72" s="2">
         <v>0</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="1">
         <v>0</v>
       </c>
       <c r="L72" s="2">
@@ -18017,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="N72" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O72" s="9">
         <v>0</v>
@@ -18057,7 +18057,7 @@
       <c r="J73" s="2">
         <v>0</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="1">
         <v>0</v>
       </c>
       <c r="L73" s="2" t="s">
@@ -18067,7 +18067,7 @@
         <v>0</v>
       </c>
       <c r="N73" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="O73" s="9">
         <v>0</v>
@@ -18107,7 +18107,7 @@
       <c r="J74" s="2">
         <v>0</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="1">
         <v>0</v>
       </c>
       <c r="L74" s="2">
@@ -18117,7 +18117,7 @@
         <v>0</v>
       </c>
       <c r="N74" s="2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O74" s="9">
         <v>0</v>
@@ -18157,7 +18157,7 @@
       <c r="J75" s="2">
         <v>0</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="1">
         <v>0</v>
       </c>
       <c r="L75" s="2">
@@ -18205,9 +18205,9 @@
         <v>1</v>
       </c>
       <c r="J76" s="2">
-        <v>0</v>
-      </c>
-      <c r="K76" s="2">
+        <v>1</v>
+      </c>
+      <c r="K76" s="1">
         <v>0</v>
       </c>
       <c r="L76" s="2">
@@ -18217,7 +18217,7 @@
         <v>45</v>
       </c>
       <c r="N76" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O76" s="9">
         <v>0</v>
@@ -18255,9 +18255,9 @@
         <v>0</v>
       </c>
       <c r="J77" s="2">
-        <v>0</v>
-      </c>
-      <c r="K77" s="2">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
         <v>0</v>
       </c>
       <c r="L77" s="2" t="s">
@@ -18267,7 +18267,7 @@
         <v>51</v>
       </c>
       <c r="N77" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="O77" s="9">
         <v>0</v>
@@ -18307,7 +18307,7 @@
       <c r="J78" s="2">
         <v>0</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="1">
         <v>0</v>
       </c>
       <c r="L78" s="2">
@@ -18317,7 +18317,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="2">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O78" s="9">
         <v>0</v>
@@ -18357,7 +18357,7 @@
       <c r="J79" s="2">
         <v>0</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="1">
         <v>0</v>
       </c>
       <c r="L79" s="2">
@@ -18407,7 +18407,7 @@
       <c r="J80" s="2">
         <v>0</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="1">
         <v>0</v>
       </c>
       <c r="L80" s="2">
@@ -18457,7 +18457,7 @@
       <c r="J81" s="2">
         <v>0</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="1">
         <v>0</v>
       </c>
       <c r="L81" s="2">
@@ -18507,7 +18507,7 @@
       <c r="J82" s="2">
         <v>0</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="1">
         <v>0</v>
       </c>
       <c r="L82" s="2">
@@ -18557,7 +18557,7 @@
       <c r="J83" s="2">
         <v>0</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="1">
         <v>0</v>
       </c>
       <c r="L83" s="2">
@@ -18607,7 +18607,7 @@
       <c r="J84" s="2">
         <v>0</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="1">
         <v>0</v>
       </c>
       <c r="L84" s="2">
@@ -18655,9 +18655,9 @@
         <v>0</v>
       </c>
       <c r="J85" s="2">
-        <v>0</v>
-      </c>
-      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+      <c r="K85" s="1">
         <v>0</v>
       </c>
       <c r="L85" s="2">
@@ -18707,7 +18707,7 @@
       <c r="J86" s="2">
         <v>0</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="1">
         <v>0</v>
       </c>
       <c r="L86" s="2">
@@ -18757,7 +18757,7 @@
       <c r="J87" s="2">
         <v>0</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="1">
         <v>0</v>
       </c>
       <c r="L87" s="2">
@@ -18767,7 +18767,7 @@
         <v>0</v>
       </c>
       <c r="N87" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O87" s="9">
         <v>0</v>
@@ -18807,7 +18807,7 @@
       <c r="J88" s="2">
         <v>0</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="1">
         <v>0</v>
       </c>
       <c r="L88" s="2" t="s">
@@ -18817,7 +18817,7 @@
         <v>0</v>
       </c>
       <c r="N88" s="2">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="O88" s="9">
         <v>0</v>
@@ -18857,7 +18857,7 @@
       <c r="J89" s="2">
         <v>0</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="1">
         <v>0</v>
       </c>
       <c r="L89" s="2">
@@ -18867,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="N89" s="2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="O89" s="9">
         <v>0</v>
@@ -18907,7 +18907,7 @@
       <c r="J90" s="2">
         <v>0</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="1">
         <v>0</v>
       </c>
       <c r="L90" s="2">
@@ -18957,7 +18957,7 @@
       <c r="J91" s="2">
         <v>0</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="1">
         <v>0</v>
       </c>
       <c r="L91" s="2">
@@ -19007,7 +19007,7 @@
       <c r="J92" s="2">
         <v>0</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="1">
         <v>0</v>
       </c>
       <c r="L92" s="2">
@@ -19057,7 +19057,7 @@
       <c r="J93" s="2">
         <v>0</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="1">
         <v>0</v>
       </c>
       <c r="L93" s="2">
@@ -19107,7 +19107,7 @@
       <c r="J94" s="2">
         <v>0</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="1">
         <v>0</v>
       </c>
       <c r="L94" s="2">
@@ -19157,7 +19157,7 @@
       <c r="J95" s="2">
         <v>0</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95" s="1">
         <v>0</v>
       </c>
       <c r="L95" s="2">
@@ -19167,7 +19167,7 @@
         <v>0</v>
       </c>
       <c r="N95" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O95" s="9">
         <v>0</v>
@@ -19207,7 +19207,7 @@
       <c r="J96" s="2">
         <v>0</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96" s="1">
         <v>0</v>
       </c>
       <c r="L96" s="2" t="s">
@@ -19217,7 +19217,7 @@
         <v>0</v>
       </c>
       <c r="N96" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="O96" s="9">
         <v>0</v>
@@ -19257,7 +19257,7 @@
       <c r="J97" s="2">
         <v>0</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97" s="1">
         <v>0</v>
       </c>
       <c r="L97" s="2">
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="N97" s="2">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O97" s="9">
         <v>0</v>
@@ -19307,7 +19307,7 @@
       <c r="J98" s="2">
         <v>0</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="1">
         <v>0</v>
       </c>
       <c r="L98" s="2">
@@ -19357,7 +19357,7 @@
       <c r="J99" s="2">
         <v>0</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="1">
         <v>0</v>
       </c>
       <c r="L99" s="2">
@@ -19405,9 +19405,9 @@
         <v>1</v>
       </c>
       <c r="J100" s="2">
-        <v>0</v>
-      </c>
-      <c r="K100" s="2">
+        <v>1</v>
+      </c>
+      <c r="K100" s="1">
         <v>0</v>
       </c>
       <c r="L100" s="2">
@@ -19457,7 +19457,7 @@
       <c r="J101" s="2">
         <v>0</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="1">
         <v>0</v>
       </c>
       <c r="L101" s="2">
@@ -19507,7 +19507,7 @@
       <c r="J102" s="2">
         <v>0</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="1">
         <v>0</v>
       </c>
       <c r="L102" s="2">
@@ -19557,7 +19557,7 @@
       <c r="J103" s="2">
         <v>0</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="1">
         <v>0</v>
       </c>
       <c r="L103" s="2">
@@ -19607,7 +19607,7 @@
       <c r="J104" s="2">
         <v>0</v>
       </c>
-      <c r="K104" s="2">
+      <c r="K104" s="1">
         <v>0</v>
       </c>
       <c r="L104" s="2">
@@ -19657,7 +19657,7 @@
       <c r="J105" s="2">
         <v>0</v>
       </c>
-      <c r="K105" s="2">
+      <c r="K105" s="1">
         <v>0</v>
       </c>
       <c r="L105" s="2">
@@ -19707,7 +19707,7 @@
       <c r="J106" s="2">
         <v>0</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106" s="1">
         <v>0</v>
       </c>
       <c r="L106" s="2">
@@ -19757,7 +19757,7 @@
       <c r="J107" s="2">
         <v>0</v>
       </c>
-      <c r="K107" s="2">
+      <c r="K107" s="1">
         <v>0</v>
       </c>
       <c r="L107" s="2">
@@ -19807,7 +19807,7 @@
       <c r="J108" s="2">
         <v>0</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108" s="1">
         <v>0</v>
       </c>
       <c r="L108" s="2">
@@ -19857,7 +19857,7 @@
       <c r="J109" s="2">
         <v>0</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="1">
         <v>0</v>
       </c>
       <c r="L109" s="2">
@@ -19907,7 +19907,7 @@
       <c r="J110" s="2">
         <v>0</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="1">
         <v>0</v>
       </c>
       <c r="L110" s="2">
@@ -19957,7 +19957,7 @@
       <c r="J111" s="2">
         <v>0</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="1">
         <v>0</v>
       </c>
       <c r="L111" s="2">
@@ -20007,7 +20007,7 @@
       <c r="J112" s="2">
         <v>0</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="1">
         <v>0</v>
       </c>
       <c r="L112" s="2">
@@ -20057,7 +20057,7 @@
       <c r="J113" s="2">
         <v>0</v>
       </c>
-      <c r="K113" s="2">
+      <c r="K113" s="1">
         <v>0</v>
       </c>
       <c r="L113" s="2">
@@ -20067,7 +20067,7 @@
         <v>0</v>
       </c>
       <c r="N113" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O113" s="9">
         <v>0</v>
@@ -20107,7 +20107,7 @@
       <c r="J114" s="2">
         <v>0</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="1">
         <v>0</v>
       </c>
       <c r="L114" s="2" t="s">
@@ -20117,7 +20117,7 @@
         <v>0</v>
       </c>
       <c r="N114" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O114" s="9">
         <v>0</v>
@@ -20157,7 +20157,7 @@
       <c r="J115" s="2">
         <v>0</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="1">
         <v>0</v>
       </c>
       <c r="L115" s="2">
@@ -20167,7 +20167,7 @@
         <v>0</v>
       </c>
       <c r="N115" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O115" s="9">
         <v>0</v>
@@ -20207,7 +20207,7 @@
       <c r="J116" s="2">
         <v>0</v>
       </c>
-      <c r="K116" s="2">
+      <c r="K116" s="1">
         <v>0</v>
       </c>
       <c r="L116" s="2">
@@ -20257,7 +20257,7 @@
       <c r="J117" s="2">
         <v>0</v>
       </c>
-      <c r="K117" s="2">
+      <c r="K117" s="1">
         <v>0</v>
       </c>
       <c r="L117" s="2">
@@ -20307,7 +20307,7 @@
       <c r="J118" s="2">
         <v>0</v>
       </c>
-      <c r="K118" s="2">
+      <c r="K118" s="1">
         <v>0</v>
       </c>
       <c r="L118" s="2">
@@ -20357,7 +20357,7 @@
       <c r="J119" s="2">
         <v>0</v>
       </c>
-      <c r="K119" s="2">
+      <c r="K119" s="1">
         <v>0</v>
       </c>
       <c r="L119" s="2">
@@ -20407,7 +20407,7 @@
       <c r="J120" s="2">
         <v>0</v>
       </c>
-      <c r="K120" s="2">
+      <c r="K120" s="1">
         <v>0</v>
       </c>
       <c r="L120" s="2">
@@ -20457,7 +20457,7 @@
       <c r="J121" s="2">
         <v>0</v>
       </c>
-      <c r="K121" s="2">
+      <c r="K121" s="1">
         <v>0</v>
       </c>
       <c r="L121" s="2">
@@ -20507,7 +20507,7 @@
       <c r="J122" s="2">
         <v>0</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122" s="1">
         <v>0</v>
       </c>
       <c r="L122" s="2">
@@ -20517,7 +20517,7 @@
         <v>0</v>
       </c>
       <c r="N122" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O122" s="9">
         <v>1</v>
@@ -20557,7 +20557,7 @@
       <c r="J123" s="2">
         <v>0</v>
       </c>
-      <c r="K123" s="2">
+      <c r="K123" s="1">
         <v>0</v>
       </c>
       <c r="L123" s="2" t="s">
@@ -20567,7 +20567,7 @@
         <v>0</v>
       </c>
       <c r="N123" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O123" s="9">
         <v>1</v>
@@ -20607,7 +20607,7 @@
       <c r="J124" s="2">
         <v>0</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124" s="1">
         <v>0</v>
       </c>
       <c r="L124" s="2">
@@ -20617,7 +20617,7 @@
         <v>0</v>
       </c>
       <c r="N124" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O124" s="9">
         <v>1</v>
@@ -20657,7 +20657,7 @@
       <c r="J125" s="2">
         <v>0</v>
       </c>
-      <c r="K125" s="2">
+      <c r="K125" s="1">
         <v>0</v>
       </c>
       <c r="L125" s="2">
@@ -20707,7 +20707,7 @@
       <c r="J126" s="2">
         <v>0</v>
       </c>
-      <c r="K126" s="2">
+      <c r="K126" s="1">
         <v>0</v>
       </c>
       <c r="L126" s="2">
@@ -20757,7 +20757,7 @@
       <c r="J127" s="2">
         <v>0</v>
       </c>
-      <c r="K127" s="2">
+      <c r="K127" s="1">
         <v>0</v>
       </c>
       <c r="L127" s="2">
@@ -20807,7 +20807,7 @@
       <c r="J128" s="2">
         <v>0</v>
       </c>
-      <c r="K128" s="2">
+      <c r="K128" s="1">
         <v>0</v>
       </c>
       <c r="L128" s="2">
@@ -20857,7 +20857,7 @@
       <c r="J129" s="2">
         <v>0</v>
       </c>
-      <c r="K129" s="2">
+      <c r="K129" s="1">
         <v>0</v>
       </c>
       <c r="L129" s="2">
@@ -20907,7 +20907,7 @@
       <c r="J130" s="2">
         <v>0</v>
       </c>
-      <c r="K130" s="2">
+      <c r="K130" s="1">
         <v>0</v>
       </c>
       <c r="L130" s="2">
@@ -20957,7 +20957,7 @@
       <c r="J131" s="2">
         <v>0</v>
       </c>
-      <c r="K131" s="2">
+      <c r="K131" s="1">
         <v>0</v>
       </c>
       <c r="L131" s="2">
@@ -20967,7 +20967,7 @@
         <v>0</v>
       </c>
       <c r="N131" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O131" s="9">
         <v>1</v>
@@ -21007,7 +21007,7 @@
       <c r="J132" s="2">
         <v>0</v>
       </c>
-      <c r="K132" s="2">
+      <c r="K132" s="1">
         <v>0</v>
       </c>
       <c r="L132" s="2" t="s">
@@ -21017,7 +21017,7 @@
         <v>0</v>
       </c>
       <c r="N132" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O132" s="9">
         <v>1</v>
@@ -21057,7 +21057,7 @@
       <c r="J133" s="2">
         <v>0</v>
       </c>
-      <c r="K133" s="2">
+      <c r="K133" s="1">
         <v>0</v>
       </c>
       <c r="L133" s="2">
@@ -21067,7 +21067,7 @@
         <v>0</v>
       </c>
       <c r="N133" s="2">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O133" s="9">
         <v>1</v>
@@ -21107,7 +21107,7 @@
       <c r="J134" s="2">
         <v>0</v>
       </c>
-      <c r="K134" s="2">
+      <c r="K134" s="1">
         <v>0</v>
       </c>
       <c r="L134" s="2">
@@ -21157,7 +21157,7 @@
       <c r="J135" s="2">
         <v>0</v>
       </c>
-      <c r="K135" s="2">
+      <c r="K135" s="1">
         <v>0</v>
       </c>
       <c r="L135" s="2">
@@ -21207,7 +21207,7 @@
       <c r="J136" s="2">
         <v>0</v>
       </c>
-      <c r="K136" s="2">
+      <c r="K136" s="1">
         <v>0</v>
       </c>
       <c r="L136" s="2">
@@ -21257,7 +21257,7 @@
       <c r="J137" s="2">
         <v>0</v>
       </c>
-      <c r="K137" s="2">
+      <c r="K137" s="1">
         <v>0</v>
       </c>
       <c r="L137" s="2">
@@ -21307,7 +21307,7 @@
       <c r="J138" s="2">
         <v>0</v>
       </c>
-      <c r="K138" s="2">
+      <c r="K138" s="1">
         <v>0</v>
       </c>
       <c r="L138" s="2">
@@ -21357,7 +21357,7 @@
       <c r="J139" s="2">
         <v>0</v>
       </c>
-      <c r="K139" s="2">
+      <c r="K139" s="1">
         <v>0</v>
       </c>
       <c r="L139" s="2">
@@ -21407,7 +21407,7 @@
       <c r="J140" s="2">
         <v>0</v>
       </c>
-      <c r="K140" s="2">
+      <c r="K140" s="1">
         <v>0</v>
       </c>
       <c r="L140" s="2">
@@ -21417,7 +21417,7 @@
         <v>0</v>
       </c>
       <c r="N140" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O140" s="9">
         <v>1</v>
@@ -21457,7 +21457,7 @@
       <c r="J141" s="2">
         <v>0</v>
       </c>
-      <c r="K141" s="2">
+      <c r="K141" s="1">
         <v>0</v>
       </c>
       <c r="L141" s="2" t="s">
@@ -21467,7 +21467,7 @@
         <v>0</v>
       </c>
       <c r="N141" s="2">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="O141" s="9">
         <v>1</v>
@@ -21507,7 +21507,7 @@
       <c r="J142" s="2">
         <v>0</v>
       </c>
-      <c r="K142" s="2">
+      <c r="K142" s="1">
         <v>0</v>
       </c>
       <c r="L142" s="2">
@@ -21517,7 +21517,7 @@
         <v>0</v>
       </c>
       <c r="N142" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O142" s="9">
         <v>1</v>
@@ -21557,7 +21557,7 @@
       <c r="J143" s="2">
         <v>0</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K143" s="1">
         <v>0</v>
       </c>
       <c r="L143" s="2">
@@ -21607,7 +21607,7 @@
       <c r="J144" s="2">
         <v>0</v>
       </c>
-      <c r="K144" s="2">
+      <c r="K144" s="1">
         <v>0</v>
       </c>
       <c r="L144" s="2">
@@ -21657,7 +21657,7 @@
       <c r="J145" s="2">
         <v>0</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K145" s="1">
         <v>0</v>
       </c>
       <c r="L145" s="2">
@@ -21707,7 +21707,7 @@
       <c r="J146" s="2">
         <v>0</v>
       </c>
-      <c r="K146" s="2">
+      <c r="K146" s="1">
         <v>0</v>
       </c>
       <c r="L146" s="2">
@@ -21757,7 +21757,7 @@
       <c r="J147" s="2">
         <v>0</v>
       </c>
-      <c r="K147" s="2">
+      <c r="K147" s="1">
         <v>0</v>
       </c>
       <c r="L147" s="2">
@@ -21807,7 +21807,7 @@
       <c r="J148" s="2">
         <v>0</v>
       </c>
-      <c r="K148" s="2">
+      <c r="K148" s="1">
         <v>0</v>
       </c>
       <c r="L148" s="2">
@@ -21857,7 +21857,7 @@
       <c r="J149" s="2">
         <v>0</v>
       </c>
-      <c r="K149" s="2">
+      <c r="K149" s="1">
         <v>0</v>
       </c>
       <c r="L149" s="2">
@@ -21905,9 +21905,9 @@
         <v>1</v>
       </c>
       <c r="J150" s="2">
-        <v>0</v>
-      </c>
-      <c r="K150" s="2">
+        <v>1</v>
+      </c>
+      <c r="K150" s="1">
         <v>0</v>
       </c>
       <c r="L150" s="2">
@@ -21957,7 +21957,7 @@
       <c r="J151" s="2">
         <v>0</v>
       </c>
-      <c r="K151" s="2">
+      <c r="K151" s="1">
         <v>0</v>
       </c>
       <c r="L151" s="2">
@@ -22005,9 +22005,9 @@
         <v>1</v>
       </c>
       <c r="J152" s="2">
-        <v>0</v>
-      </c>
-      <c r="K152" s="2">
+        <v>1</v>
+      </c>
+      <c r="K152" s="1">
         <v>0</v>
       </c>
       <c r="L152" s="2">

--- a/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
+++ b/TrainSystem/src/Modules/TrackModel/Track Layout/RedGreenLinesTrackLayout.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7650" yWindow="0" windowWidth="16170" windowHeight="7965"/>
+    <workbookView xWindow="8685" yWindow="0" windowWidth="16170" windowHeight="7965" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Green Line" sheetId="1" r:id="rId1"/>
@@ -1509,7 +1509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:P154"/>
     </sheetView>
@@ -9240,9 +9240,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P154"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N83" sqref="N83"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:P79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9386,7 +9386,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="2">
         <v>0</v>
@@ -9786,7 +9786,7 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="2">
         <v>0</v>
@@ -9836,7 +9836,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="2">
         <v>0</v>
@@ -10086,7 +10086,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="2">
         <v>0</v>
@@ -10136,7 +10136,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="2">
         <v>0</v>
@@ -10736,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" s="2">
         <v>0</v>
@@ -10886,7 +10886,7 @@
         <v>0</v>
       </c>
       <c r="J33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="2">
         <v>0</v>
@@ -10936,7 +10936,7 @@
         <v>0</v>
       </c>
       <c r="J34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="2">
         <v>0</v>
@@ -11236,7 +11236,7 @@
         <v>0</v>
       </c>
       <c r="J40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="2">
         <v>0</v>
@@ -11286,7 +11286,7 @@
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="2">
         <v>0</v>
@@ -11436,7 +11436,7 @@
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="2">
         <v>0</v>
@@ -11486,7 +11486,7 @@
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="2">
         <v>0</v>
@@ -11936,7 +11936,7 @@
         <v>0</v>
       </c>
       <c r="J54" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K54" s="2">
         <v>0</v>
@@ -11986,7 +11986,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K55" s="2">
         <v>0</v>
@@ -12636,7 +12636,7 @@
         <v>0</v>
       </c>
       <c r="J68" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68" s="2">
         <v>0</v>
@@ -12686,7 +12686,7 @@
         <v>0</v>
       </c>
       <c r="J69" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69" s="2">
         <v>0</v>
@@ -12886,7 +12886,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73" s="2">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>0</v>
       </c>
       <c r="J74" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74" s="2">
         <v>0</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K78" s="2">
         <v>0</v>
@@ -13186,7 +13186,7 @@
         <v>0</v>
       </c>
       <c r="J79" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K79" s="2">
         <v>0</v>
@@ -22035,8 +22035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:P77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22074,7 +22074,7 @@
         <v>0</v>
       </c>
       <c r="J1" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K1" s="2">
         <v>0</v>
@@ -22086,7 +22086,7 @@
         <v>88</v>
       </c>
       <c r="N1" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O1" s="2">
         <v>0</v>
@@ -22336,7 +22336,7 @@
         <v>0</v>
       </c>
       <c r="N6" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O6" s="2">
         <v>0</v>
@@ -22389,7 +22389,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="P7" s="12" t="s">
         <v>299</v>
@@ -22436,7 +22436,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O8" s="2">
         <v>0</v>
@@ -22474,7 +22474,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
@@ -22524,7 +22524,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
         <v>0</v>
@@ -22774,7 +22774,7 @@
         <v>0</v>
       </c>
       <c r="J15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="2">
         <v>0</v>
@@ -22786,7 +22786,7 @@
         <v>86</v>
       </c>
       <c r="N15" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O15" s="2">
         <v>0</v>
@@ -22824,7 +22824,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="2">
         <v>0</v>
@@ -22839,7 +22839,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="P16" s="12" t="s">
         <v>108</v>
@@ -22886,7 +22886,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="O17" s="2">
         <v>0</v>
@@ -23036,7 +23036,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O20" s="2">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P21" s="12" t="s">
         <v>308</v>
@@ -23136,7 +23136,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O22" s="2">
         <v>0</v>
@@ -23236,7 +23236,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O24" s="2">
         <v>1</v>
@@ -23289,7 +23289,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="2">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="P25" s="12" t="s">
         <v>114</v>
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="N26" s="2">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="O26" s="2">
         <v>1</v>
@@ -23374,7 +23374,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="2">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="2">
         <v>0</v>
@@ -23574,7 +23574,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="2">
         <v>0</v>
@@ -23624,7 +23624,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="2">
         <v>0</v>
@@ -23736,7 +23736,7 @@
         <v>0</v>
       </c>
       <c r="N34" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O34" s="2">
         <v>1</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="P35" s="12" t="s">
         <v>124</v>
@@ -23836,7 +23836,7 @@
         <v>0</v>
       </c>
       <c r="N36" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="O36" s="2">
         <v>1</v>
@@ -23924,7 +23924,7 @@
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" s="2">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="J39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K39" s="2">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" s="2">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" s="2">
         <v>0</v>
@@ -24236,7 +24236,7 @@
         <v>0</v>
       </c>
       <c r="N44" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O44" s="2">
         <v>1</v>
@@ -24289,7 +24289,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="2">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="P45" s="12" t="s">
         <v>134</v>
@@ -24336,7 +24336,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="O46" s="2">
         <v>1</v>
@@ -24386,7 +24386,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O47" s="2">
         <v>0</v>
@@ -24439,7 +24439,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="P48" s="12" t="s">
         <v>313</v>
@@ -24486,7 +24486,7 @@
         <v>0</v>
       </c>
       <c r="N49" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="O49" s="2">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="2">
         <v>0</v>
@@ -24674,7 +24674,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="2">
         <v>0</v>
@@ -24986,7 +24986,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O59" s="2">
         <v>0</v>
@@ -25039,7 +25039,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="P60" s="12" t="s">
         <v>325</v>
@@ -25086,7 +25086,7 @@
         <v>0</v>
       </c>
       <c r="N61" s="2">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="O61" s="2">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K66" s="2">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="J67" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67" s="2">
         <v>0</v>
@@ -25574,7 +25574,7 @@
         <v>0</v>
       </c>
       <c r="J71" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K71" s="2">
         <v>0</v>
@@ -25624,7 +25624,7 @@
         <v>0</v>
       </c>
       <c r="J72" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72" s="2">
         <v>0</v>
@@ -25824,7 +25824,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="2">
         <v>0</v>
@@ -25874,7 +25874,7 @@
         <v>0</v>
       </c>
       <c r="J77" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77" s="2">
         <v>0</v>
